--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="11685" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="11685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja5" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
   <si>
     <t>FECHA</t>
   </si>
@@ -106,18 +106,12 @@
     <t>Frutas y VERDURAS</t>
   </si>
   <si>
-    <t>jitomate,jalapeño,cebolla,papa,zanahoria,tomate,serrano,tampico.--ajo,poblano-limon-papaya-lechuga</t>
-  </si>
-  <si>
     <t>PAN--TOSTADAS-Y Pan molido-bimbo-tortillas</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>FRUTAS Y VERDURAS</t>
-  </si>
-  <si>
     <t>ELOTES-PAPAYAS</t>
   </si>
   <si>
@@ -164,6 +158,75 @@
   </si>
   <si>
     <t># 02</t>
+  </si>
+  <si>
+    <t>26-Ago-23  al  01-Sept-23</t>
+  </si>
+  <si>
+    <t>yogurt</t>
+  </si>
+  <si>
+    <t>HUEVO,  Y CHILES SECOS-Ajonjoli, Cacahuate</t>
+  </si>
+  <si>
+    <t>AGUA BONAFONT</t>
+  </si>
+  <si>
+    <t>epazote,cilantro,telimon,manzanilla,oregano,</t>
+  </si>
+  <si>
+    <t>sandia,manzana-guayaba-naranja</t>
+  </si>
+  <si>
+    <t>PAN DULCE---bimbo-pan molido</t>
+  </si>
+  <si>
+    <t>AGUA BONFONT</t>
+  </si>
+  <si>
+    <t>Jitomate, calabaza, poblano, papa, jalapeño, cebolla, tomate, serrano, limon-lechugas brocoli-poro-nopal-chicharo-chayote-ejote-ajo-poblano-pepino-limon</t>
+  </si>
+  <si>
+    <t>Jamon amricano-molida mixta-bistec-queso--retazo-pollo-papa francesa-longaniza-pollo-codillo-hueso costilla-chuleta ahum-</t>
+  </si>
+  <si>
+    <t>yogurt Yoplait-café-norzuiza-fibras-café legal-tajas-italpasta-atun-hoja mixiote-aceite oliva-hilos mixiote-limpiador horno</t>
+  </si>
+  <si>
+    <t>cilantro, epazote, hiervabuena, cilantro-maiz pozole-telimon-manzanilla-oregano</t>
+  </si>
+  <si>
+    <t>jitomate,jalapeño,cebolla,papa,zanahoria,tomate,serrano,tampico.--ajo,poblano-limon-papaya-lechuga-nopal-brocoli-chicharo-calabaza-tampico</t>
+  </si>
+  <si>
+    <t>Tostadas--tortillas- masa</t>
+  </si>
+  <si>
+    <t>Brocoli,poro,nopal,jitomate,papa,chicharo,chayote,calabaza,ejote,cebolla,ajo,poblano,tomate,pepino,limon-melones-lechuga</t>
+  </si>
+  <si>
+    <t>Elote, leche,arroz,crema-vasos-tapas-cuchara--queso-gouda</t>
+  </si>
+  <si>
+    <t>Carne molida mixta-costilla-chuleta ahu-jamon-pollo-milanesa</t>
+  </si>
+  <si>
+    <t>Aceite, leche, arroz, sopas, elote lata-margarina-bolsa-escobas-queso-gouda</t>
+  </si>
+  <si>
+    <t>Carne molida mixta-jamon-queso-bisteck pco-retazo-pollo-papas francesa-costilla-chuleta ahum-milanesa</t>
+  </si>
+  <si>
+    <t>oregano,tomillo,chiles tampico-güero-cacahuate--</t>
+  </si>
+  <si>
+    <t>molida mixta-costilla-jamon-chuleta ahum-pierna-muslo-milanesa</t>
+  </si>
+  <si>
+    <t>café legal-rajas-italpasta-Norzuisa tarro-ajax-atun-leche-crema-hoja mixiote-aceite oliva--hilo mixiote, limpiador horno-queso -morron</t>
+  </si>
+  <si>
+    <t>Nopal-tomate-brocoli-jitomate-chicharo-papa-poblano-zanahoria-charote-calabaza-cebolla-ajo-morron</t>
   </si>
 </sst>
 </file>
@@ -174,7 +237,7 @@
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,8 +355,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +403,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -798,23 +883,23 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -824,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -982,51 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1069,9 +1109,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1082,17 +1119,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1404,8 +1513,8 @@
   </sheetPr>
   <dimension ref="B1:Z72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,66 +1527,66 @@
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.5703125" customWidth="1"/>
     <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="95" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="80" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" style="7" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.85546875" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="72" t="s">
+      <c r="C2" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="83"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="100" t="s">
-        <v>44</v>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="85" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="83"/>
+      <c r="I3" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="59"/>
-      <c r="N3" s="89"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="77"/>
+      <c r="N3" s="74"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="117"/>
     </row>
     <row r="4" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -1493,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>3</v>
@@ -1510,23 +1619,25 @@
       <c r="K4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="84"/>
+      <c r="L4" s="99" t="s">
+        <v>46</v>
+      </c>
       <c r="M4" s="38"/>
-      <c r="N4" s="97"/>
+      <c r="N4" s="82"/>
       <c r="O4" s="36" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="79" t="s">
+      <c r="Q4" s="64" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="S4" s="54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T4" s="14" t="s">
         <v>3</v>
@@ -1535,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="V4" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W4" s="57" t="s">
         <v>8</v>
@@ -1544,716 +1655,772 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
-        <v>20</v>
+    <row r="5" spans="2:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-    </row>
-    <row r="6" spans="2:24" ht="36" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
-        <v>20</v>
+      <c r="D5" s="72">
+        <f>170</f>
+        <v>170</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72">
+        <f>725+922+1369+794+1333</f>
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67">
+        <f>636+788+1081+941+1337</f>
+        <v>4783</v>
+      </c>
+      <c r="L6" s="67"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72">
+        <f>1900+239+144+218+805+355+251.5+250+287</f>
+        <v>4449.5</v>
+      </c>
+      <c r="X6" s="67"/>
+    </row>
+    <row r="7" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67">
+        <f>51+68+68+140+84+90+68</f>
+        <v>569</v>
+      </c>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="72">
+        <f>117+540+250</f>
+        <v>907</v>
+      </c>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="67"/>
+    </row>
+    <row r="8" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67">
+        <v>369</v>
+      </c>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67">
+        <f>403</f>
+        <v>403</v>
+      </c>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72">
+        <v>403</v>
+      </c>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="67"/>
+    </row>
+    <row r="9" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72">
+        <f>38+42+9</f>
+        <v>89</v>
+      </c>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="67"/>
+    </row>
+    <row r="10" spans="2:24" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="82"/>
-    </row>
-    <row r="7" spans="2:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="82"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="82"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="82"/>
-    </row>
-    <row r="10" spans="2:24" ht="36" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="82"/>
-    </row>
-    <row r="11" spans="2:24" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
-        <v>20</v>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72">
+        <v>58</v>
+      </c>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="67"/>
+    </row>
+    <row r="11" spans="2:24" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="82"/>
-    </row>
-    <row r="12" spans="2:24" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="94">
+        <f>1511+444+20+287+262.5</f>
+        <v>2524.5</v>
+      </c>
+      <c r="K11" s="67"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72">
+        <f>50+45+14+2300+35</f>
+        <v>2444</v>
+      </c>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="67"/>
+    </row>
+    <row r="12" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67">
+        <f>127</f>
+        <v>127</v>
+      </c>
+      <c r="K12" s="67"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="82"/>
-    </row>
-    <row r="13" spans="2:24" ht="36" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
-        <v>20</v>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="67"/>
+    </row>
+    <row r="13" spans="2:24" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="82"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
-        <v>20</v>
+        <v>57</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67">
+        <f>40+70+2070+30+54</f>
+        <v>2264</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72">
+        <f>700+700+710+2258+140</f>
+        <v>4508</v>
+      </c>
+      <c r="W13" s="72"/>
+      <c r="X13" s="67"/>
+    </row>
+    <row r="14" spans="2:24" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="82"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="82"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72">
+        <f>68+170+170+170+280+221</f>
+        <v>1079</v>
+      </c>
+      <c r="W14" s="72"/>
+      <c r="X14" s="67"/>
+    </row>
+    <row r="15" spans="2:24" ht="24" x14ac:dyDescent="0.25">
+      <c r="B15" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="11">
+        <f>765+243</f>
+        <v>1008</v>
+      </c>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="67"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="82">
-        <v>0</v>
-      </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
+      <c r="D17" s="67">
+        <v>0</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="82">
-        <v>0</v>
-      </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
+      <c r="D18" s="67">
+        <v>0</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="82">
-        <v>0</v>
-      </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
+      <c r="D19" s="67">
+        <v>0</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="82">
-        <v>0</v>
-      </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
+      <c r="D20" s="67">
+        <v>0</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="82">
-        <v>0</v>
-      </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="82">
-        <v>0</v>
-      </c>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
+      <c r="D21" s="67">
+        <v>0</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="67">
+        <v>0</v>
+      </c>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="82">
-        <v>0</v>
-      </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="82">
-        <v>0</v>
-      </c>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
+      <c r="D22" s="67">
+        <v>0</v>
+      </c>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="67">
+        <v>0</v>
+      </c>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="82">
-        <v>0</v>
-      </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="82">
-        <v>0</v>
-      </c>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
+      <c r="D23" s="67">
+        <v>0</v>
+      </c>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="67">
+        <v>0</v>
+      </c>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="82">
-        <v>0</v>
-      </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="82">
-        <v>0</v>
-      </c>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
+      <c r="D24" s="67">
+        <v>0</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="67">
+        <v>0</v>
+      </c>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="82">
-        <v>0</v>
-      </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="82">
-        <v>0</v>
-      </c>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
+      <c r="D25" s="67">
+        <v>0</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="67">
+        <v>0</v>
+      </c>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="82">
-        <v>0</v>
-      </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="82">
-        <v>0</v>
-      </c>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
+      <c r="D26" s="67">
+        <v>0</v>
+      </c>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="67">
+        <v>0</v>
+      </c>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
     </row>
     <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="88">
-        <v>0</v>
-      </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
+      <c r="D27" s="73">
+        <v>0</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
       <c r="O27" s="46"/>
       <c r="P27" s="51"/>
-      <c r="Q27" s="88">
-        <v>0</v>
-      </c>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="88"/>
+      <c r="Q27" s="73">
+        <v>0</v>
+      </c>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
     </row>
     <row r="28" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="30">
-        <f t="shared" ref="D28:K28" si="0">SUM(D5:D27)</f>
-        <v>0</v>
+        <f t="shared" ref="D28:L28" si="0">SUM(D5:D27)</f>
+        <v>170</v>
       </c>
       <c r="E28" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="F28" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2264</v>
       </c>
       <c r="G28" s="31">
         <f t="shared" si="0"/>
@@ -2261,57 +2428,60 @@
       </c>
       <c r="H28" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1799</v>
       </c>
       <c r="I28" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2651.5</v>
       </c>
       <c r="K28" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="92"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="89"/>
+        <v>4783</v>
+      </c>
+      <c r="L28" s="100">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="M28" s="75"/>
+      <c r="N28" s="74"/>
       <c r="P28" s="33" t="s">
         <v>18</v>
       </c>
       <c r="Q28" s="21">
         <f>SUM(Q5:Q27)</f>
-        <v>0</v>
+        <v>907</v>
       </c>
       <c r="R28" s="22">
         <f t="shared" ref="R28:X28" si="1">SUM(R5:R27)</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="S28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2444</v>
       </c>
       <c r="T28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="U28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="V28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5587</v>
       </c>
       <c r="W28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4449.5</v>
       </c>
       <c r="X28" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2323,9 +2493,9 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="89"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="74"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -2338,27 +2508,31 @@
     <row r="30" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="64">
-        <f>K28+J28+I28+H28+G28+F28+E28+D28</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="66"/>
+      <c r="F30" s="120">
+        <f>K28+J28+I28+H28+G28+F28+E28+D28+L28</f>
+        <v>13447.5</v>
+      </c>
+      <c r="G30" s="108"/>
+      <c r="H30" s="109"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="J30" s="5">
+        <v>13447.5</v>
+      </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="89"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="74"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="78">
+      <c r="S30" s="112">
         <f>Q28+R28+S28+T28+U28+V28+W28+X28</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="70"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="5"/>
+        <v>19080.5</v>
+      </c>
+      <c r="T30" s="113"/>
+      <c r="U30" s="114"/>
+      <c r="V30" s="5">
+        <v>19080.5</v>
+      </c>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
     </row>
@@ -2370,9 +2544,9 @@
       <c r="H31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="89"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="74"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -2391,9 +2565,9 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="89"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="74"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -2412,9 +2586,9 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="89"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="74"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
@@ -2425,57 +2599,57 @@
       <c r="X33" s="5"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
     </row>
     <row r="36" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="98"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="72" t="s">
+      <c r="C37" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="83"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="100" t="s">
-        <v>43</v>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="119"/>
+      <c r="S37" s="119"/>
+      <c r="T37" s="119"/>
+      <c r="U37" s="119"/>
+      <c r="V37" s="119"/>
+      <c r="W37" s="119"/>
+      <c r="X37" s="85" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="76"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="83"/>
+      <c r="I38" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="116"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="68"/>
       <c r="M38" s="59"/>
-      <c r="N38" s="89"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="77"/>
+      <c r="N38" s="74"/>
+      <c r="W38" s="116"/>
+      <c r="X38" s="117"/>
     </row>
     <row r="39" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
@@ -2491,7 +2665,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="56" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>3</v>
@@ -2508,23 +2682,23 @@
       <c r="K39" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="84"/>
+      <c r="L39" s="69"/>
       <c r="M39" s="38"/>
-      <c r="N39" s="97"/>
+      <c r="N39" s="82"/>
       <c r="O39" s="36" t="s">
         <v>0</v>
       </c>
       <c r="P39" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Q39" s="79" t="s">
+      <c r="Q39" s="64" t="s">
         <v>2</v>
       </c>
       <c r="R39" s="19" t="s">
         <v>16</v>
       </c>
       <c r="S39" s="54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T39" s="14" t="s">
         <v>3</v>
@@ -2533,7 +2707,7 @@
         <v>4</v>
       </c>
       <c r="V39" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W39" s="57" t="s">
         <v>8</v>
@@ -2549,127 +2723,127 @@
       <c r="C40" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="87">
+      <c r="D40" s="72">
         <v>160</v>
       </c>
-      <c r="E40" s="87">
-        <v>0</v>
-      </c>
-      <c r="F40" s="87">
-        <v>0</v>
-      </c>
-      <c r="G40" s="87">
-        <v>0</v>
-      </c>
-      <c r="H40" s="87">
-        <v>0</v>
-      </c>
-      <c r="I40" s="87">
-        <v>0</v>
-      </c>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87">
-        <v>0</v>
-      </c>
-      <c r="L40" s="85"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
+      <c r="E40" s="72">
+        <v>0</v>
+      </c>
+      <c r="F40" s="72">
+        <v>0</v>
+      </c>
+      <c r="G40" s="72">
+        <v>0</v>
+      </c>
+      <c r="H40" s="72">
+        <v>0</v>
+      </c>
+      <c r="I40" s="72">
+        <v>0</v>
+      </c>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72">
+        <v>0</v>
+      </c>
+      <c r="L40" s="70"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
       <c r="O40" s="52" t="s">
         <v>20</v>
       </c>
       <c r="P40" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q40" s="87">
-        <v>0</v>
-      </c>
-      <c r="R40" s="87">
-        <v>0</v>
-      </c>
-      <c r="S40" s="87">
-        <v>0</v>
-      </c>
-      <c r="T40" s="87">
-        <v>0</v>
-      </c>
-      <c r="U40" s="87">
-        <v>0</v>
-      </c>
-      <c r="V40" s="87">
-        <v>0</v>
-      </c>
-      <c r="W40" s="87">
-        <v>0</v>
-      </c>
-      <c r="X40" s="87">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="72">
+        <v>0</v>
+      </c>
+      <c r="R40" s="72">
+        <v>0</v>
+      </c>
+      <c r="S40" s="72">
+        <v>0</v>
+      </c>
+      <c r="T40" s="72">
+        <v>0</v>
+      </c>
+      <c r="U40" s="72">
+        <v>0</v>
+      </c>
+      <c r="V40" s="72">
+        <v>0</v>
+      </c>
+      <c r="W40" s="72">
+        <v>0</v>
+      </c>
+      <c r="X40" s="72">
         <f>109+1973+1400+1641+70+756+830</f>
         <v>6779</v>
       </c>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="80"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
     </row>
     <row r="41" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="82">
-        <v>0</v>
-      </c>
-      <c r="E41" s="82">
-        <v>0</v>
-      </c>
-      <c r="F41" s="82">
-        <v>0</v>
-      </c>
-      <c r="G41" s="82">
-        <v>0</v>
-      </c>
-      <c r="H41" s="82">
-        <v>0</v>
-      </c>
-      <c r="I41" s="82">
-        <v>0</v>
-      </c>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82">
+        <v>29</v>
+      </c>
+      <c r="D41" s="67">
+        <v>0</v>
+      </c>
+      <c r="E41" s="67">
+        <v>0</v>
+      </c>
+      <c r="F41" s="67">
+        <v>0</v>
+      </c>
+      <c r="G41" s="67">
+        <v>0</v>
+      </c>
+      <c r="H41" s="67">
+        <v>0</v>
+      </c>
+      <c r="I41" s="67">
+        <v>0</v>
+      </c>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67">
         <f>542+680+1493+1388+806+1177</f>
         <v>6086</v>
       </c>
-      <c r="L41" s="86"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="89"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
       <c r="O41" s="52" t="s">
         <v>20</v>
       </c>
       <c r="P41" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="Q41" s="87">
-        <v>0</v>
-      </c>
-      <c r="R41" s="87">
-        <v>0</v>
-      </c>
-      <c r="S41" s="87">
-        <v>0</v>
-      </c>
-      <c r="T41" s="87">
-        <v>0</v>
-      </c>
-      <c r="U41" s="87">
-        <v>0</v>
-      </c>
-      <c r="V41" s="87">
-        <v>0</v>
-      </c>
-      <c r="W41" s="87">
+      <c r="Q41" s="72">
+        <v>0</v>
+      </c>
+      <c r="R41" s="72">
+        <v>0</v>
+      </c>
+      <c r="S41" s="72">
+        <v>0</v>
+      </c>
+      <c r="T41" s="72">
+        <v>0</v>
+      </c>
+      <c r="U41" s="72">
+        <v>0</v>
+      </c>
+      <c r="V41" s="72">
+        <v>0</v>
+      </c>
+      <c r="W41" s="72">
         <f>127+896+100</f>
         <v>1123</v>
       </c>
-      <c r="X41" s="82">
+      <c r="X41" s="67">
         <v>0</v>
       </c>
     </row>
@@ -2680,61 +2854,61 @@
       <c r="C42" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="82">
-        <v>0</v>
-      </c>
-      <c r="E42" s="82">
-        <v>0</v>
-      </c>
-      <c r="F42" s="82">
-        <v>0</v>
-      </c>
-      <c r="G42" s="82">
-        <v>0</v>
-      </c>
-      <c r="H42" s="82">
+      <c r="D42" s="67">
+        <v>0</v>
+      </c>
+      <c r="E42" s="67">
+        <v>0</v>
+      </c>
+      <c r="F42" s="67">
+        <v>0</v>
+      </c>
+      <c r="G42" s="67">
+        <v>0</v>
+      </c>
+      <c r="H42" s="67">
         <f>78+66+102+68+102+51+51</f>
         <v>518</v>
       </c>
-      <c r="I42" s="82">
-        <v>0</v>
-      </c>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82">
-        <v>0</v>
-      </c>
-      <c r="L42" s="85"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
+      <c r="I42" s="67">
+        <v>0</v>
+      </c>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67">
+        <v>0</v>
+      </c>
+      <c r="L42" s="70"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
       <c r="O42" s="52" t="s">
         <v>20</v>
       </c>
       <c r="P42" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q42" s="87">
-        <f>144+287+180+338</f>
-        <v>949</v>
-      </c>
-      <c r="R42" s="87">
-        <v>0</v>
-      </c>
-      <c r="S42" s="87">
-        <v>0</v>
-      </c>
-      <c r="T42" s="87">
-        <v>0</v>
-      </c>
-      <c r="U42" s="87">
-        <v>0</v>
-      </c>
-      <c r="V42" s="87">
-        <v>0</v>
-      </c>
-      <c r="W42" s="87">
-        <v>0</v>
-      </c>
-      <c r="X42" s="82">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="72">
+        <f>144+287+180</f>
+        <v>611</v>
+      </c>
+      <c r="R42" s="72">
+        <v>0</v>
+      </c>
+      <c r="S42" s="72">
+        <v>0</v>
+      </c>
+      <c r="T42" s="72">
+        <v>0</v>
+      </c>
+      <c r="U42" s="72">
+        <v>0</v>
+      </c>
+      <c r="V42" s="72">
+        <v>0</v>
+      </c>
+      <c r="W42" s="72">
+        <v>0</v>
+      </c>
+      <c r="X42" s="67">
         <v>0</v>
       </c>
     </row>
@@ -2745,60 +2919,60 @@
       <c r="C43" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="82">
-        <v>0</v>
-      </c>
-      <c r="E43" s="82">
+      <c r="D43" s="67">
+        <v>0</v>
+      </c>
+      <c r="E43" s="67">
         <v>123</v>
       </c>
-      <c r="F43" s="82">
-        <v>0</v>
-      </c>
-      <c r="G43" s="82">
-        <v>0</v>
-      </c>
-      <c r="H43" s="82">
-        <v>0</v>
-      </c>
-      <c r="I43" s="82">
+      <c r="F43" s="67">
+        <v>0</v>
+      </c>
+      <c r="G43" s="67">
+        <v>0</v>
+      </c>
+      <c r="H43" s="67">
+        <v>0</v>
+      </c>
+      <c r="I43" s="67">
         <f>391+81</f>
         <v>472</v>
       </c>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82">
-        <v>0</v>
-      </c>
-      <c r="L43" s="85"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67">
+        <v>0</v>
+      </c>
+      <c r="L43" s="70"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
       <c r="O43" s="52" t="s">
         <v>20</v>
       </c>
       <c r="P43" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q43" s="87">
-        <v>0</v>
-      </c>
-      <c r="R43" s="87">
-        <v>0</v>
-      </c>
-      <c r="S43" s="87">
-        <v>0</v>
-      </c>
-      <c r="T43" s="87">
-        <v>0</v>
-      </c>
-      <c r="U43" s="87">
+      <c r="Q43" s="72">
+        <v>0</v>
+      </c>
+      <c r="R43" s="72">
+        <v>0</v>
+      </c>
+      <c r="S43" s="72">
+        <v>0</v>
+      </c>
+      <c r="T43" s="72">
+        <v>0</v>
+      </c>
+      <c r="U43" s="72">
         <v>779</v>
       </c>
-      <c r="V43" s="87">
-        <v>0</v>
-      </c>
-      <c r="W43" s="87">
-        <v>0</v>
-      </c>
-      <c r="X43" s="82">
+      <c r="V43" s="72">
+        <v>0</v>
+      </c>
+      <c r="W43" s="72">
+        <v>0</v>
+      </c>
+      <c r="X43" s="67">
         <v>0</v>
       </c>
     </row>
@@ -2807,63 +2981,63 @@
         <v>20</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="82">
+        <v>27</v>
+      </c>
+      <c r="D44" s="67">
         <v>242</v>
       </c>
-      <c r="E44" s="82">
-        <v>0</v>
-      </c>
-      <c r="F44" s="82">
+      <c r="E44" s="67">
+        <v>0</v>
+      </c>
+      <c r="F44" s="67">
         <f>60</f>
         <v>60</v>
       </c>
-      <c r="G44" s="82">
-        <v>0</v>
-      </c>
-      <c r="H44" s="82">
-        <v>0</v>
-      </c>
-      <c r="I44" s="82">
-        <v>0</v>
-      </c>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82">
-        <v>0</v>
-      </c>
-      <c r="L44" s="85"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
+      <c r="G44" s="67">
+        <v>0</v>
+      </c>
+      <c r="H44" s="67">
+        <v>0</v>
+      </c>
+      <c r="I44" s="67">
+        <v>0</v>
+      </c>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67">
+        <v>0</v>
+      </c>
+      <c r="L44" s="70"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
       <c r="O44" s="52" t="s">
         <v>20</v>
       </c>
       <c r="P44" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="Q44" s="87">
-        <v>0</v>
-      </c>
-      <c r="R44" s="87">
-        <v>0</v>
-      </c>
-      <c r="S44" s="87">
-        <v>0</v>
-      </c>
-      <c r="T44" s="87">
-        <v>0</v>
-      </c>
-      <c r="U44" s="87">
-        <v>0</v>
-      </c>
-      <c r="V44" s="87">
-        <v>0</v>
-      </c>
-      <c r="W44" s="87">
+      <c r="Q44" s="72">
+        <v>0</v>
+      </c>
+      <c r="R44" s="72">
+        <v>0</v>
+      </c>
+      <c r="S44" s="72">
+        <v>0</v>
+      </c>
+      <c r="T44" s="72">
+        <v>0</v>
+      </c>
+      <c r="U44" s="72">
+        <v>0</v>
+      </c>
+      <c r="V44" s="72">
+        <v>0</v>
+      </c>
+      <c r="W44" s="72">
         <f>327+60</f>
         <v>387</v>
       </c>
-      <c r="X44" s="82">
+      <c r="X44" s="67">
         <v>0</v>
       </c>
     </row>
@@ -2872,63 +3046,63 @@
         <v>20</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="82">
-        <v>0</v>
-      </c>
-      <c r="E45" s="82">
-        <v>0</v>
-      </c>
-      <c r="F45" s="82">
-        <v>0</v>
-      </c>
-      <c r="G45" s="82">
+        <v>31</v>
+      </c>
+      <c r="D45" s="67">
+        <v>0</v>
+      </c>
+      <c r="E45" s="67">
+        <v>0</v>
+      </c>
+      <c r="F45" s="67">
+        <v>0</v>
+      </c>
+      <c r="G45" s="67">
         <f>40+45</f>
         <v>85</v>
       </c>
-      <c r="H45" s="82">
-        <v>0</v>
-      </c>
-      <c r="I45" s="82">
-        <v>0</v>
-      </c>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82">
-        <v>0</v>
-      </c>
-      <c r="L45" s="85"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
+      <c r="H45" s="67">
+        <v>0</v>
+      </c>
+      <c r="I45" s="67">
+        <v>0</v>
+      </c>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67">
+        <v>0</v>
+      </c>
+      <c r="L45" s="70"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
       <c r="O45" s="52" t="s">
         <v>20</v>
       </c>
       <c r="P45" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q45" s="87">
-        <v>0</v>
-      </c>
-      <c r="R45" s="87">
-        <v>0</v>
-      </c>
-      <c r="S45" s="87">
-        <v>0</v>
-      </c>
-      <c r="T45" s="87">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="72">
+        <v>0</v>
+      </c>
+      <c r="R45" s="72">
+        <v>0</v>
+      </c>
+      <c r="S45" s="72">
+        <v>0</v>
+      </c>
+      <c r="T45" s="72">
         <f>90+10+234</f>
         <v>334</v>
       </c>
-      <c r="U45" s="87">
-        <v>0</v>
-      </c>
-      <c r="V45" s="87">
-        <v>0</v>
-      </c>
-      <c r="W45" s="87">
-        <v>0</v>
-      </c>
-      <c r="X45" s="82">
+      <c r="U45" s="72">
+        <v>0</v>
+      </c>
+      <c r="V45" s="72">
+        <v>0</v>
+      </c>
+      <c r="W45" s="72">
+        <v>0</v>
+      </c>
+      <c r="X45" s="67">
         <v>0</v>
       </c>
     </row>
@@ -2937,65 +3111,65 @@
         <v>20</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="82">
-        <v>0</v>
-      </c>
-      <c r="E46" s="82">
-        <v>0</v>
-      </c>
-      <c r="F46" s="82">
-        <v>0</v>
-      </c>
-      <c r="G46" s="82">
-        <v>0</v>
-      </c>
-      <c r="H46" s="82">
-        <v>0</v>
-      </c>
-      <c r="I46" s="82">
-        <v>0</v>
-      </c>
-      <c r="J46" s="82">
+        <v>28</v>
+      </c>
+      <c r="D46" s="67">
+        <v>0</v>
+      </c>
+      <c r="E46" s="67">
+        <v>0</v>
+      </c>
+      <c r="F46" s="67">
+        <v>0</v>
+      </c>
+      <c r="G46" s="67">
+        <v>0</v>
+      </c>
+      <c r="H46" s="67">
+        <v>0</v>
+      </c>
+      <c r="I46" s="67">
+        <v>0</v>
+      </c>
+      <c r="J46" s="67">
         <f>1013+1701</f>
         <v>2714</v>
       </c>
-      <c r="K46" s="82">
-        <v>0</v>
-      </c>
-      <c r="L46" s="85"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
+      <c r="K46" s="67">
+        <v>0</v>
+      </c>
+      <c r="L46" s="70"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
       <c r="O46" s="52" t="s">
         <v>20</v>
       </c>
       <c r="P46" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q46" s="87">
-        <v>0</v>
-      </c>
-      <c r="R46" s="87">
-        <v>0</v>
-      </c>
-      <c r="S46" s="87">
-        <f>2200+118+30+82+36</f>
-        <v>2466</v>
-      </c>
-      <c r="T46" s="87">
-        <v>0</v>
-      </c>
-      <c r="U46" s="87">
-        <v>0</v>
-      </c>
-      <c r="V46" s="87">
-        <v>0</v>
-      </c>
-      <c r="W46" s="87">
-        <v>0</v>
-      </c>
-      <c r="X46" s="82">
+        <v>39</v>
+      </c>
+      <c r="Q46" s="72">
+        <v>0</v>
+      </c>
+      <c r="R46" s="72">
+        <v>0</v>
+      </c>
+      <c r="S46" s="72">
+        <f>2200+118+30+82+36+338</f>
+        <v>2804</v>
+      </c>
+      <c r="T46" s="72">
+        <v>0</v>
+      </c>
+      <c r="U46" s="72">
+        <v>0</v>
+      </c>
+      <c r="V46" s="72">
+        <v>0</v>
+      </c>
+      <c r="W46" s="72">
+        <v>0</v>
+      </c>
+      <c r="X46" s="67">
         <v>0</v>
       </c>
     </row>
@@ -3006,61 +3180,61 @@
       <c r="C47" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="82">
-        <v>0</v>
-      </c>
-      <c r="E47" s="82">
+      <c r="D47" s="67">
+        <v>0</v>
+      </c>
+      <c r="E47" s="67">
         <v>180</v>
       </c>
-      <c r="F47" s="82">
-        <v>0</v>
-      </c>
-      <c r="G47" s="82">
-        <v>0</v>
-      </c>
-      <c r="H47" s="82">
-        <v>0</v>
-      </c>
-      <c r="I47" s="82">
-        <v>0</v>
-      </c>
-      <c r="J47" s="82">
-        <v>0</v>
-      </c>
-      <c r="K47" s="82">
-        <v>0</v>
-      </c>
-      <c r="L47" s="85"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="89"/>
+      <c r="F47" s="67">
+        <v>0</v>
+      </c>
+      <c r="G47" s="67">
+        <v>0</v>
+      </c>
+      <c r="H47" s="67">
+        <v>0</v>
+      </c>
+      <c r="I47" s="67">
+        <v>0</v>
+      </c>
+      <c r="J47" s="67">
+        <v>0</v>
+      </c>
+      <c r="K47" s="67">
+        <v>0</v>
+      </c>
+      <c r="L47" s="70"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
       <c r="O47" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="81" t="s">
+      <c r="P47" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q47" s="87">
-        <v>0</v>
-      </c>
-      <c r="R47" s="87">
+      <c r="Q47" s="72">
+        <v>0</v>
+      </c>
+      <c r="R47" s="72">
         <v>1221</v>
       </c>
-      <c r="S47" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="T47" s="87">
-        <v>0</v>
-      </c>
-      <c r="U47" s="87">
-        <v>0</v>
-      </c>
-      <c r="V47" s="87">
-        <v>0</v>
-      </c>
-      <c r="W47" s="87">
-        <v>0</v>
-      </c>
-      <c r="X47" s="82">
+      <c r="S47" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="T47" s="72">
+        <v>0</v>
+      </c>
+      <c r="U47" s="72">
+        <v>0</v>
+      </c>
+      <c r="V47" s="72">
+        <v>0</v>
+      </c>
+      <c r="W47" s="72">
+        <v>0</v>
+      </c>
+      <c r="X47" s="67">
         <v>0</v>
       </c>
     </row>
@@ -3069,65 +3243,65 @@
         <v>20</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="82">
-        <v>0</v>
-      </c>
-      <c r="E48" s="82">
-        <v>0</v>
-      </c>
-      <c r="F48" s="82">
+        <v>30</v>
+      </c>
+      <c r="D48" s="67">
+        <v>0</v>
+      </c>
+      <c r="E48" s="67">
+        <v>0</v>
+      </c>
+      <c r="F48" s="67">
         <f>1638+45+36</f>
         <v>1719</v>
       </c>
-      <c r="G48" s="82">
-        <v>0</v>
-      </c>
-      <c r="H48" s="82">
-        <v>0</v>
-      </c>
-      <c r="I48" s="82">
-        <v>0</v>
-      </c>
-      <c r="J48" s="82">
-        <v>0</v>
-      </c>
-      <c r="K48" s="82">
-        <v>0</v>
-      </c>
-      <c r="L48" s="85"/>
-      <c r="M48" s="89"/>
-      <c r="N48" s="89"/>
+      <c r="G48" s="67">
+        <v>0</v>
+      </c>
+      <c r="H48" s="67">
+        <v>0</v>
+      </c>
+      <c r="I48" s="67">
+        <v>0</v>
+      </c>
+      <c r="J48" s="67">
+        <v>0</v>
+      </c>
+      <c r="K48" s="67">
+        <v>0</v>
+      </c>
+      <c r="L48" s="70"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
       <c r="O48" s="52" t="s">
         <v>20</v>
       </c>
       <c r="P48" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q48" s="87">
-        <v>0</v>
-      </c>
-      <c r="R48" s="87">
-        <v>0</v>
-      </c>
-      <c r="S48" s="87">
-        <v>0</v>
-      </c>
-      <c r="T48" s="87">
-        <v>0</v>
-      </c>
-      <c r="U48" s="87">
-        <v>0</v>
-      </c>
-      <c r="V48" s="87">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="72">
+        <v>0</v>
+      </c>
+      <c r="R48" s="72">
+        <v>0</v>
+      </c>
+      <c r="S48" s="72">
+        <v>0</v>
+      </c>
+      <c r="T48" s="72">
+        <v>0</v>
+      </c>
+      <c r="U48" s="72">
+        <v>0</v>
+      </c>
+      <c r="V48" s="72">
         <f>700+700+3067+710</f>
         <v>5177</v>
       </c>
-      <c r="W48" s="87">
-        <v>0</v>
-      </c>
-      <c r="X48" s="82">
+      <c r="W48" s="72">
+        <v>0</v>
+      </c>
+      <c r="X48" s="67">
         <v>0</v>
       </c>
     </row>
@@ -3138,63 +3312,63 @@
       <c r="C49" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="82">
-        <v>0</v>
-      </c>
-      <c r="E49" s="82">
-        <v>0</v>
-      </c>
-      <c r="F49" s="82">
-        <v>0</v>
-      </c>
-      <c r="G49" s="82">
-        <v>0</v>
-      </c>
-      <c r="H49" s="82">
+      <c r="D49" s="67">
+        <v>0</v>
+      </c>
+      <c r="E49" s="67">
+        <v>0</v>
+      </c>
+      <c r="F49" s="67">
+        <v>0</v>
+      </c>
+      <c r="G49" s="67">
+        <v>0</v>
+      </c>
+      <c r="H49" s="67">
         <f>380+380+460</f>
         <v>1220</v>
       </c>
-      <c r="I49" s="82">
-        <v>0</v>
-      </c>
-      <c r="J49" s="82">
-        <v>0</v>
-      </c>
-      <c r="K49" s="82">
-        <v>0</v>
-      </c>
-      <c r="L49" s="85"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="89"/>
+      <c r="I49" s="67">
+        <v>0</v>
+      </c>
+      <c r="J49" s="67">
+        <v>0</v>
+      </c>
+      <c r="K49" s="67">
+        <v>0</v>
+      </c>
+      <c r="L49" s="70"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
       <c r="O49" s="52" t="s">
         <v>20</v>
       </c>
       <c r="P49" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q49" s="87">
-        <v>0</v>
-      </c>
-      <c r="R49" s="87">
-        <v>0</v>
-      </c>
-      <c r="S49" s="87">
-        <v>0</v>
-      </c>
-      <c r="T49" s="87">
-        <v>0</v>
-      </c>
-      <c r="U49" s="87">
-        <v>0</v>
-      </c>
-      <c r="V49" s="87">
+        <v>34</v>
+      </c>
+      <c r="Q49" s="72">
+        <v>0</v>
+      </c>
+      <c r="R49" s="72">
+        <v>0</v>
+      </c>
+      <c r="S49" s="72">
+        <v>0</v>
+      </c>
+      <c r="T49" s="72">
+        <v>0</v>
+      </c>
+      <c r="U49" s="72">
+        <v>0</v>
+      </c>
+      <c r="V49" s="72">
         <f>170+238+170+153+170+336</f>
         <v>1237</v>
       </c>
-      <c r="W49" s="87">
-        <v>0</v>
-      </c>
-      <c r="X49" s="82">
+      <c r="W49" s="72">
+        <v>0</v>
+      </c>
+      <c r="X49" s="67">
         <v>0</v>
       </c>
     </row>
@@ -3203,395 +3377,395 @@
         <v>20</v>
       </c>
       <c r="C50" s="45"/>
-      <c r="D50" s="82">
-        <v>0</v>
-      </c>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
+      <c r="D50" s="67">
+        <v>0</v>
+      </c>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
       <c r="O50" s="52" t="s">
         <v>20</v>
       </c>
       <c r="P50" s="48"/>
-      <c r="Q50" s="87">
-        <v>0</v>
-      </c>
-      <c r="R50" s="87">
-        <v>0</v>
-      </c>
-      <c r="S50" s="87">
-        <v>0</v>
-      </c>
-      <c r="T50" s="87">
-        <v>0</v>
-      </c>
-      <c r="U50" s="87">
-        <v>0</v>
-      </c>
-      <c r="V50" s="87">
-        <v>0</v>
-      </c>
-      <c r="W50" s="87">
-        <v>0</v>
-      </c>
-      <c r="X50" s="82">
+      <c r="Q50" s="72">
+        <v>0</v>
+      </c>
+      <c r="R50" s="72">
+        <v>0</v>
+      </c>
+      <c r="S50" s="72">
+        <v>0</v>
+      </c>
+      <c r="T50" s="72">
+        <v>0</v>
+      </c>
+      <c r="U50" s="72">
+        <v>0</v>
+      </c>
+      <c r="V50" s="72">
+        <v>0</v>
+      </c>
+      <c r="W50" s="72">
+        <v>0</v>
+      </c>
+      <c r="X50" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="82">
-        <v>0</v>
-      </c>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
+      <c r="D51" s="67">
+        <v>0</v>
+      </c>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
       <c r="O51" s="46"/>
       <c r="P51" s="51"/>
-      <c r="Q51" s="82">
-        <v>0</v>
-      </c>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
+      <c r="Q51" s="67">
+        <v>0</v>
+      </c>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="67"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="67"/>
     </row>
     <row r="52" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="82">
-        <v>0</v>
-      </c>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
+      <c r="D52" s="67">
+        <v>0</v>
+      </c>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
       <c r="O52" s="46"/>
       <c r="P52" s="51"/>
-      <c r="Q52" s="82">
-        <v>0</v>
-      </c>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="82"/>
-      <c r="V52" s="82"/>
-      <c r="W52" s="82"/>
-      <c r="X52" s="82"/>
+      <c r="Q52" s="67">
+        <v>0</v>
+      </c>
+      <c r="R52" s="67"/>
+      <c r="S52" s="67"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
+      <c r="X52" s="67"/>
     </row>
     <row r="53" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="82">
-        <v>0</v>
-      </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
+      <c r="D53" s="67">
+        <v>0</v>
+      </c>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
       <c r="O53" s="46"/>
       <c r="P53" s="51"/>
-      <c r="Q53" s="82">
-        <v>0</v>
-      </c>
-      <c r="R53" s="82"/>
-      <c r="S53" s="82"/>
-      <c r="T53" s="82"/>
-      <c r="U53" s="82"/>
-      <c r="V53" s="82"/>
-      <c r="W53" s="82"/>
-      <c r="X53" s="82"/>
+      <c r="Q53" s="67">
+        <v>0</v>
+      </c>
+      <c r="R53" s="67"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
     </row>
     <row r="54" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="82">
-        <v>0</v>
-      </c>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="89"/>
+      <c r="D54" s="67">
+        <v>0</v>
+      </c>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
       <c r="O54" s="46"/>
       <c r="P54" s="51"/>
-      <c r="Q54" s="82">
-        <v>0</v>
-      </c>
-      <c r="R54" s="82"/>
-      <c r="S54" s="82"/>
-      <c r="T54" s="82"/>
-      <c r="U54" s="82"/>
-      <c r="V54" s="82"/>
-      <c r="W54" s="82"/>
-      <c r="X54" s="82"/>
+      <c r="Q54" s="67">
+        <v>0</v>
+      </c>
+      <c r="R54" s="67"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
     </row>
     <row r="55" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="82">
-        <v>0</v>
-      </c>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="89"/>
+      <c r="D55" s="67">
+        <v>0</v>
+      </c>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
       <c r="O55" s="46"/>
       <c r="P55" s="51"/>
-      <c r="Q55" s="82">
-        <v>0</v>
-      </c>
-      <c r="R55" s="82"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="82"/>
-      <c r="V55" s="82"/>
-      <c r="W55" s="82"/>
-      <c r="X55" s="82"/>
+      <c r="Q55" s="67">
+        <v>0</v>
+      </c>
+      <c r="R55" s="67"/>
+      <c r="S55" s="67"/>
+      <c r="T55" s="67"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="67"/>
     </row>
     <row r="56" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="82">
-        <v>0</v>
-      </c>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="89"/>
+      <c r="D56" s="67">
+        <v>0</v>
+      </c>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
       <c r="O56" s="46"/>
       <c r="P56" s="51"/>
-      <c r="Q56" s="82">
-        <v>0</v>
-      </c>
-      <c r="R56" s="82"/>
-      <c r="S56" s="82"/>
-      <c r="T56" s="82"/>
-      <c r="U56" s="82"/>
-      <c r="V56" s="82"/>
-      <c r="W56" s="82"/>
-      <c r="X56" s="82"/>
+      <c r="Q56" s="67">
+        <v>0</v>
+      </c>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
     </row>
     <row r="57" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
-      <c r="D57" s="82">
-        <v>0</v>
-      </c>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="89"/>
-      <c r="N57" s="89"/>
+      <c r="D57" s="67">
+        <v>0</v>
+      </c>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
       <c r="O57" s="46"/>
       <c r="P57" s="51"/>
-      <c r="Q57" s="82">
-        <v>0</v>
-      </c>
-      <c r="R57" s="82"/>
-      <c r="S57" s="82"/>
-      <c r="T57" s="82"/>
-      <c r="U57" s="82"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
-      <c r="X57" s="82"/>
+      <c r="Q57" s="67">
+        <v>0</v>
+      </c>
+      <c r="R57" s="67"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
     </row>
     <row r="58" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
-      <c r="D58" s="82">
-        <v>0</v>
-      </c>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="89"/>
+      <c r="D58" s="67">
+        <v>0</v>
+      </c>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
       <c r="O58" s="46"/>
       <c r="P58" s="51"/>
-      <c r="Q58" s="82">
-        <v>0</v>
-      </c>
-      <c r="R58" s="82"/>
-      <c r="S58" s="82"/>
-      <c r="T58" s="82"/>
-      <c r="U58" s="82"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
-      <c r="X58" s="82"/>
+      <c r="Q58" s="67">
+        <v>0</v>
+      </c>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
     </row>
     <row r="59" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="82">
-        <v>0</v>
-      </c>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="89"/>
-      <c r="N59" s="89"/>
+      <c r="D59" s="67">
+        <v>0</v>
+      </c>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
       <c r="O59" s="46"/>
       <c r="P59" s="51"/>
-      <c r="Q59" s="82">
-        <v>0</v>
-      </c>
-      <c r="R59" s="82"/>
-      <c r="S59" s="82"/>
-      <c r="T59" s="82"/>
-      <c r="U59" s="82"/>
-      <c r="V59" s="82"/>
-      <c r="W59" s="82"/>
-      <c r="X59" s="82"/>
+      <c r="Q59" s="67">
+        <v>0</v>
+      </c>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
     </row>
     <row r="60" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="82">
-        <v>0</v>
-      </c>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="89"/>
-      <c r="N60" s="89"/>
+      <c r="D60" s="67">
+        <v>0</v>
+      </c>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
       <c r="O60" s="46"/>
       <c r="P60" s="51"/>
-      <c r="Q60" s="82">
-        <v>0</v>
-      </c>
-      <c r="R60" s="82"/>
-      <c r="S60" s="82"/>
-      <c r="T60" s="82"/>
-      <c r="U60" s="82"/>
-      <c r="V60" s="82"/>
-      <c r="W60" s="82"/>
-      <c r="X60" s="82"/>
+      <c r="Q60" s="67">
+        <v>0</v>
+      </c>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="67"/>
+      <c r="V60" s="67"/>
+      <c r="W60" s="67"/>
+      <c r="X60" s="67"/>
     </row>
     <row r="61" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
-      <c r="D61" s="82">
-        <v>0</v>
-      </c>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="89"/>
-      <c r="N61" s="89"/>
+      <c r="D61" s="67">
+        <v>0</v>
+      </c>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
       <c r="O61" s="46"/>
       <c r="P61" s="51"/>
-      <c r="Q61" s="82">
-        <v>0</v>
-      </c>
-      <c r="R61" s="82"/>
-      <c r="S61" s="82"/>
-      <c r="T61" s="82"/>
-      <c r="U61" s="82"/>
-      <c r="V61" s="82"/>
-      <c r="W61" s="82"/>
-      <c r="X61" s="82"/>
+      <c r="Q61" s="67">
+        <v>0</v>
+      </c>
+      <c r="R61" s="67"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="67"/>
+      <c r="U61" s="67"/>
+      <c r="V61" s="67"/>
+      <c r="W61" s="67"/>
+      <c r="X61" s="67"/>
     </row>
     <row r="62" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="34"/>
-      <c r="D62" s="88">
-        <v>0</v>
-      </c>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="89"/>
-      <c r="N62" s="89"/>
+      <c r="D62" s="73">
+        <v>0</v>
+      </c>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="74"/>
       <c r="O62" s="46"/>
       <c r="P62" s="51"/>
-      <c r="Q62" s="88">
-        <v>0</v>
-      </c>
-      <c r="R62" s="88"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="88"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
+      <c r="Q62" s="73">
+        <v>0</v>
+      </c>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
+      <c r="V62" s="73"/>
+      <c r="W62" s="73"/>
+      <c r="X62" s="73"/>
     </row>
     <row r="63" spans="2:24" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="35" t="s">
@@ -3629,15 +3803,15 @@
         <f t="shared" si="2"/>
         <v>6086</v>
       </c>
-      <c r="L63" s="92"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="89"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="74"/>
       <c r="P63" s="33" t="s">
         <v>18</v>
       </c>
       <c r="Q63" s="21">
         <f>SUM(Q40:Q62)</f>
-        <v>949</v>
+        <v>611</v>
       </c>
       <c r="R63" s="22">
         <f t="shared" ref="R63:X63" si="3">SUM(R40:R62)</f>
@@ -3645,7 +3819,7 @@
       </c>
       <c r="S63" s="22">
         <f t="shared" si="3"/>
-        <v>2466</v>
+        <v>2804</v>
       </c>
       <c r="T63" s="22">
         <f t="shared" si="3"/>
@@ -3677,9 +3851,9 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="93"/>
-      <c r="M64" s="91"/>
-      <c r="N64" s="89"/>
+      <c r="L64" s="78"/>
+      <c r="M64" s="76"/>
+      <c r="N64" s="74"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
@@ -3692,27 +3866,31 @@
     <row r="65" spans="4:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="64">
+      <c r="F65" s="107">
         <f>K63+J63+I63+H63+G63+F63+E63+D63</f>
         <v>13579</v>
       </c>
-      <c r="G65" s="65"/>
-      <c r="H65" s="66"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="109"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
+      <c r="J65" s="5">
+        <v>13579</v>
+      </c>
       <c r="K65" s="5"/>
-      <c r="L65" s="93"/>
-      <c r="M65" s="91"/>
-      <c r="N65" s="89"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="74"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="78">
+      <c r="S65" s="112">
         <f>Q63+R63+S63+T63+U63+V63+W63+X63</f>
         <v>20452</v>
       </c>
-      <c r="T65" s="70"/>
-      <c r="U65" s="71"/>
-      <c r="V65" s="5"/>
+      <c r="T65" s="113"/>
+      <c r="U65" s="114"/>
+      <c r="V65" s="5">
+        <v>20452</v>
+      </c>
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
@@ -3724,9 +3902,9 @@
       <c r="H66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="93"/>
-      <c r="M66" s="91"/>
-      <c r="N66" s="89"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="76"/>
+      <c r="N66" s="74"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
@@ -3745,9 +3923,9 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="93"/>
-      <c r="M67" s="91"/>
-      <c r="N67" s="89"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="76"/>
+      <c r="N67" s="74"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
@@ -3766,9 +3944,9 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="93"/>
-      <c r="M68" s="94"/>
-      <c r="N68" s="89"/>
+      <c r="L68" s="78"/>
+      <c r="M68" s="79"/>
+      <c r="N68" s="74"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
@@ -3779,20 +3957,20 @@
       <c r="X68" s="5"/>
     </row>
     <row r="69" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="L69" s="95"/>
-      <c r="M69" s="95"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
     </row>
     <row r="70" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="L70" s="95"/>
-      <c r="M70" s="95"/>
+      <c r="L70" s="80"/>
+      <c r="M70" s="80"/>
     </row>
     <row r="71" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="L71" s="95"/>
-      <c r="M71" s="95"/>
+      <c r="L71" s="80"/>
+      <c r="M71" s="80"/>
     </row>
     <row r="72" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="L72" s="95"/>
-      <c r="M72" s="95"/>
+      <c r="L72" s="80"/>
+      <c r="M72" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3809,7 +3987,7 @@
     <mergeCell ref="W38:X38"/>
     <mergeCell ref="O37:W37"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -3843,70 +4021,71 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1"/>
+    <col min="21" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="67" t="s">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="72" t="s">
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="74"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="121"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -3920,7 +4099,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>3</v>
@@ -3937,50 +4116,54 @@
       <c r="J4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18" t="s">
+      <c r="K4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="102"/>
+      <c r="M4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="P4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="54" t="s">
+      <c r="Q4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="S4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="V4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13">
-        <v>160</v>
+      <c r="C5" s="104">
+        <f>160+'GASTOS POR SEMANA  '!D5</f>
+        <v>330</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
@@ -4001,15 +4184,13 @@
       <c r="J5" s="13">
         <v>0</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="52" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
+      <c r="N5" s="53" t="s">
+        <v>52</v>
       </c>
       <c r="O5" s="13">
         <v>0</v>
@@ -4033,16 +4214,19 @@
         <v>0</v>
       </c>
       <c r="V5" s="13">
-        <f>109+1973+1400+1641+70+756+830</f>
-        <v>6779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W5" s="104">
+        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X5</f>
+        <v>11922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11">
         <v>0</v>
@@ -4063,19 +4247,17 @@
         <v>0</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="11">
-        <f>542+680+1493+1388+806+1177</f>
-        <v>6086</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="52" t="s">
+      <c r="J6" s="105">
+        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K6</f>
+        <v>10869</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="13">
-        <v>0</v>
+      <c r="N6" s="106" t="s">
+        <v>53</v>
       </c>
       <c r="O6" s="13">
         <v>0</v>
@@ -4096,14 +4278,17 @@
         <v>0</v>
       </c>
       <c r="U6" s="13">
-        <f>127+896+100</f>
-        <v>1123</v>
-      </c>
-      <c r="V6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="V6" s="104">
+        <f>127+896+100+'GASTOS POR SEMANA  '!W6</f>
+        <v>5572.5</v>
+      </c>
+      <c r="W6" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>20</v>
       </c>
@@ -4122,9 +4307,9 @@
       <c r="F7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" s="11">
-        <f>78+66+102+68+102+51+51</f>
-        <v>518</v>
+      <c r="G7" s="105">
+        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H7</f>
+        <v>1087</v>
       </c>
       <c r="H7" s="11">
         <v>0</v>
@@ -4133,19 +4318,17 @@
       <c r="J7" s="11">
         <v>0</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="52" t="s">
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="N7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="13">
-        <f>144+287+180</f>
-        <v>611</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0</v>
+      <c r="O7" s="104">
+        <f>144+287+180+'GASTOS POR SEMANA  '!Q7</f>
+        <v>1518</v>
       </c>
       <c r="P7" s="13">
         <v>0</v>
@@ -4165,11 +4348,14 @@
       <c r="U7" s="13">
         <v>0</v>
       </c>
-      <c r="V7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="13">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>20</v>
       </c>
@@ -4179,8 +4365,9 @@
       <c r="C8" s="11">
         <v>0</v>
       </c>
-      <c r="D8" s="11">
-        <v>123</v>
+      <c r="D8" s="105">
+        <f>123+'GASTOS POR SEMANA  '!E8</f>
+        <v>492</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -4191,24 +4378,22 @@
       <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="H8" s="11">
-        <f>391+81</f>
-        <v>472</v>
+      <c r="H8" s="105">
+        <f>391+81+'GASTOS POR SEMANA  '!I8</f>
+        <v>875</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11">
         <v>0</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="52" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="48" t="s">
+      <c r="N8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
       <c r="O8" s="13">
         <v>0</v>
       </c>
@@ -4225,31 +4410,35 @@
         <v>0</v>
       </c>
       <c r="T8" s="13">
-        <v>779</v>
-      </c>
-      <c r="U8" s="13">
-        <v>0</v>
-      </c>
-      <c r="V8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="U8" s="104">
+        <f>779+'GASTOS POR SEMANA  '!U8</f>
+        <v>1182</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="105">
+        <f>242</f>
+        <v>242</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
-        <f>60+242</f>
-        <v>302</v>
+      <c r="E9" s="105">
+        <v>60</v>
       </c>
       <c r="F9" s="11">
         <v>0</v>
@@ -4264,16 +4453,14 @@
       <c r="J9" s="11">
         <v>0</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="52" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="N9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
       <c r="O9" s="13">
         <v>0</v>
       </c>
@@ -4293,19 +4480,22 @@
         <v>0</v>
       </c>
       <c r="U9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9" s="104">
         <f>327+60</f>
         <v>387</v>
       </c>
-      <c r="V9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="36" x14ac:dyDescent="0.25">
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11">
         <v>0</v>
@@ -4316,7 +4506,7 @@
       <c r="E10" s="11">
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="105">
         <f>40+45</f>
         <v>85</v>
       </c>
@@ -4330,15 +4520,13 @@
       <c r="J10" s="11">
         <v>0</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="52" t="s">
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="13">
-        <v>0</v>
+      <c r="N10" s="49" t="s">
+        <v>54</v>
       </c>
       <c r="O10" s="13">
         <v>0</v>
@@ -4347,11 +4535,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="13">
-        <f>90+10+234</f>
-        <v>334</v>
-      </c>
-      <c r="R10" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R10" s="104">
+        <f>90+10+234+'GASTOS POR SEMANA  '!T10</f>
+        <v>392</v>
       </c>
       <c r="S10" s="13">
         <v>0</v>
@@ -4362,16 +4550,19 @@
       <c r="U10" s="13">
         <v>0</v>
       </c>
-      <c r="V10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="W10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C11" s="11">
         <v>0</v>
@@ -4391,32 +4582,30 @@
       <c r="H11" s="11">
         <v>0</v>
       </c>
-      <c r="I11" s="11">
-        <f>1013+1701</f>
-        <v>2714</v>
+      <c r="I11" s="105">
+        <f>1013+1701+'GASTOS POR SEMANA  '!J11+'GASTOS POR SEMANA  '!J12</f>
+        <v>5365.5</v>
       </c>
       <c r="J11" s="11">
         <v>0</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="52" t="s">
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
+      <c r="N11" s="106" t="s">
+        <v>55</v>
       </c>
       <c r="O11" s="13">
         <v>0</v>
       </c>
       <c r="P11" s="13">
-        <f>2200+118+338+30+82+36</f>
-        <v>2804</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="104">
+        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S11</f>
+        <v>5248</v>
       </c>
       <c r="R11" s="13">
         <v>0</v>
@@ -4430,11 +4619,14 @@
       <c r="U11" s="13">
         <v>0</v>
       </c>
-      <c r="V11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>20</v>
       </c>
@@ -4444,7 +4636,7 @@
       <c r="C12" s="11">
         <v>0</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="105">
         <v>180</v>
       </c>
       <c r="E12" s="11">
@@ -4465,24 +4657,23 @@
       <c r="J12" s="11">
         <v>0</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="52" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="50" t="s">
+      <c r="N12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
       <c r="O12" s="13">
-        <v>1221</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P12" s="104">
+        <f>1221+'GASTOS POR SEMANA  '!R9</f>
+        <v>1310</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="R12" s="13">
         <v>0</v>
@@ -4496,52 +4687,53 @@
       <c r="U12" s="13">
         <v>0</v>
       </c>
-      <c r="V12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="36" x14ac:dyDescent="0.25">
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="105">
+        <f>1638+45+36+'GASTOS POR SEMANA  '!F13</f>
+        <v>3983</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <f>1638+45+36</f>
-        <v>1719</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
       <c r="O13" s="13">
         <v>0</v>
       </c>
@@ -4555,20 +4747,23 @@
         <v>0</v>
       </c>
       <c r="S13" s="13">
-        <f>700+700+3067</f>
-        <v>4467</v>
-      </c>
-      <c r="T13" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T13" s="104">
+        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V13</f>
+        <v>9685</v>
       </c>
       <c r="U13" s="13">
         <v>0</v>
       </c>
-      <c r="V13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>20</v>
       </c>
@@ -4587,9 +4782,9 @@
       <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="11">
-        <f>380+380</f>
-        <v>760</v>
+      <c r="G14" s="105">
+        <f>380+380+460+'GASTOS POR SEMANA  '!H14</f>
+        <v>2450</v>
       </c>
       <c r="H14" s="11">
         <v>0</v>
@@ -4600,15 +4795,13 @@
       <c r="J14" s="11">
         <v>0</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="52" t="s">
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0</v>
+      <c r="N14" s="48" t="s">
+        <v>34</v>
       </c>
       <c r="O14" s="13">
         <v>0</v>
@@ -4623,24 +4816,29 @@
         <v>0</v>
       </c>
       <c r="S14" s="13">
-        <f>170+238+170+153+170+336</f>
-        <v>1237</v>
-      </c>
-      <c r="T14" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T14" s="104">
+        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V14</f>
+        <v>2316</v>
       </c>
       <c r="U14" s="13">
         <v>0</v>
       </c>
-      <c r="V14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="95" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="11">
         <v>0</v>
       </c>
@@ -4651,14 +4849,15 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="52" t="s">
+      <c r="K15" s="105">
+        <f>'GASTOS POR SEMANA  '!L15</f>
+        <v>1008</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="13">
-        <v>0</v>
-      </c>
+      <c r="N15" s="48"/>
       <c r="O15" s="13">
         <v>0</v>
       </c>
@@ -4680,11 +4879,14 @@
       <c r="U15" s="13">
         <v>0</v>
       </c>
-      <c r="V15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11">
@@ -4697,13 +4899,13 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
@@ -4711,8 +4913,9 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-    </row>
-    <row r="17" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="11"/>
+    </row>
+    <row r="17" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11">
@@ -4725,13 +4928,13 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
@@ -4739,8 +4942,9 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-    </row>
-    <row r="18" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W17" s="11"/>
+    </row>
+    <row r="18" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11">
@@ -4753,13 +4957,13 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-      <c r="O18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
@@ -4767,8 +4971,9 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-    </row>
-    <row r="19" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W18" s="11"/>
+    </row>
+    <row r="19" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11">
@@ -4781,13 +4986,13 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-      <c r="O19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
@@ -4795,8 +5000,9 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-    </row>
-    <row r="20" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11">
@@ -4809,13 +5015,13 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="11">
-        <v>0</v>
-      </c>
-      <c r="O20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
@@ -4823,8 +5029,9 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
-    </row>
-    <row r="21" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W20" s="11"/>
+    </row>
+    <row r="21" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11">
@@ -4837,13 +5044,13 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="11">
-        <v>0</v>
-      </c>
-      <c r="O21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -4851,8 +5058,9 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
-    </row>
-    <row r="22" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="11"/>
+    </row>
+    <row r="22" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11">
@@ -4865,13 +5073,13 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="11">
-        <v>0</v>
-      </c>
-      <c r="O22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
@@ -4879,8 +5087,9 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
-    </row>
-    <row r="23" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="11"/>
+    </row>
+    <row r="23" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11">
@@ -4893,13 +5102,13 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
-      <c r="O23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
@@ -4907,8 +5116,9 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-    </row>
-    <row r="24" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="11"/>
+    </row>
+    <row r="24" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11">
@@ -4921,13 +5131,13 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="11">
-        <v>0</v>
-      </c>
-      <c r="O24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
@@ -4935,8 +5145,9 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-    </row>
-    <row r="25" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11">
@@ -4949,13 +5160,13 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="O25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
@@ -4963,8 +5174,9 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-    </row>
-    <row r="26" spans="1:22" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="11"/>
+    </row>
+    <row r="26" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11">
@@ -4977,13 +5189,13 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="11">
-        <v>0</v>
-      </c>
-      <c r="O26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
@@ -4991,8 +5203,9 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-    </row>
-    <row r="27" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W26" s="11"/>
+    </row>
+    <row r="27" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="34"/>
       <c r="C27" s="20">
@@ -5005,13 +5218,13 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="20">
-        <v>0</v>
-      </c>
-      <c r="O27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="20">
+        <v>0</v>
+      </c>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
@@ -5019,22 +5232,23 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
-    </row>
-    <row r="28" spans="1:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W27" s="20"/>
+    </row>
+    <row r="28" spans="1:23" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="30">
-        <f t="shared" ref="C28:J28" si="0">SUM(C5:C27)</f>
-        <v>160</v>
+        <f t="shared" ref="C28:K28" si="0">SUM(C5:C27)</f>
+        <v>572</v>
       </c>
       <c r="D28" s="31">
         <f t="shared" si="0"/>
-        <v>303</v>
+        <v>672</v>
       </c>
       <c r="E28" s="31">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>4043</v>
       </c>
       <c r="F28" s="31">
         <f t="shared" si="0"/>
@@ -5042,62 +5256,66 @@
       </c>
       <c r="G28" s="31">
         <f t="shared" si="0"/>
-        <v>1278</v>
+        <v>3537</v>
       </c>
       <c r="H28" s="31">
         <f t="shared" si="0"/>
-        <v>472</v>
+        <v>875</v>
       </c>
       <c r="I28" s="22">
         <f t="shared" si="0"/>
-        <v>2714</v>
+        <v>5365.5</v>
       </c>
       <c r="J28" s="32">
         <f t="shared" si="0"/>
-        <v>6086</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="M28" s="33" t="s">
+        <v>10869</v>
+      </c>
+      <c r="K28" s="32">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="N28" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="21">
-        <f>SUM(N5:N27)</f>
-        <v>611</v>
-      </c>
-      <c r="O28" s="22">
-        <f t="shared" ref="O28:V28" si="1">SUM(O5:O27)</f>
-        <v>1221</v>
+      <c r="O28" s="21">
+        <f>SUM(O5:O27)</f>
+        <v>1518</v>
       </c>
       <c r="P28" s="22">
-        <f t="shared" si="1"/>
-        <v>2804</v>
+        <f t="shared" ref="P28:W28" si="1">SUM(P5:P27)</f>
+        <v>1310</v>
       </c>
       <c r="Q28" s="22">
         <f t="shared" si="1"/>
-        <v>334</v>
+        <v>5248</v>
       </c>
       <c r="R28" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="S28" s="22">
         <f t="shared" si="1"/>
-        <v>5704</v>
+        <v>0</v>
       </c>
       <c r="T28" s="22">
         <f t="shared" si="1"/>
-        <v>779</v>
+        <v>12001</v>
       </c>
       <c r="U28" s="22">
         <f t="shared" si="1"/>
-        <v>1510</v>
-      </c>
-      <c r="V28" s="23">
+        <v>1182</v>
+      </c>
+      <c r="V28" s="22">
         <f t="shared" si="1"/>
-        <v>6779</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5959.5</v>
+      </c>
+      <c r="W28" s="23">
+        <f t="shared" si="1"/>
+        <v>11922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -5106,8 +5324,8 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="3"/>
-      <c r="N29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="3"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -5116,34 +5334,36 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="1:22" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="64">
-        <f>J28+I28+H28+G28+F28+E28+D28+C28</f>
-        <v>13119</v>
-      </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
+      <c r="E30" s="120">
+        <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
+        <v>27026.5</v>
+      </c>
+      <c r="F30" s="108"/>
+      <c r="G30" s="109"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="3"/>
-      <c r="N30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="3"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="69">
-        <f>N28+O28+P28+Q28+S28+T28+U28+V28</f>
-        <v>19742</v>
-      </c>
-      <c r="Q30" s="70"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="112">
+        <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
+        <v>39532.5</v>
+      </c>
+      <c r="R30" s="113"/>
+      <c r="S30" s="114"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -5152,8 +5372,8 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="3"/>
-      <c r="N31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="3"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -5162,8 +5382,9 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -5172,8 +5393,8 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="3"/>
-      <c r="N32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="3"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -5182,8 +5403,9 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W32" s="5"/>
+    </row>
+    <row r="33" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -5192,8 +5414,8 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="4"/>
-      <c r="N33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="4"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -5202,13 +5424,14 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="L2:V2"/>
+    <mergeCell ref="M2:W2"/>
     <mergeCell ref="E30:G30"/>
-    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Q30:S30"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -18,6 +18,8 @@
     <sheet name="Hoja4" sheetId="6" r:id="rId4"/>
     <sheet name="GASTOS POR MES " sheetId="2" r:id="rId5"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId7"/>
+    <sheet name="Hoja6" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="80">
   <si>
     <t>FECHA</t>
   </si>
@@ -228,6 +230,48 @@
   <si>
     <t>Nopal-tomate-brocoli-jitomate-chicharo-papa-poblano-zanahoria-charote-calabaza-cebolla-ajo-morron</t>
   </si>
+  <si>
+    <t># 03</t>
+  </si>
+  <si>
+    <t>del 26-Agosto al 01-Septiembre</t>
+  </si>
+  <si>
+    <t>del 02--- al  08 Septiembre</t>
+  </si>
+  <si>
+    <t>2-8-Sept-23</t>
+  </si>
+  <si>
+    <t>Maracuya--papaya-melon-piña-sandia</t>
+  </si>
+  <si>
+    <t>jitomate. Cebolla,tomate,serrano,calabaza,ejote,chayote,poblano,-morron-Champiñones</t>
+  </si>
+  <si>
+    <t>brocoli,poro.lechugas.cilantro-----,epazote</t>
+  </si>
+  <si>
+    <t>Nescafe,legal,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUEVO,  </t>
+  </si>
+  <si>
+    <t>AJAX-JALADOR VIDRIOS</t>
+  </si>
+  <si>
+    <t>FRIJOL--CHILE COSTEÑO</t>
+  </si>
+  <si>
+    <t>TORTILLAS--tostadas</t>
+  </si>
+  <si>
+    <t>LALA, ELOTE-CREMA-QUESILLO</t>
+  </si>
+  <si>
+    <t>Mole-pollo-salchicha-pechuga-espinazo-chicharron-jamon americnao-tocino-puntas-</t>
+  </si>
 </sst>
 </file>
 
@@ -909,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1159,49 +1203,55 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="7" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1511,10 +1561,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:Z72"/>
+  <dimension ref="B1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,48 +1598,51 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
       <c r="L2" s="84" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="M2" s="83"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="118" t="s">
+      <c r="O2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
       <c r="X2" s="85" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="116"/>
-      <c r="K3" s="117"/>
+      <c r="I3" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="68"/>
       <c r="M3" s="59"/>
       <c r="N3" s="74"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="117"/>
+      <c r="V3" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="112"/>
+      <c r="X3" s="113"/>
     </row>
     <row r="4" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -1657,14 +1713,14 @@
     </row>
     <row r="5" spans="2:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="C5" s="122" t="s">
+        <v>70</v>
       </c>
       <c r="D5" s="72">
-        <f>170</f>
-        <v>170</v>
+        <f>121+213+135</f>
+        <v>469</v>
       </c>
       <c r="E5" s="72"/>
       <c r="F5" s="72"/>
@@ -1676,9 +1732,7 @@
       <c r="L5" s="70"/>
       <c r="M5" s="74"/>
       <c r="N5" s="74"/>
-      <c r="O5" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O5" s="97"/>
       <c r="P5" s="86" t="s">
         <v>63</v>
       </c>
@@ -1689,17 +1743,14 @@
       <c r="U5" s="72"/>
       <c r="V5" s="72"/>
       <c r="W5" s="72"/>
-      <c r="X5" s="72">
-        <f>725+922+1369+794+1333</f>
-        <v>5143</v>
-      </c>
+      <c r="X5" s="72"/>
     </row>
     <row r="6" spans="2:24" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
@@ -1709,15 +1760,13 @@
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
       <c r="K6" s="67">
-        <f>636+788+1081+941+1337</f>
-        <v>4783</v>
+        <f>1031+1026+1603+547+2029</f>
+        <v>6236</v>
       </c>
       <c r="L6" s="67"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
-      <c r="O6" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O6" s="97"/>
       <c r="P6" s="89" t="s">
         <v>64</v>
       </c>
@@ -1727,43 +1776,34 @@
       <c r="T6" s="72"/>
       <c r="U6" s="72"/>
       <c r="V6" s="72"/>
-      <c r="W6" s="72">
-        <f>1900+239+144+218+805+355+251.5+250+287</f>
-        <v>4449.5</v>
-      </c>
+      <c r="W6" s="72"/>
       <c r="X6" s="67"/>
     </row>
     <row r="7" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="E7" s="67">
+        <v>188</v>
+      </c>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
-      <c r="H7" s="67">
-        <f>51+68+68+140+84+90+68</f>
-        <v>569</v>
-      </c>
+      <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="67"/>
       <c r="K7" s="67"/>
       <c r="L7" s="11"/>
       <c r="M7" s="74"/>
       <c r="N7" s="74"/>
-      <c r="O7" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O7" s="97"/>
       <c r="P7" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="72">
-        <f>117+540+250</f>
-        <v>907</v>
-      </c>
+      <c r="Q7" s="72"/>
       <c r="R7" s="72"/>
       <c r="S7" s="72"/>
       <c r="T7" s="72"/>
@@ -1772,32 +1812,27 @@
       <c r="W7" s="72"/>
       <c r="X7" s="67"/>
     </row>
-    <row r="8" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D8" s="67"/>
-      <c r="E8" s="67">
-        <v>369</v>
-      </c>
+      <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
       <c r="I8" s="67">
-        <f>403</f>
-        <v>403</v>
+        <v>829</v>
       </c>
       <c r="J8" s="67"/>
       <c r="K8" s="67"/>
       <c r="L8" s="11"/>
       <c r="M8" s="74"/>
       <c r="N8" s="74"/>
-      <c r="O8" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O8" s="97"/>
       <c r="P8" s="88" t="s">
         <v>12</v>
       </c>
@@ -1805,23 +1840,23 @@
       <c r="R8" s="72"/>
       <c r="S8" s="72"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="72">
-        <v>403</v>
-      </c>
+      <c r="U8" s="72"/>
       <c r="V8" s="72"/>
       <c r="W8" s="72"/>
       <c r="X8" s="67"/>
     </row>
     <row r="9" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>27</v>
+        <v>69</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
+      <c r="F9" s="67">
+        <v>95</v>
+      </c>
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
@@ -1830,17 +1865,12 @@
       <c r="L9" s="11"/>
       <c r="M9" s="74"/>
       <c r="N9" s="74"/>
-      <c r="O9" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O9" s="97"/>
       <c r="P9" s="89" t="s">
         <v>62</v>
       </c>
       <c r="Q9" s="72"/>
-      <c r="R9" s="72">
-        <f>38+42+9</f>
-        <v>89</v>
-      </c>
+      <c r="R9" s="72"/>
       <c r="S9" s="72"/>
       <c r="T9" s="72"/>
       <c r="U9" s="72"/>
@@ -1848,12 +1878,12 @@
       <c r="W9" s="72"/>
       <c r="X9" s="67"/>
     </row>
-    <row r="10" spans="2:24" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
@@ -1861,23 +1891,21 @@
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="J10" s="67">
+        <v>624</v>
+      </c>
       <c r="K10" s="67"/>
       <c r="L10" s="11"/>
       <c r="M10" s="74"/>
       <c r="N10" s="74"/>
-      <c r="O10" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O10" s="97"/>
       <c r="P10" s="89" t="s">
         <v>47</v>
       </c>
       <c r="Q10" s="72"/>
       <c r="R10" s="72"/>
       <c r="S10" s="72"/>
-      <c r="T10" s="72">
-        <v>58</v>
-      </c>
+      <c r="T10" s="72"/>
       <c r="U10" s="72"/>
       <c r="V10" s="72"/>
       <c r="W10" s="72"/>
@@ -1885,10 +1913,10 @@
     </row>
     <row r="11" spans="2:24" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
@@ -1897,25 +1925,20 @@
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="94">
-        <f>1511+444+20+287+262.5</f>
-        <v>2524.5</v>
+        <f>413+68+84</f>
+        <v>565</v>
       </c>
       <c r="K11" s="67"/>
       <c r="L11" s="11"/>
       <c r="M11" s="74"/>
       <c r="N11" s="74"/>
-      <c r="O11" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O11" s="97"/>
       <c r="P11" s="89" t="s">
         <v>65</v>
       </c>
       <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
-      <c r="S11" s="72">
-        <f>50+45+14+2300+35</f>
-        <v>2444</v>
-      </c>
+      <c r="S11" s="72"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
       <c r="V11" s="72"/>
@@ -1924,10 +1947,10 @@
     </row>
     <row r="12" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
@@ -1936,16 +1959,14 @@
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
       <c r="J12" s="67">
-        <f>127</f>
-        <v>127</v>
+        <f>116+35.5</f>
+        <v>151.5</v>
       </c>
       <c r="K12" s="67"/>
       <c r="L12" s="11"/>
       <c r="M12" s="74"/>
       <c r="N12" s="74"/>
-      <c r="O12" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O12" s="97"/>
       <c r="P12" s="90" t="s">
         <v>15</v>
       </c>
@@ -1960,16 +1981,16 @@
     </row>
     <row r="13" spans="2:24" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67">
-        <f>40+70+2070+30+54</f>
-        <v>2264</v>
+        <f>1489+350+300+25</f>
+        <v>2164</v>
       </c>
       <c r="G13" s="67"/>
       <c r="H13" s="67"/>
@@ -1979,9 +2000,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="74"/>
       <c r="N13" s="74"/>
-      <c r="O13" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O13" s="97"/>
       <c r="P13" s="98" t="s">
         <v>49</v>
       </c>
@@ -1990,16 +2009,13 @@
       <c r="S13" s="72"/>
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="72">
-        <f>700+700+710+2258+140</f>
-        <v>4508</v>
-      </c>
+      <c r="V13" s="72"/>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
     </row>
-    <row r="14" spans="2:24" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>11</v>
@@ -2018,9 +2034,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="74"/>
       <c r="N14" s="74"/>
-      <c r="O14" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O14" s="97"/>
       <c r="P14" s="88" t="s">
         <v>34</v>
       </c>
@@ -2029,16 +2043,13 @@
       <c r="S14" s="72"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="72">
-        <f>68+170+170+170+280+221</f>
-        <v>1079</v>
-      </c>
+      <c r="V14" s="72"/>
       <c r="W14" s="72"/>
       <c r="X14" s="67"/>
     </row>
-    <row r="15" spans="2:24" ht="24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C15" s="95" t="s">
         <v>46</v>
@@ -2052,14 +2063,11 @@
       <c r="J15" s="67"/>
       <c r="K15" s="67"/>
       <c r="L15" s="11">
-        <f>765+243</f>
-        <v>1008</v>
+        <v>500</v>
       </c>
       <c r="M15" s="74"/>
       <c r="N15" s="74"/>
-      <c r="O15" s="97" t="s">
-        <v>43</v>
-      </c>
+      <c r="O15" s="97"/>
       <c r="P15" s="88"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="72"/>
@@ -2070,14 +2078,21 @@
       <c r="W15" s="72"/>
       <c r="X15" s="67"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+    <row r="16" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
       <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="67">
+        <f>102+68+102+204+85+90</f>
+        <v>651</v>
+      </c>
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
       <c r="K16" s="67"/>
@@ -2412,15 +2427,15 @@
       </c>
       <c r="D28" s="30">
         <f t="shared" ref="D28:L28" si="0">SUM(D5:D27)</f>
-        <v>170</v>
+        <v>469</v>
       </c>
       <c r="E28" s="31">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>188</v>
       </c>
       <c r="F28" s="31">
         <f t="shared" si="0"/>
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="G28" s="31">
         <f t="shared" si="0"/>
@@ -2428,23 +2443,23 @@
       </c>
       <c r="H28" s="31">
         <f t="shared" si="0"/>
-        <v>1799</v>
+        <v>1881</v>
       </c>
       <c r="I28" s="31">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>829</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="0"/>
-        <v>2651.5</v>
+        <v>1340.5</v>
       </c>
       <c r="K28" s="32">
         <f t="shared" si="0"/>
-        <v>4783</v>
+        <v>6236</v>
       </c>
       <c r="L28" s="100">
         <f t="shared" si="0"/>
-        <v>1008</v>
+        <v>500</v>
       </c>
       <c r="M28" s="75"/>
       <c r="N28" s="74"/>
@@ -2453,35 +2468,35 @@
       </c>
       <c r="Q28" s="21">
         <f>SUM(Q5:Q27)</f>
-        <v>907</v>
+        <v>0</v>
       </c>
       <c r="R28" s="22">
         <f t="shared" ref="R28:X28" si="1">SUM(R5:R27)</f>
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="S28" s="22">
         <f t="shared" si="1"/>
-        <v>2444</v>
+        <v>0</v>
       </c>
       <c r="T28" s="22">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="U28" s="22">
         <f t="shared" si="1"/>
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="V28" s="22">
         <f t="shared" si="1"/>
-        <v>5587</v>
+        <v>0</v>
       </c>
       <c r="W28" s="22">
         <f t="shared" si="1"/>
-        <v>4449.5</v>
+        <v>0</v>
       </c>
       <c r="X28" s="23">
         <f t="shared" si="1"/>
-        <v>5143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2508,12 +2523,12 @@
     <row r="30" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="120">
+      <c r="F30" s="114">
         <f>K28+J28+I28+H28+G28+F28+E28+D28+L28</f>
-        <v>13447.5</v>
-      </c>
-      <c r="G30" s="108"/>
-      <c r="H30" s="109"/>
+        <v>13702.5</v>
+      </c>
+      <c r="G30" s="115"/>
+      <c r="H30" s="116"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5">
         <v>13447.5</v>
@@ -2524,12 +2539,12 @@
       <c r="N30" s="74"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="112">
+      <c r="S30" s="117">
         <f>Q28+R28+S28+T28+U28+V28+W28+X28</f>
-        <v>19080.5</v>
-      </c>
-      <c r="T30" s="113"/>
-      <c r="U30" s="114"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="118"/>
+      <c r="U30" s="119"/>
       <c r="V30" s="5">
         <v>19080.5</v>
       </c>
@@ -2568,16 +2583,8 @@
       <c r="L32" s="78"/>
       <c r="M32" s="76"/>
       <c r="N32" s="74"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-    </row>
-    <row r="33" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -2589,69 +2596,53 @@
       <c r="L33" s="78"/>
       <c r="M33" s="79"/>
       <c r="N33" s="74"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-    </row>
-    <row r="36" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="110" t="s">
+    </row>
+    <row r="36" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
       <c r="L37" s="84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M37" s="83"/>
       <c r="N37" s="81"/>
-      <c r="O37" s="118" t="s">
+      <c r="O37" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="119"/>
-      <c r="S37" s="119"/>
-      <c r="T37" s="119"/>
-      <c r="U37" s="119"/>
-      <c r="V37" s="119"/>
-      <c r="W37" s="119"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="110"/>
+      <c r="W37" s="110"/>
       <c r="X37" s="85" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38" s="116"/>
-      <c r="K38" s="117"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="112"/>
+      <c r="K38" s="113"/>
       <c r="L38" s="68"/>
       <c r="M38" s="59"/>
       <c r="N38" s="74"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="117"/>
-    </row>
-    <row r="39" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W38" s="112"/>
+      <c r="X38" s="113"/>
+    </row>
+    <row r="39" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>0</v>
       </c>
@@ -2682,7 +2673,9 @@
       <c r="K39" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="69"/>
+      <c r="L39" s="99" t="s">
+        <v>46</v>
+      </c>
       <c r="M39" s="38"/>
       <c r="N39" s="82"/>
       <c r="O39" s="36" t="s">
@@ -2716,670 +2709,395 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:26" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="40" t="s">
-        <v>20</v>
+    <row r="40" spans="2:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="72">
-        <v>160</v>
-      </c>
-      <c r="E40" s="72">
-        <v>0</v>
-      </c>
-      <c r="F40" s="72">
-        <v>0</v>
-      </c>
-      <c r="G40" s="72">
-        <v>0</v>
-      </c>
-      <c r="H40" s="72">
-        <v>0</v>
-      </c>
-      <c r="I40" s="72">
-        <v>0</v>
-      </c>
+        <f>170</f>
+        <v>170</v>
+      </c>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
       <c r="J40" s="72"/>
-      <c r="K40" s="72">
-        <v>0</v>
-      </c>
+      <c r="K40" s="72"/>
       <c r="L40" s="70"/>
       <c r="M40" s="74"/>
       <c r="N40" s="74"/>
-      <c r="O40" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P40" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q40" s="72">
-        <v>0</v>
-      </c>
-      <c r="R40" s="72">
-        <v>0</v>
-      </c>
-      <c r="S40" s="72">
-        <v>0</v>
-      </c>
-      <c r="T40" s="72">
-        <v>0</v>
-      </c>
-      <c r="U40" s="72">
-        <v>0</v>
-      </c>
-      <c r="V40" s="72">
-        <v>0</v>
-      </c>
-      <c r="W40" s="72">
-        <v>0</v>
-      </c>
+      <c r="O40" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P40" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
       <c r="X40" s="72">
-        <f>109+1973+1400+1641+70+756+830</f>
-        <v>6779</v>
-      </c>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
-    </row>
-    <row r="41" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="40" t="s">
-        <v>20</v>
+        <f>725+922+1369+794+1333</f>
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="67">
-        <v>0</v>
-      </c>
-      <c r="E41" s="67">
-        <v>0</v>
-      </c>
-      <c r="F41" s="67">
-        <v>0</v>
-      </c>
-      <c r="G41" s="67">
-        <v>0</v>
-      </c>
-      <c r="H41" s="67">
-        <v>0</v>
-      </c>
-      <c r="I41" s="67">
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="67"/>
       <c r="K41" s="67">
-        <f>542+680+1493+1388+806+1177</f>
-        <v>6086</v>
-      </c>
-      <c r="L41" s="71"/>
+        <f>636+788+1081+941+1337</f>
+        <v>4783</v>
+      </c>
+      <c r="L41" s="67"/>
       <c r="M41" s="74"/>
       <c r="N41" s="74"/>
-      <c r="O41" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q41" s="72">
-        <v>0</v>
-      </c>
-      <c r="R41" s="72">
-        <v>0</v>
-      </c>
-      <c r="S41" s="72">
-        <v>0</v>
-      </c>
-      <c r="T41" s="72">
-        <v>0</v>
-      </c>
-      <c r="U41" s="72">
-        <v>0</v>
-      </c>
-      <c r="V41" s="72">
-        <v>0</v>
-      </c>
+      <c r="O41" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
       <c r="W41" s="72">
-        <f>127+896+100</f>
-        <v>1123</v>
-      </c>
-      <c r="X41" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
-        <v>20</v>
+        <f>1900+239+144+218+805+355+251.5+250+287</f>
+        <v>4449.5</v>
+      </c>
+      <c r="X41" s="67"/>
+    </row>
+    <row r="42" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="67">
-        <v>0</v>
-      </c>
-      <c r="E42" s="67">
-        <v>0</v>
-      </c>
-      <c r="F42" s="67">
-        <v>0</v>
-      </c>
-      <c r="G42" s="67">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="67">
-        <f>78+66+102+68+102+51+51</f>
-        <v>518</v>
-      </c>
-      <c r="I42" s="67">
-        <v>0</v>
-      </c>
+        <f>51+68+68+140+84+90+68</f>
+        <v>569</v>
+      </c>
+      <c r="I42" s="67"/>
       <c r="J42" s="67"/>
-      <c r="K42" s="67">
-        <v>0</v>
-      </c>
-      <c r="L42" s="70"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="74"/>
       <c r="N42" s="74"/>
-      <c r="O42" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="50" t="s">
-        <v>40</v>
+      <c r="O42" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" s="87" t="s">
+        <v>48</v>
       </c>
       <c r="Q42" s="72">
-        <f>144+287+180</f>
-        <v>611</v>
-      </c>
-      <c r="R42" s="72">
-        <v>0</v>
-      </c>
-      <c r="S42" s="72">
-        <v>0</v>
-      </c>
-      <c r="T42" s="72">
-        <v>0</v>
-      </c>
-      <c r="U42" s="72">
-        <v>0</v>
-      </c>
-      <c r="V42" s="72">
-        <v>0</v>
-      </c>
-      <c r="W42" s="72">
-        <v>0</v>
-      </c>
-      <c r="X42" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="67">
-        <v>0</v>
-      </c>
+        <f>117+540+250</f>
+        <v>907</v>
+      </c>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="67"/>
+    </row>
+    <row r="43" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="67"/>
       <c r="E43" s="67">
-        <v>123</v>
-      </c>
-      <c r="F43" s="67">
-        <v>0</v>
-      </c>
-      <c r="G43" s="67">
-        <v>0</v>
-      </c>
-      <c r="H43" s="67">
-        <v>0</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
       <c r="I43" s="67">
-        <f>391+81</f>
-        <v>472</v>
+        <f>403</f>
+        <v>403</v>
       </c>
       <c r="J43" s="67"/>
-      <c r="K43" s="67">
-        <v>0</v>
-      </c>
-      <c r="L43" s="70"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="11"/>
       <c r="M43" s="74"/>
       <c r="N43" s="74"/>
-      <c r="O43" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" s="48" t="s">
+      <c r="O43" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P43" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="Q43" s="72">
-        <v>0</v>
-      </c>
-      <c r="R43" s="72">
-        <v>0</v>
-      </c>
-      <c r="S43" s="72">
-        <v>0</v>
-      </c>
-      <c r="T43" s="72">
-        <v>0</v>
-      </c>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
       <c r="U43" s="72">
-        <v>779</v>
-      </c>
-      <c r="V43" s="72">
-        <v>0</v>
-      </c>
-      <c r="W43" s="72">
-        <v>0</v>
-      </c>
-      <c r="X43" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="40" t="s">
-        <v>20</v>
+        <v>403</v>
+      </c>
+      <c r="V43" s="72"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="67"/>
+    </row>
+    <row r="44" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C44" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="67">
-        <v>242</v>
-      </c>
-      <c r="E44" s="67">
-        <v>0</v>
-      </c>
-      <c r="F44" s="67">
-        <f>60</f>
-        <v>60</v>
-      </c>
-      <c r="G44" s="67">
-        <v>0</v>
-      </c>
-      <c r="H44" s="67">
-        <v>0</v>
-      </c>
-      <c r="I44" s="67">
-        <v>0</v>
-      </c>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="67"/>
-      <c r="K44" s="67">
-        <v>0</v>
-      </c>
-      <c r="L44" s="70"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="11"/>
       <c r="M44" s="74"/>
       <c r="N44" s="74"/>
-      <c r="O44" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q44" s="72">
-        <v>0</v>
-      </c>
+      <c r="O44" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q44" s="72"/>
       <c r="R44" s="72">
-        <v>0</v>
-      </c>
-      <c r="S44" s="72">
-        <v>0</v>
-      </c>
-      <c r="T44" s="72">
-        <v>0</v>
-      </c>
-      <c r="U44" s="72">
-        <v>0</v>
-      </c>
-      <c r="V44" s="72">
-        <v>0</v>
-      </c>
-      <c r="W44" s="72">
-        <f>327+60</f>
-        <v>387</v>
-      </c>
-      <c r="X44" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" ht="36" x14ac:dyDescent="0.25">
-      <c r="B45" s="40" t="s">
-        <v>20</v>
+        <f>38+42+9</f>
+        <v>89</v>
+      </c>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="67"/>
+    </row>
+    <row r="45" spans="2:24" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="67">
-        <v>0</v>
-      </c>
-      <c r="E45" s="67">
-        <v>0</v>
-      </c>
-      <c r="F45" s="67">
-        <v>0</v>
-      </c>
-      <c r="G45" s="67">
-        <f>40+45</f>
-        <v>85</v>
-      </c>
-      <c r="H45" s="67">
-        <v>0</v>
-      </c>
-      <c r="I45" s="67">
-        <v>0</v>
-      </c>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
       <c r="J45" s="67"/>
-      <c r="K45" s="67">
-        <v>0</v>
-      </c>
-      <c r="L45" s="70"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="11"/>
       <c r="M45" s="74"/>
       <c r="N45" s="74"/>
-      <c r="O45" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q45" s="72">
-        <v>0</v>
-      </c>
-      <c r="R45" s="72">
-        <v>0</v>
-      </c>
-      <c r="S45" s="72">
-        <v>0</v>
-      </c>
+      <c r="O45" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
       <c r="T45" s="72">
-        <f>90+10+234</f>
-        <v>334</v>
-      </c>
-      <c r="U45" s="72">
-        <v>0</v>
-      </c>
-      <c r="V45" s="72">
-        <v>0</v>
-      </c>
-      <c r="W45" s="72">
-        <v>0</v>
-      </c>
-      <c r="X45" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="40" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="67"/>
+    </row>
+    <row r="46" spans="2:24" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="67">
-        <v>0</v>
-      </c>
-      <c r="E46" s="67">
-        <v>0</v>
-      </c>
-      <c r="F46" s="67">
-        <v>0</v>
-      </c>
-      <c r="G46" s="67">
-        <v>0</v>
-      </c>
-      <c r="H46" s="67">
-        <v>0</v>
-      </c>
-      <c r="I46" s="67">
-        <v>0</v>
-      </c>
-      <c r="J46" s="67">
-        <f>1013+1701</f>
-        <v>2714</v>
-      </c>
-      <c r="K46" s="67">
-        <v>0</v>
-      </c>
-      <c r="L46" s="70"/>
+        <v>58</v>
+      </c>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="94">
+        <f>1511+444+20+287+262.5</f>
+        <v>2524.5</v>
+      </c>
+      <c r="K46" s="67"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="74"/>
       <c r="N46" s="74"/>
-      <c r="O46" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q46" s="72">
-        <v>0</v>
-      </c>
-      <c r="R46" s="72">
-        <v>0</v>
-      </c>
+      <c r="O46" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
       <c r="S46" s="72">
-        <f>2200+118+30+82+36+338</f>
-        <v>2804</v>
-      </c>
-      <c r="T46" s="72">
-        <v>0</v>
-      </c>
-      <c r="U46" s="72">
-        <v>0</v>
-      </c>
-      <c r="V46" s="72">
-        <v>0</v>
-      </c>
-      <c r="W46" s="72">
-        <v>0</v>
-      </c>
-      <c r="X46" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="40" t="s">
-        <v>20</v>
+        <f>50+45+14+2300+35</f>
+        <v>2444</v>
+      </c>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="67"/>
+    </row>
+    <row r="47" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="67">
-        <v>0</v>
-      </c>
-      <c r="E47" s="67">
-        <v>180</v>
-      </c>
-      <c r="F47" s="67">
-        <v>0</v>
-      </c>
-      <c r="G47" s="67">
-        <v>0</v>
-      </c>
-      <c r="H47" s="67">
-        <v>0</v>
-      </c>
-      <c r="I47" s="67">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="67">
-        <v>0</v>
-      </c>
-      <c r="K47" s="67">
-        <v>0</v>
-      </c>
-      <c r="L47" s="70"/>
+        <f>127</f>
+        <v>127</v>
+      </c>
+      <c r="K47" s="67"/>
+      <c r="L47" s="11"/>
       <c r="M47" s="74"/>
       <c r="N47" s="74"/>
-      <c r="O47" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" s="66" t="s">
+      <c r="O47" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P47" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="Q47" s="72">
-        <v>0</v>
-      </c>
-      <c r="R47" s="72">
-        <v>1221</v>
-      </c>
-      <c r="S47" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="T47" s="72">
-        <v>0</v>
-      </c>
-      <c r="U47" s="72">
-        <v>0</v>
-      </c>
-      <c r="V47" s="72">
-        <v>0</v>
-      </c>
-      <c r="W47" s="72">
-        <v>0</v>
-      </c>
-      <c r="X47" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" ht="36" x14ac:dyDescent="0.25">
-      <c r="B48" s="40" t="s">
-        <v>20</v>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="67"/>
+    </row>
+    <row r="48" spans="2:24" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="67">
-        <v>0</v>
-      </c>
-      <c r="E48" s="67">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="67">
-        <f>1638+45+36</f>
-        <v>1719</v>
-      </c>
-      <c r="G48" s="67">
-        <v>0</v>
-      </c>
-      <c r="H48" s="67">
-        <v>0</v>
-      </c>
-      <c r="I48" s="67">
-        <v>0</v>
-      </c>
-      <c r="J48" s="67">
-        <v>0</v>
-      </c>
-      <c r="K48" s="67">
-        <v>0</v>
-      </c>
-      <c r="L48" s="70"/>
+        <f>40+70+2070+30+54</f>
+        <v>2264</v>
+      </c>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="11"/>
       <c r="M48" s="74"/>
       <c r="N48" s="74"/>
-      <c r="O48" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="72">
-        <v>0</v>
-      </c>
-      <c r="R48" s="72">
-        <v>0</v>
-      </c>
-      <c r="S48" s="72">
-        <v>0</v>
-      </c>
-      <c r="T48" s="72">
-        <v>0</v>
-      </c>
-      <c r="U48" s="72">
-        <v>0</v>
-      </c>
+      <c r="O48" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
       <c r="V48" s="72">
-        <f>700+700+3067+710</f>
-        <v>5177</v>
-      </c>
-      <c r="W48" s="72">
-        <v>0</v>
-      </c>
-      <c r="X48" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
-        <v>20</v>
+        <f>700+700+710+2258+140</f>
+        <v>4508</v>
+      </c>
+      <c r="W48" s="72"/>
+      <c r="X48" s="67"/>
+    </row>
+    <row r="49" spans="2:24" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="67">
-        <v>0</v>
-      </c>
-      <c r="E49" s="67">
-        <v>0</v>
-      </c>
-      <c r="F49" s="67">
-        <v>0</v>
-      </c>
-      <c r="G49" s="67">
-        <v>0</v>
-      </c>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="67">
-        <f>380+380+460</f>
-        <v>1220</v>
-      </c>
-      <c r="I49" s="67">
-        <v>0</v>
-      </c>
-      <c r="J49" s="67">
-        <v>0</v>
-      </c>
-      <c r="K49" s="67">
-        <v>0</v>
-      </c>
-      <c r="L49" s="70"/>
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="11"/>
       <c r="M49" s="74"/>
       <c r="N49" s="74"/>
-      <c r="O49" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49" s="48" t="s">
+      <c r="O49" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="Q49" s="72">
-        <v>0</v>
-      </c>
-      <c r="R49" s="72">
-        <v>0</v>
-      </c>
-      <c r="S49" s="72">
-        <v>0</v>
-      </c>
-      <c r="T49" s="72">
-        <v>0</v>
-      </c>
-      <c r="U49" s="72">
-        <v>0</v>
-      </c>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
       <c r="V49" s="72">
-        <f>170+238+170+153+170+336</f>
-        <v>1237</v>
-      </c>
-      <c r="W49" s="72">
-        <v>0</v>
-      </c>
-      <c r="X49" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="67">
-        <v>0</v>
-      </c>
+        <f>68+170+170+170+280+221</f>
+        <v>1079</v>
+      </c>
+      <c r="W49" s="72"/>
+      <c r="X49" s="67"/>
+    </row>
+    <row r="50" spans="2:24" ht="24" x14ac:dyDescent="0.25">
+      <c r="B50" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="67"/>
       <c r="E50" s="67"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -3387,44 +3105,29 @@
       <c r="I50" s="67"/>
       <c r="J50" s="67"/>
       <c r="K50" s="67"/>
-      <c r="L50" s="70"/>
+      <c r="L50" s="11">
+        <f>765+243</f>
+        <v>1008</v>
+      </c>
       <c r="M50" s="74"/>
       <c r="N50" s="74"/>
-      <c r="O50" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="72">
-        <v>0</v>
-      </c>
-      <c r="R50" s="72">
-        <v>0</v>
-      </c>
-      <c r="S50" s="72">
-        <v>0</v>
-      </c>
-      <c r="T50" s="72">
-        <v>0</v>
-      </c>
-      <c r="U50" s="72">
-        <v>0</v>
-      </c>
-      <c r="V50" s="72">
-        <v>0</v>
-      </c>
-      <c r="W50" s="72">
-        <v>0</v>
-      </c>
-      <c r="X50" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="72"/>
+      <c r="V50" s="72"/>
+      <c r="W50" s="72"/>
+      <c r="X50" s="67"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="67">
-        <v>0</v>
-      </c>
+      <c r="D51" s="67"/>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
       <c r="G51" s="67"/>
@@ -3432,14 +3135,12 @@
       <c r="I51" s="67"/>
       <c r="J51" s="67"/>
       <c r="K51" s="67"/>
-      <c r="L51" s="70"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="74"/>
       <c r="N51" s="74"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="67">
-        <v>0</v>
-      </c>
+      <c r="O51" s="92"/>
+      <c r="P51" s="91"/>
+      <c r="Q51" s="67"/>
       <c r="R51" s="67"/>
       <c r="S51" s="67"/>
       <c r="T51" s="67"/>
@@ -3448,7 +3149,7 @@
       <c r="W51" s="67"/>
       <c r="X51" s="67"/>
     </row>
-    <row r="52" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="67">
@@ -3461,14 +3162,12 @@
       <c r="I52" s="67"/>
       <c r="J52" s="67"/>
       <c r="K52" s="67"/>
-      <c r="L52" s="70"/>
+      <c r="L52" s="11"/>
       <c r="M52" s="74"/>
       <c r="N52" s="74"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="67">
-        <v>0</v>
-      </c>
+      <c r="O52" s="92"/>
+      <c r="P52" s="91"/>
+      <c r="Q52" s="67"/>
       <c r="R52" s="67"/>
       <c r="S52" s="67"/>
       <c r="T52" s="67"/>
@@ -3477,7 +3176,7 @@
       <c r="W52" s="67"/>
       <c r="X52" s="67"/>
     </row>
-    <row r="53" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
       <c r="D53" s="67">
@@ -3490,14 +3189,12 @@
       <c r="I53" s="67"/>
       <c r="J53" s="67"/>
       <c r="K53" s="67"/>
-      <c r="L53" s="70"/>
+      <c r="L53" s="11"/>
       <c r="M53" s="74"/>
       <c r="N53" s="74"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="67">
-        <v>0</v>
-      </c>
+      <c r="O53" s="92"/>
+      <c r="P53" s="91"/>
+      <c r="Q53" s="67"/>
       <c r="R53" s="67"/>
       <c r="S53" s="67"/>
       <c r="T53" s="67"/>
@@ -3506,7 +3203,7 @@
       <c r="W53" s="67"/>
       <c r="X53" s="67"/>
     </row>
-    <row r="54" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
       <c r="D54" s="67">
@@ -3519,14 +3216,12 @@
       <c r="I54" s="67"/>
       <c r="J54" s="67"/>
       <c r="K54" s="67"/>
-      <c r="L54" s="70"/>
+      <c r="L54" s="11"/>
       <c r="M54" s="74"/>
       <c r="N54" s="74"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="67">
-        <v>0</v>
-      </c>
+      <c r="O54" s="92"/>
+      <c r="P54" s="91"/>
+      <c r="Q54" s="67"/>
       <c r="R54" s="67"/>
       <c r="S54" s="67"/>
       <c r="T54" s="67"/>
@@ -3535,7 +3230,7 @@
       <c r="W54" s="67"/>
       <c r="X54" s="67"/>
     </row>
-    <row r="55" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="67">
@@ -3548,14 +3243,12 @@
       <c r="I55" s="67"/>
       <c r="J55" s="67"/>
       <c r="K55" s="67"/>
-      <c r="L55" s="70"/>
+      <c r="L55" s="11"/>
       <c r="M55" s="74"/>
       <c r="N55" s="74"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="67">
-        <v>0</v>
-      </c>
+      <c r="O55" s="92"/>
+      <c r="P55" s="91"/>
+      <c r="Q55" s="67"/>
       <c r="R55" s="67"/>
       <c r="S55" s="67"/>
       <c r="T55" s="67"/>
@@ -3564,7 +3257,7 @@
       <c r="W55" s="67"/>
       <c r="X55" s="67"/>
     </row>
-    <row r="56" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="67">
@@ -3577,11 +3270,11 @@
       <c r="I56" s="67"/>
       <c r="J56" s="67"/>
       <c r="K56" s="67"/>
-      <c r="L56" s="70"/>
+      <c r="L56" s="11"/>
       <c r="M56" s="74"/>
       <c r="N56" s="74"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="51"/>
+      <c r="O56" s="92"/>
+      <c r="P56" s="91"/>
       <c r="Q56" s="67">
         <v>0</v>
       </c>
@@ -3593,7 +3286,7 @@
       <c r="W56" s="67"/>
       <c r="X56" s="67"/>
     </row>
-    <row r="57" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
       <c r="D57" s="67">
@@ -3606,11 +3299,11 @@
       <c r="I57" s="67"/>
       <c r="J57" s="67"/>
       <c r="K57" s="67"/>
-      <c r="L57" s="70"/>
+      <c r="L57" s="11"/>
       <c r="M57" s="74"/>
       <c r="N57" s="74"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="51"/>
+      <c r="O57" s="92"/>
+      <c r="P57" s="91"/>
       <c r="Q57" s="67">
         <v>0</v>
       </c>
@@ -3622,7 +3315,7 @@
       <c r="W57" s="67"/>
       <c r="X57" s="67"/>
     </row>
-    <row r="58" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
       <c r="D58" s="67">
@@ -3635,11 +3328,11 @@
       <c r="I58" s="67"/>
       <c r="J58" s="67"/>
       <c r="K58" s="67"/>
-      <c r="L58" s="70"/>
+      <c r="L58" s="11"/>
       <c r="M58" s="74"/>
       <c r="N58" s="74"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="51"/>
+      <c r="O58" s="92"/>
+      <c r="P58" s="91"/>
       <c r="Q58" s="67">
         <v>0</v>
       </c>
@@ -3651,7 +3344,7 @@
       <c r="W58" s="67"/>
       <c r="X58" s="67"/>
     </row>
-    <row r="59" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
       <c r="D59" s="67">
@@ -3664,11 +3357,11 @@
       <c r="I59" s="67"/>
       <c r="J59" s="67"/>
       <c r="K59" s="67"/>
-      <c r="L59" s="70"/>
+      <c r="L59" s="11"/>
       <c r="M59" s="74"/>
       <c r="N59" s="74"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="51"/>
+      <c r="O59" s="92"/>
+      <c r="P59" s="91"/>
       <c r="Q59" s="67">
         <v>0</v>
       </c>
@@ -3680,7 +3373,7 @@
       <c r="W59" s="67"/>
       <c r="X59" s="67"/>
     </row>
-    <row r="60" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="67">
@@ -3693,11 +3386,11 @@
       <c r="I60" s="67"/>
       <c r="J60" s="67"/>
       <c r="K60" s="67"/>
-      <c r="L60" s="70"/>
+      <c r="L60" s="11"/>
       <c r="M60" s="74"/>
       <c r="N60" s="74"/>
-      <c r="O60" s="46"/>
-      <c r="P60" s="51"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="91"/>
       <c r="Q60" s="67">
         <v>0</v>
       </c>
@@ -3709,7 +3402,7 @@
       <c r="W60" s="67"/>
       <c r="X60" s="67"/>
     </row>
-    <row r="61" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
       <c r="D61" s="67">
@@ -3722,11 +3415,11 @@
       <c r="I61" s="67"/>
       <c r="J61" s="67"/>
       <c r="K61" s="67"/>
-      <c r="L61" s="70"/>
+      <c r="L61" s="11"/>
       <c r="M61" s="74"/>
       <c r="N61" s="74"/>
-      <c r="O61" s="46"/>
-      <c r="P61" s="51"/>
+      <c r="O61" s="92"/>
+      <c r="P61" s="91"/>
       <c r="Q61" s="67">
         <v>0</v>
       </c>
@@ -3738,7 +3431,7 @@
       <c r="W61" s="67"/>
       <c r="X61" s="67"/>
     </row>
-    <row r="62" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="34"/>
       <c r="D62" s="73">
@@ -3751,7 +3444,7 @@
       <c r="I62" s="73"/>
       <c r="J62" s="73"/>
       <c r="K62" s="73"/>
-      <c r="L62" s="70"/>
+      <c r="L62" s="20"/>
       <c r="M62" s="74"/>
       <c r="N62" s="74"/>
       <c r="O62" s="46"/>
@@ -3767,43 +3460,46 @@
       <c r="W62" s="73"/>
       <c r="X62" s="73"/>
     </row>
-    <row r="63" spans="2:24" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="30">
-        <f t="shared" ref="D63:K63" si="2">SUM(D40:D62)</f>
-        <v>402</v>
+        <f t="shared" ref="D63:L63" si="2">SUM(D40:D62)</f>
+        <v>170</v>
       </c>
       <c r="E63" s="31">
         <f t="shared" si="2"/>
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="F63" s="31">
         <f t="shared" si="2"/>
-        <v>1779</v>
+        <v>2264</v>
       </c>
       <c r="G63" s="31">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H63" s="31">
         <f t="shared" si="2"/>
-        <v>1738</v>
+        <v>1799</v>
       </c>
       <c r="I63" s="31">
         <f t="shared" si="2"/>
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J63" s="22">
         <f t="shared" si="2"/>
-        <v>2714</v>
+        <v>2651.5</v>
       </c>
       <c r="K63" s="32">
         <f t="shared" si="2"/>
-        <v>6086</v>
-      </c>
-      <c r="L63" s="77"/>
+        <v>4783</v>
+      </c>
+      <c r="L63" s="100">
+        <f t="shared" si="2"/>
+        <v>1008</v>
+      </c>
       <c r="M63" s="75"/>
       <c r="N63" s="74"/>
       <c r="P63" s="33" t="s">
@@ -3811,38 +3507,38 @@
       </c>
       <c r="Q63" s="21">
         <f>SUM(Q40:Q62)</f>
-        <v>611</v>
+        <v>907</v>
       </c>
       <c r="R63" s="22">
         <f t="shared" ref="R63:X63" si="3">SUM(R40:R62)</f>
-        <v>1221</v>
+        <v>89</v>
       </c>
       <c r="S63" s="22">
         <f t="shared" si="3"/>
-        <v>2804</v>
+        <v>2444</v>
       </c>
       <c r="T63" s="22">
         <f t="shared" si="3"/>
-        <v>334</v>
+        <v>58</v>
       </c>
       <c r="U63" s="22">
         <f t="shared" si="3"/>
-        <v>779</v>
+        <v>403</v>
       </c>
       <c r="V63" s="22">
         <f t="shared" si="3"/>
-        <v>6414</v>
+        <v>5587</v>
       </c>
       <c r="W63" s="22">
         <f t="shared" si="3"/>
-        <v>1510</v>
+        <v>4449.5</v>
       </c>
       <c r="X63" s="23">
         <f t="shared" si="3"/>
-        <v>6779</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -3863,18 +3559,18 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="4:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="107">
-        <f>K63+J63+I63+H63+G63+F63+E63+D63</f>
-        <v>13579</v>
-      </c>
-      <c r="G65" s="108"/>
-      <c r="H65" s="109"/>
+      <c r="F65" s="114">
+        <f>K63+J63+I63+H63+G63+F63+E63+D63+L63</f>
+        <v>13447.5</v>
+      </c>
+      <c r="G65" s="115"/>
+      <c r="H65" s="116"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5">
-        <v>13579</v>
+        <v>13447.5</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="78"/>
@@ -3882,19 +3578,19 @@
       <c r="N65" s="74"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="112">
+      <c r="S65" s="117">
         <f>Q63+R63+S63+T63+U63+V63+W63+X63</f>
-        <v>20452</v>
-      </c>
-      <c r="T65" s="113"/>
-      <c r="U65" s="114"/>
+        <v>19080.5</v>
+      </c>
+      <c r="T65" s="118"/>
+      <c r="U65" s="119"/>
       <c r="V65" s="5">
-        <v>20452</v>
+        <v>19080.5</v>
       </c>
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="4:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -3914,7 +3610,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -3935,7 +3631,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -3956,36 +3652,1400 @@
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
     </row>
-    <row r="69" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
       <c r="L69" s="80"/>
       <c r="M69" s="80"/>
     </row>
-    <row r="70" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
       <c r="L70" s="80"/>
       <c r="M70" s="80"/>
     </row>
-    <row r="71" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="L71" s="80"/>
-      <c r="M71" s="80"/>
-    </row>
-    <row r="72" spans="4:24" x14ac:dyDescent="0.25">
-      <c r="L72" s="80"/>
-      <c r="M72" s="80"/>
+    <row r="71" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C72" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="108"/>
+      <c r="L72" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="M72" s="83"/>
+      <c r="N72" s="81"/>
+      <c r="O72" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="P72" s="110"/>
+      <c r="Q72" s="110"/>
+      <c r="R72" s="110"/>
+      <c r="S72" s="110"/>
+      <c r="T72" s="110"/>
+      <c r="U72" s="110"/>
+      <c r="V72" s="110"/>
+      <c r="W72" s="110"/>
+      <c r="X72" s="85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I73" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="J73" s="112"/>
+      <c r="K73" s="113"/>
+      <c r="L73" s="68"/>
+      <c r="M73" s="59"/>
+      <c r="N73" s="74"/>
+      <c r="W73" s="112"/>
+      <c r="X73" s="113"/>
+    </row>
+    <row r="74" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J74" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L74" s="69"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="82"/>
+      <c r="O74" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P74" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="R74" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S74" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="T74" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U74" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V74" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="W74" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="X74" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="72">
+        <v>160</v>
+      </c>
+      <c r="E75" s="72">
+        <v>0</v>
+      </c>
+      <c r="F75" s="72">
+        <v>0</v>
+      </c>
+      <c r="G75" s="72">
+        <v>0</v>
+      </c>
+      <c r="H75" s="72">
+        <v>0</v>
+      </c>
+      <c r="I75" s="72">
+        <v>0</v>
+      </c>
+      <c r="J75" s="72"/>
+      <c r="K75" s="72">
+        <v>0</v>
+      </c>
+      <c r="L75" s="70"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q75" s="72">
+        <v>0</v>
+      </c>
+      <c r="R75" s="72">
+        <v>0</v>
+      </c>
+      <c r="S75" s="72">
+        <v>0</v>
+      </c>
+      <c r="T75" s="72">
+        <v>0</v>
+      </c>
+      <c r="U75" s="72">
+        <v>0</v>
+      </c>
+      <c r="V75" s="72">
+        <v>0</v>
+      </c>
+      <c r="W75" s="72">
+        <v>0</v>
+      </c>
+      <c r="X75" s="72">
+        <f>109+1973+1400+1641+70+756+830</f>
+        <v>6779</v>
+      </c>
+      <c r="Y75" s="65"/>
+      <c r="Z75" s="65"/>
+    </row>
+    <row r="76" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="67">
+        <v>0</v>
+      </c>
+      <c r="E76" s="67">
+        <v>0</v>
+      </c>
+      <c r="F76" s="67">
+        <v>0</v>
+      </c>
+      <c r="G76" s="67">
+        <v>0</v>
+      </c>
+      <c r="H76" s="67">
+        <v>0</v>
+      </c>
+      <c r="I76" s="67">
+        <v>0</v>
+      </c>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67">
+        <f>542+680+1493+1388+806+1177</f>
+        <v>6086</v>
+      </c>
+      <c r="L76" s="71"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q76" s="72">
+        <v>0</v>
+      </c>
+      <c r="R76" s="72">
+        <v>0</v>
+      </c>
+      <c r="S76" s="72">
+        <v>0</v>
+      </c>
+      <c r="T76" s="72">
+        <v>0</v>
+      </c>
+      <c r="U76" s="72">
+        <v>0</v>
+      </c>
+      <c r="V76" s="72">
+        <v>0</v>
+      </c>
+      <c r="W76" s="72">
+        <f>127+896+100</f>
+        <v>1123</v>
+      </c>
+      <c r="X76" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="67">
+        <v>0</v>
+      </c>
+      <c r="E77" s="67">
+        <v>0</v>
+      </c>
+      <c r="F77" s="67">
+        <v>0</v>
+      </c>
+      <c r="G77" s="67">
+        <v>0</v>
+      </c>
+      <c r="H77" s="67">
+        <f>78+66+102+68+102+51+51</f>
+        <v>518</v>
+      </c>
+      <c r="I77" s="67">
+        <v>0</v>
+      </c>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67">
+        <v>0</v>
+      </c>
+      <c r="L77" s="70"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q77" s="72">
+        <f>144+287+180</f>
+        <v>611</v>
+      </c>
+      <c r="R77" s="72">
+        <v>0</v>
+      </c>
+      <c r="S77" s="72">
+        <v>0</v>
+      </c>
+      <c r="T77" s="72">
+        <v>0</v>
+      </c>
+      <c r="U77" s="72">
+        <v>0</v>
+      </c>
+      <c r="V77" s="72">
+        <v>0</v>
+      </c>
+      <c r="W77" s="72">
+        <v>0</v>
+      </c>
+      <c r="X77" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="67">
+        <v>0</v>
+      </c>
+      <c r="E78" s="67">
+        <v>123</v>
+      </c>
+      <c r="F78" s="67">
+        <v>0</v>
+      </c>
+      <c r="G78" s="67">
+        <v>0</v>
+      </c>
+      <c r="H78" s="67">
+        <v>0</v>
+      </c>
+      <c r="I78" s="67">
+        <f>391+81</f>
+        <v>472</v>
+      </c>
+      <c r="J78" s="67"/>
+      <c r="K78" s="67">
+        <v>0</v>
+      </c>
+      <c r="L78" s="70"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q78" s="72">
+        <v>0</v>
+      </c>
+      <c r="R78" s="72">
+        <v>0</v>
+      </c>
+      <c r="S78" s="72">
+        <v>0</v>
+      </c>
+      <c r="T78" s="72">
+        <v>0</v>
+      </c>
+      <c r="U78" s="72">
+        <v>779</v>
+      </c>
+      <c r="V78" s="72">
+        <v>0</v>
+      </c>
+      <c r="W78" s="72">
+        <v>0</v>
+      </c>
+      <c r="X78" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="67">
+        <v>242</v>
+      </c>
+      <c r="E79" s="67">
+        <v>0</v>
+      </c>
+      <c r="F79" s="67">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="G79" s="67">
+        <v>0</v>
+      </c>
+      <c r="H79" s="67">
+        <v>0</v>
+      </c>
+      <c r="I79" s="67">
+        <v>0</v>
+      </c>
+      <c r="J79" s="67"/>
+      <c r="K79" s="67">
+        <v>0</v>
+      </c>
+      <c r="L79" s="70"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q79" s="72">
+        <v>0</v>
+      </c>
+      <c r="R79" s="72">
+        <v>0</v>
+      </c>
+      <c r="S79" s="72">
+        <v>0</v>
+      </c>
+      <c r="T79" s="72">
+        <v>0</v>
+      </c>
+      <c r="U79" s="72">
+        <v>0</v>
+      </c>
+      <c r="V79" s="72">
+        <v>0</v>
+      </c>
+      <c r="W79" s="72">
+        <f>327+60</f>
+        <v>387</v>
+      </c>
+      <c r="X79" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" ht="36" x14ac:dyDescent="0.25">
+      <c r="B80" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="67">
+        <v>0</v>
+      </c>
+      <c r="E80" s="67">
+        <v>0</v>
+      </c>
+      <c r="F80" s="67">
+        <v>0</v>
+      </c>
+      <c r="G80" s="67">
+        <f>40+45</f>
+        <v>85</v>
+      </c>
+      <c r="H80" s="67">
+        <v>0</v>
+      </c>
+      <c r="I80" s="67">
+        <v>0</v>
+      </c>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67">
+        <v>0</v>
+      </c>
+      <c r="L80" s="70"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q80" s="72">
+        <v>0</v>
+      </c>
+      <c r="R80" s="72">
+        <v>0</v>
+      </c>
+      <c r="S80" s="72">
+        <v>0</v>
+      </c>
+      <c r="T80" s="72">
+        <f>90+10+234</f>
+        <v>334</v>
+      </c>
+      <c r="U80" s="72">
+        <v>0</v>
+      </c>
+      <c r="V80" s="72">
+        <v>0</v>
+      </c>
+      <c r="W80" s="72">
+        <v>0</v>
+      </c>
+      <c r="X80" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="67">
+        <v>0</v>
+      </c>
+      <c r="E81" s="67">
+        <v>0</v>
+      </c>
+      <c r="F81" s="67">
+        <v>0</v>
+      </c>
+      <c r="G81" s="67">
+        <v>0</v>
+      </c>
+      <c r="H81" s="67">
+        <v>0</v>
+      </c>
+      <c r="I81" s="67">
+        <v>0</v>
+      </c>
+      <c r="J81" s="67">
+        <f>1013+1701</f>
+        <v>2714</v>
+      </c>
+      <c r="K81" s="67">
+        <v>0</v>
+      </c>
+      <c r="L81" s="70"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q81" s="72">
+        <v>0</v>
+      </c>
+      <c r="R81" s="72">
+        <v>0</v>
+      </c>
+      <c r="S81" s="72">
+        <f>2200+118+30+82+36+338</f>
+        <v>2804</v>
+      </c>
+      <c r="T81" s="72">
+        <v>0</v>
+      </c>
+      <c r="U81" s="72">
+        <v>0</v>
+      </c>
+      <c r="V81" s="72">
+        <v>0</v>
+      </c>
+      <c r="W81" s="72">
+        <v>0</v>
+      </c>
+      <c r="X81" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="67">
+        <v>0</v>
+      </c>
+      <c r="E82" s="67">
+        <v>180</v>
+      </c>
+      <c r="F82" s="67">
+        <v>0</v>
+      </c>
+      <c r="G82" s="67">
+        <v>0</v>
+      </c>
+      <c r="H82" s="67">
+        <v>0</v>
+      </c>
+      <c r="I82" s="67">
+        <v>0</v>
+      </c>
+      <c r="J82" s="67">
+        <v>0</v>
+      </c>
+      <c r="K82" s="67">
+        <v>0</v>
+      </c>
+      <c r="L82" s="70"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q82" s="72">
+        <v>0</v>
+      </c>
+      <c r="R82" s="72">
+        <v>1221</v>
+      </c>
+      <c r="S82" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="T82" s="72">
+        <v>0</v>
+      </c>
+      <c r="U82" s="72">
+        <v>0</v>
+      </c>
+      <c r="V82" s="72">
+        <v>0</v>
+      </c>
+      <c r="W82" s="72">
+        <v>0</v>
+      </c>
+      <c r="X82" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" ht="36" x14ac:dyDescent="0.25">
+      <c r="B83" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="67">
+        <v>0</v>
+      </c>
+      <c r="E83" s="67">
+        <v>0</v>
+      </c>
+      <c r="F83" s="67">
+        <f>1638+45+36</f>
+        <v>1719</v>
+      </c>
+      <c r="G83" s="67">
+        <v>0</v>
+      </c>
+      <c r="H83" s="67">
+        <v>0</v>
+      </c>
+      <c r="I83" s="67">
+        <v>0</v>
+      </c>
+      <c r="J83" s="67">
+        <v>0</v>
+      </c>
+      <c r="K83" s="67">
+        <v>0</v>
+      </c>
+      <c r="L83" s="70"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q83" s="72">
+        <v>0</v>
+      </c>
+      <c r="R83" s="72">
+        <v>0</v>
+      </c>
+      <c r="S83" s="72">
+        <v>0</v>
+      </c>
+      <c r="T83" s="72">
+        <v>0</v>
+      </c>
+      <c r="U83" s="72">
+        <v>0</v>
+      </c>
+      <c r="V83" s="72">
+        <f>700+700+3067+710</f>
+        <v>5177</v>
+      </c>
+      <c r="W83" s="72">
+        <v>0</v>
+      </c>
+      <c r="X83" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="67">
+        <v>0</v>
+      </c>
+      <c r="E84" s="67">
+        <v>0</v>
+      </c>
+      <c r="F84" s="67">
+        <v>0</v>
+      </c>
+      <c r="G84" s="67">
+        <v>0</v>
+      </c>
+      <c r="H84" s="67">
+        <f>380+380+460</f>
+        <v>1220</v>
+      </c>
+      <c r="I84" s="67">
+        <v>0</v>
+      </c>
+      <c r="J84" s="67">
+        <v>0</v>
+      </c>
+      <c r="K84" s="67">
+        <v>0</v>
+      </c>
+      <c r="L84" s="70"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q84" s="72">
+        <v>0</v>
+      </c>
+      <c r="R84" s="72">
+        <v>0</v>
+      </c>
+      <c r="S84" s="72">
+        <v>0</v>
+      </c>
+      <c r="T84" s="72">
+        <v>0</v>
+      </c>
+      <c r="U84" s="72">
+        <v>0</v>
+      </c>
+      <c r="V84" s="72">
+        <f>170+238+170+153+170+336</f>
+        <v>1237</v>
+      </c>
+      <c r="W84" s="72">
+        <v>0</v>
+      </c>
+      <c r="X84" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="45"/>
+      <c r="D85" s="67">
+        <v>0</v>
+      </c>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="67"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="74"/>
+      <c r="O85" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" s="48"/>
+      <c r="Q85" s="72">
+        <v>0</v>
+      </c>
+      <c r="R85" s="72">
+        <v>0</v>
+      </c>
+      <c r="S85" s="72">
+        <v>0</v>
+      </c>
+      <c r="T85" s="72">
+        <v>0</v>
+      </c>
+      <c r="U85" s="72">
+        <v>0</v>
+      </c>
+      <c r="V85" s="72">
+        <v>0</v>
+      </c>
+      <c r="W85" s="72">
+        <v>0</v>
+      </c>
+      <c r="X85" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="67">
+        <v>0</v>
+      </c>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="67"/>
+      <c r="L86" s="70"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="67">
+        <v>0</v>
+      </c>
+      <c r="R86" s="67"/>
+      <c r="S86" s="67"/>
+      <c r="T86" s="67"/>
+      <c r="U86" s="67"/>
+      <c r="V86" s="67"/>
+      <c r="W86" s="67"/>
+      <c r="X86" s="67"/>
+    </row>
+    <row r="87" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="67">
+        <v>0</v>
+      </c>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="70"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="74"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="67">
+        <v>0</v>
+      </c>
+      <c r="R87" s="67"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="67"/>
+      <c r="U87" s="67"/>
+      <c r="V87" s="67"/>
+      <c r="W87" s="67"/>
+      <c r="X87" s="67"/>
+    </row>
+    <row r="88" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="67">
+        <v>0</v>
+      </c>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="67">
+        <v>0</v>
+      </c>
+      <c r="R88" s="67"/>
+      <c r="S88" s="67"/>
+      <c r="T88" s="67"/>
+      <c r="U88" s="67"/>
+      <c r="V88" s="67"/>
+      <c r="W88" s="67"/>
+      <c r="X88" s="67"/>
+    </row>
+    <row r="89" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="9"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="67">
+        <v>0</v>
+      </c>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="67">
+        <v>0</v>
+      </c>
+      <c r="R89" s="67"/>
+      <c r="S89" s="67"/>
+      <c r="T89" s="67"/>
+      <c r="U89" s="67"/>
+      <c r="V89" s="67"/>
+      <c r="W89" s="67"/>
+      <c r="X89" s="67"/>
+    </row>
+    <row r="90" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="9"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="67">
+        <v>0</v>
+      </c>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="74"/>
+      <c r="N90" s="74"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="67">
+        <v>0</v>
+      </c>
+      <c r="R90" s="67"/>
+      <c r="S90" s="67"/>
+      <c r="T90" s="67"/>
+      <c r="U90" s="67"/>
+      <c r="V90" s="67"/>
+      <c r="W90" s="67"/>
+      <c r="X90" s="67"/>
+    </row>
+    <row r="91" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="9"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="67">
+        <v>0</v>
+      </c>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="70"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="74"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="67">
+        <v>0</v>
+      </c>
+      <c r="R91" s="67"/>
+      <c r="S91" s="67"/>
+      <c r="T91" s="67"/>
+      <c r="U91" s="67"/>
+      <c r="V91" s="67"/>
+      <c r="W91" s="67"/>
+      <c r="X91" s="67"/>
+    </row>
+    <row r="92" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="67">
+        <v>0</v>
+      </c>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="70"/>
+      <c r="M92" s="74"/>
+      <c r="N92" s="74"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="51"/>
+      <c r="Q92" s="67">
+        <v>0</v>
+      </c>
+      <c r="R92" s="67"/>
+      <c r="S92" s="67"/>
+      <c r="T92" s="67"/>
+      <c r="U92" s="67"/>
+      <c r="V92" s="67"/>
+      <c r="W92" s="67"/>
+      <c r="X92" s="67"/>
+    </row>
+    <row r="93" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="67">
+        <v>0</v>
+      </c>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="67"/>
+      <c r="L93" s="70"/>
+      <c r="M93" s="74"/>
+      <c r="N93" s="74"/>
+      <c r="O93" s="46"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="67">
+        <v>0</v>
+      </c>
+      <c r="R93" s="67"/>
+      <c r="S93" s="67"/>
+      <c r="T93" s="67"/>
+      <c r="U93" s="67"/>
+      <c r="V93" s="67"/>
+      <c r="W93" s="67"/>
+      <c r="X93" s="67"/>
+    </row>
+    <row r="94" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="67">
+        <v>0</v>
+      </c>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67"/>
+      <c r="J94" s="67"/>
+      <c r="K94" s="67"/>
+      <c r="L94" s="70"/>
+      <c r="M94" s="74"/>
+      <c r="N94" s="74"/>
+      <c r="O94" s="46"/>
+      <c r="P94" s="51"/>
+      <c r="Q94" s="67">
+        <v>0</v>
+      </c>
+      <c r="R94" s="67"/>
+      <c r="S94" s="67"/>
+      <c r="T94" s="67"/>
+      <c r="U94" s="67"/>
+      <c r="V94" s="67"/>
+      <c r="W94" s="67"/>
+      <c r="X94" s="67"/>
+    </row>
+    <row r="95" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="67">
+        <v>0</v>
+      </c>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="70"/>
+      <c r="M95" s="74"/>
+      <c r="N95" s="74"/>
+      <c r="O95" s="46"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="67">
+        <v>0</v>
+      </c>
+      <c r="R95" s="67"/>
+      <c r="S95" s="67"/>
+      <c r="T95" s="67"/>
+      <c r="U95" s="67"/>
+      <c r="V95" s="67"/>
+      <c r="W95" s="67"/>
+      <c r="X95" s="67"/>
+    </row>
+    <row r="96" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="9"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="67">
+        <v>0</v>
+      </c>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
+      <c r="L96" s="70"/>
+      <c r="M96" s="74"/>
+      <c r="N96" s="74"/>
+      <c r="O96" s="46"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="67">
+        <v>0</v>
+      </c>
+      <c r="R96" s="67"/>
+      <c r="S96" s="67"/>
+      <c r="T96" s="67"/>
+      <c r="U96" s="67"/>
+      <c r="V96" s="67"/>
+      <c r="W96" s="67"/>
+      <c r="X96" s="67"/>
+    </row>
+    <row r="97" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="9"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="73">
+        <v>0</v>
+      </c>
+      <c r="E97" s="73"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="73"/>
+      <c r="I97" s="73"/>
+      <c r="J97" s="73"/>
+      <c r="K97" s="73"/>
+      <c r="L97" s="70"/>
+      <c r="M97" s="74"/>
+      <c r="N97" s="74"/>
+      <c r="O97" s="46"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="73">
+        <v>0</v>
+      </c>
+      <c r="R97" s="73"/>
+      <c r="S97" s="73"/>
+      <c r="T97" s="73"/>
+      <c r="U97" s="73"/>
+      <c r="V97" s="73"/>
+      <c r="W97" s="73"/>
+      <c r="X97" s="73"/>
+    </row>
+    <row r="98" spans="2:24" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="30">
+        <f t="shared" ref="D98:K98" si="4">SUM(D75:D97)</f>
+        <v>402</v>
+      </c>
+      <c r="E98" s="31">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="F98" s="31">
+        <f t="shared" si="4"/>
+        <v>1779</v>
+      </c>
+      <c r="G98" s="31">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="H98" s="31">
+        <f t="shared" si="4"/>
+        <v>1738</v>
+      </c>
+      <c r="I98" s="31">
+        <f t="shared" si="4"/>
+        <v>472</v>
+      </c>
+      <c r="J98" s="22">
+        <f t="shared" si="4"/>
+        <v>2714</v>
+      </c>
+      <c r="K98" s="32">
+        <f t="shared" si="4"/>
+        <v>6086</v>
+      </c>
+      <c r="L98" s="77"/>
+      <c r="M98" s="75"/>
+      <c r="N98" s="74"/>
+      <c r="P98" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q98" s="21">
+        <f>SUM(Q75:Q97)</f>
+        <v>611</v>
+      </c>
+      <c r="R98" s="22">
+        <f t="shared" ref="R98:X98" si="5">SUM(R75:R97)</f>
+        <v>1221</v>
+      </c>
+      <c r="S98" s="22">
+        <f t="shared" si="5"/>
+        <v>2804</v>
+      </c>
+      <c r="T98" s="22">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="U98" s="22">
+        <f t="shared" si="5"/>
+        <v>779</v>
+      </c>
+      <c r="V98" s="22">
+        <f t="shared" si="5"/>
+        <v>6414</v>
+      </c>
+      <c r="W98" s="22">
+        <f t="shared" si="5"/>
+        <v>1510</v>
+      </c>
+      <c r="X98" s="23">
+        <f t="shared" si="5"/>
+        <v>6779</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="78"/>
+      <c r="M99" s="76"/>
+      <c r="N99" s="74"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+      <c r="U99" s="5"/>
+      <c r="V99" s="5"/>
+      <c r="W99" s="5"/>
+      <c r="X99" s="5"/>
+    </row>
+    <row r="100" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="120">
+        <f>K98+J98+I98+H98+G98+F98+E98+D98</f>
+        <v>13579</v>
+      </c>
+      <c r="G100" s="115"/>
+      <c r="H100" s="116"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5">
+        <v>13579</v>
+      </c>
+      <c r="K100" s="5"/>
+      <c r="L100" s="78"/>
+      <c r="M100" s="76"/>
+      <c r="N100" s="74"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="117">
+        <f>Q98+R98+S98+T98+U98+V98+W98+X98</f>
+        <v>20452</v>
+      </c>
+      <c r="T100" s="118"/>
+      <c r="U100" s="119"/>
+      <c r="V100" s="5">
+        <v>20452</v>
+      </c>
+      <c r="W100" s="5"/>
+      <c r="X100" s="5"/>
+    </row>
+    <row r="101" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="78"/>
+      <c r="M101" s="76"/>
+      <c r="N101" s="74"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="78"/>
+      <c r="M102" s="76"/>
+      <c r="N102" s="74"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+    </row>
+    <row r="103" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="78"/>
+      <c r="M103" s="79"/>
+      <c r="N103" s="74"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L104" s="80"/>
+      <c r="M104" s="80"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L105" s="80"/>
+      <c r="M105" s="80"/>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L106" s="80"/>
+      <c r="M106" s="80"/>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L107" s="80"/>
+      <c r="M107" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="C2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="F30:H30"/>
     <mergeCell ref="S30:U30"/>
-    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="C72:K72"/>
+    <mergeCell ref="S100:U100"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="O72:W72"/>
     <mergeCell ref="C37:K37"/>
-    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="O37:W37"/>
     <mergeCell ref="I38:K38"/>
     <mergeCell ref="W38:X38"/>
-    <mergeCell ref="O37:W37"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="S65:U65"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4023,8 +5083,8 @@
   </sheetPr>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4055,31 +5115,31 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="118" t="s">
+      <c r="M2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
       <c r="W2" s="121"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4162,7 +5222,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="104">
-        <f>160+'GASTOS POR SEMANA  '!D5</f>
+        <f>160+'GASTOS POR SEMANA  '!D40</f>
         <v>330</v>
       </c>
       <c r="D5" s="13">
@@ -4217,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="104">
-        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X5</f>
+        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X40</f>
         <v>11922</v>
       </c>
     </row>
@@ -4248,7 +5308,7 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="105">
-        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K6</f>
+        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K41</f>
         <v>10869</v>
       </c>
       <c r="K6" s="11"/>
@@ -4281,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="104">
-        <f>127+896+100+'GASTOS POR SEMANA  '!W6</f>
+        <f>127+896+100+'GASTOS POR SEMANA  '!W41</f>
         <v>5572.5</v>
       </c>
       <c r="W6" s="67">
@@ -4308,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="105">
-        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H7</f>
+        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H42</f>
         <v>1087</v>
       </c>
       <c r="H7" s="11">
@@ -4327,7 +5387,7 @@
         <v>14</v>
       </c>
       <c r="O7" s="104">
-        <f>144+287+180+'GASTOS POR SEMANA  '!Q7</f>
+        <f>144+287+180+'GASTOS POR SEMANA  '!Q42</f>
         <v>1518</v>
       </c>
       <c r="P7" s="13">
@@ -4366,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="105">
-        <f>123+'GASTOS POR SEMANA  '!E8</f>
+        <f>123+'GASTOS POR SEMANA  '!E43</f>
         <v>492</v>
       </c>
       <c r="E8" s="11">
@@ -4379,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="105">
-        <f>391+81+'GASTOS POR SEMANA  '!I8</f>
+        <f>391+81+'GASTOS POR SEMANA  '!I43</f>
         <v>875</v>
       </c>
       <c r="I8" s="11"/>
@@ -4413,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="104">
-        <f>779+'GASTOS POR SEMANA  '!U8</f>
+        <f>779+'GASTOS POR SEMANA  '!U43</f>
         <v>1182</v>
       </c>
       <c r="V8" s="13">
@@ -4538,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="104">
-        <f>90+10+234+'GASTOS POR SEMANA  '!T10</f>
+        <f>90+10+234+'GASTOS POR SEMANA  '!T45</f>
         <v>392</v>
       </c>
       <c r="S10" s="13">
@@ -4583,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="105">
-        <f>1013+1701+'GASTOS POR SEMANA  '!J11+'GASTOS POR SEMANA  '!J12</f>
+        <f>1013+1701+'GASTOS POR SEMANA  '!J46+'GASTOS POR SEMANA  '!J47</f>
         <v>5365.5</v>
       </c>
       <c r="J11" s="11">
@@ -4604,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="104">
-        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S11</f>
+        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S46</f>
         <v>5248</v>
       </c>
       <c r="R11" s="13">
@@ -4669,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="104">
-        <f>1221+'GASTOS POR SEMANA  '!R9</f>
+        <f>1221+'GASTOS POR SEMANA  '!R44</f>
         <v>1310</v>
       </c>
       <c r="Q12" s="13" t="s">
@@ -4708,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="105">
-        <f>1638+45+36+'GASTOS POR SEMANA  '!F13</f>
+        <f>1638+45+36+'GASTOS POR SEMANA  '!F48</f>
         <v>3983</v>
       </c>
       <c r="F13" s="11">
@@ -4750,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="104">
-        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V13</f>
+        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V48</f>
         <v>9685</v>
       </c>
       <c r="U13" s="13">
@@ -4783,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="105">
-        <f>380+380+460+'GASTOS POR SEMANA  '!H14</f>
+        <f>380+380+460+'GASTOS POR SEMANA  '!H49</f>
         <v>2450</v>
       </c>
       <c r="H14" s="11">
@@ -4819,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="104">
-        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V14</f>
+        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V49</f>
         <v>2316</v>
       </c>
       <c r="U14" s="13">
@@ -4850,7 +5910,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="105">
-        <f>'GASTOS POR SEMANA  '!L15</f>
+        <f>'GASTOS POR SEMANA  '!L50</f>
         <v>1008</v>
       </c>
       <c r="L15" s="12"/>
@@ -5339,12 +6399,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="120">
+      <c r="E30" s="114">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="108"/>
-      <c r="G30" s="109"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5352,12 +6412,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="112">
+      <c r="Q30" s="117">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="113"/>
-      <c r="S30" s="114"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="119"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -5448,4 +6508,1434 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1"/>
+    <col min="21" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="121"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="102"/>
+      <c r="M4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="104">
+        <f>160+'GASTOS POR SEMANA  '!D40</f>
+        <v>330</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0</v>
+      </c>
+      <c r="S5" s="13">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
+        <v>0</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0</v>
+      </c>
+      <c r="V5" s="13">
+        <v>0</v>
+      </c>
+      <c r="W5" s="104">
+        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X40</f>
+        <v>11922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="105">
+        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K41</f>
+        <v>10869</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="104">
+        <f>127+896+100+'GASTOS POR SEMANA  '!W41</f>
+        <v>5572.5</v>
+      </c>
+      <c r="W6" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="105">
+        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H42</f>
+        <v>1087</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="104">
+        <f>144+287+180+'GASTOS POR SEMANA  '!Q42</f>
+        <v>1518</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="105">
+        <f>123+'GASTOS POR SEMANA  '!E43</f>
+        <v>492</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="105">
+        <f>391+81+'GASTOS POR SEMANA  '!I43</f>
+        <v>875</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="104">
+        <f>779+'GASTOS POR SEMANA  '!U43</f>
+        <v>1182</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="105">
+        <f>242</f>
+        <v>242</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="105">
+        <v>60</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="U9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9" s="104">
+        <f>327+60</f>
+        <v>387</v>
+      </c>
+      <c r="W9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="105">
+        <f>40+45</f>
+        <v>85</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+      <c r="R10" s="104">
+        <f>90+10+234+'GASTOS POR SEMANA  '!T45</f>
+        <v>392</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="W10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="57" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="105">
+        <f>1013+1701+'GASTOS POR SEMANA  '!J46+'GASTOS POR SEMANA  '!J47</f>
+        <v>5365.5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="104">
+        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S46</f>
+        <v>5248</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="105">
+        <v>180</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="104">
+        <f>1221+'GASTOS POR SEMANA  '!R44</f>
+        <v>1310</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="105">
+        <f>1638+45+36+'GASTOS POR SEMANA  '!F48</f>
+        <v>3983</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0</v>
+      </c>
+      <c r="T13" s="104">
+        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V48</f>
+        <v>9685</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="105">
+        <f>380+380+460+'GASTOS POR SEMANA  '!H49</f>
+        <v>2450</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0</v>
+      </c>
+      <c r="T14" s="104">
+        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V49</f>
+        <v>2316</v>
+      </c>
+      <c r="U14" s="13">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="105">
+        <f>'GASTOS POR SEMANA  '!L50</f>
+        <v>1008</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="48"/>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+    </row>
+    <row r="17" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+    </row>
+    <row r="18" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+    </row>
+    <row r="19" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="11">
+        <v>0</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+    </row>
+    <row r="21" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+    </row>
+    <row r="22" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="11">
+        <v>0</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+    </row>
+    <row r="23" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+    </row>
+    <row r="24" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="11">
+        <v>0</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+    </row>
+    <row r="25" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+    </row>
+    <row r="26" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+    </row>
+    <row r="27" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="20">
+        <v>0</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="20">
+        <v>0</v>
+      </c>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+    </row>
+    <row r="28" spans="1:23" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="30">
+        <f t="shared" ref="C28:K28" si="0">SUM(C5:C27)</f>
+        <v>572</v>
+      </c>
+      <c r="D28" s="31">
+        <f t="shared" si="0"/>
+        <v>672</v>
+      </c>
+      <c r="E28" s="31">
+        <f t="shared" si="0"/>
+        <v>4043</v>
+      </c>
+      <c r="F28" s="31">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G28" s="31">
+        <f t="shared" si="0"/>
+        <v>3537</v>
+      </c>
+      <c r="H28" s="31">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" si="0"/>
+        <v>5365.5</v>
+      </c>
+      <c r="J28" s="32">
+        <f t="shared" si="0"/>
+        <v>10869</v>
+      </c>
+      <c r="K28" s="32">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="N28" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" s="21">
+        <f>SUM(O5:O27)</f>
+        <v>1518</v>
+      </c>
+      <c r="P28" s="22">
+        <f t="shared" ref="P28:W28" si="1">SUM(P5:P27)</f>
+        <v>1310</v>
+      </c>
+      <c r="Q28" s="22">
+        <f t="shared" si="1"/>
+        <v>5248</v>
+      </c>
+      <c r="R28" s="22">
+        <f t="shared" si="1"/>
+        <v>392</v>
+      </c>
+      <c r="S28" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="22">
+        <f t="shared" si="1"/>
+        <v>12001</v>
+      </c>
+      <c r="U28" s="22">
+        <f t="shared" si="1"/>
+        <v>1182</v>
+      </c>
+      <c r="V28" s="22">
+        <f t="shared" si="1"/>
+        <v>5959.5</v>
+      </c>
+      <c r="W28" s="23">
+        <f t="shared" si="1"/>
+        <v>11922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="3"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="114">
+        <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
+        <v>27026.5</v>
+      </c>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="3"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="117">
+        <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
+        <v>39532.5</v>
+      </c>
+      <c r="R30" s="118"/>
+      <c r="S30" s="119"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="3"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="3"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+    </row>
+    <row r="33" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="M2:W2"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="Q30:S30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="88">
   <si>
     <t>FECHA</t>
   </si>
@@ -271,6 +271,30 @@
   </si>
   <si>
     <t>Mole-pollo-salchicha-pechuga-espinazo-chicharron-jamon americnao-tocino-puntas-</t>
+  </si>
+  <si>
+    <t>tomillo-oregano-tamarindo-jamaica</t>
+  </si>
+  <si>
+    <t>pera-papaya-limon-piñas-sandias-melones-pepino</t>
+  </si>
+  <si>
+    <t>cilantro-epazote-manzanilla-</t>
+  </si>
+  <si>
+    <t>poblano-brocoli-poro-lechugas-champiñones-jitomate-ajo-tomate-chicharo-calabaza-cebolla-zanahoria-tampico-morron-mole</t>
+  </si>
+  <si>
+    <t>jamon-pollo-pechuga-salchicha- espinazo-gouda-quesillo-chicharron-tocino-brocheta</t>
+  </si>
+  <si>
+    <t>PAN DULCE---bimbo-</t>
+  </si>
+  <si>
+    <t>Chipotle-rajas-elote-Norzuisa tarro-mantequilla--yogurt-crema-</t>
+  </si>
+  <si>
+    <t>Arroz</t>
   </si>
 </sst>
 </file>
@@ -1203,6 +1227,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1246,12 +1276,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1561,13 +1585,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:Z107"/>
+  <dimension ref="B1:Z98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,51 +1622,51 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="84" t="s">
         <v>66</v>
       </c>
       <c r="M2" s="83"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="109" t="s">
+      <c r="O2" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
       <c r="X2" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="111" t="s">
+      <c r="I3" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
       <c r="L3" s="68"/>
       <c r="M3" s="59"/>
       <c r="N3" s="74"/>
-      <c r="V3" s="111" t="s">
+      <c r="V3" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="112"/>
-      <c r="X3" s="113"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="115"/>
     </row>
     <row r="4" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -1711,11 +1735,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="107" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="72">
@@ -1732,9 +1756,11 @@
       <c r="L5" s="70"/>
       <c r="M5" s="74"/>
       <c r="N5" s="74"/>
-      <c r="O5" s="97"/>
+      <c r="O5" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="P5" s="86" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="72"/>
       <c r="R5" s="72"/>
@@ -1743,9 +1769,12 @@
       <c r="U5" s="72"/>
       <c r="V5" s="72"/>
       <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-    </row>
-    <row r="6" spans="2:24" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X5" s="72">
+        <f>69+2445+1943+325+1621</f>
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="36" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
         <v>69</v>
       </c>
@@ -1766,9 +1795,11 @@
       <c r="L6" s="67"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
-      <c r="O6" s="97"/>
+      <c r="O6" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="P6" s="89" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="72"/>
       <c r="R6" s="72"/>
@@ -1776,10 +1807,13 @@
       <c r="T6" s="72"/>
       <c r="U6" s="72"/>
       <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
+      <c r="W6" s="72">
+        <f>1500+380</f>
+        <v>1880</v>
+      </c>
       <c r="X6" s="67"/>
     </row>
-    <row r="7" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
         <v>69</v>
       </c>
@@ -1799,11 +1833,16 @@
       <c r="L7" s="11"/>
       <c r="M7" s="74"/>
       <c r="N7" s="74"/>
-      <c r="O7" s="97"/>
+      <c r="O7" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="P7" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="72"/>
+        <v>81</v>
+      </c>
+      <c r="Q7" s="72">
+        <f>78+342+635</f>
+        <v>1055</v>
+      </c>
       <c r="R7" s="72"/>
       <c r="S7" s="72"/>
       <c r="T7" s="72"/>
@@ -1812,7 +1851,7 @@
       <c r="W7" s="72"/>
       <c r="X7" s="67"/>
     </row>
-    <row r="8" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
         <v>69</v>
       </c>
@@ -1832,7 +1871,9 @@
       <c r="L8" s="11"/>
       <c r="M8" s="74"/>
       <c r="N8" s="74"/>
-      <c r="O8" s="97"/>
+      <c r="O8" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="P8" s="88" t="s">
         <v>12</v>
       </c>
@@ -1840,12 +1881,14 @@
       <c r="R8" s="72"/>
       <c r="S8" s="72"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="72">
+        <v>400</v>
+      </c>
       <c r="V8" s="72"/>
       <c r="W8" s="72"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="9" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
         <v>69</v>
       </c>
@@ -1865,12 +1908,16 @@
       <c r="L9" s="11"/>
       <c r="M9" s="74"/>
       <c r="N9" s="74"/>
-      <c r="O9" s="97"/>
+      <c r="O9" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="P9" s="89" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
+      <c r="R9" s="72">
+        <v>776</v>
+      </c>
       <c r="S9" s="72"/>
       <c r="T9" s="72"/>
       <c r="U9" s="72"/>
@@ -1878,7 +1925,7 @@
       <c r="W9" s="72"/>
       <c r="X9" s="67"/>
     </row>
-    <row r="10" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
         <v>69</v>
       </c>
@@ -1898,20 +1945,24 @@
       <c r="L10" s="11"/>
       <c r="M10" s="74"/>
       <c r="N10" s="74"/>
-      <c r="O10" s="97"/>
+      <c r="O10" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="P10" s="89" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="72"/>
       <c r="R10" s="72"/>
       <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
+      <c r="T10" s="72">
+        <v>40</v>
+      </c>
       <c r="U10" s="72"/>
       <c r="V10" s="72"/>
       <c r="W10" s="72"/>
       <c r="X10" s="67"/>
     </row>
-    <row r="11" spans="2:24" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
         <v>69</v>
       </c>
@@ -1932,20 +1983,25 @@
       <c r="L11" s="11"/>
       <c r="M11" s="74"/>
       <c r="N11" s="74"/>
-      <c r="O11" s="97"/>
+      <c r="O11" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="P11" s="89" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
+      <c r="S11" s="72">
+        <f>20+90+375+2010+280+252</f>
+        <v>3027</v>
+      </c>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
       <c r="V11" s="72"/>
       <c r="W11" s="72"/>
       <c r="X11" s="67"/>
     </row>
-    <row r="12" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
         <v>69</v>
       </c>
@@ -1966,12 +2022,16 @@
       <c r="L12" s="11"/>
       <c r="M12" s="74"/>
       <c r="N12" s="74"/>
-      <c r="O12" s="97"/>
+      <c r="O12" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="P12" s="90" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
+      <c r="R12" s="72">
+        <v>400</v>
+      </c>
       <c r="S12" s="72"/>
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
@@ -1979,7 +2039,7 @@
       <c r="W12" s="72"/>
       <c r="X12" s="67"/>
     </row>
-    <row r="13" spans="2:24" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="48" x14ac:dyDescent="0.25">
       <c r="B13" s="93" t="s">
         <v>69</v>
       </c>
@@ -2000,16 +2060,21 @@
       <c r="L13" s="11"/>
       <c r="M13" s="74"/>
       <c r="N13" s="74"/>
-      <c r="O13" s="97"/>
+      <c r="O13" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="P13" s="98" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
       <c r="S13" s="72"/>
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="72">
+        <f>700+700+700+2224</f>
+        <v>4324</v>
+      </c>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
     </row>
@@ -2034,7 +2099,9 @@
       <c r="L14" s="11"/>
       <c r="M14" s="74"/>
       <c r="N14" s="74"/>
-      <c r="O14" s="97"/>
+      <c r="O14" s="93" t="s">
+        <v>69</v>
+      </c>
       <c r="P14" s="88" t="s">
         <v>34</v>
       </c>
@@ -2043,7 +2110,10 @@
       <c r="S14" s="72"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="72">
+        <f>170+136+238+204+170+360</f>
+        <v>1278</v>
+      </c>
       <c r="W14" s="72"/>
       <c r="X14" s="67"/>
     </row>
@@ -2079,7 +2149,7 @@
       <c r="X15" s="67"/>
     </row>
     <row r="16" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="108" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2137,623 +2207,708 @@
       <c r="W17" s="67"/>
       <c r="X17" s="67"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="67">
-        <v>0</v>
-      </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="11"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="73">
+        <v>0</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="74"/>
       <c r="N18" s="74"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="67">
-        <v>0</v>
-      </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="74"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="73">
+        <v>0</v>
+      </c>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+    </row>
+    <row r="19" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="30">
+        <f>SUM(D5:D18)</f>
+        <v>469</v>
+      </c>
+      <c r="E19" s="31">
+        <f>SUM(E5:E18)</f>
+        <v>188</v>
+      </c>
+      <c r="F19" s="31">
+        <f>SUM(F5:F18)</f>
+        <v>2259</v>
+      </c>
+      <c r="G19" s="31">
+        <f>SUM(G5:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="31">
+        <f>SUM(H5:H18)</f>
+        <v>1881</v>
+      </c>
+      <c r="I19" s="31">
+        <f>SUM(I5:I18)</f>
+        <v>829</v>
+      </c>
+      <c r="J19" s="22">
+        <f>SUM(J5:J18)</f>
+        <v>1340.5</v>
+      </c>
+      <c r="K19" s="32">
+        <f>SUM(K5:K18)</f>
+        <v>6236</v>
+      </c>
+      <c r="L19" s="100">
+        <f>SUM(L5:L18)</f>
+        <v>500</v>
+      </c>
+      <c r="M19" s="75"/>
       <c r="N19" s="74"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="67">
-        <v>0</v>
-      </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="74"/>
+      <c r="P19" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="21">
+        <f>SUM(Q5:Q18)</f>
+        <v>1055</v>
+      </c>
+      <c r="R19" s="21">
+        <f>SUM(R5:R18)</f>
+        <v>1176</v>
+      </c>
+      <c r="S19" s="21">
+        <f>SUM(S5:S18)</f>
+        <v>3027</v>
+      </c>
+      <c r="T19" s="21">
+        <f>SUM(T5:T18)</f>
+        <v>40</v>
+      </c>
+      <c r="U19" s="21">
+        <f>SUM(U5:U18)</f>
+        <v>400</v>
+      </c>
+      <c r="V19" s="21">
+        <f>SUM(V5:V18)</f>
+        <v>5602</v>
+      </c>
+      <c r="W19" s="21">
+        <f>SUM(W5:W18)</f>
+        <v>1880</v>
+      </c>
+      <c r="X19" s="21">
+        <f>SUM(X5:X18)</f>
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="76"/>
       <c r="N20" s="74"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="67">
-        <v>0</v>
-      </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="74"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="116">
+        <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
+        <v>13702.5</v>
+      </c>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="76"/>
       <c r="N21" s="74"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="67">
-        <v>0</v>
-      </c>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="119">
+        <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
+        <v>19583</v>
+      </c>
+      <c r="T21" s="120"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="5">
+        <v>19583</v>
+      </c>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="67">
-        <v>0</v>
-      </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="74"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="76"/>
       <c r="N22" s="74"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="67">
-        <v>0</v>
-      </c>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="67">
-        <v>0</v>
-      </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="74"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="76"/>
       <c r="N23" s="74"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="67">
-        <v>0</v>
-      </c>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="67">
-        <v>0</v>
-      </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="74"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
       <c r="N24" s="74"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="67">
-        <v>0</v>
-      </c>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="67">
-        <v>0</v>
-      </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="67">
-        <v>0</v>
-      </c>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="67">
-        <v>0</v>
-      </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="67">
-        <v>0</v>
-      </c>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-    </row>
-    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="73">
-        <v>0</v>
-      </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="73">
-        <v>0</v>
-      </c>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-    </row>
-    <row r="28" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="30">
-        <f t="shared" ref="D28:L28" si="0">SUM(D5:D27)</f>
-        <v>469</v>
-      </c>
-      <c r="E28" s="31">
-        <f t="shared" si="0"/>
-        <v>188</v>
-      </c>
-      <c r="F28" s="31">
-        <f t="shared" si="0"/>
-        <v>2259</v>
-      </c>
-      <c r="G28" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="31">
-        <f t="shared" si="0"/>
-        <v>1881</v>
-      </c>
-      <c r="I28" s="31">
-        <f t="shared" si="0"/>
-        <v>829</v>
-      </c>
-      <c r="J28" s="22">
-        <f t="shared" si="0"/>
-        <v>1340.5</v>
-      </c>
-      <c r="K28" s="32">
-        <f t="shared" si="0"/>
-        <v>6236</v>
-      </c>
-      <c r="L28" s="100">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M28" s="75"/>
-      <c r="N28" s="74"/>
-      <c r="P28" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="21">
-        <f>SUM(Q5:Q27)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="22">
-        <f t="shared" ref="R28:X28" si="1">SUM(R5:R27)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="76"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="83"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="114"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="74"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-    </row>
-    <row r="30" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="114">
-        <f>K28+J28+I28+H28+G28+F28+E28+D28+L28</f>
-        <v>13702.5</v>
-      </c>
-      <c r="G30" s="115"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5">
-        <v>13447.5</v>
-      </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="74"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="117">
-        <f>Q28+R28+S28+T28+U28+V28+W28+X28</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="118"/>
-      <c r="U30" s="119"/>
-      <c r="V30" s="5">
-        <v>19080.5</v>
-      </c>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="76"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="115"/>
+    </row>
+    <row r="30" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="38"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V30" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="W30" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="X30" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="72">
+        <f>170</f>
+        <v>170</v>
+      </c>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="74"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="76"/>
+      <c r="O31" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72">
+        <f>725+922+1369+794+1333</f>
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67">
+        <f>636+788+1081+941+1337</f>
+        <v>4783</v>
+      </c>
+      <c r="L32" s="67"/>
+      <c r="M32" s="74"/>
       <c r="N32" s="74"/>
-    </row>
-    <row r="33" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="79"/>
+      <c r="O32" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72">
+        <f>1900+239+144+218+805+355+251.5+250+287</f>
+        <v>4449.5</v>
+      </c>
+      <c r="X32" s="67"/>
+    </row>
+    <row r="33" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67">
+        <f>51+68+68+140+84+90+68</f>
+        <v>569</v>
+      </c>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="74"/>
       <c r="N33" s="74"/>
-    </row>
-    <row r="36" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="M37" s="83"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="110"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="110"/>
-      <c r="X37" s="85" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="112"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="59"/>
+      <c r="O33" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q33" s="72">
+        <f>117+540+250</f>
+        <v>907</v>
+      </c>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="67"/>
+    </row>
+    <row r="34" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67">
+        <v>369</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67">
+        <f>403</f>
+        <v>403</v>
+      </c>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72">
+        <v>403</v>
+      </c>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="67"/>
+    </row>
+    <row r="35" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72">
+        <f>38+42+9</f>
+        <v>89</v>
+      </c>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="67"/>
+    </row>
+    <row r="36" spans="2:24" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72">
+        <v>58</v>
+      </c>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="67"/>
+    </row>
+    <row r="37" spans="2:24" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="94">
+        <f>1511+444+20+287+262.5</f>
+        <v>2524.5</v>
+      </c>
+      <c r="K37" s="67"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P37" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72">
+        <f>50+45+14+2300+35</f>
+        <v>2444</v>
+      </c>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="67"/>
+    </row>
+    <row r="38" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67">
+        <f>127</f>
+        <v>127</v>
+      </c>
+      <c r="K38" s="67"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="74"/>
       <c r="N38" s="74"/>
-      <c r="W38" s="112"/>
-      <c r="X38" s="113"/>
-    </row>
-    <row r="39" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K39" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="L39" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="M39" s="38"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="R39" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S39" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="T39" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="U39" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="V39" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="W39" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="X39" s="58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O38" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="67"/>
+    </row>
+    <row r="39" spans="2:24" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67">
+        <f>40+70+2070+30+54</f>
+        <v>2264</v>
+      </c>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P39" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72">
+        <f>700+700+710+2258+140</f>
+        <v>4508</v>
+      </c>
+      <c r="W39" s="72"/>
+      <c r="X39" s="67"/>
+    </row>
+    <row r="40" spans="2:24" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="72">
-        <f>170</f>
-        <v>170</v>
-      </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="70"/>
+      <c r="C40" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="74"/>
       <c r="N40" s="74"/>
       <c r="O40" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="P40" s="86" t="s">
-        <v>63</v>
+      <c r="P40" s="88" t="s">
+        <v>34</v>
       </c>
       <c r="Q40" s="72"/>
       <c r="R40" s="72"/>
       <c r="S40" s="72"/>
       <c r="T40" s="72"/>
       <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
+      <c r="V40" s="72">
+        <f>68+170+170+170+280+221</f>
+        <v>1079</v>
+      </c>
       <c r="W40" s="72"/>
-      <c r="X40" s="72">
-        <f>725+922+1369+794+1333</f>
-        <v>5143</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X40" s="67"/>
+    </row>
+    <row r="41" spans="2:24" ht="24" x14ac:dyDescent="0.25">
       <c r="B41" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="44" t="s">
-        <v>59</v>
+      <c r="C41" s="95" t="s">
+        <v>46</v>
       </c>
       <c r="D41" s="67"/>
       <c r="E41" s="67"/>
@@ -2762,118 +2917,84 @@
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
-      <c r="K41" s="67">
-        <f>636+788+1081+941+1337</f>
-        <v>4783</v>
-      </c>
-      <c r="L41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="11">
+        <f>765+243</f>
+        <v>1008</v>
+      </c>
       <c r="M41" s="74"/>
       <c r="N41" s="74"/>
       <c r="O41" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="P41" s="89" t="s">
-        <v>64</v>
-      </c>
+      <c r="P41" s="88"/>
       <c r="Q41" s="72"/>
       <c r="R41" s="72"/>
       <c r="S41" s="72"/>
       <c r="T41" s="72"/>
       <c r="U41" s="72"/>
       <c r="V41" s="72"/>
-      <c r="W41" s="72">
-        <f>1900+239+144+218+805+355+251.5+250+287</f>
-        <v>4449.5</v>
-      </c>
+      <c r="W41" s="72"/>
       <c r="X41" s="67"/>
     </row>
-    <row r="42" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>56</v>
-      </c>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
-      <c r="H42" s="67">
-        <f>51+68+68+140+84+90+68</f>
-        <v>569</v>
-      </c>
+      <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
       <c r="K42" s="67"/>
       <c r="L42" s="11"/>
       <c r="M42" s="74"/>
       <c r="N42" s="74"/>
-      <c r="O42" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P42" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q42" s="72">
-        <f>117+540+250</f>
-        <v>907</v>
-      </c>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
       <c r="X42" s="67"/>
     </row>
-    <row r="43" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67">
-        <v>369</v>
-      </c>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="67">
+        <v>0</v>
+      </c>
+      <c r="E43" s="67"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
       <c r="H43" s="67"/>
-      <c r="I43" s="67">
-        <f>403</f>
-        <v>403</v>
-      </c>
+      <c r="I43" s="67"/>
       <c r="J43" s="67"/>
       <c r="K43" s="67"/>
       <c r="L43" s="11"/>
       <c r="M43" s="74"/>
       <c r="N43" s="74"/>
-      <c r="O43" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P43" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72">
-        <v>403</v>
-      </c>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
+      <c r="O43" s="92"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="67"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
       <c r="X43" s="67"/>
     </row>
-    <row r="44" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="67"/>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="67">
+        <v>0</v>
+      </c>
       <c r="E44" s="67"/>
       <c r="F44" s="67"/>
       <c r="G44" s="67"/>
@@ -2884,32 +3005,23 @@
       <c r="L44" s="11"/>
       <c r="M44" s="74"/>
       <c r="N44" s="74"/>
-      <c r="O44" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P44" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72">
-        <f>38+42+9</f>
-        <v>89</v>
-      </c>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="91"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="67"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="67"/>
       <c r="X44" s="67"/>
     </row>
-    <row r="45" spans="2:24" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="67"/>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="67">
+        <v>0</v>
+      </c>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
       <c r="G45" s="67"/>
@@ -2920,111 +3032,81 @@
       <c r="L45" s="11"/>
       <c r="M45" s="74"/>
       <c r="N45" s="74"/>
-      <c r="O45" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P45" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72">
-        <v>58</v>
-      </c>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
       <c r="X45" s="67"/>
     </row>
-    <row r="46" spans="2:24" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="67"/>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="67">
+        <v>0</v>
+      </c>
       <c r="E46" s="67"/>
       <c r="F46" s="67"/>
       <c r="G46" s="67"/>
       <c r="H46" s="67"/>
       <c r="I46" s="67"/>
-      <c r="J46" s="94">
-        <f>1511+444+20+287+262.5</f>
-        <v>2524.5</v>
-      </c>
+      <c r="J46" s="67"/>
       <c r="K46" s="67"/>
       <c r="L46" s="11"/>
       <c r="M46" s="74"/>
       <c r="N46" s="74"/>
-      <c r="O46" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P46" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72">
-        <f>50+45+14+2300+35</f>
-        <v>2444</v>
-      </c>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="91"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
       <c r="X46" s="67"/>
     </row>
-    <row r="47" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" s="67"/>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="67">
+        <v>0</v>
+      </c>
       <c r="E47" s="67"/>
       <c r="F47" s="67"/>
       <c r="G47" s="67"/>
       <c r="H47" s="67"/>
       <c r="I47" s="67"/>
-      <c r="J47" s="67">
-        <f>127</f>
-        <v>127</v>
-      </c>
+      <c r="J47" s="67"/>
       <c r="K47" s="67"/>
       <c r="L47" s="11"/>
       <c r="M47" s="74"/>
       <c r="N47" s="74"/>
-      <c r="O47" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P47" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="67">
+        <v>0</v>
+      </c>
+      <c r="R47" s="67"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="67"/>
+      <c r="V47" s="67"/>
+      <c r="W47" s="67"/>
       <c r="X47" s="67"/>
     </row>
-    <row r="48" spans="2:24" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="67"/>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="67">
+        <v>0</v>
+      </c>
       <c r="E48" s="67"/>
-      <c r="F48" s="67">
-        <f>40+70+2070+30+54</f>
-        <v>2264</v>
-      </c>
+      <c r="F48" s="67"/>
       <c r="G48" s="67"/>
       <c r="H48" s="67"/>
       <c r="I48" s="67"/>
@@ -3033,71 +3115,54 @@
       <c r="L48" s="11"/>
       <c r="M48" s="74"/>
       <c r="N48" s="74"/>
-      <c r="O48" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P48" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72">
-        <f>700+700+710+2258+140</f>
-        <v>4508</v>
-      </c>
-      <c r="W48" s="72"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="91"/>
+      <c r="Q48" s="67">
+        <v>0</v>
+      </c>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="67"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="67"/>
       <c r="X48" s="67"/>
     </row>
-    <row r="49" spans="2:24" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="67"/>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="67">
+        <v>0</v>
+      </c>
       <c r="E49" s="67"/>
       <c r="F49" s="67"/>
       <c r="G49" s="67"/>
-      <c r="H49" s="67">
-        <f>380+380+470</f>
-        <v>1230</v>
-      </c>
+      <c r="H49" s="67"/>
       <c r="I49" s="67"/>
       <c r="J49" s="67"/>
       <c r="K49" s="67"/>
       <c r="L49" s="11"/>
       <c r="M49" s="74"/>
       <c r="N49" s="74"/>
-      <c r="O49" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P49" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72">
-        <f>68+170+170+170+280+221</f>
-        <v>1079</v>
-      </c>
-      <c r="W49" s="72"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="91"/>
+      <c r="Q49" s="67">
+        <v>0</v>
+      </c>
+      <c r="R49" s="67"/>
+      <c r="S49" s="67"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
       <c r="X49" s="67"/>
     </row>
-    <row r="50" spans="2:24" ht="24" x14ac:dyDescent="0.25">
-      <c r="B50" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="67"/>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="67">
+        <v>0</v>
+      </c>
       <c r="E50" s="67"/>
       <c r="F50" s="67"/>
       <c r="G50" s="67"/>
@@ -3105,29 +3170,28 @@
       <c r="I50" s="67"/>
       <c r="J50" s="67"/>
       <c r="K50" s="67"/>
-      <c r="L50" s="11">
-        <f>765+243</f>
-        <v>1008</v>
-      </c>
+      <c r="L50" s="11"/>
       <c r="M50" s="74"/>
       <c r="N50" s="74"/>
-      <c r="O50" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
-      <c r="V50" s="72"/>
-      <c r="W50" s="72"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="67">
+        <v>0</v>
+      </c>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="67"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
       <c r="X50" s="67"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="67"/>
+      <c r="D51" s="67">
+        <v>0</v>
+      </c>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
       <c r="G51" s="67"/>
@@ -3140,7 +3204,9 @@
       <c r="N51" s="74"/>
       <c r="O51" s="92"/>
       <c r="P51" s="91"/>
-      <c r="Q51" s="67"/>
+      <c r="Q51" s="67">
+        <v>0</v>
+      </c>
       <c r="R51" s="67"/>
       <c r="S51" s="67"/>
       <c r="T51" s="67"/>
@@ -3167,7 +3233,9 @@
       <c r="N52" s="74"/>
       <c r="O52" s="92"/>
       <c r="P52" s="91"/>
-      <c r="Q52" s="67"/>
+      <c r="Q52" s="67">
+        <v>0</v>
+      </c>
       <c r="R52" s="67"/>
       <c r="S52" s="67"/>
       <c r="T52" s="67"/>
@@ -3176,627 +3244,964 @@
       <c r="W52" s="67"/>
       <c r="X52" s="67"/>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="67">
-        <v>0</v>
-      </c>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="11"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="73">
+        <v>0</v>
+      </c>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="20"/>
       <c r="M53" s="74"/>
       <c r="N53" s="74"/>
-      <c r="O53" s="92"/>
-      <c r="P53" s="91"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="67">
-        <v>0</v>
-      </c>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="74"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="73">
+        <v>0</v>
+      </c>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
+    </row>
+    <row r="54" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="30">
+        <f t="shared" ref="D54:L54" si="0">SUM(D31:D53)</f>
+        <v>170</v>
+      </c>
+      <c r="E54" s="31">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+      <c r="F54" s="31">
+        <f t="shared" si="0"/>
+        <v>2264</v>
+      </c>
+      <c r="G54" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="31">
+        <f t="shared" si="0"/>
+        <v>1799</v>
+      </c>
+      <c r="I54" s="31">
+        <f t="shared" si="0"/>
+        <v>403</v>
+      </c>
+      <c r="J54" s="22">
+        <f t="shared" si="0"/>
+        <v>2651.5</v>
+      </c>
+      <c r="K54" s="32">
+        <f t="shared" si="0"/>
+        <v>4783</v>
+      </c>
+      <c r="L54" s="100">
+        <f t="shared" si="0"/>
+        <v>1008</v>
+      </c>
+      <c r="M54" s="75"/>
       <c r="N54" s="74"/>
-      <c r="O54" s="92"/>
-      <c r="P54" s="91"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="67">
-        <v>0</v>
-      </c>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="74"/>
+      <c r="P54" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q54" s="21">
+        <f>SUM(Q31:Q53)</f>
+        <v>907</v>
+      </c>
+      <c r="R54" s="22">
+        <f t="shared" ref="R54:X54" si="1">SUM(R31:R53)</f>
+        <v>89</v>
+      </c>
+      <c r="S54" s="22">
+        <f t="shared" si="1"/>
+        <v>2444</v>
+      </c>
+      <c r="T54" s="22">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="U54" s="22">
+        <f t="shared" si="1"/>
+        <v>403</v>
+      </c>
+      <c r="V54" s="22">
+        <f t="shared" si="1"/>
+        <v>5587</v>
+      </c>
+      <c r="W54" s="22">
+        <f t="shared" si="1"/>
+        <v>4449.5</v>
+      </c>
+      <c r="X54" s="23">
+        <f t="shared" si="1"/>
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="76"/>
       <c r="N55" s="74"/>
-      <c r="O55" s="92"/>
-      <c r="P55" s="91"/>
-      <c r="Q55" s="67"/>
-      <c r="R55" s="67"/>
-      <c r="S55" s="67"/>
-      <c r="T55" s="67"/>
-      <c r="U55" s="67"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="67"/>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="67">
-        <v>0</v>
-      </c>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="74"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+    </row>
+    <row r="56" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="116">
+        <f>K54+J54+I54+H54+G54+F54+E54+D54+L54</f>
+        <v>13447.5</v>
+      </c>
+      <c r="G56" s="117"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5">
+        <v>13447.5</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="76"/>
       <c r="N56" s="74"/>
-      <c r="O56" s="92"/>
-      <c r="P56" s="91"/>
-      <c r="Q56" s="67">
-        <v>0</v>
-      </c>
-      <c r="R56" s="67"/>
-      <c r="S56" s="67"/>
-      <c r="T56" s="67"/>
-      <c r="U56" s="67"/>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="119">
+        <f>Q54+R54+S54+T54+U54+V54+W54+X54</f>
+        <v>19080.5</v>
+      </c>
+      <c r="T56" s="120"/>
+      <c r="U56" s="121"/>
+      <c r="V56" s="5">
+        <v>19080.5</v>
+      </c>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="67">
-        <v>0</v>
-      </c>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="74"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="76"/>
       <c r="N57" s="74"/>
-      <c r="O57" s="92"/>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="67">
-        <v>0</v>
-      </c>
-      <c r="R57" s="67"/>
-      <c r="S57" s="67"/>
-      <c r="T57" s="67"/>
-      <c r="U57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="67">
-        <v>0</v>
-      </c>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="74"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="76"/>
       <c r="N58" s="74"/>
-      <c r="O58" s="92"/>
-      <c r="P58" s="91"/>
-      <c r="Q58" s="67">
-        <v>0</v>
-      </c>
-      <c r="R58" s="67"/>
-      <c r="S58" s="67"/>
-      <c r="T58" s="67"/>
-      <c r="U58" s="67"/>
-      <c r="V58" s="67"/>
-      <c r="W58" s="67"/>
-      <c r="X58" s="67"/>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="67">
-        <v>0</v>
-      </c>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="74"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+    </row>
+    <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="79"/>
       <c r="N59" s="74"/>
-      <c r="O59" s="92"/>
-      <c r="P59" s="91"/>
-      <c r="Q59" s="67">
-        <v>0</v>
-      </c>
-      <c r="R59" s="67"/>
-      <c r="S59" s="67"/>
-      <c r="T59" s="67"/>
-      <c r="U59" s="67"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="67"/>
-      <c r="X59" s="67"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="67">
-        <v>0</v>
-      </c>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="92"/>
-      <c r="P60" s="91"/>
-      <c r="Q60" s="67">
-        <v>0</v>
-      </c>
-      <c r="R60" s="67"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="67"/>
-      <c r="U60" s="67"/>
-      <c r="V60" s="67"/>
-      <c r="W60" s="67"/>
-      <c r="X60" s="67"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="67">
-        <v>0</v>
-      </c>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="74"/>
-      <c r="O61" s="92"/>
-      <c r="P61" s="91"/>
-      <c r="Q61" s="67">
-        <v>0</v>
-      </c>
-      <c r="R61" s="67"/>
-      <c r="S61" s="67"/>
-      <c r="T61" s="67"/>
-      <c r="U61" s="67"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="67"/>
-      <c r="X61" s="67"/>
-    </row>
-    <row r="62" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="9"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="73">
-        <v>0</v>
-      </c>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="74"/>
-      <c r="N62" s="74"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="73">
-        <v>0</v>
-      </c>
-      <c r="R62" s="73"/>
-      <c r="S62" s="73"/>
-      <c r="T62" s="73"/>
-      <c r="U62" s="73"/>
-      <c r="V62" s="73"/>
-      <c r="W62" s="73"/>
-      <c r="X62" s="73"/>
-    </row>
-    <row r="63" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="30">
-        <f t="shared" ref="D63:L63" si="2">SUM(D40:D62)</f>
-        <v>170</v>
-      </c>
-      <c r="E63" s="31">
-        <f t="shared" si="2"/>
-        <v>369</v>
-      </c>
-      <c r="F63" s="31">
-        <f t="shared" si="2"/>
-        <v>2264</v>
-      </c>
-      <c r="G63" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="31">
-        <f t="shared" si="2"/>
-        <v>1799</v>
-      </c>
-      <c r="I63" s="31">
-        <f t="shared" si="2"/>
-        <v>403</v>
-      </c>
-      <c r="J63" s="22">
-        <f t="shared" si="2"/>
-        <v>2651.5</v>
-      </c>
-      <c r="K63" s="32">
-        <f t="shared" si="2"/>
-        <v>4783</v>
-      </c>
-      <c r="L63" s="100">
-        <f t="shared" si="2"/>
-        <v>1008</v>
-      </c>
-      <c r="M63" s="75"/>
-      <c r="N63" s="74"/>
-      <c r="P63" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q63" s="21">
-        <f>SUM(Q40:Q62)</f>
-        <v>907</v>
-      </c>
-      <c r="R63" s="22">
-        <f t="shared" ref="R63:X63" si="3">SUM(R40:R62)</f>
-        <v>89</v>
-      </c>
-      <c r="S63" s="22">
-        <f t="shared" si="3"/>
-        <v>2444</v>
-      </c>
-      <c r="T63" s="22">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="U63" s="22">
-        <f t="shared" si="3"/>
-        <v>403</v>
-      </c>
-      <c r="V63" s="22">
-        <f t="shared" si="3"/>
-        <v>5587</v>
-      </c>
-      <c r="W63" s="22">
-        <f t="shared" si="3"/>
-        <v>4449.5</v>
-      </c>
-      <c r="X63" s="23">
-        <f t="shared" si="3"/>
-        <v>5143</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="78"/>
-      <c r="M64" s="76"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+    </row>
+    <row r="62" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C63" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="110"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="110"/>
+      <c r="G63" s="110"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="110"/>
+      <c r="K63" s="110"/>
+      <c r="L63" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="M63" s="83"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="111" t="s">
+        <v>19</v>
+      </c>
+      <c r="P63" s="112"/>
+      <c r="Q63" s="112"/>
+      <c r="R63" s="112"/>
+      <c r="S63" s="112"/>
+      <c r="T63" s="112"/>
+      <c r="U63" s="112"/>
+      <c r="V63" s="112"/>
+      <c r="W63" s="112"/>
+      <c r="X63" s="85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" s="114"/>
+      <c r="K64" s="115"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="59"/>
       <c r="N64" s="74"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-    </row>
-    <row r="65" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="114">
-        <f>K63+J63+I63+H63+G63+F63+E63+D63+L63</f>
-        <v>13447.5</v>
-      </c>
-      <c r="G65" s="115"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5">
-        <v>13447.5</v>
-      </c>
-      <c r="K65" s="5"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="74"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="117">
-        <f>Q63+R63+S63+T63+U63+V63+W63+X63</f>
-        <v>19080.5</v>
-      </c>
-      <c r="T65" s="118"/>
-      <c r="U65" s="119"/>
-      <c r="V65" s="5">
-        <v>19080.5</v>
-      </c>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="76"/>
+      <c r="W64" s="114"/>
+      <c r="X64" s="115"/>
+    </row>
+    <row r="65" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L65" s="69"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="R65" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S65" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="T65" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U65" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V65" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="W65" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="X65" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="72">
+        <v>160</v>
+      </c>
+      <c r="E66" s="72">
+        <v>0</v>
+      </c>
+      <c r="F66" s="72">
+        <v>0</v>
+      </c>
+      <c r="G66" s="72">
+        <v>0</v>
+      </c>
+      <c r="H66" s="72">
+        <v>0</v>
+      </c>
+      <c r="I66" s="72">
+        <v>0</v>
+      </c>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72">
+        <v>0</v>
+      </c>
+      <c r="L66" s="70"/>
+      <c r="M66" s="74"/>
       <c r="N66" s="74"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="76"/>
+      <c r="O66" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66" s="72">
+        <v>0</v>
+      </c>
+      <c r="R66" s="72">
+        <v>0</v>
+      </c>
+      <c r="S66" s="72">
+        <v>0</v>
+      </c>
+      <c r="T66" s="72">
+        <v>0</v>
+      </c>
+      <c r="U66" s="72">
+        <v>0</v>
+      </c>
+      <c r="V66" s="72">
+        <v>0</v>
+      </c>
+      <c r="W66" s="72">
+        <v>0</v>
+      </c>
+      <c r="X66" s="72">
+        <f>109+1973+1400+1641+70+756+830</f>
+        <v>6779</v>
+      </c>
+      <c r="Y66" s="65"/>
+      <c r="Z66" s="65"/>
+    </row>
+    <row r="67" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="67">
+        <v>0</v>
+      </c>
+      <c r="F67" s="67">
+        <v>0</v>
+      </c>
+      <c r="G67" s="67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="67">
+        <v>0</v>
+      </c>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67">
+        <f>542+680+1493+1388+806+1177</f>
+        <v>6086</v>
+      </c>
+      <c r="L67" s="71"/>
+      <c r="M67" s="74"/>
       <c r="N67" s="74"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-    </row>
-    <row r="68" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="78"/>
-      <c r="M68" s="79"/>
+      <c r="O67" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q67" s="72">
+        <v>0</v>
+      </c>
+      <c r="R67" s="72">
+        <v>0</v>
+      </c>
+      <c r="S67" s="72">
+        <v>0</v>
+      </c>
+      <c r="T67" s="72">
+        <v>0</v>
+      </c>
+      <c r="U67" s="72">
+        <v>0</v>
+      </c>
+      <c r="V67" s="72">
+        <v>0</v>
+      </c>
+      <c r="W67" s="72">
+        <f>127+896+100</f>
+        <v>1123</v>
+      </c>
+      <c r="X67" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="67">
+        <v>0</v>
+      </c>
+      <c r="E68" s="67">
+        <v>0</v>
+      </c>
+      <c r="F68" s="67">
+        <v>0</v>
+      </c>
+      <c r="G68" s="67">
+        <v>0</v>
+      </c>
+      <c r="H68" s="67">
+        <f>78+66+102+68+102+51+51</f>
+        <v>518</v>
+      </c>
+      <c r="I68" s="67">
+        <v>0</v>
+      </c>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67">
+        <v>0</v>
+      </c>
+      <c r="L68" s="70"/>
+      <c r="M68" s="74"/>
       <c r="N68" s="74"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L69" s="80"/>
-      <c r="M69" s="80"/>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L70" s="80"/>
-      <c r="M70" s="80"/>
-    </row>
-    <row r="71" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C72" s="107" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="108"/>
-      <c r="J72" s="108"/>
-      <c r="K72" s="108"/>
-      <c r="L72" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="M72" s="83"/>
-      <c r="N72" s="81"/>
-      <c r="O72" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="P72" s="110"/>
-      <c r="Q72" s="110"/>
-      <c r="R72" s="110"/>
-      <c r="S72" s="110"/>
-      <c r="T72" s="110"/>
-      <c r="U72" s="110"/>
-      <c r="V72" s="110"/>
-      <c r="W72" s="110"/>
-      <c r="X72" s="85" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I73" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="J73" s="112"/>
-      <c r="K73" s="113"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="59"/>
+      <c r="O68" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P68" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q68" s="72">
+        <f>144+287+180</f>
+        <v>611</v>
+      </c>
+      <c r="R68" s="72">
+        <v>0</v>
+      </c>
+      <c r="S68" s="72">
+        <v>0</v>
+      </c>
+      <c r="T68" s="72">
+        <v>0</v>
+      </c>
+      <c r="U68" s="72">
+        <v>0</v>
+      </c>
+      <c r="V68" s="72">
+        <v>0</v>
+      </c>
+      <c r="W68" s="72">
+        <v>0</v>
+      </c>
+      <c r="X68" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="67">
+        <v>0</v>
+      </c>
+      <c r="E69" s="67">
+        <v>123</v>
+      </c>
+      <c r="F69" s="67">
+        <v>0</v>
+      </c>
+      <c r="G69" s="67">
+        <v>0</v>
+      </c>
+      <c r="H69" s="67">
+        <v>0</v>
+      </c>
+      <c r="I69" s="67">
+        <f>391+81</f>
+        <v>472</v>
+      </c>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67">
+        <v>0</v>
+      </c>
+      <c r="L69" s="70"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q69" s="72">
+        <v>0</v>
+      </c>
+      <c r="R69" s="72">
+        <v>0</v>
+      </c>
+      <c r="S69" s="72">
+        <v>0</v>
+      </c>
+      <c r="T69" s="72">
+        <v>0</v>
+      </c>
+      <c r="U69" s="72">
+        <v>779</v>
+      </c>
+      <c r="V69" s="72">
+        <v>0</v>
+      </c>
+      <c r="W69" s="72">
+        <v>0</v>
+      </c>
+      <c r="X69" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="67">
+        <v>242</v>
+      </c>
+      <c r="E70" s="67">
+        <v>0</v>
+      </c>
+      <c r="F70" s="67">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="G70" s="67">
+        <v>0</v>
+      </c>
+      <c r="H70" s="67">
+        <v>0</v>
+      </c>
+      <c r="I70" s="67">
+        <v>0</v>
+      </c>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67">
+        <v>0</v>
+      </c>
+      <c r="L70" s="70"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q70" s="72">
+        <v>0</v>
+      </c>
+      <c r="R70" s="72">
+        <v>0</v>
+      </c>
+      <c r="S70" s="72">
+        <v>0</v>
+      </c>
+      <c r="T70" s="72">
+        <v>0</v>
+      </c>
+      <c r="U70" s="72">
+        <v>0</v>
+      </c>
+      <c r="V70" s="72">
+        <v>0</v>
+      </c>
+      <c r="W70" s="72">
+        <f>327+60</f>
+        <v>387</v>
+      </c>
+      <c r="X70" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" ht="36" x14ac:dyDescent="0.25">
+      <c r="B71" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="67">
+        <v>0</v>
+      </c>
+      <c r="E71" s="67">
+        <v>0</v>
+      </c>
+      <c r="F71" s="67">
+        <v>0</v>
+      </c>
+      <c r="G71" s="67">
+        <f>40+45</f>
+        <v>85</v>
+      </c>
+      <c r="H71" s="67">
+        <v>0</v>
+      </c>
+      <c r="I71" s="67">
+        <v>0</v>
+      </c>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67">
+        <v>0</v>
+      </c>
+      <c r="L71" s="70"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q71" s="72">
+        <v>0</v>
+      </c>
+      <c r="R71" s="72">
+        <v>0</v>
+      </c>
+      <c r="S71" s="72">
+        <v>0</v>
+      </c>
+      <c r="T71" s="72">
+        <f>90+10+234</f>
+        <v>334</v>
+      </c>
+      <c r="U71" s="72">
+        <v>0</v>
+      </c>
+      <c r="V71" s="72">
+        <v>0</v>
+      </c>
+      <c r="W71" s="72">
+        <v>0</v>
+      </c>
+      <c r="X71" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="67">
+        <v>0</v>
+      </c>
+      <c r="E72" s="67">
+        <v>0</v>
+      </c>
+      <c r="F72" s="67">
+        <v>0</v>
+      </c>
+      <c r="G72" s="67">
+        <v>0</v>
+      </c>
+      <c r="H72" s="67">
+        <v>0</v>
+      </c>
+      <c r="I72" s="67">
+        <v>0</v>
+      </c>
+      <c r="J72" s="67">
+        <f>1013+1701</f>
+        <v>2714</v>
+      </c>
+      <c r="K72" s="67">
+        <v>0</v>
+      </c>
+      <c r="L72" s="70"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="74"/>
+      <c r="O72" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q72" s="72">
+        <v>0</v>
+      </c>
+      <c r="R72" s="72">
+        <v>0</v>
+      </c>
+      <c r="S72" s="72">
+        <f>2200+118+30+82+36+338</f>
+        <v>2804</v>
+      </c>
+      <c r="T72" s="72">
+        <v>0</v>
+      </c>
+      <c r="U72" s="72">
+        <v>0</v>
+      </c>
+      <c r="V72" s="72">
+        <v>0</v>
+      </c>
+      <c r="W72" s="72">
+        <v>0</v>
+      </c>
+      <c r="X72" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="67">
+        <v>0</v>
+      </c>
+      <c r="E73" s="67">
+        <v>180</v>
+      </c>
+      <c r="F73" s="67">
+        <v>0</v>
+      </c>
+      <c r="G73" s="67">
+        <v>0</v>
+      </c>
+      <c r="H73" s="67">
+        <v>0</v>
+      </c>
+      <c r="I73" s="67">
+        <v>0</v>
+      </c>
+      <c r="J73" s="67">
+        <v>0</v>
+      </c>
+      <c r="K73" s="67">
+        <v>0</v>
+      </c>
+      <c r="L73" s="70"/>
+      <c r="M73" s="74"/>
       <c r="N73" s="74"/>
-      <c r="W73" s="112"/>
-      <c r="X73" s="113"/>
-    </row>
-    <row r="74" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I74" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="J74" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K74" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="L74" s="69"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="82"/>
-      <c r="O74" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P74" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="R74" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S74" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="T74" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="U74" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="V74" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="W74" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="X74" s="58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="2:26" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="O73" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q73" s="72">
+        <v>0</v>
+      </c>
+      <c r="R73" s="72">
+        <v>1221</v>
+      </c>
+      <c r="S73" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="T73" s="72">
+        <v>0</v>
+      </c>
+      <c r="U73" s="72">
+        <v>0</v>
+      </c>
+      <c r="V73" s="72">
+        <v>0</v>
+      </c>
+      <c r="W73" s="72">
+        <v>0</v>
+      </c>
+      <c r="X73" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" ht="36" x14ac:dyDescent="0.25">
+      <c r="B74" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="67">
+        <v>0</v>
+      </c>
+      <c r="E74" s="67">
+        <v>0</v>
+      </c>
+      <c r="F74" s="67">
+        <f>1638+45+36</f>
+        <v>1719</v>
+      </c>
+      <c r="G74" s="67">
+        <v>0</v>
+      </c>
+      <c r="H74" s="67">
+        <v>0</v>
+      </c>
+      <c r="I74" s="67">
+        <v>0</v>
+      </c>
+      <c r="J74" s="67">
+        <v>0</v>
+      </c>
+      <c r="K74" s="67">
+        <v>0</v>
+      </c>
+      <c r="L74" s="70"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="72">
+        <v>0</v>
+      </c>
+      <c r="R74" s="72">
+        <v>0</v>
+      </c>
+      <c r="S74" s="72">
+        <v>0</v>
+      </c>
+      <c r="T74" s="72">
+        <v>0</v>
+      </c>
+      <c r="U74" s="72">
+        <v>0</v>
+      </c>
+      <c r="V74" s="72">
+        <f>700+700+3067+710</f>
+        <v>5177</v>
+      </c>
+      <c r="W74" s="72">
+        <v>0</v>
+      </c>
+      <c r="X74" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="72">
-        <v>160</v>
-      </c>
-      <c r="E75" s="72">
-        <v>0</v>
-      </c>
-      <c r="F75" s="72">
-        <v>0</v>
-      </c>
-      <c r="G75" s="72">
-        <v>0</v>
-      </c>
-      <c r="H75" s="72">
-        <v>0</v>
-      </c>
-      <c r="I75" s="72">
-        <v>0</v>
-      </c>
-      <c r="J75" s="72"/>
-      <c r="K75" s="72">
+      <c r="C75" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="67">
+        <v>0</v>
+      </c>
+      <c r="E75" s="67">
+        <v>0</v>
+      </c>
+      <c r="F75" s="67">
+        <v>0</v>
+      </c>
+      <c r="G75" s="67">
+        <v>0</v>
+      </c>
+      <c r="H75" s="67">
+        <f>380+380+460</f>
+        <v>1220</v>
+      </c>
+      <c r="I75" s="67">
+        <v>0</v>
+      </c>
+      <c r="J75" s="67">
+        <v>0</v>
+      </c>
+      <c r="K75" s="67">
         <v>0</v>
       </c>
       <c r="L75" s="70"/>
@@ -3805,8 +4210,8 @@
       <c r="O75" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="P75" s="53" t="s">
-        <v>35</v>
+      <c r="P75" s="48" t="s">
+        <v>34</v>
       </c>
       <c r="Q75" s="72">
         <v>0</v>
@@ -3824,57 +4229,38 @@
         <v>0</v>
       </c>
       <c r="V75" s="72">
-        <v>0</v>
+        <f>170+238+170+153+170+336</f>
+        <v>1237</v>
       </c>
       <c r="W75" s="72">
         <v>0</v>
       </c>
-      <c r="X75" s="72">
-        <f>109+1973+1400+1641+70+756+830</f>
-        <v>6779</v>
-      </c>
-      <c r="Y75" s="65"/>
-      <c r="Z75" s="65"/>
-    </row>
-    <row r="76" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X75" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="44" t="s">
-        <v>29</v>
-      </c>
+      <c r="C76" s="45"/>
       <c r="D76" s="67">
         <v>0</v>
       </c>
-      <c r="E76" s="67">
-        <v>0</v>
-      </c>
-      <c r="F76" s="67">
-        <v>0</v>
-      </c>
-      <c r="G76" s="67">
-        <v>0</v>
-      </c>
-      <c r="H76" s="67">
-        <v>0</v>
-      </c>
-      <c r="I76" s="67">
-        <v>0</v>
-      </c>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
       <c r="J76" s="67"/>
-      <c r="K76" s="67">
-        <f>542+680+1493+1388+806+1177</f>
-        <v>6086</v>
-      </c>
-      <c r="L76" s="71"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="70"/>
       <c r="M76" s="74"/>
       <c r="N76" s="74"/>
       <c r="O76" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="P76" s="47" t="s">
-        <v>23</v>
-      </c>
+      <c r="P76" s="48"/>
       <c r="Q76" s="72">
         <v>0</v>
       </c>
@@ -3894,543 +4280,247 @@
         <v>0</v>
       </c>
       <c r="W76" s="72">
-        <f>127+896+100</f>
-        <v>1123</v>
+        <v>0</v>
       </c>
       <c r="X76" s="67">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>21</v>
-      </c>
+    <row r="77" spans="2:26" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="9"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="67">
         <v>0</v>
       </c>
-      <c r="E77" s="67">
-        <v>0</v>
-      </c>
-      <c r="F77" s="67">
-        <v>0</v>
-      </c>
-      <c r="G77" s="67">
-        <v>0</v>
-      </c>
-      <c r="H77" s="67">
-        <f>78+66+102+68+102+51+51</f>
-        <v>518</v>
-      </c>
-      <c r="I77" s="67">
-        <v>0</v>
-      </c>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
       <c r="J77" s="67"/>
-      <c r="K77" s="67">
-        <v>0</v>
-      </c>
+      <c r="K77" s="67"/>
       <c r="L77" s="70"/>
       <c r="M77" s="74"/>
       <c r="N77" s="74"/>
-      <c r="O77" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P77" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q77" s="72">
-        <f>144+287+180</f>
-        <v>611</v>
-      </c>
-      <c r="R77" s="72">
-        <v>0</v>
-      </c>
-      <c r="S77" s="72">
-        <v>0</v>
-      </c>
-      <c r="T77" s="72">
-        <v>0</v>
-      </c>
-      <c r="U77" s="72">
-        <v>0</v>
-      </c>
-      <c r="V77" s="72">
-        <v>0</v>
-      </c>
-      <c r="W77" s="72">
-        <v>0</v>
-      </c>
-      <c r="X77" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="42" t="s">
-        <v>10</v>
-      </c>
+      <c r="O77" s="46"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="67">
+        <v>0</v>
+      </c>
+      <c r="R77" s="67"/>
+      <c r="S77" s="67"/>
+      <c r="T77" s="67"/>
+      <c r="U77" s="67"/>
+      <c r="V77" s="67"/>
+      <c r="W77" s="67"/>
+      <c r="X77" s="67"/>
+    </row>
+    <row r="78" spans="2:26" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="9"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="67">
         <v>0</v>
       </c>
-      <c r="E78" s="67">
-        <v>123</v>
-      </c>
-      <c r="F78" s="67">
-        <v>0</v>
-      </c>
-      <c r="G78" s="67">
-        <v>0</v>
-      </c>
-      <c r="H78" s="67">
-        <v>0</v>
-      </c>
-      <c r="I78" s="67">
-        <f>391+81</f>
-        <v>472</v>
-      </c>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
       <c r="J78" s="67"/>
-      <c r="K78" s="67">
-        <v>0</v>
-      </c>
+      <c r="K78" s="67"/>
       <c r="L78" s="70"/>
       <c r="M78" s="74"/>
       <c r="N78" s="74"/>
-      <c r="O78" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P78" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q78" s="72">
-        <v>0</v>
-      </c>
-      <c r="R78" s="72">
-        <v>0</v>
-      </c>
-      <c r="S78" s="72">
-        <v>0</v>
-      </c>
-      <c r="T78" s="72">
-        <v>0</v>
-      </c>
-      <c r="U78" s="72">
-        <v>779</v>
-      </c>
-      <c r="V78" s="72">
-        <v>0</v>
-      </c>
-      <c r="W78" s="72">
-        <v>0</v>
-      </c>
-      <c r="X78" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="43" t="s">
-        <v>27</v>
-      </c>
+      <c r="O78" s="46"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="67">
+        <v>0</v>
+      </c>
+      <c r="R78" s="67"/>
+      <c r="S78" s="67"/>
+      <c r="T78" s="67"/>
+      <c r="U78" s="67"/>
+      <c r="V78" s="67"/>
+      <c r="W78" s="67"/>
+      <c r="X78" s="67"/>
+    </row>
+    <row r="79" spans="2:26" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="67">
-        <v>242</v>
-      </c>
-      <c r="E79" s="67">
-        <v>0</v>
-      </c>
-      <c r="F79" s="67">
-        <f>60</f>
-        <v>60</v>
-      </c>
-      <c r="G79" s="67">
-        <v>0</v>
-      </c>
-      <c r="H79" s="67">
-        <v>0</v>
-      </c>
-      <c r="I79" s="67">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
       <c r="J79" s="67"/>
-      <c r="K79" s="67">
-        <v>0</v>
-      </c>
+      <c r="K79" s="67"/>
       <c r="L79" s="70"/>
       <c r="M79" s="74"/>
       <c r="N79" s="74"/>
-      <c r="O79" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P79" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q79" s="72">
-        <v>0</v>
-      </c>
-      <c r="R79" s="72">
-        <v>0</v>
-      </c>
-      <c r="S79" s="72">
-        <v>0</v>
-      </c>
-      <c r="T79" s="72">
-        <v>0</v>
-      </c>
-      <c r="U79" s="72">
-        <v>0</v>
-      </c>
-      <c r="V79" s="72">
-        <v>0</v>
-      </c>
-      <c r="W79" s="72">
-        <f>327+60</f>
-        <v>387</v>
-      </c>
-      <c r="X79" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:26" ht="36" x14ac:dyDescent="0.25">
-      <c r="B80" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C80" s="44" t="s">
-        <v>31</v>
-      </c>
+      <c r="O79" s="46"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="67">
+        <v>0</v>
+      </c>
+      <c r="R79" s="67"/>
+      <c r="S79" s="67"/>
+      <c r="T79" s="67"/>
+      <c r="U79" s="67"/>
+      <c r="V79" s="67"/>
+      <c r="W79" s="67"/>
+      <c r="X79" s="67"/>
+    </row>
+    <row r="80" spans="2:26" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="9"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="67">
         <v>0</v>
       </c>
-      <c r="E80" s="67">
-        <v>0</v>
-      </c>
-      <c r="F80" s="67">
-        <v>0</v>
-      </c>
-      <c r="G80" s="67">
-        <f>40+45</f>
-        <v>85</v>
-      </c>
-      <c r="H80" s="67">
-        <v>0</v>
-      </c>
-      <c r="I80" s="67">
-        <v>0</v>
-      </c>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
       <c r="J80" s="67"/>
-      <c r="K80" s="67">
-        <v>0</v>
-      </c>
+      <c r="K80" s="67"/>
       <c r="L80" s="70"/>
       <c r="M80" s="74"/>
       <c r="N80" s="74"/>
-      <c r="O80" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P80" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q80" s="72">
-        <v>0</v>
-      </c>
-      <c r="R80" s="72">
-        <v>0</v>
-      </c>
-      <c r="S80" s="72">
-        <v>0</v>
-      </c>
-      <c r="T80" s="72">
-        <f>90+10+234</f>
-        <v>334</v>
-      </c>
-      <c r="U80" s="72">
-        <v>0</v>
-      </c>
-      <c r="V80" s="72">
-        <v>0</v>
-      </c>
-      <c r="W80" s="72">
-        <v>0</v>
-      </c>
-      <c r="X80" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:24" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="B81" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81" s="44" t="s">
-        <v>28</v>
-      </c>
+      <c r="O80" s="46"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="67">
+        <v>0</v>
+      </c>
+      <c r="R80" s="67"/>
+      <c r="S80" s="67"/>
+      <c r="T80" s="67"/>
+      <c r="U80" s="67"/>
+      <c r="V80" s="67"/>
+      <c r="W80" s="67"/>
+      <c r="X80" s="67"/>
+    </row>
+    <row r="81" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="9"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="67">
         <v>0</v>
       </c>
-      <c r="E81" s="67">
-        <v>0</v>
-      </c>
-      <c r="F81" s="67">
-        <v>0</v>
-      </c>
-      <c r="G81" s="67">
-        <v>0</v>
-      </c>
-      <c r="H81" s="67">
-        <v>0</v>
-      </c>
-      <c r="I81" s="67">
-        <v>0</v>
-      </c>
-      <c r="J81" s="67">
-        <f>1013+1701</f>
-        <v>2714</v>
-      </c>
-      <c r="K81" s="67">
-        <v>0</v>
-      </c>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
       <c r="L81" s="70"/>
       <c r="M81" s="74"/>
       <c r="N81" s="74"/>
-      <c r="O81" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P81" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q81" s="72">
-        <v>0</v>
-      </c>
-      <c r="R81" s="72">
-        <v>0</v>
-      </c>
-      <c r="S81" s="72">
-        <f>2200+118+30+82+36+338</f>
-        <v>2804</v>
-      </c>
-      <c r="T81" s="72">
-        <v>0</v>
-      </c>
-      <c r="U81" s="72">
-        <v>0</v>
-      </c>
-      <c r="V81" s="72">
-        <v>0</v>
-      </c>
-      <c r="W81" s="72">
-        <v>0</v>
-      </c>
-      <c r="X81" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="42" t="s">
-        <v>9</v>
-      </c>
+      <c r="O81" s="46"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="67">
+        <v>0</v>
+      </c>
+      <c r="R81" s="67"/>
+      <c r="S81" s="67"/>
+      <c r="T81" s="67"/>
+      <c r="U81" s="67"/>
+      <c r="V81" s="67"/>
+      <c r="W81" s="67"/>
+      <c r="X81" s="67"/>
+    </row>
+    <row r="82" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="9"/>
+      <c r="C82" s="10"/>
       <c r="D82" s="67">
         <v>0</v>
       </c>
-      <c r="E82" s="67">
-        <v>180</v>
-      </c>
-      <c r="F82" s="67">
-        <v>0</v>
-      </c>
-      <c r="G82" s="67">
-        <v>0</v>
-      </c>
-      <c r="H82" s="67">
-        <v>0</v>
-      </c>
-      <c r="I82" s="67">
-        <v>0</v>
-      </c>
-      <c r="J82" s="67">
-        <v>0</v>
-      </c>
-      <c r="K82" s="67">
-        <v>0</v>
-      </c>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
       <c r="L82" s="70"/>
       <c r="M82" s="74"/>
       <c r="N82" s="74"/>
-      <c r="O82" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P82" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q82" s="72">
-        <v>0</v>
-      </c>
-      <c r="R82" s="72">
-        <v>1221</v>
-      </c>
-      <c r="S82" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="T82" s="72">
-        <v>0</v>
-      </c>
-      <c r="U82" s="72">
-        <v>0</v>
-      </c>
-      <c r="V82" s="72">
-        <v>0</v>
-      </c>
-      <c r="W82" s="72">
-        <v>0</v>
-      </c>
-      <c r="X82" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:24" ht="36" x14ac:dyDescent="0.25">
-      <c r="B83" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="44" t="s">
-        <v>30</v>
-      </c>
+      <c r="O82" s="46"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="67">
+        <v>0</v>
+      </c>
+      <c r="R82" s="67"/>
+      <c r="S82" s="67"/>
+      <c r="T82" s="67"/>
+      <c r="U82" s="67"/>
+      <c r="V82" s="67"/>
+      <c r="W82" s="67"/>
+      <c r="X82" s="67"/>
+    </row>
+    <row r="83" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="9"/>
+      <c r="C83" s="10"/>
       <c r="D83" s="67">
         <v>0</v>
       </c>
-      <c r="E83" s="67">
-        <v>0</v>
-      </c>
-      <c r="F83" s="67">
-        <f>1638+45+36</f>
-        <v>1719</v>
-      </c>
-      <c r="G83" s="67">
-        <v>0</v>
-      </c>
-      <c r="H83" s="67">
-        <v>0</v>
-      </c>
-      <c r="I83" s="67">
-        <v>0</v>
-      </c>
-      <c r="J83" s="67">
-        <v>0</v>
-      </c>
-      <c r="K83" s="67">
-        <v>0</v>
-      </c>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
       <c r="L83" s="70"/>
       <c r="M83" s="74"/>
       <c r="N83" s="74"/>
-      <c r="O83" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P83" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q83" s="72">
-        <v>0</v>
-      </c>
-      <c r="R83" s="72">
-        <v>0</v>
-      </c>
-      <c r="S83" s="72">
-        <v>0</v>
-      </c>
-      <c r="T83" s="72">
-        <v>0</v>
-      </c>
-      <c r="U83" s="72">
-        <v>0</v>
-      </c>
-      <c r="V83" s="72">
-        <f>700+700+3067+710</f>
-        <v>5177</v>
-      </c>
-      <c r="W83" s="72">
-        <v>0</v>
-      </c>
-      <c r="X83" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C84" s="42" t="s">
-        <v>11</v>
-      </c>
+      <c r="O83" s="46"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="67">
+        <v>0</v>
+      </c>
+      <c r="R83" s="67"/>
+      <c r="S83" s="67"/>
+      <c r="T83" s="67"/>
+      <c r="U83" s="67"/>
+      <c r="V83" s="67"/>
+      <c r="W83" s="67"/>
+      <c r="X83" s="67"/>
+    </row>
+    <row r="84" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="9"/>
+      <c r="C84" s="10"/>
       <c r="D84" s="67">
         <v>0</v>
       </c>
-      <c r="E84" s="67">
-        <v>0</v>
-      </c>
-      <c r="F84" s="67">
-        <v>0</v>
-      </c>
-      <c r="G84" s="67">
-        <v>0</v>
-      </c>
-      <c r="H84" s="67">
-        <f>380+380+460</f>
-        <v>1220</v>
-      </c>
-      <c r="I84" s="67">
-        <v>0</v>
-      </c>
-      <c r="J84" s="67">
-        <v>0</v>
-      </c>
-      <c r="K84" s="67">
-        <v>0</v>
-      </c>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="67"/>
       <c r="L84" s="70"/>
       <c r="M84" s="74"/>
       <c r="N84" s="74"/>
-      <c r="O84" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P84" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q84" s="72">
-        <v>0</v>
-      </c>
-      <c r="R84" s="72">
-        <v>0</v>
-      </c>
-      <c r="S84" s="72">
-        <v>0</v>
-      </c>
-      <c r="T84" s="72">
-        <v>0</v>
-      </c>
-      <c r="U84" s="72">
-        <v>0</v>
-      </c>
-      <c r="V84" s="72">
-        <f>170+238+170+153+170+336</f>
-        <v>1237</v>
-      </c>
-      <c r="W84" s="72">
-        <v>0</v>
-      </c>
-      <c r="X84" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" s="45"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="67">
+        <v>0</v>
+      </c>
+      <c r="R84" s="67"/>
+      <c r="S84" s="67"/>
+      <c r="T84" s="67"/>
+      <c r="U84" s="67"/>
+      <c r="V84" s="67"/>
+      <c r="W84" s="67"/>
+      <c r="X84" s="67"/>
+    </row>
+    <row r="85" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="9"/>
+      <c r="C85" s="10"/>
       <c r="D85" s="67">
         <v>0</v>
       </c>
@@ -4444,34 +4534,18 @@
       <c r="L85" s="70"/>
       <c r="M85" s="74"/>
       <c r="N85" s="74"/>
-      <c r="O85" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P85" s="48"/>
-      <c r="Q85" s="72">
-        <v>0</v>
-      </c>
-      <c r="R85" s="72">
-        <v>0</v>
-      </c>
-      <c r="S85" s="72">
-        <v>0</v>
-      </c>
-      <c r="T85" s="72">
-        <v>0</v>
-      </c>
-      <c r="U85" s="72">
-        <v>0</v>
-      </c>
-      <c r="V85" s="72">
-        <v>0</v>
-      </c>
-      <c r="W85" s="72">
-        <v>0</v>
-      </c>
-      <c r="X85" s="67">
-        <v>0</v>
-      </c>
+      <c r="O85" s="46"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="67">
+        <v>0</v>
+      </c>
+      <c r="R85" s="67"/>
+      <c r="S85" s="67"/>
+      <c r="T85" s="67"/>
+      <c r="U85" s="67"/>
+      <c r="V85" s="67"/>
+      <c r="W85" s="67"/>
+      <c r="X85" s="67"/>
     </row>
     <row r="86" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="9"/>
@@ -4531,521 +4605,260 @@
       <c r="W87" s="67"/>
       <c r="X87" s="67"/>
     </row>
-    <row r="88" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="67">
-        <v>0</v>
-      </c>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="67"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="73">
+        <v>0</v>
+      </c>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="73"/>
       <c r="L88" s="70"/>
       <c r="M88" s="74"/>
       <c r="N88" s="74"/>
       <c r="O88" s="46"/>
       <c r="P88" s="51"/>
-      <c r="Q88" s="67">
-        <v>0</v>
-      </c>
-      <c r="R88" s="67"/>
-      <c r="S88" s="67"/>
-      <c r="T88" s="67"/>
-      <c r="U88" s="67"/>
-      <c r="V88" s="67"/>
-      <c r="W88" s="67"/>
-      <c r="X88" s="67"/>
-    </row>
-    <row r="89" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="9"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="67">
-        <v>0</v>
-      </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="70"/>
-      <c r="M89" s="74"/>
+      <c r="Q88" s="73">
+        <v>0</v>
+      </c>
+      <c r="R88" s="73"/>
+      <c r="S88" s="73"/>
+      <c r="T88" s="73"/>
+      <c r="U88" s="73"/>
+      <c r="V88" s="73"/>
+      <c r="W88" s="73"/>
+      <c r="X88" s="73"/>
+    </row>
+    <row r="89" spans="2:24" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="30">
+        <f t="shared" ref="D89:K89" si="2">SUM(D66:D88)</f>
+        <v>402</v>
+      </c>
+      <c r="E89" s="31">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="F89" s="31">
+        <f t="shared" si="2"/>
+        <v>1779</v>
+      </c>
+      <c r="G89" s="31">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="H89" s="31">
+        <f t="shared" si="2"/>
+        <v>1738</v>
+      </c>
+      <c r="I89" s="31">
+        <f t="shared" si="2"/>
+        <v>472</v>
+      </c>
+      <c r="J89" s="22">
+        <f t="shared" si="2"/>
+        <v>2714</v>
+      </c>
+      <c r="K89" s="32">
+        <f t="shared" si="2"/>
+        <v>6086</v>
+      </c>
+      <c r="L89" s="77"/>
+      <c r="M89" s="75"/>
       <c r="N89" s="74"/>
-      <c r="O89" s="46"/>
-      <c r="P89" s="51"/>
-      <c r="Q89" s="67">
-        <v>0</v>
-      </c>
-      <c r="R89" s="67"/>
-      <c r="S89" s="67"/>
-      <c r="T89" s="67"/>
-      <c r="U89" s="67"/>
-      <c r="V89" s="67"/>
-      <c r="W89" s="67"/>
-      <c r="X89" s="67"/>
-    </row>
-    <row r="90" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="9"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="67">
-        <v>0</v>
-      </c>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="70"/>
-      <c r="M90" s="74"/>
+      <c r="P89" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q89" s="21">
+        <f>SUM(Q66:Q88)</f>
+        <v>611</v>
+      </c>
+      <c r="R89" s="22">
+        <f t="shared" ref="R89:X89" si="3">SUM(R66:R88)</f>
+        <v>1221</v>
+      </c>
+      <c r="S89" s="22">
+        <f t="shared" si="3"/>
+        <v>2804</v>
+      </c>
+      <c r="T89" s="22">
+        <f t="shared" si="3"/>
+        <v>334</v>
+      </c>
+      <c r="U89" s="22">
+        <f t="shared" si="3"/>
+        <v>779</v>
+      </c>
+      <c r="V89" s="22">
+        <f t="shared" si="3"/>
+        <v>6414</v>
+      </c>
+      <c r="W89" s="22">
+        <f t="shared" si="3"/>
+        <v>1510</v>
+      </c>
+      <c r="X89" s="23">
+        <f t="shared" si="3"/>
+        <v>6779</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="76"/>
       <c r="N90" s="74"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="51"/>
-      <c r="Q90" s="67">
-        <v>0</v>
-      </c>
-      <c r="R90" s="67"/>
-      <c r="S90" s="67"/>
-      <c r="T90" s="67"/>
-      <c r="U90" s="67"/>
-      <c r="V90" s="67"/>
-      <c r="W90" s="67"/>
-      <c r="X90" s="67"/>
-    </row>
-    <row r="91" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="9"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="67">
-        <v>0</v>
-      </c>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="74"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="5"/>
+      <c r="X90" s="5"/>
+    </row>
+    <row r="91" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="122">
+        <f>K89+J89+I89+H89+G89+F89+E89+D89</f>
+        <v>13579</v>
+      </c>
+      <c r="G91" s="117"/>
+      <c r="H91" s="118"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5">
+        <v>13579</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="L91" s="78"/>
+      <c r="M91" s="76"/>
       <c r="N91" s="74"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="51"/>
-      <c r="Q91" s="67">
-        <v>0</v>
-      </c>
-      <c r="R91" s="67"/>
-      <c r="S91" s="67"/>
-      <c r="T91" s="67"/>
-      <c r="U91" s="67"/>
-      <c r="V91" s="67"/>
-      <c r="W91" s="67"/>
-      <c r="X91" s="67"/>
-    </row>
-    <row r="92" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="9"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="67">
-        <v>0</v>
-      </c>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="70"/>
-      <c r="M92" s="74"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="119">
+        <f>Q89+R89+S89+T89+U89+V89+W89+X89</f>
+        <v>20452</v>
+      </c>
+      <c r="T91" s="120"/>
+      <c r="U91" s="121"/>
+      <c r="V91" s="5">
+        <v>20452</v>
+      </c>
+      <c r="W91" s="5"/>
+      <c r="X91" s="5"/>
+    </row>
+    <row r="92" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="78"/>
+      <c r="M92" s="76"/>
       <c r="N92" s="74"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="51"/>
-      <c r="Q92" s="67">
-        <v>0</v>
-      </c>
-      <c r="R92" s="67"/>
-      <c r="S92" s="67"/>
-      <c r="T92" s="67"/>
-      <c r="U92" s="67"/>
-      <c r="V92" s="67"/>
-      <c r="W92" s="67"/>
-      <c r="X92" s="67"/>
-    </row>
-    <row r="93" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="67">
-        <v>0</v>
-      </c>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="67"/>
-      <c r="L93" s="70"/>
-      <c r="M93" s="74"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="78"/>
+      <c r="M93" s="76"/>
       <c r="N93" s="74"/>
-      <c r="O93" s="46"/>
-      <c r="P93" s="51"/>
-      <c r="Q93" s="67">
-        <v>0</v>
-      </c>
-      <c r="R93" s="67"/>
-      <c r="S93" s="67"/>
-      <c r="T93" s="67"/>
-      <c r="U93" s="67"/>
-      <c r="V93" s="67"/>
-      <c r="W93" s="67"/>
-      <c r="X93" s="67"/>
-    </row>
-    <row r="94" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="9"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="67">
-        <v>0</v>
-      </c>
-      <c r="E94" s="67"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="67"/>
-      <c r="K94" s="67"/>
-      <c r="L94" s="70"/>
-      <c r="M94" s="74"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
+      <c r="T93" s="5"/>
+      <c r="U93" s="5"/>
+      <c r="V93" s="5"/>
+      <c r="W93" s="5"/>
+      <c r="X93" s="5"/>
+    </row>
+    <row r="94" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="78"/>
+      <c r="M94" s="79"/>
       <c r="N94" s="74"/>
-      <c r="O94" s="46"/>
-      <c r="P94" s="51"/>
-      <c r="Q94" s="67">
-        <v>0</v>
-      </c>
-      <c r="R94" s="67"/>
-      <c r="S94" s="67"/>
-      <c r="T94" s="67"/>
-      <c r="U94" s="67"/>
-      <c r="V94" s="67"/>
-      <c r="W94" s="67"/>
-      <c r="X94" s="67"/>
-    </row>
-    <row r="95" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="9"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="67">
-        <v>0</v>
-      </c>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
-      <c r="J95" s="67"/>
-      <c r="K95" s="67"/>
-      <c r="L95" s="70"/>
-      <c r="M95" s="74"/>
-      <c r="N95" s="74"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="51"/>
-      <c r="Q95" s="67">
-        <v>0</v>
-      </c>
-      <c r="R95" s="67"/>
-      <c r="S95" s="67"/>
-      <c r="T95" s="67"/>
-      <c r="U95" s="67"/>
-      <c r="V95" s="67"/>
-      <c r="W95" s="67"/>
-      <c r="X95" s="67"/>
-    </row>
-    <row r="96" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="9"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="67">
-        <v>0</v>
-      </c>
-      <c r="E96" s="67"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="67"/>
-      <c r="L96" s="70"/>
-      <c r="M96" s="74"/>
-      <c r="N96" s="74"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="51"/>
-      <c r="Q96" s="67">
-        <v>0</v>
-      </c>
-      <c r="R96" s="67"/>
-      <c r="S96" s="67"/>
-      <c r="T96" s="67"/>
-      <c r="U96" s="67"/>
-      <c r="V96" s="67"/>
-      <c r="W96" s="67"/>
-      <c r="X96" s="67"/>
-    </row>
-    <row r="97" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="9"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="73">
-        <v>0</v>
-      </c>
-      <c r="E97" s="73"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="73"/>
-      <c r="K97" s="73"/>
-      <c r="L97" s="70"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="74"/>
-      <c r="O97" s="46"/>
-      <c r="P97" s="51"/>
-      <c r="Q97" s="73">
-        <v>0</v>
-      </c>
-      <c r="R97" s="73"/>
-      <c r="S97" s="73"/>
-      <c r="T97" s="73"/>
-      <c r="U97" s="73"/>
-      <c r="V97" s="73"/>
-      <c r="W97" s="73"/>
-      <c r="X97" s="73"/>
-    </row>
-    <row r="98" spans="2:24" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="30">
-        <f t="shared" ref="D98:K98" si="4">SUM(D75:D97)</f>
-        <v>402</v>
-      </c>
-      <c r="E98" s="31">
-        <f t="shared" si="4"/>
-        <v>303</v>
-      </c>
-      <c r="F98" s="31">
-        <f t="shared" si="4"/>
-        <v>1779</v>
-      </c>
-      <c r="G98" s="31">
-        <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="H98" s="31">
-        <f t="shared" si="4"/>
-        <v>1738</v>
-      </c>
-      <c r="I98" s="31">
-        <f t="shared" si="4"/>
-        <v>472</v>
-      </c>
-      <c r="J98" s="22">
-        <f t="shared" si="4"/>
-        <v>2714</v>
-      </c>
-      <c r="K98" s="32">
-        <f t="shared" si="4"/>
-        <v>6086</v>
-      </c>
-      <c r="L98" s="77"/>
-      <c r="M98" s="75"/>
-      <c r="N98" s="74"/>
-      <c r="P98" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q98" s="21">
-        <f>SUM(Q75:Q97)</f>
-        <v>611</v>
-      </c>
-      <c r="R98" s="22">
-        <f t="shared" ref="R98:X98" si="5">SUM(R75:R97)</f>
-        <v>1221</v>
-      </c>
-      <c r="S98" s="22">
-        <f t="shared" si="5"/>
-        <v>2804</v>
-      </c>
-      <c r="T98" s="22">
-        <f t="shared" si="5"/>
-        <v>334</v>
-      </c>
-      <c r="U98" s="22">
-        <f t="shared" si="5"/>
-        <v>779</v>
-      </c>
-      <c r="V98" s="22">
-        <f t="shared" si="5"/>
-        <v>6414</v>
-      </c>
-      <c r="W98" s="22">
-        <f t="shared" si="5"/>
-        <v>1510</v>
-      </c>
-      <c r="X98" s="23">
-        <f t="shared" si="5"/>
-        <v>6779</v>
-      </c>
-    </row>
-    <row r="99" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="78"/>
-      <c r="M99" s="76"/>
-      <c r="N99" s="74"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
-      <c r="X99" s="5"/>
-    </row>
-    <row r="100" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="120">
-        <f>K98+J98+I98+H98+G98+F98+E98+D98</f>
-        <v>13579</v>
-      </c>
-      <c r="G100" s="115"/>
-      <c r="H100" s="116"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5">
-        <v>13579</v>
-      </c>
-      <c r="K100" s="5"/>
-      <c r="L100" s="78"/>
-      <c r="M100" s="76"/>
-      <c r="N100" s="74"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="117">
-        <f>Q98+R98+S98+T98+U98+V98+W98+X98</f>
-        <v>20452</v>
-      </c>
-      <c r="T100" s="118"/>
-      <c r="U100" s="119"/>
-      <c r="V100" s="5">
-        <v>20452</v>
-      </c>
-      <c r="W100" s="5"/>
-      <c r="X100" s="5"/>
-    </row>
-    <row r="101" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="78"/>
-      <c r="M101" s="76"/>
-      <c r="N101" s="74"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-    </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="78"/>
-      <c r="M102" s="76"/>
-      <c r="N102" s="74"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="5"/>
-      <c r="V102" s="5"/>
-      <c r="W102" s="5"/>
-      <c r="X102" s="5"/>
-    </row>
-    <row r="103" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="78"/>
-      <c r="M103" s="79"/>
-      <c r="N103" s="74"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5"/>
-      <c r="V103" s="5"/>
-      <c r="W103" s="5"/>
-      <c r="X103" s="5"/>
-    </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L104" s="80"/>
-      <c r="M104" s="80"/>
-    </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L105" s="80"/>
-      <c r="M105" s="80"/>
-    </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L106" s="80"/>
-      <c r="M106" s="80"/>
-    </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L107" s="80"/>
-      <c r="M107" s="80"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L95" s="80"/>
+      <c r="M95" s="80"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L96" s="80"/>
+      <c r="M96" s="80"/>
+    </row>
+    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L97" s="80"/>
+      <c r="M97" s="80"/>
+    </row>
+    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L98" s="80"/>
+      <c r="M98" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="O2:W2"/>
-    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="C72:K72"/>
-    <mergeCell ref="S100:U100"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="O72:W72"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="O37:W37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="C63:K63"/>
+    <mergeCell ref="S91:U91"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="W64:X64"/>
+    <mergeCell ref="O63:W63"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="O28:W28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="S56:U56"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5115,32 +4928,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="121"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="123"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -5222,7 +5035,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="104">
-        <f>160+'GASTOS POR SEMANA  '!D40</f>
+        <f>160+'GASTOS POR SEMANA  '!D31</f>
         <v>330</v>
       </c>
       <c r="D5" s="13">
@@ -5277,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="104">
-        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X40</f>
+        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X31</f>
         <v>11922</v>
       </c>
     </row>
@@ -5308,7 +5121,7 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="105">
-        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K41</f>
+        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K32</f>
         <v>10869</v>
       </c>
       <c r="K6" s="11"/>
@@ -5341,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="104">
-        <f>127+896+100+'GASTOS POR SEMANA  '!W41</f>
+        <f>127+896+100+'GASTOS POR SEMANA  '!W32</f>
         <v>5572.5</v>
       </c>
       <c r="W6" s="67">
@@ -5368,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="105">
-        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H42</f>
+        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H33</f>
         <v>1087</v>
       </c>
       <c r="H7" s="11">
@@ -5387,7 +5200,7 @@
         <v>14</v>
       </c>
       <c r="O7" s="104">
-        <f>144+287+180+'GASTOS POR SEMANA  '!Q42</f>
+        <f>144+287+180+'GASTOS POR SEMANA  '!Q33</f>
         <v>1518</v>
       </c>
       <c r="P7" s="13">
@@ -5426,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="105">
-        <f>123+'GASTOS POR SEMANA  '!E43</f>
+        <f>123+'GASTOS POR SEMANA  '!E34</f>
         <v>492</v>
       </c>
       <c r="E8" s="11">
@@ -5439,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="105">
-        <f>391+81+'GASTOS POR SEMANA  '!I43</f>
+        <f>391+81+'GASTOS POR SEMANA  '!I34</f>
         <v>875</v>
       </c>
       <c r="I8" s="11"/>
@@ -5473,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="104">
-        <f>779+'GASTOS POR SEMANA  '!U43</f>
+        <f>779+'GASTOS POR SEMANA  '!U34</f>
         <v>1182</v>
       </c>
       <c r="V8" s="13">
@@ -5598,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="104">
-        <f>90+10+234+'GASTOS POR SEMANA  '!T45</f>
+        <f>90+10+234+'GASTOS POR SEMANA  '!T36</f>
         <v>392</v>
       </c>
       <c r="S10" s="13">
@@ -5643,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="105">
-        <f>1013+1701+'GASTOS POR SEMANA  '!J46+'GASTOS POR SEMANA  '!J47</f>
+        <f>1013+1701+'GASTOS POR SEMANA  '!J37+'GASTOS POR SEMANA  '!J38</f>
         <v>5365.5</v>
       </c>
       <c r="J11" s="11">
@@ -5664,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="104">
-        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S46</f>
+        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S37</f>
         <v>5248</v>
       </c>
       <c r="R11" s="13">
@@ -5729,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="104">
-        <f>1221+'GASTOS POR SEMANA  '!R44</f>
+        <f>1221+'GASTOS POR SEMANA  '!R35</f>
         <v>1310</v>
       </c>
       <c r="Q12" s="13" t="s">
@@ -5768,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="105">
-        <f>1638+45+36+'GASTOS POR SEMANA  '!F48</f>
+        <f>1638+45+36+'GASTOS POR SEMANA  '!F39</f>
         <v>3983</v>
       </c>
       <c r="F13" s="11">
@@ -5810,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="104">
-        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V48</f>
+        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V39</f>
         <v>9685</v>
       </c>
       <c r="U13" s="13">
@@ -5843,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="105">
-        <f>380+380+460+'GASTOS POR SEMANA  '!H49</f>
+        <f>380+380+460+'GASTOS POR SEMANA  '!H40</f>
         <v>2450</v>
       </c>
       <c r="H14" s="11">
@@ -5879,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="104">
-        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V49</f>
+        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V40</f>
         <v>2316</v>
       </c>
       <c r="U14" s="13">
@@ -5910,7 +5723,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="105">
-        <f>'GASTOS POR SEMANA  '!L50</f>
+        <f>'GASTOS POR SEMANA  '!L41</f>
         <v>1008</v>
       </c>
       <c r="L15" s="12"/>
@@ -6399,12 +6212,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="114">
+      <c r="E30" s="116">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="118"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -6412,12 +6225,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="117">
+      <c r="Q30" s="119">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="118"/>
-      <c r="S30" s="119"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="121"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -6546,32 +6359,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="121"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="123"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -6653,7 +6466,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="104">
-        <f>160+'GASTOS POR SEMANA  '!D40</f>
+        <f>160+'GASTOS POR SEMANA  '!D31</f>
         <v>330</v>
       </c>
       <c r="D5" s="13">
@@ -6708,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="104">
-        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X40</f>
+        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X31</f>
         <v>11922</v>
       </c>
     </row>
@@ -6739,7 +6552,7 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="105">
-        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K41</f>
+        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K32</f>
         <v>10869</v>
       </c>
       <c r="K6" s="11"/>
@@ -6772,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="104">
-        <f>127+896+100+'GASTOS POR SEMANA  '!W41</f>
+        <f>127+896+100+'GASTOS POR SEMANA  '!W32</f>
         <v>5572.5</v>
       </c>
       <c r="W6" s="67">
@@ -6799,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="105">
-        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H42</f>
+        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H33</f>
         <v>1087</v>
       </c>
       <c r="H7" s="11">
@@ -6818,7 +6631,7 @@
         <v>14</v>
       </c>
       <c r="O7" s="104">
-        <f>144+287+180+'GASTOS POR SEMANA  '!Q42</f>
+        <f>144+287+180+'GASTOS POR SEMANA  '!Q33</f>
         <v>1518</v>
       </c>
       <c r="P7" s="13">
@@ -6857,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="105">
-        <f>123+'GASTOS POR SEMANA  '!E43</f>
+        <f>123+'GASTOS POR SEMANA  '!E34</f>
         <v>492</v>
       </c>
       <c r="E8" s="11">
@@ -6870,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="105">
-        <f>391+81+'GASTOS POR SEMANA  '!I43</f>
+        <f>391+81+'GASTOS POR SEMANA  '!I34</f>
         <v>875</v>
       </c>
       <c r="I8" s="11"/>
@@ -6904,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="104">
-        <f>779+'GASTOS POR SEMANA  '!U43</f>
+        <f>779+'GASTOS POR SEMANA  '!U34</f>
         <v>1182</v>
       </c>
       <c r="V8" s="13">
@@ -7029,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="104">
-        <f>90+10+234+'GASTOS POR SEMANA  '!T45</f>
+        <f>90+10+234+'GASTOS POR SEMANA  '!T36</f>
         <v>392</v>
       </c>
       <c r="S10" s="13">
@@ -7074,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="105">
-        <f>1013+1701+'GASTOS POR SEMANA  '!J46+'GASTOS POR SEMANA  '!J47</f>
+        <f>1013+1701+'GASTOS POR SEMANA  '!J37+'GASTOS POR SEMANA  '!J38</f>
         <v>5365.5</v>
       </c>
       <c r="J11" s="11">
@@ -7095,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="104">
-        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S46</f>
+        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S37</f>
         <v>5248</v>
       </c>
       <c r="R11" s="13">
@@ -7160,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="104">
-        <f>1221+'GASTOS POR SEMANA  '!R44</f>
+        <f>1221+'GASTOS POR SEMANA  '!R35</f>
         <v>1310</v>
       </c>
       <c r="Q12" s="13" t="s">
@@ -7199,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="105">
-        <f>1638+45+36+'GASTOS POR SEMANA  '!F48</f>
+        <f>1638+45+36+'GASTOS POR SEMANA  '!F39</f>
         <v>3983</v>
       </c>
       <c r="F13" s="11">
@@ -7241,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="104">
-        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V48</f>
+        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V39</f>
         <v>9685</v>
       </c>
       <c r="U13" s="13">
@@ -7274,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="105">
-        <f>380+380+460+'GASTOS POR SEMANA  '!H49</f>
+        <f>380+380+460+'GASTOS POR SEMANA  '!H40</f>
         <v>2450</v>
       </c>
       <c r="H14" s="11">
@@ -7310,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="104">
-        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V49</f>
+        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V40</f>
         <v>2316</v>
       </c>
       <c r="U14" s="13">
@@ -7341,7 +7154,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="105">
-        <f>'GASTOS POR SEMANA  '!L50</f>
+        <f>'GASTOS POR SEMANA  '!L41</f>
         <v>1008</v>
       </c>
       <c r="L15" s="12"/>
@@ -7830,12 +7643,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="114">
+      <c r="E30" s="116">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="118"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -7843,12 +7656,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="117">
+      <c r="Q30" s="119">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="118"/>
-      <c r="S30" s="119"/>
+      <c r="R30" s="120"/>
+      <c r="S30" s="121"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="11685" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="11685" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja5" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="123">
   <si>
     <t>FECHA</t>
   </si>
@@ -295,6 +295,111 @@
   </si>
   <si>
     <t>Arroz</t>
+  </si>
+  <si>
+    <t># 04</t>
+  </si>
+  <si>
+    <t>9---15 Sept-2023</t>
+  </si>
+  <si>
+    <t>Pechuga-Bistec pco-pollo-chicharron</t>
+  </si>
+  <si>
+    <t>piña-,melon-samdia-maracuya</t>
+  </si>
+  <si>
+    <t>poro-oregano-col-epazote-pipicha</t>
+  </si>
+  <si>
+    <t>Jitomate-papa-cebolla-calabaza-chayote-zanahoria-jalapeño-ajo-serrano-elote-chicharo-</t>
+  </si>
+  <si>
+    <t>Chipotle-catsup-elote-mostaza-Norzuisa-pastas-arroz-</t>
+  </si>
+  <si>
+    <t>salsa azul-ciruela-almendra</t>
+  </si>
+  <si>
+    <t>TORTILLAS</t>
+  </si>
+  <si>
+    <t>pechuga-bisteck pco-pollo-jamon-gouda</t>
+  </si>
+  <si>
+    <t>hojas aguacate-cilantro-telimon-epazote-manzanilla-hiervabuena-perejil</t>
+  </si>
+  <si>
+    <t>morron-chayote-tampico-zanahoraia-jitomate-calabaza-chicharo-ejote-cebolla-papa-limon-ajo</t>
+  </si>
+  <si>
+    <t>sandias-guayaba-manzana-melon</t>
+  </si>
+  <si>
+    <t>Azucar   1 bulto  50 kg</t>
+  </si>
+  <si>
+    <t>9-Sept-23  AZUCAR</t>
+  </si>
+  <si>
+    <t>Frijol- 25 KG --guajillo-costeño-tamarindo-almendra</t>
+  </si>
+  <si>
+    <t>crema-lala-yogurt-palillos-chipotles-catsup-mayonesa-leche-lechera-fibras scotch--sal-servilletas-toalla</t>
+  </si>
+  <si>
+    <t>PAN Dulce  y  Bimbo</t>
+  </si>
+  <si>
+    <t>tortillas-</t>
+  </si>
+  <si>
+    <t>del       09--- al  15 Septiembre</t>
+  </si>
+  <si>
+    <t>Carne molida mixta-jamon-queso-bisteck pco-retazo-pollo-papas francesa-costilla-chuleta ahum-milanesa-mole-salchicha-pechuga-espinozo-chicharron-jamon-tocino</t>
+  </si>
+  <si>
+    <t>Epazote, hiervabuena, manzanilla,cilantro-tomillo-oregano-rabanos-poro-col-pipicha</t>
+  </si>
+  <si>
+    <t>Maracuya--fresas-melon-piña-sandia-papaya-jamaica</t>
+  </si>
+  <si>
+    <t>Jitomate, calabaza, poblano, papa, jalapeño, cebolla, tomate, serrano, limon-lechugas brocoli-poro-nopal-chicharo-chayote-ejote-ajo-poblano-pepino-limon-elotes-champiñones</t>
+  </si>
+  <si>
+    <t>Aceite, leche, arroz, sopas, elote lata-margarina-bolsa-escobas-queso-gouda-Nescafe-Legal-crema-lala--ajax-jalador-vidrios</t>
+  </si>
+  <si>
+    <t>Jamon amricano-molida mixta-bistec-queso--retazo-pollo-papa francesa-longaniza-pollo-codillo-hueso costilla-chuleta ahum-Costilla-milanesa-pechuga-salchica-espizano-goudachicharron-quesillo-tocino-brocheta</t>
+  </si>
+  <si>
+    <t>Mango,sandia,guayaba-papaya-manzana-naranja-pera-limon-piña-pepino</t>
+  </si>
+  <si>
+    <t>cilantro, epazote, hiervabuena, cilantro-maiz pozole-telimon-manzanilla-oregano-hojas aguacate-perejil</t>
+  </si>
+  <si>
+    <t>jitomate,jalapeño,cebolla,papa,zanahoria,tomate,serrano,tampico.--ajo,poblano-limon-lechuga-nopal-brocoli-chicharo-calabaza-tampico-chicharo-chayote-morron-poro-molechampiñones-</t>
+  </si>
+  <si>
+    <t>costeño,guajillo,pulla,tamarindo,arbol,morita-cacahuate-güero-tomillo-oregano-tamarindo-jaimaica--frijol-almendra</t>
+  </si>
+  <si>
+    <t>yogurt Yoplait-café-norzuiza-fibras-café legal-tajas-italpasta-atun-hoja mixiote-aceite oliva-hilos mixiote-limpiador horno-chipotle-tajas-elote-mantequilla-yogurt-crema-catsup-mayonesa-sal-servilletas-toallas-arroz</t>
+  </si>
+  <si>
+    <t>AZUCAR 1 bulto 50 kg   9-Sept-2023</t>
+  </si>
+  <si>
+    <t>19-Ago--14-Sept-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELACION   MENSUAL     DE GASTOS   COMEDOR   CENTRAL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELACION MENSUAL      DE GASTOS   COMEDOR   O B R A D O R </t>
   </si>
 </sst>
 </file>
@@ -478,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -972,12 +1077,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1239,30 +1415,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1277,6 +1453,63 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1287,6 +1520,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF800000"/>
       <color rgb="FF990033"/>
@@ -1585,13 +1820,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:Z98"/>
+  <dimension ref="B1:AA127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AB22" sqref="AB22"/>
+    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,8 +1852,8 @@
     <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="109" t="s">
         <v>36</v>
       </c>
@@ -1634,41 +1866,41 @@
       <c r="J2" s="110"/>
       <c r="K2" s="110"/>
       <c r="L2" s="84" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="M2" s="83"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="111" t="s">
+      <c r="O2" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
       <c r="X2" s="85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="114"/>
-      <c r="K3" s="115"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="68"/>
       <c r="M3" s="59"/>
       <c r="N3" s="74"/>
-      <c r="V3" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="114"/>
-      <c r="X3" s="115"/>
-    </row>
-    <row r="4" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V3" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="W3" s="112"/>
+      <c r="X3" s="113"/>
+    </row>
+    <row r="4" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1735,32 +1967,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="72">
-        <f>121+213+135</f>
-        <v>469</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D5" s="72"/>
       <c r="E5" s="72"/>
       <c r="F5" s="72"/>
       <c r="G5" s="72"/>
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="K5" s="72">
+        <f>899+759+1031</f>
+        <v>2689</v>
+      </c>
       <c r="L5" s="70"/>
       <c r="M5" s="74"/>
       <c r="N5" s="74"/>
       <c r="O5" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="P5" s="86" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="72"/>
       <c r="R5" s="72"/>
@@ -1770,60 +2002,61 @@
       <c r="V5" s="72"/>
       <c r="W5" s="72"/>
       <c r="X5" s="72">
-        <f>69+2445+1943+325+1621</f>
-        <v>6403</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" ht="36" x14ac:dyDescent="0.25">
+        <f>1196+1463</f>
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="F6" s="67">
+        <f>2439+120+100+72+45</f>
+        <v>2776</v>
+      </c>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
-      <c r="K6" s="67">
-        <f>1031+1026+1603+547+2029</f>
-        <v>6236</v>
-      </c>
+      <c r="K6" s="67"/>
       <c r="L6" s="67"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="P6" s="89" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="72"/>
       <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
+      <c r="S6" s="72">
+        <f>79+3580</f>
+        <v>3659</v>
+      </c>
       <c r="T6" s="72"/>
       <c r="U6" s="72"/>
       <c r="V6" s="72"/>
-      <c r="W6" s="72">
-        <f>1500+380</f>
-        <v>1880</v>
-      </c>
+      <c r="W6" s="72"/>
       <c r="X6" s="67"/>
     </row>
-    <row r="7" spans="2:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67">
-        <v>188</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D7" s="67">
+        <f>131+221</f>
+        <v>352</v>
+      </c>
+      <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
       <c r="H7" s="67"/>
@@ -1834,140 +2067,144 @@
       <c r="M7" s="74"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="72">
-        <f>78+342+635</f>
-        <v>1055</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P7" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="72"/>
       <c r="R7" s="72"/>
       <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
+      <c r="T7" s="72">
+        <f>40+85</f>
+        <v>125</v>
+      </c>
       <c r="U7" s="72"/>
       <c r="V7" s="72"/>
       <c r="W7" s="72"/>
       <c r="X7" s="67"/>
     </row>
-    <row r="8" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67">
-        <v>829</v>
-      </c>
+      <c r="G8" s="67">
+        <v>45</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="67"/>
       <c r="J8" s="67"/>
       <c r="K8" s="67"/>
       <c r="L8" s="11"/>
       <c r="M8" s="74"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="72"/>
+        <v>89</v>
+      </c>
+      <c r="P8" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="72">
+        <f>144+460+166</f>
+        <v>770</v>
+      </c>
       <c r="R8" s="72"/>
       <c r="S8" s="72"/>
       <c r="T8" s="72"/>
-      <c r="U8" s="72">
-        <v>400</v>
-      </c>
+      <c r="U8" s="72"/>
       <c r="V8" s="72"/>
       <c r="W8" s="72"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="9" spans="2:24" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
-      <c r="F9" s="67">
-        <v>95</v>
-      </c>
+      <c r="F9" s="67"/>
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
       <c r="J9" s="67"/>
       <c r="K9" s="67"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="11">
+        <v>500</v>
+      </c>
       <c r="M9" s="74"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="P9" s="89" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="72"/>
-      <c r="R9" s="72">
-        <v>776</v>
-      </c>
+      <c r="R9" s="72"/>
       <c r="S9" s="72"/>
       <c r="T9" s="72"/>
       <c r="U9" s="72"/>
       <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
+      <c r="W9" s="72">
+        <f>610+60.5+856+50+1164</f>
+        <v>2740.5</v>
+      </c>
       <c r="X9" s="67"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67">
-        <v>624</v>
-      </c>
+      <c r="I10" s="67">
+        <v>381</v>
+      </c>
+      <c r="J10" s="67"/>
       <c r="K10" s="67"/>
       <c r="L10" s="11"/>
       <c r="M10" s="74"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="P10" s="89" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="72"/>
       <c r="R10" s="72"/>
       <c r="S10" s="72"/>
-      <c r="T10" s="72">
-        <v>40</v>
-      </c>
-      <c r="U10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72">
+        <v>728</v>
+      </c>
       <c r="V10" s="72"/>
       <c r="W10" s="72"/>
       <c r="X10" s="67"/>
     </row>
-    <row r="11" spans="2:24" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="24" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
@@ -1976,61 +2213,63 @@
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="94">
-        <f>413+68+84</f>
-        <v>565</v>
+        <v>1223</v>
       </c>
       <c r="K11" s="67"/>
       <c r="L11" s="11"/>
       <c r="M11" s="74"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="P11" s="89" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="P11" s="87" t="s">
+        <v>101</v>
       </c>
       <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
-      <c r="S11" s="72">
-        <f>20+90+375+2010+280+252</f>
-        <v>3027</v>
-      </c>
+      <c r="S11" s="72"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
       <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
+      <c r="W11" s="72">
+        <v>1390</v>
+      </c>
       <c r="X11" s="67"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="80"/>
+    </row>
+    <row r="12" spans="2:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="E12" s="67">
+        <v>180</v>
+      </c>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
-      <c r="J12" s="67">
-        <f>116+35.5</f>
-        <v>151.5</v>
-      </c>
+      <c r="J12" s="67"/>
       <c r="K12" s="67"/>
       <c r="L12" s="11"/>
       <c r="M12" s="74"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="P12" s="90" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="72"/>
       <c r="R12" s="72">
-        <v>400</v>
+        <v>1462</v>
       </c>
       <c r="S12" s="72"/>
       <c r="T12" s="72"/>
@@ -2039,21 +2278,21 @@
       <c r="W12" s="72"/>
       <c r="X12" s="67"/>
     </row>
-    <row r="13" spans="2:24" ht="48" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>89</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>96</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
-      <c r="F13" s="67">
-        <f>1489+350+300+25</f>
-        <v>2164</v>
-      </c>
+      <c r="F13" s="67"/>
       <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="H13" s="67">
+        <f>85+85+102+68+68</f>
+        <v>408</v>
+      </c>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
@@ -2061,10 +2300,10 @@
       <c r="M13" s="74"/>
       <c r="N13" s="74"/>
       <c r="O13" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="P13" s="98" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
@@ -2072,15 +2311,15 @@
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
       <c r="V13" s="72">
-        <f>700+700+700+2224</f>
-        <v>4324</v>
+        <f>700+710+700+669+1754</f>
+        <v>4533</v>
       </c>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
     </row>
-    <row r="14" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>11</v>
@@ -2100,10 +2339,10 @@
       <c r="M14" s="74"/>
       <c r="N14" s="74"/>
       <c r="O14" s="93" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="P14" s="88" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="72"/>
       <c r="R14" s="72"/>
@@ -2111,19 +2350,17 @@
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
       <c r="V14" s="72">
-        <f>170+136+238+204+170+360</f>
-        <v>1278</v>
+        <f>170+170+204+204+170</f>
+        <v>918</v>
       </c>
       <c r="W14" s="72"/>
       <c r="X14" s="67"/>
     </row>
-    <row r="15" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="95" t="s">
-        <v>46</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C15" s="95"/>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -2132,12 +2369,12 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
       <c r="K15" s="67"/>
-      <c r="L15" s="11">
-        <v>500</v>
-      </c>
+      <c r="L15" s="11"/>
       <c r="M15" s="74"/>
       <c r="N15" s="74"/>
-      <c r="O15" s="97"/>
+      <c r="O15" s="93" t="s">
+        <v>89</v>
+      </c>
       <c r="P15" s="88"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="72"/>
@@ -2148,28 +2385,25 @@
       <c r="W15" s="72"/>
       <c r="X15" s="67"/>
     </row>
-    <row r="16" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>77</v>
-      </c>
+    <row r="16" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
       <c r="G16" s="67"/>
-      <c r="H16" s="67">
-        <f>102+68+102+204+85+90</f>
-        <v>651</v>
-      </c>
+      <c r="H16" s="67"/>
       <c r="I16" s="67"/>
       <c r="J16" s="67"/>
       <c r="K16" s="67"/>
       <c r="L16" s="11"/>
       <c r="M16" s="74"/>
       <c r="N16" s="74"/>
-      <c r="O16" s="92"/>
+      <c r="O16" s="93" t="s">
+        <v>89</v>
+      </c>
       <c r="P16" s="91"/>
       <c r="Q16" s="67"/>
       <c r="R16" s="67"/>
@@ -2181,11 +2415,11 @@
       <c r="X16" s="67"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
+      <c r="B17" s="93" t="s">
+        <v>89</v>
+      </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="67">
-        <v>0</v>
-      </c>
+      <c r="D17" s="67"/>
       <c r="E17" s="67"/>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
@@ -2196,7 +2430,9 @@
       <c r="L17" s="11"/>
       <c r="M17" s="74"/>
       <c r="N17" s="74"/>
-      <c r="O17" s="92"/>
+      <c r="O17" s="93" t="s">
+        <v>89</v>
+      </c>
       <c r="P17" s="91"/>
       <c r="Q17" s="67"/>
       <c r="R17" s="67"/>
@@ -2241,39 +2477,39 @@
         <v>18</v>
       </c>
       <c r="D19" s="30">
-        <f>SUM(D5:D18)</f>
-        <v>469</v>
+        <f t="shared" ref="D19" si="0">SUM(D5:D18)</f>
+        <v>352</v>
       </c>
       <c r="E19" s="31">
-        <f>SUM(E5:E18)</f>
-        <v>188</v>
+        <f t="shared" ref="E19" si="1">SUM(E5:E18)</f>
+        <v>180</v>
       </c>
       <c r="F19" s="31">
-        <f>SUM(F5:F18)</f>
-        <v>2259</v>
+        <f t="shared" ref="F19" si="2">SUM(F5:F18)</f>
+        <v>2776</v>
       </c>
       <c r="G19" s="31">
-        <f>SUM(G5:G18)</f>
-        <v>0</v>
+        <f t="shared" ref="G19" si="3">SUM(G5:G18)</f>
+        <v>45</v>
       </c>
       <c r="H19" s="31">
-        <f>SUM(H5:H18)</f>
-        <v>1881</v>
+        <f t="shared" ref="H19" si="4">SUM(H5:H18)</f>
+        <v>1638</v>
       </c>
       <c r="I19" s="31">
-        <f>SUM(I5:I18)</f>
-        <v>829</v>
+        <f t="shared" ref="I19" si="5">SUM(I5:I18)</f>
+        <v>381</v>
       </c>
       <c r="J19" s="22">
-        <f>SUM(J5:J18)</f>
-        <v>1340.5</v>
+        <f t="shared" ref="J19" si="6">SUM(J5:J18)</f>
+        <v>1223</v>
       </c>
       <c r="K19" s="32">
-        <f>SUM(K5:K18)</f>
-        <v>6236</v>
+        <f t="shared" ref="K19" si="7">SUM(K5:K18)</f>
+        <v>2689</v>
       </c>
       <c r="L19" s="100">
-        <f>SUM(L5:L18)</f>
+        <f t="shared" ref="L19" si="8">SUM(L5:L18)</f>
         <v>500</v>
       </c>
       <c r="M19" s="75"/>
@@ -2282,36 +2518,36 @@
         <v>18</v>
       </c>
       <c r="Q19" s="21">
-        <f>SUM(Q5:Q18)</f>
-        <v>1055</v>
+        <f t="shared" ref="Q19" si="9">SUM(Q5:Q18)</f>
+        <v>770</v>
       </c>
       <c r="R19" s="21">
-        <f>SUM(R5:R18)</f>
-        <v>1176</v>
+        <f t="shared" ref="R19" si="10">SUM(R5:R18)</f>
+        <v>1462</v>
       </c>
       <c r="S19" s="21">
-        <f>SUM(S5:S18)</f>
-        <v>3027</v>
+        <f t="shared" ref="S19" si="11">SUM(S5:S18)</f>
+        <v>3659</v>
       </c>
       <c r="T19" s="21">
-        <f>SUM(T5:T18)</f>
-        <v>40</v>
+        <f t="shared" ref="T19" si="12">SUM(T5:T18)</f>
+        <v>125</v>
       </c>
       <c r="U19" s="21">
-        <f>SUM(U5:U18)</f>
-        <v>400</v>
+        <f t="shared" ref="U19" si="13">SUM(U5:U18)</f>
+        <v>728</v>
       </c>
       <c r="V19" s="21">
-        <f>SUM(V5:V18)</f>
-        <v>5602</v>
+        <f t="shared" ref="V19" si="14">SUM(V5:V18)</f>
+        <v>5451</v>
       </c>
       <c r="W19" s="21">
-        <f>SUM(W5:W18)</f>
-        <v>1880</v>
+        <f t="shared" ref="W19" si="15">SUM(W5:W18)</f>
+        <v>4130.5</v>
       </c>
       <c r="X19" s="21">
-        <f>SUM(X5:X18)</f>
-        <v>6403</v>
+        <f t="shared" ref="X19" si="16">SUM(X5:X18)</f>
+        <v>2659</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2338,12 +2574,12 @@
     <row r="21" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="116">
+      <c r="F21" s="114">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
-        <v>13702.5</v>
-      </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+        <v>9784</v>
+      </c>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -2354,13 +2590,11 @@
       <c r="R21" s="5"/>
       <c r="S21" s="119">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
-        <v>19583</v>
+        <v>18984.5</v>
       </c>
       <c r="T21" s="120"/>
       <c r="U21" s="121"/>
-      <c r="V21" s="5">
-        <v>19583</v>
-      </c>
+      <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
     </row>
@@ -2410,352 +2644,166 @@
       <c r="M24" s="79"/>
       <c r="N24" s="74"/>
     </row>
-    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="109" t="s">
+    <row r="32" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="83"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="111" t="s">
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="83"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="85" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="114"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="74"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="115"/>
-    </row>
-    <row r="30" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="24" t="s">
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="112"/>
+      <c r="K34" s="113"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="74"/>
+      <c r="V34" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="W34" s="112"/>
+      <c r="X34" s="113"/>
+    </row>
+    <row r="35" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D35" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F35" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G35" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H35" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="60" t="s">
+      <c r="I35" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J35" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="62" t="s">
+      <c r="K35" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="99" t="s">
+      <c r="L35" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="18" t="s">
+      <c r="M35" s="38"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Q30" s="64" t="s">
+      <c r="Q35" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="R30" s="19" t="s">
+      <c r="R35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S30" s="54" t="s">
+      <c r="S35" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="T30" s="14" t="s">
+      <c r="T35" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U30" s="14" t="s">
+      <c r="U35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="V30" s="55" t="s">
+      <c r="V35" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="W30" s="57" t="s">
+      <c r="W35" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="X30" s="58" t="s">
+      <c r="X35" s="58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="72">
-        <f>170</f>
-        <v>170</v>
-      </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="72">
-        <f>725+922+1369+794+1333</f>
-        <v>5143</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67">
-        <f>636+788+1081+941+1337</f>
-        <v>4783</v>
-      </c>
-      <c r="L32" s="67"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P32" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72">
-        <f>1900+239+144+218+805+355+251.5+250+287</f>
-        <v>4449.5</v>
-      </c>
-      <c r="X32" s="67"/>
-    </row>
-    <row r="33" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67">
-        <f>51+68+68+140+84+90+68</f>
-        <v>569</v>
-      </c>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P33" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="72">
-        <f>117+540+250</f>
-        <v>907</v>
-      </c>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="67"/>
-    </row>
-    <row r="34" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67">
-        <v>369</v>
-      </c>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67">
-        <f>403</f>
-        <v>403</v>
-      </c>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P34" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72">
-        <v>403</v>
-      </c>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="67"/>
-    </row>
-    <row r="35" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P35" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72">
-        <f>38+42+9</f>
-        <v>89</v>
-      </c>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="67"/>
-    </row>
-    <row r="36" spans="2:24" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" ht="36.75" x14ac:dyDescent="0.25">
       <c r="B36" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="72">
+        <f>121+213+135</f>
+        <v>469</v>
+      </c>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="70"/>
       <c r="M36" s="74"/>
       <c r="N36" s="74"/>
-      <c r="O36" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P36" s="89" t="s">
-        <v>47</v>
+      <c r="O36" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" s="86" t="s">
+        <v>84</v>
       </c>
       <c r="Q36" s="72"/>
       <c r="R36" s="72"/>
       <c r="S36" s="72"/>
-      <c r="T36" s="72">
-        <v>58</v>
-      </c>
+      <c r="T36" s="72"/>
       <c r="U36" s="72"/>
       <c r="V36" s="72"/>
       <c r="W36" s="72"/>
-      <c r="X36" s="67"/>
-    </row>
-    <row r="37" spans="2:24" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X36" s="72">
+        <f>69+2445+1943+325+1621</f>
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" ht="36" x14ac:dyDescent="0.25">
       <c r="B37" s="93" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="67"/>
@@ -2763,60 +2811,62 @@
       <c r="G37" s="67"/>
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
-      <c r="J37" s="94">
-        <f>1511+444+20+287+262.5</f>
-        <v>2524.5</v>
-      </c>
-      <c r="K37" s="67"/>
-      <c r="L37" s="11"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67">
+        <f>1031+1026+1603+547+2029</f>
+        <v>6236</v>
+      </c>
+      <c r="L37" s="67"/>
       <c r="M37" s="74"/>
       <c r="N37" s="74"/>
-      <c r="O37" s="97" t="s">
-        <v>43</v>
+      <c r="O37" s="93" t="s">
+        <v>69</v>
       </c>
       <c r="P37" s="89" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="Q37" s="72"/>
       <c r="R37" s="72"/>
-      <c r="S37" s="72">
-        <f>50+45+14+2300+35</f>
-        <v>2444</v>
-      </c>
+      <c r="S37" s="72"/>
       <c r="T37" s="72"/>
       <c r="U37" s="72"/>
       <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
+      <c r="W37" s="72">
+        <f>1500+380</f>
+        <v>1880</v>
+      </c>
       <c r="X37" s="67"/>
     </row>
-    <row r="38" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
+      <c r="E38" s="67">
+        <v>188</v>
+      </c>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
-      <c r="J38" s="67">
-        <f>127</f>
-        <v>127</v>
-      </c>
+      <c r="J38" s="67"/>
       <c r="K38" s="67"/>
       <c r="L38" s="11"/>
       <c r="M38" s="74"/>
       <c r="N38" s="74"/>
-      <c r="O38" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P38" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="72"/>
+      <c r="O38" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q38" s="72">
+        <f>78+342+635</f>
+        <v>1055</v>
+      </c>
       <c r="R38" s="72"/>
       <c r="S38" s="72"/>
       <c r="T38" s="72"/>
@@ -2825,90 +2875,86 @@
       <c r="W38" s="72"/>
       <c r="X38" s="67"/>
     </row>
-    <row r="39" spans="2:24" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="C39" s="96" t="s">
+        <v>74</v>
       </c>
       <c r="D39" s="67"/>
       <c r="E39" s="67"/>
-      <c r="F39" s="67">
-        <f>40+70+2070+30+54</f>
-        <v>2264</v>
-      </c>
+      <c r="F39" s="67"/>
       <c r="G39" s="67"/>
       <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
+      <c r="I39" s="67">
+        <v>829</v>
+      </c>
       <c r="J39" s="67"/>
       <c r="K39" s="67"/>
       <c r="L39" s="11"/>
       <c r="M39" s="74"/>
       <c r="N39" s="74"/>
-      <c r="O39" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" s="98" t="s">
-        <v>49</v>
+      <c r="O39" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" s="88" t="s">
+        <v>12</v>
       </c>
       <c r="Q39" s="72"/>
       <c r="R39" s="72"/>
       <c r="S39" s="72"/>
       <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72">
-        <f>700+700+710+2258+140</f>
-        <v>4508</v>
-      </c>
+      <c r="U39" s="72">
+        <v>400</v>
+      </c>
+      <c r="V39" s="72"/>
       <c r="W39" s="72"/>
       <c r="X39" s="67"/>
     </row>
-    <row r="40" spans="2:24" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:24" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B40" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
+      <c r="F40" s="67">
+        <v>95</v>
+      </c>
       <c r="G40" s="67"/>
-      <c r="H40" s="67">
-        <f>380+380+470</f>
-        <v>1230</v>
-      </c>
+      <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
       <c r="K40" s="67"/>
       <c r="L40" s="11"/>
       <c r="M40" s="74"/>
       <c r="N40" s="74"/>
-      <c r="O40" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P40" s="88" t="s">
-        <v>34</v>
+      <c r="O40" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" s="89" t="s">
+        <v>80</v>
       </c>
       <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
+      <c r="R40" s="72">
+        <v>776</v>
+      </c>
       <c r="S40" s="72"/>
       <c r="T40" s="72"/>
       <c r="U40" s="72"/>
-      <c r="V40" s="72">
-        <f>68+170+170+170+280+221</f>
-        <v>1079</v>
-      </c>
+      <c r="V40" s="72"/>
       <c r="W40" s="72"/>
       <c r="X40" s="67"/>
     </row>
-    <row r="41" spans="2:24" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="95" t="s">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>73</v>
       </c>
       <c r="D41" s="67"/>
       <c r="E41" s="67"/>
@@ -2916,87 +2962,120 @@
       <c r="G41" s="67"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
+      <c r="J41" s="67">
+        <v>624</v>
+      </c>
       <c r="K41" s="67"/>
-      <c r="L41" s="11">
-        <f>765+243</f>
-        <v>1008</v>
-      </c>
+      <c r="L41" s="11"/>
       <c r="M41" s="74"/>
       <c r="N41" s="74"/>
-      <c r="O41" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="P41" s="88"/>
+      <c r="O41" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" s="89" t="s">
+        <v>82</v>
+      </c>
       <c r="Q41" s="72"/>
       <c r="R41" s="72"/>
       <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
+      <c r="T41" s="72">
+        <v>40</v>
+      </c>
       <c r="U41" s="72"/>
       <c r="V41" s="72"/>
       <c r="W41" s="72"/>
       <c r="X41" s="67"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
+    <row r="42" spans="2:24" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>78</v>
+      </c>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="J42" s="94">
+        <f>413+68+84</f>
+        <v>565</v>
+      </c>
       <c r="K42" s="67"/>
       <c r="L42" s="11"/>
       <c r="M42" s="74"/>
       <c r="N42" s="74"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
-      <c r="U42" s="67"/>
-      <c r="V42" s="67"/>
-      <c r="W42" s="67"/>
+      <c r="O42" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P42" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72">
+        <f>20+90+375+2010+280+252</f>
+        <v>3027</v>
+      </c>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
       <c r="X42" s="67"/>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="67">
-        <v>0</v>
-      </c>
+      <c r="B43" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="67"/>
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
       <c r="H43" s="67"/>
       <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
+      <c r="J43" s="67">
+        <f>116+35.5</f>
+        <v>151.5</v>
+      </c>
       <c r="K43" s="67"/>
       <c r="L43" s="11"/>
       <c r="M43" s="74"/>
       <c r="N43" s="74"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
+      <c r="O43" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72">
+        <v>400</v>
+      </c>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="72"/>
       <c r="X43" s="67"/>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="67">
-        <v>0</v>
-      </c>
+    <row r="44" spans="2:24" ht="48" x14ac:dyDescent="0.25">
+      <c r="B44" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="67"/>
       <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
+      <c r="F44" s="67">
+        <f>1489+350+300+25</f>
+        <v>2164</v>
+      </c>
       <c r="G44" s="67"/>
       <c r="H44" s="67"/>
       <c r="I44" s="67"/>
@@ -3005,50 +3084,71 @@
       <c r="L44" s="11"/>
       <c r="M44" s="74"/>
       <c r="N44" s="74"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="67"/>
-      <c r="U44" s="67"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="67"/>
+      <c r="O44" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" s="98" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72">
+        <f>700+700+700+2224</f>
+        <v>4324</v>
+      </c>
+      <c r="W44" s="72"/>
       <c r="X44" s="67"/>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="67">
-        <v>0</v>
-      </c>
+    <row r="45" spans="2:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="67"/>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
       <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
+      <c r="H45" s="67">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
       <c r="I45" s="67"/>
       <c r="J45" s="67"/>
       <c r="K45" s="67"/>
       <c r="L45" s="11"/>
       <c r="M45" s="74"/>
       <c r="N45" s="74"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
+      <c r="O45" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72">
+        <f>170+136+238+204+170+360</f>
+        <v>1278</v>
+      </c>
+      <c r="W45" s="72"/>
       <c r="X45" s="67"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="67">
-        <v>0</v>
-      </c>
+    <row r="46" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="67"/>
       <c r="E46" s="67"/>
       <c r="F46" s="67"/>
       <c r="G46" s="67"/>
@@ -3056,30 +3156,37 @@
       <c r="I46" s="67"/>
       <c r="J46" s="67"/>
       <c r="K46" s="67"/>
-      <c r="L46" s="11"/>
+      <c r="L46" s="11">
+        <v>500</v>
+      </c>
       <c r="M46" s="74"/>
       <c r="N46" s="74"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="91"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="67"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
       <c r="X46" s="67"/>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="67">
-        <v>0</v>
-      </c>
+    <row r="47" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="67"/>
       <c r="E47" s="67"/>
       <c r="F47" s="67"/>
       <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
+      <c r="H47" s="67">
+        <f>102+68+102+204+85+90</f>
+        <v>651</v>
+      </c>
       <c r="I47" s="67"/>
       <c r="J47" s="67"/>
       <c r="K47" s="67"/>
@@ -3088,9 +3195,7 @@
       <c r="N47" s="74"/>
       <c r="O47" s="92"/>
       <c r="P47" s="91"/>
-      <c r="Q47" s="67">
-        <v>0</v>
-      </c>
+      <c r="Q47" s="67"/>
       <c r="R47" s="67"/>
       <c r="S47" s="67"/>
       <c r="T47" s="67"/>
@@ -3117,9 +3222,7 @@
       <c r="N48" s="74"/>
       <c r="O48" s="92"/>
       <c r="P48" s="91"/>
-      <c r="Q48" s="67">
-        <v>0</v>
-      </c>
+      <c r="Q48" s="67"/>
       <c r="R48" s="67"/>
       <c r="S48" s="67"/>
       <c r="T48" s="67"/>
@@ -3128,228 +3231,195 @@
       <c r="W48" s="67"/>
       <c r="X48" s="67"/>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="67">
-        <v>0</v>
-      </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="11"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="73">
+        <v>0</v>
+      </c>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="20"/>
       <c r="M49" s="74"/>
       <c r="N49" s="74"/>
-      <c r="O49" s="92"/>
-      <c r="P49" s="91"/>
-      <c r="Q49" s="67">
-        <v>0</v>
-      </c>
-      <c r="R49" s="67"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
-      <c r="V49" s="67"/>
-      <c r="W49" s="67"/>
-      <c r="X49" s="67"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="67">
-        <v>0</v>
-      </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="74"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="73">
+        <v>0</v>
+      </c>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+    </row>
+    <row r="50" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="30">
+        <f t="shared" ref="D50:L50" si="17">SUM(D36:D49)</f>
+        <v>469</v>
+      </c>
+      <c r="E50" s="31">
+        <f t="shared" si="17"/>
+        <v>188</v>
+      </c>
+      <c r="F50" s="31">
+        <f t="shared" si="17"/>
+        <v>2259</v>
+      </c>
+      <c r="G50" s="31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="31">
+        <f t="shared" si="17"/>
+        <v>1881</v>
+      </c>
+      <c r="I50" s="31">
+        <f t="shared" si="17"/>
+        <v>829</v>
+      </c>
+      <c r="J50" s="22">
+        <f t="shared" si="17"/>
+        <v>1340.5</v>
+      </c>
+      <c r="K50" s="32">
+        <f t="shared" si="17"/>
+        <v>6236</v>
+      </c>
+      <c r="L50" s="100">
+        <f t="shared" si="17"/>
+        <v>500</v>
+      </c>
+      <c r="M50" s="75"/>
       <c r="N50" s="74"/>
-      <c r="O50" s="92"/>
-      <c r="P50" s="91"/>
-      <c r="Q50" s="67">
-        <v>0</v>
-      </c>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="67">
-        <v>0</v>
-      </c>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="74"/>
+      <c r="P50" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q50" s="21">
+        <f t="shared" ref="Q50:X50" si="18">SUM(Q36:Q49)</f>
+        <v>1055</v>
+      </c>
+      <c r="R50" s="21">
+        <f t="shared" si="18"/>
+        <v>1176</v>
+      </c>
+      <c r="S50" s="21">
+        <f t="shared" si="18"/>
+        <v>3027</v>
+      </c>
+      <c r="T50" s="21">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="U50" s="21">
+        <f t="shared" si="18"/>
+        <v>400</v>
+      </c>
+      <c r="V50" s="21">
+        <f t="shared" si="18"/>
+        <v>5602</v>
+      </c>
+      <c r="W50" s="21">
+        <f t="shared" si="18"/>
+        <v>1880</v>
+      </c>
+      <c r="X50" s="21">
+        <f t="shared" si="18"/>
+        <v>6403</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="76"/>
       <c r="N51" s="74"/>
-      <c r="O51" s="92"/>
-      <c r="P51" s="91"/>
-      <c r="Q51" s="67">
-        <v>0</v>
-      </c>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
-      <c r="X51" s="67"/>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="67">
-        <v>0</v>
-      </c>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="74"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+    </row>
+    <row r="52" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="114">
+        <f>K50+J50+I50+H50+G50+F50+E50+D50+L50</f>
+        <v>13702.5</v>
+      </c>
+      <c r="G52" s="115"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="76"/>
       <c r="N52" s="74"/>
-      <c r="O52" s="92"/>
-      <c r="P52" s="91"/>
-      <c r="Q52" s="67">
-        <v>0</v>
-      </c>
-      <c r="R52" s="67"/>
-      <c r="S52" s="67"/>
-      <c r="T52" s="67"/>
-      <c r="U52" s="67"/>
-      <c r="V52" s="67"/>
-      <c r="W52" s="67"/>
-      <c r="X52" s="67"/>
-    </row>
-    <row r="53" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="9"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="73">
-        <v>0</v>
-      </c>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="74"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="119">
+        <f>Q50+R50+S50+T50+U50+V50+W50+X50</f>
+        <v>19583</v>
+      </c>
+      <c r="T52" s="120"/>
+      <c r="U52" s="121"/>
+      <c r="V52" s="5">
+        <v>19583</v>
+      </c>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="76"/>
       <c r="N53" s="74"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="73">
-        <v>0</v>
-      </c>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="73"/>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73"/>
-      <c r="X53" s="73"/>
-    </row>
-    <row r="54" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="30">
-        <f t="shared" ref="D54:L54" si="0">SUM(D31:D53)</f>
-        <v>170</v>
-      </c>
-      <c r="E54" s="31">
-        <f t="shared" si="0"/>
-        <v>369</v>
-      </c>
-      <c r="F54" s="31">
-        <f t="shared" si="0"/>
-        <v>2264</v>
-      </c>
-      <c r="G54" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="31">
-        <f t="shared" si="0"/>
-        <v>1799</v>
-      </c>
-      <c r="I54" s="31">
-        <f t="shared" si="0"/>
-        <v>403</v>
-      </c>
-      <c r="J54" s="22">
-        <f t="shared" si="0"/>
-        <v>2651.5</v>
-      </c>
-      <c r="K54" s="32">
-        <f t="shared" si="0"/>
-        <v>4783</v>
-      </c>
-      <c r="L54" s="100">
-        <f t="shared" si="0"/>
-        <v>1008</v>
-      </c>
-      <c r="M54" s="75"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="76"/>
       <c r="N54" s="74"/>
-      <c r="P54" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q54" s="21">
-        <f>SUM(Q31:Q53)</f>
-        <v>907</v>
-      </c>
-      <c r="R54" s="22">
-        <f t="shared" ref="R54:X54" si="1">SUM(R31:R53)</f>
-        <v>89</v>
-      </c>
-      <c r="S54" s="22">
-        <f t="shared" si="1"/>
-        <v>2444</v>
-      </c>
-      <c r="T54" s="22">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="U54" s="22">
-        <f t="shared" si="1"/>
-        <v>403</v>
-      </c>
-      <c r="V54" s="22">
-        <f t="shared" si="1"/>
-        <v>5587</v>
-      </c>
-      <c r="W54" s="22">
-        <f t="shared" si="1"/>
-        <v>4449.5</v>
-      </c>
-      <c r="X54" s="23">
-        <f t="shared" si="1"/>
-        <v>5143</v>
-      </c>
     </row>
     <row r="55" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D55" s="5"/>
@@ -3361,995 +3431,510 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="78"/>
-      <c r="M55" s="76"/>
+      <c r="M55" s="79"/>
       <c r="N55" s="74"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-    </row>
-    <row r="56" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="116">
-        <f>K54+J54+I54+H54+G54+F54+E54+D54+L54</f>
-        <v>13447.5</v>
-      </c>
-      <c r="G56" s="117"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5">
-        <v>13447.5</v>
-      </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="74"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="119">
-        <f>Q54+R54+S54+T54+U54+V54+W54+X54</f>
-        <v>19080.5</v>
-      </c>
-      <c r="T56" s="120"/>
-      <c r="U56" s="121"/>
-      <c r="V56" s="5">
-        <v>19080.5</v>
-      </c>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="74"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="76"/>
-      <c r="N58" s="74"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-    </row>
-    <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="74"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-    </row>
-    <row r="62" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="109" t="s">
+    </row>
+    <row r="65" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C66" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="110"/>
-      <c r="E63" s="110"/>
-      <c r="F63" s="110"/>
-      <c r="G63" s="110"/>
-      <c r="H63" s="110"/>
-      <c r="I63" s="110"/>
-      <c r="J63" s="110"/>
-      <c r="K63" s="110"/>
-      <c r="L63" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="83"/>
-      <c r="N63" s="81"/>
-      <c r="O63" s="111" t="s">
+      <c r="D66" s="110"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="110"/>
+      <c r="G66" s="110"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="110"/>
+      <c r="L66" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="M66" s="83"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="P63" s="112"/>
-      <c r="Q63" s="112"/>
-      <c r="R63" s="112"/>
-      <c r="S63" s="112"/>
-      <c r="T63" s="112"/>
-      <c r="U63" s="112"/>
-      <c r="V63" s="112"/>
-      <c r="W63" s="112"/>
-      <c r="X63" s="85" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I64" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" s="114"/>
-      <c r="K64" s="115"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="74"/>
-      <c r="W64" s="114"/>
-      <c r="X64" s="115"/>
-    </row>
-    <row r="65" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="24" t="s">
+      <c r="P66" s="118"/>
+      <c r="Q66" s="118"/>
+      <c r="R66" s="118"/>
+      <c r="S66" s="118"/>
+      <c r="T66" s="118"/>
+      <c r="U66" s="118"/>
+      <c r="V66" s="118"/>
+      <c r="W66" s="118"/>
+      <c r="X66" s="85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="111" t="s">
+        <v>67</v>
+      </c>
+      <c r="J67" s="112"/>
+      <c r="K67" s="113"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="74"/>
+      <c r="W67" s="112"/>
+      <c r="X67" s="113"/>
+    </row>
+    <row r="68" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D68" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E68" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="56" t="s">
+      <c r="F68" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G68" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H65" s="27" t="s">
+      <c r="H68" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I65" s="60" t="s">
+      <c r="I68" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J65" s="61" t="s">
+      <c r="J68" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K65" s="62" t="s">
+      <c r="K68" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="69"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="82"/>
-      <c r="O65" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P65" s="18" t="s">
+      <c r="L68" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M68" s="38"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Q65" s="64" t="s">
+      <c r="Q68" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="R65" s="19" t="s">
+      <c r="R68" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S65" s="54" t="s">
+      <c r="S68" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="T65" s="14" t="s">
+      <c r="T68" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="U65" s="14" t="s">
+      <c r="U68" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="V65" s="55" t="s">
+      <c r="V68" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="W65" s="57" t="s">
+      <c r="W68" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="X65" s="58" t="s">
+      <c r="X68" s="58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:26" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" s="41" t="s">
+    <row r="69" spans="2:24" ht="37.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="72">
-        <v>160</v>
-      </c>
-      <c r="E66" s="72">
-        <v>0</v>
-      </c>
-      <c r="F66" s="72">
-        <v>0</v>
-      </c>
-      <c r="G66" s="72">
-        <v>0</v>
-      </c>
-      <c r="H66" s="72">
-        <v>0</v>
-      </c>
-      <c r="I66" s="72">
-        <v>0</v>
-      </c>
-      <c r="J66" s="72"/>
-      <c r="K66" s="72">
-        <v>0</v>
-      </c>
-      <c r="L66" s="70"/>
-      <c r="M66" s="74"/>
-      <c r="N66" s="74"/>
-      <c r="O66" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q66" s="72">
-        <v>0</v>
-      </c>
-      <c r="R66" s="72">
-        <v>0</v>
-      </c>
-      <c r="S66" s="72">
-        <v>0</v>
-      </c>
-      <c r="T66" s="72">
-        <v>0</v>
-      </c>
-      <c r="U66" s="72">
-        <v>0</v>
-      </c>
-      <c r="V66" s="72">
-        <v>0</v>
-      </c>
-      <c r="W66" s="72">
-        <v>0</v>
-      </c>
-      <c r="X66" s="72">
-        <f>109+1973+1400+1641+70+756+830</f>
-        <v>6779</v>
-      </c>
-      <c r="Y66" s="65"/>
-      <c r="Z66" s="65"/>
-    </row>
-    <row r="67" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="67">
-        <v>0</v>
-      </c>
-      <c r="E67" s="67">
-        <v>0</v>
-      </c>
-      <c r="F67" s="67">
-        <v>0</v>
-      </c>
-      <c r="G67" s="67">
-        <v>0</v>
-      </c>
-      <c r="H67" s="67">
-        <v>0</v>
-      </c>
-      <c r="I67" s="67">
-        <v>0</v>
-      </c>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67">
-        <f>542+680+1493+1388+806+1177</f>
-        <v>6086</v>
-      </c>
-      <c r="L67" s="71"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="74"/>
-      <c r="O67" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P67" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q67" s="72">
-        <v>0</v>
-      </c>
-      <c r="R67" s="72">
-        <v>0</v>
-      </c>
-      <c r="S67" s="72">
-        <v>0</v>
-      </c>
-      <c r="T67" s="72">
-        <v>0</v>
-      </c>
-      <c r="U67" s="72">
-        <v>0</v>
-      </c>
-      <c r="V67" s="72">
-        <v>0</v>
-      </c>
-      <c r="W67" s="72">
-        <f>127+896+100</f>
-        <v>1123</v>
-      </c>
-      <c r="X67" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="67">
-        <v>0</v>
-      </c>
-      <c r="E68" s="67">
-        <v>0</v>
-      </c>
-      <c r="F68" s="67">
-        <v>0</v>
-      </c>
-      <c r="G68" s="67">
-        <v>0</v>
-      </c>
-      <c r="H68" s="67">
-        <f>78+66+102+68+102+51+51</f>
-        <v>518</v>
-      </c>
-      <c r="I68" s="67">
-        <v>0</v>
-      </c>
-      <c r="J68" s="67"/>
-      <c r="K68" s="67">
-        <v>0</v>
-      </c>
-      <c r="L68" s="70"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="74"/>
-      <c r="O68" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P68" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q68" s="72">
-        <f>144+287+180</f>
-        <v>611</v>
-      </c>
-      <c r="R68" s="72">
-        <v>0</v>
-      </c>
-      <c r="S68" s="72">
-        <v>0</v>
-      </c>
-      <c r="T68" s="72">
-        <v>0</v>
-      </c>
-      <c r="U68" s="72">
-        <v>0</v>
-      </c>
-      <c r="V68" s="72">
-        <v>0</v>
-      </c>
-      <c r="W68" s="72">
-        <v>0</v>
-      </c>
-      <c r="X68" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="67">
-        <v>0</v>
-      </c>
-      <c r="E69" s="67">
-        <v>123</v>
-      </c>
-      <c r="F69" s="67">
-        <v>0</v>
-      </c>
-      <c r="G69" s="67">
-        <v>0</v>
-      </c>
-      <c r="H69" s="67">
-        <v>0</v>
-      </c>
-      <c r="I69" s="67">
-        <f>391+81</f>
-        <v>472</v>
-      </c>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67">
-        <v>0</v>
-      </c>
+      <c r="D69" s="72">
+        <f>170</f>
+        <v>170</v>
+      </c>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="72"/>
       <c r="L69" s="70"/>
       <c r="M69" s="74"/>
       <c r="N69" s="74"/>
-      <c r="O69" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P69" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q69" s="72">
-        <v>0</v>
-      </c>
-      <c r="R69" s="72">
-        <v>0</v>
-      </c>
-      <c r="S69" s="72">
-        <v>0</v>
-      </c>
-      <c r="T69" s="72">
-        <v>0</v>
-      </c>
-      <c r="U69" s="72">
-        <v>779</v>
-      </c>
-      <c r="V69" s="72">
-        <v>0</v>
-      </c>
-      <c r="W69" s="72">
-        <v>0</v>
-      </c>
-      <c r="X69" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="67">
-        <v>242</v>
-      </c>
-      <c r="E70" s="67">
-        <v>0</v>
-      </c>
-      <c r="F70" s="67">
-        <f>60</f>
-        <v>60</v>
-      </c>
-      <c r="G70" s="67">
-        <v>0</v>
-      </c>
-      <c r="H70" s="67">
-        <v>0</v>
-      </c>
-      <c r="I70" s="67">
-        <v>0</v>
-      </c>
+      <c r="O69" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P69" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q69" s="72"/>
+      <c r="R69" s="72"/>
+      <c r="S69" s="72"/>
+      <c r="T69" s="72"/>
+      <c r="U69" s="72"/>
+      <c r="V69" s="72"/>
+      <c r="W69" s="72"/>
+      <c r="X69" s="72">
+        <f>725+922+1369+794+1333</f>
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="67"/>
       <c r="K70" s="67">
-        <v>0</v>
-      </c>
-      <c r="L70" s="70"/>
+        <f>636+788+1081+941+1337</f>
+        <v>4783</v>
+      </c>
+      <c r="L70" s="67"/>
       <c r="M70" s="74"/>
       <c r="N70" s="74"/>
-      <c r="O70" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P70" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q70" s="72">
-        <v>0</v>
-      </c>
-      <c r="R70" s="72">
-        <v>0</v>
-      </c>
-      <c r="S70" s="72">
-        <v>0</v>
-      </c>
-      <c r="T70" s="72">
-        <v>0</v>
-      </c>
-      <c r="U70" s="72">
-        <v>0</v>
-      </c>
-      <c r="V70" s="72">
-        <v>0</v>
-      </c>
+      <c r="O70" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
+      <c r="V70" s="72"/>
       <c r="W70" s="72">
-        <f>327+60</f>
-        <v>387</v>
-      </c>
-      <c r="X70" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" ht="36" x14ac:dyDescent="0.25">
-      <c r="B71" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="67">
-        <v>0</v>
-      </c>
-      <c r="E71" s="67">
-        <v>0</v>
-      </c>
-      <c r="F71" s="67">
-        <v>0</v>
-      </c>
-      <c r="G71" s="67">
-        <f>40+45</f>
-        <v>85</v>
-      </c>
+        <f>1900+239+144+218+805+355+251.5+250+287</f>
+        <v>4449.5</v>
+      </c>
+      <c r="X70" s="67"/>
+    </row>
+    <row r="71" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
       <c r="H71" s="67">
-        <v>0</v>
-      </c>
-      <c r="I71" s="67">
-        <v>0</v>
-      </c>
+        <f>51+68+68+140+84+90+68</f>
+        <v>569</v>
+      </c>
+      <c r="I71" s="67"/>
       <c r="J71" s="67"/>
-      <c r="K71" s="67">
-        <v>0</v>
-      </c>
-      <c r="L71" s="70"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="11"/>
       <c r="M71" s="74"/>
       <c r="N71" s="74"/>
-      <c r="O71" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71" s="49" t="s">
-        <v>33</v>
+      <c r="O71" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P71" s="87" t="s">
+        <v>48</v>
       </c>
       <c r="Q71" s="72">
-        <v>0</v>
-      </c>
-      <c r="R71" s="72">
-        <v>0</v>
-      </c>
-      <c r="S71" s="72">
-        <v>0</v>
-      </c>
-      <c r="T71" s="72">
-        <f>90+10+234</f>
-        <v>334</v>
-      </c>
-      <c r="U71" s="72">
-        <v>0</v>
-      </c>
-      <c r="V71" s="72">
-        <v>0</v>
-      </c>
-      <c r="W71" s="72">
-        <v>0</v>
-      </c>
-      <c r="X71" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:26" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="67">
-        <v>0</v>
-      </c>
+        <f>117+540+250</f>
+        <v>907</v>
+      </c>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+      <c r="W71" s="72"/>
+      <c r="X71" s="67"/>
+    </row>
+    <row r="72" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="67"/>
       <c r="E72" s="67">
-        <v>0</v>
-      </c>
-      <c r="F72" s="67">
-        <v>0</v>
-      </c>
-      <c r="G72" s="67">
-        <v>0</v>
-      </c>
-      <c r="H72" s="67">
-        <v>0</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
       <c r="I72" s="67">
-        <v>0</v>
-      </c>
-      <c r="J72" s="67">
-        <f>1013+1701</f>
-        <v>2714</v>
-      </c>
-      <c r="K72" s="67">
-        <v>0</v>
-      </c>
-      <c r="L72" s="70"/>
+        <f>403</f>
+        <v>403</v>
+      </c>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="74"/>
       <c r="N72" s="74"/>
-      <c r="O72" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P72" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q72" s="72">
-        <v>0</v>
-      </c>
-      <c r="R72" s="72">
-        <v>0</v>
-      </c>
-      <c r="S72" s="72">
-        <f>2200+118+30+82+36+338</f>
-        <v>2804</v>
-      </c>
-      <c r="T72" s="72">
-        <v>0</v>
-      </c>
+      <c r="O72" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P72" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="72"/>
       <c r="U72" s="72">
-        <v>0</v>
-      </c>
-      <c r="V72" s="72">
-        <v>0</v>
-      </c>
-      <c r="W72" s="72">
-        <v>0</v>
-      </c>
-      <c r="X72" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="67">
-        <v>0</v>
-      </c>
-      <c r="E73" s="67">
-        <v>180</v>
-      </c>
-      <c r="F73" s="67">
-        <v>0</v>
-      </c>
-      <c r="G73" s="67">
-        <v>0</v>
-      </c>
-      <c r="H73" s="67">
-        <v>0</v>
-      </c>
-      <c r="I73" s="67">
-        <v>0</v>
-      </c>
-      <c r="J73" s="67">
-        <v>0</v>
-      </c>
-      <c r="K73" s="67">
-        <v>0</v>
-      </c>
-      <c r="L73" s="70"/>
+        <v>403</v>
+      </c>
+      <c r="V72" s="72"/>
+      <c r="W72" s="72"/>
+      <c r="X72" s="67"/>
+    </row>
+    <row r="73" spans="2:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="11"/>
       <c r="M73" s="74"/>
       <c r="N73" s="74"/>
-      <c r="O73" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P73" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q73" s="72">
-        <v>0</v>
-      </c>
+      <c r="O73" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P73" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q73" s="72"/>
       <c r="R73" s="72">
-        <v>1221</v>
-      </c>
-      <c r="S73" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="T73" s="72">
-        <v>0</v>
-      </c>
-      <c r="U73" s="72">
-        <v>0</v>
-      </c>
-      <c r="V73" s="72">
-        <v>0</v>
-      </c>
-      <c r="W73" s="72">
-        <v>0</v>
-      </c>
-      <c r="X73" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:26" ht="36" x14ac:dyDescent="0.25">
-      <c r="B74" s="40" t="s">
-        <v>20</v>
+        <f>38+42+9</f>
+        <v>89</v>
+      </c>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="67"/>
+    </row>
+    <row r="74" spans="2:24" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="67">
-        <v>0</v>
-      </c>
-      <c r="E74" s="67">
-        <v>0</v>
-      </c>
-      <c r="F74" s="67">
-        <f>1638+45+36</f>
-        <v>1719</v>
-      </c>
-      <c r="G74" s="67">
-        <v>0</v>
-      </c>
-      <c r="H74" s="67">
-        <v>0</v>
-      </c>
-      <c r="I74" s="67">
-        <v>0</v>
-      </c>
-      <c r="J74" s="67">
-        <v>0</v>
-      </c>
-      <c r="K74" s="67">
-        <v>0</v>
-      </c>
-      <c r="L74" s="70"/>
+        <v>31</v>
+      </c>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="11"/>
       <c r="M74" s="74"/>
       <c r="N74" s="74"/>
-      <c r="O74" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q74" s="72">
-        <v>0</v>
-      </c>
-      <c r="R74" s="72">
-        <v>0</v>
-      </c>
-      <c r="S74" s="72">
-        <v>0</v>
-      </c>
+      <c r="O74" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P74" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
       <c r="T74" s="72">
-        <v>0</v>
-      </c>
-      <c r="U74" s="72">
-        <v>0</v>
-      </c>
-      <c r="V74" s="72">
-        <f>700+700+3067+710</f>
-        <v>5177</v>
-      </c>
-      <c r="W74" s="72">
-        <v>0</v>
-      </c>
-      <c r="X74" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="67">
-        <v>0</v>
-      </c>
-      <c r="E75" s="67">
-        <v>0</v>
-      </c>
-      <c r="F75" s="67">
-        <v>0</v>
-      </c>
-      <c r="G75" s="67">
-        <v>0</v>
-      </c>
-      <c r="H75" s="67">
-        <f>380+380+460</f>
-        <v>1220</v>
-      </c>
-      <c r="I75" s="67">
-        <v>0</v>
-      </c>
-      <c r="J75" s="67">
-        <v>0</v>
-      </c>
-      <c r="K75" s="67">
-        <v>0</v>
-      </c>
-      <c r="L75" s="70"/>
+        <v>58</v>
+      </c>
+      <c r="U74" s="72"/>
+      <c r="V74" s="72"/>
+      <c r="W74" s="72"/>
+      <c r="X74" s="67"/>
+    </row>
+    <row r="75" spans="2:24" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="94">
+        <f>1511+444+20+287+262.5</f>
+        <v>2524.5</v>
+      </c>
+      <c r="K75" s="67"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="74"/>
       <c r="N75" s="74"/>
-      <c r="O75" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P75" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q75" s="72">
-        <v>0</v>
-      </c>
-      <c r="R75" s="72">
-        <v>0</v>
-      </c>
+      <c r="O75" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P75" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
       <c r="S75" s="72">
-        <v>0</v>
-      </c>
-      <c r="T75" s="72">
-        <v>0</v>
-      </c>
-      <c r="U75" s="72">
-        <v>0</v>
-      </c>
-      <c r="V75" s="72">
-        <f>170+238+170+153+170+336</f>
-        <v>1237</v>
-      </c>
-      <c r="W75" s="72">
-        <v>0</v>
-      </c>
-      <c r="X75" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="67">
-        <v>0</v>
-      </c>
+        <f>50+45+14+2300+35</f>
+        <v>2444</v>
+      </c>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="72"/>
+      <c r="X75" s="67"/>
+    </row>
+    <row r="76" spans="2:24" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="67"/>
       <c r="E76" s="67"/>
       <c r="F76" s="67"/>
       <c r="G76" s="67"/>
       <c r="H76" s="67"/>
       <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
+      <c r="J76" s="67">
+        <f>127</f>
+        <v>127</v>
+      </c>
       <c r="K76" s="67"/>
-      <c r="L76" s="70"/>
+      <c r="L76" s="11"/>
       <c r="M76" s="74"/>
       <c r="N76" s="74"/>
-      <c r="O76" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P76" s="48"/>
-      <c r="Q76" s="72">
-        <v>0</v>
-      </c>
-      <c r="R76" s="72">
-        <v>0</v>
-      </c>
-      <c r="S76" s="72">
-        <v>0</v>
-      </c>
-      <c r="T76" s="72">
-        <v>0</v>
-      </c>
-      <c r="U76" s="72">
-        <v>0</v>
-      </c>
-      <c r="V76" s="72">
-        <v>0</v>
-      </c>
-      <c r="W76" s="72">
-        <v>0</v>
-      </c>
-      <c r="X76" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="67">
-        <v>0</v>
-      </c>
+      <c r="O76" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P76" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="72"/>
+      <c r="S76" s="72"/>
+      <c r="T76" s="72"/>
+      <c r="U76" s="72"/>
+      <c r="V76" s="72"/>
+      <c r="W76" s="72"/>
+      <c r="X76" s="67"/>
+    </row>
+    <row r="77" spans="2:24" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="67"/>
       <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
+      <c r="F77" s="67">
+        <f>40+70+2070+30+54</f>
+        <v>2264</v>
+      </c>
       <c r="G77" s="67"/>
       <c r="H77" s="67"/>
       <c r="I77" s="67"/>
       <c r="J77" s="67"/>
       <c r="K77" s="67"/>
-      <c r="L77" s="70"/>
+      <c r="L77" s="11"/>
       <c r="M77" s="74"/>
       <c r="N77" s="74"/>
-      <c r="O77" s="46"/>
-      <c r="P77" s="51"/>
-      <c r="Q77" s="67">
-        <v>0</v>
-      </c>
-      <c r="R77" s="67"/>
-      <c r="S77" s="67"/>
-      <c r="T77" s="67"/>
-      <c r="U77" s="67"/>
-      <c r="V77" s="67"/>
-      <c r="W77" s="67"/>
+      <c r="O77" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P77" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="72"/>
+      <c r="S77" s="72"/>
+      <c r="T77" s="72"/>
+      <c r="U77" s="72"/>
+      <c r="V77" s="72">
+        <f>700+700+710+2258+140</f>
+        <v>4508</v>
+      </c>
+      <c r="W77" s="72"/>
       <c r="X77" s="67"/>
     </row>
-    <row r="78" spans="2:26" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="9"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="67">
-        <v>0</v>
-      </c>
+    <row r="78" spans="2:24" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="67"/>
       <c r="E78" s="67"/>
       <c r="F78" s="67"/>
       <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
+      <c r="H78" s="67">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
       <c r="I78" s="67"/>
       <c r="J78" s="67"/>
       <c r="K78" s="67"/>
-      <c r="L78" s="70"/>
+      <c r="L78" s="11"/>
       <c r="M78" s="74"/>
       <c r="N78" s="74"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="67">
-        <v>0</v>
-      </c>
-      <c r="R78" s="67"/>
-      <c r="S78" s="67"/>
-      <c r="T78" s="67"/>
-      <c r="U78" s="67"/>
-      <c r="V78" s="67"/>
-      <c r="W78" s="67"/>
+      <c r="O78" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P78" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q78" s="72"/>
+      <c r="R78" s="72"/>
+      <c r="S78" s="72"/>
+      <c r="T78" s="72"/>
+      <c r="U78" s="72"/>
+      <c r="V78" s="72">
+        <f>68+170+170+170+280+221</f>
+        <v>1079</v>
+      </c>
+      <c r="W78" s="72"/>
       <c r="X78" s="67"/>
     </row>
-    <row r="79" spans="2:26" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="9"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="67">
-        <v>0</v>
-      </c>
+    <row r="79" spans="2:24" ht="24" x14ac:dyDescent="0.25">
+      <c r="B79" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="67"/>
       <c r="E79" s="67"/>
       <c r="F79" s="67"/>
       <c r="G79" s="67"/>
@@ -4357,28 +3942,29 @@
       <c r="I79" s="67"/>
       <c r="J79" s="67"/>
       <c r="K79" s="67"/>
-      <c r="L79" s="70"/>
+      <c r="L79" s="11">
+        <f>765+243</f>
+        <v>1008</v>
+      </c>
       <c r="M79" s="74"/>
       <c r="N79" s="74"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="51"/>
-      <c r="Q79" s="67">
-        <v>0</v>
-      </c>
-      <c r="R79" s="67"/>
-      <c r="S79" s="67"/>
-      <c r="T79" s="67"/>
-      <c r="U79" s="67"/>
-      <c r="V79" s="67"/>
-      <c r="W79" s="67"/>
+      <c r="O79" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="P79" s="88"/>
+      <c r="Q79" s="72"/>
+      <c r="R79" s="72"/>
+      <c r="S79" s="72"/>
+      <c r="T79" s="72"/>
+      <c r="U79" s="72"/>
+      <c r="V79" s="72"/>
+      <c r="W79" s="72"/>
       <c r="X79" s="67"/>
     </row>
-    <row r="80" spans="2:26" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
-      <c r="D80" s="67">
-        <v>0</v>
-      </c>
+      <c r="D80" s="67"/>
       <c r="E80" s="67"/>
       <c r="F80" s="67"/>
       <c r="G80" s="67"/>
@@ -4386,14 +3972,12 @@
       <c r="I80" s="67"/>
       <c r="J80" s="67"/>
       <c r="K80" s="67"/>
-      <c r="L80" s="70"/>
+      <c r="L80" s="11"/>
       <c r="M80" s="74"/>
       <c r="N80" s="74"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="51"/>
-      <c r="Q80" s="67">
-        <v>0</v>
-      </c>
+      <c r="O80" s="92"/>
+      <c r="P80" s="91"/>
+      <c r="Q80" s="67"/>
       <c r="R80" s="67"/>
       <c r="S80" s="67"/>
       <c r="T80" s="67"/>
@@ -4402,7 +3986,7 @@
       <c r="W80" s="67"/>
       <c r="X80" s="67"/>
     </row>
-    <row r="81" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="67">
@@ -4415,14 +3999,12 @@
       <c r="I81" s="67"/>
       <c r="J81" s="67"/>
       <c r="K81" s="67"/>
-      <c r="L81" s="70"/>
+      <c r="L81" s="11"/>
       <c r="M81" s="74"/>
       <c r="N81" s="74"/>
-      <c r="O81" s="46"/>
-      <c r="P81" s="51"/>
-      <c r="Q81" s="67">
-        <v>0</v>
-      </c>
+      <c r="O81" s="92"/>
+      <c r="P81" s="91"/>
+      <c r="Q81" s="67"/>
       <c r="R81" s="67"/>
       <c r="S81" s="67"/>
       <c r="T81" s="67"/>
@@ -4431,434 +4013,1627 @@
       <c r="W81" s="67"/>
       <c r="X81" s="67"/>
     </row>
-    <row r="82" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="67">
-        <v>0</v>
-      </c>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="67"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="70"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="73">
+        <v>0</v>
+      </c>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+      <c r="K82" s="73"/>
+      <c r="L82" s="20"/>
       <c r="M82" s="74"/>
       <c r="N82" s="74"/>
       <c r="O82" s="46"/>
       <c r="P82" s="51"/>
-      <c r="Q82" s="67">
-        <v>0</v>
-      </c>
-      <c r="R82" s="67"/>
-      <c r="S82" s="67"/>
-      <c r="T82" s="67"/>
-      <c r="U82" s="67"/>
-      <c r="V82" s="67"/>
-      <c r="W82" s="67"/>
-      <c r="X82" s="67"/>
-    </row>
-    <row r="83" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="9"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="67">
-        <v>0</v>
-      </c>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="70"/>
-      <c r="M83" s="74"/>
+      <c r="Q82" s="73">
+        <v>0</v>
+      </c>
+      <c r="R82" s="73"/>
+      <c r="S82" s="73"/>
+      <c r="T82" s="73"/>
+      <c r="U82" s="73"/>
+      <c r="V82" s="73"/>
+      <c r="W82" s="73"/>
+      <c r="X82" s="73"/>
+    </row>
+    <row r="83" spans="2:26" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="30">
+        <f>SUM(D69:D82)</f>
+        <v>170</v>
+      </c>
+      <c r="E83" s="31">
+        <f>SUM(E69:E82)</f>
+        <v>369</v>
+      </c>
+      <c r="F83" s="31">
+        <f>SUM(F69:F82)</f>
+        <v>2264</v>
+      </c>
+      <c r="G83" s="31">
+        <f>SUM(G69:G82)</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="31">
+        <f>SUM(H69:H82)</f>
+        <v>1799</v>
+      </c>
+      <c r="I83" s="31">
+        <f>SUM(I69:I82)</f>
+        <v>403</v>
+      </c>
+      <c r="J83" s="22">
+        <f>SUM(J69:J82)</f>
+        <v>2651.5</v>
+      </c>
+      <c r="K83" s="32">
+        <f>SUM(K69:K82)</f>
+        <v>4783</v>
+      </c>
+      <c r="L83" s="100">
+        <f>SUM(L69:L82)</f>
+        <v>1008</v>
+      </c>
+      <c r="M83" s="75"/>
       <c r="N83" s="74"/>
-      <c r="O83" s="46"/>
-      <c r="P83" s="51"/>
-      <c r="Q83" s="67">
-        <v>0</v>
-      </c>
-      <c r="R83" s="67"/>
-      <c r="S83" s="67"/>
-      <c r="T83" s="67"/>
-      <c r="U83" s="67"/>
-      <c r="V83" s="67"/>
-      <c r="W83" s="67"/>
-      <c r="X83" s="67"/>
-    </row>
-    <row r="84" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="67">
-        <v>0</v>
-      </c>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="70"/>
-      <c r="M84" s="74"/>
+      <c r="P83" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q83" s="21">
+        <f>SUM(Q69:Q82)</f>
+        <v>907</v>
+      </c>
+      <c r="R83" s="22">
+        <f>SUM(R69:R82)</f>
+        <v>89</v>
+      </c>
+      <c r="S83" s="22">
+        <f>SUM(S69:S82)</f>
+        <v>2444</v>
+      </c>
+      <c r="T83" s="22">
+        <f>SUM(T69:T82)</f>
+        <v>58</v>
+      </c>
+      <c r="U83" s="22">
+        <f>SUM(U69:U82)</f>
+        <v>403</v>
+      </c>
+      <c r="V83" s="22">
+        <f>SUM(V69:V82)</f>
+        <v>5587</v>
+      </c>
+      <c r="W83" s="22">
+        <f>SUM(W69:W82)</f>
+        <v>4449.5</v>
+      </c>
+      <c r="X83" s="23">
+        <f>SUM(X69:X82)</f>
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="76"/>
       <c r="N84" s="74"/>
-      <c r="O84" s="46"/>
-      <c r="P84" s="51"/>
-      <c r="Q84" s="67">
-        <v>0</v>
-      </c>
-      <c r="R84" s="67"/>
-      <c r="S84" s="67"/>
-      <c r="T84" s="67"/>
-      <c r="U84" s="67"/>
-      <c r="V84" s="67"/>
-      <c r="W84" s="67"/>
-      <c r="X84" s="67"/>
-    </row>
-    <row r="85" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="9"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="67">
-        <v>0</v>
-      </c>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="70"/>
-      <c r="M85" s="74"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+      <c r="W84" s="5"/>
+      <c r="X84" s="5"/>
+    </row>
+    <row r="85" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="114">
+        <f>K83+J83+I83+H83+G83+F83+E83+D83+L83</f>
+        <v>13447.5</v>
+      </c>
+      <c r="G85" s="115"/>
+      <c r="H85" s="116"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5">
+        <v>13447.5</v>
+      </c>
+      <c r="K85" s="5"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="76"/>
       <c r="N85" s="74"/>
-      <c r="O85" s="46"/>
-      <c r="P85" s="51"/>
-      <c r="Q85" s="67">
-        <v>0</v>
-      </c>
-      <c r="R85" s="67"/>
-      <c r="S85" s="67"/>
-      <c r="T85" s="67"/>
-      <c r="U85" s="67"/>
-      <c r="V85" s="67"/>
-      <c r="W85" s="67"/>
-      <c r="X85" s="67"/>
-    </row>
-    <row r="86" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="67">
-        <v>0</v>
-      </c>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="70"/>
-      <c r="M86" s="74"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="119">
+        <f>Q83+R83+S83+T83+U83+V83+W83+X83</f>
+        <v>19080.5</v>
+      </c>
+      <c r="T85" s="120"/>
+      <c r="U85" s="121"/>
+      <c r="V85" s="5">
+        <v>19080.5</v>
+      </c>
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+    </row>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="78"/>
+      <c r="M86" s="76"/>
       <c r="N86" s="74"/>
-      <c r="O86" s="46"/>
-      <c r="P86" s="51"/>
-      <c r="Q86" s="67">
-        <v>0</v>
-      </c>
-      <c r="R86" s="67"/>
-      <c r="S86" s="67"/>
-      <c r="T86" s="67"/>
-      <c r="U86" s="67"/>
-      <c r="V86" s="67"/>
-      <c r="W86" s="67"/>
-      <c r="X86" s="67"/>
-    </row>
-    <row r="87" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="67">
-        <v>0</v>
-      </c>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="70"/>
-      <c r="M87" s="74"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="78"/>
+      <c r="M87" s="76"/>
       <c r="N87" s="74"/>
-      <c r="O87" s="46"/>
-      <c r="P87" s="51"/>
-      <c r="Q87" s="67">
-        <v>0</v>
-      </c>
-      <c r="R87" s="67"/>
-      <c r="S87" s="67"/>
-      <c r="T87" s="67"/>
-      <c r="U87" s="67"/>
-      <c r="V87" s="67"/>
-      <c r="W87" s="67"/>
-      <c r="X87" s="67"/>
-    </row>
-    <row r="88" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="9"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="73">
-        <v>0</v>
-      </c>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="73"/>
-      <c r="K88" s="73"/>
-      <c r="L88" s="70"/>
-      <c r="M88" s="74"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="5"/>
+      <c r="X87" s="5"/>
+    </row>
+    <row r="88" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="78"/>
+      <c r="M88" s="79"/>
       <c r="N88" s="74"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="51"/>
-      <c r="Q88" s="73">
-        <v>0</v>
-      </c>
-      <c r="R88" s="73"/>
-      <c r="S88" s="73"/>
-      <c r="T88" s="73"/>
-      <c r="U88" s="73"/>
-      <c r="V88" s="73"/>
-      <c r="W88" s="73"/>
-      <c r="X88" s="73"/>
-    </row>
-    <row r="89" spans="2:24" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="35" t="s">
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L89" s="80"/>
+      <c r="M89" s="80"/>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L90" s="80"/>
+      <c r="M90" s="80"/>
+    </row>
+    <row r="91" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C92" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="110"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="110"/>
+      <c r="G92" s="110"/>
+      <c r="H92" s="110"/>
+      <c r="I92" s="110"/>
+      <c r="J92" s="110"/>
+      <c r="K92" s="110"/>
+      <c r="L92" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="M92" s="83"/>
+      <c r="N92" s="81"/>
+      <c r="O92" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="P92" s="118"/>
+      <c r="Q92" s="118"/>
+      <c r="R92" s="118"/>
+      <c r="S92" s="118"/>
+      <c r="T92" s="118"/>
+      <c r="U92" s="118"/>
+      <c r="V92" s="118"/>
+      <c r="W92" s="118"/>
+      <c r="X92" s="85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I93" s="111" t="s">
+        <v>37</v>
+      </c>
+      <c r="J93" s="112"/>
+      <c r="K93" s="113"/>
+      <c r="L93" s="68"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="74"/>
+      <c r="W93" s="112"/>
+      <c r="X93" s="113"/>
+    </row>
+    <row r="94" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="69"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="82"/>
+      <c r="O94" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P94" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="R94" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="T94" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="W94" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:26" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="72">
+        <v>160</v>
+      </c>
+      <c r="E95" s="72">
+        <v>0</v>
+      </c>
+      <c r="F95" s="72">
+        <v>0</v>
+      </c>
+      <c r="G95" s="72">
+        <v>0</v>
+      </c>
+      <c r="H95" s="72">
+        <v>0</v>
+      </c>
+      <c r="I95" s="72">
+        <v>0</v>
+      </c>
+      <c r="J95" s="72"/>
+      <c r="K95" s="72">
+        <v>0</v>
+      </c>
+      <c r="L95" s="70"/>
+      <c r="M95" s="74"/>
+      <c r="N95" s="74"/>
+      <c r="O95" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P95" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q95" s="72">
+        <v>0</v>
+      </c>
+      <c r="R95" s="72">
+        <v>0</v>
+      </c>
+      <c r="S95" s="72">
+        <v>0</v>
+      </c>
+      <c r="T95" s="72">
+        <v>0</v>
+      </c>
+      <c r="U95" s="72">
+        <v>0</v>
+      </c>
+      <c r="V95" s="72">
+        <v>0</v>
+      </c>
+      <c r="W95" s="72">
+        <v>0</v>
+      </c>
+      <c r="X95" s="72">
+        <f>109+1973+1400+1641+70+756+830</f>
+        <v>6779</v>
+      </c>
+      <c r="Y95" s="65"/>
+      <c r="Z95" s="65"/>
+    </row>
+    <row r="96" spans="2:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="67">
+        <v>0</v>
+      </c>
+      <c r="E96" s="67">
+        <v>0</v>
+      </c>
+      <c r="F96" s="67">
+        <v>0</v>
+      </c>
+      <c r="G96" s="67">
+        <v>0</v>
+      </c>
+      <c r="H96" s="67">
+        <v>0</v>
+      </c>
+      <c r="I96" s="67">
+        <v>0</v>
+      </c>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67">
+        <f>542+680+1493+1388+806+1177</f>
+        <v>6086</v>
+      </c>
+      <c r="L96" s="71"/>
+      <c r="M96" s="74"/>
+      <c r="N96" s="74"/>
+      <c r="O96" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P96" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q96" s="72">
+        <v>0</v>
+      </c>
+      <c r="R96" s="72">
+        <v>0</v>
+      </c>
+      <c r="S96" s="72">
+        <v>0</v>
+      </c>
+      <c r="T96" s="72">
+        <v>0</v>
+      </c>
+      <c r="U96" s="72">
+        <v>0</v>
+      </c>
+      <c r="V96" s="72">
+        <v>0</v>
+      </c>
+      <c r="W96" s="72">
+        <f>127+896+100</f>
+        <v>1123</v>
+      </c>
+      <c r="X96" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="67">
+        <v>0</v>
+      </c>
+      <c r="E97" s="67">
+        <v>0</v>
+      </c>
+      <c r="F97" s="67">
+        <v>0</v>
+      </c>
+      <c r="G97" s="67">
+        <v>0</v>
+      </c>
+      <c r="H97" s="67">
+        <f>78+66+102+68+102+51+51</f>
+        <v>518</v>
+      </c>
+      <c r="I97" s="67">
+        <v>0</v>
+      </c>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67">
+        <v>0</v>
+      </c>
+      <c r="L97" s="70"/>
+      <c r="M97" s="74"/>
+      <c r="N97" s="74"/>
+      <c r="O97" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P97" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q97" s="72">
+        <f>144+287+180</f>
+        <v>611</v>
+      </c>
+      <c r="R97" s="72">
+        <v>0</v>
+      </c>
+      <c r="S97" s="72">
+        <v>0</v>
+      </c>
+      <c r="T97" s="72">
+        <v>0</v>
+      </c>
+      <c r="U97" s="72">
+        <v>0</v>
+      </c>
+      <c r="V97" s="72">
+        <v>0</v>
+      </c>
+      <c r="W97" s="72">
+        <v>0</v>
+      </c>
+      <c r="X97" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="67">
+        <v>0</v>
+      </c>
+      <c r="E98" s="67">
+        <v>123</v>
+      </c>
+      <c r="F98" s="67">
+        <v>0</v>
+      </c>
+      <c r="G98" s="67">
+        <v>0</v>
+      </c>
+      <c r="H98" s="67">
+        <v>0</v>
+      </c>
+      <c r="I98" s="67">
+        <f>391+81</f>
+        <v>472</v>
+      </c>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67">
+        <v>0</v>
+      </c>
+      <c r="L98" s="70"/>
+      <c r="M98" s="74"/>
+      <c r="N98" s="74"/>
+      <c r="O98" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P98" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q98" s="72">
+        <v>0</v>
+      </c>
+      <c r="R98" s="72">
+        <v>0</v>
+      </c>
+      <c r="S98" s="72">
+        <v>0</v>
+      </c>
+      <c r="T98" s="72">
+        <v>0</v>
+      </c>
+      <c r="U98" s="72">
+        <v>779</v>
+      </c>
+      <c r="V98" s="72">
+        <v>0</v>
+      </c>
+      <c r="W98" s="72">
+        <v>0</v>
+      </c>
+      <c r="X98" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="67">
+        <v>242</v>
+      </c>
+      <c r="E99" s="67">
+        <v>0</v>
+      </c>
+      <c r="F99" s="67">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="G99" s="67">
+        <v>0</v>
+      </c>
+      <c r="H99" s="67">
+        <v>0</v>
+      </c>
+      <c r="I99" s="67">
+        <v>0</v>
+      </c>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67">
+        <v>0</v>
+      </c>
+      <c r="L99" s="70"/>
+      <c r="M99" s="74"/>
+      <c r="N99" s="74"/>
+      <c r="O99" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P99" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q99" s="72">
+        <v>0</v>
+      </c>
+      <c r="R99" s="72">
+        <v>0</v>
+      </c>
+      <c r="S99" s="72">
+        <v>0</v>
+      </c>
+      <c r="T99" s="72">
+        <v>0</v>
+      </c>
+      <c r="U99" s="72">
+        <v>0</v>
+      </c>
+      <c r="V99" s="72">
+        <v>0</v>
+      </c>
+      <c r="W99" s="72">
+        <f>327+60</f>
+        <v>387</v>
+      </c>
+      <c r="X99" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" ht="36" x14ac:dyDescent="0.25">
+      <c r="B100" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D100" s="67">
+        <v>0</v>
+      </c>
+      <c r="E100" s="67">
+        <v>0</v>
+      </c>
+      <c r="F100" s="67">
+        <v>0</v>
+      </c>
+      <c r="G100" s="67">
+        <f>40+45</f>
+        <v>85</v>
+      </c>
+      <c r="H100" s="67">
+        <v>0</v>
+      </c>
+      <c r="I100" s="67">
+        <v>0</v>
+      </c>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67">
+        <v>0</v>
+      </c>
+      <c r="L100" s="70"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
+      <c r="O100" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P100" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q100" s="72">
+        <v>0</v>
+      </c>
+      <c r="R100" s="72">
+        <v>0</v>
+      </c>
+      <c r="S100" s="72">
+        <v>0</v>
+      </c>
+      <c r="T100" s="72">
+        <f>90+10+234</f>
+        <v>334</v>
+      </c>
+      <c r="U100" s="72">
+        <v>0</v>
+      </c>
+      <c r="V100" s="72">
+        <v>0</v>
+      </c>
+      <c r="W100" s="72">
+        <v>0</v>
+      </c>
+      <c r="X100" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:24" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="67">
+        <v>0</v>
+      </c>
+      <c r="E101" s="67">
+        <v>0</v>
+      </c>
+      <c r="F101" s="67">
+        <v>0</v>
+      </c>
+      <c r="G101" s="67">
+        <v>0</v>
+      </c>
+      <c r="H101" s="67">
+        <v>0</v>
+      </c>
+      <c r="I101" s="67">
+        <v>0</v>
+      </c>
+      <c r="J101" s="67">
+        <f>1013+1701</f>
+        <v>2714</v>
+      </c>
+      <c r="K101" s="67">
+        <v>0</v>
+      </c>
+      <c r="L101" s="70"/>
+      <c r="M101" s="74"/>
+      <c r="N101" s="74"/>
+      <c r="O101" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P101" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q101" s="72">
+        <v>0</v>
+      </c>
+      <c r="R101" s="72">
+        <v>0</v>
+      </c>
+      <c r="S101" s="72">
+        <f>2200+118+30+82+36+338</f>
+        <v>2804</v>
+      </c>
+      <c r="T101" s="72">
+        <v>0</v>
+      </c>
+      <c r="U101" s="72">
+        <v>0</v>
+      </c>
+      <c r="V101" s="72">
+        <v>0</v>
+      </c>
+      <c r="W101" s="72">
+        <v>0</v>
+      </c>
+      <c r="X101" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="67">
+        <v>0</v>
+      </c>
+      <c r="E102" s="67">
+        <v>180</v>
+      </c>
+      <c r="F102" s="67">
+        <v>0</v>
+      </c>
+      <c r="G102" s="67">
+        <v>0</v>
+      </c>
+      <c r="H102" s="67">
+        <v>0</v>
+      </c>
+      <c r="I102" s="67">
+        <v>0</v>
+      </c>
+      <c r="J102" s="67">
+        <v>0</v>
+      </c>
+      <c r="K102" s="67">
+        <v>0</v>
+      </c>
+      <c r="L102" s="70"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P102" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q102" s="72">
+        <v>0</v>
+      </c>
+      <c r="R102" s="72">
+        <v>1221</v>
+      </c>
+      <c r="S102" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="T102" s="72">
+        <v>0</v>
+      </c>
+      <c r="U102" s="72">
+        <v>0</v>
+      </c>
+      <c r="V102" s="72">
+        <v>0</v>
+      </c>
+      <c r="W102" s="72">
+        <v>0</v>
+      </c>
+      <c r="X102" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" ht="36" x14ac:dyDescent="0.25">
+      <c r="B103" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="67">
+        <v>0</v>
+      </c>
+      <c r="E103" s="67">
+        <v>0</v>
+      </c>
+      <c r="F103" s="67">
+        <f>1638+45+36</f>
+        <v>1719</v>
+      </c>
+      <c r="G103" s="67">
+        <v>0</v>
+      </c>
+      <c r="H103" s="67">
+        <v>0</v>
+      </c>
+      <c r="I103" s="67">
+        <v>0</v>
+      </c>
+      <c r="J103" s="67">
+        <v>0</v>
+      </c>
+      <c r="K103" s="67">
+        <v>0</v>
+      </c>
+      <c r="L103" s="70"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="74"/>
+      <c r="O103" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P103" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q103" s="72">
+        <v>0</v>
+      </c>
+      <c r="R103" s="72">
+        <v>0</v>
+      </c>
+      <c r="S103" s="72">
+        <v>0</v>
+      </c>
+      <c r="T103" s="72">
+        <v>0</v>
+      </c>
+      <c r="U103" s="72">
+        <v>0</v>
+      </c>
+      <c r="V103" s="72">
+        <f>700+700+3067+710</f>
+        <v>5177</v>
+      </c>
+      <c r="W103" s="72">
+        <v>0</v>
+      </c>
+      <c r="X103" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="67">
+        <v>0</v>
+      </c>
+      <c r="E104" s="67">
+        <v>0</v>
+      </c>
+      <c r="F104" s="67">
+        <v>0</v>
+      </c>
+      <c r="G104" s="67">
+        <v>0</v>
+      </c>
+      <c r="H104" s="67">
+        <f>380+380+460</f>
+        <v>1220</v>
+      </c>
+      <c r="I104" s="67">
+        <v>0</v>
+      </c>
+      <c r="J104" s="67">
+        <v>0</v>
+      </c>
+      <c r="K104" s="67">
+        <v>0</v>
+      </c>
+      <c r="L104" s="70"/>
+      <c r="M104" s="74"/>
+      <c r="N104" s="74"/>
+      <c r="O104" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P104" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q104" s="72">
+        <v>0</v>
+      </c>
+      <c r="R104" s="72">
+        <v>0</v>
+      </c>
+      <c r="S104" s="72">
+        <v>0</v>
+      </c>
+      <c r="T104" s="72">
+        <v>0</v>
+      </c>
+      <c r="U104" s="72">
+        <v>0</v>
+      </c>
+      <c r="V104" s="72">
+        <f>170+238+170+153+170+336</f>
+        <v>1237</v>
+      </c>
+      <c r="W104" s="72">
+        <v>0</v>
+      </c>
+      <c r="X104" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="45"/>
+      <c r="D105" s="67">
+        <v>0</v>
+      </c>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
+      <c r="L105" s="70"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="74"/>
+      <c r="O105" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P105" s="48"/>
+      <c r="Q105" s="72">
+        <v>0</v>
+      </c>
+      <c r="R105" s="72">
+        <v>0</v>
+      </c>
+      <c r="S105" s="72">
+        <v>0</v>
+      </c>
+      <c r="T105" s="72">
+        <v>0</v>
+      </c>
+      <c r="U105" s="72">
+        <v>0</v>
+      </c>
+      <c r="V105" s="72">
+        <v>0</v>
+      </c>
+      <c r="W105" s="72">
+        <v>0</v>
+      </c>
+      <c r="X105" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="9"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="67">
+        <v>0</v>
+      </c>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
+      <c r="L106" s="70"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="74"/>
+      <c r="O106" s="46"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="67">
+        <v>0</v>
+      </c>
+      <c r="R106" s="67"/>
+      <c r="S106" s="67"/>
+      <c r="T106" s="67"/>
+      <c r="U106" s="67"/>
+      <c r="V106" s="67"/>
+      <c r="W106" s="67"/>
+      <c r="X106" s="67"/>
+    </row>
+    <row r="107" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="9"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="67">
+        <v>0</v>
+      </c>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
+      <c r="L107" s="70"/>
+      <c r="M107" s="74"/>
+      <c r="N107" s="74"/>
+      <c r="O107" s="46"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="67">
+        <v>0</v>
+      </c>
+      <c r="R107" s="67"/>
+      <c r="S107" s="67"/>
+      <c r="T107" s="67"/>
+      <c r="U107" s="67"/>
+      <c r="V107" s="67"/>
+      <c r="W107" s="67"/>
+      <c r="X107" s="67"/>
+    </row>
+    <row r="108" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="9"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="67">
+        <v>0</v>
+      </c>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="67"/>
+      <c r="K108" s="67"/>
+      <c r="L108" s="70"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
+      <c r="O108" s="46"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="67">
+        <v>0</v>
+      </c>
+      <c r="R108" s="67"/>
+      <c r="S108" s="67"/>
+      <c r="T108" s="67"/>
+      <c r="U108" s="67"/>
+      <c r="V108" s="67"/>
+      <c r="W108" s="67"/>
+      <c r="X108" s="67"/>
+    </row>
+    <row r="109" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="9"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="67">
+        <v>0</v>
+      </c>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="67"/>
+      <c r="L109" s="70"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="46"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="67">
+        <v>0</v>
+      </c>
+      <c r="R109" s="67"/>
+      <c r="S109" s="67"/>
+      <c r="T109" s="67"/>
+      <c r="U109" s="67"/>
+      <c r="V109" s="67"/>
+      <c r="W109" s="67"/>
+      <c r="X109" s="67"/>
+    </row>
+    <row r="110" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="9"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="67">
+        <v>0</v>
+      </c>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
+      <c r="L110" s="70"/>
+      <c r="M110" s="74"/>
+      <c r="N110" s="74"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="51"/>
+      <c r="Q110" s="67">
+        <v>0</v>
+      </c>
+      <c r="R110" s="67"/>
+      <c r="S110" s="67"/>
+      <c r="T110" s="67"/>
+      <c r="U110" s="67"/>
+      <c r="V110" s="67"/>
+      <c r="W110" s="67"/>
+      <c r="X110" s="67"/>
+    </row>
+    <row r="111" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="9"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="67">
+        <v>0</v>
+      </c>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67"/>
+      <c r="L111" s="70"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="74"/>
+      <c r="O111" s="46"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="67">
+        <v>0</v>
+      </c>
+      <c r="R111" s="67"/>
+      <c r="S111" s="67"/>
+      <c r="T111" s="67"/>
+      <c r="U111" s="67"/>
+      <c r="V111" s="67"/>
+      <c r="W111" s="67"/>
+      <c r="X111" s="67"/>
+    </row>
+    <row r="112" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="67">
+        <v>0</v>
+      </c>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="67"/>
+      <c r="J112" s="67"/>
+      <c r="K112" s="67"/>
+      <c r="L112" s="70"/>
+      <c r="M112" s="74"/>
+      <c r="N112" s="74"/>
+      <c r="O112" s="46"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="67">
+        <v>0</v>
+      </c>
+      <c r="R112" s="67"/>
+      <c r="S112" s="67"/>
+      <c r="T112" s="67"/>
+      <c r="U112" s="67"/>
+      <c r="V112" s="67"/>
+      <c r="W112" s="67"/>
+      <c r="X112" s="67"/>
+    </row>
+    <row r="113" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="9"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="67">
+        <v>0</v>
+      </c>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
+      <c r="L113" s="70"/>
+      <c r="M113" s="74"/>
+      <c r="N113" s="74"/>
+      <c r="O113" s="46"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="67">
+        <v>0</v>
+      </c>
+      <c r="R113" s="67"/>
+      <c r="S113" s="67"/>
+      <c r="T113" s="67"/>
+      <c r="U113" s="67"/>
+      <c r="V113" s="67"/>
+      <c r="W113" s="67"/>
+      <c r="X113" s="67"/>
+    </row>
+    <row r="114" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="9"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="67">
+        <v>0</v>
+      </c>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="67"/>
+      <c r="J114" s="67"/>
+      <c r="K114" s="67"/>
+      <c r="L114" s="70"/>
+      <c r="M114" s="74"/>
+      <c r="N114" s="74"/>
+      <c r="O114" s="46"/>
+      <c r="P114" s="51"/>
+      <c r="Q114" s="67">
+        <v>0</v>
+      </c>
+      <c r="R114" s="67"/>
+      <c r="S114" s="67"/>
+      <c r="T114" s="67"/>
+      <c r="U114" s="67"/>
+      <c r="V114" s="67"/>
+      <c r="W114" s="67"/>
+      <c r="X114" s="67"/>
+    </row>
+    <row r="115" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="9"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="67">
+        <v>0</v>
+      </c>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="67"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="67"/>
+      <c r="J115" s="67"/>
+      <c r="K115" s="67"/>
+      <c r="L115" s="70"/>
+      <c r="M115" s="74"/>
+      <c r="N115" s="74"/>
+      <c r="O115" s="46"/>
+      <c r="P115" s="51"/>
+      <c r="Q115" s="67">
+        <v>0</v>
+      </c>
+      <c r="R115" s="67"/>
+      <c r="S115" s="67"/>
+      <c r="T115" s="67"/>
+      <c r="U115" s="67"/>
+      <c r="V115" s="67"/>
+      <c r="W115" s="67"/>
+      <c r="X115" s="67"/>
+    </row>
+    <row r="116" spans="2:24" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="9"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="67">
+        <v>0</v>
+      </c>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="67"/>
+      <c r="J116" s="67"/>
+      <c r="K116" s="67"/>
+      <c r="L116" s="70"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="51"/>
+      <c r="Q116" s="67">
+        <v>0</v>
+      </c>
+      <c r="R116" s="67"/>
+      <c r="S116" s="67"/>
+      <c r="T116" s="67"/>
+      <c r="U116" s="67"/>
+      <c r="V116" s="67"/>
+      <c r="W116" s="67"/>
+      <c r="X116" s="67"/>
+    </row>
+    <row r="117" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="9"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="73">
+        <v>0</v>
+      </c>
+      <c r="E117" s="73"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="73"/>
+      <c r="H117" s="73"/>
+      <c r="I117" s="73"/>
+      <c r="J117" s="73"/>
+      <c r="K117" s="73"/>
+      <c r="L117" s="70"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="74"/>
+      <c r="O117" s="46"/>
+      <c r="P117" s="51"/>
+      <c r="Q117" s="73">
+        <v>0</v>
+      </c>
+      <c r="R117" s="73"/>
+      <c r="S117" s="73"/>
+      <c r="T117" s="73"/>
+      <c r="U117" s="73"/>
+      <c r="V117" s="73"/>
+      <c r="W117" s="73"/>
+      <c r="X117" s="73"/>
+    </row>
+    <row r="118" spans="2:24" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="30">
-        <f t="shared" ref="D89:K89" si="2">SUM(D66:D88)</f>
+      <c r="D118" s="30">
+        <f t="shared" ref="D118:K118" si="19">SUM(D95:D117)</f>
         <v>402</v>
       </c>
-      <c r="E89" s="31">
-        <f t="shared" si="2"/>
+      <c r="E118" s="31">
+        <f t="shared" si="19"/>
         <v>303</v>
       </c>
-      <c r="F89" s="31">
-        <f t="shared" si="2"/>
+      <c r="F118" s="31">
+        <f t="shared" si="19"/>
         <v>1779</v>
       </c>
-      <c r="G89" s="31">
-        <f t="shared" si="2"/>
+      <c r="G118" s="31">
+        <f t="shared" si="19"/>
         <v>85</v>
       </c>
-      <c r="H89" s="31">
-        <f t="shared" si="2"/>
+      <c r="H118" s="31">
+        <f t="shared" si="19"/>
         <v>1738</v>
       </c>
-      <c r="I89" s="31">
-        <f t="shared" si="2"/>
+      <c r="I118" s="31">
+        <f t="shared" si="19"/>
         <v>472</v>
       </c>
-      <c r="J89" s="22">
-        <f t="shared" si="2"/>
+      <c r="J118" s="22">
+        <f t="shared" si="19"/>
         <v>2714</v>
       </c>
-      <c r="K89" s="32">
-        <f t="shared" si="2"/>
+      <c r="K118" s="32">
+        <f t="shared" si="19"/>
         <v>6086</v>
       </c>
-      <c r="L89" s="77"/>
-      <c r="M89" s="75"/>
-      <c r="N89" s="74"/>
-      <c r="P89" s="33" t="s">
+      <c r="L118" s="77"/>
+      <c r="M118" s="75"/>
+      <c r="N118" s="74"/>
+      <c r="P118" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="Q89" s="21">
-        <f>SUM(Q66:Q88)</f>
+      <c r="Q118" s="21">
+        <f>SUM(Q95:Q117)</f>
         <v>611</v>
       </c>
-      <c r="R89" s="22">
-        <f t="shared" ref="R89:X89" si="3">SUM(R66:R88)</f>
+      <c r="R118" s="22">
+        <f t="shared" ref="R118:X118" si="20">SUM(R95:R117)</f>
         <v>1221</v>
       </c>
-      <c r="S89" s="22">
-        <f t="shared" si="3"/>
+      <c r="S118" s="22">
+        <f t="shared" si="20"/>
         <v>2804</v>
       </c>
-      <c r="T89" s="22">
-        <f t="shared" si="3"/>
+      <c r="T118" s="22">
+        <f t="shared" si="20"/>
         <v>334</v>
       </c>
-      <c r="U89" s="22">
-        <f t="shared" si="3"/>
+      <c r="U118" s="22">
+        <f t="shared" si="20"/>
         <v>779</v>
       </c>
-      <c r="V89" s="22">
-        <f t="shared" si="3"/>
+      <c r="V118" s="22">
+        <f t="shared" si="20"/>
         <v>6414</v>
       </c>
-      <c r="W89" s="22">
-        <f t="shared" si="3"/>
+      <c r="W118" s="22">
+        <f t="shared" si="20"/>
         <v>1510</v>
       </c>
-      <c r="X89" s="23">
-        <f t="shared" si="3"/>
+      <c r="X118" s="23">
+        <f t="shared" si="20"/>
         <v>6779</v>
       </c>
     </row>
-    <row r="90" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="78"/>
-      <c r="M90" s="76"/>
-      <c r="N90" s="74"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-    </row>
-    <row r="91" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="122">
-        <f>K89+J89+I89+H89+G89+F89+E89+D89</f>
+    <row r="119" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="78"/>
+      <c r="M119" s="76"/>
+      <c r="N119" s="74"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="5"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
+    </row>
+    <row r="120" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="122">
+        <f>K118+J118+I118+H118+G118+F118+E118+D118</f>
         <v>13579</v>
       </c>
-      <c r="G91" s="117"/>
-      <c r="H91" s="118"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5">
+      <c r="G120" s="115"/>
+      <c r="H120" s="116"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5">
         <v>13579</v>
       </c>
-      <c r="K91" s="5"/>
-      <c r="L91" s="78"/>
-      <c r="M91" s="76"/>
-      <c r="N91" s="74"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="119">
-        <f>Q89+R89+S89+T89+U89+V89+W89+X89</f>
+      <c r="K120" s="5"/>
+      <c r="L120" s="78"/>
+      <c r="M120" s="76"/>
+      <c r="N120" s="74"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="119">
+        <f>Q118+R118+S118+T118+U118+V118+W118+X118</f>
         <v>20452</v>
       </c>
-      <c r="T91" s="120"/>
-      <c r="U91" s="121"/>
-      <c r="V91" s="5">
+      <c r="T120" s="120"/>
+      <c r="U120" s="121"/>
+      <c r="V120" s="5">
         <v>20452</v>
       </c>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
-    </row>
-    <row r="92" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="78"/>
-      <c r="M92" s="76"/>
-      <c r="N92" s="74"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
-      <c r="X92" s="5"/>
-    </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="78"/>
-      <c r="M93" s="76"/>
-      <c r="N93" s="74"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
-    </row>
-    <row r="94" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="78"/>
-      <c r="M94" s="79"/>
-      <c r="N94" s="74"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
-      <c r="X94" s="5"/>
-    </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L95" s="80"/>
-      <c r="M95" s="80"/>
-    </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L96" s="80"/>
-      <c r="M96" s="80"/>
-    </row>
-    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L97" s="80"/>
-      <c r="M97" s="80"/>
-    </row>
-    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L98" s="80"/>
-      <c r="M98" s="80"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
+    </row>
+    <row r="121" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="78"/>
+      <c r="M121" s="76"/>
+      <c r="N121" s="74"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+    </row>
+    <row r="122" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="78"/>
+      <c r="M122" s="76"/>
+      <c r="N122" s="74"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5"/>
+      <c r="W122" s="5"/>
+      <c r="X122" s="5"/>
+    </row>
+    <row r="123" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="78"/>
+      <c r="M123" s="79"/>
+      <c r="N123" s="74"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+      <c r="W123" s="5"/>
+      <c r="X123" s="5"/>
+    </row>
+    <row r="124" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L124" s="80"/>
+      <c r="M124" s="80"/>
+    </row>
+    <row r="125" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L125" s="80"/>
+      <c r="M125" s="80"/>
+    </row>
+    <row r="126" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L126" s="80"/>
+      <c r="M126" s="80"/>
+    </row>
+    <row r="127" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L127" s="80"/>
+      <c r="M127" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
     <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
     <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="O2:W2"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="C63:K63"/>
-    <mergeCell ref="S91:U91"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="W64:X64"/>
-    <mergeCell ref="O63:W63"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="O28:W28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="W67:X67"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="C92:K92"/>
+    <mergeCell ref="S120:U120"/>
+    <mergeCell ref="I93:K93"/>
+    <mergeCell ref="W93:X93"/>
+    <mergeCell ref="O92:W92"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="O33:W33"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V34:X34"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4894,1420 +5669,1126 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="B1:Z22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1"/>
-    <col min="21" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="80" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="80" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="123"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L3" s="37"/>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24" t="s">
+    <row r="1" spans="2:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" s="146" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="137"/>
+      <c r="C2" s="138" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="144"/>
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="145"/>
+    </row>
+    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="37"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+    </row>
+    <row r="4" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="F4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="G4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="J4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="L4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18" t="s">
+      <c r="M4" s="102"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="S4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="T4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="W4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="X4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="Y4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="104">
-        <f>160+'GASTOS POR SEMANA  '!D31</f>
-        <v>330</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
-        <v>0</v>
-      </c>
-      <c r="S5" s="13">
-        <v>0</v>
-      </c>
-      <c r="T5" s="13">
-        <v>0</v>
-      </c>
-      <c r="U5" s="13">
-        <v>0</v>
-      </c>
-      <c r="V5" s="13">
-        <v>0</v>
-      </c>
-      <c r="W5" s="104">
-        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X31</f>
-        <v>11922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="105">
-        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K32</f>
-        <v>10869</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="13">
-        <v>0</v>
-      </c>
-      <c r="S6" s="13">
-        <v>0</v>
-      </c>
-      <c r="T6" s="13">
-        <v>0</v>
-      </c>
-      <c r="U6" s="13">
-        <v>0</v>
-      </c>
-      <c r="V6" s="104">
-        <f>127+896+100+'GASTOS POR SEMANA  '!W32</f>
-        <v>5572.5</v>
-      </c>
-      <c r="W6" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="43" t="s">
+    <row r="5" spans="2:26" ht="81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="72">
+        <f>160+60+170+469+352+242+180</f>
+        <v>1633</v>
+      </c>
+      <c r="E5" s="72">
+        <v>0</v>
+      </c>
+      <c r="F5" s="72">
+        <v>0</v>
+      </c>
+      <c r="G5" s="72">
+        <v>0</v>
+      </c>
+      <c r="H5" s="72">
+        <v>0</v>
+      </c>
+      <c r="I5" s="72">
+        <v>0</v>
+      </c>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72">
+        <v>0</v>
+      </c>
+      <c r="L5" s="72"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="134" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="130">
+        <v>0</v>
+      </c>
+      <c r="S5" s="72">
+        <v>0</v>
+      </c>
+      <c r="T5" s="72">
+        <v>0</v>
+      </c>
+      <c r="U5" s="72">
+        <v>0</v>
+      </c>
+      <c r="V5" s="72">
+        <v>0</v>
+      </c>
+      <c r="W5" s="72">
+        <v>0</v>
+      </c>
+      <c r="X5" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="131">
+        <f>6779+5143+6403+2659</f>
+        <v>20984</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="67">
+        <v>0</v>
+      </c>
+      <c r="E6" s="67">
+        <v>0</v>
+      </c>
+      <c r="F6" s="67">
+        <v>0</v>
+      </c>
+      <c r="G6" s="67">
+        <v>0</v>
+      </c>
+      <c r="H6" s="67">
+        <v>0</v>
+      </c>
+      <c r="I6" s="67">
+        <v>0</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67">
+        <f>6086+4783+6236+2689</f>
+        <v>19794</v>
+      </c>
+      <c r="L6" s="67"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" s="130">
+        <v>0</v>
+      </c>
+      <c r="S6" s="72">
+        <v>0</v>
+      </c>
+      <c r="T6" s="72">
+        <v>0</v>
+      </c>
+      <c r="U6" s="72">
+        <v>0</v>
+      </c>
+      <c r="V6" s="72">
+        <v>0</v>
+      </c>
+      <c r="W6" s="72">
+        <v>0</v>
+      </c>
+      <c r="X6" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="72">
+        <f>1123+4449.5+1880+2740.5+400</f>
+        <v>10593</v>
+      </c>
+      <c r="Z6" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="105">
-        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H33</f>
-        <v>1087</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="104">
-        <f>144+287+180+'GASTOS POR SEMANA  '!Q33</f>
-        <v>1518</v>
-      </c>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>0</v>
-      </c>
-      <c r="R7" s="13">
-        <v>0</v>
-      </c>
-      <c r="S7" s="13">
-        <v>0</v>
-      </c>
-      <c r="T7" s="13">
-        <v>0</v>
-      </c>
-      <c r="U7" s="13">
-        <v>0</v>
-      </c>
-      <c r="V7" s="13">
-        <v>0</v>
-      </c>
-      <c r="W7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="42" t="s">
+      <c r="D7" s="67">
+        <v>0</v>
+      </c>
+      <c r="E7" s="67">
+        <v>0</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0</v>
+      </c>
+      <c r="G7" s="67">
+        <v>0</v>
+      </c>
+      <c r="H7" s="67">
+        <f>518+569+651+408</f>
+        <v>2146</v>
+      </c>
+      <c r="I7" s="67">
+        <v>0</v>
+      </c>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67">
+        <v>0</v>
+      </c>
+      <c r="L7" s="67"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q7" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" s="130">
+        <f>611+907+1055+770</f>
+        <v>3343</v>
+      </c>
+      <c r="S7" s="72">
+        <v>0</v>
+      </c>
+      <c r="T7" s="72">
+        <v>0</v>
+      </c>
+      <c r="U7" s="72">
+        <v>0</v>
+      </c>
+      <c r="V7" s="72">
+        <v>0</v>
+      </c>
+      <c r="W7" s="72">
+        <v>0</v>
+      </c>
+      <c r="X7" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="105">
-        <f>123+'GASTOS POR SEMANA  '!E34</f>
-        <v>492</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="105">
-        <f>391+81+'GASTOS POR SEMANA  '!I34</f>
-        <v>875</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="48" t="s">
+      <c r="D8" s="67">
+        <v>0</v>
+      </c>
+      <c r="E8" s="67">
+        <f>123+369+188+180</f>
+        <v>860</v>
+      </c>
+      <c r="F8" s="67">
+        <v>0</v>
+      </c>
+      <c r="G8" s="67">
+        <v>0</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0</v>
+      </c>
+      <c r="I8" s="67">
+        <f>472+403+829+381</f>
+        <v>2085</v>
+      </c>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67">
+        <v>0</v>
+      </c>
+      <c r="L8" s="67"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13">
-        <v>0</v>
-      </c>
-      <c r="S8" s="13">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13">
-        <v>0</v>
-      </c>
-      <c r="U8" s="104">
-        <f>779+'GASTOS POR SEMANA  '!U34</f>
-        <v>1182</v>
-      </c>
-      <c r="V8" s="13">
-        <v>0</v>
-      </c>
-      <c r="W8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="105">
-        <f>242</f>
-        <v>242</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="105">
-        <v>60</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="48" t="s">
+      <c r="R8" s="130">
+        <v>0</v>
+      </c>
+      <c r="S8" s="72">
+        <v>0</v>
+      </c>
+      <c r="T8" s="72">
+        <v>0</v>
+      </c>
+      <c r="U8" s="72">
+        <v>0</v>
+      </c>
+      <c r="V8" s="72">
+        <v>0</v>
+      </c>
+      <c r="W8" s="72">
+        <v>0</v>
+      </c>
+      <c r="X8" s="72">
+        <f>779+403+400+728</f>
+        <v>2310</v>
+      </c>
+      <c r="Y8" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="67">
+        <v>0</v>
+      </c>
+      <c r="E9" s="67">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67">
+        <v>0</v>
+      </c>
+      <c r="G9" s="67">
+        <v>0</v>
+      </c>
+      <c r="H9" s="67">
+        <v>0</v>
+      </c>
+      <c r="I9" s="67">
+        <v>0</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67">
+        <v>0</v>
+      </c>
+      <c r="L9" s="67"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0</v>
-      </c>
-      <c r="R9" s="13">
-        <v>0</v>
-      </c>
-      <c r="S9" s="13">
-        <v>0</v>
-      </c>
-      <c r="T9" s="13">
-        <v>0</v>
-      </c>
-      <c r="U9" s="13">
-        <v>0</v>
-      </c>
-      <c r="V9" s="104">
-        <f>327+60</f>
+      <c r="R9" s="130">
+        <v>0</v>
+      </c>
+      <c r="S9" s="72">
+        <v>0</v>
+      </c>
+      <c r="T9" s="72">
+        <v>0</v>
+      </c>
+      <c r="U9" s="72">
+        <v>0</v>
+      </c>
+      <c r="V9" s="72">
+        <v>0</v>
+      </c>
+      <c r="W9" s="72">
+        <v>0</v>
+      </c>
+      <c r="X9" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="72">
+        <f>387</f>
         <v>387</v>
       </c>
-      <c r="W9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="36.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="105">
-        <f>40+45</f>
-        <v>85</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="104">
-        <f>90+10+234+'GASTOS POR SEMANA  '!T36</f>
-        <v>392</v>
-      </c>
-      <c r="S10" s="13">
-        <v>0</v>
-      </c>
-      <c r="T10" s="13">
-        <v>0</v>
-      </c>
-      <c r="U10" s="13">
-        <v>0</v>
-      </c>
-      <c r="V10" s="13">
-        <v>0</v>
-      </c>
-      <c r="W10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="57" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="105">
-        <f>1013+1701+'GASTOS POR SEMANA  '!J37+'GASTOS POR SEMANA  '!J38</f>
-        <v>5365.5</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="104">
-        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S37</f>
-        <v>5248</v>
-      </c>
-      <c r="R11" s="13">
-        <v>0</v>
-      </c>
-      <c r="S11" s="13">
-        <v>0</v>
-      </c>
-      <c r="T11" s="13">
-        <v>0</v>
-      </c>
-      <c r="U11" s="13">
-        <v>0</v>
-      </c>
-      <c r="V11" s="13">
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="105">
-        <v>180</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="104">
-        <f>1221+'GASTOS POR SEMANA  '!R35</f>
-        <v>1310</v>
-      </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Z9" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="50.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="67">
+        <v>0</v>
+      </c>
+      <c r="E10" s="67">
+        <v>0</v>
+      </c>
+      <c r="F10" s="67">
+        <v>0</v>
+      </c>
+      <c r="G10" s="67">
+        <f>40+45+45</f>
+        <v>130</v>
+      </c>
+      <c r="H10" s="67">
+        <v>0</v>
+      </c>
+      <c r="I10" s="67">
+        <v>0</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67">
+        <v>0</v>
+      </c>
+      <c r="L10" s="67"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="R10" s="130">
+        <v>0</v>
+      </c>
+      <c r="S10" s="72">
+        <v>0</v>
+      </c>
+      <c r="T10" s="72">
+        <v>0</v>
+      </c>
+      <c r="U10" s="72">
+        <f>334+58+40+125</f>
+        <v>557</v>
+      </c>
+      <c r="V10" s="72">
+        <v>0</v>
+      </c>
+      <c r="W10" s="72">
+        <v>0</v>
+      </c>
+      <c r="X10" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="69.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="67">
+        <v>0</v>
+      </c>
+      <c r="E11" s="67">
+        <v>0</v>
+      </c>
+      <c r="F11" s="67">
+        <v>0</v>
+      </c>
+      <c r="G11" s="67">
+        <v>0</v>
+      </c>
+      <c r="H11" s="67">
+        <v>0</v>
+      </c>
+      <c r="I11" s="67">
+        <v>0</v>
+      </c>
+      <c r="J11" s="67">
+        <f>2714+2524.5+624+565+151.5+1223+127</f>
+        <v>7929</v>
+      </c>
+      <c r="K11" s="67">
+        <v>0</v>
+      </c>
+      <c r="L11" s="67"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="R11" s="130">
+        <v>0</v>
+      </c>
+      <c r="S11" s="72">
+        <v>0</v>
+      </c>
+      <c r="T11" s="72">
+        <f>2804+2444+3027+3659</f>
+        <v>11934</v>
+      </c>
+      <c r="U11" s="72">
+        <v>0</v>
+      </c>
+      <c r="V11" s="72">
+        <v>0</v>
+      </c>
+      <c r="W11" s="72">
+        <v>0</v>
+      </c>
+      <c r="X11" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="67">
+        <v>0</v>
+      </c>
+      <c r="E12" s="67">
+        <v>0</v>
+      </c>
+      <c r="F12" s="67">
+        <f>1719+2264+2259+2776</f>
+        <v>9018</v>
+      </c>
+      <c r="G12" s="67">
+        <v>0</v>
+      </c>
+      <c r="H12" s="67">
+        <v>0</v>
+      </c>
+      <c r="I12" s="67">
+        <v>0</v>
+      </c>
+      <c r="J12" s="67">
+        <v>0</v>
+      </c>
+      <c r="K12" s="67">
+        <v>0</v>
+      </c>
+      <c r="L12" s="67"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q12" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12" s="130">
+        <v>0</v>
+      </c>
+      <c r="S12" s="72">
+        <f>1221+89+776+1462</f>
+        <v>3548</v>
+      </c>
+      <c r="T12" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="13">
-        <v>0</v>
-      </c>
-      <c r="S12" s="13">
-        <v>0</v>
-      </c>
-      <c r="T12" s="13">
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
-        <v>0</v>
-      </c>
-      <c r="W12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="105">
-        <f>1638+45+36+'GASTOS POR SEMANA  '!F39</f>
-        <v>3983</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="48" t="s">
+      <c r="U12" s="72">
+        <v>0</v>
+      </c>
+      <c r="V12" s="72">
+        <v>0</v>
+      </c>
+      <c r="W12" s="72">
+        <v>0</v>
+      </c>
+      <c r="X12" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="67">
+        <v>0</v>
+      </c>
+      <c r="E13" s="67">
+        <v>0</v>
+      </c>
+      <c r="F13" s="67">
+        <v>0</v>
+      </c>
+      <c r="G13" s="67">
+        <v>0</v>
+      </c>
+      <c r="H13" s="67">
+        <f>1220+1230+1230+1230</f>
+        <v>4910</v>
+      </c>
+      <c r="I13" s="67">
+        <v>0</v>
+      </c>
+      <c r="J13" s="67">
+        <v>0</v>
+      </c>
+      <c r="K13" s="67">
+        <v>0</v>
+      </c>
+      <c r="L13" s="67"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="13">
-        <v>0</v>
-      </c>
-      <c r="T13" s="104">
-        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V39</f>
-        <v>9685</v>
-      </c>
-      <c r="U13" s="13">
-        <v>0</v>
-      </c>
-      <c r="V13" s="13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="105">
-        <f>380+380+460+'GASTOS POR SEMANA  '!H40</f>
-        <v>2450</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="48" t="s">
+      <c r="R13" s="130">
+        <v>0</v>
+      </c>
+      <c r="S13" s="72">
+        <v>0</v>
+      </c>
+      <c r="T13" s="72">
+        <v>0</v>
+      </c>
+      <c r="U13" s="72">
+        <v>0</v>
+      </c>
+      <c r="V13" s="72">
+        <v>0</v>
+      </c>
+      <c r="W13" s="72">
+        <f>5177+4508+4324+4533</f>
+        <v>18542</v>
+      </c>
+      <c r="X13" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="67">
+        <v>0</v>
+      </c>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67">
+        <f>1008+500+500</f>
+        <v>2008</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="135" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q14" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13">
-        <v>0</v>
-      </c>
-      <c r="S14" s="13">
-        <v>0</v>
-      </c>
-      <c r="T14" s="104">
-        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V40</f>
-        <v>2316</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
-      </c>
-      <c r="V14" s="13">
-        <v>0</v>
-      </c>
-      <c r="W14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="105">
-        <f>'GASTOS POR SEMANA  '!L41</f>
-        <v>1008</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="48"/>
-      <c r="O15" s="13">
-        <v>0</v>
-      </c>
-      <c r="P15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>0</v>
-      </c>
-      <c r="R15" s="13">
-        <v>0</v>
-      </c>
-      <c r="S15" s="13">
-        <v>0</v>
-      </c>
-      <c r="T15" s="13">
-        <v>0</v>
-      </c>
-      <c r="U15" s="13">
-        <v>0</v>
-      </c>
-      <c r="V15" s="13">
-        <v>0</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="11">
-        <v>0</v>
-      </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-    </row>
-    <row r="17" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="11">
-        <v>0</v>
-      </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="11">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="11">
-        <v>0</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="11">
-        <v>0</v>
-      </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-    </row>
-    <row r="21" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="11">
-        <v>0</v>
-      </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-    </row>
-    <row r="22" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="11">
-        <v>0</v>
-      </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-    </row>
-    <row r="23" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="11">
-        <v>0</v>
-      </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="11">
-        <v>0</v>
-      </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="11">
-        <v>0</v>
-      </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-    </row>
-    <row r="26" spans="1:23" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11">
-        <v>0</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="11">
-        <v>0</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="20">
-        <v>0</v>
-      </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-    </row>
-    <row r="28" spans="1:23" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="35" t="s">
+      <c r="R14" s="130">
+        <v>0</v>
+      </c>
+      <c r="S14" s="72">
+        <v>0</v>
+      </c>
+      <c r="T14" s="72">
+        <v>0</v>
+      </c>
+      <c r="U14" s="72">
+        <v>0</v>
+      </c>
+      <c r="V14" s="72">
+        <v>0</v>
+      </c>
+      <c r="W14" s="72">
+        <f>1237+1079+1278+918</f>
+        <v>4512</v>
+      </c>
+      <c r="X14" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="72">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="93"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q15" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" s="130">
+        <v>0</v>
+      </c>
+      <c r="S15" s="72">
+        <v>0</v>
+      </c>
+      <c r="T15" s="72">
+        <v>0</v>
+      </c>
+      <c r="U15" s="72">
+        <v>0</v>
+      </c>
+      <c r="V15" s="72">
+        <v>0</v>
+      </c>
+      <c r="W15" s="72">
+        <v>0</v>
+      </c>
+      <c r="X15" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="72">
+        <v>1390</v>
+      </c>
+      <c r="Z15" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="20">
+        <v>0</v>
+      </c>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+    </row>
+    <row r="17" spans="3:26" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="30">
-        <f t="shared" ref="C28:K28" si="0">SUM(C5:C27)</f>
-        <v>572</v>
-      </c>
-      <c r="D28" s="31">
-        <f t="shared" si="0"/>
-        <v>672</v>
-      </c>
-      <c r="E28" s="31">
-        <f t="shared" si="0"/>
-        <v>4043</v>
-      </c>
-      <c r="F28" s="31">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="G28" s="31">
-        <f t="shared" si="0"/>
-        <v>3537</v>
-      </c>
-      <c r="H28" s="31">
-        <f t="shared" si="0"/>
-        <v>875</v>
-      </c>
-      <c r="I28" s="22">
-        <f t="shared" si="0"/>
-        <v>5365.5</v>
-      </c>
-      <c r="J28" s="32">
-        <f t="shared" si="0"/>
-        <v>10869</v>
-      </c>
-      <c r="K28" s="32">
-        <f t="shared" si="0"/>
-        <v>1008</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="N28" s="33" t="s">
+      <c r="D17" s="30">
+        <f>SUM(D5:D16)</f>
+        <v>1633</v>
+      </c>
+      <c r="E17" s="31">
+        <f>SUM(E5:E16)</f>
+        <v>860</v>
+      </c>
+      <c r="F17" s="31">
+        <f>SUM(F5:F16)</f>
+        <v>9018</v>
+      </c>
+      <c r="G17" s="31">
+        <f>SUM(G5:G16)</f>
+        <v>130</v>
+      </c>
+      <c r="H17" s="31">
+        <f>SUM(H5:H16)</f>
+        <v>7056</v>
+      </c>
+      <c r="I17" s="31">
+        <f>SUM(I5:I16)</f>
+        <v>2085</v>
+      </c>
+      <c r="J17" s="22">
+        <f>SUM(J5:J16)</f>
+        <v>7929</v>
+      </c>
+      <c r="K17" s="32">
+        <f>SUM(K5:K16)</f>
+        <v>19794</v>
+      </c>
+      <c r="L17" s="32">
+        <f>SUM(L5:L16)</f>
+        <v>2008</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="Q17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="O28" s="21">
-        <f>SUM(O5:O27)</f>
-        <v>1518</v>
-      </c>
-      <c r="P28" s="22">
-        <f t="shared" ref="P28:W28" si="1">SUM(P5:P27)</f>
-        <v>1310</v>
-      </c>
-      <c r="Q28" s="22">
-        <f t="shared" si="1"/>
-        <v>5248</v>
-      </c>
-      <c r="R28" s="22">
-        <f t="shared" si="1"/>
-        <v>392</v>
-      </c>
-      <c r="S28" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="22">
-        <f t="shared" si="1"/>
-        <v>12001</v>
-      </c>
-      <c r="U28" s="22">
-        <f t="shared" si="1"/>
-        <v>1182</v>
-      </c>
-      <c r="V28" s="22">
-        <f t="shared" si="1"/>
-        <v>5959.5</v>
-      </c>
-      <c r="W28" s="23">
-        <f t="shared" si="1"/>
-        <v>11922</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="3"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="116">
-        <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
-        <v>27026.5</v>
-      </c>
-      <c r="F30" s="117"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="3"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="119">
-        <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
-        <v>39532.5</v>
-      </c>
-      <c r="R30" s="120"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="3"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="3"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-    </row>
-    <row r="33" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="4"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
+      <c r="R17" s="21">
+        <f>SUM(R5:R16)</f>
+        <v>3343</v>
+      </c>
+      <c r="S17" s="22">
+        <f>SUM(S5:S16)</f>
+        <v>3548</v>
+      </c>
+      <c r="T17" s="22">
+        <f>SUM(T5:T16)</f>
+        <v>11934</v>
+      </c>
+      <c r="U17" s="22">
+        <f>SUM(U5:U16)</f>
+        <v>557</v>
+      </c>
+      <c r="V17" s="22">
+        <f>SUM(V5:V16)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="22">
+        <f>SUM(W5:W16)</f>
+        <v>23054</v>
+      </c>
+      <c r="X17" s="22">
+        <f>SUM(X5:X16)</f>
+        <v>2310</v>
+      </c>
+      <c r="Y17" s="22">
+        <f>SUM(Y5:Y16)</f>
+        <v>12370</v>
+      </c>
+      <c r="Z17" s="23">
+        <f>SUM(Z5:Z16)</f>
+        <v>20984</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="114">
+        <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
+        <v>50513</v>
+      </c>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="119">
+        <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
+        <v>78100</v>
+      </c>
+      <c r="U19" s="120"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="3:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="P2:Z2"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="T19:V19"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.16"/>
+  <pageSetup scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6372,18 +6853,18 @@
       <c r="J2" s="110"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="111" t="s">
+      <c r="M2" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
       <c r="W2" s="123"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6466,7 +6947,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="104">
-        <f>160+'GASTOS POR SEMANA  '!D31</f>
+        <f>160+'GASTOS POR SEMANA  '!D69</f>
         <v>330</v>
       </c>
       <c r="D5" s="13">
@@ -6521,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="104">
-        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X31</f>
+        <f>109+1973+1400+1641+70+756+830+'GASTOS POR SEMANA  '!X69</f>
         <v>11922</v>
       </c>
     </row>
@@ -6552,7 +7033,7 @@
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="105">
-        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K32</f>
+        <f>542+680+1493+1388+806+1177+'GASTOS POR SEMANA  '!K70</f>
         <v>10869</v>
       </c>
       <c r="K6" s="11"/>
@@ -6585,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="104">
-        <f>127+896+100+'GASTOS POR SEMANA  '!W32</f>
+        <f>127+896+100+'GASTOS POR SEMANA  '!W70</f>
         <v>5572.5</v>
       </c>
       <c r="W6" s="67">
@@ -6612,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="105">
-        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H33</f>
+        <f>78+66+102+68+102+51+51+'GASTOS POR SEMANA  '!H71</f>
         <v>1087</v>
       </c>
       <c r="H7" s="11">
@@ -6631,7 +7112,7 @@
         <v>14</v>
       </c>
       <c r="O7" s="104">
-        <f>144+287+180+'GASTOS POR SEMANA  '!Q33</f>
+        <f>144+287+180+'GASTOS POR SEMANA  '!Q71</f>
         <v>1518</v>
       </c>
       <c r="P7" s="13">
@@ -6670,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="105">
-        <f>123+'GASTOS POR SEMANA  '!E34</f>
+        <f>123+'GASTOS POR SEMANA  '!E72</f>
         <v>492</v>
       </c>
       <c r="E8" s="11">
@@ -6683,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="105">
-        <f>391+81+'GASTOS POR SEMANA  '!I34</f>
+        <f>391+81+'GASTOS POR SEMANA  '!I72</f>
         <v>875</v>
       </c>
       <c r="I8" s="11"/>
@@ -6717,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="104">
-        <f>779+'GASTOS POR SEMANA  '!U34</f>
+        <f>779+'GASTOS POR SEMANA  '!U72</f>
         <v>1182</v>
       </c>
       <c r="V8" s="13">
@@ -6842,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="104">
-        <f>90+10+234+'GASTOS POR SEMANA  '!T36</f>
+        <f>90+10+234+'GASTOS POR SEMANA  '!T74</f>
         <v>392</v>
       </c>
       <c r="S10" s="13">
@@ -6887,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="105">
-        <f>1013+1701+'GASTOS POR SEMANA  '!J37+'GASTOS POR SEMANA  '!J38</f>
+        <f>1013+1701+'GASTOS POR SEMANA  '!J75+'GASTOS POR SEMANA  '!J76</f>
         <v>5365.5</v>
       </c>
       <c r="J11" s="11">
@@ -6908,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="104">
-        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S37</f>
+        <f>2200+118+338+30+82+36+'GASTOS POR SEMANA  '!S75</f>
         <v>5248</v>
       </c>
       <c r="R11" s="13">
@@ -6973,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="104">
-        <f>1221+'GASTOS POR SEMANA  '!R35</f>
+        <f>1221+'GASTOS POR SEMANA  '!R73</f>
         <v>1310</v>
       </c>
       <c r="Q12" s="13" t="s">
@@ -7012,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="105">
-        <f>1638+45+36+'GASTOS POR SEMANA  '!F39</f>
+        <f>1638+45+36+'GASTOS POR SEMANA  '!F77</f>
         <v>3983</v>
       </c>
       <c r="F13" s="11">
@@ -7054,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="104">
-        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V39</f>
+        <f>700+700+710+3067+'GASTOS POR SEMANA  '!V77</f>
         <v>9685</v>
       </c>
       <c r="U13" s="13">
@@ -7087,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="105">
-        <f>380+380+460+'GASTOS POR SEMANA  '!H40</f>
+        <f>380+380+460+'GASTOS POR SEMANA  '!H78</f>
         <v>2450</v>
       </c>
       <c r="H14" s="11">
@@ -7123,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="104">
-        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V40</f>
+        <f>170+238+170+153+170+336+'GASTOS POR SEMANA  '!V78</f>
         <v>2316</v>
       </c>
       <c r="U14" s="13">
@@ -7154,7 +7635,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="105">
-        <f>'GASTOS POR SEMANA  '!L41</f>
+        <f>'GASTOS POR SEMANA  '!L79</f>
         <v>1008</v>
       </c>
       <c r="L15" s="12"/>
@@ -7643,12 +8124,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="116">
+      <c r="E30" s="114">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="117"/>
-      <c r="G30" s="118"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="116"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="11685" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="11685" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja5" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="208">
   <si>
     <t>FECHA</t>
   </si>
@@ -631,6 +631,48 @@
   </si>
   <si>
     <t>DEL 1 SEPT   al   30-Sept-2023</t>
+  </si>
+  <si>
+    <t>del       07--- al  13    OCTUBRE-2023</t>
+  </si>
+  <si>
+    <t>Queso-Chuleta Ahum--Espaldilla-Gouda-Tostadas-pollo-Jamon-Milanesa pollo</t>
+  </si>
+  <si>
+    <t>Jitomate-Chicharo-Chayote-Zanahoria-Calabaza-Cebolla-Tampico-Poblano-Ajo-Papa-Serrano-Tomate-Lechuga --Nopales-Pepeinos</t>
+  </si>
+  <si>
+    <t>Melon-Guayaba-Manzana</t>
+  </si>
+  <si>
+    <t>Yogurt-Chipotle-Rajas-Atun-Elote-Café clasico-Galletitas-Leche-Philadelphia</t>
+  </si>
+  <si>
+    <t>Pan molido-Tamarindo-Ajonjoli-Cacahuate-Comino-Canela-Jamaica-Frijol</t>
+  </si>
+  <si>
+    <t>Cilantro-Epazote-Thelimon-Manzanilla-Hoja Aguacate-Laurel</t>
+  </si>
+  <si>
+    <t>07---al    13  -OCTUBRE 23</t>
+  </si>
+  <si>
+    <t>Chuleta Ahu-Tostadas-Queso Panela-Espaldilla-Jamon-Pollo-Milanesa Pollo</t>
+  </si>
+  <si>
+    <t>Jitomate-Calabaza-Chayote-Ejote-Chicharo-Zanahoria-Papa-Cebolla-Poblano-Tomate-Limon-Brocoli-Poro-Epazote-Nopales-Aguacate-Lechuga-Pepino</t>
+  </si>
+  <si>
+    <t>Melon-Piña-Papaya-sandia -Manzana-Maracuya-</t>
+  </si>
+  <si>
+    <t>Cacahuate-Sal</t>
+  </si>
+  <si>
+    <t>Mayonesa-Atun-Elote-Leche-Knorzuisa-Sal- Crema-Galletitas-Philadelphia</t>
+  </si>
+  <si>
+    <t>AGUA</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2148,75 +2190,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2292,6 +2265,81 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="4" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2301,26 +2349,23 @@
     <xf numFmtId="44" fontId="4" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2672,34 +2717,34 @@
     <row r="1" spans="2:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="126" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="122"/>
-      <c r="C2" s="222" t="s">
+      <c r="C2" s="262" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
       <c r="L2" s="123"/>
       <c r="M2" s="124"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
-      <c r="P2" s="224" t="s">
+      <c r="P2" s="264" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="265"/>
+      <c r="S2" s="265"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="265"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="265"/>
+      <c r="X2" s="265"/>
+      <c r="Y2" s="265"/>
+      <c r="Z2" s="266"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="37"/>
@@ -3650,12 +3695,12 @@
     <row r="19" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="212">
+      <c r="F19" s="241">
         <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
         <v>50513</v>
       </c>
-      <c r="G19" s="213"/>
-      <c r="H19" s="214"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="243"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -3665,12 +3710,12 @@
       <c r="O19" s="74"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="215">
+      <c r="T19" s="244">
         <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
         <v>78100</v>
       </c>
-      <c r="U19" s="216"/>
-      <c r="V19" s="217"/>
+      <c r="U19" s="245"/>
+      <c r="V19" s="246"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -3805,32 +3850,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="234" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="218" t="s">
+      <c r="M2" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="219"/>
-      <c r="O2" s="219"/>
-      <c r="P2" s="219"/>
-      <c r="Q2" s="219"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="219"/>
-      <c r="U2" s="219"/>
-      <c r="V2" s="219"/>
-      <c r="W2" s="227"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="248"/>
+      <c r="T2" s="248"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="248"/>
+      <c r="W2" s="256"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -5089,12 +5134,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="212">
+      <c r="E30" s="241">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="213"/>
-      <c r="G30" s="214"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="243"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5102,12 +5147,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="215">
+      <c r="Q30" s="244">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="216"/>
-      <c r="S30" s="217"/>
+      <c r="R30" s="245"/>
+      <c r="S30" s="246"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -5228,10 +5273,10 @@
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
-  <dimension ref="B1:AA80"/>
+  <dimension ref="B1:AA106"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5249,58 +5294,58 @@
     <col min="24" max="24" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
       <c r="L2" s="128" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="207" t="s">
+      <c r="O2" s="236" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
       <c r="X2" s="190" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="209" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="210"/>
-      <c r="K3" s="211"/>
+      <c r="I3" s="238" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="239"/>
+      <c r="K3" s="240"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="209" t="str">
+      <c r="V3" s="238" t="str">
         <f>I3</f>
-        <v>del       30--- al  06    OCTUBRE-2023</v>
-      </c>
-      <c r="W3" s="210"/>
-      <c r="X3" s="211"/>
+        <v>del       07--- al  13    OCTUBRE-2023</v>
+      </c>
+      <c r="W3" s="239"/>
+      <c r="X3" s="240"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -5369,12 +5414,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>169</v>
+        <v>201</v>
+      </c>
+      <c r="C5" s="267" t="s">
+        <v>202</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -5383,18 +5428,18 @@
       <c r="H5" s="72"/>
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
-      <c r="K5" s="104">
-        <f>1150+1167+1554+234+1684</f>
-        <v>5789</v>
-      </c>
-      <c r="L5" s="70"/>
+      <c r="K5" s="72">
+        <f>1358+469+1088+1049</f>
+        <v>3964</v>
+      </c>
+      <c r="L5" s="71"/>
       <c r="M5" s="131"/>
       <c r="N5" s="74"/>
       <c r="O5" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="P5" s="86" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="72"/>
       <c r="R5" s="72"/>
@@ -5403,23 +5448,23 @@
       <c r="U5" s="72"/>
       <c r="V5" s="72"/>
       <c r="W5" s="72"/>
-      <c r="X5" s="104">
-        <f>1459+1661+1598+779+1647</f>
-        <v>7144</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="X5" s="72">
+        <f>1592+544+1586+1136</f>
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="105">
-        <f>45+18+1601+60+30</f>
-        <v>1754</v>
+      <c r="F6" s="67">
+        <f>2134+45+70+55+30+90</f>
+        <v>2424</v>
       </c>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
@@ -5430,16 +5475,16 @@
       <c r="M6" s="131"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="P6" s="89" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="72"/>
       <c r="R6" s="72"/>
-      <c r="S6" s="104">
-        <f>30+70+56+1967+36+60</f>
-        <v>2219</v>
+      <c r="S6" s="72">
+        <f>2864+30+45+50+60+20</f>
+        <v>3069</v>
       </c>
       <c r="T6" s="72"/>
       <c r="U6" s="72"/>
@@ -5449,14 +5494,14 @@
     </row>
     <row r="7" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="105">
-        <f>220+221+100+155+190</f>
-        <v>886</v>
+        <v>204</v>
+      </c>
+      <c r="D7" s="67">
+        <f>115+195+65+217+150+214</f>
+        <v>956</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
@@ -5465,18 +5510,18 @@
       <c r="I7" s="67"/>
       <c r="J7" s="67"/>
       <c r="K7" s="67"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="131"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="P7" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="104">
-        <f>200+100+253+35+215</f>
-        <v>803</v>
+        <v>197</v>
+      </c>
+      <c r="Q7" s="72">
+        <f>271+240+310</f>
+        <v>821</v>
       </c>
       <c r="R7" s="72"/>
       <c r="S7" s="72"/>
@@ -5488,29 +5533,29 @@
     </row>
     <row r="8" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
-      <c r="G8" s="105">
-        <v>15</v>
-      </c>
+      <c r="G8" s="67"/>
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="J8" s="67">
+        <v>112</v>
+      </c>
       <c r="K8" s="67"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="131"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="P8" s="89" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="72"/>
       <c r="R8" s="72"/>
@@ -5518,15 +5563,15 @@
       <c r="T8" s="72"/>
       <c r="U8" s="72"/>
       <c r="V8" s="72"/>
-      <c r="W8" s="104">
-        <f>1390+343+55+40+88</f>
-        <v>1916</v>
+      <c r="W8" s="72">
+        <f>393+1291+64.5+360+302</f>
+        <v>2410.5</v>
       </c>
       <c r="X8" s="67"/>
     </row>
     <row r="9" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>172</v>
@@ -5536,23 +5581,24 @@
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
-      <c r="I9" s="105">
-        <v>352</v>
+      <c r="I9" s="67">
+        <v>704</v>
       </c>
       <c r="J9" s="67"/>
       <c r="K9" s="67"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P9" s="194" t="s">
-        <v>176</v>
+        <v>201</v>
+      </c>
+      <c r="P9" s="89" t="s">
+        <v>199</v>
       </c>
       <c r="Q9" s="72"/>
-      <c r="R9" s="104">
-        <v>590</v>
+      <c r="R9" s="72">
+        <f>941+931</f>
+        <v>1872</v>
       </c>
       <c r="S9" s="72"/>
       <c r="T9" s="72"/>
@@ -5563,10 +5609,10 @@
     </row>
     <row r="10" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
@@ -5574,16 +5620,16 @@
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
-      <c r="J10" s="105">
-        <f>578+127</f>
-        <v>705</v>
+      <c r="J10" s="67">
+        <f>266+1719+26+38+264</f>
+        <v>2313</v>
       </c>
       <c r="K10" s="67"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="131"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="P10" s="195" t="s">
         <v>164</v>
@@ -5593,36 +5639,36 @@
       <c r="S10" s="72"/>
       <c r="T10" s="72"/>
       <c r="U10" s="72"/>
-      <c r="V10" s="104">
-        <f>68+238+204+204+270+238</f>
-        <v>1222</v>
+      <c r="V10" s="72">
+        <f>170+204+204+204</f>
+        <v>782</v>
       </c>
       <c r="W10" s="72"/>
       <c r="X10" s="67"/>
     </row>
     <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="D11" s="67"/>
-      <c r="E11" s="105">
-        <f>180+641</f>
-        <v>821</v>
-      </c>
+      <c r="E11" s="67"/>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="H11" s="67">
+        <f>17+68+68+85+68</f>
+        <v>306</v>
+      </c>
       <c r="I11" s="67"/>
       <c r="J11" s="94"/>
       <c r="K11" s="67"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="131"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="P11" s="194" t="s">
         <v>4</v>
@@ -5631,8 +5677,8 @@
       <c r="R11" s="72"/>
       <c r="S11" s="72"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="104">
-        <v>714</v>
+      <c r="U11" s="72">
+        <v>704</v>
       </c>
       <c r="V11" s="72"/>
       <c r="W11" s="72"/>
@@ -5641,27 +5687,27 @@
     </row>
     <row r="12" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
-      <c r="H12" s="105">
-        <f>51+204+85+85+68+68</f>
-        <v>561</v>
+      <c r="H12" s="67">
+        <f>330+330+420</f>
+        <v>1080</v>
       </c>
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
       <c r="K12" s="67"/>
-      <c r="L12" s="11"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="131"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="P12" s="194" t="s">
         <v>140</v>
@@ -5671,46 +5717,45 @@
       <c r="S12" s="72"/>
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
-      <c r="V12" s="104">
-        <f>2650+700+700+710</f>
-        <v>4760</v>
+      <c r="V12" s="72">
+        <f>750+750+760+1335</f>
+        <v>3595</v>
       </c>
       <c r="W12" s="72"/>
       <c r="X12" s="67"/>
     </row>
     <row r="13" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C13" s="95" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
-      <c r="H13" s="105">
-        <f>380+380+470</f>
-        <v>1230</v>
-      </c>
+      <c r="H13" s="67"/>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
-      <c r="L13" s="11"/>
+      <c r="L13" s="67">
+        <v>500</v>
+      </c>
       <c r="M13" s="131"/>
       <c r="N13" s="74"/>
       <c r="O13" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="P13" s="192" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
       <c r="S13" s="72"/>
-      <c r="T13" s="104">
-        <f>40+35</f>
-        <v>75</v>
+      <c r="T13" s="72">
+        <f>115+30</f>
+        <v>145</v>
       </c>
       <c r="U13" s="72"/>
       <c r="V13" s="72"/>
@@ -5742,7 +5787,7 @@
       <c r="W14" s="72"/>
       <c r="X14" s="67"/>
     </row>
-    <row r="15" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="93"/>
       <c r="C15" s="95"/>
       <c r="D15" s="67"/>
@@ -5767,7 +5812,7 @@
       <c r="W15" s="72"/>
       <c r="X15" s="67"/>
     </row>
-    <row r="16" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="93"/>
       <c r="C16" s="10"/>
       <c r="D16" s="67"/>
@@ -5792,7 +5837,7 @@
       <c r="W16" s="67"/>
       <c r="X16" s="67"/>
     </row>
-    <row r="17" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="93"/>
       <c r="C17" s="10"/>
       <c r="D17" s="67"/>
@@ -5851,39 +5896,39 @@
       </c>
       <c r="D19" s="30">
         <f>SUM(D5:D18)</f>
-        <v>886</v>
+        <v>956</v>
       </c>
       <c r="E19" s="30">
         <f t="shared" ref="E19:L19" si="0">SUM(E5:E18)</f>
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>1754</v>
+        <v>2424</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" si="0"/>
-        <v>1791</v>
+        <v>1386</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>704</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>2425</v>
       </c>
       <c r="K19" s="30">
         <f t="shared" si="0"/>
-        <v>5789</v>
+        <v>3964</v>
       </c>
       <c r="L19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M19" s="132"/>
       <c r="N19" s="74"/>
@@ -5893,35 +5938,35 @@
       </c>
       <c r="Q19" s="21">
         <f t="shared" ref="Q19:X19" si="1">SUM(Q5:Q18)</f>
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" si="1"/>
-        <v>590</v>
+        <v>1872</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="1"/>
-        <v>2219</v>
+        <v>3069</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="U19" s="21">
         <f t="shared" si="1"/>
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="V19" s="21">
         <f t="shared" si="1"/>
-        <v>5982</v>
+        <v>4377</v>
       </c>
       <c r="W19" s="21">
         <f t="shared" si="1"/>
-        <v>1916</v>
+        <v>2410.5</v>
       </c>
       <c r="X19" s="21">
         <f t="shared" si="1"/>
-        <v>7144</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5953,12 +5998,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="212">
+      <c r="F21" s="241">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
-        <v>12113</v>
-      </c>
-      <c r="G21" s="213"/>
-      <c r="H21" s="214"/>
+        <v>12359</v>
+      </c>
+      <c r="G21" s="242"/>
+      <c r="H21" s="243"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5968,12 +6013,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="215">
+      <c r="S21" s="244">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
-        <v>19443</v>
-      </c>
-      <c r="T21" s="216"/>
-      <c r="U21" s="217"/>
+        <v>18256.5</v>
+      </c>
+      <c r="T21" s="245"/>
+      <c r="U21" s="246"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -6001,249 +6046,311 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="29" spans="2:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="7"/>
+      <c r="C28" s="234" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="235"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
+      <c r="J28" s="235"/>
+      <c r="K28" s="235"/>
+      <c r="L28" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="133"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="236" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="237"/>
+      <c r="Q28" s="237"/>
+      <c r="R28" s="237"/>
+      <c r="S28" s="237"/>
+      <c r="T28" s="237"/>
+      <c r="U28" s="237"/>
+      <c r="V28" s="237"/>
+      <c r="W28" s="237"/>
+      <c r="X28" s="190" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
       <c r="C29" s="1"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="188"/>
-      <c r="P29" s="189"/>
-      <c r="Q29" s="189"/>
-      <c r="R29" s="189"/>
-      <c r="S29" s="189"/>
-      <c r="T29" s="189"/>
-      <c r="U29" s="189"/>
-      <c r="V29" s="189"/>
-      <c r="W29" s="189"/>
-      <c r="X29" s="189"/>
-    </row>
-    <row r="30" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="7"/>
-      <c r="C30" s="205" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="206"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="206"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="206"/>
-      <c r="J30" s="206"/>
-      <c r="K30" s="206"/>
-      <c r="L30" s="185" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="133"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="207" t="s">
-        <v>19</v>
-      </c>
-      <c r="P30" s="208"/>
-      <c r="Q30" s="208"/>
-      <c r="R30" s="208"/>
-      <c r="S30" s="208"/>
-      <c r="T30" s="208"/>
-      <c r="U30" s="208"/>
-      <c r="V30" s="208"/>
-      <c r="W30" s="208"/>
-      <c r="X30" s="187" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="1"/>
-      <c r="I31" s="209" t="s">
-        <v>148</v>
-      </c>
-      <c r="J31" s="210"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="134"/>
+      <c r="I29" s="238" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" s="239"/>
+      <c r="K29" s="240"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="7"/>
+      <c r="V29" s="238" t="str">
+        <f>I29</f>
+        <v>del       30--- al  06    OCTUBRE-2023</v>
+      </c>
+      <c r="W29" s="239"/>
+      <c r="X29" s="240"/>
+    </row>
+    <row r="30" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="135"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="V30" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W30" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X30" s="142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="104">
+        <f>1150+1167+1554+234+1684</f>
+        <v>5789</v>
+      </c>
+      <c r="L31" s="70"/>
+      <c r="M31" s="131"/>
       <c r="N31" s="74"/>
-      <c r="O31" s="7"/>
-      <c r="V31" s="209" t="s">
-        <v>151</v>
-      </c>
-      <c r="W31" s="210"/>
-      <c r="X31" s="211"/>
-    </row>
-    <row r="32" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="184" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="183" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" s="135"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="R32" s="138" t="s">
-        <v>16</v>
-      </c>
-      <c r="S32" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="T32" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="141" t="s">
-        <v>25</v>
-      </c>
-      <c r="W32" s="136" t="s">
-        <v>8</v>
-      </c>
-      <c r="X32" s="144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="O31" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="P31" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="104">
+        <f>1459+1661+1598+779+1647</f>
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="105">
+        <f>45+18+1601+60+30</f>
+        <v>1754</v>
+      </c>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="P32" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="104">
+        <f>30+70+56+1967+36+60</f>
+        <v>2219</v>
+      </c>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="67"/>
+    </row>
+    <row r="33" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72">
-        <f>1777+1054+1013+1333+1334</f>
-        <v>6511</v>
-      </c>
-      <c r="L33" s="70"/>
+        <v>168</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="105">
+        <f>220+221+100+155+190</f>
+        <v>886</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="131"/>
       <c r="N33" s="74"/>
       <c r="O33" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P33" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q33" s="72"/>
+        <v>168</v>
+      </c>
+      <c r="P33" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q33" s="104">
+        <f>200+100+253+35+215</f>
+        <v>803</v>
+      </c>
       <c r="R33" s="72"/>
       <c r="S33" s="72"/>
       <c r="T33" s="72"/>
       <c r="U33" s="72"/>
       <c r="V33" s="72"/>
       <c r="W33" s="72"/>
-      <c r="X33" s="104">
-        <f>1805+1908+939+1193+1386</f>
-        <v>7231</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="X33" s="67"/>
+    </row>
+    <row r="34" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>153</v>
+        <v>168</v>
+      </c>
+      <c r="C34" s="96" t="s">
+        <v>170</v>
       </c>
       <c r="D34" s="67"/>
       <c r="E34" s="67"/>
-      <c r="F34" s="67">
-        <f>1970</f>
-        <v>1970</v>
-      </c>
-      <c r="G34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="105">
+        <v>15</v>
+      </c>
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
       <c r="J34" s="67"/>
       <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="131"/>
       <c r="N34" s="74"/>
       <c r="O34" s="93" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="P34" s="89" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Q34" s="72"/>
       <c r="R34" s="72"/>
-      <c r="S34" s="104">
-        <f>3020+87+41</f>
-        <v>3148</v>
-      </c>
+      <c r="S34" s="72"/>
       <c r="T34" s="72"/>
       <c r="U34" s="72"/>
       <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
+      <c r="W34" s="104">
+        <f>1390+343+55+40+88</f>
+        <v>1916</v>
+      </c>
       <c r="X34" s="67"/>
     </row>
-    <row r="35" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="67">
-        <f>85+324+280+202</f>
-        <v>891</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="67"/>
       <c r="E35" s="67"/>
       <c r="F35" s="67"/>
       <c r="G35" s="67"/>
       <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
+      <c r="I35" s="105">
+        <v>352</v>
+      </c>
       <c r="J35" s="67"/>
       <c r="K35" s="67"/>
       <c r="L35" s="11"/>
       <c r="M35" s="131"/>
       <c r="N35" s="74"/>
       <c r="O35" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P35" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q35" s="104">
-        <f>385+160+285</f>
-        <v>830</v>
-      </c>
-      <c r="R35" s="72"/>
+        <v>168</v>
+      </c>
+      <c r="P35" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="104">
+        <v>590</v>
+      </c>
       <c r="S35" s="72"/>
       <c r="T35" s="72"/>
       <c r="U35" s="72"/>
@@ -6251,108 +6358,110 @@
       <c r="W35" s="72"/>
       <c r="X35" s="67"/>
     </row>
-    <row r="36" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="96" t="s">
-        <v>155</v>
+        <v>168</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>177</v>
       </c>
       <c r="D36" s="67"/>
       <c r="E36" s="67"/>
       <c r="F36" s="67"/>
-      <c r="G36" s="67">
-        <f>55+20</f>
-        <v>75</v>
-      </c>
+      <c r="G36" s="67"/>
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
+      <c r="J36" s="105">
+        <f>578+127</f>
+        <v>705</v>
+      </c>
       <c r="K36" s="67"/>
       <c r="L36" s="11"/>
       <c r="M36" s="131"/>
       <c r="N36" s="74"/>
       <c r="O36" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P36" s="87" t="s">
-        <v>163</v>
+        <v>168</v>
+      </c>
+      <c r="P36" s="195" t="s">
+        <v>164</v>
       </c>
       <c r="Q36" s="72"/>
       <c r="R36" s="72"/>
       <c r="S36" s="72"/>
-      <c r="T36" s="104">
-        <f>55+121</f>
-        <v>176</v>
-      </c>
+      <c r="T36" s="72"/>
       <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
+      <c r="V36" s="104">
+        <f>68+238+204+204+270+238</f>
+        <v>1222</v>
+      </c>
       <c r="W36" s="72"/>
       <c r="X36" s="67"/>
     </row>
-    <row r="37" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="93" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
+      <c r="E37" s="105">
+        <f>180+641</f>
+        <v>821</v>
+      </c>
       <c r="F37" s="67"/>
       <c r="G37" s="67"/>
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
+      <c r="J37" s="94"/>
       <c r="K37" s="67"/>
-      <c r="L37" s="11">
-        <v>500</v>
-      </c>
+      <c r="L37" s="11"/>
       <c r="M37" s="131"/>
       <c r="N37" s="74"/>
       <c r="O37" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P37" s="89" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="P37" s="194" t="s">
+        <v>4</v>
       </c>
       <c r="Q37" s="72"/>
-      <c r="R37" s="104">
-        <f>50+443+432+130</f>
-        <v>1055</v>
-      </c>
+      <c r="R37" s="72"/>
       <c r="S37" s="72"/>
       <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
+      <c r="U37" s="104">
+        <v>714</v>
+      </c>
       <c r="V37" s="72"/>
       <c r="W37" s="72"/>
       <c r="X37" s="67"/>
-    </row>
-    <row r="38" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y37" s="129"/>
+    </row>
+    <row r="38" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>156</v>
+        <v>168</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67">
-        <v>716</v>
-      </c>
+      <c r="H38" s="105">
+        <f>51+204+85+85+68+68</f>
+        <v>561</v>
+      </c>
+      <c r="I38" s="67"/>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
       <c r="L38" s="11"/>
       <c r="M38" s="131"/>
       <c r="N38" s="74"/>
       <c r="O38" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P38" s="98" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="P38" s="194" t="s">
+        <v>140</v>
       </c>
       <c r="Q38" s="72"/>
       <c r="R38" s="72"/>
@@ -6360,177 +6469,131 @@
       <c r="T38" s="72"/>
       <c r="U38" s="72"/>
       <c r="V38" s="104">
-        <f>170+170+221+170+204</f>
-        <v>935</v>
+        <f>2650+700+700+710</f>
+        <v>4760</v>
       </c>
       <c r="W38" s="72"/>
       <c r="X38" s="67"/>
     </row>
-    <row r="39" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>158</v>
+        <v>168</v>
+      </c>
+      <c r="C39" s="95" t="s">
+        <v>11</v>
       </c>
       <c r="D39" s="67"/>
       <c r="E39" s="67"/>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
+      <c r="H39" s="105">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
       <c r="I39" s="67"/>
-      <c r="J39" s="94">
-        <f>440+19+261</f>
-        <v>720</v>
-      </c>
+      <c r="J39" s="67"/>
       <c r="K39" s="67"/>
       <c r="L39" s="11"/>
       <c r="M39" s="131"/>
       <c r="N39" s="74"/>
       <c r="O39" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P39" s="87" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="P39" s="192" t="s">
+        <v>180</v>
       </c>
       <c r="Q39" s="72"/>
       <c r="R39" s="72"/>
       <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
+      <c r="T39" s="104">
+        <f>40+35</f>
+        <v>75</v>
+      </c>
       <c r="U39" s="72"/>
       <c r="V39" s="72"/>
-      <c r="W39" s="104">
-        <f>805+473+669</f>
-        <v>1947</v>
-      </c>
+      <c r="W39" s="72"/>
       <c r="X39" s="67"/>
-      <c r="Y39" s="129"/>
-    </row>
-    <row r="40" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="204" t="s">
-        <v>157</v>
-      </c>
+    </row>
+    <row r="40" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="93"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
       <c r="F40" s="67"/>
       <c r="G40" s="67"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
-      <c r="J40" s="67">
-        <v>1500</v>
-      </c>
+      <c r="J40" s="67"/>
       <c r="K40" s="67"/>
       <c r="L40" s="11"/>
       <c r="M40" s="131"/>
       <c r="N40" s="74"/>
-      <c r="O40" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P40" s="90" t="s">
-        <v>4</v>
-      </c>
+      <c r="O40" s="191"/>
+      <c r="P40" s="193"/>
       <c r="Q40" s="72"/>
       <c r="R40" s="72"/>
       <c r="S40" s="72"/>
       <c r="T40" s="72"/>
       <c r="U40" s="72"/>
-      <c r="V40" s="104">
-        <v>688</v>
-      </c>
+      <c r="V40" s="72"/>
       <c r="W40" s="72"/>
       <c r="X40" s="67"/>
     </row>
-    <row r="41" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="95" t="s">
-        <v>96</v>
-      </c>
+    <row r="41" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="93"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="67"/>
       <c r="E41" s="67"/>
       <c r="F41" s="67"/>
       <c r="G41" s="67"/>
-      <c r="H41" s="67">
-        <f>102+68+238+85+204</f>
-        <v>697</v>
-      </c>
+      <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
       <c r="K41" s="67"/>
       <c r="L41" s="11"/>
       <c r="M41" s="131"/>
       <c r="N41" s="74"/>
-      <c r="O41" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P41" s="186" t="s">
-        <v>188</v>
-      </c>
+      <c r="O41" s="93"/>
+      <c r="P41" s="88"/>
       <c r="Q41" s="72"/>
       <c r="R41" s="72"/>
       <c r="S41" s="72"/>
       <c r="T41" s="72"/>
       <c r="U41" s="72"/>
-      <c r="V41" s="104">
-        <v>1440</v>
-      </c>
+      <c r="V41" s="72"/>
       <c r="W41" s="72"/>
       <c r="X41" s="67"/>
     </row>
-    <row r="42" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>11</v>
-      </c>
+    <row r="42" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="93"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
-      <c r="H42" s="67">
-        <f>380+380+470</f>
-        <v>1230</v>
-      </c>
+      <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
       <c r="K42" s="67"/>
       <c r="L42" s="11"/>
       <c r="M42" s="131"/>
       <c r="N42" s="74"/>
-      <c r="O42" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P42" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="104">
-        <f>700+700+710+3464</f>
-        <v>5574</v>
-      </c>
-      <c r="W42" s="72"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="91"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
       <c r="X42" s="67"/>
     </row>
-    <row r="43" spans="2:25" ht="24" x14ac:dyDescent="0.25">
-      <c r="B43" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="95" t="s">
-        <v>159</v>
-      </c>
+    <row r="43" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="93"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="67"/>
-      <c r="E43" s="67">
-        <v>212</v>
-      </c>
+      <c r="E43" s="67"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
       <c r="H43" s="67"/>
@@ -6541,176 +6604,178 @@
       <c r="M43" s="131"/>
       <c r="N43" s="74"/>
       <c r="O43" s="93"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
+      <c r="P43" s="91"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="67"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
       <c r="X43" s="67"/>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B44" s="93"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="11"/>
+    <row r="44" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="9"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="20"/>
       <c r="M44" s="131"/>
       <c r="N44" s="74"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="67"/>
-      <c r="U44" s="67"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="67"/>
-      <c r="X44" s="67"/>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B45" s="93"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="131"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="73">
+        <v>0</v>
+      </c>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+    </row>
+    <row r="45" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="30">
+        <f>SUM(D31:D44)</f>
+        <v>886</v>
+      </c>
+      <c r="E45" s="30">
+        <f t="shared" ref="E45:L45" si="2">SUM(E31:E44)</f>
+        <v>821</v>
+      </c>
+      <c r="F45" s="30">
+        <f t="shared" si="2"/>
+        <v>1754</v>
+      </c>
+      <c r="G45" s="30">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H45" s="30">
+        <f t="shared" si="2"/>
+        <v>1791</v>
+      </c>
+      <c r="I45" s="30">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="J45" s="30">
+        <f t="shared" si="2"/>
+        <v>705</v>
+      </c>
+      <c r="K45" s="30">
+        <f t="shared" si="2"/>
+        <v>5789</v>
+      </c>
+      <c r="L45" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="132"/>
       <c r="N45" s="74"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
-      <c r="X45" s="67"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q45" s="21">
+        <f t="shared" ref="Q45:X45" si="3">SUM(Q31:Q44)</f>
+        <v>803</v>
+      </c>
+      <c r="R45" s="21">
+        <f t="shared" si="3"/>
+        <v>590</v>
+      </c>
+      <c r="S45" s="21">
+        <f t="shared" si="3"/>
+        <v>2219</v>
+      </c>
+      <c r="T45" s="21">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="U45" s="21">
+        <f t="shared" si="3"/>
+        <v>714</v>
+      </c>
+      <c r="V45" s="21">
+        <f t="shared" si="3"/>
+        <v>5982</v>
+      </c>
+      <c r="W45" s="21">
+        <f t="shared" si="3"/>
+        <v>1916</v>
+      </c>
+      <c r="X45" s="21">
+        <f t="shared" si="3"/>
+        <v>7144</v>
+      </c>
     </row>
     <row r="46" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="9"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="73">
-        <v>0</v>
-      </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="131"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="76"/>
       <c r="N46" s="74"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="73">
-        <v>0</v>
-      </c>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="73"/>
-      <c r="V46" s="73"/>
-      <c r="W46" s="73"/>
-      <c r="X46" s="73"/>
-    </row>
-    <row r="47" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O46" s="7"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+    </row>
+    <row r="47" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="7"/>
-      <c r="C47" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="30">
-        <f t="shared" ref="D47:L47" si="2">SUM(D33:D46)</f>
-        <v>891</v>
-      </c>
-      <c r="E47" s="31">
-        <f t="shared" si="2"/>
-        <v>212</v>
-      </c>
-      <c r="F47" s="31">
-        <f t="shared" si="2"/>
-        <v>1970</v>
-      </c>
-      <c r="G47" s="31">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="H47" s="31">
-        <f t="shared" si="2"/>
-        <v>1927</v>
-      </c>
-      <c r="I47" s="31">
-        <f t="shared" si="2"/>
-        <v>716</v>
-      </c>
-      <c r="J47" s="22">
-        <f t="shared" si="2"/>
-        <v>2220</v>
-      </c>
-      <c r="K47" s="32">
-        <f t="shared" si="2"/>
-        <v>6511</v>
-      </c>
-      <c r="L47" s="100">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="M47" s="132"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="241">
+        <f>K45+J45+I45+H45+G45+F45+E45+D45+L45</f>
+        <v>12113</v>
+      </c>
+      <c r="G47" s="242"/>
+      <c r="H47" s="243"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="74"/>
       <c r="N47" s="74"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q47" s="21">
-        <f t="shared" ref="Q47:X47" si="3">SUM(Q33:Q46)</f>
-        <v>830</v>
-      </c>
-      <c r="R47" s="21">
-        <f t="shared" si="3"/>
-        <v>1055</v>
-      </c>
-      <c r="S47" s="21">
-        <f t="shared" si="3"/>
-        <v>3148</v>
-      </c>
-      <c r="T47" s="21">
-        <f t="shared" si="3"/>
-        <v>176</v>
-      </c>
-      <c r="U47" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="21">
-        <f t="shared" si="3"/>
-        <v>8637</v>
-      </c>
-      <c r="W47" s="21">
-        <f t="shared" si="3"/>
-        <v>1947</v>
-      </c>
-      <c r="X47" s="21">
-        <f t="shared" si="3"/>
-        <v>7231</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="244">
+        <f>Q45+R45+S45+T45+U45+V45+W45+X45</f>
+        <v>19443</v>
+      </c>
+      <c r="T47" s="245"/>
+      <c r="U47" s="246"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="1"/>
       <c r="D48" s="5"/>
@@ -6718,11 +6783,10 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="76"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="74"/>
       <c r="N48" s="74"/>
       <c r="O48" s="7"/>
       <c r="Q48" s="5"/>
@@ -6734,328 +6798,303 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="7"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="212">
-        <f>K47+J47+I47+H47+G47+F47+E47+D47+L47</f>
-        <v>15022</v>
-      </c>
-      <c r="G49" s="213"/>
-      <c r="H49" s="214"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="7"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="215">
-        <f>Q47+R47+S47+T47+U47+V47+W47+X47</f>
-        <v>23024</v>
-      </c>
-      <c r="T49" s="216"/>
-      <c r="U49" s="217"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="7"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="7"/>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="74"/>
-      <c r="O52" s="7"/>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="1"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="7"/>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="1"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="7"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
       <c r="C55" s="1"/>
       <c r="N55" s="80"/>
-      <c r="O55" s="7"/>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="O55" s="188"/>
+      <c r="P55" s="189"/>
+      <c r="Q55" s="189"/>
+      <c r="R55" s="189"/>
+      <c r="S55" s="189"/>
+      <c r="T55" s="189"/>
+      <c r="U55" s="189"/>
+      <c r="V55" s="189"/>
+      <c r="W55" s="189"/>
+      <c r="X55" s="189"/>
+    </row>
+    <row r="56" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B56" s="7"/>
-      <c r="C56" s="1"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="7"/>
-    </row>
-    <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="234" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="235"/>
+      <c r="E56" s="235"/>
+      <c r="F56" s="235"/>
+      <c r="G56" s="235"/>
+      <c r="H56" s="235"/>
+      <c r="I56" s="235"/>
+      <c r="J56" s="235"/>
+      <c r="K56" s="235"/>
+      <c r="L56" s="185" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" s="133"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="236" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56" s="237"/>
+      <c r="Q56" s="237"/>
+      <c r="R56" s="237"/>
+      <c r="S56" s="237"/>
+      <c r="T56" s="237"/>
+      <c r="U56" s="237"/>
+      <c r="V56" s="237"/>
+      <c r="W56" s="237"/>
+      <c r="X56" s="187" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
       <c r="C57" s="1"/>
-      <c r="N57" s="80"/>
+      <c r="I57" s="238" t="s">
+        <v>148</v>
+      </c>
+      <c r="J57" s="239"/>
+      <c r="K57" s="240"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="134"/>
+      <c r="N57" s="74"/>
       <c r="O57" s="7"/>
-    </row>
-    <row r="58" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="7"/>
-      <c r="C58" s="205" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="206"/>
-      <c r="E58" s="206"/>
-      <c r="F58" s="206"/>
-      <c r="G58" s="206"/>
-      <c r="H58" s="206"/>
-      <c r="I58" s="206"/>
-      <c r="J58" s="206"/>
-      <c r="K58" s="206"/>
-      <c r="L58" s="185" t="s">
-        <v>41</v>
-      </c>
-      <c r="M58" s="133"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="218" t="s">
-        <v>19</v>
-      </c>
-      <c r="P58" s="219"/>
-      <c r="Q58" s="219"/>
-      <c r="R58" s="219"/>
-      <c r="S58" s="219"/>
-      <c r="T58" s="219"/>
-      <c r="U58" s="219"/>
-      <c r="V58" s="219"/>
-      <c r="W58" s="219"/>
-      <c r="X58" s="128" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
-      <c r="C59" s="1"/>
-      <c r="I59" s="209" t="s">
-        <v>129</v>
-      </c>
-      <c r="J59" s="210"/>
-      <c r="K59" s="211"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="134"/>
+      <c r="V57" s="238" t="s">
+        <v>151</v>
+      </c>
+      <c r="W57" s="239"/>
+      <c r="X57" s="240"/>
+    </row>
+    <row r="58" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M58" s="135"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R58" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="T58" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W58" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72">
+        <f>1777+1054+1013+1333+1334</f>
+        <v>6511</v>
+      </c>
+      <c r="L59" s="70"/>
+      <c r="M59" s="131"/>
       <c r="N59" s="74"/>
-      <c r="O59" s="7"/>
-      <c r="V59" s="209" t="s">
-        <v>150</v>
-      </c>
-      <c r="W59" s="210"/>
-      <c r="X59" s="211"/>
-    </row>
-    <row r="60" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="M60" s="135"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P60" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="R60" s="138" t="s">
-        <v>16</v>
-      </c>
-      <c r="S60" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="T60" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="U60" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="141" t="s">
-        <v>25</v>
-      </c>
-      <c r="W60" s="136" t="s">
-        <v>8</v>
-      </c>
-      <c r="X60" s="144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="O59" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P59" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="72"/>
+      <c r="S59" s="72"/>
+      <c r="T59" s="72"/>
+      <c r="U59" s="72"/>
+      <c r="V59" s="72"/>
+      <c r="W59" s="72"/>
+      <c r="X59" s="104">
+        <f>1805+1908+939+1193+1386</f>
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67">
+        <f>1970</f>
+        <v>1970</v>
+      </c>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P60" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="72"/>
+      <c r="S60" s="104">
+        <f>3020+87+41</f>
+        <v>3148</v>
+      </c>
+      <c r="T60" s="72"/>
+      <c r="U60" s="72"/>
+      <c r="V60" s="72"/>
+      <c r="W60" s="72"/>
+      <c r="X60" s="67"/>
+    </row>
+    <row r="61" spans="2:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72">
-        <f>2361+1550+386+1883+642+964</f>
-        <v>7786</v>
-      </c>
-      <c r="L61" s="70"/>
+        <v>149</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="67">
+        <f>85+324+280+202</f>
+        <v>891</v>
+      </c>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="67"/>
+      <c r="L61" s="11"/>
       <c r="M61" s="131"/>
       <c r="N61" s="74"/>
       <c r="O61" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P61" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q61" s="72"/>
+        <v>149</v>
+      </c>
+      <c r="P61" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q61" s="104">
+        <f>385+160+285</f>
+        <v>830</v>
+      </c>
       <c r="R61" s="72"/>
       <c r="S61" s="72"/>
       <c r="T61" s="72"/>
       <c r="U61" s="72"/>
       <c r="V61" s="72"/>
       <c r="W61" s="72"/>
-      <c r="X61" s="72">
-        <f>2377+2781+1874+429+754</f>
-        <v>8215</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X61" s="67"/>
+    </row>
+    <row r="62" spans="2:24" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>131</v>
+        <v>149</v>
+      </c>
+      <c r="C62" s="96" t="s">
+        <v>155</v>
       </c>
       <c r="D62" s="67"/>
       <c r="E62" s="67"/>
-      <c r="F62" s="67">
-        <f>1380+370+88+238</f>
-        <v>2076</v>
-      </c>
-      <c r="G62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67">
+        <f>55+20</f>
+        <v>75</v>
+      </c>
       <c r="H62" s="67"/>
       <c r="I62" s="67"/>
       <c r="J62" s="67"/>
       <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
+      <c r="L62" s="11"/>
       <c r="M62" s="131"/>
       <c r="N62" s="74"/>
       <c r="O62" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P62" s="89" t="s">
-        <v>136</v>
+        <v>149</v>
+      </c>
+      <c r="P62" s="87" t="s">
+        <v>163</v>
       </c>
       <c r="Q62" s="72"/>
       <c r="R62" s="72"/>
-      <c r="S62" s="72">
-        <f>180+148+36+2475</f>
-        <v>2839</v>
-      </c>
-      <c r="T62" s="72"/>
+      <c r="S62" s="72"/>
+      <c r="T62" s="104">
+        <f>55+121</f>
+        <v>176</v>
+      </c>
       <c r="U62" s="72"/>
       <c r="V62" s="72"/>
       <c r="W62" s="72"/>
       <c r="X62" s="67"/>
     </row>
-    <row r="63" spans="2:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="67">
-        <f>47+72.5+247+54+245</f>
-        <v>665.5</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="67"/>
       <c r="E63" s="67"/>
       <c r="F63" s="67"/>
       <c r="G63" s="67"/>
@@ -7063,20 +7102,22 @@
       <c r="I63" s="67"/>
       <c r="J63" s="67"/>
       <c r="K63" s="67"/>
-      <c r="L63" s="11"/>
+      <c r="L63" s="11">
+        <v>500</v>
+      </c>
       <c r="M63" s="131"/>
       <c r="N63" s="74"/>
       <c r="O63" s="93" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="P63" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q63" s="72">
-        <f>330+158+288+87</f>
-        <v>863</v>
-      </c>
-      <c r="R63" s="72"/>
+        <v>166</v>
+      </c>
+      <c r="Q63" s="72"/>
+      <c r="R63" s="104">
+        <f>50+443+432+130</f>
+        <v>1055</v>
+      </c>
       <c r="S63" s="72"/>
       <c r="T63" s="72"/>
       <c r="U63" s="72"/>
@@ -7084,49 +7125,50 @@
       <c r="W63" s="72"/>
       <c r="X63" s="67"/>
     </row>
-    <row r="64" spans="2:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="96" t="s">
-        <v>125</v>
+        <v>149</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>156</v>
       </c>
       <c r="D64" s="67"/>
       <c r="E64" s="67"/>
       <c r="F64" s="67"/>
-      <c r="G64" s="67">
-        <v>140</v>
-      </c>
+      <c r="G64" s="67"/>
       <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
+      <c r="I64" s="67">
+        <v>716</v>
+      </c>
       <c r="J64" s="67"/>
       <c r="K64" s="67"/>
       <c r="L64" s="11"/>
       <c r="M64" s="131"/>
       <c r="N64" s="74"/>
       <c r="O64" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P64" s="87" t="s">
-        <v>135</v>
+        <v>149</v>
+      </c>
+      <c r="P64" s="98" t="s">
+        <v>164</v>
       </c>
       <c r="Q64" s="72"/>
       <c r="R64" s="72"/>
       <c r="S64" s="72"/>
-      <c r="T64" s="72">
-        <v>145</v>
-      </c>
+      <c r="T64" s="72"/>
       <c r="U64" s="72"/>
-      <c r="V64" s="72"/>
+      <c r="V64" s="104">
+        <f>170+170+221+170+204</f>
+        <v>935</v>
+      </c>
       <c r="W64" s="72"/>
       <c r="X64" s="67"/>
     </row>
-    <row r="65" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="93" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="D65" s="67"/>
       <c r="E65" s="67"/>
@@ -7134,196 +7176,186 @@
       <c r="G65" s="67"/>
       <c r="H65" s="67"/>
       <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
+      <c r="J65" s="94">
+        <f>440+19+261</f>
+        <v>720</v>
+      </c>
       <c r="K65" s="67"/>
-      <c r="L65" s="11">
-        <v>500</v>
-      </c>
+      <c r="L65" s="11"/>
       <c r="M65" s="131"/>
       <c r="N65" s="74"/>
       <c r="O65" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P65" s="89" t="s">
-        <v>138</v>
+        <v>149</v>
+      </c>
+      <c r="P65" s="87" t="s">
+        <v>165</v>
       </c>
       <c r="Q65" s="72"/>
-      <c r="R65" s="72">
-        <v>1081</v>
-      </c>
+      <c r="R65" s="72"/>
       <c r="S65" s="72"/>
       <c r="T65" s="72"/>
       <c r="U65" s="72"/>
       <c r="V65" s="72"/>
-      <c r="W65" s="72"/>
+      <c r="W65" s="104">
+        <f>805+473+669</f>
+        <v>1947</v>
+      </c>
       <c r="X65" s="67"/>
-    </row>
-    <row r="66" spans="2:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y65" s="129"/>
+    </row>
+    <row r="66" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>126</v>
+        <v>149</v>
+      </c>
+      <c r="C66" s="204" t="s">
+        <v>157</v>
       </c>
       <c r="D66" s="67"/>
-      <c r="E66" s="67">
-        <v>68</v>
-      </c>
+      <c r="E66" s="67"/>
       <c r="F66" s="67"/>
       <c r="G66" s="67"/>
       <c r="H66" s="67"/>
       <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
+      <c r="J66" s="67">
+        <v>1500</v>
+      </c>
       <c r="K66" s="67"/>
       <c r="L66" s="11"/>
       <c r="M66" s="131"/>
       <c r="N66" s="74"/>
       <c r="O66" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P66" s="89"/>
+        <v>149</v>
+      </c>
+      <c r="P66" s="90" t="s">
+        <v>4</v>
+      </c>
       <c r="Q66" s="72"/>
       <c r="R66" s="72"/>
       <c r="S66" s="72"/>
       <c r="T66" s="72"/>
       <c r="U66" s="72"/>
-      <c r="V66" s="72"/>
+      <c r="V66" s="104">
+        <v>688</v>
+      </c>
       <c r="W66" s="72"/>
       <c r="X66" s="67"/>
     </row>
-    <row r="67" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>128</v>
+        <v>149</v>
+      </c>
+      <c r="C67" s="95" t="s">
+        <v>96</v>
       </c>
       <c r="D67" s="67"/>
       <c r="E67" s="67"/>
       <c r="F67" s="67"/>
       <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
+      <c r="H67" s="67">
+        <f>102+68+238+85+204</f>
+        <v>697</v>
+      </c>
       <c r="I67" s="67"/>
-      <c r="J67" s="94">
-        <f>155+626</f>
-        <v>781</v>
-      </c>
+      <c r="J67" s="67"/>
       <c r="K67" s="67"/>
       <c r="L67" s="11"/>
       <c r="M67" s="131"/>
       <c r="N67" s="74"/>
       <c r="O67" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P67" s="87" t="s">
-        <v>139</v>
+        <v>149</v>
+      </c>
+      <c r="P67" s="186" t="s">
+        <v>188</v>
       </c>
       <c r="Q67" s="72"/>
       <c r="R67" s="72"/>
       <c r="S67" s="72"/>
       <c r="T67" s="72"/>
       <c r="U67" s="72"/>
-      <c r="V67" s="72"/>
-      <c r="W67" s="72">
-        <f>900+345</f>
-        <v>1245</v>
-      </c>
+      <c r="V67" s="104">
+        <v>1440</v>
+      </c>
+      <c r="W67" s="72"/>
       <c r="X67" s="67"/>
-      <c r="Y67" s="129"/>
-      <c r="Z67" s="80"/>
-      <c r="AA67" s="80"/>
-    </row>
-    <row r="68" spans="2:27" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="93" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="D68" s="67"/>
       <c r="E68" s="67"/>
       <c r="F68" s="67"/>
       <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67">
-        <v>850</v>
-      </c>
+      <c r="H68" s="67">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
+      <c r="I68" s="67"/>
       <c r="J68" s="67"/>
       <c r="K68" s="67"/>
       <c r="L68" s="11"/>
       <c r="M68" s="131"/>
       <c r="N68" s="74"/>
       <c r="O68" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P68" s="90" t="s">
-        <v>4</v>
+        <v>149</v>
+      </c>
+      <c r="P68" s="88" t="s">
+        <v>140</v>
       </c>
       <c r="Q68" s="72"/>
       <c r="R68" s="72"/>
       <c r="S68" s="72"/>
       <c r="T68" s="72"/>
-      <c r="U68" s="72">
-        <v>729</v>
-      </c>
-      <c r="V68" s="72"/>
+      <c r="U68" s="72"/>
+      <c r="V68" s="104">
+        <f>700+700+710+3464</f>
+        <v>5574</v>
+      </c>
       <c r="W68" s="72"/>
       <c r="X68" s="67"/>
     </row>
-    <row r="69" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" ht="24" x14ac:dyDescent="0.25">
       <c r="B69" s="93" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C69" s="95" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
+      <c r="E69" s="67">
+        <v>212</v>
+      </c>
       <c r="F69" s="67"/>
       <c r="G69" s="67"/>
-      <c r="H69" s="67">
-        <f>119+51+68+68+102+68</f>
-        <v>476</v>
-      </c>
+      <c r="H69" s="67"/>
       <c r="I69" s="67"/>
       <c r="J69" s="67"/>
       <c r="K69" s="67"/>
       <c r="L69" s="11"/>
       <c r="M69" s="131"/>
       <c r="N69" s="74"/>
-      <c r="O69" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P69" s="98" t="s">
-        <v>132</v>
-      </c>
+      <c r="O69" s="93"/>
+      <c r="P69" s="88"/>
       <c r="Q69" s="72"/>
       <c r="R69" s="72"/>
       <c r="S69" s="72"/>
       <c r="T69" s="72"/>
       <c r="U69" s="72"/>
-      <c r="V69" s="72">
-        <f>270+153+170+204+170+204</f>
-        <v>1171</v>
-      </c>
+      <c r="V69" s="72"/>
       <c r="W69" s="72"/>
       <c r="X69" s="67"/>
     </row>
-    <row r="70" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>11</v>
-      </c>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B70" s="93"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="67"/>
       <c r="E70" s="67"/>
       <c r="F70" s="67"/>
       <c r="G70" s="67"/>
-      <c r="H70" s="67">
-        <f>380+380+470</f>
-        <v>1230</v>
-      </c>
+      <c r="H70" s="67"/>
       <c r="I70" s="67"/>
       <c r="J70" s="67"/>
       <c r="K70" s="67"/>
@@ -7331,26 +7363,19 @@
       <c r="M70" s="131"/>
       <c r="N70" s="74"/>
       <c r="O70" s="93"/>
-      <c r="P70" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
-      <c r="S70" s="72"/>
-      <c r="T70" s="72"/>
-      <c r="U70" s="72"/>
-      <c r="V70" s="72">
-        <f>700+700+710+2566+310</f>
-        <v>4986</v>
-      </c>
-      <c r="W70" s="72"/>
+      <c r="P70" s="91"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
+      <c r="V70" s="67"/>
+      <c r="W70" s="67"/>
       <c r="X70" s="67"/>
     </row>
-    <row r="71" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" s="95"/>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B71" s="93"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
       <c r="F71" s="67"/>
@@ -7363,176 +7388,180 @@
       <c r="M71" s="131"/>
       <c r="N71" s="74"/>
       <c r="O71" s="93"/>
-      <c r="P71" s="88"/>
-      <c r="Q71" s="72"/>
-      <c r="R71" s="72"/>
-      <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="72"/>
-      <c r="V71" s="72"/>
-      <c r="W71" s="72"/>
+      <c r="P71" s="91"/>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="67"/>
+      <c r="U71" s="67"/>
+      <c r="V71" s="67"/>
+      <c r="W71" s="67"/>
       <c r="X71" s="67"/>
     </row>
-    <row r="72" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="93"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="11"/>
+    <row r="72" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="9"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="73">
+        <v>0</v>
+      </c>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="73"/>
+      <c r="K72" s="73"/>
+      <c r="L72" s="20"/>
       <c r="M72" s="131"/>
       <c r="N72" s="74"/>
-      <c r="O72" s="93"/>
-      <c r="P72" s="91"/>
-      <c r="Q72" s="67"/>
-      <c r="R72" s="67"/>
-      <c r="S72" s="67"/>
-      <c r="T72" s="67"/>
-      <c r="U72" s="67"/>
-      <c r="V72" s="67"/>
-      <c r="W72" s="67"/>
-      <c r="X72" s="67"/>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B73" s="93"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="131"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="51"/>
+      <c r="Q72" s="73">
+        <v>0</v>
+      </c>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="73"/>
+      <c r="U72" s="73"/>
+      <c r="V72" s="73"/>
+      <c r="W72" s="73"/>
+      <c r="X72" s="73"/>
+    </row>
+    <row r="73" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="7"/>
+      <c r="C73" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="30">
+        <f t="shared" ref="D73:L73" si="4">SUM(D59:D72)</f>
+        <v>891</v>
+      </c>
+      <c r="E73" s="31">
+        <f t="shared" si="4"/>
+        <v>212</v>
+      </c>
+      <c r="F73" s="31">
+        <f t="shared" si="4"/>
+        <v>1970</v>
+      </c>
+      <c r="G73" s="31">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="H73" s="31">
+        <f t="shared" si="4"/>
+        <v>1927</v>
+      </c>
+      <c r="I73" s="31">
+        <f t="shared" si="4"/>
+        <v>716</v>
+      </c>
+      <c r="J73" s="22">
+        <f t="shared" si="4"/>
+        <v>2220</v>
+      </c>
+      <c r="K73" s="32">
+        <f t="shared" si="4"/>
+        <v>6511</v>
+      </c>
+      <c r="L73" s="100">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="M73" s="132"/>
       <c r="N73" s="74"/>
-      <c r="O73" s="93"/>
-      <c r="P73" s="91"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="67"/>
-      <c r="S73" s="67"/>
-      <c r="T73" s="67"/>
-      <c r="U73" s="67"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="67"/>
-      <c r="X73" s="67"/>
-    </row>
-    <row r="74" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="9"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="73">
-        <v>0</v>
-      </c>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="73"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="73"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="131"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q73" s="21">
+        <f t="shared" ref="Q73:X73" si="5">SUM(Q59:Q72)</f>
+        <v>830</v>
+      </c>
+      <c r="R73" s="21">
+        <f t="shared" si="5"/>
+        <v>1055</v>
+      </c>
+      <c r="S73" s="21">
+        <f t="shared" si="5"/>
+        <v>3148</v>
+      </c>
+      <c r="T73" s="21">
+        <f t="shared" si="5"/>
+        <v>176</v>
+      </c>
+      <c r="U73" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="21">
+        <f t="shared" si="5"/>
+        <v>8637</v>
+      </c>
+      <c r="W73" s="21">
+        <f t="shared" si="5"/>
+        <v>1947</v>
+      </c>
+      <c r="X73" s="21">
+        <f t="shared" si="5"/>
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="7"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="76"/>
       <c r="N74" s="74"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="51"/>
-      <c r="Q74" s="73">
-        <v>0</v>
-      </c>
-      <c r="R74" s="73"/>
-      <c r="S74" s="73"/>
-      <c r="T74" s="73"/>
-      <c r="U74" s="73"/>
-      <c r="V74" s="73"/>
-      <c r="W74" s="73"/>
-      <c r="X74" s="73"/>
-    </row>
-    <row r="75" spans="2:27" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O74" s="7"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+    </row>
+    <row r="75" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B75" s="7"/>
-      <c r="C75" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="30">
-        <f t="shared" ref="D75" si="4">SUM(D61:D74)</f>
-        <v>665.5</v>
-      </c>
-      <c r="E75" s="31">
-        <f t="shared" ref="E75:L75" si="5">SUM(E61:E74)</f>
-        <v>68</v>
-      </c>
-      <c r="F75" s="31">
-        <f t="shared" si="5"/>
-        <v>2076</v>
-      </c>
-      <c r="G75" s="31">
-        <f t="shared" si="5"/>
-        <v>140</v>
-      </c>
-      <c r="H75" s="31">
-        <f t="shared" si="5"/>
-        <v>1706</v>
-      </c>
-      <c r="I75" s="31">
-        <f t="shared" si="5"/>
-        <v>850</v>
-      </c>
-      <c r="J75" s="22">
-        <f t="shared" si="5"/>
-        <v>781</v>
-      </c>
-      <c r="K75" s="32">
-        <f t="shared" si="5"/>
-        <v>7786</v>
-      </c>
-      <c r="L75" s="100">
-        <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="M75" s="132"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="241">
+        <f>K73+J73+I73+H73+G73+F73+E73+D73+L73</f>
+        <v>15022</v>
+      </c>
+      <c r="G75" s="242"/>
+      <c r="H75" s="243"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="71"/>
+      <c r="M75" s="74"/>
       <c r="N75" s="74"/>
       <c r="O75" s="7"/>
-      <c r="P75" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q75" s="21">
-        <f t="shared" ref="Q75:X75" si="6">SUM(Q61:Q74)</f>
-        <v>863</v>
-      </c>
-      <c r="R75" s="21">
-        <f t="shared" si="6"/>
-        <v>1081</v>
-      </c>
-      <c r="S75" s="21">
-        <f t="shared" si="6"/>
-        <v>2839</v>
-      </c>
-      <c r="T75" s="21">
-        <f t="shared" si="6"/>
-        <v>145</v>
-      </c>
-      <c r="U75" s="21">
-        <f t="shared" si="6"/>
-        <v>729</v>
-      </c>
-      <c r="V75" s="21">
-        <f t="shared" si="6"/>
-        <v>6157</v>
-      </c>
-      <c r="W75" s="21">
-        <f t="shared" si="6"/>
-        <v>1245</v>
-      </c>
-      <c r="X75" s="21">
-        <f t="shared" si="6"/>
-        <v>8215</v>
-      </c>
-    </row>
-    <row r="76" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="244">
+        <f>Q73+R73+S73+T73+U73+V73+W73+X73</f>
+        <v>23024</v>
+      </c>
+      <c r="T75" s="245"/>
+      <c r="U75" s="246"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="1"/>
       <c r="D76" s="5"/>
@@ -7540,11 +7569,10 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="78"/>
-      <c r="M76" s="76"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="74"/>
       <c r="N76" s="74"/>
       <c r="O76" s="7"/>
       <c r="Q76" s="5"/>
@@ -7556,17 +7584,14 @@
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
     </row>
-    <row r="77" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="1"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="212">
-        <f>K75+J75+I75+H75+G75+F75+E75+D75+L75</f>
-        <v>14572.5</v>
-      </c>
-      <c r="G77" s="213"/>
-      <c r="H77" s="214"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -7574,19 +7599,8 @@
       <c r="M77" s="74"/>
       <c r="N77" s="74"/>
       <c r="O77" s="7"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="215">
-        <f>Q75+R75+S75+T75+U75+V75+W75+X75</f>
-        <v>21274</v>
-      </c>
-      <c r="T77" s="216"/>
-      <c r="U77" s="217"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="1"/>
       <c r="D78" s="5"/>
@@ -7594,73 +7608,862 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="71"/>
       <c r="M78" s="74"/>
       <c r="N78" s="74"/>
       <c r="O78" s="7"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
+      <c r="N79" s="80"/>
       <c r="O79" s="7"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="71"/>
-      <c r="M80" s="74"/>
-      <c r="N80" s="74"/>
+      <c r="N80" s="80"/>
       <c r="O80" s="7"/>
     </row>
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B81" s="7"/>
+      <c r="C81" s="1"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="7"/>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B82" s="7"/>
+      <c r="C82" s="1"/>
+      <c r="N82" s="80"/>
+      <c r="O82" s="7"/>
+    </row>
+    <row r="83" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="7"/>
+      <c r="C83" s="1"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="7"/>
+    </row>
+    <row r="84" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="7"/>
+      <c r="C84" s="234" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" s="235"/>
+      <c r="E84" s="235"/>
+      <c r="F84" s="235"/>
+      <c r="G84" s="235"/>
+      <c r="H84" s="235"/>
+      <c r="I84" s="235"/>
+      <c r="J84" s="235"/>
+      <c r="K84" s="235"/>
+      <c r="L84" s="185" t="s">
+        <v>41</v>
+      </c>
+      <c r="M84" s="133"/>
+      <c r="N84" s="81"/>
+      <c r="O84" s="247" t="s">
+        <v>19</v>
+      </c>
+      <c r="P84" s="248"/>
+      <c r="Q84" s="248"/>
+      <c r="R84" s="248"/>
+      <c r="S84" s="248"/>
+      <c r="T84" s="248"/>
+      <c r="U84" s="248"/>
+      <c r="V84" s="248"/>
+      <c r="W84" s="248"/>
+      <c r="X84" s="128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="7"/>
+      <c r="C85" s="1"/>
+      <c r="I85" s="238" t="s">
+        <v>129</v>
+      </c>
+      <c r="J85" s="239"/>
+      <c r="K85" s="240"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="134"/>
+      <c r="N85" s="74"/>
+      <c r="O85" s="7"/>
+      <c r="V85" s="238" t="s">
+        <v>150</v>
+      </c>
+      <c r="W85" s="239"/>
+      <c r="X85" s="240"/>
+    </row>
+    <row r="86" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J86" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K86" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L86" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M86" s="135"/>
+      <c r="N86" s="82"/>
+      <c r="O86" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P86" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R86" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S86" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="T86" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="U86" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="V86" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W86" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X86" s="144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B87" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="72">
+        <f>2361+1550+386+1883+642+964</f>
+        <v>7786</v>
+      </c>
+      <c r="L87" s="70"/>
+      <c r="M87" s="131"/>
+      <c r="N87" s="74"/>
+      <c r="O87" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P87" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q87" s="72"/>
+      <c r="R87" s="72"/>
+      <c r="S87" s="72"/>
+      <c r="T87" s="72"/>
+      <c r="U87" s="72"/>
+      <c r="V87" s="72"/>
+      <c r="W87" s="72"/>
+      <c r="X87" s="72">
+        <f>2377+2781+1874+429+754</f>
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67">
+        <f>1380+370+88+238</f>
+        <v>2076</v>
+      </c>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="67"/>
+      <c r="M88" s="131"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P88" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q88" s="72"/>
+      <c r="R88" s="72"/>
+      <c r="S88" s="72">
+        <f>180+148+36+2475</f>
+        <v>2839</v>
+      </c>
+      <c r="T88" s="72"/>
+      <c r="U88" s="72"/>
+      <c r="V88" s="72"/>
+      <c r="W88" s="72"/>
+      <c r="X88" s="67"/>
+    </row>
+    <row r="89" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="67">
+        <f>47+72.5+247+54+245</f>
+        <v>665.5</v>
+      </c>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="67"/>
+      <c r="I89" s="67"/>
+      <c r="J89" s="67"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="131"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P89" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q89" s="72">
+        <f>330+158+288+87</f>
+        <v>863</v>
+      </c>
+      <c r="R89" s="72"/>
+      <c r="S89" s="72"/>
+      <c r="T89" s="72"/>
+      <c r="U89" s="72"/>
+      <c r="V89" s="72"/>
+      <c r="W89" s="72"/>
+      <c r="X89" s="67"/>
+    </row>
+    <row r="90" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B90" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67">
+        <v>140</v>
+      </c>
+      <c r="H90" s="67"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="67"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="131"/>
+      <c r="N90" s="74"/>
+      <c r="O90" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P90" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q90" s="72"/>
+      <c r="R90" s="72"/>
+      <c r="S90" s="72"/>
+      <c r="T90" s="72">
+        <v>145</v>
+      </c>
+      <c r="U90" s="72"/>
+      <c r="V90" s="72"/>
+      <c r="W90" s="72"/>
+      <c r="X90" s="67"/>
+    </row>
+    <row r="91" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="11">
+        <v>500</v>
+      </c>
+      <c r="M91" s="131"/>
+      <c r="N91" s="74"/>
+      <c r="O91" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P91" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q91" s="72"/>
+      <c r="R91" s="72">
+        <v>1081</v>
+      </c>
+      <c r="S91" s="72"/>
+      <c r="T91" s="72"/>
+      <c r="U91" s="72"/>
+      <c r="V91" s="72"/>
+      <c r="W91" s="72"/>
+      <c r="X91" s="67"/>
+    </row>
+    <row r="92" spans="2:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" s="67"/>
+      <c r="E92" s="67">
+        <v>68</v>
+      </c>
+      <c r="F92" s="67"/>
+      <c r="G92" s="67"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="67"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="67"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="131"/>
+      <c r="N92" s="74"/>
+      <c r="O92" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P92" s="89"/>
+      <c r="Q92" s="72"/>
+      <c r="R92" s="72"/>
+      <c r="S92" s="72"/>
+      <c r="T92" s="72"/>
+      <c r="U92" s="72"/>
+      <c r="V92" s="72"/>
+      <c r="W92" s="72"/>
+      <c r="X92" s="67"/>
+    </row>
+    <row r="93" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="67"/>
+      <c r="J93" s="94">
+        <f>155+626</f>
+        <v>781</v>
+      </c>
+      <c r="K93" s="67"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="131"/>
+      <c r="N93" s="74"/>
+      <c r="O93" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P93" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q93" s="72"/>
+      <c r="R93" s="72"/>
+      <c r="S93" s="72"/>
+      <c r="T93" s="72"/>
+      <c r="U93" s="72"/>
+      <c r="V93" s="72"/>
+      <c r="W93" s="72">
+        <f>900+345</f>
+        <v>1245</v>
+      </c>
+      <c r="X93" s="67"/>
+      <c r="Y93" s="129"/>
+      <c r="Z93" s="80"/>
+      <c r="AA93" s="80"/>
+    </row>
+    <row r="94" spans="2:27" ht="24" x14ac:dyDescent="0.25">
+      <c r="B94" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="67"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="67">
+        <v>850</v>
+      </c>
+      <c r="J94" s="67"/>
+      <c r="K94" s="67"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="131"/>
+      <c r="N94" s="74"/>
+      <c r="O94" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P94" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="72"/>
+      <c r="R94" s="72"/>
+      <c r="S94" s="72"/>
+      <c r="T94" s="72"/>
+      <c r="U94" s="72">
+        <v>729</v>
+      </c>
+      <c r="V94" s="72"/>
+      <c r="W94" s="72"/>
+      <c r="X94" s="67"/>
+    </row>
+    <row r="95" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67">
+        <f>119+51+68+68+102+68</f>
+        <v>476</v>
+      </c>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="131"/>
+      <c r="N95" s="74"/>
+      <c r="O95" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P95" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q95" s="72"/>
+      <c r="R95" s="72"/>
+      <c r="S95" s="72"/>
+      <c r="T95" s="72"/>
+      <c r="U95" s="72"/>
+      <c r="V95" s="72">
+        <f>270+153+170+204+170+204</f>
+        <v>1171</v>
+      </c>
+      <c r="W95" s="72"/>
+      <c r="X95" s="67"/>
+    </row>
+    <row r="96" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="131"/>
+      <c r="N96" s="74"/>
+      <c r="O96" s="93"/>
+      <c r="P96" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q96" s="72"/>
+      <c r="R96" s="72"/>
+      <c r="S96" s="72"/>
+      <c r="T96" s="72"/>
+      <c r="U96" s="72"/>
+      <c r="V96" s="72">
+        <f>700+700+710+2566+310</f>
+        <v>4986</v>
+      </c>
+      <c r="W96" s="72"/>
+      <c r="X96" s="67"/>
+    </row>
+    <row r="97" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="95"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="131"/>
+      <c r="N97" s="74"/>
+      <c r="O97" s="93"/>
+      <c r="P97" s="88"/>
+      <c r="Q97" s="72"/>
+      <c r="R97" s="72"/>
+      <c r="S97" s="72"/>
+      <c r="T97" s="72"/>
+      <c r="U97" s="72"/>
+      <c r="V97" s="72"/>
+      <c r="W97" s="72"/>
+      <c r="X97" s="67"/>
+    </row>
+    <row r="98" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="93"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="131"/>
+      <c r="N98" s="74"/>
+      <c r="O98" s="93"/>
+      <c r="P98" s="91"/>
+      <c r="Q98" s="67"/>
+      <c r="R98" s="67"/>
+      <c r="S98" s="67"/>
+      <c r="T98" s="67"/>
+      <c r="U98" s="67"/>
+      <c r="V98" s="67"/>
+      <c r="W98" s="67"/>
+      <c r="X98" s="67"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B99" s="93"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="131"/>
+      <c r="N99" s="74"/>
+      <c r="O99" s="93"/>
+      <c r="P99" s="91"/>
+      <c r="Q99" s="67"/>
+      <c r="R99" s="67"/>
+      <c r="S99" s="67"/>
+      <c r="T99" s="67"/>
+      <c r="U99" s="67"/>
+      <c r="V99" s="67"/>
+      <c r="W99" s="67"/>
+      <c r="X99" s="67"/>
+    </row>
+    <row r="100" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="9"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="73">
+        <v>0</v>
+      </c>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="73"/>
+      <c r="H100" s="73"/>
+      <c r="I100" s="73"/>
+      <c r="J100" s="73"/>
+      <c r="K100" s="73"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="131"/>
+      <c r="N100" s="74"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="51"/>
+      <c r="Q100" s="73">
+        <v>0</v>
+      </c>
+      <c r="R100" s="73"/>
+      <c r="S100" s="73"/>
+      <c r="T100" s="73"/>
+      <c r="U100" s="73"/>
+      <c r="V100" s="73"/>
+      <c r="W100" s="73"/>
+      <c r="X100" s="73"/>
+    </row>
+    <row r="101" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="7"/>
+      <c r="C101" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="30">
+        <f t="shared" ref="D101" si="6">SUM(D87:D100)</f>
+        <v>665.5</v>
+      </c>
+      <c r="E101" s="31">
+        <f t="shared" ref="E101:L101" si="7">SUM(E87:E100)</f>
+        <v>68</v>
+      </c>
+      <c r="F101" s="31">
+        <f t="shared" si="7"/>
+        <v>2076</v>
+      </c>
+      <c r="G101" s="31">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="H101" s="31">
+        <f t="shared" si="7"/>
+        <v>1706</v>
+      </c>
+      <c r="I101" s="31">
+        <f t="shared" si="7"/>
+        <v>850</v>
+      </c>
+      <c r="J101" s="22">
+        <f t="shared" si="7"/>
+        <v>781</v>
+      </c>
+      <c r="K101" s="32">
+        <f t="shared" si="7"/>
+        <v>7786</v>
+      </c>
+      <c r="L101" s="100">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="M101" s="132"/>
+      <c r="N101" s="74"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q101" s="21">
+        <f t="shared" ref="Q101:X101" si="8">SUM(Q87:Q100)</f>
+        <v>863</v>
+      </c>
+      <c r="R101" s="21">
+        <f t="shared" si="8"/>
+        <v>1081</v>
+      </c>
+      <c r="S101" s="21">
+        <f t="shared" si="8"/>
+        <v>2839</v>
+      </c>
+      <c r="T101" s="21">
+        <f t="shared" si="8"/>
+        <v>145</v>
+      </c>
+      <c r="U101" s="21">
+        <f t="shared" si="8"/>
+        <v>729</v>
+      </c>
+      <c r="V101" s="21">
+        <f t="shared" si="8"/>
+        <v>6157</v>
+      </c>
+      <c r="W101" s="21">
+        <f t="shared" si="8"/>
+        <v>1245</v>
+      </c>
+      <c r="X101" s="21">
+        <f t="shared" si="8"/>
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="102" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="7"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="78"/>
+      <c r="M102" s="76"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="7"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="5"/>
+      <c r="W102" s="5"/>
+      <c r="X102" s="5"/>
+    </row>
+    <row r="103" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="7"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="241">
+        <f>K101+J101+I101+H101+G101+F101+E101+D101+L101</f>
+        <v>14572.5</v>
+      </c>
+      <c r="G103" s="242"/>
+      <c r="H103" s="243"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="71"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="74"/>
+      <c r="O103" s="7"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="244">
+        <f>Q101+R101+S101+T101+U101+V101+W101+X101</f>
+        <v>21274</v>
+      </c>
+      <c r="T103" s="245"/>
+      <c r="U103" s="246"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B104" s="7"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="71"/>
+      <c r="M104" s="74"/>
+      <c r="N104" s="74"/>
+      <c r="O104" s="7"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B105" s="7"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="71"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="74"/>
+      <c r="O105" s="7"/>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B106" s="7"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="71"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="74"/>
+      <c r="O106" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="O58:W58"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="O30:W30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="O56:W56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="C84:K84"/>
+    <mergeCell ref="O84:W84"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="V85:X85"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="S103:U103"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="O28:W28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="S47:U47"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.16" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7723,51 +8526,51 @@
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="235"/>
       <c r="L4" s="84" t="s">
         <v>88</v>
       </c>
       <c r="M4" s="83"/>
       <c r="N4" s="81"/>
-      <c r="O4" s="218" t="s">
+      <c r="O4" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="219"/>
-      <c r="T4" s="219"/>
-      <c r="U4" s="219"/>
-      <c r="V4" s="219"/>
-      <c r="W4" s="219"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="248"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="248"/>
+      <c r="U4" s="248"/>
+      <c r="V4" s="248"/>
+      <c r="W4" s="248"/>
       <c r="X4" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="209" t="s">
+      <c r="I5" s="238" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="210"/>
-      <c r="K5" s="211"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="240"/>
       <c r="L5" s="68"/>
       <c r="M5" s="59"/>
       <c r="N5" s="74"/>
-      <c r="V5" s="209" t="s">
+      <c r="V5" s="238" t="s">
         <v>107</v>
       </c>
-      <c r="W5" s="210"/>
-      <c r="X5" s="211"/>
+      <c r="W5" s="239"/>
+      <c r="X5" s="240"/>
     </row>
     <row r="6" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -8443,12 +9246,12 @@
     <row r="23" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="212">
+      <c r="F23" s="241">
         <f>K21+J21+I21+H21+G21+F21+E21+D21+L21</f>
         <v>9784</v>
       </c>
-      <c r="G23" s="213"/>
-      <c r="H23" s="214"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="243"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -8457,12 +9260,12 @@
       <c r="N23" s="74"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="215">
+      <c r="S23" s="244">
         <f>Q21+R21+S21+T21+U21+V21+W21+X21</f>
         <v>18984.5</v>
       </c>
-      <c r="T23" s="216"/>
-      <c r="U23" s="217"/>
+      <c r="T23" s="245"/>
+      <c r="U23" s="246"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -8515,51 +9318,51 @@
     </row>
     <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="205" t="s">
+      <c r="C35" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="206"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="206"/>
-      <c r="K35" s="206"/>
+      <c r="D35" s="235"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="235"/>
+      <c r="J35" s="235"/>
+      <c r="K35" s="235"/>
       <c r="L35" s="84" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="83"/>
       <c r="N35" s="81"/>
-      <c r="O35" s="218" t="s">
+      <c r="O35" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="219"/>
-      <c r="Q35" s="219"/>
-      <c r="R35" s="219"/>
-      <c r="S35" s="219"/>
-      <c r="T35" s="219"/>
-      <c r="U35" s="219"/>
-      <c r="V35" s="219"/>
-      <c r="W35" s="219"/>
+      <c r="P35" s="248"/>
+      <c r="Q35" s="248"/>
+      <c r="R35" s="248"/>
+      <c r="S35" s="248"/>
+      <c r="T35" s="248"/>
+      <c r="U35" s="248"/>
+      <c r="V35" s="248"/>
+      <c r="W35" s="248"/>
       <c r="X35" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="209" t="s">
+      <c r="I36" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="210"/>
-      <c r="K36" s="211"/>
+      <c r="J36" s="239"/>
+      <c r="K36" s="240"/>
       <c r="L36" s="68"/>
       <c r="M36" s="59"/>
       <c r="N36" s="74"/>
-      <c r="V36" s="209" t="s">
+      <c r="V36" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="W36" s="210"/>
-      <c r="X36" s="211"/>
+      <c r="W36" s="239"/>
+      <c r="X36" s="240"/>
     </row>
     <row r="37" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
@@ -9231,12 +10034,12 @@
     <row r="54" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="212">
+      <c r="F54" s="241">
         <f>K52+J52+I52+H52+G52+F52+E52+D52+L52</f>
         <v>13702.5</v>
       </c>
-      <c r="G54" s="213"/>
-      <c r="H54" s="214"/>
+      <c r="G54" s="242"/>
+      <c r="H54" s="243"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -9245,12 +10048,12 @@
       <c r="N54" s="74"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="215">
+      <c r="S54" s="244">
         <f>Q52+R52+S52+T52+U52+V52+W52+X52</f>
         <v>19583</v>
       </c>
-      <c r="T54" s="216"/>
-      <c r="U54" s="217"/>
+      <c r="T54" s="245"/>
+      <c r="U54" s="246"/>
       <c r="V54" s="5">
         <v>19583</v>
       </c>
@@ -9305,48 +10108,48 @@
     </row>
     <row r="67" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C68" s="205" t="s">
+      <c r="C68" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="206"/>
-      <c r="E68" s="206"/>
-      <c r="F68" s="206"/>
-      <c r="G68" s="206"/>
-      <c r="H68" s="206"/>
-      <c r="I68" s="206"/>
-      <c r="J68" s="206"/>
-      <c r="K68" s="206"/>
+      <c r="D68" s="235"/>
+      <c r="E68" s="235"/>
+      <c r="F68" s="235"/>
+      <c r="G68" s="235"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="235"/>
+      <c r="J68" s="235"/>
+      <c r="K68" s="235"/>
       <c r="L68" s="84" t="s">
         <v>42</v>
       </c>
       <c r="M68" s="83"/>
       <c r="N68" s="81"/>
-      <c r="O68" s="218" t="s">
+      <c r="O68" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="P68" s="219"/>
-      <c r="Q68" s="219"/>
-      <c r="R68" s="219"/>
-      <c r="S68" s="219"/>
-      <c r="T68" s="219"/>
-      <c r="U68" s="219"/>
-      <c r="V68" s="219"/>
-      <c r="W68" s="219"/>
+      <c r="P68" s="248"/>
+      <c r="Q68" s="248"/>
+      <c r="R68" s="248"/>
+      <c r="S68" s="248"/>
+      <c r="T68" s="248"/>
+      <c r="U68" s="248"/>
+      <c r="V68" s="248"/>
+      <c r="W68" s="248"/>
       <c r="X68" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="209" t="s">
+      <c r="I69" s="238" t="s">
         <v>67</v>
       </c>
-      <c r="J69" s="210"/>
-      <c r="K69" s="211"/>
+      <c r="J69" s="239"/>
+      <c r="K69" s="240"/>
       <c r="L69" s="68"/>
       <c r="M69" s="59"/>
       <c r="N69" s="74"/>
-      <c r="W69" s="210"/>
-      <c r="X69" s="211"/>
+      <c r="W69" s="239"/>
+      <c r="X69" s="240"/>
     </row>
     <row r="70" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
@@ -10013,12 +10816,12 @@
     <row r="87" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="212">
+      <c r="F87" s="241">
         <f>K85+J85+I85+H85+G85+F85+E85+D85+L85</f>
         <v>13447.5</v>
       </c>
-      <c r="G87" s="213"/>
-      <c r="H87" s="214"/>
+      <c r="G87" s="242"/>
+      <c r="H87" s="243"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5">
         <v>13447.5</v>
@@ -10029,12 +10832,12 @@
       <c r="N87" s="74"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-      <c r="S87" s="215">
+      <c r="S87" s="244">
         <f>Q85+R85+S85+T85+U85+V85+W85+X85</f>
         <v>19080.5</v>
       </c>
-      <c r="T87" s="216"/>
-      <c r="U87" s="217"/>
+      <c r="T87" s="245"/>
+      <c r="U87" s="246"/>
       <c r="V87" s="5">
         <v>19080.5</v>
       </c>
@@ -10113,48 +10916,48 @@
     </row>
     <row r="93" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C94" s="205" t="s">
+      <c r="C94" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="206"/>
-      <c r="E94" s="206"/>
-      <c r="F94" s="206"/>
-      <c r="G94" s="206"/>
-      <c r="H94" s="206"/>
-      <c r="I94" s="206"/>
-      <c r="J94" s="206"/>
-      <c r="K94" s="206"/>
+      <c r="D94" s="235"/>
+      <c r="E94" s="235"/>
+      <c r="F94" s="235"/>
+      <c r="G94" s="235"/>
+      <c r="H94" s="235"/>
+      <c r="I94" s="235"/>
+      <c r="J94" s="235"/>
+      <c r="K94" s="235"/>
       <c r="L94" s="84" t="s">
         <v>41</v>
       </c>
       <c r="M94" s="83"/>
       <c r="N94" s="81"/>
-      <c r="O94" s="218" t="s">
+      <c r="O94" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="P94" s="219"/>
-      <c r="Q94" s="219"/>
-      <c r="R94" s="219"/>
-      <c r="S94" s="219"/>
-      <c r="T94" s="219"/>
-      <c r="U94" s="219"/>
-      <c r="V94" s="219"/>
-      <c r="W94" s="219"/>
+      <c r="P94" s="248"/>
+      <c r="Q94" s="248"/>
+      <c r="R94" s="248"/>
+      <c r="S94" s="248"/>
+      <c r="T94" s="248"/>
+      <c r="U94" s="248"/>
+      <c r="V94" s="248"/>
+      <c r="W94" s="248"/>
       <c r="X94" s="85" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="95" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I95" s="209" t="s">
+      <c r="I95" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="J95" s="210"/>
-      <c r="K95" s="211"/>
+      <c r="J95" s="239"/>
+      <c r="K95" s="240"/>
       <c r="L95" s="68"/>
       <c r="M95" s="59"/>
       <c r="N95" s="74"/>
-      <c r="W95" s="210"/>
-      <c r="X95" s="211"/>
+      <c r="W95" s="239"/>
+      <c r="X95" s="240"/>
     </row>
     <row r="96" spans="2:24" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
@@ -11371,12 +12174,12 @@
     <row r="122" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="220">
+      <c r="F122" s="249">
         <f>K120+J120+I120+H120+G120+F120+E120+D120</f>
         <v>13579</v>
       </c>
-      <c r="G122" s="213"/>
-      <c r="H122" s="214"/>
+      <c r="G122" s="242"/>
+      <c r="H122" s="243"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5">
         <v>13579</v>
@@ -11387,12 +12190,12 @@
       <c r="N122" s="74"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
-      <c r="S122" s="215">
+      <c r="S122" s="244">
         <f>Q120+R120+S120+T120+U120+V120+W120+X120</f>
         <v>20452</v>
       </c>
-      <c r="T122" s="216"/>
-      <c r="U122" s="217"/>
+      <c r="T122" s="245"/>
+      <c r="U122" s="246"/>
       <c r="V122" s="5">
         <v>20452</v>
       </c>
@@ -11479,30 +12282,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="O4:W4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="C68:K68"/>
+    <mergeCell ref="O68:W68"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="W69:X69"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="S122:U122"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="W95:X95"/>
+    <mergeCell ref="O94:W94"/>
     <mergeCell ref="C35:K35"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="F54:H54"/>
     <mergeCell ref="O35:W35"/>
     <mergeCell ref="S54:U54"/>
     <mergeCell ref="V36:X36"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="S122:U122"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="W95:X95"/>
-    <mergeCell ref="O94:W94"/>
-    <mergeCell ref="C68:K68"/>
-    <mergeCell ref="O68:W68"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="W69:X69"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="O4:W4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="S23:U23"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11534,51 +12337,51 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="205" t="s">
+      <c r="D2" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="205" t="s">
+      <c r="T2" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="235"/>
+      <c r="AB2" s="235"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="209" t="s">
+      <c r="J3" s="238" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="210"/>
-      <c r="L3" s="221"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="250"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="209" t="s">
+      <c r="Z3" s="238" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="211"/>
+      <c r="AA3" s="239"/>
+      <c r="AB3" s="240"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -12103,51 +12906,51 @@
     <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="7"/>
-      <c r="D16" s="218" t="s">
+      <c r="D16" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
+      <c r="E16" s="248"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="248"/>
+      <c r="J16" s="248"/>
+      <c r="K16" s="248"/>
+      <c r="L16" s="248"/>
       <c r="M16" s="171"/>
       <c r="N16" s="151"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="218" t="s">
+      <c r="T16" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="219"/>
-      <c r="V16" s="219"/>
-      <c r="W16" s="219"/>
-      <c r="X16" s="219"/>
-      <c r="Y16" s="219"/>
-      <c r="Z16" s="219"/>
-      <c r="AA16" s="219"/>
-      <c r="AB16" s="219"/>
+      <c r="U16" s="248"/>
+      <c r="V16" s="248"/>
+      <c r="W16" s="248"/>
+      <c r="X16" s="248"/>
+      <c r="Y16" s="248"/>
+      <c r="Z16" s="248"/>
+      <c r="AA16" s="248"/>
+      <c r="AB16" s="248"/>
       <c r="AC16" s="171"/>
       <c r="AD16" s="151"/>
     </row>
     <row r="17" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
-      <c r="J17" s="209" t="s">
+      <c r="J17" s="238" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="210"/>
-      <c r="L17" s="221"/>
+      <c r="K17" s="239"/>
+      <c r="L17" s="250"/>
       <c r="M17" s="68"/>
       <c r="N17" s="152"/>
       <c r="S17" s="7"/>
       <c r="T17" s="1"/>
-      <c r="Z17" s="209" t="s">
+      <c r="Z17" s="238" t="s">
         <v>184</v>
       </c>
-      <c r="AA17" s="210"/>
-      <c r="AB17" s="211"/>
+      <c r="AA17" s="239"/>
+      <c r="AB17" s="240"/>
       <c r="AC17" s="68"/>
       <c r="AD17" s="152"/>
     </row>
@@ -12649,7 +13452,7 @@
   </sheetPr>
   <dimension ref="C1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -12666,47 +13469,47 @@
     <row r="1" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" s="7"/>
-      <c r="E2" s="205" t="s">
+      <c r="E2" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
       <c r="N2" s="84"/>
       <c r="O2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="205" t="s">
+      <c r="T2" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="235"/>
+      <c r="AA2" s="235"/>
+      <c r="AB2" s="235"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="3:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="221"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="250"/>
       <c r="N3" s="68"/>
       <c r="O3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="211"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="239"/>
+      <c r="AB3" s="240"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -12819,10 +13622,10 @@
         <f>SUM(F5:N5)</f>
         <v>13702.5</v>
       </c>
-      <c r="R5" s="243" t="s">
+      <c r="R5" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="S5" s="244" t="s">
+      <c r="S5" s="221" t="s">
         <v>20</v>
       </c>
       <c r="T5" s="163"/>
@@ -12903,7 +13706,7 @@
       <c r="R6" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="S6" s="247" t="s">
+      <c r="S6" s="224" t="s">
         <v>145</v>
       </c>
       <c r="T6" s="153"/>
@@ -12934,7 +13737,7 @@
       <c r="AC6" s="166">
         <v>1008</v>
       </c>
-      <c r="AD6" s="238">
+      <c r="AD6" s="215">
         <f t="shared" ref="AD6:AD7" si="1">SUM(U6:AC6)</f>
         <v>13447.5</v>
       </c>
@@ -12978,21 +13781,21 @@
         <f t="shared" si="0"/>
         <v>14572.5</v>
       </c>
-      <c r="R7" s="245"/>
-      <c r="S7" s="246"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="223"/>
       <c r="T7" s="153"/>
-      <c r="U7" s="248"/>
-      <c r="V7" s="250"/>
-      <c r="W7" s="260" t="s">
+      <c r="U7" s="225"/>
+      <c r="V7" s="227"/>
+      <c r="W7" s="257" t="s">
         <v>192</v>
       </c>
-      <c r="X7" s="260"/>
-      <c r="Y7" s="260"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="249"/>
-      <c r="AB7" s="248"/>
-      <c r="AC7" s="251"/>
-      <c r="AD7" s="252">
+      <c r="X7" s="257"/>
+      <c r="Y7" s="257"/>
+      <c r="Z7" s="258"/>
+      <c r="AA7" s="226"/>
+      <c r="AB7" s="225"/>
+      <c r="AC7" s="228"/>
+      <c r="AD7" s="229">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -13005,38 +13808,38 @@
         <v>191</v>
       </c>
       <c r="E8" s="153"/>
-      <c r="F8" s="235">
+      <c r="F8" s="212">
         <f>891+221+100+155+220</f>
         <v>1587</v>
       </c>
-      <c r="G8" s="233">
+      <c r="G8" s="210">
         <f>212+180+641</f>
         <v>1033</v>
       </c>
-      <c r="H8" s="233">
+      <c r="H8" s="210">
         <f>1970+60+45+1601</f>
         <v>3676</v>
       </c>
-      <c r="I8" s="233">
+      <c r="I8" s="210">
         <f>75+45</f>
         <v>120</v>
       </c>
-      <c r="J8" s="233">
+      <c r="J8" s="210">
         <f>1927+51</f>
         <v>1978</v>
       </c>
-      <c r="K8" s="233">
+      <c r="K8" s="210">
         <f>716+352</f>
         <v>1068</v>
       </c>
-      <c r="L8" s="234">
+      <c r="L8" s="211">
         <f>2220+578</f>
         <v>2798</v>
       </c>
-      <c r="M8" s="236">
+      <c r="M8" s="213">
         <v>6511</v>
       </c>
-      <c r="N8" s="237">
+      <c r="N8" s="214">
         <v>500</v>
       </c>
       <c r="O8" s="167">
@@ -13044,16 +13847,16 @@
         <v>19271</v>
       </c>
       <c r="R8" s="154"/>
-      <c r="U8" s="241"/>
-      <c r="V8" s="241"/>
-      <c r="W8" s="241"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="241"/>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="242"/>
-      <c r="AB8" s="255"/>
-      <c r="AC8" s="255"/>
-      <c r="AD8" s="256">
+      <c r="U8" s="218"/>
+      <c r="V8" s="218"/>
+      <c r="W8" s="218"/>
+      <c r="X8" s="218"/>
+      <c r="Y8" s="218"/>
+      <c r="Z8" s="218"/>
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="232"/>
+      <c r="AC8" s="232"/>
+      <c r="AD8" s="233">
         <v>0</v>
       </c>
     </row>
@@ -13076,18 +13879,18 @@
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="253"/>
-      <c r="V9" s="253"/>
-      <c r="W9" s="253"/>
-      <c r="X9" s="253"/>
-      <c r="Y9" s="253"/>
-      <c r="Z9" s="253"/>
-      <c r="AA9" s="253"/>
-      <c r="AB9" s="239"/>
-      <c r="AC9" s="240" t="s">
+      <c r="U9" s="230"/>
+      <c r="V9" s="230"/>
+      <c r="W9" s="230"/>
+      <c r="X9" s="230"/>
+      <c r="Y9" s="230"/>
+      <c r="Z9" s="230"/>
+      <c r="AA9" s="230"/>
+      <c r="AB9" s="216"/>
+      <c r="AC9" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="254">
+      <c r="AD9" s="231">
         <f>SUM(AD5:AD8)</f>
         <v>27026.5</v>
       </c>
@@ -13096,12 +13899,12 @@
       <c r="C10" s="154"/>
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="257" t="s">
+      <c r="H10" s="259" t="s">
         <v>193</v>
       </c>
-      <c r="I10" s="258"/>
-      <c r="J10" s="258"/>
-      <c r="K10" s="259"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="260"/>
+      <c r="K10" s="261"/>
       <c r="L10" s="22"/>
       <c r="M10" s="157"/>
       <c r="N10" s="77"/>
@@ -13183,47 +13986,47 @@
     </row>
     <row r="14" spans="3:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D14" s="7"/>
-      <c r="E14" s="218" t="s">
+      <c r="E14" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="219"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="227"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="248"/>
+      <c r="L14" s="248"/>
+      <c r="M14" s="256"/>
       <c r="N14" s="171"/>
       <c r="O14" s="151"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="218" t="s">
+      <c r="T14" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="219"/>
-      <c r="V14" s="219"/>
-      <c r="W14" s="219"/>
-      <c r="X14" s="219"/>
-      <c r="Y14" s="219"/>
-      <c r="Z14" s="219"/>
-      <c r="AA14" s="219"/>
-      <c r="AB14" s="219"/>
+      <c r="U14" s="248"/>
+      <c r="V14" s="248"/>
+      <c r="W14" s="248"/>
+      <c r="X14" s="248"/>
+      <c r="Y14" s="248"/>
+      <c r="Z14" s="248"/>
+      <c r="AA14" s="248"/>
+      <c r="AB14" s="248"/>
       <c r="AC14" s="171"/>
       <c r="AD14" s="151"/>
     </row>
     <row r="15" spans="3:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
-      <c r="K15" s="228"/>
-      <c r="L15" s="229"/>
+      <c r="K15" s="205"/>
+      <c r="L15" s="206"/>
       <c r="M15" s="196"/>
       <c r="N15" s="68"/>
       <c r="O15" s="152"/>
       <c r="S15" s="7"/>
       <c r="T15" s="1"/>
-      <c r="Z15" s="209"/>
-      <c r="AA15" s="210"/>
-      <c r="AB15" s="211"/>
+      <c r="Z15" s="238"/>
+      <c r="AA15" s="239"/>
+      <c r="AB15" s="240"/>
       <c r="AC15" s="68"/>
       <c r="AD15" s="152"/>
     </row>
@@ -13507,35 +14310,35 @@
         <v>190</v>
       </c>
       <c r="E20" s="153"/>
-      <c r="F20" s="235">
+      <c r="F20" s="212">
         <f>830+200+100+253</f>
         <v>1383</v>
       </c>
-      <c r="G20" s="233">
+      <c r="G20" s="210">
         <f>1055+590</f>
         <v>1645</v>
       </c>
-      <c r="H20" s="233">
+      <c r="H20" s="210">
         <f>3148+60+70+1967</f>
         <v>5245</v>
       </c>
-      <c r="I20" s="233">
+      <c r="I20" s="210">
         <f>176+35+40</f>
         <v>251</v>
       </c>
-      <c r="J20" s="233">
+      <c r="J20" s="210">
         <f>714</f>
         <v>714</v>
       </c>
-      <c r="K20" s="233">
+      <c r="K20" s="210">
         <f>8637+68+88</f>
         <v>8793</v>
       </c>
-      <c r="L20" s="234">
+      <c r="L20" s="211">
         <f>1947+1390+343+55+40</f>
         <v>3775</v>
       </c>
-      <c r="M20" s="236">
+      <c r="M20" s="213">
         <v>7231</v>
       </c>
       <c r="N20" s="166"/>
@@ -13546,12 +14349,12 @@
       <c r="R20" s="154"/>
       <c r="U20" s="30"/>
       <c r="V20" s="31"/>
-      <c r="W20" s="265" t="s">
+      <c r="W20" s="254" t="s">
         <v>192</v>
       </c>
-      <c r="X20" s="265"/>
-      <c r="Y20" s="265"/>
-      <c r="Z20" s="266"/>
+      <c r="X20" s="254"/>
+      <c r="Y20" s="254"/>
+      <c r="Z20" s="255"/>
       <c r="AA20" s="22"/>
       <c r="AB20" s="157"/>
       <c r="AC20" s="77"/>
@@ -13598,12 +14401,12 @@
       <c r="C22" s="154"/>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="262" t="s">
+      <c r="H22" s="251" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="263"/>
-      <c r="J22" s="263"/>
-      <c r="K22" s="264"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="252"/>
+      <c r="K22" s="253"/>
       <c r="L22" s="22"/>
       <c r="M22" s="157"/>
       <c r="N22" s="77"/>
@@ -13667,9 +14470,9 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="71"/>
-      <c r="M25" s="230"/>
-      <c r="N25" s="231"/>
-      <c r="O25" s="232"/>
+      <c r="M25" s="207"/>
+      <c r="N25" s="208"/>
+      <c r="O25" s="209"/>
     </row>
     <row r="26" spans="3:31" ht="21" x14ac:dyDescent="0.35">
       <c r="F26" s="5"/>
@@ -13686,17 +14489,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="T2:AB2"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="T14:AB14"/>
     <mergeCell ref="Z15:AB15"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13756,53 +14559,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="205" t="s">
+      <c r="C1" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
       <c r="L1" s="127" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="133"/>
       <c r="N1" s="81"/>
-      <c r="O1" s="218" t="s">
+      <c r="O1" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="219"/>
-      <c r="Q1" s="219"/>
-      <c r="R1" s="219"/>
-      <c r="S1" s="219"/>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
+      <c r="T1" s="248"/>
+      <c r="U1" s="248"/>
+      <c r="V1" s="248"/>
+      <c r="W1" s="248"/>
       <c r="X1" s="128" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="209" t="s">
+      <c r="I2" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="211"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="240"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
       <c r="P2"/>
-      <c r="V2" s="209" t="s">
+      <c r="V2" s="238" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="210"/>
-      <c r="X2" s="211"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="240"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -14461,12 +15264,12 @@
     <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="212">
+      <c r="F20" s="241">
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
         <v>14572.5</v>
       </c>
-      <c r="G20" s="213"/>
-      <c r="H20" s="214"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="243"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -14477,12 +15280,12 @@
       <c r="P20"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="215">
+      <c r="S20" s="244">
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>21274</v>
       </c>
-      <c r="T20" s="216"/>
-      <c r="U20" s="217"/>
+      <c r="T20" s="245"/>
+      <c r="U20" s="246"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="224">
   <si>
     <t>FECHA</t>
   </si>
@@ -673,6 +673,54 @@
   </si>
   <si>
     <t>AGUA</t>
+  </si>
+  <si>
+    <t># 05</t>
+  </si>
+  <si>
+    <t>del       14--- al  20    OCTUBRE-2023</t>
+  </si>
+  <si>
+    <t>14--AL---20--Octubre-23</t>
+  </si>
+  <si>
+    <t>Jamon-pechuga-pollo-queso-mole-gouda-crema lala-tostadas-salchicha-chicharron-tocino-brocheta</t>
+  </si>
+  <si>
+    <t>papa-calabaza-chayote-zanahoria-poblano-chicharo-cebolla-tampico-serrano-ajo-pimiento-champiñones-pepinos-limon-tomate-jitomate</t>
+  </si>
+  <si>
+    <t>brocoli-cilantro-epazote-telimon-poro-romana-laurel-hojas aguacate-perejil</t>
+  </si>
+  <si>
+    <t>Leche-Knorzuisa-yogurt-arroz servilletas-limpiador estufa</t>
+  </si>
+  <si>
+    <t>jamaica -costeño-tamarindo-guajillo</t>
+  </si>
+  <si>
+    <t>sandias--guayaba--piñas-limon--papaya</t>
+  </si>
+  <si>
+    <t>Tortillas</t>
+  </si>
+  <si>
+    <t>Pollo-Mole-quesos-jamon-Salchicha-Pechuga-crema -tostadas-chicharron--tocino-brocheta</t>
+  </si>
+  <si>
+    <t>Tomate-papa-chayote-calabaza-ejote-cebolla-ajo-poblano-pepino-melon-sandia-papaya-pimineto-champiñones--jitomate--aguacate</t>
+  </si>
+  <si>
+    <t>Sandias--Limon--Papaya</t>
+  </si>
+  <si>
+    <t>Perejil-Epazote--Romanas--Brocolis</t>
+  </si>
+  <si>
+    <t>Elote--Leche Lala--Italpasatas--Arroz --Crema Alpura--</t>
+  </si>
+  <si>
+    <t>Chiles  Morita--Costeño--Chile Ancho-Pulla-Jamaica-frijol</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2265,6 +2313,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2364,8 +2415,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2717,34 +2774,34 @@
     <row r="1" spans="2:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="126" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="122"/>
-      <c r="C2" s="262" t="s">
+      <c r="C2" s="263" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
       <c r="L2" s="123"/>
       <c r="M2" s="124"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
-      <c r="P2" s="264" t="s">
+      <c r="P2" s="265" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="265"/>
-      <c r="S2" s="265"/>
-      <c r="T2" s="265"/>
-      <c r="U2" s="265"/>
-      <c r="V2" s="265"/>
-      <c r="W2" s="265"/>
-      <c r="X2" s="265"/>
-      <c r="Y2" s="265"/>
-      <c r="Z2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="266"/>
+      <c r="S2" s="266"/>
+      <c r="T2" s="266"/>
+      <c r="U2" s="266"/>
+      <c r="V2" s="266"/>
+      <c r="W2" s="266"/>
+      <c r="X2" s="266"/>
+      <c r="Y2" s="266"/>
+      <c r="Z2" s="267"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="37"/>
@@ -3695,12 +3752,12 @@
     <row r="19" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="241">
+      <c r="F19" s="242">
         <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
         <v>50513</v>
       </c>
-      <c r="G19" s="242"/>
-      <c r="H19" s="243"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="244"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -3710,12 +3767,12 @@
       <c r="O19" s="74"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="244">
+      <c r="T19" s="245">
         <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
         <v>78100</v>
       </c>
-      <c r="U19" s="245"/>
-      <c r="V19" s="246"/>
+      <c r="U19" s="246"/>
+      <c r="V19" s="247"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -3850,32 +3907,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="234" t="s">
+      <c r="B2" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="247" t="s">
+      <c r="M2" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="248"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="248"/>
-      <c r="Q2" s="248"/>
-      <c r="R2" s="248"/>
-      <c r="S2" s="248"/>
-      <c r="T2" s="248"/>
-      <c r="U2" s="248"/>
-      <c r="V2" s="248"/>
-      <c r="W2" s="256"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="257"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -5134,12 +5191,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="241">
+      <c r="E30" s="242">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="242"/>
-      <c r="G30" s="243"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="244"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5147,12 +5204,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="244">
+      <c r="Q30" s="245">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="245"/>
-      <c r="S30" s="246"/>
+      <c r="R30" s="246"/>
+      <c r="S30" s="247"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -5273,10 +5330,10 @@
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
-  <dimension ref="B1:AA106"/>
+  <dimension ref="B1:AA137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5297,55 +5354,55 @@
     <row r="1" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="234" t="s">
+      <c r="C2" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
       <c r="L2" s="128" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="236" t="s">
+      <c r="O2" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="238"/>
+      <c r="V2" s="238"/>
+      <c r="W2" s="238"/>
       <c r="X2" s="190" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="238" t="s">
-        <v>194</v>
-      </c>
-      <c r="J3" s="239"/>
-      <c r="K3" s="240"/>
+      <c r="I3" s="239" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="240"/>
+      <c r="K3" s="241"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="238" t="str">
+      <c r="V3" s="239" t="str">
         <f>I3</f>
-        <v>del       07--- al  13    OCTUBRE-2023</v>
-      </c>
-      <c r="W3" s="239"/>
-      <c r="X3" s="240"/>
+        <v>del       14--- al  20    OCTUBRE-2023</v>
+      </c>
+      <c r="W3" s="240"/>
+      <c r="X3" s="241"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -5414,12 +5471,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="267" t="s">
-        <v>202</v>
+        <v>210</v>
+      </c>
+      <c r="C5" s="234" t="s">
+        <v>218</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -5429,17 +5486,17 @@
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
       <c r="K5" s="72">
-        <f>1358+469+1088+1049</f>
-        <v>3964</v>
+        <f>1005+1010+294+788+560+1996</f>
+        <v>5653</v>
       </c>
       <c r="L5" s="71"/>
       <c r="M5" s="131"/>
       <c r="N5" s="74"/>
       <c r="O5" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P5" s="86" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="72"/>
       <c r="R5" s="72"/>
@@ -5449,22 +5506,22 @@
       <c r="V5" s="72"/>
       <c r="W5" s="72"/>
       <c r="X5" s="72">
-        <f>1592+544+1586+1136</f>
-        <v>4858</v>
+        <f>2155+252+2415+527+2054</f>
+        <v>7403</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67">
-        <f>2134+45+70+55+30+90</f>
-        <v>2424</v>
+        <f>960+275+300+595+65</f>
+        <v>2195</v>
       </c>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
@@ -5475,16 +5532,16 @@
       <c r="M6" s="131"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P6" s="89" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="Q6" s="72"/>
       <c r="R6" s="72"/>
       <c r="S6" s="72">
-        <f>2864+30+45+50+60+20</f>
-        <v>3069</v>
+        <f>1030+275+375+23+23+15+480+595</f>
+        <v>2816</v>
       </c>
       <c r="T6" s="72"/>
       <c r="U6" s="72"/>
@@ -5494,14 +5551,14 @@
     </row>
     <row r="7" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D7" s="67">
-        <f>115+195+65+217+150+214</f>
-        <v>956</v>
+        <f>200+23+13+212</f>
+        <v>448</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
@@ -5514,18 +5571,18 @@
       <c r="M7" s="131"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P7" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7" s="72">
-        <f>271+240+310</f>
-        <v>821</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="Q7" s="72"/>
       <c r="R7" s="72"/>
       <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
+      <c r="T7" s="72">
+        <f>105+40+60+5</f>
+        <v>210</v>
+      </c>
       <c r="U7" s="72"/>
       <c r="V7" s="72"/>
       <c r="W7" s="72"/>
@@ -5533,29 +5590,29 @@
     </row>
     <row r="8" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="F8" s="67">
+        <v>66</v>
+      </c>
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
-      <c r="J8" s="67">
-        <v>112</v>
-      </c>
+      <c r="J8" s="67"/>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
       <c r="M8" s="131"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P8" s="89" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="72"/>
       <c r="R8" s="72"/>
@@ -5564,41 +5621,41 @@
       <c r="U8" s="72"/>
       <c r="V8" s="72"/>
       <c r="W8" s="72">
-        <f>393+1291+64.5+360+302</f>
-        <v>2410.5</v>
+        <f>664.5+127+26+500+841</f>
+        <v>2158.5</v>
       </c>
       <c r="X8" s="67"/>
     </row>
     <row r="9" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
-      <c r="I9" s="67">
-        <v>704</v>
-      </c>
-      <c r="J9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67">
+        <f>1004</f>
+        <v>1004</v>
+      </c>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P9" s="89" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="Q9" s="72"/>
       <c r="R9" s="72">
-        <f>941+931</f>
-        <v>1872</v>
+        <v>851</v>
       </c>
       <c r="S9" s="72"/>
       <c r="T9" s="72"/>
@@ -5609,46 +5666,44 @@
     </row>
     <row r="10" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
+      <c r="E10" s="67">
+        <v>759</v>
+      </c>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
-      <c r="J10" s="67">
-        <f>266+1719+26+38+264</f>
-        <v>2313</v>
-      </c>
+      <c r="J10" s="67"/>
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="131"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P10" s="195" t="s">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="72"/>
       <c r="R10" s="72"/>
       <c r="S10" s="72"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72">
-        <f>170+204+204+204</f>
-        <v>782</v>
-      </c>
+      <c r="U10" s="72">
+        <v>805</v>
+      </c>
+      <c r="V10" s="72"/>
       <c r="W10" s="72"/>
       <c r="X10" s="67"/>
     </row>
     <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>96</v>
@@ -5658,8 +5713,8 @@
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67">
-        <f>17+68+68+85+68</f>
-        <v>306</v>
+        <f>85+68+255+85</f>
+        <v>493</v>
       </c>
       <c r="I11" s="67"/>
       <c r="J11" s="94"/>
@@ -5668,18 +5723,19 @@
       <c r="M11" s="131"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P11" s="194" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="72"/>
+        <v>216</v>
+      </c>
+      <c r="Q11" s="72">
+        <f>268+220+240+50+265</f>
+        <v>1043</v>
+      </c>
       <c r="R11" s="72"/>
       <c r="S11" s="72"/>
       <c r="T11" s="72"/>
-      <c r="U11" s="72">
-        <v>704</v>
-      </c>
+      <c r="U11" s="72"/>
       <c r="V11" s="72"/>
       <c r="W11" s="72"/>
       <c r="X11" s="67"/>
@@ -5687,7 +5743,7 @@
     </row>
     <row r="12" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>11</v>
@@ -5707,7 +5763,7 @@
       <c r="M12" s="131"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P12" s="194" t="s">
         <v>140</v>
@@ -5718,15 +5774,15 @@
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
       <c r="V12" s="72">
-        <f>750+750+760+1335</f>
-        <v>3595</v>
+        <f>750+750+750+1532</f>
+        <v>3782</v>
       </c>
       <c r="W12" s="72"/>
       <c r="X12" s="67"/>
     </row>
     <row r="13" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C13" s="95" t="s">
         <v>207</v>
@@ -5745,20 +5801,20 @@
       <c r="M13" s="131"/>
       <c r="N13" s="74"/>
       <c r="O13" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P13" s="192" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
       <c r="S13" s="72"/>
-      <c r="T13" s="72">
-        <f>115+30</f>
-        <v>145</v>
-      </c>
+      <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="72">
+        <f>204+170+272+204+204</f>
+        <v>1054</v>
+      </c>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
     </row>
@@ -5896,15 +5952,15 @@
       </c>
       <c r="D19" s="30">
         <f>SUM(D5:D18)</f>
-        <v>956</v>
+        <v>448</v>
       </c>
       <c r="E19" s="30">
         <f t="shared" ref="E19:L19" si="0">SUM(E5:E18)</f>
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>2424</v>
+        <v>2261</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" si="0"/>
@@ -5912,19 +5968,19 @@
       </c>
       <c r="H19" s="30">
         <f t="shared" si="0"/>
-        <v>1386</v>
+        <v>1573</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="0"/>
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" si="0"/>
-        <v>2425</v>
+        <v>1004</v>
       </c>
       <c r="K19" s="30">
         <f t="shared" si="0"/>
-        <v>3964</v>
+        <v>5653</v>
       </c>
       <c r="L19" s="30">
         <f t="shared" si="0"/>
@@ -5938,35 +5994,35 @@
       </c>
       <c r="Q19" s="21">
         <f t="shared" ref="Q19:X19" si="1">SUM(Q5:Q18)</f>
-        <v>821</v>
+        <v>1043</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" si="1"/>
-        <v>1872</v>
+        <v>851</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="1"/>
-        <v>3069</v>
+        <v>2816</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="U19" s="21">
         <f t="shared" si="1"/>
-        <v>704</v>
+        <v>805</v>
       </c>
       <c r="V19" s="21">
         <f t="shared" si="1"/>
-        <v>4377</v>
+        <v>4836</v>
       </c>
       <c r="W19" s="21">
         <f t="shared" si="1"/>
-        <v>2410.5</v>
+        <v>2158.5</v>
       </c>
       <c r="X19" s="21">
         <f t="shared" si="1"/>
-        <v>4858</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5998,12 +6054,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="241">
+      <c r="F21" s="242">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
-        <v>12359</v>
-      </c>
-      <c r="G21" s="242"/>
-      <c r="H21" s="243"/>
+        <v>12198</v>
+      </c>
+      <c r="G21" s="243"/>
+      <c r="H21" s="244"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -6013,525 +6069,465 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="244">
+      <c r="S21" s="245">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
-        <v>18256.5</v>
-      </c>
-      <c r="T21" s="245"/>
-      <c r="U21" s="246"/>
+        <v>20122.5</v>
+      </c>
+      <c r="T21" s="246"/>
+      <c r="U21" s="247"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+    <row r="22" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="268"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="269"/>
+      <c r="G22" s="270"/>
+      <c r="H22" s="270"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
       <c r="L22" s="71"/>
       <c r="M22" s="74"/>
       <c r="N22" s="74"/>
-      <c r="O22" s="7"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-    </row>
-    <row r="27" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="7"/>
-      <c r="C28" s="234" t="s">
+      <c r="O22" s="268"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="269"/>
+      <c r="T22" s="270"/>
+      <c r="U22" s="270"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+    </row>
+    <row r="23" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="268"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="269"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="270"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="268"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="269"/>
+      <c r="T23" s="270"/>
+      <c r="U23" s="270"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+    </row>
+    <row r="24" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="268"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="269"/>
+      <c r="G24" s="270"/>
+      <c r="H24" s="270"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="268"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="269"/>
+      <c r="T24" s="270"/>
+      <c r="U24" s="270"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+    </row>
+    <row r="25" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="268"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="269"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="270"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="268"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="269"/>
+      <c r="T25" s="270"/>
+      <c r="U25" s="270"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+    </row>
+    <row r="26" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="268"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="269"/>
+      <c r="G26" s="270"/>
+      <c r="H26" s="270"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="268"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="269"/>
+      <c r="T26" s="270"/>
+      <c r="U26" s="270"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="7"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="32" spans="2:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="7"/>
+      <c r="C33" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="235"/>
-      <c r="E28" s="235"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="235"/>
-      <c r="H28" s="235"/>
-      <c r="I28" s="235"/>
-      <c r="J28" s="235"/>
-      <c r="K28" s="235"/>
-      <c r="L28" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" s="133"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="236" t="s">
+      <c r="D33" s="236"/>
+      <c r="E33" s="236"/>
+      <c r="F33" s="236"/>
+      <c r="G33" s="236"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="236"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="236"/>
+      <c r="L33" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="133"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="237"/>
-      <c r="Q28" s="237"/>
-      <c r="R28" s="237"/>
-      <c r="S28" s="237"/>
-      <c r="T28" s="237"/>
-      <c r="U28" s="237"/>
-      <c r="V28" s="237"/>
-      <c r="W28" s="237"/>
-      <c r="X28" s="190" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="1"/>
-      <c r="I29" s="238" t="s">
-        <v>167</v>
-      </c>
-      <c r="J29" s="239"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="7"/>
-      <c r="V29" s="238" t="str">
-        <f>I29</f>
-        <v>del       30--- al  06    OCTUBRE-2023</v>
-      </c>
-      <c r="W29" s="239"/>
-      <c r="X29" s="240"/>
-    </row>
-    <row r="30" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="24" t="s">
+      <c r="P33" s="238"/>
+      <c r="Q33" s="238"/>
+      <c r="R33" s="238"/>
+      <c r="S33" s="238"/>
+      <c r="T33" s="238"/>
+      <c r="U33" s="238"/>
+      <c r="V33" s="238"/>
+      <c r="W33" s="238"/>
+      <c r="X33" s="190" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="1"/>
+      <c r="I34" s="239" t="s">
+        <v>194</v>
+      </c>
+      <c r="J34" s="240"/>
+      <c r="K34" s="241"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="7"/>
+      <c r="V34" s="239" t="str">
+        <f>I34</f>
+        <v>del       07--- al  13    OCTUBRE-2023</v>
+      </c>
+      <c r="W34" s="240"/>
+      <c r="X34" s="241"/>
+    </row>
+    <row r="35" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D35" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F35" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G35" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H35" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="184" t="s">
+      <c r="I35" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J35" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="183" t="s">
+      <c r="K35" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="99" t="s">
+      <c r="L35" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M30" s="135"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="143" t="s">
+      <c r="M35" s="135"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q30" s="137" t="s">
+      <c r="Q35" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R30" s="138" t="s">
+      <c r="R35" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S30" s="138" t="s">
+      <c r="S35" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="T30" s="137" t="s">
+      <c r="T35" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U30" s="137" t="s">
+      <c r="U35" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V30" s="141" t="s">
+      <c r="V35" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W30" s="136" t="s">
+      <c r="W35" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X30" s="142" t="s">
+      <c r="X35" s="142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:24" ht="60" x14ac:dyDescent="0.25">
-      <c r="B31" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="104">
-        <f>1150+1167+1554+234+1684</f>
-        <v>5789</v>
-      </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P31" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="104">
-        <f>1459+1661+1598+779+1647</f>
-        <v>7144</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="105">
-        <f>45+18+1601+60+30</f>
-        <v>1754</v>
-      </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P32" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="104">
-        <f>30+70+56+1967+36+60</f>
-        <v>2219</v>
-      </c>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="67"/>
-    </row>
-    <row r="33" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="105">
-        <f>220+221+100+155+190</f>
-        <v>886</v>
-      </c>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P33" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q33" s="104">
-        <f>200+100+253+35+215</f>
-        <v>803</v>
-      </c>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="67"/>
-    </row>
-    <row r="34" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="105">
-        <v>15</v>
-      </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P34" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="104">
-        <f>1390+343+55+40+88</f>
-        <v>1916</v>
-      </c>
-      <c r="X34" s="67"/>
-    </row>
-    <row r="35" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="105">
-        <v>352</v>
-      </c>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P35" s="194" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="104">
-        <v>590</v>
-      </c>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="67"/>
-    </row>
-    <row r="36" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="105">
-        <f>578+127</f>
-        <v>705</v>
-      </c>
-      <c r="K36" s="67"/>
-      <c r="L36" s="11"/>
+        <v>201</v>
+      </c>
+      <c r="C36" s="234" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72">
+        <f>1358+469+1088+1049</f>
+        <v>3964</v>
+      </c>
+      <c r="L36" s="71"/>
       <c r="M36" s="131"/>
       <c r="N36" s="74"/>
       <c r="O36" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P36" s="195" t="s">
-        <v>164</v>
+        <v>201</v>
+      </c>
+      <c r="P36" s="86" t="s">
+        <v>195</v>
       </c>
       <c r="Q36" s="72"/>
       <c r="R36" s="72"/>
       <c r="S36" s="72"/>
       <c r="T36" s="72"/>
       <c r="U36" s="72"/>
-      <c r="V36" s="104">
-        <f>68+238+204+204+270+238</f>
-        <v>1222</v>
-      </c>
+      <c r="V36" s="72"/>
       <c r="W36" s="72"/>
-      <c r="X36" s="67"/>
-    </row>
-    <row r="37" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="72">
+        <f>1592+544+1586+1136</f>
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="D37" s="67"/>
-      <c r="E37" s="105">
-        <f>180+641</f>
-        <v>821</v>
-      </c>
-      <c r="F37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67">
+        <f>2134+45+70+55+30+90</f>
+        <v>2424</v>
+      </c>
       <c r="G37" s="67"/>
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
-      <c r="J37" s="94"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="67"/>
-      <c r="L37" s="11"/>
+      <c r="L37" s="67"/>
       <c r="M37" s="131"/>
       <c r="N37" s="74"/>
       <c r="O37" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P37" s="194" t="s">
-        <v>4</v>
+        <v>201</v>
+      </c>
+      <c r="P37" s="89" t="s">
+        <v>196</v>
       </c>
       <c r="Q37" s="72"/>
       <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
+      <c r="S37" s="72">
+        <f>2864+30+45+50+60+20</f>
+        <v>3069</v>
+      </c>
       <c r="T37" s="72"/>
-      <c r="U37" s="104">
-        <v>714</v>
-      </c>
+      <c r="U37" s="72"/>
       <c r="V37" s="72"/>
       <c r="W37" s="72"/>
       <c r="X37" s="67"/>
-      <c r="Y37" s="129"/>
-    </row>
-    <row r="38" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="67"/>
+        <v>201</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="67">
+        <f>115+195+65+217+150+214</f>
+        <v>956</v>
+      </c>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
-      <c r="H38" s="105">
-        <f>51+204+85+85+68+68</f>
-        <v>561</v>
-      </c>
+      <c r="H38" s="67"/>
       <c r="I38" s="67"/>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
-      <c r="L38" s="11"/>
+      <c r="L38" s="67"/>
       <c r="M38" s="131"/>
       <c r="N38" s="74"/>
       <c r="O38" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P38" s="194" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q38" s="72"/>
+        <v>201</v>
+      </c>
+      <c r="P38" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q38" s="72">
+        <f>271+240+310</f>
+        <v>821</v>
+      </c>
       <c r="R38" s="72"/>
       <c r="S38" s="72"/>
       <c r="T38" s="72"/>
       <c r="U38" s="72"/>
-      <c r="V38" s="104">
-        <f>2650+700+700+710</f>
-        <v>4760</v>
-      </c>
+      <c r="V38" s="72"/>
       <c r="W38" s="72"/>
       <c r="X38" s="67"/>
     </row>
-    <row r="39" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="95" t="s">
-        <v>11</v>
+        <v>201</v>
+      </c>
+      <c r="C39" s="96" t="s">
+        <v>205</v>
       </c>
       <c r="D39" s="67"/>
       <c r="E39" s="67"/>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
-      <c r="H39" s="105">
-        <f>380+380+470</f>
-        <v>1230</v>
-      </c>
+      <c r="H39" s="67"/>
       <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="J39" s="67">
+        <v>112</v>
+      </c>
       <c r="K39" s="67"/>
-      <c r="L39" s="11"/>
+      <c r="L39" s="67"/>
       <c r="M39" s="131"/>
       <c r="N39" s="74"/>
       <c r="O39" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P39" s="192" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="P39" s="89" t="s">
+        <v>198</v>
       </c>
       <c r="Q39" s="72"/>
       <c r="R39" s="72"/>
       <c r="S39" s="72"/>
-      <c r="T39" s="104">
-        <f>40+35</f>
-        <v>75</v>
-      </c>
+      <c r="T39" s="72"/>
       <c r="U39" s="72"/>
       <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
+      <c r="W39" s="72">
+        <f>393+1291+64.5+360+302</f>
+        <v>2410.5</v>
+      </c>
       <c r="X39" s="67"/>
     </row>
-    <row r="40" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="93"/>
-      <c r="C40" s="42"/>
+    <row r="40" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>172</v>
+      </c>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
       <c r="F40" s="67"/>
       <c r="G40" s="67"/>
       <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
+      <c r="I40" s="67">
+        <v>704</v>
+      </c>
       <c r="J40" s="67"/>
       <c r="K40" s="67"/>
-      <c r="L40" s="11"/>
+      <c r="L40" s="67"/>
       <c r="M40" s="131"/>
       <c r="N40" s="74"/>
-      <c r="O40" s="191"/>
-      <c r="P40" s="193"/>
+      <c r="O40" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P40" s="89" t="s">
+        <v>199</v>
+      </c>
       <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
+      <c r="R40" s="72">
+        <f>941+931</f>
+        <v>1872</v>
+      </c>
       <c r="S40" s="72"/>
       <c r="T40" s="72"/>
       <c r="U40" s="72"/>
@@ -6539,656 +6535,707 @@
       <c r="W40" s="72"/>
       <c r="X40" s="67"/>
     </row>
-    <row r="41" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="93"/>
-      <c r="C41" s="95"/>
+    <row r="41" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>206</v>
+      </c>
       <c r="D41" s="67"/>
       <c r="E41" s="67"/>
       <c r="F41" s="67"/>
       <c r="G41" s="67"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
+      <c r="J41" s="67">
+        <f>266+1719+26+38+264</f>
+        <v>2313</v>
+      </c>
       <c r="K41" s="67"/>
-      <c r="L41" s="11"/>
+      <c r="L41" s="67"/>
       <c r="M41" s="131"/>
       <c r="N41" s="74"/>
-      <c r="O41" s="93"/>
-      <c r="P41" s="88"/>
+      <c r="O41" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P41" s="195" t="s">
+        <v>164</v>
+      </c>
       <c r="Q41" s="72"/>
       <c r="R41" s="72"/>
       <c r="S41" s="72"/>
       <c r="T41" s="72"/>
       <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
+      <c r="V41" s="72">
+        <f>170+204+204+204</f>
+        <v>782</v>
+      </c>
       <c r="W41" s="72"/>
       <c r="X41" s="67"/>
     </row>
-    <row r="42" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="93"/>
-      <c r="C42" s="10"/>
+    <row r="42" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>96</v>
+      </c>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
+      <c r="H42" s="67">
+        <f>17+68+68+85+68</f>
+        <v>306</v>
+      </c>
       <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="J42" s="94"/>
       <c r="K42" s="67"/>
-      <c r="L42" s="11"/>
+      <c r="L42" s="67"/>
       <c r="M42" s="131"/>
       <c r="N42" s="74"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
-      <c r="U42" s="67"/>
-      <c r="V42" s="67"/>
-      <c r="W42" s="67"/>
+      <c r="O42" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P42" s="194" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72">
+        <v>704</v>
+      </c>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
       <c r="X42" s="67"/>
-    </row>
-    <row r="43" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="93"/>
-      <c r="C43" s="10"/>
+      <c r="Y42" s="129"/>
+    </row>
+    <row r="43" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="D43" s="67"/>
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
+      <c r="H43" s="67">
+        <f>330+330+420</f>
+        <v>1080</v>
+      </c>
       <c r="I43" s="67"/>
       <c r="J43" s="67"/>
       <c r="K43" s="67"/>
-      <c r="L43" s="11"/>
+      <c r="L43" s="67"/>
       <c r="M43" s="131"/>
       <c r="N43" s="74"/>
-      <c r="O43" s="93"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
+      <c r="O43" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P43" s="194" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72">
+        <f>750+750+760+1335</f>
+        <v>3595</v>
+      </c>
+      <c r="W43" s="72"/>
       <c r="X43" s="67"/>
     </row>
-    <row r="44" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="9"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="73"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="20"/>
+    <row r="44" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67">
+        <v>500</v>
+      </c>
       <c r="M44" s="131"/>
       <c r="N44" s="74"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="73">
-        <v>0</v>
-      </c>
-      <c r="R44" s="73"/>
-      <c r="S44" s="73"/>
-      <c r="T44" s="73"/>
-      <c r="U44" s="73"/>
-      <c r="V44" s="73"/>
-      <c r="W44" s="73"/>
-      <c r="X44" s="73"/>
-    </row>
-    <row r="45" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="35" t="s">
+      <c r="O44" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P44" s="192" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72">
+        <f>115+30</f>
+        <v>145</v>
+      </c>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="67"/>
+    </row>
+    <row r="45" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="93"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="191"/>
+      <c r="P45" s="193"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="67"/>
+    </row>
+    <row r="46" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="93"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="67"/>
+    </row>
+    <row r="47" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="93"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="67"/>
+      <c r="V47" s="67"/>
+      <c r="W47" s="67"/>
+      <c r="X47" s="67"/>
+    </row>
+    <row r="48" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="93"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="91"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="67"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="67"/>
+      <c r="X48" s="67"/>
+    </row>
+    <row r="49" spans="2:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="73">
+        <v>0</v>
+      </c>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+    </row>
+    <row r="50" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="30">
-        <f>SUM(D31:D44)</f>
-        <v>886</v>
-      </c>
-      <c r="E45" s="30">
-        <f t="shared" ref="E45:L45" si="2">SUM(E31:E44)</f>
+      <c r="D50" s="30">
+        <f>SUM(D36:D49)</f>
+        <v>956</v>
+      </c>
+      <c r="E50" s="30">
+        <f t="shared" ref="E50:L50" si="2">SUM(E36:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="30">
+        <f t="shared" si="2"/>
+        <v>2424</v>
+      </c>
+      <c r="G50" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="30">
+        <f t="shared" si="2"/>
+        <v>1386</v>
+      </c>
+      <c r="I50" s="30">
+        <f t="shared" si="2"/>
+        <v>704</v>
+      </c>
+      <c r="J50" s="30">
+        <f t="shared" si="2"/>
+        <v>2425</v>
+      </c>
+      <c r="K50" s="30">
+        <f t="shared" si="2"/>
+        <v>3964</v>
+      </c>
+      <c r="L50" s="30">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="M50" s="132"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q50" s="21">
+        <f t="shared" ref="Q50:X50" si="3">SUM(Q36:Q49)</f>
         <v>821</v>
       </c>
-      <c r="F45" s="30">
-        <f t="shared" si="2"/>
-        <v>1754</v>
-      </c>
-      <c r="G45" s="30">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H45" s="30">
-        <f t="shared" si="2"/>
-        <v>1791</v>
-      </c>
-      <c r="I45" s="30">
-        <f t="shared" si="2"/>
-        <v>352</v>
-      </c>
-      <c r="J45" s="30">
-        <f t="shared" si="2"/>
-        <v>705</v>
-      </c>
-      <c r="K45" s="30">
-        <f t="shared" si="2"/>
+      <c r="R50" s="21">
+        <f t="shared" si="3"/>
+        <v>1872</v>
+      </c>
+      <c r="S50" s="21">
+        <f t="shared" si="3"/>
+        <v>3069</v>
+      </c>
+      <c r="T50" s="21">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="U50" s="21">
+        <f t="shared" si="3"/>
+        <v>704</v>
+      </c>
+      <c r="V50" s="21">
+        <f t="shared" si="3"/>
+        <v>4377</v>
+      </c>
+      <c r="W50" s="21">
+        <f t="shared" si="3"/>
+        <v>2410.5</v>
+      </c>
+      <c r="X50" s="21">
+        <f t="shared" si="3"/>
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="7"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="7"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+    </row>
+    <row r="52" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="7"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="242">
+        <f>K50+J50+I50+H50+G50+F50+E50+D50+L50</f>
+        <v>12359</v>
+      </c>
+      <c r="G52" s="243"/>
+      <c r="H52" s="244"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="7"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="245">
+        <f>Q50+R50+S50+T50+U50+V50+W50+X50</f>
+        <v>18256.5</v>
+      </c>
+      <c r="T52" s="246"/>
+      <c r="U52" s="247"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="7"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+    </row>
+    <row r="58" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="7"/>
+      <c r="C59" s="235" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="236"/>
+      <c r="E59" s="236"/>
+      <c r="F59" s="236"/>
+      <c r="G59" s="236"/>
+      <c r="H59" s="236"/>
+      <c r="I59" s="236"/>
+      <c r="J59" s="236"/>
+      <c r="K59" s="236"/>
+      <c r="L59" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="M59" s="133"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="237" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" s="238"/>
+      <c r="Q59" s="238"/>
+      <c r="R59" s="238"/>
+      <c r="S59" s="238"/>
+      <c r="T59" s="238"/>
+      <c r="U59" s="238"/>
+      <c r="V59" s="238"/>
+      <c r="W59" s="238"/>
+      <c r="X59" s="190" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="7"/>
+      <c r="C60" s="1"/>
+      <c r="I60" s="239" t="s">
+        <v>167</v>
+      </c>
+      <c r="J60" s="240"/>
+      <c r="K60" s="241"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="134"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="7"/>
+      <c r="V60" s="239" t="str">
+        <f>I60</f>
+        <v>del       30--- al  06    OCTUBRE-2023</v>
+      </c>
+      <c r="W60" s="240"/>
+      <c r="X60" s="241"/>
+    </row>
+    <row r="61" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="L61" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M61" s="135"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R61" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S61" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T61" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="U61" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="V61" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W61" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X61" s="142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="B62" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="104">
+        <f>1150+1167+1554+234+1684</f>
         <v>5789</v>
       </c>
-      <c r="L45" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="132"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q45" s="21">
-        <f t="shared" ref="Q45:X45" si="3">SUM(Q31:Q44)</f>
-        <v>803</v>
-      </c>
-      <c r="R45" s="21">
-        <f t="shared" si="3"/>
-        <v>590</v>
-      </c>
-      <c r="S45" s="21">
-        <f t="shared" si="3"/>
-        <v>2219</v>
-      </c>
-      <c r="T45" s="21">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="U45" s="21">
-        <f t="shared" si="3"/>
-        <v>714</v>
-      </c>
-      <c r="V45" s="21">
-        <f t="shared" si="3"/>
-        <v>5982</v>
-      </c>
-      <c r="W45" s="21">
-        <f t="shared" si="3"/>
-        <v>1916</v>
-      </c>
-      <c r="X45" s="21">
-        <f t="shared" si="3"/>
-        <v>7144</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="7"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-    </row>
-    <row r="47" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="7"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="241">
-        <f>K45+J45+I45+H45+G45+F45+E45+D45+L45</f>
-        <v>12113</v>
-      </c>
-      <c r="G47" s="242"/>
-      <c r="H47" s="243"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="7"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="244">
-        <f>Q45+R45+S45+T45+U45+V45+W45+X45</f>
-        <v>19443</v>
-      </c>
-      <c r="T47" s="245"/>
-      <c r="U47" s="246"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="7"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-    </row>
-    <row r="55" spans="2:24" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="7"/>
-      <c r="C55" s="1"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="188"/>
-      <c r="P55" s="189"/>
-      <c r="Q55" s="189"/>
-      <c r="R55" s="189"/>
-      <c r="S55" s="189"/>
-      <c r="T55" s="189"/>
-      <c r="U55" s="189"/>
-      <c r="V55" s="189"/>
-      <c r="W55" s="189"/>
-      <c r="X55" s="189"/>
-    </row>
-    <row r="56" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="7"/>
-      <c r="C56" s="234" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="235"/>
-      <c r="E56" s="235"/>
-      <c r="F56" s="235"/>
-      <c r="G56" s="235"/>
-      <c r="H56" s="235"/>
-      <c r="I56" s="235"/>
-      <c r="J56" s="235"/>
-      <c r="K56" s="235"/>
-      <c r="L56" s="185" t="s">
-        <v>42</v>
-      </c>
-      <c r="M56" s="133"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="236" t="s">
-        <v>19</v>
-      </c>
-      <c r="P56" s="237"/>
-      <c r="Q56" s="237"/>
-      <c r="R56" s="237"/>
-      <c r="S56" s="237"/>
-      <c r="T56" s="237"/>
-      <c r="U56" s="237"/>
-      <c r="V56" s="237"/>
-      <c r="W56" s="237"/>
-      <c r="X56" s="187" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="7"/>
-      <c r="C57" s="1"/>
-      <c r="I57" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="J57" s="239"/>
-      <c r="K57" s="240"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="134"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="7"/>
-      <c r="V57" s="238" t="s">
-        <v>151</v>
-      </c>
-      <c r="W57" s="239"/>
-      <c r="X57" s="240"/>
-    </row>
-    <row r="58" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" s="184" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="183" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="M58" s="135"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P58" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="R58" s="138" t="s">
-        <v>16</v>
-      </c>
-      <c r="S58" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="T58" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="U58" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="141" t="s">
-        <v>25</v>
-      </c>
-      <c r="W58" s="136" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58" s="144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72">
-        <f>1777+1054+1013+1333+1334</f>
-        <v>6511</v>
-      </c>
-      <c r="L59" s="70"/>
-      <c r="M59" s="131"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P59" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q59" s="72"/>
-      <c r="R59" s="72"/>
-      <c r="S59" s="72"/>
-      <c r="T59" s="72"/>
-      <c r="U59" s="72"/>
-      <c r="V59" s="72"/>
-      <c r="W59" s="72"/>
-      <c r="X59" s="104">
-        <f>1805+1908+939+1193+1386</f>
-        <v>7231</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67">
-        <f>1970</f>
-        <v>1970</v>
-      </c>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="131"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P60" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q60" s="72"/>
-      <c r="R60" s="72"/>
-      <c r="S60" s="104">
-        <f>3020+87+41</f>
-        <v>3148</v>
-      </c>
-      <c r="T60" s="72"/>
-      <c r="U60" s="72"/>
-      <c r="V60" s="72"/>
-      <c r="W60" s="72"/>
-      <c r="X60" s="67"/>
-    </row>
-    <row r="61" spans="2:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" s="67">
-        <f>85+324+280+202</f>
-        <v>891</v>
-      </c>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="131"/>
-      <c r="N61" s="74"/>
-      <c r="O61" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P61" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q61" s="104">
-        <f>385+160+285</f>
-        <v>830</v>
-      </c>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
-      <c r="V61" s="72"/>
-      <c r="W61" s="72"/>
-      <c r="X61" s="67"/>
-    </row>
-    <row r="62" spans="2:24" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67">
-        <f>55+20</f>
-        <v>75</v>
-      </c>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="11"/>
+      <c r="L62" s="70"/>
       <c r="M62" s="131"/>
       <c r="N62" s="74"/>
       <c r="O62" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P62" s="87" t="s">
-        <v>163</v>
+        <v>168</v>
+      </c>
+      <c r="P62" s="86" t="s">
+        <v>174</v>
       </c>
       <c r="Q62" s="72"/>
       <c r="R62" s="72"/>
       <c r="S62" s="72"/>
-      <c r="T62" s="104">
-        <f>55+121</f>
-        <v>176</v>
-      </c>
+      <c r="T62" s="72"/>
       <c r="U62" s="72"/>
       <c r="V62" s="72"/>
       <c r="W62" s="72"/>
-      <c r="X62" s="67"/>
-    </row>
-    <row r="63" spans="2:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X62" s="104">
+        <f>1459+1661+1598+779+1647</f>
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B63" s="93" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="D63" s="67"/>
       <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
+      <c r="F63" s="105">
+        <f>45+18+1601+60+30</f>
+        <v>1754</v>
+      </c>
       <c r="G63" s="67"/>
       <c r="H63" s="67"/>
       <c r="I63" s="67"/>
       <c r="J63" s="67"/>
       <c r="K63" s="67"/>
-      <c r="L63" s="11">
-        <v>500</v>
-      </c>
+      <c r="L63" s="67"/>
       <c r="M63" s="131"/>
       <c r="N63" s="74"/>
       <c r="O63" s="93" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="P63" s="89" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q63" s="72"/>
-      <c r="R63" s="104">
-        <f>50+443+432+130</f>
-        <v>1055</v>
-      </c>
-      <c r="S63" s="72"/>
+      <c r="R63" s="72"/>
+      <c r="S63" s="104">
+        <f>30+70+56+1967+36+60</f>
+        <v>2219</v>
+      </c>
       <c r="T63" s="72"/>
       <c r="U63" s="72"/>
       <c r="V63" s="72"/>
       <c r="W63" s="72"/>
       <c r="X63" s="67"/>
     </row>
-    <row r="64" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="93" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="67"/>
+        <v>171</v>
+      </c>
+      <c r="D64" s="105">
+        <f>220+221+100+155+190</f>
+        <v>886</v>
+      </c>
       <c r="E64" s="67"/>
       <c r="F64" s="67"/>
       <c r="G64" s="67"/>
       <c r="H64" s="67"/>
-      <c r="I64" s="67">
-        <v>716</v>
-      </c>
+      <c r="I64" s="67"/>
       <c r="J64" s="67"/>
       <c r="K64" s="67"/>
       <c r="L64" s="11"/>
       <c r="M64" s="131"/>
       <c r="N64" s="74"/>
       <c r="O64" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P64" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q64" s="72"/>
+        <v>168</v>
+      </c>
+      <c r="P64" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q64" s="104">
+        <f>200+100+253+35+215</f>
+        <v>803</v>
+      </c>
       <c r="R64" s="72"/>
       <c r="S64" s="72"/>
       <c r="T64" s="72"/>
       <c r="U64" s="72"/>
-      <c r="V64" s="104">
-        <f>170+170+221+170+204</f>
-        <v>935</v>
-      </c>
+      <c r="V64" s="72"/>
       <c r="W64" s="72"/>
       <c r="X64" s="67"/>
     </row>
-    <row r="65" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>158</v>
+        <v>168</v>
+      </c>
+      <c r="C65" s="96" t="s">
+        <v>170</v>
       </c>
       <c r="D65" s="67"/>
       <c r="E65" s="67"/>
       <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
+      <c r="G65" s="105">
+        <v>15</v>
+      </c>
       <c r="H65" s="67"/>
       <c r="I65" s="67"/>
-      <c r="J65" s="94">
-        <f>440+19+261</f>
-        <v>720</v>
-      </c>
+      <c r="J65" s="67"/>
       <c r="K65" s="67"/>
       <c r="L65" s="11"/>
       <c r="M65" s="131"/>
       <c r="N65" s="74"/>
       <c r="O65" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P65" s="87" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="P65" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="Q65" s="72"/>
       <c r="R65" s="72"/>
@@ -7197,75 +7244,74 @@
       <c r="U65" s="72"/>
       <c r="V65" s="72"/>
       <c r="W65" s="104">
-        <f>805+473+669</f>
-        <v>1947</v>
+        <f>1390+343+55+40+88</f>
+        <v>1916</v>
       </c>
       <c r="X65" s="67"/>
-      <c r="Y65" s="129"/>
-    </row>
-    <row r="66" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="204" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="D66" s="67"/>
       <c r="E66" s="67"/>
       <c r="F66" s="67"/>
       <c r="G66" s="67"/>
       <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67">
-        <v>1500</v>
-      </c>
+      <c r="I66" s="105">
+        <v>352</v>
+      </c>
+      <c r="J66" s="67"/>
       <c r="K66" s="67"/>
       <c r="L66" s="11"/>
       <c r="M66" s="131"/>
       <c r="N66" s="74"/>
       <c r="O66" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P66" s="90" t="s">
-        <v>4</v>
+        <v>168</v>
+      </c>
+      <c r="P66" s="194" t="s">
+        <v>176</v>
       </c>
       <c r="Q66" s="72"/>
-      <c r="R66" s="72"/>
+      <c r="R66" s="104">
+        <v>590</v>
+      </c>
       <c r="S66" s="72"/>
       <c r="T66" s="72"/>
       <c r="U66" s="72"/>
-      <c r="V66" s="104">
-        <v>688</v>
-      </c>
+      <c r="V66" s="72"/>
       <c r="W66" s="72"/>
       <c r="X66" s="67"/>
     </row>
-    <row r="67" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="95" t="s">
-        <v>96</v>
+        <v>168</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>177</v>
       </c>
       <c r="D67" s="67"/>
       <c r="E67" s="67"/>
       <c r="F67" s="67"/>
       <c r="G67" s="67"/>
-      <c r="H67" s="67">
-        <f>102+68+238+85+204</f>
-        <v>697</v>
-      </c>
+      <c r="H67" s="67"/>
       <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
+      <c r="J67" s="105">
+        <f>578+127</f>
+        <v>705</v>
+      </c>
       <c r="K67" s="67"/>
       <c r="L67" s="11"/>
       <c r="M67" s="131"/>
       <c r="N67" s="74"/>
       <c r="O67" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P67" s="186" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="P67" s="195" t="s">
+        <v>164</v>
       </c>
       <c r="Q67" s="72"/>
       <c r="R67" s="72"/>
@@ -7273,109 +7319,132 @@
       <c r="T67" s="72"/>
       <c r="U67" s="72"/>
       <c r="V67" s="104">
-        <v>1440</v>
+        <f>68+238+204+204+270+238</f>
+        <v>1222</v>
       </c>
       <c r="W67" s="72"/>
       <c r="X67" s="67"/>
     </row>
-    <row r="68" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>11</v>
+        <v>168</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>173</v>
       </c>
       <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
+      <c r="E68" s="105">
+        <f>180+641</f>
+        <v>821</v>
+      </c>
       <c r="F68" s="67"/>
       <c r="G68" s="67"/>
-      <c r="H68" s="67">
-        <f>380+380+470</f>
-        <v>1230</v>
-      </c>
+      <c r="H68" s="67"/>
       <c r="I68" s="67"/>
-      <c r="J68" s="67"/>
+      <c r="J68" s="94"/>
       <c r="K68" s="67"/>
       <c r="L68" s="11"/>
       <c r="M68" s="131"/>
       <c r="N68" s="74"/>
       <c r="O68" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P68" s="88" t="s">
-        <v>140</v>
+        <v>168</v>
+      </c>
+      <c r="P68" s="194" t="s">
+        <v>4</v>
       </c>
       <c r="Q68" s="72"/>
       <c r="R68" s="72"/>
       <c r="S68" s="72"/>
       <c r="T68" s="72"/>
-      <c r="U68" s="72"/>
-      <c r="V68" s="104">
-        <f>700+700+710+3464</f>
-        <v>5574</v>
-      </c>
+      <c r="U68" s="104">
+        <v>714</v>
+      </c>
+      <c r="V68" s="72"/>
       <c r="W68" s="72"/>
       <c r="X68" s="67"/>
-    </row>
-    <row r="69" spans="2:25" ht="24" x14ac:dyDescent="0.25">
+      <c r="Y68" s="129"/>
+    </row>
+    <row r="69" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="95" t="s">
-        <v>159</v>
+        <v>168</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="D69" s="67"/>
-      <c r="E69" s="67">
-        <v>212</v>
-      </c>
+      <c r="E69" s="67"/>
       <c r="F69" s="67"/>
       <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
+      <c r="H69" s="105">
+        <f>51+204+85+85+68+68</f>
+        <v>561</v>
+      </c>
       <c r="I69" s="67"/>
       <c r="J69" s="67"/>
       <c r="K69" s="67"/>
       <c r="L69" s="11"/>
       <c r="M69" s="131"/>
       <c r="N69" s="74"/>
-      <c r="O69" s="93"/>
-      <c r="P69" s="88"/>
+      <c r="O69" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="P69" s="194" t="s">
+        <v>140</v>
+      </c>
       <c r="Q69" s="72"/>
       <c r="R69" s="72"/>
       <c r="S69" s="72"/>
       <c r="T69" s="72"/>
       <c r="U69" s="72"/>
-      <c r="V69" s="72"/>
+      <c r="V69" s="104">
+        <f>2650+700+700+710</f>
+        <v>4760</v>
+      </c>
       <c r="W69" s="72"/>
       <c r="X69" s="67"/>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B70" s="93"/>
-      <c r="C70" s="10"/>
+    <row r="70" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="95" t="s">
+        <v>11</v>
+      </c>
       <c r="D70" s="67"/>
       <c r="E70" s="67"/>
       <c r="F70" s="67"/>
       <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
+      <c r="H70" s="105">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
       <c r="I70" s="67"/>
       <c r="J70" s="67"/>
       <c r="K70" s="67"/>
       <c r="L70" s="11"/>
       <c r="M70" s="131"/>
       <c r="N70" s="74"/>
-      <c r="O70" s="93"/>
-      <c r="P70" s="91"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="67"/>
-      <c r="S70" s="67"/>
-      <c r="T70" s="67"/>
-      <c r="U70" s="67"/>
-      <c r="V70" s="67"/>
-      <c r="W70" s="67"/>
+      <c r="O70" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="P70" s="192" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="104">
+        <f>40+35</f>
+        <v>75</v>
+      </c>
+      <c r="U70" s="72"/>
+      <c r="V70" s="72"/>
+      <c r="W70" s="72"/>
       <c r="X70" s="67"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="93"/>
-      <c r="C71" s="10"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
       <c r="F71" s="67"/>
@@ -7387,204 +7456,200 @@
       <c r="L71" s="11"/>
       <c r="M71" s="131"/>
       <c r="N71" s="74"/>
-      <c r="O71" s="93"/>
-      <c r="P71" s="91"/>
-      <c r="Q71" s="67"/>
-      <c r="R71" s="67"/>
-      <c r="S71" s="67"/>
-      <c r="T71" s="67"/>
-      <c r="U71" s="67"/>
-      <c r="V71" s="67"/>
-      <c r="W71" s="67"/>
+      <c r="O71" s="191"/>
+      <c r="P71" s="193"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+      <c r="W71" s="72"/>
       <c r="X71" s="67"/>
     </row>
-    <row r="72" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="9"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="73">
-        <v>0</v>
-      </c>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="73"/>
-      <c r="K72" s="73"/>
-      <c r="L72" s="20"/>
+    <row r="72" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="93"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="131"/>
       <c r="N72" s="74"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="51"/>
-      <c r="Q72" s="73">
-        <v>0</v>
-      </c>
-      <c r="R72" s="73"/>
-      <c r="S72" s="73"/>
-      <c r="T72" s="73"/>
-      <c r="U72" s="73"/>
-      <c r="V72" s="73"/>
-      <c r="W72" s="73"/>
-      <c r="X72" s="73"/>
-    </row>
-    <row r="73" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="7"/>
-      <c r="C73" s="35" t="s">
+      <c r="O72" s="93"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="72"/>
+      <c r="U72" s="72"/>
+      <c r="V72" s="72"/>
+      <c r="W72" s="72"/>
+      <c r="X72" s="67"/>
+    </row>
+    <row r="73" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="93"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="93"/>
+      <c r="P73" s="91"/>
+      <c r="Q73" s="67"/>
+      <c r="R73" s="67"/>
+      <c r="S73" s="67"/>
+      <c r="T73" s="67"/>
+      <c r="U73" s="67"/>
+      <c r="V73" s="67"/>
+      <c r="W73" s="67"/>
+      <c r="X73" s="67"/>
+    </row>
+    <row r="74" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="93"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="93"/>
+      <c r="P74" s="91"/>
+      <c r="Q74" s="67"/>
+      <c r="R74" s="67"/>
+      <c r="S74" s="67"/>
+      <c r="T74" s="67"/>
+      <c r="U74" s="67"/>
+      <c r="V74" s="67"/>
+      <c r="W74" s="67"/>
+      <c r="X74" s="67"/>
+    </row>
+    <row r="75" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="9"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="73">
+        <v>0</v>
+      </c>
+      <c r="R75" s="73"/>
+      <c r="S75" s="73"/>
+      <c r="T75" s="73"/>
+      <c r="U75" s="73"/>
+      <c r="V75" s="73"/>
+      <c r="W75" s="73"/>
+      <c r="X75" s="73"/>
+    </row>
+    <row r="76" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="7"/>
+      <c r="C76" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="30">
-        <f t="shared" ref="D73:L73" si="4">SUM(D59:D72)</f>
-        <v>891</v>
-      </c>
-      <c r="E73" s="31">
+      <c r="D76" s="30">
+        <f>SUM(D62:D75)</f>
+        <v>886</v>
+      </c>
+      <c r="E76" s="30">
+        <f t="shared" ref="E76:L76" si="4">SUM(E62:E75)</f>
+        <v>821</v>
+      </c>
+      <c r="F76" s="30">
         <f t="shared" si="4"/>
-        <v>212</v>
-      </c>
-      <c r="F73" s="31">
+        <v>1754</v>
+      </c>
+      <c r="G76" s="30">
         <f t="shared" si="4"/>
-        <v>1970</v>
-      </c>
-      <c r="G73" s="31">
+        <v>15</v>
+      </c>
+      <c r="H76" s="30">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="H73" s="31">
+        <v>1791</v>
+      </c>
+      <c r="I76" s="30">
         <f t="shared" si="4"/>
-        <v>1927</v>
-      </c>
-      <c r="I73" s="31">
+        <v>352</v>
+      </c>
+      <c r="J76" s="30">
         <f t="shared" si="4"/>
-        <v>716</v>
-      </c>
-      <c r="J73" s="22">
+        <v>705</v>
+      </c>
+      <c r="K76" s="30">
         <f t="shared" si="4"/>
-        <v>2220</v>
-      </c>
-      <c r="K73" s="32">
+        <v>5789</v>
+      </c>
+      <c r="L76" s="30">
         <f t="shared" si="4"/>
-        <v>6511</v>
-      </c>
-      <c r="L73" s="100">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="M73" s="132"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q73" s="21">
-        <f t="shared" ref="Q73:X73" si="5">SUM(Q59:Q72)</f>
-        <v>830</v>
-      </c>
-      <c r="R73" s="21">
-        <f t="shared" si="5"/>
-        <v>1055</v>
-      </c>
-      <c r="S73" s="21">
-        <f t="shared" si="5"/>
-        <v>3148</v>
-      </c>
-      <c r="T73" s="21">
-        <f t="shared" si="5"/>
-        <v>176</v>
-      </c>
-      <c r="U73" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V73" s="21">
-        <f t="shared" si="5"/>
-        <v>8637</v>
-      </c>
-      <c r="W73" s="21">
-        <f t="shared" si="5"/>
-        <v>1947</v>
-      </c>
-      <c r="X73" s="21">
-        <f t="shared" si="5"/>
-        <v>7231</v>
-      </c>
-    </row>
-    <row r="74" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="7"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="78"/>
-      <c r="M74" s="76"/>
-      <c r="N74" s="74"/>
-      <c r="O74" s="7"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-    </row>
-    <row r="75" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="7"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="241">
-        <f>K73+J73+I73+H73+G73+F73+E73+D73+L73</f>
-        <v>15022</v>
-      </c>
-      <c r="G75" s="242"/>
-      <c r="H75" s="243"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="71"/>
-      <c r="M75" s="74"/>
-      <c r="N75" s="74"/>
-      <c r="O75" s="7"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="244">
-        <f>Q73+R73+S73+T73+U73+V73+W73+X73</f>
-        <v>23024</v>
-      </c>
-      <c r="T75" s="245"/>
-      <c r="U75" s="246"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="71"/>
-      <c r="M76" s="74"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="132"/>
       <c r="N76" s="74"/>
       <c r="O76" s="7"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="P76" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q76" s="21">
+        <f t="shared" ref="Q76:X76" si="5">SUM(Q62:Q75)</f>
+        <v>803</v>
+      </c>
+      <c r="R76" s="21">
+        <f t="shared" si="5"/>
+        <v>590</v>
+      </c>
+      <c r="S76" s="21">
+        <f t="shared" si="5"/>
+        <v>2219</v>
+      </c>
+      <c r="T76" s="21">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="U76" s="21">
+        <f t="shared" si="5"/>
+        <v>714</v>
+      </c>
+      <c r="V76" s="21">
+        <f t="shared" si="5"/>
+        <v>5982</v>
+      </c>
+      <c r="W76" s="21">
+        <f t="shared" si="5"/>
+        <v>1916</v>
+      </c>
+      <c r="X76" s="21">
+        <f t="shared" si="5"/>
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
       <c r="C77" s="1"/>
       <c r="D77" s="5"/>
@@ -7595,19 +7660,30 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="74"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="76"/>
       <c r="N77" s="74"/>
       <c r="O77" s="7"/>
-    </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+      <c r="W77" s="5"/>
+      <c r="X77" s="5"/>
+    </row>
+    <row r="78" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B78" s="7"/>
       <c r="C78" s="1"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="F78" s="242">
+        <f>K76+J76+I76+H76+G76+F76+E76+D76+L76</f>
+        <v>12113</v>
+      </c>
+      <c r="G78" s="243"/>
+      <c r="H78" s="244"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -7615,357 +7691,264 @@
       <c r="M78" s="74"/>
       <c r="N78" s="74"/>
       <c r="O78" s="7"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="245">
+        <f>Q76+R76+S76+T76+U76+V76+W76+X76</f>
+        <v>19443</v>
+      </c>
+      <c r="T78" s="246"/>
+      <c r="U78" s="247"/>
+      <c r="V78" s="5"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="5"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="1"/>
-      <c r="N79" s="80"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="71"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
       <c r="O79" s="7"/>
-    </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
-      <c r="C80" s="1"/>
-      <c r="N80" s="80"/>
-      <c r="O80" s="7"/>
-    </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
-      <c r="C81" s="1"/>
-      <c r="N81" s="80"/>
-      <c r="O81" s="7"/>
-    </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B82" s="7"/>
-      <c r="C82" s="1"/>
-      <c r="N82" s="80"/>
-      <c r="O82" s="7"/>
-    </row>
-    <row r="83" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="7"/>
-      <c r="C83" s="1"/>
-      <c r="N83" s="80"/>
-      <c r="O83" s="7"/>
-    </row>
-    <row r="84" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="7"/>
-      <c r="C84" s="234" t="s">
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+    </row>
+    <row r="86" spans="2:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="7"/>
+      <c r="C86" s="1"/>
+      <c r="N86" s="80"/>
+      <c r="O86" s="188"/>
+      <c r="P86" s="189"/>
+      <c r="Q86" s="189"/>
+      <c r="R86" s="189"/>
+      <c r="S86" s="189"/>
+      <c r="T86" s="189"/>
+      <c r="U86" s="189"/>
+      <c r="V86" s="189"/>
+      <c r="W86" s="189"/>
+      <c r="X86" s="189"/>
+    </row>
+    <row r="87" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="7"/>
+      <c r="C87" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="235"/>
-      <c r="E84" s="235"/>
-      <c r="F84" s="235"/>
-      <c r="G84" s="235"/>
-      <c r="H84" s="235"/>
-      <c r="I84" s="235"/>
-      <c r="J84" s="235"/>
-      <c r="K84" s="235"/>
-      <c r="L84" s="185" t="s">
-        <v>41</v>
-      </c>
-      <c r="M84" s="133"/>
-      <c r="N84" s="81"/>
-      <c r="O84" s="247" t="s">
+      <c r="D87" s="236"/>
+      <c r="E87" s="236"/>
+      <c r="F87" s="236"/>
+      <c r="G87" s="236"/>
+      <c r="H87" s="236"/>
+      <c r="I87" s="236"/>
+      <c r="J87" s="236"/>
+      <c r="K87" s="236"/>
+      <c r="L87" s="185" t="s">
+        <v>42</v>
+      </c>
+      <c r="M87" s="133"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="P84" s="248"/>
-      <c r="Q84" s="248"/>
-      <c r="R84" s="248"/>
-      <c r="S84" s="248"/>
-      <c r="T84" s="248"/>
-      <c r="U84" s="248"/>
-      <c r="V84" s="248"/>
-      <c r="W84" s="248"/>
-      <c r="X84" s="128" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="7"/>
-      <c r="C85" s="1"/>
-      <c r="I85" s="238" t="s">
-        <v>129</v>
-      </c>
-      <c r="J85" s="239"/>
-      <c r="K85" s="240"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="134"/>
-      <c r="N85" s="74"/>
-      <c r="O85" s="7"/>
-      <c r="V85" s="238" t="s">
-        <v>150</v>
-      </c>
-      <c r="W85" s="239"/>
-      <c r="X85" s="240"/>
-    </row>
-    <row r="86" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="24" t="s">
+      <c r="P87" s="238"/>
+      <c r="Q87" s="238"/>
+      <c r="R87" s="238"/>
+      <c r="S87" s="238"/>
+      <c r="T87" s="238"/>
+      <c r="U87" s="238"/>
+      <c r="V87" s="238"/>
+      <c r="W87" s="238"/>
+      <c r="X87" s="187" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="7"/>
+      <c r="C88" s="1"/>
+      <c r="I88" s="239" t="s">
+        <v>148</v>
+      </c>
+      <c r="J88" s="240"/>
+      <c r="K88" s="241"/>
+      <c r="L88" s="68"/>
+      <c r="M88" s="134"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="7"/>
+      <c r="V88" s="239" t="s">
+        <v>151</v>
+      </c>
+      <c r="W88" s="240"/>
+      <c r="X88" s="241"/>
+    </row>
+    <row r="89" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D89" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E86" s="26" t="s">
+      <c r="E89" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="56" t="s">
+      <c r="F89" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G86" s="25" t="s">
+      <c r="G89" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H86" s="27" t="s">
+      <c r="H89" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I86" s="60" t="s">
+      <c r="I89" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J86" s="61" t="s">
+      <c r="J89" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K86" s="62" t="s">
+      <c r="K89" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L86" s="99" t="s">
+      <c r="L89" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M86" s="135"/>
-      <c r="N86" s="82"/>
-      <c r="O86" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P86" s="143" t="s">
+      <c r="M89" s="135"/>
+      <c r="N89" s="82"/>
+      <c r="O89" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P89" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q86" s="137" t="s">
+      <c r="Q89" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R86" s="138" t="s">
+      <c r="R89" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S86" s="139" t="s">
+      <c r="S89" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="T86" s="140" t="s">
+      <c r="T89" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="U86" s="140" t="s">
+      <c r="U89" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="V86" s="141" t="s">
+      <c r="V89" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W86" s="136" t="s">
+      <c r="W89" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X86" s="144" t="s">
+      <c r="X89" s="144" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="B87" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72">
-        <f>2361+1550+386+1883+642+964</f>
-        <v>7786</v>
-      </c>
-      <c r="L87" s="70"/>
-      <c r="M87" s="131"/>
-      <c r="N87" s="74"/>
-      <c r="O87" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P87" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q87" s="72"/>
-      <c r="R87" s="72"/>
-      <c r="S87" s="72"/>
-      <c r="T87" s="72"/>
-      <c r="U87" s="72"/>
-      <c r="V87" s="72"/>
-      <c r="W87" s="72"/>
-      <c r="X87" s="72">
-        <f>2377+2781+1874+429+754</f>
-        <v>8215</v>
-      </c>
-    </row>
-    <row r="88" spans="2:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67">
-        <f>1380+370+88+238</f>
-        <v>2076</v>
-      </c>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="67"/>
-      <c r="L88" s="67"/>
-      <c r="M88" s="131"/>
-      <c r="N88" s="74"/>
-      <c r="O88" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P88" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="72"/>
-      <c r="S88" s="72">
-        <f>180+148+36+2475</f>
-        <v>2839</v>
-      </c>
-      <c r="T88" s="72"/>
-      <c r="U88" s="72"/>
-      <c r="V88" s="72"/>
-      <c r="W88" s="72"/>
-      <c r="X88" s="67"/>
-    </row>
-    <row r="89" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D89" s="67">
-        <f>47+72.5+247+54+245</f>
-        <v>665.5</v>
-      </c>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="131"/>
-      <c r="N89" s="74"/>
-      <c r="O89" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P89" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q89" s="72">
-        <f>330+158+288+87</f>
-        <v>863</v>
-      </c>
-      <c r="R89" s="72"/>
-      <c r="S89" s="72"/>
-      <c r="T89" s="72"/>
-      <c r="U89" s="72"/>
-      <c r="V89" s="72"/>
-      <c r="W89" s="72"/>
-      <c r="X89" s="67"/>
-    </row>
-    <row r="90" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B90" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67">
-        <v>140</v>
-      </c>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="C90" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="72">
+        <f>1777+1054+1013+1333+1334</f>
+        <v>6511</v>
+      </c>
+      <c r="L90" s="70"/>
       <c r="M90" s="131"/>
       <c r="N90" s="74"/>
       <c r="O90" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P90" s="87" t="s">
-        <v>135</v>
+        <v>149</v>
+      </c>
+      <c r="P90" s="86" t="s">
+        <v>160</v>
       </c>
       <c r="Q90" s="72"/>
       <c r="R90" s="72"/>
       <c r="S90" s="72"/>
-      <c r="T90" s="72">
-        <v>145</v>
-      </c>
+      <c r="T90" s="72"/>
       <c r="U90" s="72"/>
       <c r="V90" s="72"/>
       <c r="W90" s="72"/>
-      <c r="X90" s="67"/>
-    </row>
-    <row r="91" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X90" s="104">
+        <f>1805+1908+939+1193+1386</f>
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B91" s="93" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="D91" s="67"/>
       <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
+      <c r="F91" s="67">
+        <f>1970</f>
+        <v>1970</v>
+      </c>
       <c r="G91" s="67"/>
       <c r="H91" s="67"/>
       <c r="I91" s="67"/>
       <c r="J91" s="67"/>
       <c r="K91" s="67"/>
-      <c r="L91" s="11">
-        <v>500</v>
-      </c>
+      <c r="L91" s="67"/>
       <c r="M91" s="131"/>
       <c r="N91" s="74"/>
       <c r="O91" s="93" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="P91" s="89" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="Q91" s="72"/>
-      <c r="R91" s="72">
-        <v>1081</v>
-      </c>
-      <c r="S91" s="72"/>
+      <c r="R91" s="72"/>
+      <c r="S91" s="104">
+        <f>3020+87+41</f>
+        <v>3148</v>
+      </c>
       <c r="T91" s="72"/>
       <c r="U91" s="72"/>
       <c r="V91" s="72"/>
       <c r="W91" s="72"/>
       <c r="X91" s="67"/>
     </row>
-    <row r="92" spans="2:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C92" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="67"/>
-      <c r="E92" s="67">
-        <v>68</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" s="67">
+        <f>85+324+280+202</f>
+        <v>891</v>
+      </c>
+      <c r="E92" s="67"/>
       <c r="F92" s="67"/>
       <c r="G92" s="67"/>
       <c r="H92" s="67"/>
@@ -7976,10 +7959,15 @@
       <c r="M92" s="131"/>
       <c r="N92" s="74"/>
       <c r="O92" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P92" s="89"/>
-      <c r="Q92" s="72"/>
+        <v>149</v>
+      </c>
+      <c r="P92" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q92" s="104">
+        <f>385+160+285</f>
+        <v>830</v>
+      </c>
       <c r="R92" s="72"/>
       <c r="S92" s="72"/>
       <c r="T92" s="72"/>
@@ -7988,425 +7976,466 @@
       <c r="W92" s="72"/>
       <c r="X92" s="67"/>
     </row>
-    <row r="93" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="44" t="s">
-        <v>128</v>
+        <v>149</v>
+      </c>
+      <c r="C93" s="96" t="s">
+        <v>155</v>
       </c>
       <c r="D93" s="67"/>
       <c r="E93" s="67"/>
       <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
+      <c r="G93" s="67">
+        <f>55+20</f>
+        <v>75</v>
+      </c>
       <c r="H93" s="67"/>
       <c r="I93" s="67"/>
-      <c r="J93" s="94">
-        <f>155+626</f>
-        <v>781</v>
-      </c>
+      <c r="J93" s="67"/>
       <c r="K93" s="67"/>
       <c r="L93" s="11"/>
       <c r="M93" s="131"/>
       <c r="N93" s="74"/>
       <c r="O93" s="93" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="P93" s="87" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="Q93" s="72"/>
       <c r="R93" s="72"/>
       <c r="S93" s="72"/>
-      <c r="T93" s="72"/>
+      <c r="T93" s="104">
+        <f>55+121</f>
+        <v>176</v>
+      </c>
       <c r="U93" s="72"/>
       <c r="V93" s="72"/>
-      <c r="W93" s="72">
-        <f>900+345</f>
-        <v>1245</v>
-      </c>
+      <c r="W93" s="72"/>
       <c r="X93" s="67"/>
-      <c r="Y93" s="129"/>
-      <c r="Z93" s="80"/>
-      <c r="AA93" s="80"/>
-    </row>
-    <row r="94" spans="2:27" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>127</v>
+        <v>149</v>
+      </c>
+      <c r="C94" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="D94" s="67"/>
       <c r="E94" s="67"/>
       <c r="F94" s="67"/>
       <c r="G94" s="67"/>
       <c r="H94" s="67"/>
-      <c r="I94" s="67">
-        <v>850</v>
-      </c>
+      <c r="I94" s="67"/>
       <c r="J94" s="67"/>
       <c r="K94" s="67"/>
-      <c r="L94" s="11"/>
+      <c r="L94" s="11">
+        <v>500</v>
+      </c>
       <c r="M94" s="131"/>
       <c r="N94" s="74"/>
       <c r="O94" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P94" s="90" t="s">
-        <v>4</v>
+        <v>149</v>
+      </c>
+      <c r="P94" s="89" t="s">
+        <v>166</v>
       </c>
       <c r="Q94" s="72"/>
-      <c r="R94" s="72"/>
+      <c r="R94" s="104">
+        <f>50+443+432+130</f>
+        <v>1055</v>
+      </c>
       <c r="S94" s="72"/>
       <c r="T94" s="72"/>
-      <c r="U94" s="72">
-        <v>729</v>
-      </c>
+      <c r="U94" s="72"/>
       <c r="V94" s="72"/>
       <c r="W94" s="72"/>
       <c r="X94" s="67"/>
     </row>
-    <row r="95" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="95" t="s">
-        <v>96</v>
+        <v>149</v>
+      </c>
+      <c r="C95" s="44" t="s">
+        <v>156</v>
       </c>
       <c r="D95" s="67"/>
       <c r="E95" s="67"/>
       <c r="F95" s="67"/>
       <c r="G95" s="67"/>
-      <c r="H95" s="67">
-        <f>119+51+68+68+102+68</f>
-        <v>476</v>
-      </c>
-      <c r="I95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67">
+        <v>716</v>
+      </c>
       <c r="J95" s="67"/>
       <c r="K95" s="67"/>
       <c r="L95" s="11"/>
       <c r="M95" s="131"/>
       <c r="N95" s="74"/>
       <c r="O95" s="93" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="P95" s="98" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="Q95" s="72"/>
       <c r="R95" s="72"/>
       <c r="S95" s="72"/>
       <c r="T95" s="72"/>
       <c r="U95" s="72"/>
-      <c r="V95" s="72">
-        <f>270+153+170+204+170+204</f>
-        <v>1171</v>
+      <c r="V95" s="104">
+        <f>170+170+221+170+204</f>
+        <v>935</v>
       </c>
       <c r="W95" s="72"/>
       <c r="X95" s="67"/>
     </row>
-    <row r="96" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B96" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="42" t="s">
-        <v>11</v>
+        <v>149</v>
+      </c>
+      <c r="C96" s="44" t="s">
+        <v>158</v>
       </c>
       <c r="D96" s="67"/>
       <c r="E96" s="67"/>
       <c r="F96" s="67"/>
       <c r="G96" s="67"/>
-      <c r="H96" s="67">
-        <f>380+380+470</f>
-        <v>1230</v>
-      </c>
+      <c r="H96" s="67"/>
       <c r="I96" s="67"/>
-      <c r="J96" s="67"/>
+      <c r="J96" s="94">
+        <f>440+19+261</f>
+        <v>720</v>
+      </c>
       <c r="K96" s="67"/>
       <c r="L96" s="11"/>
       <c r="M96" s="131"/>
       <c r="N96" s="74"/>
-      <c r="O96" s="93"/>
-      <c r="P96" s="88" t="s">
-        <v>140</v>
+      <c r="O96" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P96" s="87" t="s">
+        <v>165</v>
       </c>
       <c r="Q96" s="72"/>
       <c r="R96" s="72"/>
       <c r="S96" s="72"/>
       <c r="T96" s="72"/>
       <c r="U96" s="72"/>
-      <c r="V96" s="72">
-        <f>700+700+710+2566+310</f>
-        <v>4986</v>
-      </c>
-      <c r="W96" s="72"/>
+      <c r="V96" s="72"/>
+      <c r="W96" s="104">
+        <f>805+473+669</f>
+        <v>1947</v>
+      </c>
       <c r="X96" s="67"/>
-    </row>
-    <row r="97" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y96" s="129"/>
+    </row>
+    <row r="97" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C97" s="95"/>
+        <v>149</v>
+      </c>
+      <c r="C97" s="204" t="s">
+        <v>157</v>
+      </c>
       <c r="D97" s="67"/>
       <c r="E97" s="67"/>
       <c r="F97" s="67"/>
       <c r="G97" s="67"/>
       <c r="H97" s="67"/>
       <c r="I97" s="67"/>
-      <c r="J97" s="67"/>
+      <c r="J97" s="67">
+        <v>1500</v>
+      </c>
       <c r="K97" s="67"/>
       <c r="L97" s="11"/>
       <c r="M97" s="131"/>
       <c r="N97" s="74"/>
-      <c r="O97" s="93"/>
-      <c r="P97" s="88"/>
+      <c r="O97" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P97" s="90" t="s">
+        <v>4</v>
+      </c>
       <c r="Q97" s="72"/>
       <c r="R97" s="72"/>
       <c r="S97" s="72"/>
       <c r="T97" s="72"/>
       <c r="U97" s="72"/>
-      <c r="V97" s="72"/>
+      <c r="V97" s="104">
+        <v>688</v>
+      </c>
       <c r="W97" s="72"/>
       <c r="X97" s="67"/>
     </row>
-    <row r="98" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="93"/>
-      <c r="C98" s="10"/>
+    <row r="98" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="95" t="s">
+        <v>96</v>
+      </c>
       <c r="D98" s="67"/>
       <c r="E98" s="67"/>
       <c r="F98" s="67"/>
       <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
+      <c r="H98" s="67">
+        <f>102+68+238+85+204</f>
+        <v>697</v>
+      </c>
       <c r="I98" s="67"/>
       <c r="J98" s="67"/>
       <c r="K98" s="67"/>
       <c r="L98" s="11"/>
       <c r="M98" s="131"/>
       <c r="N98" s="74"/>
-      <c r="O98" s="93"/>
-      <c r="P98" s="91"/>
-      <c r="Q98" s="67"/>
-      <c r="R98" s="67"/>
-      <c r="S98" s="67"/>
-      <c r="T98" s="67"/>
-      <c r="U98" s="67"/>
-      <c r="V98" s="67"/>
-      <c r="W98" s="67"/>
+      <c r="O98" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P98" s="186" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q98" s="72"/>
+      <c r="R98" s="72"/>
+      <c r="S98" s="72"/>
+      <c r="T98" s="72"/>
+      <c r="U98" s="72"/>
+      <c r="V98" s="104">
+        <v>1440</v>
+      </c>
+      <c r="W98" s="72"/>
       <c r="X98" s="67"/>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B99" s="93"/>
-      <c r="C99" s="10"/>
+    <row r="99" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="D99" s="67"/>
       <c r="E99" s="67"/>
       <c r="F99" s="67"/>
       <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
+      <c r="H99" s="67">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
       <c r="I99" s="67"/>
       <c r="J99" s="67"/>
       <c r="K99" s="67"/>
       <c r="L99" s="11"/>
       <c r="M99" s="131"/>
       <c r="N99" s="74"/>
-      <c r="O99" s="93"/>
-      <c r="P99" s="91"/>
-      <c r="Q99" s="67"/>
-      <c r="R99" s="67"/>
-      <c r="S99" s="67"/>
-      <c r="T99" s="67"/>
-      <c r="U99" s="67"/>
-      <c r="V99" s="67"/>
-      <c r="W99" s="67"/>
+      <c r="O99" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P99" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q99" s="72"/>
+      <c r="R99" s="72"/>
+      <c r="S99" s="72"/>
+      <c r="T99" s="72"/>
+      <c r="U99" s="72"/>
+      <c r="V99" s="104">
+        <f>700+700+710+3464</f>
+        <v>5574</v>
+      </c>
+      <c r="W99" s="72"/>
       <c r="X99" s="67"/>
     </row>
-    <row r="100" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="9"/>
-      <c r="C100" s="34"/>
-      <c r="D100" s="73">
-        <v>0</v>
-      </c>
-      <c r="E100" s="73"/>
-      <c r="F100" s="73"/>
-      <c r="G100" s="73"/>
-      <c r="H100" s="73"/>
-      <c r="I100" s="73"/>
-      <c r="J100" s="73"/>
-      <c r="K100" s="73"/>
-      <c r="L100" s="20"/>
+    <row r="100" spans="2:24" ht="24" x14ac:dyDescent="0.25">
+      <c r="B100" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67">
+        <v>212</v>
+      </c>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67"/>
+      <c r="L100" s="11"/>
       <c r="M100" s="131"/>
       <c r="N100" s="74"/>
-      <c r="O100" s="46"/>
-      <c r="P100" s="51"/>
-      <c r="Q100" s="73">
-        <v>0</v>
-      </c>
-      <c r="R100" s="73"/>
-      <c r="S100" s="73"/>
-      <c r="T100" s="73"/>
-      <c r="U100" s="73"/>
-      <c r="V100" s="73"/>
-      <c r="W100" s="73"/>
-      <c r="X100" s="73"/>
-    </row>
-    <row r="101" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="7"/>
-      <c r="C101" s="35" t="s">
+      <c r="O100" s="93"/>
+      <c r="P100" s="88"/>
+      <c r="Q100" s="72"/>
+      <c r="R100" s="72"/>
+      <c r="S100" s="72"/>
+      <c r="T100" s="72"/>
+      <c r="U100" s="72"/>
+      <c r="V100" s="72"/>
+      <c r="W100" s="72"/>
+      <c r="X100" s="67"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B101" s="93"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67"/>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="131"/>
+      <c r="N101" s="74"/>
+      <c r="O101" s="93"/>
+      <c r="P101" s="91"/>
+      <c r="Q101" s="67"/>
+      <c r="R101" s="67"/>
+      <c r="S101" s="67"/>
+      <c r="T101" s="67"/>
+      <c r="U101" s="67"/>
+      <c r="V101" s="67"/>
+      <c r="W101" s="67"/>
+      <c r="X101" s="67"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B102" s="93"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="131"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="93"/>
+      <c r="P102" s="91"/>
+      <c r="Q102" s="67"/>
+      <c r="R102" s="67"/>
+      <c r="S102" s="67"/>
+      <c r="T102" s="67"/>
+      <c r="U102" s="67"/>
+      <c r="V102" s="67"/>
+      <c r="W102" s="67"/>
+      <c r="X102" s="67"/>
+    </row>
+    <row r="103" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="9"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="73">
+        <v>0</v>
+      </c>
+      <c r="E103" s="73"/>
+      <c r="F103" s="73"/>
+      <c r="G103" s="73"/>
+      <c r="H103" s="73"/>
+      <c r="I103" s="73"/>
+      <c r="J103" s="73"/>
+      <c r="K103" s="73"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="131"/>
+      <c r="N103" s="74"/>
+      <c r="O103" s="46"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="73">
+        <v>0</v>
+      </c>
+      <c r="R103" s="73"/>
+      <c r="S103" s="73"/>
+      <c r="T103" s="73"/>
+      <c r="U103" s="73"/>
+      <c r="V103" s="73"/>
+      <c r="W103" s="73"/>
+      <c r="X103" s="73"/>
+    </row>
+    <row r="104" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="7"/>
+      <c r="C104" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="30">
-        <f t="shared" ref="D101" si="6">SUM(D87:D100)</f>
-        <v>665.5</v>
-      </c>
-      <c r="E101" s="31">
-        <f t="shared" ref="E101:L101" si="7">SUM(E87:E100)</f>
-        <v>68</v>
-      </c>
-      <c r="F101" s="31">
-        <f t="shared" si="7"/>
-        <v>2076</v>
-      </c>
-      <c r="G101" s="31">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-      <c r="H101" s="31">
-        <f t="shared" si="7"/>
-        <v>1706</v>
-      </c>
-      <c r="I101" s="31">
-        <f t="shared" si="7"/>
-        <v>850</v>
-      </c>
-      <c r="J101" s="22">
-        <f t="shared" si="7"/>
-        <v>781</v>
-      </c>
-      <c r="K101" s="32">
-        <f t="shared" si="7"/>
-        <v>7786</v>
-      </c>
-      <c r="L101" s="100">
-        <f t="shared" si="7"/>
+      <c r="D104" s="30">
+        <f t="shared" ref="D104:L104" si="6">SUM(D90:D103)</f>
+        <v>891</v>
+      </c>
+      <c r="E104" s="31">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="F104" s="31">
+        <f t="shared" si="6"/>
+        <v>1970</v>
+      </c>
+      <c r="G104" s="31">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="H104" s="31">
+        <f t="shared" si="6"/>
+        <v>1927</v>
+      </c>
+      <c r="I104" s="31">
+        <f t="shared" si="6"/>
+        <v>716</v>
+      </c>
+      <c r="J104" s="22">
+        <f t="shared" si="6"/>
+        <v>2220</v>
+      </c>
+      <c r="K104" s="32">
+        <f t="shared" si="6"/>
+        <v>6511</v>
+      </c>
+      <c r="L104" s="100">
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="M101" s="132"/>
-      <c r="N101" s="74"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q101" s="21">
-        <f t="shared" ref="Q101:X101" si="8">SUM(Q87:Q100)</f>
-        <v>863</v>
-      </c>
-      <c r="R101" s="21">
-        <f t="shared" si="8"/>
-        <v>1081</v>
-      </c>
-      <c r="S101" s="21">
-        <f t="shared" si="8"/>
-        <v>2839</v>
-      </c>
-      <c r="T101" s="21">
-        <f t="shared" si="8"/>
-        <v>145</v>
-      </c>
-      <c r="U101" s="21">
-        <f t="shared" si="8"/>
-        <v>729</v>
-      </c>
-      <c r="V101" s="21">
-        <f t="shared" si="8"/>
-        <v>6157</v>
-      </c>
-      <c r="W101" s="21">
-        <f t="shared" si="8"/>
-        <v>1245</v>
-      </c>
-      <c r="X101" s="21">
-        <f t="shared" si="8"/>
-        <v>8215</v>
-      </c>
-    </row>
-    <row r="102" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="7"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="78"/>
-      <c r="M102" s="76"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="7"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="5"/>
-      <c r="V102" s="5"/>
-      <c r="W102" s="5"/>
-      <c r="X102" s="5"/>
-    </row>
-    <row r="103" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="7"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="241">
-        <f>K101+J101+I101+H101+G101+F101+E101+D101+L101</f>
-        <v>14572.5</v>
-      </c>
-      <c r="G103" s="242"/>
-      <c r="H103" s="243"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="71"/>
-      <c r="M103" s="74"/>
-      <c r="N103" s="74"/>
-      <c r="O103" s="7"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="244">
-        <f>Q101+R101+S101+T101+U101+V101+W101+X101</f>
-        <v>21274</v>
-      </c>
-      <c r="T103" s="245"/>
-      <c r="U103" s="246"/>
-      <c r="V103" s="5"/>
-      <c r="W103" s="5"/>
-      <c r="X103" s="5"/>
-    </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B104" s="7"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="74"/>
+      <c r="M104" s="132"/>
       <c r="N104" s="74"/>
       <c r="O104" s="7"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="5"/>
-      <c r="W104" s="5"/>
-      <c r="X104" s="5"/>
-    </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P104" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q104" s="21">
+        <f t="shared" ref="Q104:X104" si="7">SUM(Q90:Q103)</f>
+        <v>830</v>
+      </c>
+      <c r="R104" s="21">
+        <f t="shared" si="7"/>
+        <v>1055</v>
+      </c>
+      <c r="S104" s="21">
+        <f t="shared" si="7"/>
+        <v>3148</v>
+      </c>
+      <c r="T104" s="21">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="U104" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V104" s="21">
+        <f t="shared" si="7"/>
+        <v>8637</v>
+      </c>
+      <c r="W104" s="21">
+        <f t="shared" si="7"/>
+        <v>1947</v>
+      </c>
+      <c r="X104" s="21">
+        <f t="shared" si="7"/>
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="7"/>
       <c r="C105" s="1"/>
       <c r="D105" s="5"/>
@@ -8417,19 +8446,30 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="74"/>
+      <c r="L105" s="78"/>
+      <c r="M105" s="76"/>
       <c r="N105" s="74"/>
       <c r="O105" s="7"/>
-    </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
+    </row>
+    <row r="106" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B106" s="7"/>
       <c r="C106" s="1"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+      <c r="F106" s="242">
+        <f>K104+J104+I104+H104+G104+F104+E104+D104+L104</f>
+        <v>15022</v>
+      </c>
+      <c r="G106" s="243"/>
+      <c r="H106" s="244"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
@@ -8437,33 +8477,927 @@
       <c r="M106" s="74"/>
       <c r="N106" s="74"/>
       <c r="O106" s="7"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="245">
+        <f>Q104+R104+S104+T104+U104+V104+W104+X104</f>
+        <v>23024</v>
+      </c>
+      <c r="T106" s="246"/>
+      <c r="U106" s="247"/>
+      <c r="V106" s="5"/>
+      <c r="W106" s="5"/>
+      <c r="X106" s="5"/>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B107" s="7"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="71"/>
+      <c r="M107" s="74"/>
+      <c r="N107" s="74"/>
+      <c r="O107" s="7"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5"/>
+      <c r="X107" s="5"/>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B108" s="7"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="71"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
+      <c r="O108" s="7"/>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="71"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="7"/>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="1"/>
+      <c r="N110" s="80"/>
+      <c r="O110" s="7"/>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+      <c r="C111" s="1"/>
+      <c r="N111" s="80"/>
+      <c r="O111" s="7"/>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B112" s="7"/>
+      <c r="C112" s="1"/>
+      <c r="N112" s="80"/>
+      <c r="O112" s="7"/>
+    </row>
+    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B113" s="7"/>
+      <c r="C113" s="1"/>
+      <c r="N113" s="80"/>
+      <c r="O113" s="7"/>
+    </row>
+    <row r="114" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="7"/>
+      <c r="C114" s="1"/>
+      <c r="N114" s="80"/>
+      <c r="O114" s="7"/>
+    </row>
+    <row r="115" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="7"/>
+      <c r="C115" s="235" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="236"/>
+      <c r="E115" s="236"/>
+      <c r="F115" s="236"/>
+      <c r="G115" s="236"/>
+      <c r="H115" s="236"/>
+      <c r="I115" s="236"/>
+      <c r="J115" s="236"/>
+      <c r="K115" s="236"/>
+      <c r="L115" s="185" t="s">
+        <v>41</v>
+      </c>
+      <c r="M115" s="133"/>
+      <c r="N115" s="81"/>
+      <c r="O115" s="248" t="s">
+        <v>19</v>
+      </c>
+      <c r="P115" s="249"/>
+      <c r="Q115" s="249"/>
+      <c r="R115" s="249"/>
+      <c r="S115" s="249"/>
+      <c r="T115" s="249"/>
+      <c r="U115" s="249"/>
+      <c r="V115" s="249"/>
+      <c r="W115" s="249"/>
+      <c r="X115" s="128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="7"/>
+      <c r="C116" s="1"/>
+      <c r="I116" s="239" t="s">
+        <v>129</v>
+      </c>
+      <c r="J116" s="240"/>
+      <c r="K116" s="241"/>
+      <c r="L116" s="68"/>
+      <c r="M116" s="134"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="7"/>
+      <c r="V116" s="239" t="s">
+        <v>150</v>
+      </c>
+      <c r="W116" s="240"/>
+      <c r="X116" s="241"/>
+    </row>
+    <row r="117" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G117" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I117" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J117" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K117" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L117" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M117" s="135"/>
+      <c r="N117" s="82"/>
+      <c r="O117" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P117" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R117" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S117" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="T117" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="U117" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="V117" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W117" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X117" s="144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B118" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="F118" s="72"/>
+      <c r="G118" s="72"/>
+      <c r="H118" s="72"/>
+      <c r="I118" s="72"/>
+      <c r="J118" s="72"/>
+      <c r="K118" s="72">
+        <f>2361+1550+386+1883+642+964</f>
+        <v>7786</v>
+      </c>
+      <c r="L118" s="70"/>
+      <c r="M118" s="131"/>
+      <c r="N118" s="74"/>
+      <c r="O118" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P118" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q118" s="72"/>
+      <c r="R118" s="72"/>
+      <c r="S118" s="72"/>
+      <c r="T118" s="72"/>
+      <c r="U118" s="72"/>
+      <c r="V118" s="72"/>
+      <c r="W118" s="72"/>
+      <c r="X118" s="72">
+        <f>2377+2781+1874+429+754</f>
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="119" spans="2:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D119" s="67"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="67">
+        <f>1380+370+88+238</f>
+        <v>2076</v>
+      </c>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="67"/>
+      <c r="J119" s="67"/>
+      <c r="K119" s="67"/>
+      <c r="L119" s="67"/>
+      <c r="M119" s="131"/>
+      <c r="N119" s="74"/>
+      <c r="O119" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P119" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q119" s="72"/>
+      <c r="R119" s="72"/>
+      <c r="S119" s="72">
+        <f>180+148+36+2475</f>
+        <v>2839</v>
+      </c>
+      <c r="T119" s="72"/>
+      <c r="U119" s="72"/>
+      <c r="V119" s="72"/>
+      <c r="W119" s="72"/>
+      <c r="X119" s="67"/>
+    </row>
+    <row r="120" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" s="67">
+        <f>47+72.5+247+54+245</f>
+        <v>665.5</v>
+      </c>
+      <c r="E120" s="67"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="67"/>
+      <c r="H120" s="67"/>
+      <c r="I120" s="67"/>
+      <c r="J120" s="67"/>
+      <c r="K120" s="67"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="131"/>
+      <c r="N120" s="74"/>
+      <c r="O120" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P120" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q120" s="72">
+        <f>330+158+288+87</f>
+        <v>863</v>
+      </c>
+      <c r="R120" s="72"/>
+      <c r="S120" s="72"/>
+      <c r="T120" s="72"/>
+      <c r="U120" s="72"/>
+      <c r="V120" s="72"/>
+      <c r="W120" s="72"/>
+      <c r="X120" s="67"/>
+    </row>
+    <row r="121" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B121" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" s="67"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="67"/>
+      <c r="G121" s="67">
+        <v>140</v>
+      </c>
+      <c r="H121" s="67"/>
+      <c r="I121" s="67"/>
+      <c r="J121" s="67"/>
+      <c r="K121" s="67"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="131"/>
+      <c r="N121" s="74"/>
+      <c r="O121" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P121" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q121" s="72"/>
+      <c r="R121" s="72"/>
+      <c r="S121" s="72"/>
+      <c r="T121" s="72">
+        <v>145</v>
+      </c>
+      <c r="U121" s="72"/>
+      <c r="V121" s="72"/>
+      <c r="W121" s="72"/>
+      <c r="X121" s="67"/>
+    </row>
+    <row r="122" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="67"/>
+      <c r="J122" s="67"/>
+      <c r="K122" s="67"/>
+      <c r="L122" s="11">
+        <v>500</v>
+      </c>
+      <c r="M122" s="131"/>
+      <c r="N122" s="74"/>
+      <c r="O122" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P122" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q122" s="72"/>
+      <c r="R122" s="72">
+        <v>1081</v>
+      </c>
+      <c r="S122" s="72"/>
+      <c r="T122" s="72"/>
+      <c r="U122" s="72"/>
+      <c r="V122" s="72"/>
+      <c r="W122" s="72"/>
+      <c r="X122" s="67"/>
+    </row>
+    <row r="123" spans="2:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123" s="67"/>
+      <c r="E123" s="67">
+        <v>68</v>
+      </c>
+      <c r="F123" s="67"/>
+      <c r="G123" s="67"/>
+      <c r="H123" s="67"/>
+      <c r="I123" s="67"/>
+      <c r="J123" s="67"/>
+      <c r="K123" s="67"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="131"/>
+      <c r="N123" s="74"/>
+      <c r="O123" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P123" s="89"/>
+      <c r="Q123" s="72"/>
+      <c r="R123" s="72"/>
+      <c r="S123" s="72"/>
+      <c r="T123" s="72"/>
+      <c r="U123" s="72"/>
+      <c r="V123" s="72"/>
+      <c r="W123" s="72"/>
+      <c r="X123" s="67"/>
+    </row>
+    <row r="124" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124" s="67"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="67"/>
+      <c r="G124" s="67"/>
+      <c r="H124" s="67"/>
+      <c r="I124" s="67"/>
+      <c r="J124" s="94">
+        <f>155+626</f>
+        <v>781</v>
+      </c>
+      <c r="K124" s="67"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="131"/>
+      <c r="N124" s="74"/>
+      <c r="O124" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P124" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q124" s="72"/>
+      <c r="R124" s="72"/>
+      <c r="S124" s="72"/>
+      <c r="T124" s="72"/>
+      <c r="U124" s="72"/>
+      <c r="V124" s="72"/>
+      <c r="W124" s="72">
+        <f>900+345</f>
+        <v>1245</v>
+      </c>
+      <c r="X124" s="67"/>
+      <c r="Y124" s="129"/>
+      <c r="Z124" s="80"/>
+      <c r="AA124" s="80"/>
+    </row>
+    <row r="125" spans="2:27" ht="24" x14ac:dyDescent="0.25">
+      <c r="B125" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="67"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="67"/>
+      <c r="G125" s="67"/>
+      <c r="H125" s="67"/>
+      <c r="I125" s="67">
+        <v>850</v>
+      </c>
+      <c r="J125" s="67"/>
+      <c r="K125" s="67"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="131"/>
+      <c r="N125" s="74"/>
+      <c r="O125" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P125" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q125" s="72"/>
+      <c r="R125" s="72"/>
+      <c r="S125" s="72"/>
+      <c r="T125" s="72"/>
+      <c r="U125" s="72">
+        <v>729</v>
+      </c>
+      <c r="V125" s="72"/>
+      <c r="W125" s="72"/>
+      <c r="X125" s="67"/>
+    </row>
+    <row r="126" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67">
+        <f>119+51+68+68+102+68</f>
+        <v>476</v>
+      </c>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="131"/>
+      <c r="N126" s="74"/>
+      <c r="O126" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P126" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q126" s="72"/>
+      <c r="R126" s="72"/>
+      <c r="S126" s="72"/>
+      <c r="T126" s="72"/>
+      <c r="U126" s="72"/>
+      <c r="V126" s="72">
+        <f>270+153+170+204+170+204</f>
+        <v>1171</v>
+      </c>
+      <c r="W126" s="72"/>
+      <c r="X126" s="67"/>
+    </row>
+    <row r="127" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="67"/>
+      <c r="H127" s="67">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
+      <c r="I127" s="67"/>
+      <c r="J127" s="67"/>
+      <c r="K127" s="67"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="131"/>
+      <c r="N127" s="74"/>
+      <c r="O127" s="93"/>
+      <c r="P127" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q127" s="72"/>
+      <c r="R127" s="72"/>
+      <c r="S127" s="72"/>
+      <c r="T127" s="72"/>
+      <c r="U127" s="72"/>
+      <c r="V127" s="72">
+        <f>700+700+710+2566+310</f>
+        <v>4986</v>
+      </c>
+      <c r="W127" s="72"/>
+      <c r="X127" s="67"/>
+    </row>
+    <row r="128" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" s="95"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="67"/>
+      <c r="H128" s="67"/>
+      <c r="I128" s="67"/>
+      <c r="J128" s="67"/>
+      <c r="K128" s="67"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="131"/>
+      <c r="N128" s="74"/>
+      <c r="O128" s="93"/>
+      <c r="P128" s="88"/>
+      <c r="Q128" s="72"/>
+      <c r="R128" s="72"/>
+      <c r="S128" s="72"/>
+      <c r="T128" s="72"/>
+      <c r="U128" s="72"/>
+      <c r="V128" s="72"/>
+      <c r="W128" s="72"/>
+      <c r="X128" s="67"/>
+    </row>
+    <row r="129" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="93"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="67"/>
+      <c r="G129" s="67"/>
+      <c r="H129" s="67"/>
+      <c r="I129" s="67"/>
+      <c r="J129" s="67"/>
+      <c r="K129" s="67"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="131"/>
+      <c r="N129" s="74"/>
+      <c r="O129" s="93"/>
+      <c r="P129" s="91"/>
+      <c r="Q129" s="67"/>
+      <c r="R129" s="67"/>
+      <c r="S129" s="67"/>
+      <c r="T129" s="67"/>
+      <c r="U129" s="67"/>
+      <c r="V129" s="67"/>
+      <c r="W129" s="67"/>
+      <c r="X129" s="67"/>
+    </row>
+    <row r="130" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B130" s="93"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="67"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="67"/>
+      <c r="J130" s="67"/>
+      <c r="K130" s="67"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="131"/>
+      <c r="N130" s="74"/>
+      <c r="O130" s="93"/>
+      <c r="P130" s="91"/>
+      <c r="Q130" s="67"/>
+      <c r="R130" s="67"/>
+      <c r="S130" s="67"/>
+      <c r="T130" s="67"/>
+      <c r="U130" s="67"/>
+      <c r="V130" s="67"/>
+      <c r="W130" s="67"/>
+      <c r="X130" s="67"/>
+    </row>
+    <row r="131" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="9"/>
+      <c r="C131" s="34"/>
+      <c r="D131" s="73">
+        <v>0</v>
+      </c>
+      <c r="E131" s="73"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="73"/>
+      <c r="H131" s="73"/>
+      <c r="I131" s="73"/>
+      <c r="J131" s="73"/>
+      <c r="K131" s="73"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="131"/>
+      <c r="N131" s="74"/>
+      <c r="O131" s="46"/>
+      <c r="P131" s="51"/>
+      <c r="Q131" s="73">
+        <v>0</v>
+      </c>
+      <c r="R131" s="73"/>
+      <c r="S131" s="73"/>
+      <c r="T131" s="73"/>
+      <c r="U131" s="73"/>
+      <c r="V131" s="73"/>
+      <c r="W131" s="73"/>
+      <c r="X131" s="73"/>
+    </row>
+    <row r="132" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="7"/>
+      <c r="C132" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="30">
+        <f t="shared" ref="D132" si="8">SUM(D118:D131)</f>
+        <v>665.5</v>
+      </c>
+      <c r="E132" s="31">
+        <f t="shared" ref="E132:L132" si="9">SUM(E118:E131)</f>
+        <v>68</v>
+      </c>
+      <c r="F132" s="31">
+        <f t="shared" si="9"/>
+        <v>2076</v>
+      </c>
+      <c r="G132" s="31">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="H132" s="31">
+        <f t="shared" si="9"/>
+        <v>1706</v>
+      </c>
+      <c r="I132" s="31">
+        <f t="shared" si="9"/>
+        <v>850</v>
+      </c>
+      <c r="J132" s="22">
+        <f t="shared" si="9"/>
+        <v>781</v>
+      </c>
+      <c r="K132" s="32">
+        <f t="shared" si="9"/>
+        <v>7786</v>
+      </c>
+      <c r="L132" s="100">
+        <f t="shared" si="9"/>
+        <v>500</v>
+      </c>
+      <c r="M132" s="132"/>
+      <c r="N132" s="74"/>
+      <c r="O132" s="7"/>
+      <c r="P132" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q132" s="21">
+        <f t="shared" ref="Q132:X132" si="10">SUM(Q118:Q131)</f>
+        <v>863</v>
+      </c>
+      <c r="R132" s="21">
+        <f t="shared" si="10"/>
+        <v>1081</v>
+      </c>
+      <c r="S132" s="21">
+        <f t="shared" si="10"/>
+        <v>2839</v>
+      </c>
+      <c r="T132" s="21">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="U132" s="21">
+        <f t="shared" si="10"/>
+        <v>729</v>
+      </c>
+      <c r="V132" s="21">
+        <f t="shared" si="10"/>
+        <v>6157</v>
+      </c>
+      <c r="W132" s="21">
+        <f t="shared" si="10"/>
+        <v>1245</v>
+      </c>
+      <c r="X132" s="21">
+        <f t="shared" si="10"/>
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="133" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="7"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="78"/>
+      <c r="M133" s="76"/>
+      <c r="N133" s="74"/>
+      <c r="O133" s="7"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="5"/>
+      <c r="W133" s="5"/>
+      <c r="X133" s="5"/>
+    </row>
+    <row r="134" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B134" s="7"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="242">
+        <f>K132+J132+I132+H132+G132+F132+E132+D132+L132</f>
+        <v>14572.5</v>
+      </c>
+      <c r="G134" s="243"/>
+      <c r="H134" s="244"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="71"/>
+      <c r="M134" s="74"/>
+      <c r="N134" s="74"/>
+      <c r="O134" s="7"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="245">
+        <f>Q132+R132+S132+T132+U132+V132+W132+X132</f>
+        <v>21274</v>
+      </c>
+      <c r="T134" s="246"/>
+      <c r="U134" s="247"/>
+      <c r="V134" s="5"/>
+      <c r="W134" s="5"/>
+      <c r="X134" s="5"/>
+    </row>
+    <row r="135" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="71"/>
+      <c r="M135" s="74"/>
+      <c r="N135" s="74"/>
+      <c r="O135" s="7"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5"/>
+      <c r="V135" s="5"/>
+      <c r="W135" s="5"/>
+      <c r="X135" s="5"/>
+    </row>
+    <row r="136" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B136" s="7"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="71"/>
+      <c r="M136" s="74"/>
+      <c r="N136" s="74"/>
+      <c r="O136" s="7"/>
+    </row>
+    <row r="137" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B137" s="7"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="71"/>
+      <c r="M137" s="74"/>
+      <c r="N137" s="74"/>
+      <c r="O137" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="30">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="O56:W56"/>
-    <mergeCell ref="I57:K57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="C84:K84"/>
-    <mergeCell ref="O84:W84"/>
-    <mergeCell ref="I85:K85"/>
-    <mergeCell ref="V85:X85"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="S103:U103"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="O28:W28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="O59:W59"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="C115:K115"/>
+    <mergeCell ref="O115:W115"/>
+    <mergeCell ref="I116:K116"/>
+    <mergeCell ref="V116:X116"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="S134:U134"/>
+    <mergeCell ref="C87:K87"/>
+    <mergeCell ref="O87:W87"/>
+    <mergeCell ref="I88:K88"/>
+    <mergeCell ref="V88:X88"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="S106:U106"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="O33:W33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="S52:U52"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.16" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8526,51 +9460,51 @@
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="234" t="s">
+      <c r="C4" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="235"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="236"/>
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
+      <c r="I4" s="236"/>
+      <c r="J4" s="236"/>
+      <c r="K4" s="236"/>
       <c r="L4" s="84" t="s">
         <v>88</v>
       </c>
       <c r="M4" s="83"/>
       <c r="N4" s="81"/>
-      <c r="O4" s="247" t="s">
+      <c r="O4" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="248"/>
-      <c r="Q4" s="248"/>
-      <c r="R4" s="248"/>
-      <c r="S4" s="248"/>
-      <c r="T4" s="248"/>
-      <c r="U4" s="248"/>
-      <c r="V4" s="248"/>
-      <c r="W4" s="248"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249"/>
+      <c r="R4" s="249"/>
+      <c r="S4" s="249"/>
+      <c r="T4" s="249"/>
+      <c r="U4" s="249"/>
+      <c r="V4" s="249"/>
+      <c r="W4" s="249"/>
       <c r="X4" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="238" t="s">
+      <c r="I5" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="239"/>
-      <c r="K5" s="240"/>
+      <c r="J5" s="240"/>
+      <c r="K5" s="241"/>
       <c r="L5" s="68"/>
       <c r="M5" s="59"/>
       <c r="N5" s="74"/>
-      <c r="V5" s="238" t="s">
+      <c r="V5" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="W5" s="239"/>
-      <c r="X5" s="240"/>
+      <c r="W5" s="240"/>
+      <c r="X5" s="241"/>
     </row>
     <row r="6" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -9246,12 +10180,12 @@
     <row r="23" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="241">
+      <c r="F23" s="242">
         <f>K21+J21+I21+H21+G21+F21+E21+D21+L21</f>
         <v>9784</v>
       </c>
-      <c r="G23" s="242"/>
-      <c r="H23" s="243"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="244"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -9260,12 +10194,12 @@
       <c r="N23" s="74"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="244">
+      <c r="S23" s="245">
         <f>Q21+R21+S21+T21+U21+V21+W21+X21</f>
         <v>18984.5</v>
       </c>
-      <c r="T23" s="245"/>
-      <c r="U23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="247"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -9318,51 +10252,51 @@
     </row>
     <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="234" t="s">
+      <c r="C35" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="235"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="235"/>
-      <c r="G35" s="235"/>
-      <c r="H35" s="235"/>
-      <c r="I35" s="235"/>
-      <c r="J35" s="235"/>
-      <c r="K35" s="235"/>
+      <c r="D35" s="236"/>
+      <c r="E35" s="236"/>
+      <c r="F35" s="236"/>
+      <c r="G35" s="236"/>
+      <c r="H35" s="236"/>
+      <c r="I35" s="236"/>
+      <c r="J35" s="236"/>
+      <c r="K35" s="236"/>
       <c r="L35" s="84" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="83"/>
       <c r="N35" s="81"/>
-      <c r="O35" s="247" t="s">
+      <c r="O35" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="248"/>
-      <c r="Q35" s="248"/>
-      <c r="R35" s="248"/>
-      <c r="S35" s="248"/>
-      <c r="T35" s="248"/>
-      <c r="U35" s="248"/>
-      <c r="V35" s="248"/>
-      <c r="W35" s="248"/>
+      <c r="P35" s="249"/>
+      <c r="Q35" s="249"/>
+      <c r="R35" s="249"/>
+      <c r="S35" s="249"/>
+      <c r="T35" s="249"/>
+      <c r="U35" s="249"/>
+      <c r="V35" s="249"/>
+      <c r="W35" s="249"/>
       <c r="X35" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="238" t="s">
+      <c r="I36" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="239"/>
-      <c r="K36" s="240"/>
+      <c r="J36" s="240"/>
+      <c r="K36" s="241"/>
       <c r="L36" s="68"/>
       <c r="M36" s="59"/>
       <c r="N36" s="74"/>
-      <c r="V36" s="238" t="s">
+      <c r="V36" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="W36" s="239"/>
-      <c r="X36" s="240"/>
+      <c r="W36" s="240"/>
+      <c r="X36" s="241"/>
     </row>
     <row r="37" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
@@ -10034,12 +10968,12 @@
     <row r="54" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="241">
+      <c r="F54" s="242">
         <f>K52+J52+I52+H52+G52+F52+E52+D52+L52</f>
         <v>13702.5</v>
       </c>
-      <c r="G54" s="242"/>
-      <c r="H54" s="243"/>
+      <c r="G54" s="243"/>
+      <c r="H54" s="244"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -10048,12 +10982,12 @@
       <c r="N54" s="74"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="244">
+      <c r="S54" s="245">
         <f>Q52+R52+S52+T52+U52+V52+W52+X52</f>
         <v>19583</v>
       </c>
-      <c r="T54" s="245"/>
-      <c r="U54" s="246"/>
+      <c r="T54" s="246"/>
+      <c r="U54" s="247"/>
       <c r="V54" s="5">
         <v>19583</v>
       </c>
@@ -10108,48 +11042,48 @@
     </row>
     <row r="67" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C68" s="234" t="s">
+      <c r="C68" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="235"/>
-      <c r="E68" s="235"/>
-      <c r="F68" s="235"/>
-      <c r="G68" s="235"/>
-      <c r="H68" s="235"/>
-      <c r="I68" s="235"/>
-      <c r="J68" s="235"/>
-      <c r="K68" s="235"/>
+      <c r="D68" s="236"/>
+      <c r="E68" s="236"/>
+      <c r="F68" s="236"/>
+      <c r="G68" s="236"/>
+      <c r="H68" s="236"/>
+      <c r="I68" s="236"/>
+      <c r="J68" s="236"/>
+      <c r="K68" s="236"/>
       <c r="L68" s="84" t="s">
         <v>42</v>
       </c>
       <c r="M68" s="83"/>
       <c r="N68" s="81"/>
-      <c r="O68" s="247" t="s">
+      <c r="O68" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="P68" s="248"/>
-      <c r="Q68" s="248"/>
-      <c r="R68" s="248"/>
-      <c r="S68" s="248"/>
-      <c r="T68" s="248"/>
-      <c r="U68" s="248"/>
-      <c r="V68" s="248"/>
-      <c r="W68" s="248"/>
+      <c r="P68" s="249"/>
+      <c r="Q68" s="249"/>
+      <c r="R68" s="249"/>
+      <c r="S68" s="249"/>
+      <c r="T68" s="249"/>
+      <c r="U68" s="249"/>
+      <c r="V68" s="249"/>
+      <c r="W68" s="249"/>
       <c r="X68" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="238" t="s">
+      <c r="I69" s="239" t="s">
         <v>67</v>
       </c>
-      <c r="J69" s="239"/>
-      <c r="K69" s="240"/>
+      <c r="J69" s="240"/>
+      <c r="K69" s="241"/>
       <c r="L69" s="68"/>
       <c r="M69" s="59"/>
       <c r="N69" s="74"/>
-      <c r="W69" s="239"/>
-      <c r="X69" s="240"/>
+      <c r="W69" s="240"/>
+      <c r="X69" s="241"/>
     </row>
     <row r="70" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
@@ -10816,12 +11750,12 @@
     <row r="87" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="241">
+      <c r="F87" s="242">
         <f>K85+J85+I85+H85+G85+F85+E85+D85+L85</f>
         <v>13447.5</v>
       </c>
-      <c r="G87" s="242"/>
-      <c r="H87" s="243"/>
+      <c r="G87" s="243"/>
+      <c r="H87" s="244"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5">
         <v>13447.5</v>
@@ -10832,12 +11766,12 @@
       <c r="N87" s="74"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-      <c r="S87" s="244">
+      <c r="S87" s="245">
         <f>Q85+R85+S85+T85+U85+V85+W85+X85</f>
         <v>19080.5</v>
       </c>
-      <c r="T87" s="245"/>
-      <c r="U87" s="246"/>
+      <c r="T87" s="246"/>
+      <c r="U87" s="247"/>
       <c r="V87" s="5">
         <v>19080.5</v>
       </c>
@@ -10916,48 +11850,48 @@
     </row>
     <row r="93" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C94" s="234" t="s">
+      <c r="C94" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="235"/>
-      <c r="E94" s="235"/>
-      <c r="F94" s="235"/>
-      <c r="G94" s="235"/>
-      <c r="H94" s="235"/>
-      <c r="I94" s="235"/>
-      <c r="J94" s="235"/>
-      <c r="K94" s="235"/>
+      <c r="D94" s="236"/>
+      <c r="E94" s="236"/>
+      <c r="F94" s="236"/>
+      <c r="G94" s="236"/>
+      <c r="H94" s="236"/>
+      <c r="I94" s="236"/>
+      <c r="J94" s="236"/>
+      <c r="K94" s="236"/>
       <c r="L94" s="84" t="s">
         <v>41</v>
       </c>
       <c r="M94" s="83"/>
       <c r="N94" s="81"/>
-      <c r="O94" s="247" t="s">
+      <c r="O94" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="P94" s="248"/>
-      <c r="Q94" s="248"/>
-      <c r="R94" s="248"/>
-      <c r="S94" s="248"/>
-      <c r="T94" s="248"/>
-      <c r="U94" s="248"/>
-      <c r="V94" s="248"/>
-      <c r="W94" s="248"/>
+      <c r="P94" s="249"/>
+      <c r="Q94" s="249"/>
+      <c r="R94" s="249"/>
+      <c r="S94" s="249"/>
+      <c r="T94" s="249"/>
+      <c r="U94" s="249"/>
+      <c r="V94" s="249"/>
+      <c r="W94" s="249"/>
       <c r="X94" s="85" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="95" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I95" s="238" t="s">
+      <c r="I95" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="J95" s="239"/>
-      <c r="K95" s="240"/>
+      <c r="J95" s="240"/>
+      <c r="K95" s="241"/>
       <c r="L95" s="68"/>
       <c r="M95" s="59"/>
       <c r="N95" s="74"/>
-      <c r="W95" s="239"/>
-      <c r="X95" s="240"/>
+      <c r="W95" s="240"/>
+      <c r="X95" s="241"/>
     </row>
     <row r="96" spans="2:24" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
@@ -12174,12 +13108,12 @@
     <row r="122" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="249">
+      <c r="F122" s="250">
         <f>K120+J120+I120+H120+G120+F120+E120+D120</f>
         <v>13579</v>
       </c>
-      <c r="G122" s="242"/>
-      <c r="H122" s="243"/>
+      <c r="G122" s="243"/>
+      <c r="H122" s="244"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5">
         <v>13579</v>
@@ -12190,12 +13124,12 @@
       <c r="N122" s="74"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
-      <c r="S122" s="244">
+      <c r="S122" s="245">
         <f>Q120+R120+S120+T120+U120+V120+W120+X120</f>
         <v>20452</v>
       </c>
-      <c r="T122" s="245"/>
-      <c r="U122" s="246"/>
+      <c r="T122" s="246"/>
+      <c r="U122" s="247"/>
       <c r="V122" s="5">
         <v>20452</v>
       </c>
@@ -12282,30 +13216,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="O35:W35"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="S122:U122"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="W95:X95"/>
+    <mergeCell ref="O94:W94"/>
+    <mergeCell ref="C68:K68"/>
+    <mergeCell ref="O68:W68"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="W69:X69"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="S87:U87"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="O4:W4"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="V5:X5"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="S23:U23"/>
-    <mergeCell ref="C68:K68"/>
-    <mergeCell ref="O68:W68"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="W69:X69"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="S122:U122"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="W95:X95"/>
-    <mergeCell ref="O94:W94"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="O35:W35"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V36:X36"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12337,51 +13271,51 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="234" t="s">
+      <c r="D2" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="234" t="s">
+      <c r="T2" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="235"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="236"/>
+      <c r="AB2" s="236"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="238" t="s">
+      <c r="J3" s="239" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="239"/>
-      <c r="L3" s="250"/>
+      <c r="K3" s="240"/>
+      <c r="L3" s="251"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="238" t="s">
+      <c r="Z3" s="239" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="239"/>
-      <c r="AB3" s="240"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="241"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -12906,51 +13840,51 @@
     <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="7"/>
-      <c r="D16" s="247" t="s">
+      <c r="D16" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="248"/>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
-      <c r="H16" s="248"/>
-      <c r="I16" s="248"/>
-      <c r="J16" s="248"/>
-      <c r="K16" s="248"/>
-      <c r="L16" s="248"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="249"/>
+      <c r="J16" s="249"/>
+      <c r="K16" s="249"/>
+      <c r="L16" s="249"/>
       <c r="M16" s="171"/>
       <c r="N16" s="151"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="247" t="s">
+      <c r="T16" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="248"/>
-      <c r="V16" s="248"/>
-      <c r="W16" s="248"/>
-      <c r="X16" s="248"/>
-      <c r="Y16" s="248"/>
-      <c r="Z16" s="248"/>
-      <c r="AA16" s="248"/>
-      <c r="AB16" s="248"/>
+      <c r="U16" s="249"/>
+      <c r="V16" s="249"/>
+      <c r="W16" s="249"/>
+      <c r="X16" s="249"/>
+      <c r="Y16" s="249"/>
+      <c r="Z16" s="249"/>
+      <c r="AA16" s="249"/>
+      <c r="AB16" s="249"/>
       <c r="AC16" s="171"/>
       <c r="AD16" s="151"/>
     </row>
     <row r="17" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
-      <c r="J17" s="238" t="s">
+      <c r="J17" s="239" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="239"/>
-      <c r="L17" s="250"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="251"/>
       <c r="M17" s="68"/>
       <c r="N17" s="152"/>
       <c r="S17" s="7"/>
       <c r="T17" s="1"/>
-      <c r="Z17" s="238" t="s">
+      <c r="Z17" s="239" t="s">
         <v>184</v>
       </c>
-      <c r="AA17" s="239"/>
-      <c r="AB17" s="240"/>
+      <c r="AA17" s="240"/>
+      <c r="AB17" s="241"/>
       <c r="AC17" s="68"/>
       <c r="AD17" s="152"/>
     </row>
@@ -13469,47 +14403,47 @@
     <row r="1" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" s="7"/>
-      <c r="E2" s="234" t="s">
+      <c r="E2" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
       <c r="N2" s="84"/>
       <c r="O2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="234" t="s">
+      <c r="T2" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="235"/>
-      <c r="V2" s="235"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
-      <c r="Z2" s="235"/>
-      <c r="AA2" s="235"/>
-      <c r="AB2" s="235"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="236"/>
+      <c r="AB2" s="236"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="3:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="250"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="240"/>
+      <c r="M3" s="251"/>
       <c r="N3" s="68"/>
       <c r="O3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="238"/>
-      <c r="AA3" s="239"/>
-      <c r="AB3" s="240"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="241"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -13786,12 +14720,12 @@
       <c r="T7" s="153"/>
       <c r="U7" s="225"/>
       <c r="V7" s="227"/>
-      <c r="W7" s="257" t="s">
+      <c r="W7" s="258" t="s">
         <v>192</v>
       </c>
-      <c r="X7" s="257"/>
-      <c r="Y7" s="257"/>
-      <c r="Z7" s="258"/>
+      <c r="X7" s="258"/>
+      <c r="Y7" s="258"/>
+      <c r="Z7" s="259"/>
       <c r="AA7" s="226"/>
       <c r="AB7" s="225"/>
       <c r="AC7" s="228"/>
@@ -13899,12 +14833,12 @@
       <c r="C10" s="154"/>
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="259" t="s">
+      <c r="H10" s="260" t="s">
         <v>193</v>
       </c>
-      <c r="I10" s="260"/>
-      <c r="J10" s="260"/>
-      <c r="K10" s="261"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="261"/>
+      <c r="K10" s="262"/>
       <c r="L10" s="22"/>
       <c r="M10" s="157"/>
       <c r="N10" s="77"/>
@@ -13986,31 +14920,31 @@
     </row>
     <row r="14" spans="3:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D14" s="7"/>
-      <c r="E14" s="247" t="s">
+      <c r="E14" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="248"/>
-      <c r="G14" s="248"/>
-      <c r="H14" s="248"/>
-      <c r="I14" s="248"/>
-      <c r="J14" s="248"/>
-      <c r="K14" s="248"/>
-      <c r="L14" s="248"/>
-      <c r="M14" s="256"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="249"/>
+      <c r="K14" s="249"/>
+      <c r="L14" s="249"/>
+      <c r="M14" s="257"/>
       <c r="N14" s="171"/>
       <c r="O14" s="151"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="247" t="s">
+      <c r="T14" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="248"/>
-      <c r="V14" s="248"/>
-      <c r="W14" s="248"/>
-      <c r="X14" s="248"/>
-      <c r="Y14" s="248"/>
-      <c r="Z14" s="248"/>
-      <c r="AA14" s="248"/>
-      <c r="AB14" s="248"/>
+      <c r="U14" s="249"/>
+      <c r="V14" s="249"/>
+      <c r="W14" s="249"/>
+      <c r="X14" s="249"/>
+      <c r="Y14" s="249"/>
+      <c r="Z14" s="249"/>
+      <c r="AA14" s="249"/>
+      <c r="AB14" s="249"/>
       <c r="AC14" s="171"/>
       <c r="AD14" s="151"/>
     </row>
@@ -14024,9 +14958,9 @@
       <c r="O15" s="152"/>
       <c r="S15" s="7"/>
       <c r="T15" s="1"/>
-      <c r="Z15" s="238"/>
-      <c r="AA15" s="239"/>
-      <c r="AB15" s="240"/>
+      <c r="Z15" s="239"/>
+      <c r="AA15" s="240"/>
+      <c r="AB15" s="241"/>
       <c r="AC15" s="68"/>
       <c r="AD15" s="152"/>
     </row>
@@ -14349,12 +15283,12 @@
       <c r="R20" s="154"/>
       <c r="U20" s="30"/>
       <c r="V20" s="31"/>
-      <c r="W20" s="254" t="s">
+      <c r="W20" s="255" t="s">
         <v>192</v>
       </c>
-      <c r="X20" s="254"/>
-      <c r="Y20" s="254"/>
-      <c r="Z20" s="255"/>
+      <c r="X20" s="255"/>
+      <c r="Y20" s="255"/>
+      <c r="Z20" s="256"/>
       <c r="AA20" s="22"/>
       <c r="AB20" s="157"/>
       <c r="AC20" s="77"/>
@@ -14401,12 +15335,12 @@
       <c r="C22" s="154"/>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="251" t="s">
+      <c r="H22" s="252" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="252"/>
-      <c r="J22" s="252"/>
-      <c r="K22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="254"/>
       <c r="L22" s="22"/>
       <c r="M22" s="157"/>
       <c r="N22" s="77"/>
@@ -14489,17 +15423,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="H10:K10"/>
     <mergeCell ref="T2:AB2"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="T14:AB14"/>
     <mergeCell ref="Z15:AB15"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14559,53 +15493,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="234" t="s">
+      <c r="C1" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="235"/>
-      <c r="K1" s="235"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
       <c r="L1" s="127" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="133"/>
       <c r="N1" s="81"/>
-      <c r="O1" s="247" t="s">
+      <c r="O1" s="248" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="248"/>
-      <c r="T1" s="248"/>
-      <c r="U1" s="248"/>
-      <c r="V1" s="248"/>
-      <c r="W1" s="248"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
+      <c r="S1" s="249"/>
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
       <c r="X1" s="128" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="238" t="s">
+      <c r="I2" s="239" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="239"/>
-      <c r="K2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="241"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
       <c r="P2"/>
-      <c r="V2" s="238" t="s">
+      <c r="V2" s="239" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="239"/>
-      <c r="X2" s="240"/>
+      <c r="W2" s="240"/>
+      <c r="X2" s="241"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -15264,12 +16198,12 @@
     <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="241">
+      <c r="F20" s="242">
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
         <v>14572.5</v>
       </c>
-      <c r="G20" s="242"/>
-      <c r="H20" s="243"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="244"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -15280,12 +16214,12 @@
       <c r="P20"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="244">
+      <c r="S20" s="245">
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>21274</v>
       </c>
-      <c r="T20" s="245"/>
-      <c r="U20" s="246"/>
+      <c r="T20" s="246"/>
+      <c r="U20" s="247"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="242">
   <si>
     <t>FECHA</t>
   </si>
@@ -722,6 +722,73 @@
   <si>
     <t>Chiles  Morita--Costeño--Chile Ancho-Pulla-Jamaica-frijol</t>
   </si>
+  <si>
+    <t># 06</t>
+  </si>
+  <si>
+    <t>21--AL---27--Octubre-23</t>
+  </si>
+  <si>
+    <t>del       21--- al  27    OCTUBRE-2023</t>
+  </si>
+  <si>
+    <t>Pechuga--Bistec pco --pollo-jamon--chicharron-gouda</t>
+  </si>
+  <si>
+    <t>Papaya --Manzana--maracuya--sandia --guayaba</t>
+  </si>
+  <si>
+    <t>Poblano--zanahoria --calabaza--chayote--chicharo--serrano--tampico--ejote--pápá-cebolla--ajo--tomate--jitomate-Limon-Eloe</t>
+  </si>
+  <si>
+    <t>29-Sept-23  1 BULTO AZUCAR 50 K</t>
+  </si>
+  <si>
+    <r>
+      <t>Yogurt-----21-Oct-23  ----Azucar bulto 50K-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-29-Sept-23 se combo 1 Bulto AZUCAR--Chiopotle-rajas-Elote-Café Legal--Leche--Italpasta-</t>
+    </r>
+  </si>
+  <si>
+    <t>Papel Mixiote--Hilo mixiote--guajillo--pulla-ciruela--almendras-canela</t>
+  </si>
+  <si>
+    <t>Bistec pco--pechugas--queso panela--pollo--chicharron</t>
+  </si>
+  <si>
+    <t>Chicharo--calabaza--zanahoria--chayote--jalapeño--serrano--cebolla--Papa--Limon-Elote--Jitomate</t>
+  </si>
+  <si>
+    <t>Melon-Sandia--Guayaba--Manzana--maracuya</t>
+  </si>
+  <si>
+    <t>Tomillo-oregano-pipicha-Hierbabuena-poro-Cilantro</t>
+  </si>
+  <si>
+    <t>HUEV O</t>
+  </si>
+  <si>
+    <t>Yogurt--Chipotle--Elote--ACEITE--CREMA ALPURA</t>
+  </si>
+  <si>
+    <t>Almendras--Ciruela Pasa--</t>
+  </si>
+  <si>
+    <t>PAN DE DULCE</t>
+  </si>
+  <si>
+    <t>21--AL---27--Octubre-24</t>
+  </si>
 </sst>
 </file>
 
@@ -731,7 +798,7 @@
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +956,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1740,7 +1815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2316,6 +2391,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2415,14 +2499,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2774,34 +2858,34 @@
     <row r="1" spans="2:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="126" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="122"/>
-      <c r="C2" s="263" t="s">
+      <c r="C2" s="266" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
+      <c r="K2" s="267"/>
       <c r="L2" s="123"/>
       <c r="M2" s="124"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
-      <c r="P2" s="265" t="s">
+      <c r="P2" s="268" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="266"/>
-      <c r="R2" s="266"/>
-      <c r="S2" s="266"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
-      <c r="W2" s="266"/>
-      <c r="X2" s="266"/>
-      <c r="Y2" s="266"/>
-      <c r="Z2" s="267"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="37"/>
@@ -3752,12 +3836,12 @@
     <row r="19" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="242">
+      <c r="F19" s="245">
         <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
         <v>50513</v>
       </c>
-      <c r="G19" s="243"/>
-      <c r="H19" s="244"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="247"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -3767,12 +3851,12 @@
       <c r="O19" s="74"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="245">
+      <c r="T19" s="248">
         <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
         <v>78100</v>
       </c>
-      <c r="U19" s="246"/>
-      <c r="V19" s="247"/>
+      <c r="U19" s="249"/>
+      <c r="V19" s="250"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -3907,32 +3991,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="235" t="s">
+      <c r="B2" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="248" t="s">
+      <c r="M2" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="257"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="252"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="260"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -5191,12 +5275,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="242">
+      <c r="E30" s="245">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="243"/>
-      <c r="G30" s="244"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="247"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5204,12 +5288,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="245">
+      <c r="Q30" s="248">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="246"/>
-      <c r="S30" s="247"/>
+      <c r="R30" s="249"/>
+      <c r="S30" s="250"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -5330,10 +5414,10 @@
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
-  <dimension ref="B1:AA137"/>
+  <dimension ref="B1:AA167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J14:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5351,58 +5435,59 @@
     <col min="24" max="24" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="235" t="s">
+      <c r="C2" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
       <c r="L2" s="128" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="237" t="s">
+      <c r="O2" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="238"/>
-      <c r="S2" s="238"/>
-      <c r="T2" s="238"/>
-      <c r="U2" s="238"/>
-      <c r="V2" s="238"/>
-      <c r="W2" s="238"/>
-      <c r="X2" s="190" t="s">
-        <v>208</v>
+      <c r="P2" s="241"/>
+      <c r="Q2" s="241"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="241"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="190" t="str">
+        <f>L2</f>
+        <v># 06</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="239" t="s">
-        <v>209</v>
-      </c>
-      <c r="J3" s="240"/>
-      <c r="K3" s="241"/>
+      <c r="I3" s="242" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="243"/>
+      <c r="K3" s="244"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="239" t="str">
+      <c r="V3" s="242" t="str">
         <f>I3</f>
-        <v>del       14--- al  20    OCTUBRE-2023</v>
-      </c>
-      <c r="W3" s="240"/>
-      <c r="X3" s="241"/>
+        <v>del       21--- al  27    OCTUBRE-2023</v>
+      </c>
+      <c r="W3" s="243"/>
+      <c r="X3" s="244"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -5471,12 +5556,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C5" s="234" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -5486,17 +5571,17 @@
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
       <c r="K5" s="72">
-        <f>1005+1010+294+788+560+1996</f>
-        <v>5653</v>
+        <f>1396+211+673+180</f>
+        <v>2460</v>
       </c>
       <c r="L5" s="71"/>
       <c r="M5" s="131"/>
       <c r="N5" s="74"/>
       <c r="O5" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="P5" s="86" t="s">
-        <v>211</v>
+        <v>225</v>
+      </c>
+      <c r="P5" s="234" t="s">
+        <v>227</v>
       </c>
       <c r="Q5" s="72"/>
       <c r="R5" s="72"/>
@@ -5506,22 +5591,22 @@
       <c r="V5" s="72"/>
       <c r="W5" s="72"/>
       <c r="X5" s="72">
-        <f>2155+252+2415+527+2054</f>
-        <v>7403</v>
+        <f>1712+920+717</f>
+        <v>3349</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67">
-        <f>960+275+300+595+65</f>
-        <v>2195</v>
+        <f>1385+264+197+490</f>
+        <v>2336</v>
       </c>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
@@ -5532,33 +5617,33 @@
       <c r="M6" s="131"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="P6" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72">
-        <f>1030+275+375+23+23+15+480+595</f>
-        <v>2816</v>
-      </c>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
+        <v>225</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67">
+        <f>19+2300+702+700+80</f>
+        <v>3801</v>
+      </c>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
       <c r="X6" s="67"/>
     </row>
     <row r="7" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D7" s="67">
-        <f>200+23+13+212</f>
-        <v>448</v>
+        <f>110+188+220+210</f>
+        <v>728</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
@@ -5571,36 +5656,36 @@
       <c r="M7" s="131"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="P7" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72">
-        <f>105+40+60+5</f>
-        <v>210</v>
-      </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
+        <v>225</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" s="67">
+        <f>165+350+140+215+180+200+262</f>
+        <v>1512</v>
+      </c>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
       <c r="X7" s="67"/>
     </row>
     <row r="8" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
-      <c r="F8" s="67">
-        <v>66</v>
-      </c>
-      <c r="G8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67">
+        <v>155</v>
+      </c>
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
       <c r="J8" s="67"/>
@@ -5609,113 +5694,118 @@
       <c r="M8" s="131"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="P8" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72">
-        <f>664.5+127+26+500+841</f>
-        <v>2158.5</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="P8" s="271" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67">
+        <v>905</v>
+      </c>
+      <c r="V8" s="67">
+        <v>0</v>
+      </c>
+      <c r="W8" s="67"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="9" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" ht="63" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67">
-        <f>1004</f>
-        <v>1004</v>
-      </c>
+      <c r="I9" s="67">
+        <v>449</v>
+      </c>
+      <c r="J9" s="67"/>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="P9" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72">
-        <v>851</v>
-      </c>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
+        <v>225</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67">
+        <f>127+1495+922</f>
+        <v>2544</v>
+      </c>
       <c r="X9" s="67"/>
+      <c r="Y9" s="272" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="10" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D10" s="67"/>
-      <c r="E10" s="67">
-        <v>759</v>
-      </c>
+      <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="J10" s="67">
+        <f>127+693</f>
+        <v>820</v>
+      </c>
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="131"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="P10" s="195" t="s">
-        <v>4</v>
+        <v>225</v>
+      </c>
+      <c r="P10" s="273" t="s">
+        <v>232</v>
       </c>
       <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
+      <c r="R10" s="72">
+        <f>795+76.5+235+363</f>
+        <v>1469.5</v>
+      </c>
       <c r="S10" s="72"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="72">
-        <v>805</v>
-      </c>
+      <c r="U10" s="72"/>
       <c r="V10" s="72"/>
       <c r="W10" s="72"/>
       <c r="X10" s="67"/>
     </row>
     <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="67">
+        <v>138</v>
+      </c>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
-      <c r="H11" s="67">
-        <f>85+68+255+85</f>
-        <v>493</v>
-      </c>
+      <c r="H11" s="67"/>
       <c r="I11" s="67"/>
       <c r="J11" s="94"/>
       <c r="K11" s="67"/>
@@ -5723,38 +5813,40 @@
       <c r="M11" s="131"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="P11" s="194" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q11" s="72">
-        <f>268+220+240+50+265</f>
-        <v>1043</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
       <c r="S11" s="72"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="72">
+        <f>255+170+170+170+170</f>
+        <v>935</v>
+      </c>
       <c r="W11" s="72"/>
       <c r="X11" s="67"/>
       <c r="Y11" s="129"/>
     </row>
     <row r="12" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="E12" s="67" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
       <c r="H12" s="67">
-        <f>330+330+420</f>
-        <v>1080</v>
+        <f>68+85+68+68+68</f>
+        <v>357</v>
       </c>
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
@@ -5763,7 +5855,7 @@
       <c r="M12" s="131"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="P12" s="194" t="s">
         <v>140</v>
@@ -5774,53 +5866,53 @@
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
       <c r="V12" s="72">
-        <f>750+750+750+1532</f>
-        <v>3782</v>
+        <f>750+664+750+2516.5+205+760</f>
+        <v>5645.5</v>
       </c>
       <c r="W12" s="72"/>
       <c r="X12" s="67"/>
     </row>
     <row r="13" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="93" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C13" s="95" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="H13" s="67">
+        <f>330+330+420</f>
+        <v>1080</v>
+      </c>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
-      <c r="L13" s="67">
-        <v>500</v>
-      </c>
+      <c r="L13" s="67"/>
       <c r="M13" s="131"/>
       <c r="N13" s="74"/>
       <c r="O13" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="P13" s="192" t="s">
-        <v>217</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="P13" s="192"/>
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
       <c r="S13" s="72"/>
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="72">
-        <f>204+170+272+204+204</f>
-        <v>1054</v>
-      </c>
+      <c r="V13" s="72"/>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
     </row>
     <row r="14" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="93"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>207</v>
+      </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
@@ -5829,7 +5921,10 @@
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
-      <c r="L14" s="11"/>
+      <c r="L14" s="11">
+        <f>159+159+500</f>
+        <v>818</v>
+      </c>
       <c r="M14" s="131"/>
       <c r="N14" s="74"/>
       <c r="O14" s="191"/>
@@ -5952,39 +6047,39 @@
       </c>
       <c r="D19" s="30">
         <f>SUM(D5:D18)</f>
-        <v>448</v>
+        <v>728</v>
       </c>
       <c r="E19" s="30">
         <f t="shared" ref="E19:L19" si="0">SUM(E5:E18)</f>
-        <v>759</v>
+        <v>138</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>2261</v>
+        <v>2336</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" si="0"/>
-        <v>1573</v>
+        <v>1437</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" si="0"/>
-        <v>1004</v>
+        <v>820</v>
       </c>
       <c r="K19" s="30">
         <f t="shared" si="0"/>
-        <v>5653</v>
+        <v>2460</v>
       </c>
       <c r="L19" s="30">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>818</v>
       </c>
       <c r="M19" s="132"/>
       <c r="N19" s="74"/>
@@ -5994,35 +6089,35 @@
       </c>
       <c r="Q19" s="21">
         <f t="shared" ref="Q19:X19" si="1">SUM(Q5:Q18)</f>
-        <v>1043</v>
+        <v>1512</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" si="1"/>
-        <v>851</v>
+        <v>1469.5</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="1"/>
-        <v>2816</v>
+        <v>3801</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="U19" s="21">
         <f t="shared" si="1"/>
-        <v>805</v>
+        <v>905</v>
       </c>
       <c r="V19" s="21">
         <f t="shared" si="1"/>
-        <v>4836</v>
+        <v>6580.5</v>
       </c>
       <c r="W19" s="21">
         <f t="shared" si="1"/>
-        <v>2158.5</v>
+        <v>2544</v>
       </c>
       <c r="X19" s="21">
         <f t="shared" si="1"/>
-        <v>7403</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6054,12 +6149,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="242">
+      <c r="F21" s="245">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
-        <v>12198</v>
-      </c>
-      <c r="G21" s="243"/>
-      <c r="H21" s="244"/>
+        <v>9341</v>
+      </c>
+      <c r="G21" s="246"/>
+      <c r="H21" s="247"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -6069,331 +6164,251 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="245">
+      <c r="S21" s="248">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
-        <v>20122.5</v>
-      </c>
-      <c r="T21" s="246"/>
-      <c r="U21" s="247"/>
+        <v>20161</v>
+      </c>
+      <c r="T21" s="249"/>
+      <c r="U21" s="250"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
     </row>
     <row r="22" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="268"/>
+      <c r="B22" s="235"/>
       <c r="C22" s="129"/>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
-      <c r="F22" s="269"/>
-      <c r="G22" s="270"/>
-      <c r="H22" s="270"/>
+      <c r="F22" s="236"/>
+      <c r="G22" s="237"/>
+      <c r="H22" s="237"/>
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
       <c r="K22" s="78"/>
       <c r="L22" s="71"/>
       <c r="M22" s="74"/>
       <c r="N22" s="74"/>
-      <c r="O22" s="268"/>
+      <c r="O22" s="235"/>
       <c r="Q22" s="78"/>
       <c r="R22" s="78"/>
-      <c r="S22" s="269"/>
-      <c r="T22" s="270"/>
-      <c r="U22" s="270"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="237"/>
+      <c r="U22" s="237"/>
       <c r="V22" s="78"/>
       <c r="W22" s="78"/>
       <c r="X22" s="78"/>
     </row>
-    <row r="23" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="268"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="269"/>
-      <c r="G23" s="270"/>
-      <c r="H23" s="270"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="268"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="269"/>
-      <c r="T23" s="270"/>
-      <c r="U23" s="270"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-    </row>
-    <row r="24" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="268"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="269"/>
-      <c r="G24" s="270"/>
-      <c r="H24" s="270"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="268"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="269"/>
-      <c r="T24" s="270"/>
-      <c r="U24" s="270"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-    </row>
-    <row r="25" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="268"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="269"/>
-      <c r="G25" s="270"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="268"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="269"/>
-      <c r="T25" s="270"/>
-      <c r="U25" s="270"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-    </row>
-    <row r="26" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="268"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="269"/>
-      <c r="G26" s="270"/>
-      <c r="H26" s="270"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="268"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="269"/>
-      <c r="T26" s="270"/>
-      <c r="U26" s="270"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="7"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-    </row>
-    <row r="32" spans="2:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="7"/>
+      <c r="C32" s="238" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="239"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="239"/>
+      <c r="L32" s="128" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="133"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="240" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="241"/>
+      <c r="Q32" s="241"/>
+      <c r="R32" s="241"/>
+      <c r="S32" s="241"/>
+      <c r="T32" s="241"/>
+      <c r="U32" s="241"/>
+      <c r="V32" s="241"/>
+      <c r="W32" s="241"/>
+      <c r="X32" s="190" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
-      <c r="C33" s="235" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="236"/>
-      <c r="E33" s="236"/>
-      <c r="F33" s="236"/>
-      <c r="G33" s="236"/>
-      <c r="H33" s="236"/>
-      <c r="I33" s="236"/>
-      <c r="J33" s="236"/>
-      <c r="K33" s="236"/>
-      <c r="L33" s="128" t="s">
-        <v>88</v>
-      </c>
-      <c r="M33" s="133"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="P33" s="238"/>
-      <c r="Q33" s="238"/>
-      <c r="R33" s="238"/>
-      <c r="S33" s="238"/>
-      <c r="T33" s="238"/>
-      <c r="U33" s="238"/>
-      <c r="V33" s="238"/>
-      <c r="W33" s="238"/>
-      <c r="X33" s="190" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="1"/>
-      <c r="I34" s="239" t="s">
-        <v>194</v>
-      </c>
-      <c r="J34" s="240"/>
-      <c r="K34" s="241"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="134"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="7"/>
-      <c r="V34" s="239" t="str">
-        <f>I34</f>
-        <v>del       07--- al  13    OCTUBRE-2023</v>
-      </c>
-      <c r="W34" s="240"/>
-      <c r="X34" s="241"/>
-    </row>
-    <row r="35" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="24" t="s">
+      <c r="C33" s="1"/>
+      <c r="I33" s="242" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" s="243"/>
+      <c r="K33" s="244"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="7"/>
+      <c r="V33" s="242" t="str">
+        <f>I33</f>
+        <v>del       14--- al  20    OCTUBRE-2023</v>
+      </c>
+      <c r="W33" s="243"/>
+      <c r="X33" s="244"/>
+    </row>
+    <row r="34" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D34" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E34" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F34" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G34" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="184" t="s">
+      <c r="I34" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="61" t="s">
+      <c r="J34" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="183" t="s">
+      <c r="K34" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="99" t="s">
+      <c r="L34" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M35" s="135"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="143" t="s">
+      <c r="M34" s="135"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q35" s="137" t="s">
+      <c r="Q34" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R35" s="138" t="s">
+      <c r="R34" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S35" s="138" t="s">
+      <c r="S34" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="T35" s="137" t="s">
+      <c r="T34" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U35" s="137" t="s">
+      <c r="U34" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V35" s="141" t="s">
+      <c r="V34" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W35" s="136" t="s">
+      <c r="W34" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X35" s="142" t="s">
+      <c r="X34" s="142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="234" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72">
+        <f>1005+1010+294+788+560+1996</f>
+        <v>5653</v>
+      </c>
+      <c r="L35" s="71"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="P35" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72">
+        <f>2155+252+2415+527+2054</f>
+        <v>7403</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C36" s="234" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72">
-        <f>1358+469+1088+1049</f>
-        <v>3964</v>
-      </c>
-      <c r="L36" s="71"/>
+        <v>210</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67">
+        <f>960+275+300+595+65</f>
+        <v>2195</v>
+      </c>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
       <c r="M36" s="131"/>
       <c r="N36" s="74"/>
       <c r="O36" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="P36" s="86" t="s">
-        <v>195</v>
+        <v>210</v>
+      </c>
+      <c r="P36" s="89" t="s">
+        <v>212</v>
       </c>
       <c r="Q36" s="72"/>
       <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
+      <c r="S36" s="72">
+        <f>1030+275+375+23+23+15+480+595</f>
+        <v>2816</v>
+      </c>
       <c r="T36" s="72"/>
       <c r="U36" s="72"/>
       <c r="V36" s="72"/>
       <c r="W36" s="72"/>
-      <c r="X36" s="72">
-        <f>1592+544+1586+1136</f>
-        <v>4858</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="67"/>
+    </row>
+    <row r="37" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="67"/>
+        <v>220</v>
+      </c>
+      <c r="D37" s="67">
+        <f>200+23+13+212</f>
+        <v>448</v>
+      </c>
       <c r="E37" s="67"/>
-      <c r="F37" s="67">
-        <f>2134+45+70+55+30+90</f>
-        <v>2424</v>
-      </c>
+      <c r="F37" s="67"/>
       <c r="G37" s="67"/>
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
@@ -6403,36 +6418,35 @@
       <c r="M37" s="131"/>
       <c r="N37" s="74"/>
       <c r="O37" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="P37" s="89" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="P37" s="87" t="s">
+        <v>213</v>
       </c>
       <c r="Q37" s="72"/>
       <c r="R37" s="72"/>
-      <c r="S37" s="72">
-        <f>2864+30+45+50+60+20</f>
-        <v>3069</v>
-      </c>
-      <c r="T37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72">
+        <f>105+40+60+5</f>
+        <v>210</v>
+      </c>
       <c r="U37" s="72"/>
       <c r="V37" s="72"/>
       <c r="W37" s="72"/>
       <c r="X37" s="67"/>
     </row>
-    <row r="38" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="67">
-        <f>115+195+65+217+150+214</f>
-        <v>956</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C38" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="67"/>
       <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
+      <c r="F38" s="67">
+        <v>66</v>
+      </c>
       <c r="G38" s="67"/>
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
@@ -6442,29 +6456,29 @@
       <c r="M38" s="131"/>
       <c r="N38" s="74"/>
       <c r="O38" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="P38" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q38" s="72">
-        <f>271+240+310</f>
-        <v>821</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="P38" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q38" s="72"/>
       <c r="R38" s="72"/>
       <c r="S38" s="72"/>
       <c r="T38" s="72"/>
       <c r="U38" s="72"/>
       <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
+      <c r="W38" s="72">
+        <f>664.5+127+26+500+841</f>
+        <v>2158.5</v>
+      </c>
       <c r="X38" s="67"/>
     </row>
-    <row r="39" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="96" t="s">
-        <v>205</v>
+        <v>210</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>222</v>
       </c>
       <c r="D39" s="67"/>
       <c r="E39" s="67"/>
@@ -6473,172 +6487,171 @@
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
       <c r="J39" s="67">
-        <v>112</v>
+        <f>1004</f>
+        <v>1004</v>
       </c>
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="131"/>
       <c r="N39" s="74"/>
       <c r="O39" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P39" s="89" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
+      <c r="R39" s="72">
+        <v>851</v>
+      </c>
       <c r="S39" s="72"/>
       <c r="T39" s="72"/>
       <c r="U39" s="72"/>
       <c r="V39" s="72"/>
-      <c r="W39" s="72">
-        <f>393+1291+64.5+360+302</f>
-        <v>2410.5</v>
-      </c>
+      <c r="W39" s="72"/>
       <c r="X39" s="67"/>
     </row>
-    <row r="40" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
+      <c r="E40" s="67">
+        <v>759</v>
+      </c>
       <c r="F40" s="67"/>
       <c r="G40" s="67"/>
       <c r="H40" s="67"/>
-      <c r="I40" s="67">
-        <v>704</v>
-      </c>
+      <c r="I40" s="67"/>
       <c r="J40" s="67"/>
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="131"/>
       <c r="N40" s="74"/>
       <c r="O40" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="P40" s="89" t="s">
-        <v>199</v>
+        <v>210</v>
+      </c>
+      <c r="P40" s="195" t="s">
+        <v>4</v>
       </c>
       <c r="Q40" s="72"/>
-      <c r="R40" s="72">
-        <f>941+931</f>
-        <v>1872</v>
-      </c>
+      <c r="R40" s="72"/>
       <c r="S40" s="72"/>
       <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
+      <c r="U40" s="72">
+        <v>805</v>
+      </c>
       <c r="V40" s="72"/>
       <c r="W40" s="72"/>
       <c r="X40" s="67"/>
     </row>
-    <row r="41" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="D41" s="67"/>
       <c r="E41" s="67"/>
       <c r="F41" s="67"/>
       <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
+      <c r="H41" s="67">
+        <f>85+68+255+85</f>
+        <v>493</v>
+      </c>
       <c r="I41" s="67"/>
-      <c r="J41" s="67">
-        <f>266+1719+26+38+264</f>
-        <v>2313</v>
-      </c>
+      <c r="J41" s="94"/>
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
       <c r="M41" s="131"/>
       <c r="N41" s="74"/>
       <c r="O41" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="P41" s="195" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q41" s="72"/>
+        <v>210</v>
+      </c>
+      <c r="P41" s="194" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q41" s="72">
+        <f>268+220+240+50+265</f>
+        <v>1043</v>
+      </c>
       <c r="R41" s="72"/>
       <c r="S41" s="72"/>
       <c r="T41" s="72"/>
       <c r="U41" s="72"/>
-      <c r="V41" s="72">
-        <f>170+204+204+204</f>
-        <v>782</v>
-      </c>
+      <c r="V41" s="72"/>
       <c r="W41" s="72"/>
       <c r="X41" s="67"/>
-    </row>
-    <row r="42" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y41" s="129"/>
+    </row>
+    <row r="42" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>96</v>
+        <v>210</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>11</v>
       </c>
       <c r="D42" s="67"/>
       <c r="E42" s="67"/>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
       <c r="H42" s="67">
-        <f>17+68+68+85+68</f>
-        <v>306</v>
+        <f>330+330+420</f>
+        <v>1080</v>
       </c>
       <c r="I42" s="67"/>
-      <c r="J42" s="94"/>
+      <c r="J42" s="67"/>
       <c r="K42" s="67"/>
       <c r="L42" s="67"/>
       <c r="M42" s="131"/>
       <c r="N42" s="74"/>
       <c r="O42" s="93" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="P42" s="194" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="Q42" s="72"/>
       <c r="R42" s="72"/>
       <c r="S42" s="72"/>
       <c r="T42" s="72"/>
-      <c r="U42" s="72">
-        <v>704</v>
-      </c>
-      <c r="V42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72">
+        <f>750+750+750+1532</f>
+        <v>3782</v>
+      </c>
       <c r="W42" s="72"/>
       <c r="X42" s="67"/>
-      <c r="Y42" s="129"/>
-    </row>
-    <row r="43" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>11</v>
+        <v>210</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>207</v>
       </c>
       <c r="D43" s="67"/>
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
-      <c r="H43" s="67">
-        <f>330+330+420</f>
-        <v>1080</v>
-      </c>
+      <c r="H43" s="67"/>
       <c r="I43" s="67"/>
       <c r="J43" s="67"/>
       <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
+      <c r="L43" s="67">
+        <v>500</v>
+      </c>
       <c r="M43" s="131"/>
       <c r="N43" s="74"/>
       <c r="O43" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="P43" s="194" t="s">
-        <v>140</v>
+        <v>210</v>
+      </c>
+      <c r="P43" s="192" t="s">
+        <v>217</v>
       </c>
       <c r="Q43" s="72"/>
       <c r="R43" s="72"/>
@@ -6646,19 +6659,15 @@
       <c r="T43" s="72"/>
       <c r="U43" s="72"/>
       <c r="V43" s="72">
-        <f>750+750+760+1335</f>
-        <v>3595</v>
+        <f>204+170+272+204+204</f>
+        <v>1054</v>
       </c>
       <c r="W43" s="72"/>
       <c r="X43" s="67"/>
     </row>
-    <row r="44" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="95" t="s">
-        <v>207</v>
-      </c>
+    <row r="44" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="93"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="67"/>
       <c r="E44" s="67"/>
       <c r="F44" s="67"/>
@@ -6667,32 +6676,23 @@
       <c r="I44" s="67"/>
       <c r="J44" s="67"/>
       <c r="K44" s="67"/>
-      <c r="L44" s="67">
-        <v>500</v>
-      </c>
+      <c r="L44" s="11"/>
       <c r="M44" s="131"/>
       <c r="N44" s="74"/>
-      <c r="O44" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="P44" s="192" t="s">
-        <v>200</v>
-      </c>
+      <c r="O44" s="191"/>
+      <c r="P44" s="193"/>
       <c r="Q44" s="72"/>
       <c r="R44" s="72"/>
       <c r="S44" s="72"/>
-      <c r="T44" s="72">
-        <f>115+30</f>
-        <v>145</v>
-      </c>
+      <c r="T44" s="72"/>
       <c r="U44" s="72"/>
       <c r="V44" s="72"/>
       <c r="W44" s="72"/>
       <c r="X44" s="67"/>
     </row>
-    <row r="45" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="93"/>
-      <c r="C45" s="42"/>
+      <c r="C45" s="95"/>
       <c r="D45" s="67"/>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
@@ -6704,8 +6704,8 @@
       <c r="L45" s="11"/>
       <c r="M45" s="131"/>
       <c r="N45" s="74"/>
-      <c r="O45" s="191"/>
-      <c r="P45" s="193"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="88"/>
       <c r="Q45" s="72"/>
       <c r="R45" s="72"/>
       <c r="S45" s="72"/>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="46" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="93"/>
-      <c r="C46" s="95"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="67"/>
       <c r="E46" s="67"/>
       <c r="F46" s="67"/>
@@ -6730,14 +6730,14 @@
       <c r="M46" s="131"/>
       <c r="N46" s="74"/>
       <c r="O46" s="93"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="72"/>
-      <c r="R46" s="72"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
+      <c r="P46" s="91"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
       <c r="X46" s="67"/>
     </row>
     <row r="47" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6766,760 +6766,746 @@
       <c r="X47" s="67"/>
     </row>
     <row r="48" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="93"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="11"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="20"/>
       <c r="M48" s="131"/>
       <c r="N48" s="74"/>
-      <c r="O48" s="93"/>
-      <c r="P48" s="91"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67"/>
-    </row>
-    <row r="49" spans="2:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="131"/>
-      <c r="N49" s="74"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="73">
-        <v>0</v>
-      </c>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="73"/>
-      <c r="V49" s="73"/>
-      <c r="W49" s="73"/>
-      <c r="X49" s="73"/>
-    </row>
-    <row r="50" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="35" t="s">
+      <c r="O48" s="46"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="73">
+        <v>0</v>
+      </c>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+    </row>
+    <row r="49" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="30">
-        <f>SUM(D36:D49)</f>
-        <v>956</v>
-      </c>
-      <c r="E50" s="30">
-        <f t="shared" ref="E50:L50" si="2">SUM(E36:E49)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="30">
+      <c r="D49" s="30">
+        <f>SUM(D35:D48)</f>
+        <v>448</v>
+      </c>
+      <c r="E49" s="30">
+        <f t="shared" ref="E49:L49" si="2">SUM(E35:E48)</f>
+        <v>759</v>
+      </c>
+      <c r="F49" s="30">
         <f t="shared" si="2"/>
-        <v>2424</v>
-      </c>
-      <c r="G50" s="30">
+        <v>2261</v>
+      </c>
+      <c r="G49" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H49" s="30">
         <f t="shared" si="2"/>
-        <v>1386</v>
-      </c>
-      <c r="I50" s="30">
+        <v>1573</v>
+      </c>
+      <c r="I49" s="30">
         <f t="shared" si="2"/>
-        <v>704</v>
-      </c>
-      <c r="J50" s="30">
+        <v>0</v>
+      </c>
+      <c r="J49" s="30">
         <f t="shared" si="2"/>
-        <v>2425</v>
-      </c>
-      <c r="K50" s="30">
+        <v>1004</v>
+      </c>
+      <c r="K49" s="30">
         <f t="shared" si="2"/>
-        <v>3964</v>
-      </c>
-      <c r="L50" s="30">
+        <v>5653</v>
+      </c>
+      <c r="L49" s="30">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="M50" s="132"/>
+      <c r="M49" s="132"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q49" s="21">
+        <f t="shared" ref="Q49:X49" si="3">SUM(Q35:Q48)</f>
+        <v>1043</v>
+      </c>
+      <c r="R49" s="21">
+        <f t="shared" si="3"/>
+        <v>851</v>
+      </c>
+      <c r="S49" s="21">
+        <f t="shared" si="3"/>
+        <v>2816</v>
+      </c>
+      <c r="T49" s="21">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="U49" s="21">
+        <f t="shared" si="3"/>
+        <v>805</v>
+      </c>
+      <c r="V49" s="21">
+        <f t="shared" si="3"/>
+        <v>4836</v>
+      </c>
+      <c r="W49" s="21">
+        <f t="shared" si="3"/>
+        <v>2158.5</v>
+      </c>
+      <c r="X49" s="21">
+        <f t="shared" si="3"/>
+        <v>7403</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="76"/>
       <c r="N50" s="74"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q50" s="21">
-        <f t="shared" ref="Q50:X50" si="3">SUM(Q36:Q49)</f>
-        <v>821</v>
-      </c>
-      <c r="R50" s="21">
-        <f t="shared" si="3"/>
-        <v>1872</v>
-      </c>
-      <c r="S50" s="21">
-        <f t="shared" si="3"/>
-        <v>3069</v>
-      </c>
-      <c r="T50" s="21">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="U50" s="21">
-        <f t="shared" si="3"/>
-        <v>704</v>
-      </c>
-      <c r="V50" s="21">
-        <f t="shared" si="3"/>
-        <v>4377</v>
-      </c>
-      <c r="W50" s="21">
-        <f t="shared" si="3"/>
-        <v>2410.5</v>
-      </c>
-      <c r="X50" s="21">
-        <f t="shared" si="3"/>
-        <v>4858</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+    </row>
+    <row r="51" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="F51" s="245">
+        <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
+        <v>12198</v>
+      </c>
+      <c r="G51" s="246"/>
+      <c r="H51" s="247"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="76"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="74"/>
       <c r="N51" s="74"/>
       <c r="O51" s="7"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
+      <c r="S51" s="248">
+        <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
+        <v>20122.5</v>
+      </c>
+      <c r="T51" s="249"/>
+      <c r="U51" s="250"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
     </row>
-    <row r="52" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="7"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="242">
-        <f>K50+J50+I50+H50+G50+F50+E50+D50+L50</f>
-        <v>12359</v>
-      </c>
-      <c r="G52" s="243"/>
-      <c r="H52" s="244"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
+    <row r="52" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B52" s="235"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="236"/>
+      <c r="G52" s="237"/>
+      <c r="H52" s="237"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
       <c r="L52" s="71"/>
       <c r="M52" s="74"/>
       <c r="N52" s="74"/>
-      <c r="O52" s="7"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="245">
-        <f>Q50+R50+S50+T50+U50+V50+W50+X50</f>
-        <v>18256.5</v>
-      </c>
-      <c r="T52" s="246"/>
-      <c r="U52" s="247"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="O52" s="235"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="236"/>
+      <c r="T52" s="237"/>
+      <c r="U52" s="237"/>
+      <c r="V52" s="78"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="78"/>
+    </row>
+    <row r="53" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B53" s="235"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="236"/>
+      <c r="G53" s="237"/>
+      <c r="H53" s="237"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
       <c r="L53" s="71"/>
       <c r="M53" s="74"/>
       <c r="N53" s="74"/>
-      <c r="O53" s="7"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-    </row>
-    <row r="58" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="7"/>
-      <c r="C59" s="235" t="s">
+      <c r="O53" s="235"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="236"/>
+      <c r="T53" s="237"/>
+      <c r="U53" s="237"/>
+      <c r="V53" s="78"/>
+      <c r="W53" s="78"/>
+      <c r="X53" s="78"/>
+    </row>
+    <row r="54" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B54" s="235"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="236"/>
+      <c r="G54" s="237"/>
+      <c r="H54" s="237"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="235"/>
+      <c r="Q54" s="78"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="236"/>
+      <c r="T54" s="237"/>
+      <c r="U54" s="237"/>
+      <c r="V54" s="78"/>
+      <c r="W54" s="78"/>
+      <c r="X54" s="78"/>
+    </row>
+    <row r="55" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B55" s="235"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="236"/>
+      <c r="G55" s="237"/>
+      <c r="H55" s="237"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="235"/>
+      <c r="Q55" s="78"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="236"/>
+      <c r="T55" s="237"/>
+      <c r="U55" s="237"/>
+      <c r="V55" s="78"/>
+      <c r="W55" s="78"/>
+      <c r="X55" s="78"/>
+    </row>
+    <row r="56" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B56" s="235"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="236"/>
+      <c r="G56" s="237"/>
+      <c r="H56" s="237"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="235"/>
+      <c r="Q56" s="78"/>
+      <c r="R56" s="78"/>
+      <c r="S56" s="236"/>
+      <c r="T56" s="237"/>
+      <c r="U56" s="237"/>
+      <c r="V56" s="78"/>
+      <c r="W56" s="78"/>
+      <c r="X56" s="78"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57" s="7"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="7"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+    </row>
+    <row r="62" spans="2:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="7"/>
+      <c r="C63" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="236"/>
-      <c r="E59" s="236"/>
-      <c r="F59" s="236"/>
-      <c r="G59" s="236"/>
-      <c r="H59" s="236"/>
-      <c r="I59" s="236"/>
-      <c r="J59" s="236"/>
-      <c r="K59" s="236"/>
-      <c r="L59" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="M59" s="133"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="237" t="s">
+      <c r="D63" s="239"/>
+      <c r="E63" s="239"/>
+      <c r="F63" s="239"/>
+      <c r="G63" s="239"/>
+      <c r="H63" s="239"/>
+      <c r="I63" s="239"/>
+      <c r="J63" s="239"/>
+      <c r="K63" s="239"/>
+      <c r="L63" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="M63" s="133"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="240" t="s">
         <v>19</v>
       </c>
-      <c r="P59" s="238"/>
-      <c r="Q59" s="238"/>
-      <c r="R59" s="238"/>
-      <c r="S59" s="238"/>
-      <c r="T59" s="238"/>
-      <c r="U59" s="238"/>
-      <c r="V59" s="238"/>
-      <c r="W59" s="238"/>
-      <c r="X59" s="190" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="7"/>
-      <c r="C60" s="1"/>
-      <c r="I60" s="239" t="s">
-        <v>167</v>
-      </c>
-      <c r="J60" s="240"/>
-      <c r="K60" s="241"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="134"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="7"/>
-      <c r="V60" s="239" t="str">
-        <f>I60</f>
-        <v>del       30--- al  06    OCTUBRE-2023</v>
-      </c>
-      <c r="W60" s="240"/>
-      <c r="X60" s="241"/>
-    </row>
-    <row r="61" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="24" t="s">
+      <c r="P63" s="241"/>
+      <c r="Q63" s="241"/>
+      <c r="R63" s="241"/>
+      <c r="S63" s="241"/>
+      <c r="T63" s="241"/>
+      <c r="U63" s="241"/>
+      <c r="V63" s="241"/>
+      <c r="W63" s="241"/>
+      <c r="X63" s="190" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="7"/>
+      <c r="C64" s="1"/>
+      <c r="I64" s="242" t="s">
+        <v>194</v>
+      </c>
+      <c r="J64" s="243"/>
+      <c r="K64" s="244"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="134"/>
+      <c r="N64" s="74"/>
+      <c r="O64" s="7"/>
+      <c r="V64" s="242" t="str">
+        <f>I64</f>
+        <v>del       07--- al  13    OCTUBRE-2023</v>
+      </c>
+      <c r="W64" s="243"/>
+      <c r="X64" s="244"/>
+    </row>
+    <row r="65" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D65" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E65" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="56" t="s">
+      <c r="F65" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G65" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H61" s="27" t="s">
+      <c r="H65" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I61" s="184" t="s">
+      <c r="I65" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="61" t="s">
+      <c r="J65" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K61" s="183" t="s">
+      <c r="K65" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="99" t="s">
+      <c r="L65" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M61" s="135"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P61" s="143" t="s">
+      <c r="M65" s="135"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q61" s="137" t="s">
+      <c r="Q65" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R61" s="138" t="s">
+      <c r="R65" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S61" s="138" t="s">
+      <c r="S65" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="T61" s="137" t="s">
+      <c r="T65" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U61" s="137" t="s">
+      <c r="U65" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V61" s="141" t="s">
+      <c r="V65" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W61" s="136" t="s">
+      <c r="W65" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X61" s="142" t="s">
+      <c r="X65" s="142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:24" ht="60" x14ac:dyDescent="0.25">
-      <c r="B62" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C62" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
-      <c r="I62" s="72"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="104">
-        <f>1150+1167+1554+234+1684</f>
-        <v>5789</v>
-      </c>
-      <c r="L62" s="70"/>
-      <c r="M62" s="131"/>
-      <c r="N62" s="74"/>
-      <c r="O62" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P62" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="72"/>
-      <c r="T62" s="72"/>
-      <c r="U62" s="72"/>
-      <c r="V62" s="72"/>
-      <c r="W62" s="72"/>
-      <c r="X62" s="104">
-        <f>1459+1661+1598+779+1647</f>
-        <v>7144</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="105">
-        <f>45+18+1601+60+30</f>
-        <v>1754</v>
-      </c>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P63" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q63" s="72"/>
-      <c r="R63" s="72"/>
-      <c r="S63" s="104">
-        <f>30+70+56+1967+36+60</f>
-        <v>2219</v>
-      </c>
-      <c r="T63" s="72"/>
-      <c r="U63" s="72"/>
-      <c r="V63" s="72"/>
-      <c r="W63" s="72"/>
-      <c r="X63" s="67"/>
-    </row>
-    <row r="64" spans="2:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="105">
-        <f>220+221+100+155+190</f>
-        <v>886</v>
-      </c>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="74"/>
-      <c r="O64" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P64" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q64" s="104">
-        <f>200+100+253+35+215</f>
-        <v>803</v>
-      </c>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="72"/>
-      <c r="W64" s="72"/>
-      <c r="X64" s="67"/>
-    </row>
-    <row r="65" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="96" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="105">
-        <v>15</v>
-      </c>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="74"/>
-      <c r="O65" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P65" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q65" s="72"/>
-      <c r="R65" s="72"/>
-      <c r="S65" s="72"/>
-      <c r="T65" s="72"/>
-      <c r="U65" s="72"/>
-      <c r="V65" s="72"/>
-      <c r="W65" s="104">
-        <f>1390+343+55+40+88</f>
-        <v>1916</v>
-      </c>
-      <c r="X65" s="67"/>
-    </row>
-    <row r="66" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="105">
-        <v>352</v>
-      </c>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="11"/>
+        <v>201</v>
+      </c>
+      <c r="C66" s="234" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72">
+        <f>1358+469+1088+1049</f>
+        <v>3964</v>
+      </c>
+      <c r="L66" s="71"/>
       <c r="M66" s="131"/>
       <c r="N66" s="74"/>
       <c r="O66" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P66" s="194" t="s">
-        <v>176</v>
+        <v>201</v>
+      </c>
+      <c r="P66" s="86" t="s">
+        <v>195</v>
       </c>
       <c r="Q66" s="72"/>
-      <c r="R66" s="104">
-        <v>590</v>
-      </c>
+      <c r="R66" s="72"/>
       <c r="S66" s="72"/>
       <c r="T66" s="72"/>
       <c r="U66" s="72"/>
       <c r="V66" s="72"/>
       <c r="W66" s="72"/>
-      <c r="X66" s="67"/>
-    </row>
-    <row r="67" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X66" s="72">
+        <f>1592+544+1586+1136</f>
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D67" s="67"/>
       <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
+      <c r="F67" s="67">
+        <f>2134+45+70+55+30+90</f>
+        <v>2424</v>
+      </c>
       <c r="G67" s="67"/>
       <c r="H67" s="67"/>
       <c r="I67" s="67"/>
-      <c r="J67" s="105">
-        <f>578+127</f>
-        <v>705</v>
-      </c>
+      <c r="J67" s="67"/>
       <c r="K67" s="67"/>
-      <c r="L67" s="11"/>
+      <c r="L67" s="67"/>
       <c r="M67" s="131"/>
       <c r="N67" s="74"/>
       <c r="O67" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P67" s="195" t="s">
-        <v>164</v>
+        <v>201</v>
+      </c>
+      <c r="P67" s="89" t="s">
+        <v>196</v>
       </c>
       <c r="Q67" s="72"/>
       <c r="R67" s="72"/>
-      <c r="S67" s="72"/>
+      <c r="S67" s="72">
+        <f>2864+30+45+50+60+20</f>
+        <v>3069</v>
+      </c>
       <c r="T67" s="72"/>
       <c r="U67" s="72"/>
-      <c r="V67" s="104">
-        <f>68+238+204+204+270+238</f>
-        <v>1222</v>
-      </c>
+      <c r="V67" s="72"/>
       <c r="W67" s="72"/>
       <c r="X67" s="67"/>
     </row>
-    <row r="68" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="93" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" s="67"/>
-      <c r="E68" s="105">
-        <f>180+641</f>
-        <v>821</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D68" s="67">
+        <f>115+195+65+217+150+214</f>
+        <v>956</v>
+      </c>
+      <c r="E68" s="67"/>
       <c r="F68" s="67"/>
       <c r="G68" s="67"/>
       <c r="H68" s="67"/>
       <c r="I68" s="67"/>
-      <c r="J68" s="94"/>
+      <c r="J68" s="67"/>
       <c r="K68" s="67"/>
-      <c r="L68" s="11"/>
+      <c r="L68" s="67"/>
       <c r="M68" s="131"/>
       <c r="N68" s="74"/>
       <c r="O68" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P68" s="194" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q68" s="72"/>
+        <v>201</v>
+      </c>
+      <c r="P68" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q68" s="72">
+        <f>271+240+310</f>
+        <v>821</v>
+      </c>
       <c r="R68" s="72"/>
       <c r="S68" s="72"/>
       <c r="T68" s="72"/>
-      <c r="U68" s="104">
-        <v>714</v>
-      </c>
+      <c r="U68" s="72"/>
       <c r="V68" s="72"/>
       <c r="W68" s="72"/>
       <c r="X68" s="67"/>
-      <c r="Y68" s="129"/>
-    </row>
-    <row r="69" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>96</v>
+        <v>201</v>
+      </c>
+      <c r="C69" s="96" t="s">
+        <v>205</v>
       </c>
       <c r="D69" s="67"/>
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
       <c r="G69" s="67"/>
-      <c r="H69" s="105">
-        <f>51+204+85+85+68+68</f>
-        <v>561</v>
-      </c>
+      <c r="H69" s="67"/>
       <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
+      <c r="J69" s="67">
+        <v>112</v>
+      </c>
       <c r="K69" s="67"/>
-      <c r="L69" s="11"/>
+      <c r="L69" s="67"/>
       <c r="M69" s="131"/>
       <c r="N69" s="74"/>
       <c r="O69" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P69" s="194" t="s">
-        <v>140</v>
+        <v>201</v>
+      </c>
+      <c r="P69" s="89" t="s">
+        <v>198</v>
       </c>
       <c r="Q69" s="72"/>
       <c r="R69" s="72"/>
       <c r="S69" s="72"/>
       <c r="T69" s="72"/>
       <c r="U69" s="72"/>
-      <c r="V69" s="104">
-        <f>2650+700+700+710</f>
-        <v>4760</v>
-      </c>
-      <c r="W69" s="72"/>
+      <c r="V69" s="72"/>
+      <c r="W69" s="72">
+        <f>393+1291+64.5+360+302</f>
+        <v>2410.5</v>
+      </c>
       <c r="X69" s="67"/>
     </row>
-    <row r="70" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="95" t="s">
-        <v>11</v>
+        <v>201</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="D70" s="67"/>
       <c r="E70" s="67"/>
       <c r="F70" s="67"/>
       <c r="G70" s="67"/>
-      <c r="H70" s="105">
-        <f>380+380+470</f>
-        <v>1230</v>
-      </c>
-      <c r="I70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67">
+        <v>704</v>
+      </c>
       <c r="J70" s="67"/>
       <c r="K70" s="67"/>
-      <c r="L70" s="11"/>
+      <c r="L70" s="67"/>
       <c r="M70" s="131"/>
       <c r="N70" s="74"/>
       <c r="O70" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="P70" s="192" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="P70" s="89" t="s">
+        <v>199</v>
       </c>
       <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
+      <c r="R70" s="72">
+        <f>941+931</f>
+        <v>1872</v>
+      </c>
       <c r="S70" s="72"/>
-      <c r="T70" s="104">
-        <f>40+35</f>
-        <v>75</v>
-      </c>
+      <c r="T70" s="72"/>
       <c r="U70" s="72"/>
       <c r="V70" s="72"/>
       <c r="W70" s="72"/>
       <c r="X70" s="67"/>
     </row>
-    <row r="71" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="93"/>
-      <c r="C71" s="42"/>
+    <row r="71" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>206</v>
+      </c>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
       <c r="F71" s="67"/>
       <c r="G71" s="67"/>
       <c r="H71" s="67"/>
       <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
+      <c r="J71" s="67">
+        <f>266+1719+26+38+264</f>
+        <v>2313</v>
+      </c>
       <c r="K71" s="67"/>
-      <c r="L71" s="11"/>
+      <c r="L71" s="67"/>
       <c r="M71" s="131"/>
       <c r="N71" s="74"/>
-      <c r="O71" s="191"/>
-      <c r="P71" s="193"/>
+      <c r="O71" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P71" s="195" t="s">
+        <v>164</v>
+      </c>
       <c r="Q71" s="72"/>
       <c r="R71" s="72"/>
       <c r="S71" s="72"/>
       <c r="T71" s="72"/>
       <c r="U71" s="72"/>
-      <c r="V71" s="72"/>
+      <c r="V71" s="72">
+        <f>170+204+204+204</f>
+        <v>782</v>
+      </c>
       <c r="W71" s="72"/>
       <c r="X71" s="67"/>
     </row>
-    <row r="72" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="93"/>
-      <c r="C72" s="95"/>
+    <row r="72" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>96</v>
+      </c>
       <c r="D72" s="67"/>
       <c r="E72" s="67"/>
       <c r="F72" s="67"/>
       <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
+      <c r="H72" s="67">
+        <f>17+68+68+85+68</f>
+        <v>306</v>
+      </c>
       <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
+      <c r="J72" s="94"/>
       <c r="K72" s="67"/>
-      <c r="L72" s="11"/>
+      <c r="L72" s="67"/>
       <c r="M72" s="131"/>
       <c r="N72" s="74"/>
-      <c r="O72" s="93"/>
-      <c r="P72" s="88"/>
+      <c r="O72" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P72" s="194" t="s">
+        <v>4</v>
+      </c>
       <c r="Q72" s="72"/>
       <c r="R72" s="72"/>
       <c r="S72" s="72"/>
       <c r="T72" s="72"/>
-      <c r="U72" s="72"/>
+      <c r="U72" s="72">
+        <v>704</v>
+      </c>
       <c r="V72" s="72"/>
       <c r="W72" s="72"/>
       <c r="X72" s="67"/>
-    </row>
-    <row r="73" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="93"/>
-      <c r="C73" s="10"/>
+      <c r="Y72" s="129"/>
+    </row>
+    <row r="73" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="D73" s="67"/>
       <c r="E73" s="67"/>
       <c r="F73" s="67"/>
       <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
+      <c r="H73" s="67">
+        <f>330+330+420</f>
+        <v>1080</v>
+      </c>
       <c r="I73" s="67"/>
       <c r="J73" s="67"/>
       <c r="K73" s="67"/>
-      <c r="L73" s="11"/>
+      <c r="L73" s="67"/>
       <c r="M73" s="131"/>
       <c r="N73" s="74"/>
-      <c r="O73" s="93"/>
-      <c r="P73" s="91"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="67"/>
-      <c r="S73" s="67"/>
-      <c r="T73" s="67"/>
-      <c r="U73" s="67"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="67"/>
+      <c r="O73" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P73" s="194" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72">
+        <f>750+750+760+1335</f>
+        <v>3595</v>
+      </c>
+      <c r="W73" s="72"/>
       <c r="X73" s="67"/>
     </row>
-    <row r="74" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="93"/>
-      <c r="C74" s="10"/>
+    <row r="74" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" s="95" t="s">
+        <v>207</v>
+      </c>
       <c r="D74" s="67"/>
       <c r="E74" s="67"/>
       <c r="F74" s="67"/>
@@ -7528,501 +7514,522 @@
       <c r="I74" s="67"/>
       <c r="J74" s="67"/>
       <c r="K74" s="67"/>
-      <c r="L74" s="11"/>
+      <c r="L74" s="67">
+        <v>500</v>
+      </c>
       <c r="M74" s="131"/>
       <c r="N74" s="74"/>
-      <c r="O74" s="93"/>
-      <c r="P74" s="91"/>
-      <c r="Q74" s="67"/>
-      <c r="R74" s="67"/>
-      <c r="S74" s="67"/>
-      <c r="T74" s="67"/>
-      <c r="U74" s="67"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="67"/>
+      <c r="O74" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="P74" s="192" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72">
+        <f>115+30</f>
+        <v>145</v>
+      </c>
+      <c r="U74" s="72"/>
+      <c r="V74" s="72"/>
+      <c r="W74" s="72"/>
       <c r="X74" s="67"/>
     </row>
-    <row r="75" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="9"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="20"/>
+    <row r="75" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="93"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="131"/>
       <c r="N75" s="74"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="51"/>
-      <c r="Q75" s="73">
-        <v>0</v>
-      </c>
-      <c r="R75" s="73"/>
-      <c r="S75" s="73"/>
-      <c r="T75" s="73"/>
-      <c r="U75" s="73"/>
-      <c r="V75" s="73"/>
-      <c r="W75" s="73"/>
-      <c r="X75" s="73"/>
-    </row>
-    <row r="76" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="7"/>
-      <c r="C76" s="35" t="s">
+      <c r="O75" s="191"/>
+      <c r="P75" s="193"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="72"/>
+      <c r="X75" s="67"/>
+    </row>
+    <row r="76" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="93"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="93"/>
+      <c r="P76" s="88"/>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="72"/>
+      <c r="S76" s="72"/>
+      <c r="T76" s="72"/>
+      <c r="U76" s="72"/>
+      <c r="V76" s="72"/>
+      <c r="W76" s="72"/>
+      <c r="X76" s="67"/>
+    </row>
+    <row r="77" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="93"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="93"/>
+      <c r="P77" s="91"/>
+      <c r="Q77" s="67"/>
+      <c r="R77" s="67"/>
+      <c r="S77" s="67"/>
+      <c r="T77" s="67"/>
+      <c r="U77" s="67"/>
+      <c r="V77" s="67"/>
+      <c r="W77" s="67"/>
+      <c r="X77" s="67"/>
+    </row>
+    <row r="78" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="93"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="93"/>
+      <c r="P78" s="91"/>
+      <c r="Q78" s="67"/>
+      <c r="R78" s="67"/>
+      <c r="S78" s="67"/>
+      <c r="T78" s="67"/>
+      <c r="U78" s="67"/>
+      <c r="V78" s="67"/>
+      <c r="W78" s="67"/>
+      <c r="X78" s="67"/>
+    </row>
+    <row r="79" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="9"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="46"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="73">
+        <v>0</v>
+      </c>
+      <c r="R79" s="73"/>
+      <c r="S79" s="73"/>
+      <c r="T79" s="73"/>
+      <c r="U79" s="73"/>
+      <c r="V79" s="73"/>
+      <c r="W79" s="73"/>
+      <c r="X79" s="73"/>
+    </row>
+    <row r="80" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="7"/>
+      <c r="C80" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="30">
-        <f>SUM(D62:D75)</f>
-        <v>886</v>
-      </c>
-      <c r="E76" s="30">
-        <f t="shared" ref="E76:L76" si="4">SUM(E62:E75)</f>
+      <c r="D80" s="30">
+        <f>SUM(D66:D79)</f>
+        <v>956</v>
+      </c>
+      <c r="E80" s="30">
+        <f t="shared" ref="E80:L80" si="4">SUM(E66:E79)</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="30">
+        <f t="shared" si="4"/>
+        <v>2424</v>
+      </c>
+      <c r="G80" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="30">
+        <f t="shared" si="4"/>
+        <v>1386</v>
+      </c>
+      <c r="I80" s="30">
+        <f t="shared" si="4"/>
+        <v>704</v>
+      </c>
+      <c r="J80" s="30">
+        <f t="shared" si="4"/>
+        <v>2425</v>
+      </c>
+      <c r="K80" s="30">
+        <f t="shared" si="4"/>
+        <v>3964</v>
+      </c>
+      <c r="L80" s="30">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="M80" s="132"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q80" s="21">
+        <f t="shared" ref="Q80:X80" si="5">SUM(Q66:Q79)</f>
         <v>821</v>
       </c>
-      <c r="F76" s="30">
-        <f t="shared" si="4"/>
-        <v>1754</v>
-      </c>
-      <c r="G76" s="30">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="H76" s="30">
-        <f t="shared" si="4"/>
-        <v>1791</v>
-      </c>
-      <c r="I76" s="30">
-        <f t="shared" si="4"/>
-        <v>352</v>
-      </c>
-      <c r="J76" s="30">
-        <f t="shared" si="4"/>
-        <v>705</v>
-      </c>
-      <c r="K76" s="30">
-        <f t="shared" si="4"/>
+      <c r="R80" s="21">
+        <f t="shared" si="5"/>
+        <v>1872</v>
+      </c>
+      <c r="S80" s="21">
+        <f t="shared" si="5"/>
+        <v>3069</v>
+      </c>
+      <c r="T80" s="21">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="U80" s="21">
+        <f t="shared" si="5"/>
+        <v>704</v>
+      </c>
+      <c r="V80" s="21">
+        <f t="shared" si="5"/>
+        <v>4377</v>
+      </c>
+      <c r="W80" s="21">
+        <f t="shared" si="5"/>
+        <v>2410.5</v>
+      </c>
+      <c r="X80" s="21">
+        <f t="shared" si="5"/>
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="7"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="78"/>
+      <c r="M81" s="76"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="7"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+    </row>
+    <row r="82" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="7"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="245">
+        <f>K80+J80+I80+H80+G80+F80+E80+D80+L80</f>
+        <v>12359</v>
+      </c>
+      <c r="G82" s="246"/>
+      <c r="H82" s="247"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="71"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="7"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="248">
+        <f>Q80+R80+S80+T80+U80+V80+W80+X80</f>
+        <v>18256.5</v>
+      </c>
+      <c r="T82" s="249"/>
+      <c r="U82" s="250"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B83" s="7"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="7"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+    </row>
+    <row r="88" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="7"/>
+      <c r="C89" s="238" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="239"/>
+      <c r="E89" s="239"/>
+      <c r="F89" s="239"/>
+      <c r="G89" s="239"/>
+      <c r="H89" s="239"/>
+      <c r="I89" s="239"/>
+      <c r="J89" s="239"/>
+      <c r="K89" s="239"/>
+      <c r="L89" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="M89" s="133"/>
+      <c r="N89" s="81"/>
+      <c r="O89" s="240" t="s">
+        <v>19</v>
+      </c>
+      <c r="P89" s="241"/>
+      <c r="Q89" s="241"/>
+      <c r="R89" s="241"/>
+      <c r="S89" s="241"/>
+      <c r="T89" s="241"/>
+      <c r="U89" s="241"/>
+      <c r="V89" s="241"/>
+      <c r="W89" s="241"/>
+      <c r="X89" s="190" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="7"/>
+      <c r="C90" s="1"/>
+      <c r="I90" s="242" t="s">
+        <v>167</v>
+      </c>
+      <c r="J90" s="243"/>
+      <c r="K90" s="244"/>
+      <c r="L90" s="68"/>
+      <c r="M90" s="134"/>
+      <c r="N90" s="74"/>
+      <c r="O90" s="7"/>
+      <c r="V90" s="242" t="str">
+        <f>I90</f>
+        <v>del       30--- al  06    OCTUBRE-2023</v>
+      </c>
+      <c r="W90" s="243"/>
+      <c r="X90" s="244"/>
+    </row>
+    <row r="91" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M91" s="135"/>
+      <c r="N91" s="82"/>
+      <c r="O91" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P91" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R91" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T91" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W91" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="B92" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="104">
+        <f>1150+1167+1554+234+1684</f>
         <v>5789</v>
       </c>
-      <c r="L76" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="132"/>
-      <c r="N76" s="74"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q76" s="21">
-        <f t="shared" ref="Q76:X76" si="5">SUM(Q62:Q75)</f>
-        <v>803</v>
-      </c>
-      <c r="R76" s="21">
-        <f t="shared" si="5"/>
-        <v>590</v>
-      </c>
-      <c r="S76" s="21">
-        <f t="shared" si="5"/>
-        <v>2219</v>
-      </c>
-      <c r="T76" s="21">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="U76" s="21">
-        <f t="shared" si="5"/>
-        <v>714</v>
-      </c>
-      <c r="V76" s="21">
-        <f t="shared" si="5"/>
-        <v>5982</v>
-      </c>
-      <c r="W76" s="21">
-        <f t="shared" si="5"/>
-        <v>1916</v>
-      </c>
-      <c r="X76" s="21">
-        <f t="shared" si="5"/>
-        <v>7144</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="7"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="78"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="74"/>
-      <c r="O77" s="7"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-    </row>
-    <row r="78" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="7"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="242">
-        <f>K76+J76+I76+H76+G76+F76+E76+D76+L76</f>
-        <v>12113</v>
-      </c>
-      <c r="G78" s="243"/>
-      <c r="H78" s="244"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="71"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="74"/>
-      <c r="O78" s="7"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="245">
-        <f>Q76+R76+S76+T76+U76+V76+W76+X76</f>
-        <v>19443</v>
-      </c>
-      <c r="T78" s="246"/>
-      <c r="U78" s="247"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="7"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-    </row>
-    <row r="86" spans="2:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="7"/>
-      <c r="C86" s="1"/>
-      <c r="N86" s="80"/>
-      <c r="O86" s="188"/>
-      <c r="P86" s="189"/>
-      <c r="Q86" s="189"/>
-      <c r="R86" s="189"/>
-      <c r="S86" s="189"/>
-      <c r="T86" s="189"/>
-      <c r="U86" s="189"/>
-      <c r="V86" s="189"/>
-      <c r="W86" s="189"/>
-      <c r="X86" s="189"/>
-    </row>
-    <row r="87" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="7"/>
-      <c r="C87" s="235" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="236"/>
-      <c r="E87" s="236"/>
-      <c r="F87" s="236"/>
-      <c r="G87" s="236"/>
-      <c r="H87" s="236"/>
-      <c r="I87" s="236"/>
-      <c r="J87" s="236"/>
-      <c r="K87" s="236"/>
-      <c r="L87" s="185" t="s">
-        <v>42</v>
-      </c>
-      <c r="M87" s="133"/>
-      <c r="N87" s="81"/>
-      <c r="O87" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="P87" s="238"/>
-      <c r="Q87" s="238"/>
-      <c r="R87" s="238"/>
-      <c r="S87" s="238"/>
-      <c r="T87" s="238"/>
-      <c r="U87" s="238"/>
-      <c r="V87" s="238"/>
-      <c r="W87" s="238"/>
-      <c r="X87" s="187" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="7"/>
-      <c r="C88" s="1"/>
-      <c r="I88" s="239" t="s">
-        <v>148</v>
-      </c>
-      <c r="J88" s="240"/>
-      <c r="K88" s="241"/>
-      <c r="L88" s="68"/>
-      <c r="M88" s="134"/>
-      <c r="N88" s="74"/>
-      <c r="O88" s="7"/>
-      <c r="V88" s="239" t="s">
-        <v>151</v>
-      </c>
-      <c r="W88" s="240"/>
-      <c r="X88" s="241"/>
-    </row>
-    <row r="89" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G89" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="184" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K89" s="183" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="M89" s="135"/>
-      <c r="N89" s="82"/>
-      <c r="O89" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P89" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="R89" s="138" t="s">
-        <v>16</v>
-      </c>
-      <c r="S89" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="T89" s="140" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="140" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="141" t="s">
-        <v>25</v>
-      </c>
-      <c r="W89" s="136" t="s">
-        <v>8</v>
-      </c>
-      <c r="X89" s="144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B90" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C90" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="D90" s="72"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="72"/>
-      <c r="H90" s="72"/>
-      <c r="I90" s="72"/>
-      <c r="J90" s="72"/>
-      <c r="K90" s="72">
-        <f>1777+1054+1013+1333+1334</f>
-        <v>6511</v>
-      </c>
-      <c r="L90" s="70"/>
-      <c r="M90" s="131"/>
-      <c r="N90" s="74"/>
-      <c r="O90" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P90" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q90" s="72"/>
-      <c r="R90" s="72"/>
-      <c r="S90" s="72"/>
-      <c r="T90" s="72"/>
-      <c r="U90" s="72"/>
-      <c r="V90" s="72"/>
-      <c r="W90" s="72"/>
-      <c r="X90" s="104">
-        <f>1805+1908+939+1193+1386</f>
-        <v>7231</v>
-      </c>
-    </row>
-    <row r="91" spans="2:25" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C91" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67">
-        <f>1970</f>
-        <v>1970</v>
-      </c>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67"/>
-      <c r="M91" s="131"/>
-      <c r="N91" s="74"/>
-      <c r="O91" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P91" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q91" s="72"/>
-      <c r="R91" s="72"/>
-      <c r="S91" s="104">
-        <f>3020+87+41</f>
-        <v>3148</v>
-      </c>
-      <c r="T91" s="72"/>
-      <c r="U91" s="72"/>
-      <c r="V91" s="72"/>
-      <c r="W91" s="72"/>
-      <c r="X91" s="67"/>
-    </row>
-    <row r="92" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C92" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D92" s="67">
-        <f>85+324+280+202</f>
-        <v>891</v>
-      </c>
-      <c r="E92" s="67"/>
-      <c r="F92" s="67"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="67"/>
-      <c r="J92" s="67"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="11"/>
+      <c r="L92" s="70"/>
       <c r="M92" s="131"/>
       <c r="N92" s="74"/>
       <c r="O92" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P92" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q92" s="104">
-        <f>385+160+285</f>
-        <v>830</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P92" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q92" s="72"/>
       <c r="R92" s="72"/>
       <c r="S92" s="72"/>
       <c r="T92" s="72"/>
       <c r="U92" s="72"/>
       <c r="V92" s="72"/>
       <c r="W92" s="72"/>
-      <c r="X92" s="67"/>
-    </row>
-    <row r="93" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X92" s="104">
+        <f>1459+1661+1598+779+1647</f>
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B93" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C93" s="96" t="s">
-        <v>155</v>
+        <v>168</v>
+      </c>
+      <c r="C93" s="44" t="s">
+        <v>178</v>
       </c>
       <c r="D93" s="67"/>
       <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67">
-        <f>55+20</f>
-        <v>75</v>
-      </c>
+      <c r="F93" s="105">
+        <f>45+18+1601+60+30</f>
+        <v>1754</v>
+      </c>
+      <c r="G93" s="67"/>
       <c r="H93" s="67"/>
       <c r="I93" s="67"/>
       <c r="J93" s="67"/>
       <c r="K93" s="67"/>
-      <c r="L93" s="11"/>
+      <c r="L93" s="67"/>
       <c r="M93" s="131"/>
       <c r="N93" s="74"/>
       <c r="O93" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P93" s="87" t="s">
-        <v>163</v>
+        <v>168</v>
+      </c>
+      <c r="P93" s="89" t="s">
+        <v>181</v>
       </c>
       <c r="Q93" s="72"/>
       <c r="R93" s="72"/>
-      <c r="S93" s="72"/>
-      <c r="T93" s="104">
-        <f>55+121</f>
-        <v>176</v>
-      </c>
+      <c r="S93" s="104">
+        <f>30+70+56+1967+36+60</f>
+        <v>2219</v>
+      </c>
+      <c r="T93" s="72"/>
       <c r="U93" s="72"/>
       <c r="V93" s="72"/>
       <c r="W93" s="72"/>
       <c r="X93" s="67"/>
     </row>
-    <row r="94" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="93" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C94" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" s="67"/>
+        <v>171</v>
+      </c>
+      <c r="D94" s="105">
+        <f>220+221+100+155+190</f>
+        <v>886</v>
+      </c>
       <c r="E94" s="67"/>
       <c r="F94" s="67"/>
       <c r="G94" s="67"/>
@@ -8030,22 +8037,20 @@
       <c r="I94" s="67"/>
       <c r="J94" s="67"/>
       <c r="K94" s="67"/>
-      <c r="L94" s="11">
-        <v>500</v>
-      </c>
+      <c r="L94" s="11"/>
       <c r="M94" s="131"/>
       <c r="N94" s="74"/>
       <c r="O94" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P94" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q94" s="72"/>
-      <c r="R94" s="104">
-        <f>50+443+432+130</f>
-        <v>1055</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P94" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q94" s="104">
+        <f>200+100+253+35+215</f>
+        <v>803</v>
+      </c>
+      <c r="R94" s="72"/>
       <c r="S94" s="72"/>
       <c r="T94" s="72"/>
       <c r="U94" s="72"/>
@@ -8053,90 +8058,87 @@
       <c r="W94" s="72"/>
       <c r="X94" s="67"/>
     </row>
-    <row r="95" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:24" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" s="44" t="s">
-        <v>156</v>
+        <v>168</v>
+      </c>
+      <c r="C95" s="96" t="s">
+        <v>170</v>
       </c>
       <c r="D95" s="67"/>
       <c r="E95" s="67"/>
       <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
+      <c r="G95" s="105">
+        <v>15</v>
+      </c>
       <c r="H95" s="67"/>
-      <c r="I95" s="67">
-        <v>716</v>
-      </c>
+      <c r="I95" s="67"/>
       <c r="J95" s="67"/>
       <c r="K95" s="67"/>
       <c r="L95" s="11"/>
       <c r="M95" s="131"/>
       <c r="N95" s="74"/>
       <c r="O95" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P95" s="98" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="P95" s="89" t="s">
+        <v>175</v>
       </c>
       <c r="Q95" s="72"/>
       <c r="R95" s="72"/>
       <c r="S95" s="72"/>
       <c r="T95" s="72"/>
       <c r="U95" s="72"/>
-      <c r="V95" s="104">
-        <f>170+170+221+170+204</f>
-        <v>935</v>
-      </c>
-      <c r="W95" s="72"/>
+      <c r="V95" s="72"/>
+      <c r="W95" s="104">
+        <f>1390+343+55+40+88</f>
+        <v>1916</v>
+      </c>
       <c r="X95" s="67"/>
     </row>
-    <row r="96" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="93" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C96" s="44" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D96" s="67"/>
       <c r="E96" s="67"/>
       <c r="F96" s="67"/>
       <c r="G96" s="67"/>
       <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="94">
-        <f>440+19+261</f>
-        <v>720</v>
-      </c>
+      <c r="I96" s="105">
+        <v>352</v>
+      </c>
+      <c r="J96" s="67"/>
       <c r="K96" s="67"/>
       <c r="L96" s="11"/>
       <c r="M96" s="131"/>
       <c r="N96" s="74"/>
       <c r="O96" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P96" s="87" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="P96" s="194" t="s">
+        <v>176</v>
       </c>
       <c r="Q96" s="72"/>
-      <c r="R96" s="72"/>
+      <c r="R96" s="104">
+        <v>590</v>
+      </c>
       <c r="S96" s="72"/>
       <c r="T96" s="72"/>
       <c r="U96" s="72"/>
       <c r="V96" s="72"/>
-      <c r="W96" s="104">
-        <f>805+473+669</f>
-        <v>1947</v>
-      </c>
+      <c r="W96" s="72"/>
       <c r="X96" s="67"/>
-      <c r="Y96" s="129"/>
-    </row>
-    <row r="97" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C97" s="204" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="C97" s="44" t="s">
+        <v>177</v>
       </c>
       <c r="D97" s="67"/>
       <c r="E97" s="67"/>
@@ -8144,18 +8146,19 @@
       <c r="G97" s="67"/>
       <c r="H97" s="67"/>
       <c r="I97" s="67"/>
-      <c r="J97" s="67">
-        <v>1500</v>
+      <c r="J97" s="105">
+        <f>578+127</f>
+        <v>705</v>
       </c>
       <c r="K97" s="67"/>
       <c r="L97" s="11"/>
       <c r="M97" s="131"/>
       <c r="N97" s="74"/>
       <c r="O97" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P97" s="90" t="s">
-        <v>4</v>
+        <v>168</v>
+      </c>
+      <c r="P97" s="195" t="s">
+        <v>164</v>
       </c>
       <c r="Q97" s="72"/>
       <c r="R97" s="72"/>
@@ -8163,63 +8166,65 @@
       <c r="T97" s="72"/>
       <c r="U97" s="72"/>
       <c r="V97" s="104">
-        <v>688</v>
+        <f>68+238+204+204+270+238</f>
+        <v>1222</v>
       </c>
       <c r="W97" s="72"/>
       <c r="X97" s="67"/>
     </row>
-    <row r="98" spans="2:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C98" s="95" t="s">
-        <v>96</v>
+        <v>168</v>
+      </c>
+      <c r="C98" s="44" t="s">
+        <v>173</v>
       </c>
       <c r="D98" s="67"/>
-      <c r="E98" s="67"/>
+      <c r="E98" s="105">
+        <f>180+641</f>
+        <v>821</v>
+      </c>
       <c r="F98" s="67"/>
       <c r="G98" s="67"/>
-      <c r="H98" s="67">
-        <f>102+68+238+85+204</f>
-        <v>697</v>
-      </c>
+      <c r="H98" s="67"/>
       <c r="I98" s="67"/>
-      <c r="J98" s="67"/>
+      <c r="J98" s="94"/>
       <c r="K98" s="67"/>
       <c r="L98" s="11"/>
       <c r="M98" s="131"/>
       <c r="N98" s="74"/>
       <c r="O98" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P98" s="186" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="P98" s="194" t="s">
+        <v>4</v>
       </c>
       <c r="Q98" s="72"/>
       <c r="R98" s="72"/>
       <c r="S98" s="72"/>
       <c r="T98" s="72"/>
-      <c r="U98" s="72"/>
-      <c r="V98" s="104">
-        <v>1440</v>
-      </c>
+      <c r="U98" s="104">
+        <v>714</v>
+      </c>
+      <c r="V98" s="72"/>
       <c r="W98" s="72"/>
       <c r="X98" s="67"/>
-    </row>
-    <row r="99" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y98" s="129"/>
+    </row>
+    <row r="99" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="93" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D99" s="67"/>
       <c r="E99" s="67"/>
       <c r="F99" s="67"/>
       <c r="G99" s="67"/>
-      <c r="H99" s="67">
-        <f>380+380+470</f>
-        <v>1230</v>
+      <c r="H99" s="105">
+        <f>51+204+85+85+68+68</f>
+        <v>561</v>
       </c>
       <c r="I99" s="67"/>
       <c r="J99" s="67"/>
@@ -8228,9 +8233,9 @@
       <c r="M99" s="131"/>
       <c r="N99" s="74"/>
       <c r="O99" s="93" t="s">
-        <v>149</v>
-      </c>
-      <c r="P99" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="P99" s="194" t="s">
         <v>140</v>
       </c>
       <c r="Q99" s="72"/>
@@ -8239,46 +8244,54 @@
       <c r="T99" s="72"/>
       <c r="U99" s="72"/>
       <c r="V99" s="104">
-        <f>700+700+710+3464</f>
-        <v>5574</v>
+        <f>2650+700+700+710</f>
+        <v>4760</v>
       </c>
       <c r="W99" s="72"/>
       <c r="X99" s="67"/>
     </row>
-    <row r="100" spans="2:24" ht="24" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="93" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C100" s="95" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="D100" s="67"/>
-      <c r="E100" s="67">
-        <v>212</v>
-      </c>
+      <c r="E100" s="67"/>
       <c r="F100" s="67"/>
       <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
+      <c r="H100" s="105">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
       <c r="I100" s="67"/>
       <c r="J100" s="67"/>
       <c r="K100" s="67"/>
       <c r="L100" s="11"/>
       <c r="M100" s="131"/>
       <c r="N100" s="74"/>
-      <c r="O100" s="93"/>
-      <c r="P100" s="88"/>
+      <c r="O100" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="P100" s="192" t="s">
+        <v>180</v>
+      </c>
       <c r="Q100" s="72"/>
       <c r="R100" s="72"/>
       <c r="S100" s="72"/>
-      <c r="T100" s="72"/>
+      <c r="T100" s="104">
+        <f>40+35</f>
+        <v>75</v>
+      </c>
       <c r="U100" s="72"/>
       <c r="V100" s="72"/>
       <c r="W100" s="72"/>
       <c r="X100" s="67"/>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="93"/>
-      <c r="C101" s="10"/>
+      <c r="C101" s="42"/>
       <c r="D101" s="67"/>
       <c r="E101" s="67"/>
       <c r="F101" s="67"/>
@@ -8290,20 +8303,20 @@
       <c r="L101" s="11"/>
       <c r="M101" s="131"/>
       <c r="N101" s="74"/>
-      <c r="O101" s="93"/>
-      <c r="P101" s="91"/>
-      <c r="Q101" s="67"/>
-      <c r="R101" s="67"/>
-      <c r="S101" s="67"/>
-      <c r="T101" s="67"/>
-      <c r="U101" s="67"/>
-      <c r="V101" s="67"/>
-      <c r="W101" s="67"/>
+      <c r="O101" s="191"/>
+      <c r="P101" s="193"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="72"/>
+      <c r="S101" s="72"/>
+      <c r="T101" s="72"/>
+      <c r="U101" s="72"/>
+      <c r="V101" s="72"/>
+      <c r="W101" s="72"/>
       <c r="X101" s="67"/>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102" s="93"/>
-      <c r="C102" s="10"/>
+      <c r="C102" s="95"/>
       <c r="D102" s="67"/>
       <c r="E102" s="67"/>
       <c r="F102" s="67"/>
@@ -8316,180 +8329,174 @@
       <c r="M102" s="131"/>
       <c r="N102" s="74"/>
       <c r="O102" s="93"/>
-      <c r="P102" s="91"/>
-      <c r="Q102" s="67"/>
-      <c r="R102" s="67"/>
-      <c r="S102" s="67"/>
-      <c r="T102" s="67"/>
-      <c r="U102" s="67"/>
-      <c r="V102" s="67"/>
-      <c r="W102" s="67"/>
+      <c r="P102" s="88"/>
+      <c r="Q102" s="72"/>
+      <c r="R102" s="72"/>
+      <c r="S102" s="72"/>
+      <c r="T102" s="72"/>
+      <c r="U102" s="72"/>
+      <c r="V102" s="72"/>
+      <c r="W102" s="72"/>
       <c r="X102" s="67"/>
     </row>
-    <row r="103" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="9"/>
-      <c r="C103" s="34"/>
-      <c r="D103" s="73">
-        <v>0</v>
-      </c>
-      <c r="E103" s="73"/>
-      <c r="F103" s="73"/>
-      <c r="G103" s="73"/>
-      <c r="H103" s="73"/>
-      <c r="I103" s="73"/>
-      <c r="J103" s="73"/>
-      <c r="K103" s="73"/>
-      <c r="L103" s="20"/>
+    <row r="103" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="93"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
+      <c r="L103" s="11"/>
       <c r="M103" s="131"/>
       <c r="N103" s="74"/>
-      <c r="O103" s="46"/>
-      <c r="P103" s="51"/>
-      <c r="Q103" s="73">
-        <v>0</v>
-      </c>
-      <c r="R103" s="73"/>
-      <c r="S103" s="73"/>
-      <c r="T103" s="73"/>
-      <c r="U103" s="73"/>
-      <c r="V103" s="73"/>
-      <c r="W103" s="73"/>
-      <c r="X103" s="73"/>
-    </row>
-    <row r="104" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="7"/>
-      <c r="C104" s="35" t="s">
+      <c r="O103" s="93"/>
+      <c r="P103" s="91"/>
+      <c r="Q103" s="67"/>
+      <c r="R103" s="67"/>
+      <c r="S103" s="67"/>
+      <c r="T103" s="67"/>
+      <c r="U103" s="67"/>
+      <c r="V103" s="67"/>
+      <c r="W103" s="67"/>
+      <c r="X103" s="67"/>
+    </row>
+    <row r="104" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="93"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="131"/>
+      <c r="N104" s="74"/>
+      <c r="O104" s="93"/>
+      <c r="P104" s="91"/>
+      <c r="Q104" s="67"/>
+      <c r="R104" s="67"/>
+      <c r="S104" s="67"/>
+      <c r="T104" s="67"/>
+      <c r="U104" s="67"/>
+      <c r="V104" s="67"/>
+      <c r="W104" s="67"/>
+      <c r="X104" s="67"/>
+    </row>
+    <row r="105" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="9"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="73"/>
+      <c r="G105" s="73"/>
+      <c r="H105" s="73"/>
+      <c r="I105" s="73"/>
+      <c r="J105" s="73"/>
+      <c r="K105" s="73"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="131"/>
+      <c r="N105" s="74"/>
+      <c r="O105" s="46"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="73">
+        <v>0</v>
+      </c>
+      <c r="R105" s="73"/>
+      <c r="S105" s="73"/>
+      <c r="T105" s="73"/>
+      <c r="U105" s="73"/>
+      <c r="V105" s="73"/>
+      <c r="W105" s="73"/>
+      <c r="X105" s="73"/>
+    </row>
+    <row r="106" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="7"/>
+      <c r="C106" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="30">
-        <f t="shared" ref="D104:L104" si="6">SUM(D90:D103)</f>
-        <v>891</v>
-      </c>
-      <c r="E104" s="31">
+      <c r="D106" s="30">
+        <f>SUM(D92:D105)</f>
+        <v>886</v>
+      </c>
+      <c r="E106" s="30">
+        <f t="shared" ref="E106:L106" si="6">SUM(E92:E105)</f>
+        <v>821</v>
+      </c>
+      <c r="F106" s="30">
         <f t="shared" si="6"/>
-        <v>212</v>
-      </c>
-      <c r="F104" s="31">
+        <v>1754</v>
+      </c>
+      <c r="G106" s="30">
         <f t="shared" si="6"/>
-        <v>1970</v>
-      </c>
-      <c r="G104" s="31">
+        <v>15</v>
+      </c>
+      <c r="H106" s="30">
         <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="H104" s="31">
+        <v>1791</v>
+      </c>
+      <c r="I106" s="30">
         <f t="shared" si="6"/>
-        <v>1927</v>
-      </c>
-      <c r="I104" s="31">
+        <v>352</v>
+      </c>
+      <c r="J106" s="30">
         <f t="shared" si="6"/>
-        <v>716</v>
-      </c>
-      <c r="J104" s="22">
+        <v>705</v>
+      </c>
+      <c r="K106" s="30">
         <f t="shared" si="6"/>
-        <v>2220</v>
-      </c>
-      <c r="K104" s="32">
+        <v>5789</v>
+      </c>
+      <c r="L106" s="30">
         <f t="shared" si="6"/>
-        <v>6511</v>
-      </c>
-      <c r="L104" s="100">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="M104" s="132"/>
-      <c r="N104" s="74"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q104" s="21">
-        <f t="shared" ref="Q104:X104" si="7">SUM(Q90:Q103)</f>
-        <v>830</v>
-      </c>
-      <c r="R104" s="21">
-        <f t="shared" si="7"/>
-        <v>1055</v>
-      </c>
-      <c r="S104" s="21">
-        <f t="shared" si="7"/>
-        <v>3148</v>
-      </c>
-      <c r="T104" s="21">
-        <f t="shared" si="7"/>
-        <v>176</v>
-      </c>
-      <c r="U104" s="21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V104" s="21">
-        <f t="shared" si="7"/>
-        <v>8637</v>
-      </c>
-      <c r="W104" s="21">
-        <f t="shared" si="7"/>
-        <v>1947</v>
-      </c>
-      <c r="X104" s="21">
-        <f t="shared" si="7"/>
-        <v>7231</v>
-      </c>
-    </row>
-    <row r="105" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="7"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="78"/>
-      <c r="M105" s="76"/>
-      <c r="N105" s="74"/>
-      <c r="O105" s="7"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="5"/>
-      <c r="W105" s="5"/>
-      <c r="X105" s="5"/>
-    </row>
-    <row r="106" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="7"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="242">
-        <f>K104+J104+I104+H104+G104+F104+E104+D104+L104</f>
-        <v>15022</v>
-      </c>
-      <c r="G106" s="243"/>
-      <c r="H106" s="244"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="71"/>
-      <c r="M106" s="74"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="132"/>
       <c r="N106" s="74"/>
       <c r="O106" s="7"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="245">
-        <f>Q104+R104+S104+T104+U104+V104+W104+X104</f>
-        <v>23024</v>
-      </c>
-      <c r="T106" s="246"/>
-      <c r="U106" s="247"/>
-      <c r="V106" s="5"/>
-      <c r="W106" s="5"/>
-      <c r="X106" s="5"/>
-    </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P106" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q106" s="21">
+        <f t="shared" ref="Q106:X106" si="7">SUM(Q92:Q105)</f>
+        <v>803</v>
+      </c>
+      <c r="R106" s="21">
+        <f t="shared" si="7"/>
+        <v>590</v>
+      </c>
+      <c r="S106" s="21">
+        <f t="shared" si="7"/>
+        <v>2219</v>
+      </c>
+      <c r="T106" s="21">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="U106" s="21">
+        <f t="shared" si="7"/>
+        <v>714</v>
+      </c>
+      <c r="V106" s="21">
+        <f t="shared" si="7"/>
+        <v>5982</v>
+      </c>
+      <c r="W106" s="21">
+        <f t="shared" si="7"/>
+        <v>1916</v>
+      </c>
+      <c r="X106" s="21">
+        <f t="shared" si="7"/>
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="107" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="7"/>
       <c r="C107" s="1"/>
       <c r="D107" s="5"/>
@@ -8497,10 +8504,11 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="71"/>
-      <c r="M107" s="74"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="76"/>
       <c r="N107" s="74"/>
       <c r="O107" s="7"/>
       <c r="Q107" s="5"/>
@@ -8512,14 +8520,17 @@
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B108" s="7"/>
       <c r="C108" s="1"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="F108" s="245">
+        <f>K106+J106+I106+H106+G106+F106+E106+D106+L106</f>
+        <v>12113</v>
+      </c>
+      <c r="G108" s="246"/>
+      <c r="H108" s="247"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -8527,8 +8538,19 @@
       <c r="M108" s="74"/>
       <c r="N108" s="74"/>
       <c r="O108" s="7"/>
-    </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="248">
+        <f>Q106+R106+S106+T106+U106+V106+W106+X106</f>
+        <v>19443</v>
+      </c>
+      <c r="T108" s="249"/>
+      <c r="U108" s="250"/>
+      <c r="V108" s="5"/>
+      <c r="W108" s="5"/>
+      <c r="X108" s="5"/>
+    </row>
+    <row r="109" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="1"/>
       <c r="D109" s="5"/>
@@ -8536,324 +8558,243 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="71"/>
       <c r="M109" s="74"/>
       <c r="N109" s="74"/>
       <c r="O109" s="7"/>
-    </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B110" s="7"/>
-      <c r="C110" s="1"/>
-      <c r="N110" s="80"/>
-      <c r="O110" s="7"/>
-    </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B111" s="7"/>
-      <c r="C111" s="1"/>
-      <c r="N111" s="80"/>
-      <c r="O111" s="7"/>
-    </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
-      <c r="C112" s="1"/>
-      <c r="N112" s="80"/>
-      <c r="O112" s="7"/>
-    </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B113" s="7"/>
-      <c r="C113" s="1"/>
-      <c r="N113" s="80"/>
-      <c r="O113" s="7"/>
-    </row>
-    <row r="114" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="7"/>
-      <c r="C114" s="1"/>
-      <c r="N114" s="80"/>
-      <c r="O114" s="7"/>
-    </row>
-    <row r="115" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="7"/>
-      <c r="C115" s="235" t="s">
-        <v>36</v>
-      </c>
-      <c r="D115" s="236"/>
-      <c r="E115" s="236"/>
-      <c r="F115" s="236"/>
-      <c r="G115" s="236"/>
-      <c r="H115" s="236"/>
-      <c r="I115" s="236"/>
-      <c r="J115" s="236"/>
-      <c r="K115" s="236"/>
-      <c r="L115" s="185" t="s">
-        <v>41</v>
-      </c>
-      <c r="M115" s="133"/>
-      <c r="N115" s="81"/>
-      <c r="O115" s="248" t="s">
-        <v>19</v>
-      </c>
-      <c r="P115" s="249"/>
-      <c r="Q115" s="249"/>
-      <c r="R115" s="249"/>
-      <c r="S115" s="249"/>
-      <c r="T115" s="249"/>
-      <c r="U115" s="249"/>
-      <c r="V115" s="249"/>
-      <c r="W115" s="249"/>
-      <c r="X115" s="128" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
+    </row>
+    <row r="116" spans="2:25" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
       <c r="C116" s="1"/>
-      <c r="I116" s="239" t="s">
-        <v>129</v>
-      </c>
-      <c r="J116" s="240"/>
-      <c r="K116" s="241"/>
-      <c r="L116" s="68"/>
-      <c r="M116" s="134"/>
-      <c r="N116" s="74"/>
-      <c r="O116" s="7"/>
-      <c r="V116" s="239" t="s">
-        <v>150</v>
-      </c>
-      <c r="W116" s="240"/>
-      <c r="X116" s="241"/>
-    </row>
-    <row r="117" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="24" t="s">
+      <c r="N116" s="80"/>
+      <c r="O116" s="188"/>
+      <c r="P116" s="189"/>
+      <c r="Q116" s="189"/>
+      <c r="R116" s="189"/>
+      <c r="S116" s="189"/>
+      <c r="T116" s="189"/>
+      <c r="U116" s="189"/>
+      <c r="V116" s="189"/>
+      <c r="W116" s="189"/>
+      <c r="X116" s="189"/>
+    </row>
+    <row r="117" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B117" s="7"/>
+      <c r="C117" s="238" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="239"/>
+      <c r="E117" s="239"/>
+      <c r="F117" s="239"/>
+      <c r="G117" s="239"/>
+      <c r="H117" s="239"/>
+      <c r="I117" s="239"/>
+      <c r="J117" s="239"/>
+      <c r="K117" s="239"/>
+      <c r="L117" s="185" t="s">
+        <v>42</v>
+      </c>
+      <c r="M117" s="133"/>
+      <c r="N117" s="81"/>
+      <c r="O117" s="240" t="s">
+        <v>19</v>
+      </c>
+      <c r="P117" s="241"/>
+      <c r="Q117" s="241"/>
+      <c r="R117" s="241"/>
+      <c r="S117" s="241"/>
+      <c r="T117" s="241"/>
+      <c r="U117" s="241"/>
+      <c r="V117" s="241"/>
+      <c r="W117" s="241"/>
+      <c r="X117" s="187" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="7"/>
+      <c r="C118" s="1"/>
+      <c r="I118" s="242" t="s">
+        <v>148</v>
+      </c>
+      <c r="J118" s="243"/>
+      <c r="K118" s="244"/>
+      <c r="L118" s="68"/>
+      <c r="M118" s="134"/>
+      <c r="N118" s="74"/>
+      <c r="O118" s="7"/>
+      <c r="V118" s="242" t="s">
+        <v>151</v>
+      </c>
+      <c r="W118" s="243"/>
+      <c r="X118" s="244"/>
+    </row>
+    <row r="119" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D117" s="25" t="s">
+      <c r="D119" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="26" t="s">
+      <c r="E119" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F117" s="56" t="s">
+      <c r="F119" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G117" s="25" t="s">
+      <c r="G119" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H117" s="27" t="s">
+      <c r="H119" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I117" s="60" t="s">
+      <c r="I119" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J117" s="61" t="s">
+      <c r="J119" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K117" s="62" t="s">
+      <c r="K119" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L117" s="99" t="s">
+      <c r="L119" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M117" s="135"/>
-      <c r="N117" s="82"/>
-      <c r="O117" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P117" s="143" t="s">
+      <c r="M119" s="135"/>
+      <c r="N119" s="82"/>
+      <c r="O119" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P119" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q117" s="137" t="s">
+      <c r="Q119" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R117" s="138" t="s">
+      <c r="R119" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S117" s="139" t="s">
+      <c r="S119" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="T117" s="140" t="s">
+      <c r="T119" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="U117" s="140" t="s">
+      <c r="U119" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="V117" s="141" t="s">
+      <c r="V119" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W117" s="136" t="s">
+      <c r="W119" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X117" s="144" t="s">
+      <c r="X119" s="144" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="2:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="B118" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C118" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="D118" s="72"/>
-      <c r="E118" s="72"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="72"/>
-      <c r="H118" s="72"/>
-      <c r="I118" s="72"/>
-      <c r="J118" s="72"/>
-      <c r="K118" s="72">
-        <f>2361+1550+386+1883+642+964</f>
-        <v>7786</v>
-      </c>
-      <c r="L118" s="70"/>
-      <c r="M118" s="131"/>
-      <c r="N118" s="74"/>
-      <c r="O118" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P118" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q118" s="72"/>
-      <c r="R118" s="72"/>
-      <c r="S118" s="72"/>
-      <c r="T118" s="72"/>
-      <c r="U118" s="72"/>
-      <c r="V118" s="72"/>
-      <c r="W118" s="72"/>
-      <c r="X118" s="72">
-        <f>2377+2781+1874+429+754</f>
-        <v>8215</v>
-      </c>
-    </row>
-    <row r="119" spans="2:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D119" s="67"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67">
-        <f>1380+370+88+238</f>
-        <v>2076</v>
-      </c>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="67"/>
-      <c r="J119" s="67"/>
-      <c r="K119" s="67"/>
-      <c r="L119" s="67"/>
-      <c r="M119" s="131"/>
-      <c r="N119" s="74"/>
-      <c r="O119" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P119" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q119" s="72"/>
-      <c r="R119" s="72"/>
-      <c r="S119" s="72">
-        <f>180+148+36+2475</f>
-        <v>2839</v>
-      </c>
-      <c r="T119" s="72"/>
-      <c r="U119" s="72"/>
-      <c r="V119" s="72"/>
-      <c r="W119" s="72"/>
-      <c r="X119" s="67"/>
-    </row>
-    <row r="120" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B120" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D120" s="67">
-        <f>47+72.5+247+54+245</f>
-        <v>665.5</v>
-      </c>
-      <c r="E120" s="67"/>
-      <c r="F120" s="67"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="67"/>
-      <c r="I120" s="67"/>
-      <c r="J120" s="67"/>
-      <c r="K120" s="67"/>
-      <c r="L120" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="C120" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72">
+        <f>1777+1054+1013+1333+1334</f>
+        <v>6511</v>
+      </c>
+      <c r="L120" s="70"/>
       <c r="M120" s="131"/>
       <c r="N120" s="74"/>
       <c r="O120" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P120" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q120" s="72">
-        <f>330+158+288+87</f>
-        <v>863</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P120" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q120" s="72"/>
       <c r="R120" s="72"/>
       <c r="S120" s="72"/>
       <c r="T120" s="72"/>
       <c r="U120" s="72"/>
       <c r="V120" s="72"/>
       <c r="W120" s="72"/>
-      <c r="X120" s="67"/>
-    </row>
-    <row r="121" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="X120" s="104">
+        <f>1805+1908+939+1193+1386</f>
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="121" spans="2:25" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B121" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C121" s="96" t="s">
-        <v>125</v>
+        <v>149</v>
+      </c>
+      <c r="C121" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="D121" s="67"/>
       <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="67">
-        <v>140</v>
-      </c>
+      <c r="F121" s="67">
+        <f>1970</f>
+        <v>1970</v>
+      </c>
+      <c r="G121" s="67"/>
       <c r="H121" s="67"/>
       <c r="I121" s="67"/>
       <c r="J121" s="67"/>
       <c r="K121" s="67"/>
-      <c r="L121" s="11"/>
+      <c r="L121" s="67"/>
       <c r="M121" s="131"/>
       <c r="N121" s="74"/>
       <c r="O121" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P121" s="87" t="s">
-        <v>135</v>
+        <v>149</v>
+      </c>
+      <c r="P121" s="89" t="s">
+        <v>161</v>
       </c>
       <c r="Q121" s="72"/>
       <c r="R121" s="72"/>
-      <c r="S121" s="72"/>
-      <c r="T121" s="72">
-        <v>145</v>
-      </c>
+      <c r="S121" s="104">
+        <f>3020+87+41</f>
+        <v>3148</v>
+      </c>
+      <c r="T121" s="72"/>
       <c r="U121" s="72"/>
       <c r="V121" s="72"/>
       <c r="W121" s="72"/>
       <c r="X121" s="67"/>
     </row>
-    <row r="122" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D122" s="67"/>
+        <v>149</v>
+      </c>
+      <c r="C122" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D122" s="67">
+        <f>85+324+280+202</f>
+        <v>891</v>
+      </c>
       <c r="E122" s="67"/>
       <c r="F122" s="67"/>
       <c r="G122" s="67"/>
@@ -8861,21 +8802,20 @@
       <c r="I122" s="67"/>
       <c r="J122" s="67"/>
       <c r="K122" s="67"/>
-      <c r="L122" s="11">
-        <v>500</v>
-      </c>
+      <c r="L122" s="11"/>
       <c r="M122" s="131"/>
       <c r="N122" s="74"/>
       <c r="O122" s="93" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="P122" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q122" s="72"/>
-      <c r="R122" s="72">
-        <v>1081</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Q122" s="104">
+        <f>385+160+285</f>
+        <v>830</v>
+      </c>
+      <c r="R122" s="72"/>
       <c r="S122" s="72"/>
       <c r="T122" s="72"/>
       <c r="U122" s="72"/>
@@ -8883,19 +8823,20 @@
       <c r="W122" s="72"/>
       <c r="X122" s="67"/>
     </row>
-    <row r="123" spans="2:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" s="44" t="s">
-        <v>126</v>
+        <v>149</v>
+      </c>
+      <c r="C123" s="96" t="s">
+        <v>155</v>
       </c>
       <c r="D123" s="67"/>
-      <c r="E123" s="67">
-        <v>68</v>
-      </c>
+      <c r="E123" s="67"/>
       <c r="F123" s="67"/>
-      <c r="G123" s="67"/>
+      <c r="G123" s="67">
+        <f>55+20</f>
+        <v>75</v>
+      </c>
       <c r="H123" s="67"/>
       <c r="I123" s="67"/>
       <c r="J123" s="67"/>
@@ -8904,24 +8845,29 @@
       <c r="M123" s="131"/>
       <c r="N123" s="74"/>
       <c r="O123" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P123" s="89"/>
+        <v>149</v>
+      </c>
+      <c r="P123" s="87" t="s">
+        <v>163</v>
+      </c>
       <c r="Q123" s="72"/>
       <c r="R123" s="72"/>
       <c r="S123" s="72"/>
-      <c r="T123" s="72"/>
+      <c r="T123" s="104">
+        <f>55+121</f>
+        <v>176</v>
+      </c>
       <c r="U123" s="72"/>
       <c r="V123" s="72"/>
       <c r="W123" s="72"/>
       <c r="X123" s="67"/>
     </row>
-    <row r="124" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="93" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C124" s="44" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D124" s="67"/>
       <c r="E124" s="67"/>
@@ -8929,41 +8875,37 @@
       <c r="G124" s="67"/>
       <c r="H124" s="67"/>
       <c r="I124" s="67"/>
-      <c r="J124" s="94">
-        <f>155+626</f>
-        <v>781</v>
-      </c>
+      <c r="J124" s="67"/>
       <c r="K124" s="67"/>
-      <c r="L124" s="11"/>
+      <c r="L124" s="11">
+        <v>500</v>
+      </c>
       <c r="M124" s="131"/>
       <c r="N124" s="74"/>
       <c r="O124" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P124" s="87" t="s">
-        <v>139</v>
+        <v>149</v>
+      </c>
+      <c r="P124" s="89" t="s">
+        <v>166</v>
       </c>
       <c r="Q124" s="72"/>
-      <c r="R124" s="72"/>
+      <c r="R124" s="104">
+        <f>50+443+432+130</f>
+        <v>1055</v>
+      </c>
       <c r="S124" s="72"/>
       <c r="T124" s="72"/>
       <c r="U124" s="72"/>
       <c r="V124" s="72"/>
-      <c r="W124" s="72">
-        <f>900+345</f>
-        <v>1245</v>
-      </c>
+      <c r="W124" s="72"/>
       <c r="X124" s="67"/>
-      <c r="Y124" s="129"/>
-      <c r="Z124" s="80"/>
-      <c r="AA124" s="80"/>
-    </row>
-    <row r="125" spans="2:27" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" s="42" t="s">
-        <v>127</v>
+        <v>149</v>
+      </c>
+      <c r="C125" s="44" t="s">
+        <v>156</v>
       </c>
       <c r="D125" s="67"/>
       <c r="E125" s="67"/>
@@ -8971,7 +8913,7 @@
       <c r="G125" s="67"/>
       <c r="H125" s="67"/>
       <c r="I125" s="67">
-        <v>850</v>
+        <v>716</v>
       </c>
       <c r="J125" s="67"/>
       <c r="K125" s="67"/>
@@ -8979,155 +8921,188 @@
       <c r="M125" s="131"/>
       <c r="N125" s="74"/>
       <c r="O125" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P125" s="90" t="s">
-        <v>4</v>
+        <v>149</v>
+      </c>
+      <c r="P125" s="98" t="s">
+        <v>164</v>
       </c>
       <c r="Q125" s="72"/>
       <c r="R125" s="72"/>
       <c r="S125" s="72"/>
       <c r="T125" s="72"/>
-      <c r="U125" s="72">
-        <v>729</v>
-      </c>
-      <c r="V125" s="72"/>
+      <c r="U125" s="72"/>
+      <c r="V125" s="104">
+        <f>170+170+221+170+204</f>
+        <v>935</v>
+      </c>
       <c r="W125" s="72"/>
       <c r="X125" s="67"/>
     </row>
-    <row r="126" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B126" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C126" s="95" t="s">
-        <v>96</v>
+        <v>149</v>
+      </c>
+      <c r="C126" s="44" t="s">
+        <v>158</v>
       </c>
       <c r="D126" s="67"/>
       <c r="E126" s="67"/>
       <c r="F126" s="67"/>
       <c r="G126" s="67"/>
-      <c r="H126" s="67">
-        <f>119+51+68+68+102+68</f>
-        <v>476</v>
-      </c>
+      <c r="H126" s="67"/>
       <c r="I126" s="67"/>
-      <c r="J126" s="67"/>
+      <c r="J126" s="94">
+        <f>440+19+261</f>
+        <v>720</v>
+      </c>
       <c r="K126" s="67"/>
       <c r="L126" s="11"/>
       <c r="M126" s="131"/>
       <c r="N126" s="74"/>
       <c r="O126" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="P126" s="98" t="s">
-        <v>132</v>
+        <v>149</v>
+      </c>
+      <c r="P126" s="87" t="s">
+        <v>165</v>
       </c>
       <c r="Q126" s="72"/>
       <c r="R126" s="72"/>
       <c r="S126" s="72"/>
       <c r="T126" s="72"/>
       <c r="U126" s="72"/>
-      <c r="V126" s="72">
-        <f>270+153+170+204+170+204</f>
-        <v>1171</v>
-      </c>
-      <c r="W126" s="72"/>
+      <c r="V126" s="72"/>
+      <c r="W126" s="104">
+        <f>805+473+669</f>
+        <v>1947</v>
+      </c>
       <c r="X126" s="67"/>
-    </row>
-    <row r="127" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y126" s="129"/>
+    </row>
+    <row r="127" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C127" s="42" t="s">
-        <v>11</v>
+        <v>149</v>
+      </c>
+      <c r="C127" s="204" t="s">
+        <v>157</v>
       </c>
       <c r="D127" s="67"/>
       <c r="E127" s="67"/>
       <c r="F127" s="67"/>
       <c r="G127" s="67"/>
-      <c r="H127" s="67">
-        <f>380+380+470</f>
-        <v>1230</v>
-      </c>
+      <c r="H127" s="67"/>
       <c r="I127" s="67"/>
-      <c r="J127" s="67"/>
+      <c r="J127" s="67">
+        <v>1500</v>
+      </c>
       <c r="K127" s="67"/>
       <c r="L127" s="11"/>
       <c r="M127" s="131"/>
       <c r="N127" s="74"/>
-      <c r="O127" s="93"/>
-      <c r="P127" s="88" t="s">
-        <v>140</v>
+      <c r="O127" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P127" s="90" t="s">
+        <v>4</v>
       </c>
       <c r="Q127" s="72"/>
       <c r="R127" s="72"/>
       <c r="S127" s="72"/>
       <c r="T127" s="72"/>
       <c r="U127" s="72"/>
-      <c r="V127" s="72">
-        <f>700+700+710+2566+310</f>
-        <v>4986</v>
+      <c r="V127" s="104">
+        <v>688</v>
       </c>
       <c r="W127" s="72"/>
       <c r="X127" s="67"/>
     </row>
-    <row r="128" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="C128" s="95"/>
+        <v>149</v>
+      </c>
+      <c r="C128" s="95" t="s">
+        <v>96</v>
+      </c>
       <c r="D128" s="67"/>
       <c r="E128" s="67"/>
       <c r="F128" s="67"/>
       <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
+      <c r="H128" s="67">
+        <f>102+68+238+85+204</f>
+        <v>697</v>
+      </c>
       <c r="I128" s="67"/>
       <c r="J128" s="67"/>
       <c r="K128" s="67"/>
       <c r="L128" s="11"/>
       <c r="M128" s="131"/>
       <c r="N128" s="74"/>
-      <c r="O128" s="93"/>
-      <c r="P128" s="88"/>
+      <c r="O128" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P128" s="186" t="s">
+        <v>188</v>
+      </c>
       <c r="Q128" s="72"/>
       <c r="R128" s="72"/>
       <c r="S128" s="72"/>
       <c r="T128" s="72"/>
       <c r="U128" s="72"/>
-      <c r="V128" s="72"/>
+      <c r="V128" s="104">
+        <v>1440</v>
+      </c>
       <c r="W128" s="72"/>
       <c r="X128" s="67"/>
     </row>
-    <row r="129" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="93"/>
-      <c r="C129" s="10"/>
+    <row r="129" spans="2:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C129" s="42" t="s">
+        <v>11</v>
+      </c>
       <c r="D129" s="67"/>
       <c r="E129" s="67"/>
       <c r="F129" s="67"/>
       <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
+      <c r="H129" s="67">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
       <c r="I129" s="67"/>
       <c r="J129" s="67"/>
       <c r="K129" s="67"/>
       <c r="L129" s="11"/>
       <c r="M129" s="131"/>
       <c r="N129" s="74"/>
-      <c r="O129" s="93"/>
-      <c r="P129" s="91"/>
-      <c r="Q129" s="67"/>
-      <c r="R129" s="67"/>
-      <c r="S129" s="67"/>
-      <c r="T129" s="67"/>
-      <c r="U129" s="67"/>
-      <c r="V129" s="67"/>
-      <c r="W129" s="67"/>
+      <c r="O129" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="P129" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q129" s="72"/>
+      <c r="R129" s="72"/>
+      <c r="S129" s="72"/>
+      <c r="T129" s="72"/>
+      <c r="U129" s="72"/>
+      <c r="V129" s="104">
+        <f>700+700+710+3464</f>
+        <v>5574</v>
+      </c>
+      <c r="W129" s="72"/>
       <c r="X129" s="67"/>
     </row>
-    <row r="130" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B130" s="93"/>
-      <c r="C130" s="10"/>
+    <row r="130" spans="2:24" ht="24" x14ac:dyDescent="0.25">
+      <c r="B130" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="95" t="s">
+        <v>159</v>
+      </c>
       <c r="D130" s="67"/>
-      <c r="E130" s="67"/>
+      <c r="E130" s="67">
+        <v>212</v>
+      </c>
       <c r="F130" s="67"/>
       <c r="G130" s="67"/>
       <c r="H130" s="67"/>
@@ -9138,180 +9113,176 @@
       <c r="M130" s="131"/>
       <c r="N130" s="74"/>
       <c r="O130" s="93"/>
-      <c r="P130" s="91"/>
-      <c r="Q130" s="67"/>
-      <c r="R130" s="67"/>
-      <c r="S130" s="67"/>
-      <c r="T130" s="67"/>
-      <c r="U130" s="67"/>
-      <c r="V130" s="67"/>
-      <c r="W130" s="67"/>
+      <c r="P130" s="88"/>
+      <c r="Q130" s="72"/>
+      <c r="R130" s="72"/>
+      <c r="S130" s="72"/>
+      <c r="T130" s="72"/>
+      <c r="U130" s="72"/>
+      <c r="V130" s="72"/>
+      <c r="W130" s="72"/>
       <c r="X130" s="67"/>
     </row>
-    <row r="131" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="9"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="73">
-        <v>0</v>
-      </c>
-      <c r="E131" s="73"/>
-      <c r="F131" s="73"/>
-      <c r="G131" s="73"/>
-      <c r="H131" s="73"/>
-      <c r="I131" s="73"/>
-      <c r="J131" s="73"/>
-      <c r="K131" s="73"/>
-      <c r="L131" s="20"/>
+    <row r="131" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B131" s="93"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="67"/>
+      <c r="G131" s="67"/>
+      <c r="H131" s="67"/>
+      <c r="I131" s="67"/>
+      <c r="J131" s="67"/>
+      <c r="K131" s="67"/>
+      <c r="L131" s="11"/>
       <c r="M131" s="131"/>
       <c r="N131" s="74"/>
-      <c r="O131" s="46"/>
-      <c r="P131" s="51"/>
-      <c r="Q131" s="73">
-        <v>0</v>
-      </c>
-      <c r="R131" s="73"/>
-      <c r="S131" s="73"/>
-      <c r="T131" s="73"/>
-      <c r="U131" s="73"/>
-      <c r="V131" s="73"/>
-      <c r="W131" s="73"/>
-      <c r="X131" s="73"/>
-    </row>
-    <row r="132" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="7"/>
-      <c r="C132" s="35" t="s">
+      <c r="O131" s="93"/>
+      <c r="P131" s="91"/>
+      <c r="Q131" s="67"/>
+      <c r="R131" s="67"/>
+      <c r="S131" s="67"/>
+      <c r="T131" s="67"/>
+      <c r="U131" s="67"/>
+      <c r="V131" s="67"/>
+      <c r="W131" s="67"/>
+      <c r="X131" s="67"/>
+    </row>
+    <row r="132" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B132" s="93"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="67"/>
+      <c r="G132" s="67"/>
+      <c r="H132" s="67"/>
+      <c r="I132" s="67"/>
+      <c r="J132" s="67"/>
+      <c r="K132" s="67"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="131"/>
+      <c r="N132" s="74"/>
+      <c r="O132" s="93"/>
+      <c r="P132" s="91"/>
+      <c r="Q132" s="67"/>
+      <c r="R132" s="67"/>
+      <c r="S132" s="67"/>
+      <c r="T132" s="67"/>
+      <c r="U132" s="67"/>
+      <c r="V132" s="67"/>
+      <c r="W132" s="67"/>
+      <c r="X132" s="67"/>
+    </row>
+    <row r="133" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="9"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="73">
+        <v>0</v>
+      </c>
+      <c r="E133" s="73"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="73"/>
+      <c r="H133" s="73"/>
+      <c r="I133" s="73"/>
+      <c r="J133" s="73"/>
+      <c r="K133" s="73"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="131"/>
+      <c r="N133" s="74"/>
+      <c r="O133" s="46"/>
+      <c r="P133" s="51"/>
+      <c r="Q133" s="73">
+        <v>0</v>
+      </c>
+      <c r="R133" s="73"/>
+      <c r="S133" s="73"/>
+      <c r="T133" s="73"/>
+      <c r="U133" s="73"/>
+      <c r="V133" s="73"/>
+      <c r="W133" s="73"/>
+      <c r="X133" s="73"/>
+    </row>
+    <row r="134" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="7"/>
+      <c r="C134" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="30">
-        <f t="shared" ref="D132" si="8">SUM(D118:D131)</f>
-        <v>665.5</v>
-      </c>
-      <c r="E132" s="31">
-        <f t="shared" ref="E132:L132" si="9">SUM(E118:E131)</f>
-        <v>68</v>
-      </c>
-      <c r="F132" s="31">
-        <f t="shared" si="9"/>
-        <v>2076</v>
-      </c>
-      <c r="G132" s="31">
-        <f t="shared" si="9"/>
-        <v>140</v>
-      </c>
-      <c r="H132" s="31">
-        <f t="shared" si="9"/>
-        <v>1706</v>
-      </c>
-      <c r="I132" s="31">
-        <f t="shared" si="9"/>
-        <v>850</v>
-      </c>
-      <c r="J132" s="22">
-        <f t="shared" si="9"/>
-        <v>781</v>
-      </c>
-      <c r="K132" s="32">
-        <f t="shared" si="9"/>
-        <v>7786</v>
-      </c>
-      <c r="L132" s="100">
-        <f t="shared" si="9"/>
+      <c r="D134" s="30">
+        <f t="shared" ref="D134:L134" si="8">SUM(D120:D133)</f>
+        <v>891</v>
+      </c>
+      <c r="E134" s="31">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+      <c r="F134" s="31">
+        <f t="shared" si="8"/>
+        <v>1970</v>
+      </c>
+      <c r="G134" s="31">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="H134" s="31">
+        <f t="shared" si="8"/>
+        <v>1927</v>
+      </c>
+      <c r="I134" s="31">
+        <f t="shared" si="8"/>
+        <v>716</v>
+      </c>
+      <c r="J134" s="22">
+        <f t="shared" si="8"/>
+        <v>2220</v>
+      </c>
+      <c r="K134" s="32">
+        <f t="shared" si="8"/>
+        <v>6511</v>
+      </c>
+      <c r="L134" s="100">
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="M132" s="132"/>
-      <c r="N132" s="74"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q132" s="21">
-        <f t="shared" ref="Q132:X132" si="10">SUM(Q118:Q131)</f>
-        <v>863</v>
-      </c>
-      <c r="R132" s="21">
-        <f t="shared" si="10"/>
-        <v>1081</v>
-      </c>
-      <c r="S132" s="21">
-        <f t="shared" si="10"/>
-        <v>2839</v>
-      </c>
-      <c r="T132" s="21">
-        <f t="shared" si="10"/>
-        <v>145</v>
-      </c>
-      <c r="U132" s="21">
-        <f t="shared" si="10"/>
-        <v>729</v>
-      </c>
-      <c r="V132" s="21">
-        <f t="shared" si="10"/>
-        <v>6157</v>
-      </c>
-      <c r="W132" s="21">
-        <f t="shared" si="10"/>
-        <v>1245</v>
-      </c>
-      <c r="X132" s="21">
-        <f t="shared" si="10"/>
-        <v>8215</v>
-      </c>
-    </row>
-    <row r="133" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="7"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="78"/>
-      <c r="M133" s="76"/>
-      <c r="N133" s="74"/>
-      <c r="O133" s="7"/>
-      <c r="Q133" s="5"/>
-      <c r="R133" s="5"/>
-      <c r="S133" s="5"/>
-      <c r="T133" s="5"/>
-      <c r="U133" s="5"/>
-      <c r="V133" s="5"/>
-      <c r="W133" s="5"/>
-      <c r="X133" s="5"/>
-    </row>
-    <row r="134" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B134" s="7"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="242">
-        <f>K132+J132+I132+H132+G132+F132+E132+D132+L132</f>
-        <v>14572.5</v>
-      </c>
-      <c r="G134" s="243"/>
-      <c r="H134" s="244"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="71"/>
-      <c r="M134" s="74"/>
+      <c r="M134" s="132"/>
       <c r="N134" s="74"/>
       <c r="O134" s="7"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="245">
-        <f>Q132+R132+S132+T132+U132+V132+W132+X132</f>
-        <v>21274</v>
-      </c>
-      <c r="T134" s="246"/>
-      <c r="U134" s="247"/>
-      <c r="V134" s="5"/>
-      <c r="W134" s="5"/>
-      <c r="X134" s="5"/>
-    </row>
-    <row r="135" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="P134" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q134" s="21">
+        <f t="shared" ref="Q134:X134" si="9">SUM(Q120:Q133)</f>
+        <v>830</v>
+      </c>
+      <c r="R134" s="21">
+        <f t="shared" si="9"/>
+        <v>1055</v>
+      </c>
+      <c r="S134" s="21">
+        <f t="shared" si="9"/>
+        <v>3148</v>
+      </c>
+      <c r="T134" s="21">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
+      <c r="U134" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V134" s="21">
+        <f t="shared" si="9"/>
+        <v>8637</v>
+      </c>
+      <c r="W134" s="21">
+        <f t="shared" si="9"/>
+        <v>1947</v>
+      </c>
+      <c r="X134" s="21">
+        <f t="shared" si="9"/>
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="135" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
       <c r="C135" s="1"/>
       <c r="D135" s="5"/>
@@ -9319,10 +9290,11 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
-      <c r="L135" s="71"/>
-      <c r="M135" s="74"/>
+      <c r="L135" s="78"/>
+      <c r="M135" s="76"/>
       <c r="N135" s="74"/>
       <c r="O135" s="7"/>
       <c r="Q135" s="5"/>
@@ -9334,14 +9306,17 @@
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
     </row>
-    <row r="136" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B136" s="7"/>
       <c r="C136" s="1"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
+      <c r="F136" s="245">
+        <f>K134+J134+I134+H134+G134+F134+E134+D134+L134</f>
+        <v>15022</v>
+      </c>
+      <c r="G136" s="246"/>
+      <c r="H136" s="247"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
@@ -9349,6 +9324,17 @@
       <c r="M136" s="74"/>
       <c r="N136" s="74"/>
       <c r="O136" s="7"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="5"/>
+      <c r="S136" s="248">
+        <f>Q134+R134+S134+T134+U134+V134+W134+X134</f>
+        <v>23024</v>
+      </c>
+      <c r="T136" s="249"/>
+      <c r="U136" s="250"/>
+      <c r="V136" s="5"/>
+      <c r="W136" s="5"/>
+      <c r="X136" s="5"/>
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
@@ -9358,46 +9344,913 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="71"/>
       <c r="M137" s="74"/>
       <c r="N137" s="74"/>
       <c r="O137" s="7"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="T137" s="5"/>
+      <c r="U137" s="5"/>
+      <c r="V137" s="5"/>
+      <c r="W137" s="5"/>
+      <c r="X137" s="5"/>
+    </row>
+    <row r="138" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B138" s="7"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="L138" s="71"/>
+      <c r="M138" s="74"/>
+      <c r="N138" s="74"/>
+      <c r="O138" s="7"/>
+    </row>
+    <row r="139" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B139" s="7"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="71"/>
+      <c r="M139" s="74"/>
+      <c r="N139" s="74"/>
+      <c r="O139" s="7"/>
+    </row>
+    <row r="140" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B140" s="7"/>
+      <c r="C140" s="1"/>
+      <c r="N140" s="80"/>
+      <c r="O140" s="7"/>
+    </row>
+    <row r="141" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B141" s="7"/>
+      <c r="C141" s="1"/>
+      <c r="N141" s="80"/>
+      <c r="O141" s="7"/>
+    </row>
+    <row r="142" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B142" s="7"/>
+      <c r="C142" s="1"/>
+      <c r="N142" s="80"/>
+      <c r="O142" s="7"/>
+    </row>
+    <row r="143" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B143" s="7"/>
+      <c r="C143" s="1"/>
+      <c r="N143" s="80"/>
+      <c r="O143" s="7"/>
+    </row>
+    <row r="144" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="7"/>
+      <c r="C144" s="1"/>
+      <c r="N144" s="80"/>
+      <c r="O144" s="7"/>
+    </row>
+    <row r="145" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B145" s="7"/>
+      <c r="C145" s="238" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" s="239"/>
+      <c r="E145" s="239"/>
+      <c r="F145" s="239"/>
+      <c r="G145" s="239"/>
+      <c r="H145" s="239"/>
+      <c r="I145" s="239"/>
+      <c r="J145" s="239"/>
+      <c r="K145" s="239"/>
+      <c r="L145" s="185" t="s">
+        <v>41</v>
+      </c>
+      <c r="M145" s="133"/>
+      <c r="N145" s="81"/>
+      <c r="O145" s="251" t="s">
+        <v>19</v>
+      </c>
+      <c r="P145" s="252"/>
+      <c r="Q145" s="252"/>
+      <c r="R145" s="252"/>
+      <c r="S145" s="252"/>
+      <c r="T145" s="252"/>
+      <c r="U145" s="252"/>
+      <c r="V145" s="252"/>
+      <c r="W145" s="252"/>
+      <c r="X145" s="128" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="7"/>
+      <c r="C146" s="1"/>
+      <c r="I146" s="242" t="s">
+        <v>129</v>
+      </c>
+      <c r="J146" s="243"/>
+      <c r="K146" s="244"/>
+      <c r="L146" s="68"/>
+      <c r="M146" s="134"/>
+      <c r="N146" s="74"/>
+      <c r="O146" s="7"/>
+      <c r="V146" s="242" t="s">
+        <v>150</v>
+      </c>
+      <c r="W146" s="243"/>
+      <c r="X146" s="244"/>
+    </row>
+    <row r="147" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I147" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J147" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K147" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L147" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M147" s="135"/>
+      <c r="N147" s="82"/>
+      <c r="O147" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P147" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R147" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S147" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="T147" s="140" t="s">
+        <v>3</v>
+      </c>
+      <c r="U147" s="140" t="s">
+        <v>4</v>
+      </c>
+      <c r="V147" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W147" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X147" s="144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B148" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C148" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="D148" s="72"/>
+      <c r="E148" s="72"/>
+      <c r="F148" s="72"/>
+      <c r="G148" s="72"/>
+      <c r="H148" s="72"/>
+      <c r="I148" s="72"/>
+      <c r="J148" s="72"/>
+      <c r="K148" s="72">
+        <f>2361+1550+386+1883+642+964</f>
+        <v>7786</v>
+      </c>
+      <c r="L148" s="70"/>
+      <c r="M148" s="131"/>
+      <c r="N148" s="74"/>
+      <c r="O148" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P148" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q148" s="72"/>
+      <c r="R148" s="72"/>
+      <c r="S148" s="72"/>
+      <c r="T148" s="72"/>
+      <c r="U148" s="72"/>
+      <c r="V148" s="72"/>
+      <c r="W148" s="72"/>
+      <c r="X148" s="72">
+        <f>2377+2781+1874+429+754</f>
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="149" spans="2:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C149" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149" s="67"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="67">
+        <f>1380+370+88+238</f>
+        <v>2076</v>
+      </c>
+      <c r="G149" s="67"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="67"/>
+      <c r="J149" s="67"/>
+      <c r="K149" s="67"/>
+      <c r="L149" s="67"/>
+      <c r="M149" s="131"/>
+      <c r="N149" s="74"/>
+      <c r="O149" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P149" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q149" s="72"/>
+      <c r="R149" s="72"/>
+      <c r="S149" s="72">
+        <f>180+148+36+2475</f>
+        <v>2839</v>
+      </c>
+      <c r="T149" s="72"/>
+      <c r="U149" s="72"/>
+      <c r="V149" s="72"/>
+      <c r="W149" s="72"/>
+      <c r="X149" s="67"/>
+    </row>
+    <row r="150" spans="2:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C150" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D150" s="67">
+        <f>47+72.5+247+54+245</f>
+        <v>665.5</v>
+      </c>
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="67"/>
+      <c r="H150" s="67"/>
+      <c r="I150" s="67"/>
+      <c r="J150" s="67"/>
+      <c r="K150" s="67"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="131"/>
+      <c r="N150" s="74"/>
+      <c r="O150" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P150" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q150" s="72">
+        <f>330+158+288+87</f>
+        <v>863</v>
+      </c>
+      <c r="R150" s="72"/>
+      <c r="S150" s="72"/>
+      <c r="T150" s="72"/>
+      <c r="U150" s="72"/>
+      <c r="V150" s="72"/>
+      <c r="W150" s="72"/>
+      <c r="X150" s="67"/>
+    </row>
+    <row r="151" spans="2:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="B151" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C151" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="D151" s="67"/>
+      <c r="E151" s="67"/>
+      <c r="F151" s="67"/>
+      <c r="G151" s="67">
+        <v>140</v>
+      </c>
+      <c r="H151" s="67"/>
+      <c r="I151" s="67"/>
+      <c r="J151" s="67"/>
+      <c r="K151" s="67"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="131"/>
+      <c r="N151" s="74"/>
+      <c r="O151" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P151" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q151" s="72"/>
+      <c r="R151" s="72"/>
+      <c r="S151" s="72"/>
+      <c r="T151" s="72">
+        <v>145</v>
+      </c>
+      <c r="U151" s="72"/>
+      <c r="V151" s="72"/>
+      <c r="W151" s="72"/>
+      <c r="X151" s="67"/>
+    </row>
+    <row r="152" spans="2:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C152" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D152" s="67"/>
+      <c r="E152" s="67"/>
+      <c r="F152" s="67"/>
+      <c r="G152" s="67"/>
+      <c r="H152" s="67"/>
+      <c r="I152" s="67"/>
+      <c r="J152" s="67"/>
+      <c r="K152" s="67"/>
+      <c r="L152" s="11">
+        <v>500</v>
+      </c>
+      <c r="M152" s="131"/>
+      <c r="N152" s="74"/>
+      <c r="O152" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P152" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q152" s="72"/>
+      <c r="R152" s="72">
+        <v>1081</v>
+      </c>
+      <c r="S152" s="72"/>
+      <c r="T152" s="72"/>
+      <c r="U152" s="72"/>
+      <c r="V152" s="72"/>
+      <c r="W152" s="72"/>
+      <c r="X152" s="67"/>
+    </row>
+    <row r="153" spans="2:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C153" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D153" s="67"/>
+      <c r="E153" s="67">
+        <v>68</v>
+      </c>
+      <c r="F153" s="67"/>
+      <c r="G153" s="67"/>
+      <c r="H153" s="67"/>
+      <c r="I153" s="67"/>
+      <c r="J153" s="67"/>
+      <c r="K153" s="67"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="131"/>
+      <c r="N153" s="74"/>
+      <c r="O153" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P153" s="89"/>
+      <c r="Q153" s="72"/>
+      <c r="R153" s="72"/>
+      <c r="S153" s="72"/>
+      <c r="T153" s="72"/>
+      <c r="U153" s="72"/>
+      <c r="V153" s="72"/>
+      <c r="W153" s="72"/>
+      <c r="X153" s="67"/>
+    </row>
+    <row r="154" spans="2:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D154" s="67"/>
+      <c r="E154" s="67"/>
+      <c r="F154" s="67"/>
+      <c r="G154" s="67"/>
+      <c r="H154" s="67"/>
+      <c r="I154" s="67"/>
+      <c r="J154" s="94">
+        <f>155+626</f>
+        <v>781</v>
+      </c>
+      <c r="K154" s="67"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="131"/>
+      <c r="N154" s="74"/>
+      <c r="O154" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P154" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q154" s="72"/>
+      <c r="R154" s="72"/>
+      <c r="S154" s="72"/>
+      <c r="T154" s="72"/>
+      <c r="U154" s="72"/>
+      <c r="V154" s="72"/>
+      <c r="W154" s="72">
+        <f>900+345</f>
+        <v>1245</v>
+      </c>
+      <c r="X154" s="67"/>
+      <c r="Y154" s="129"/>
+      <c r="Z154" s="80"/>
+      <c r="AA154" s="80"/>
+    </row>
+    <row r="155" spans="2:27" ht="24" x14ac:dyDescent="0.25">
+      <c r="B155" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C155" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D155" s="67"/>
+      <c r="E155" s="67"/>
+      <c r="F155" s="67"/>
+      <c r="G155" s="67"/>
+      <c r="H155" s="67"/>
+      <c r="I155" s="67">
+        <v>850</v>
+      </c>
+      <c r="J155" s="67"/>
+      <c r="K155" s="67"/>
+      <c r="L155" s="11"/>
+      <c r="M155" s="131"/>
+      <c r="N155" s="74"/>
+      <c r="O155" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P155" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q155" s="72"/>
+      <c r="R155" s="72"/>
+      <c r="S155" s="72"/>
+      <c r="T155" s="72"/>
+      <c r="U155" s="72">
+        <v>729</v>
+      </c>
+      <c r="V155" s="72"/>
+      <c r="W155" s="72"/>
+      <c r="X155" s="67"/>
+    </row>
+    <row r="156" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D156" s="67"/>
+      <c r="E156" s="67"/>
+      <c r="F156" s="67"/>
+      <c r="G156" s="67"/>
+      <c r="H156" s="67">
+        <f>119+51+68+68+102+68</f>
+        <v>476</v>
+      </c>
+      <c r="I156" s="67"/>
+      <c r="J156" s="67"/>
+      <c r="K156" s="67"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="131"/>
+      <c r="N156" s="74"/>
+      <c r="O156" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="P156" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q156" s="72"/>
+      <c r="R156" s="72"/>
+      <c r="S156" s="72"/>
+      <c r="T156" s="72"/>
+      <c r="U156" s="72"/>
+      <c r="V156" s="72">
+        <f>270+153+170+204+170+204</f>
+        <v>1171</v>
+      </c>
+      <c r="W156" s="72"/>
+      <c r="X156" s="67"/>
+    </row>
+    <row r="157" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C157" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="67"/>
+      <c r="E157" s="67"/>
+      <c r="F157" s="67"/>
+      <c r="G157" s="67"/>
+      <c r="H157" s="67">
+        <f>380+380+470</f>
+        <v>1230</v>
+      </c>
+      <c r="I157" s="67"/>
+      <c r="J157" s="67"/>
+      <c r="K157" s="67"/>
+      <c r="L157" s="11"/>
+      <c r="M157" s="131"/>
+      <c r="N157" s="74"/>
+      <c r="O157" s="93"/>
+      <c r="P157" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q157" s="72"/>
+      <c r="R157" s="72"/>
+      <c r="S157" s="72"/>
+      <c r="T157" s="72"/>
+      <c r="U157" s="72"/>
+      <c r="V157" s="72">
+        <f>700+700+710+2566+310</f>
+        <v>4986</v>
+      </c>
+      <c r="W157" s="72"/>
+      <c r="X157" s="67"/>
+    </row>
+    <row r="158" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C158" s="95"/>
+      <c r="D158" s="67"/>
+      <c r="E158" s="67"/>
+      <c r="F158" s="67"/>
+      <c r="G158" s="67"/>
+      <c r="H158" s="67"/>
+      <c r="I158" s="67"/>
+      <c r="J158" s="67"/>
+      <c r="K158" s="67"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="131"/>
+      <c r="N158" s="74"/>
+      <c r="O158" s="93"/>
+      <c r="P158" s="88"/>
+      <c r="Q158" s="72"/>
+      <c r="R158" s="72"/>
+      <c r="S158" s="72"/>
+      <c r="T158" s="72"/>
+      <c r="U158" s="72"/>
+      <c r="V158" s="72"/>
+      <c r="W158" s="72"/>
+      <c r="X158" s="67"/>
+    </row>
+    <row r="159" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="93"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="67"/>
+      <c r="G159" s="67"/>
+      <c r="H159" s="67"/>
+      <c r="I159" s="67"/>
+      <c r="J159" s="67"/>
+      <c r="K159" s="67"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="131"/>
+      <c r="N159" s="74"/>
+      <c r="O159" s="93"/>
+      <c r="P159" s="91"/>
+      <c r="Q159" s="67"/>
+      <c r="R159" s="67"/>
+      <c r="S159" s="67"/>
+      <c r="T159" s="67"/>
+      <c r="U159" s="67"/>
+      <c r="V159" s="67"/>
+      <c r="W159" s="67"/>
+      <c r="X159" s="67"/>
+    </row>
+    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B160" s="93"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="67"/>
+      <c r="E160" s="67"/>
+      <c r="F160" s="67"/>
+      <c r="G160" s="67"/>
+      <c r="H160" s="67"/>
+      <c r="I160" s="67"/>
+      <c r="J160" s="67"/>
+      <c r="K160" s="67"/>
+      <c r="L160" s="11"/>
+      <c r="M160" s="131"/>
+      <c r="N160" s="74"/>
+      <c r="O160" s="93"/>
+      <c r="P160" s="91"/>
+      <c r="Q160" s="67"/>
+      <c r="R160" s="67"/>
+      <c r="S160" s="67"/>
+      <c r="T160" s="67"/>
+      <c r="U160" s="67"/>
+      <c r="V160" s="67"/>
+      <c r="W160" s="67"/>
+      <c r="X160" s="67"/>
+    </row>
+    <row r="161" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="9"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="73">
+        <v>0</v>
+      </c>
+      <c r="E161" s="73"/>
+      <c r="F161" s="73"/>
+      <c r="G161" s="73"/>
+      <c r="H161" s="73"/>
+      <c r="I161" s="73"/>
+      <c r="J161" s="73"/>
+      <c r="K161" s="73"/>
+      <c r="L161" s="20"/>
+      <c r="M161" s="131"/>
+      <c r="N161" s="74"/>
+      <c r="O161" s="46"/>
+      <c r="P161" s="51"/>
+      <c r="Q161" s="73">
+        <v>0</v>
+      </c>
+      <c r="R161" s="73"/>
+      <c r="S161" s="73"/>
+      <c r="T161" s="73"/>
+      <c r="U161" s="73"/>
+      <c r="V161" s="73"/>
+      <c r="W161" s="73"/>
+      <c r="X161" s="73"/>
+    </row>
+    <row r="162" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="7"/>
+      <c r="C162" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="30">
+        <f t="shared" ref="D162" si="10">SUM(D148:D161)</f>
+        <v>665.5</v>
+      </c>
+      <c r="E162" s="31">
+        <f t="shared" ref="E162:L162" si="11">SUM(E148:E161)</f>
+        <v>68</v>
+      </c>
+      <c r="F162" s="31">
+        <f t="shared" si="11"/>
+        <v>2076</v>
+      </c>
+      <c r="G162" s="31">
+        <f t="shared" si="11"/>
+        <v>140</v>
+      </c>
+      <c r="H162" s="31">
+        <f t="shared" si="11"/>
+        <v>1706</v>
+      </c>
+      <c r="I162" s="31">
+        <f t="shared" si="11"/>
+        <v>850</v>
+      </c>
+      <c r="J162" s="22">
+        <f t="shared" si="11"/>
+        <v>781</v>
+      </c>
+      <c r="K162" s="32">
+        <f t="shared" si="11"/>
+        <v>7786</v>
+      </c>
+      <c r="L162" s="100">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="M162" s="132"/>
+      <c r="N162" s="74"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q162" s="21">
+        <f t="shared" ref="Q162:X162" si="12">SUM(Q148:Q161)</f>
+        <v>863</v>
+      </c>
+      <c r="R162" s="21">
+        <f t="shared" si="12"/>
+        <v>1081</v>
+      </c>
+      <c r="S162" s="21">
+        <f t="shared" si="12"/>
+        <v>2839</v>
+      </c>
+      <c r="T162" s="21">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="U162" s="21">
+        <f t="shared" si="12"/>
+        <v>729</v>
+      </c>
+      <c r="V162" s="21">
+        <f t="shared" si="12"/>
+        <v>6157</v>
+      </c>
+      <c r="W162" s="21">
+        <f t="shared" si="12"/>
+        <v>1245</v>
+      </c>
+      <c r="X162" s="21">
+        <f t="shared" si="12"/>
+        <v>8215</v>
+      </c>
+    </row>
+    <row r="163" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="7"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="78"/>
+      <c r="M163" s="76"/>
+      <c r="N163" s="74"/>
+      <c r="O163" s="7"/>
+      <c r="Q163" s="5"/>
+      <c r="R163" s="5"/>
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+      <c r="U163" s="5"/>
+      <c r="V163" s="5"/>
+      <c r="W163" s="5"/>
+      <c r="X163" s="5"/>
+    </row>
+    <row r="164" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B164" s="7"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="245">
+        <f>K162+J162+I162+H162+G162+F162+E162+D162+L162</f>
+        <v>14572.5</v>
+      </c>
+      <c r="G164" s="246"/>
+      <c r="H164" s="247"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="71"/>
+      <c r="M164" s="74"/>
+      <c r="N164" s="74"/>
+      <c r="O164" s="7"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="248">
+        <f>Q162+R162+S162+T162+U162+V162+W162+X162</f>
+        <v>21274</v>
+      </c>
+      <c r="T164" s="249"/>
+      <c r="U164" s="250"/>
+      <c r="V164" s="5"/>
+      <c r="W164" s="5"/>
+      <c r="X164" s="5"/>
+    </row>
+    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B165" s="7"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="71"/>
+      <c r="M165" s="74"/>
+      <c r="N165" s="74"/>
+      <c r="O165" s="7"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5"/>
+      <c r="V165" s="5"/>
+      <c r="W165" s="5"/>
+      <c r="X165" s="5"/>
+    </row>
+    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B166" s="7"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="71"/>
+      <c r="M166" s="74"/>
+      <c r="N166" s="74"/>
+      <c r="O166" s="7"/>
+    </row>
+    <row r="167" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B167" s="7"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="71"/>
+      <c r="M167" s="74"/>
+      <c r="N167" s="74"/>
+      <c r="O167" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="36">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="O59:W59"/>
-    <mergeCell ref="I60:K60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="C115:K115"/>
-    <mergeCell ref="O115:W115"/>
-    <mergeCell ref="I116:K116"/>
-    <mergeCell ref="V116:X116"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="S134:U134"/>
-    <mergeCell ref="C87:K87"/>
-    <mergeCell ref="O87:W87"/>
-    <mergeCell ref="I88:K88"/>
-    <mergeCell ref="V88:X88"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="S106:U106"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="O33:W33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="C63:K63"/>
+    <mergeCell ref="O63:W63"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="C117:K117"/>
+    <mergeCell ref="O117:W117"/>
+    <mergeCell ref="I118:K118"/>
+    <mergeCell ref="V118:X118"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="S136:U136"/>
+    <mergeCell ref="C145:K145"/>
+    <mergeCell ref="O145:W145"/>
+    <mergeCell ref="I146:K146"/>
+    <mergeCell ref="V146:X146"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="S164:U164"/>
+    <mergeCell ref="C89:K89"/>
+    <mergeCell ref="O89:W89"/>
+    <mergeCell ref="I90:K90"/>
+    <mergeCell ref="V90:X90"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="S108:U108"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="S51:U51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.16" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9460,51 +10313,51 @@
     </row>
     <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="235" t="s">
+      <c r="C4" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="236"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="236"/>
-      <c r="J4" s="236"/>
-      <c r="K4" s="236"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
       <c r="L4" s="84" t="s">
         <v>88</v>
       </c>
       <c r="M4" s="83"/>
       <c r="N4" s="81"/>
-      <c r="O4" s="248" t="s">
+      <c r="O4" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="249"/>
-      <c r="U4" s="249"/>
-      <c r="V4" s="249"/>
-      <c r="W4" s="249"/>
+      <c r="P4" s="252"/>
+      <c r="Q4" s="252"/>
+      <c r="R4" s="252"/>
+      <c r="S4" s="252"/>
+      <c r="T4" s="252"/>
+      <c r="U4" s="252"/>
+      <c r="V4" s="252"/>
+      <c r="W4" s="252"/>
       <c r="X4" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="239" t="s">
+      <c r="I5" s="242" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="240"/>
-      <c r="K5" s="241"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="244"/>
       <c r="L5" s="68"/>
       <c r="M5" s="59"/>
       <c r="N5" s="74"/>
-      <c r="V5" s="239" t="s">
+      <c r="V5" s="242" t="s">
         <v>107</v>
       </c>
-      <c r="W5" s="240"/>
-      <c r="X5" s="241"/>
+      <c r="W5" s="243"/>
+      <c r="X5" s="244"/>
     </row>
     <row r="6" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -10180,12 +11033,12 @@
     <row r="23" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="242">
+      <c r="F23" s="245">
         <f>K21+J21+I21+H21+G21+F21+E21+D21+L21</f>
         <v>9784</v>
       </c>
-      <c r="G23" s="243"/>
-      <c r="H23" s="244"/>
+      <c r="G23" s="246"/>
+      <c r="H23" s="247"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -10194,12 +11047,12 @@
       <c r="N23" s="74"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="245">
+      <c r="S23" s="248">
         <f>Q21+R21+S21+T21+U21+V21+W21+X21</f>
         <v>18984.5</v>
       </c>
-      <c r="T23" s="246"/>
-      <c r="U23" s="247"/>
+      <c r="T23" s="249"/>
+      <c r="U23" s="250"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -10252,51 +11105,51 @@
     </row>
     <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="235" t="s">
+      <c r="C35" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="236"/>
-      <c r="E35" s="236"/>
-      <c r="F35" s="236"/>
-      <c r="G35" s="236"/>
-      <c r="H35" s="236"/>
-      <c r="I35" s="236"/>
-      <c r="J35" s="236"/>
-      <c r="K35" s="236"/>
+      <c r="D35" s="239"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="239"/>
+      <c r="G35" s="239"/>
+      <c r="H35" s="239"/>
+      <c r="I35" s="239"/>
+      <c r="J35" s="239"/>
+      <c r="K35" s="239"/>
       <c r="L35" s="84" t="s">
         <v>66</v>
       </c>
       <c r="M35" s="83"/>
       <c r="N35" s="81"/>
-      <c r="O35" s="248" t="s">
+      <c r="O35" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="249"/>
-      <c r="Q35" s="249"/>
-      <c r="R35" s="249"/>
-      <c r="S35" s="249"/>
-      <c r="T35" s="249"/>
-      <c r="U35" s="249"/>
-      <c r="V35" s="249"/>
-      <c r="W35" s="249"/>
+      <c r="P35" s="252"/>
+      <c r="Q35" s="252"/>
+      <c r="R35" s="252"/>
+      <c r="S35" s="252"/>
+      <c r="T35" s="252"/>
+      <c r="U35" s="252"/>
+      <c r="V35" s="252"/>
+      <c r="W35" s="252"/>
       <c r="X35" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I36" s="239" t="s">
+      <c r="I36" s="242" t="s">
         <v>68</v>
       </c>
-      <c r="J36" s="240"/>
-      <c r="K36" s="241"/>
+      <c r="J36" s="243"/>
+      <c r="K36" s="244"/>
       <c r="L36" s="68"/>
       <c r="M36" s="59"/>
       <c r="N36" s="74"/>
-      <c r="V36" s="239" t="s">
+      <c r="V36" s="242" t="s">
         <v>68</v>
       </c>
-      <c r="W36" s="240"/>
-      <c r="X36" s="241"/>
+      <c r="W36" s="243"/>
+      <c r="X36" s="244"/>
     </row>
     <row r="37" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
@@ -10968,12 +11821,12 @@
     <row r="54" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="242">
+      <c r="F54" s="245">
         <f>K52+J52+I52+H52+G52+F52+E52+D52+L52</f>
         <v>13702.5</v>
       </c>
-      <c r="G54" s="243"/>
-      <c r="H54" s="244"/>
+      <c r="G54" s="246"/>
+      <c r="H54" s="247"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -10982,12 +11835,12 @@
       <c r="N54" s="74"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
-      <c r="S54" s="245">
+      <c r="S54" s="248">
         <f>Q52+R52+S52+T52+U52+V52+W52+X52</f>
         <v>19583</v>
       </c>
-      <c r="T54" s="246"/>
-      <c r="U54" s="247"/>
+      <c r="T54" s="249"/>
+      <c r="U54" s="250"/>
       <c r="V54" s="5">
         <v>19583</v>
       </c>
@@ -11042,48 +11895,48 @@
     </row>
     <row r="67" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C68" s="235" t="s">
+      <c r="C68" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="236"/>
-      <c r="E68" s="236"/>
-      <c r="F68" s="236"/>
-      <c r="G68" s="236"/>
-      <c r="H68" s="236"/>
-      <c r="I68" s="236"/>
-      <c r="J68" s="236"/>
-      <c r="K68" s="236"/>
+      <c r="D68" s="239"/>
+      <c r="E68" s="239"/>
+      <c r="F68" s="239"/>
+      <c r="G68" s="239"/>
+      <c r="H68" s="239"/>
+      <c r="I68" s="239"/>
+      <c r="J68" s="239"/>
+      <c r="K68" s="239"/>
       <c r="L68" s="84" t="s">
         <v>42</v>
       </c>
       <c r="M68" s="83"/>
       <c r="N68" s="81"/>
-      <c r="O68" s="248" t="s">
+      <c r="O68" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="P68" s="249"/>
-      <c r="Q68" s="249"/>
-      <c r="R68" s="249"/>
-      <c r="S68" s="249"/>
-      <c r="T68" s="249"/>
-      <c r="U68" s="249"/>
-      <c r="V68" s="249"/>
-      <c r="W68" s="249"/>
+      <c r="P68" s="252"/>
+      <c r="Q68" s="252"/>
+      <c r="R68" s="252"/>
+      <c r="S68" s="252"/>
+      <c r="T68" s="252"/>
+      <c r="U68" s="252"/>
+      <c r="V68" s="252"/>
+      <c r="W68" s="252"/>
       <c r="X68" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I69" s="239" t="s">
+      <c r="I69" s="242" t="s">
         <v>67</v>
       </c>
-      <c r="J69" s="240"/>
-      <c r="K69" s="241"/>
+      <c r="J69" s="243"/>
+      <c r="K69" s="244"/>
       <c r="L69" s="68"/>
       <c r="M69" s="59"/>
       <c r="N69" s="74"/>
-      <c r="W69" s="240"/>
-      <c r="X69" s="241"/>
+      <c r="W69" s="243"/>
+      <c r="X69" s="244"/>
     </row>
     <row r="70" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
@@ -11750,12 +12603,12 @@
     <row r="87" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="242">
+      <c r="F87" s="245">
         <f>K85+J85+I85+H85+G85+F85+E85+D85+L85</f>
         <v>13447.5</v>
       </c>
-      <c r="G87" s="243"/>
-      <c r="H87" s="244"/>
+      <c r="G87" s="246"/>
+      <c r="H87" s="247"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5">
         <v>13447.5</v>
@@ -11766,12 +12619,12 @@
       <c r="N87" s="74"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-      <c r="S87" s="245">
+      <c r="S87" s="248">
         <f>Q85+R85+S85+T85+U85+V85+W85+X85</f>
         <v>19080.5</v>
       </c>
-      <c r="T87" s="246"/>
-      <c r="U87" s="247"/>
+      <c r="T87" s="249"/>
+      <c r="U87" s="250"/>
       <c r="V87" s="5">
         <v>19080.5</v>
       </c>
@@ -11850,48 +12703,48 @@
     </row>
     <row r="93" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C94" s="235" t="s">
+      <c r="C94" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="236"/>
-      <c r="E94" s="236"/>
-      <c r="F94" s="236"/>
-      <c r="G94" s="236"/>
-      <c r="H94" s="236"/>
-      <c r="I94" s="236"/>
-      <c r="J94" s="236"/>
-      <c r="K94" s="236"/>
+      <c r="D94" s="239"/>
+      <c r="E94" s="239"/>
+      <c r="F94" s="239"/>
+      <c r="G94" s="239"/>
+      <c r="H94" s="239"/>
+      <c r="I94" s="239"/>
+      <c r="J94" s="239"/>
+      <c r="K94" s="239"/>
       <c r="L94" s="84" t="s">
         <v>41</v>
       </c>
       <c r="M94" s="83"/>
       <c r="N94" s="81"/>
-      <c r="O94" s="248" t="s">
+      <c r="O94" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="P94" s="249"/>
-      <c r="Q94" s="249"/>
-      <c r="R94" s="249"/>
-      <c r="S94" s="249"/>
-      <c r="T94" s="249"/>
-      <c r="U94" s="249"/>
-      <c r="V94" s="249"/>
-      <c r="W94" s="249"/>
+      <c r="P94" s="252"/>
+      <c r="Q94" s="252"/>
+      <c r="R94" s="252"/>
+      <c r="S94" s="252"/>
+      <c r="T94" s="252"/>
+      <c r="U94" s="252"/>
+      <c r="V94" s="252"/>
+      <c r="W94" s="252"/>
       <c r="X94" s="85" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="95" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I95" s="239" t="s">
+      <c r="I95" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="J95" s="240"/>
-      <c r="K95" s="241"/>
+      <c r="J95" s="243"/>
+      <c r="K95" s="244"/>
       <c r="L95" s="68"/>
       <c r="M95" s="59"/>
       <c r="N95" s="74"/>
-      <c r="W95" s="240"/>
-      <c r="X95" s="241"/>
+      <c r="W95" s="243"/>
+      <c r="X95" s="244"/>
     </row>
     <row r="96" spans="2:24" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
@@ -13108,12 +13961,12 @@
     <row r="122" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="250">
+      <c r="F122" s="253">
         <f>K120+J120+I120+H120+G120+F120+E120+D120</f>
         <v>13579</v>
       </c>
-      <c r="G122" s="243"/>
-      <c r="H122" s="244"/>
+      <c r="G122" s="246"/>
+      <c r="H122" s="247"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5">
         <v>13579</v>
@@ -13124,12 +13977,12 @@
       <c r="N122" s="74"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
-      <c r="S122" s="245">
+      <c r="S122" s="248">
         <f>Q120+R120+S120+T120+U120+V120+W120+X120</f>
         <v>20452</v>
       </c>
-      <c r="T122" s="246"/>
-      <c r="U122" s="247"/>
+      <c r="T122" s="249"/>
+      <c r="U122" s="250"/>
       <c r="V122" s="5">
         <v>20452</v>
       </c>
@@ -13216,30 +14069,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="O4:W4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="C68:K68"/>
+    <mergeCell ref="O68:W68"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="W69:X69"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="C94:K94"/>
+    <mergeCell ref="S122:U122"/>
+    <mergeCell ref="I95:K95"/>
+    <mergeCell ref="W95:X95"/>
+    <mergeCell ref="O94:W94"/>
     <mergeCell ref="C35:K35"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="F54:H54"/>
     <mergeCell ref="O35:W35"/>
     <mergeCell ref="S54:U54"/>
     <mergeCell ref="V36:X36"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="C94:K94"/>
-    <mergeCell ref="S122:U122"/>
-    <mergeCell ref="I95:K95"/>
-    <mergeCell ref="W95:X95"/>
-    <mergeCell ref="O94:W94"/>
-    <mergeCell ref="C68:K68"/>
-    <mergeCell ref="O68:W68"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="W69:X69"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="S87:U87"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="O4:W4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="S23:U23"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13271,51 +14124,51 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="235" t="s">
+      <c r="D2" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="235" t="s">
+      <c r="T2" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
-      <c r="Z2" s="236"/>
-      <c r="AA2" s="236"/>
-      <c r="AB2" s="236"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="239" t="s">
+      <c r="J3" s="242" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="240"/>
-      <c r="L3" s="251"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="254"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="239" t="s">
+      <c r="Z3" s="242" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="241"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -13840,51 +14693,51 @@
     <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="7"/>
-      <c r="D16" s="248" t="s">
+      <c r="D16" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="249"/>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="249"/>
-      <c r="J16" s="249"/>
-      <c r="K16" s="249"/>
-      <c r="L16" s="249"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="252"/>
+      <c r="G16" s="252"/>
+      <c r="H16" s="252"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="252"/>
+      <c r="K16" s="252"/>
+      <c r="L16" s="252"/>
       <c r="M16" s="171"/>
       <c r="N16" s="151"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="248" t="s">
+      <c r="T16" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="249"/>
-      <c r="V16" s="249"/>
-      <c r="W16" s="249"/>
-      <c r="X16" s="249"/>
-      <c r="Y16" s="249"/>
-      <c r="Z16" s="249"/>
-      <c r="AA16" s="249"/>
-      <c r="AB16" s="249"/>
+      <c r="U16" s="252"/>
+      <c r="V16" s="252"/>
+      <c r="W16" s="252"/>
+      <c r="X16" s="252"/>
+      <c r="Y16" s="252"/>
+      <c r="Z16" s="252"/>
+      <c r="AA16" s="252"/>
+      <c r="AB16" s="252"/>
       <c r="AC16" s="171"/>
       <c r="AD16" s="151"/>
     </row>
     <row r="17" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
-      <c r="J17" s="239" t="s">
+      <c r="J17" s="242" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="240"/>
-      <c r="L17" s="251"/>
+      <c r="K17" s="243"/>
+      <c r="L17" s="254"/>
       <c r="M17" s="68"/>
       <c r="N17" s="152"/>
       <c r="S17" s="7"/>
       <c r="T17" s="1"/>
-      <c r="Z17" s="239" t="s">
+      <c r="Z17" s="242" t="s">
         <v>184</v>
       </c>
-      <c r="AA17" s="240"/>
-      <c r="AB17" s="241"/>
+      <c r="AA17" s="243"/>
+      <c r="AB17" s="244"/>
       <c r="AC17" s="68"/>
       <c r="AD17" s="152"/>
     </row>
@@ -14403,47 +15256,47 @@
     <row r="1" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" s="7"/>
-      <c r="E2" s="235" t="s">
+      <c r="E2" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
       <c r="N2" s="84"/>
       <c r="O2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="235" t="s">
+      <c r="T2" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="236"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
-      <c r="Z2" s="236"/>
-      <c r="AA2" s="236"/>
-      <c r="AB2" s="236"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="239"/>
+      <c r="AA2" s="239"/>
+      <c r="AB2" s="239"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="3:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="7"/>
       <c r="E3" s="1"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="240"/>
-      <c r="M3" s="251"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="254"/>
       <c r="N3" s="68"/>
       <c r="O3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="239"/>
-      <c r="AA3" s="240"/>
-      <c r="AB3" s="241"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="243"/>
+      <c r="AB3" s="244"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -14720,12 +15573,12 @@
       <c r="T7" s="153"/>
       <c r="U7" s="225"/>
       <c r="V7" s="227"/>
-      <c r="W7" s="258" t="s">
+      <c r="W7" s="261" t="s">
         <v>192</v>
       </c>
-      <c r="X7" s="258"/>
-      <c r="Y7" s="258"/>
-      <c r="Z7" s="259"/>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="261"/>
+      <c r="Z7" s="262"/>
       <c r="AA7" s="226"/>
       <c r="AB7" s="225"/>
       <c r="AC7" s="228"/>
@@ -14833,12 +15686,12 @@
       <c r="C10" s="154"/>
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="260" t="s">
+      <c r="H10" s="263" t="s">
         <v>193</v>
       </c>
-      <c r="I10" s="261"/>
-      <c r="J10" s="261"/>
-      <c r="K10" s="262"/>
+      <c r="I10" s="264"/>
+      <c r="J10" s="264"/>
+      <c r="K10" s="265"/>
       <c r="L10" s="22"/>
       <c r="M10" s="157"/>
       <c r="N10" s="77"/>
@@ -14920,31 +15773,31 @@
     </row>
     <row r="14" spans="3:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D14" s="7"/>
-      <c r="E14" s="248" t="s">
+      <c r="E14" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="249"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="249"/>
-      <c r="I14" s="249"/>
-      <c r="J14" s="249"/>
-      <c r="K14" s="249"/>
-      <c r="L14" s="249"/>
-      <c r="M14" s="257"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="252"/>
+      <c r="H14" s="252"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="252"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="260"/>
       <c r="N14" s="171"/>
       <c r="O14" s="151"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="248" t="s">
+      <c r="T14" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="249"/>
-      <c r="V14" s="249"/>
-      <c r="W14" s="249"/>
-      <c r="X14" s="249"/>
-      <c r="Y14" s="249"/>
-      <c r="Z14" s="249"/>
-      <c r="AA14" s="249"/>
-      <c r="AB14" s="249"/>
+      <c r="U14" s="252"/>
+      <c r="V14" s="252"/>
+      <c r="W14" s="252"/>
+      <c r="X14" s="252"/>
+      <c r="Y14" s="252"/>
+      <c r="Z14" s="252"/>
+      <c r="AA14" s="252"/>
+      <c r="AB14" s="252"/>
       <c r="AC14" s="171"/>
       <c r="AD14" s="151"/>
     </row>
@@ -14958,9 +15811,9 @@
       <c r="O15" s="152"/>
       <c r="S15" s="7"/>
       <c r="T15" s="1"/>
-      <c r="Z15" s="239"/>
-      <c r="AA15" s="240"/>
-      <c r="AB15" s="241"/>
+      <c r="Z15" s="242"/>
+      <c r="AA15" s="243"/>
+      <c r="AB15" s="244"/>
       <c r="AC15" s="68"/>
       <c r="AD15" s="152"/>
     </row>
@@ -15283,12 +16136,12 @@
       <c r="R20" s="154"/>
       <c r="U20" s="30"/>
       <c r="V20" s="31"/>
-      <c r="W20" s="255" t="s">
+      <c r="W20" s="258" t="s">
         <v>192</v>
       </c>
-      <c r="X20" s="255"/>
-      <c r="Y20" s="255"/>
-      <c r="Z20" s="256"/>
+      <c r="X20" s="258"/>
+      <c r="Y20" s="258"/>
+      <c r="Z20" s="259"/>
       <c r="AA20" s="22"/>
       <c r="AB20" s="157"/>
       <c r="AC20" s="77"/>
@@ -15335,12 +16188,12 @@
       <c r="C22" s="154"/>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="252" t="s">
+      <c r="H22" s="255" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="253"/>
-      <c r="J22" s="253"/>
-      <c r="K22" s="254"/>
+      <c r="I22" s="256"/>
+      <c r="J22" s="256"/>
+      <c r="K22" s="257"/>
       <c r="L22" s="22"/>
       <c r="M22" s="157"/>
       <c r="N22" s="77"/>
@@ -15423,17 +16276,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="H10:K10"/>
     <mergeCell ref="T2:AB2"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="T14:AB14"/>
     <mergeCell ref="Z15:AB15"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="E14:M14"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15493,53 +16346,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="235" t="s">
+      <c r="C1" s="238" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
       <c r="L1" s="127" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="133"/>
       <c r="N1" s="81"/>
-      <c r="O1" s="248" t="s">
+      <c r="O1" s="251" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="249"/>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
+      <c r="P1" s="252"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="252"/>
+      <c r="T1" s="252"/>
+      <c r="U1" s="252"/>
+      <c r="V1" s="252"/>
+      <c r="W1" s="252"/>
       <c r="X1" s="128" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="239" t="s">
+      <c r="I2" s="242" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="240"/>
-      <c r="K2" s="241"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="244"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
       <c r="P2"/>
-      <c r="V2" s="239" t="s">
+      <c r="V2" s="242" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="240"/>
-      <c r="X2" s="241"/>
+      <c r="W2" s="243"/>
+      <c r="X2" s="244"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -16198,12 +17051,12 @@
     <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="242">
+      <c r="F20" s="245">
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
         <v>14572.5</v>
       </c>
-      <c r="G20" s="243"/>
-      <c r="H20" s="244"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="247"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -16214,12 +17067,12 @@
       <c r="P20"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="245">
+      <c r="S20" s="248">
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>21274</v>
       </c>
-      <c r="T20" s="246"/>
-      <c r="U20" s="247"/>
+      <c r="T20" s="249"/>
+      <c r="U20" s="250"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="11685" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="11685" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja5" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="290">
   <si>
     <t>FECHA</t>
   </si>
@@ -888,6 +888,51 @@
   </si>
   <si>
     <t xml:space="preserve">  AZUCAR------- 21--Oct---antes  9-Sept</t>
+  </si>
+  <si>
+    <t>del   04- al  10   NOVIEMBRE  2023</t>
+  </si>
+  <si>
+    <t>04--AL---10--Nov-23</t>
+  </si>
+  <si>
+    <t>Pechuga pollo--Totopos--crema--costilla-mole convento</t>
+  </si>
+  <si>
+    <t>Poblano--cebolla-papa-zanahoria--chayote--calabaza-tomate-chicharo-tampico-serrano-ajo-jitomate</t>
+  </si>
+  <si>
+    <t>Harian-avena-italpasta--crema--desengransante--</t>
+  </si>
+  <si>
+    <t>AZUCAR 1 BULTO 50 KG            8-Nov-23</t>
+  </si>
+  <si>
+    <t>Melon-papaya-sandia-guanavana--manzana--Nopal -aguacate</t>
+  </si>
+  <si>
+    <t>Epazote-tomillo-oregano</t>
+  </si>
+  <si>
+    <t>Guajillo--FRIJOL--Ajonjoli--sal Roche azul</t>
+  </si>
+  <si>
+    <t>QUESO-Norteño-Pechuga pollo-crema-gouda-totpos-condimento-añejo-costilla-mole convento</t>
+  </si>
+  <si>
+    <t>Poblano-cebolla-papa-zanahoria-tomate-chicharo-tampico-serrano-ajo-aguacate-jitomate-tomate</t>
+  </si>
+  <si>
+    <t>Yoguth-mayonesa-rajas-Arroz-Elote-café legal-leche-knorzuisa-italpasta-spaguetti-ajax-fibra-limpiador horno-harina trigo-Hilaza cono</t>
+  </si>
+  <si>
+    <t>Sandia--Naranja--Manzana-Maracuya</t>
+  </si>
+  <si>
+    <t>Chile costeño--Ancho-Guajillo-Pulla-Jamaica-Tamarindo-Pimienta</t>
+  </si>
+  <si>
+    <t>Epazote-Telimon-Cilantro-Hojas de aguacate</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2518,105 +2563,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2642,6 +2588,108 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2990,53 +3038,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="242" t="s">
+      <c r="C1" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
       <c r="L1" s="127" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="133"/>
       <c r="N1" s="81"/>
-      <c r="O1" s="255" t="s">
+      <c r="O1" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="256"/>
-      <c r="Q1" s="256"/>
-      <c r="R1" s="256"/>
-      <c r="S1" s="256"/>
-      <c r="T1" s="256"/>
-      <c r="U1" s="256"/>
-      <c r="V1" s="256"/>
-      <c r="W1" s="256"/>
+      <c r="P1" s="267"/>
+      <c r="Q1" s="267"/>
+      <c r="R1" s="267"/>
+      <c r="S1" s="267"/>
+      <c r="T1" s="267"/>
+      <c r="U1" s="267"/>
+      <c r="V1" s="267"/>
+      <c r="W1" s="267"/>
       <c r="X1" s="128" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="246" t="s">
+      <c r="I2" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="247"/>
-      <c r="K2" s="248"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="259"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
       <c r="P2"/>
-      <c r="V2" s="246" t="s">
+      <c r="V2" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="247"/>
-      <c r="X2" s="248"/>
+      <c r="W2" s="258"/>
+      <c r="X2" s="259"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -3695,12 +3743,12 @@
     <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="249">
+      <c r="F20" s="260">
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
         <v>14572.5</v>
       </c>
-      <c r="G20" s="250"/>
-      <c r="H20" s="251"/>
+      <c r="G20" s="261"/>
+      <c r="H20" s="262"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -3711,12 +3759,12 @@
       <c r="P20"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="252">
+      <c r="S20" s="263">
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>21274</v>
       </c>
-      <c r="T20" s="253"/>
-      <c r="U20" s="254"/>
+      <c r="T20" s="264"/>
+      <c r="U20" s="265"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -3836,34 +3884,34 @@
     <row r="1" spans="2:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="126" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="122"/>
-      <c r="C2" s="270" t="s">
+      <c r="C2" s="281" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="282"/>
       <c r="L2" s="123"/>
       <c r="M2" s="124"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
-      <c r="P2" s="272" t="s">
+      <c r="P2" s="283" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="274"/>
+      <c r="Q2" s="284"/>
+      <c r="R2" s="284"/>
+      <c r="S2" s="284"/>
+      <c r="T2" s="284"/>
+      <c r="U2" s="284"/>
+      <c r="V2" s="284"/>
+      <c r="W2" s="284"/>
+      <c r="X2" s="284"/>
+      <c r="Y2" s="284"/>
+      <c r="Z2" s="285"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="37"/>
@@ -4814,12 +4862,12 @@
     <row r="19" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="249">
+      <c r="F19" s="260">
         <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
         <v>50513</v>
       </c>
-      <c r="G19" s="250"/>
-      <c r="H19" s="251"/>
+      <c r="G19" s="261"/>
+      <c r="H19" s="262"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -4829,12 +4877,12 @@
       <c r="O19" s="74"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="252">
+      <c r="T19" s="263">
         <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
         <v>78100</v>
       </c>
-      <c r="U19" s="253"/>
-      <c r="V19" s="254"/>
+      <c r="U19" s="264"/>
+      <c r="V19" s="265"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -4969,32 +5017,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="242" t="s">
+      <c r="B2" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="255" t="s">
+      <c r="M2" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="256"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
-      <c r="R2" s="256"/>
-      <c r="S2" s="256"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="264"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="267"/>
+      <c r="S2" s="267"/>
+      <c r="T2" s="267"/>
+      <c r="U2" s="267"/>
+      <c r="V2" s="267"/>
+      <c r="W2" s="273"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -6253,12 +6301,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="249">
+      <c r="E30" s="260">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="250"/>
-      <c r="G30" s="251"/>
+      <c r="F30" s="261"/>
+      <c r="G30" s="262"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -6266,12 +6314,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="252">
+      <c r="Q30" s="263">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="253"/>
-      <c r="S30" s="254"/>
+      <c r="R30" s="264"/>
+      <c r="S30" s="265"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -6392,184 +6440,235 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:Y23"/>
+  <dimension ref="B1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="J8" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
     <col min="16" max="16" width="31.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7"/>
+      <c r="C2" s="253" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="133"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="255" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="256"/>
+      <c r="Q2" s="256"/>
+      <c r="R2" s="256"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="256"/>
+      <c r="U2" s="256"/>
+      <c r="V2" s="256"/>
+      <c r="W2" s="256"/>
+      <c r="X2" s="190" t="str">
+        <f>L2</f>
+        <v># 02</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="C3" s="242" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="133"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="244" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="245"/>
-      <c r="S3" s="245"/>
-      <c r="T3" s="245"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="245"/>
-      <c r="W3" s="245"/>
-      <c r="X3" s="190" t="str">
-        <f>L3</f>
-        <v># 01</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="1"/>
-      <c r="I4" s="246" t="s">
-        <v>248</v>
-      </c>
-      <c r="J4" s="247"/>
-      <c r="K4" s="248"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="7"/>
-      <c r="V4" s="246" t="str">
-        <f>I4</f>
-        <v>del   01- al  3   NOVIEMBRE  2023</v>
-      </c>
-      <c r="W4" s="247"/>
-      <c r="X4" s="248"/>
-    </row>
-    <row r="5" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="C3" s="1"/>
+      <c r="I3" s="257" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="7"/>
+      <c r="V3" s="257" t="str">
+        <f>I3</f>
+        <v>del   04- al  10   NOVIEMBRE  2023</v>
+      </c>
+      <c r="W3" s="258"/>
+      <c r="X3" s="259"/>
+    </row>
+    <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="184" t="s">
+      <c r="I4" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="183" t="s">
+      <c r="K4" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="99" t="s">
+      <c r="L4" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="135"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="143" t="s">
+      <c r="M4" s="135"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="137" t="s">
+      <c r="Q4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="138" t="s">
+      <c r="R4" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="138" t="s">
+      <c r="S4" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="137" t="s">
+      <c r="T4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="137" t="s">
+      <c r="U4" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="141" t="s">
+      <c r="V4" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="136" t="s">
+      <c r="W4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="142" t="s">
+      <c r="X4" s="142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="234" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72">
+        <f>646+1044+2378</f>
+        <v>4068</v>
+      </c>
+      <c r="L5" s="71"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="P5" s="234" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72">
+        <f>240+2971+420+200+2107</f>
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="234" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72">
-        <f>1125+995</f>
-        <v>2120</v>
-      </c>
-      <c r="L6" s="71"/>
+        <v>276</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67">
+        <f>1194+462+194</f>
+        <v>1850</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="131"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P6" s="234" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72">
-        <f>2416+1682</f>
-        <v>4098</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67">
+        <f>120+2030+132+800+200</f>
+        <v>3282</v>
+      </c>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+    </row>
+    <row r="7" spans="2:25" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="67"/>
+        <v>276</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="67">
+        <f>67+180+50+175+240</f>
+        <v>712</v>
+      </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
@@ -6581,200 +6680,231 @@
       <c r="M7" s="131"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="Q7" s="67"/>
       <c r="R7" s="67"/>
-      <c r="S7" s="67">
-        <f>72+192</f>
-        <v>264</v>
-      </c>
+      <c r="S7" s="67"/>
       <c r="T7" s="67"/>
       <c r="U7" s="67"/>
       <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
+      <c r="W7" s="67">
+        <f>514+510+1374+52.5+35+76.5</f>
+        <v>2562</v>
+      </c>
       <c r="X7" s="67"/>
     </row>
-    <row r="8" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="I8" s="67">
+        <v>86</v>
+      </c>
       <c r="J8" s="67"/>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
       <c r="M8" s="131"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P8" s="44" t="s">
-        <v>260</v>
+        <v>276</v>
+      </c>
+      <c r="P8" s="239" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="67"/>
       <c r="R8" s="67"/>
       <c r="S8" s="67"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="67">
+        <f>462+916</f>
+        <v>1378</v>
+      </c>
       <c r="V8" s="67"/>
-      <c r="W8" s="67">
-        <v>150</v>
-      </c>
+      <c r="W8" s="67"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="9" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="96"/>
+        <v>276</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="J9" s="67">
+        <f>322+69+126</f>
+        <v>517</v>
+      </c>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P9" s="239" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67">
-        <v>130</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="P9" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q9" s="67">
+        <f>71+220+350+175</f>
+        <v>816</v>
+      </c>
+      <c r="R9" s="67"/>
       <c r="S9" s="67"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
       <c r="V9" s="67"/>
       <c r="W9" s="67"/>
       <c r="X9" s="67"/>
-    </row>
-    <row r="10" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y9" s="242"/>
+    </row>
+    <row r="10" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C10" s="286" t="s">
+        <v>280</v>
+      </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="J10" s="67">
+        <v>1455</v>
+      </c>
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="131"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P10" s="95" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67">
-        <f>750+760+1711.5</f>
-        <v>3221.5</v>
-      </c>
-      <c r="W10" s="67"/>
+        <v>276</v>
+      </c>
+      <c r="P10" s="195" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72">
+        <f>740+546</f>
+        <v>1286</v>
+      </c>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
       <c r="X10" s="67"/>
-      <c r="Y10" s="275"/>
-    </row>
-    <row r="11" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>282</v>
+      </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
+      <c r="G11" s="67">
+        <v>15</v>
+      </c>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="J11" s="94"/>
       <c r="K11" s="67"/>
       <c r="L11" s="67"/>
       <c r="M11" s="131"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P11" s="195" t="s">
-        <v>217</v>
+        <v>276</v>
+      </c>
+      <c r="P11" s="194" t="s">
+        <v>289</v>
       </c>
       <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
       <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
+      <c r="T11" s="72">
+        <f>25+50</f>
+        <v>75</v>
+      </c>
       <c r="U11" s="72"/>
-      <c r="V11" s="72">
-        <v>204</v>
-      </c>
+      <c r="V11" s="72"/>
       <c r="W11" s="72"/>
       <c r="X11" s="67"/>
-    </row>
-    <row r="12" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y11" s="129"/>
+    </row>
+    <row r="12" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>283</v>
+      </c>
       <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="E12" s="67">
+        <f>242+50</f>
+        <v>292</v>
+      </c>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
-      <c r="J12" s="94"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="67"/>
       <c r="L12" s="67"/>
       <c r="M12" s="131"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P12" s="194"/>
+        <v>276</v>
+      </c>
+      <c r="P12" s="194" t="s">
+        <v>140</v>
+      </c>
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
       <c r="S12" s="72"/>
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
+      <c r="V12" s="72">
+        <f>750+750+760+1727+276</f>
+        <v>4263</v>
+      </c>
       <c r="W12" s="72"/>
       <c r="X12" s="67"/>
-      <c r="Y12" s="129"/>
-    </row>
-    <row r="13" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>217</v>
+        <v>276</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>239</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
       <c r="H13" s="67">
-        <v>85</v>
+        <f>330+330+420</f>
+        <v>1080</v>
       </c>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
@@ -6783,43 +6913,48 @@
       <c r="M13" s="131"/>
       <c r="N13" s="74"/>
       <c r="O13" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P13" s="194"/>
+        <v>276</v>
+      </c>
+      <c r="P13" s="192" t="s">
+        <v>217</v>
+      </c>
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
       <c r="S13" s="72"/>
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="72">
+        <f>238+170+170+204+204</f>
+        <v>986</v>
+      </c>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
     </row>
-    <row r="14" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>239</v>
+        <v>276</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
       <c r="G14" s="67"/>
       <c r="H14" s="67">
-        <f>330+420</f>
-        <v>750</v>
+        <f>102+102+85+170+85</f>
+        <v>544</v>
       </c>
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="131"/>
       <c r="N14" s="74"/>
       <c r="O14" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P14" s="192"/>
+        <v>276</v>
+      </c>
+      <c r="P14" s="193"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="72"/>
       <c r="S14" s="72"/>
@@ -6829,13 +6964,9 @@
       <c r="W14" s="72"/>
       <c r="X14" s="67"/>
     </row>
-    <row r="15" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>207</v>
-      </c>
+    <row r="15" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="93"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -6844,15 +6975,11 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
       <c r="K15" s="67"/>
-      <c r="L15" s="11">
-        <v>500</v>
-      </c>
+      <c r="L15" s="11"/>
       <c r="M15" s="131"/>
       <c r="N15" s="74"/>
-      <c r="O15" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P15" s="193"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="88"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="72"/>
       <c r="S15" s="72"/>
@@ -6864,7 +6991,7 @@
     </row>
     <row r="16" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="93"/>
-      <c r="C16" s="95"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
@@ -6877,14 +7004,14 @@
       <c r="M16" s="131"/>
       <c r="N16" s="74"/>
       <c r="O16" s="93"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
       <c r="X16" s="67"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6913,225 +7040,925 @@
       <c r="X17" s="67"/>
     </row>
     <row r="18" spans="2:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="93"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="131"/>
       <c r="N18" s="74"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-    </row>
-    <row r="19" spans="2:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="131"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="73">
+        <v>0</v>
+      </c>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+    </row>
+    <row r="19" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="30">
+        <f>SUM(D5:D18)</f>
+        <v>712</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" ref="E19:L19" si="0">SUM(E5:E18)</f>
+        <v>292</v>
+      </c>
+      <c r="F19" s="30">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="G19" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H19" s="30">
+        <f t="shared" si="0"/>
+        <v>1624</v>
+      </c>
+      <c r="I19" s="30">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="J19" s="30">
+        <f t="shared" si="0"/>
+        <v>1972</v>
+      </c>
+      <c r="K19" s="30">
+        <f t="shared" si="0"/>
+        <v>4068</v>
+      </c>
+      <c r="L19" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="132"/>
       <c r="N19" s="74"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="73">
-        <v>0</v>
-      </c>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-    </row>
-    <row r="20" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="7"/>
+      <c r="P19" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="21">
+        <f t="shared" ref="Q19:X19" si="1">SUM(Q5:Q18)</f>
+        <v>816</v>
+      </c>
+      <c r="R19" s="21">
+        <f t="shared" si="1"/>
+        <v>1286</v>
+      </c>
+      <c r="S19" s="21">
+        <f t="shared" si="1"/>
+        <v>3282</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="U19" s="21">
+        <f t="shared" si="1"/>
+        <v>1378</v>
+      </c>
+      <c r="V19" s="21">
+        <f t="shared" si="1"/>
+        <v>5249</v>
+      </c>
+      <c r="W19" s="21">
+        <f t="shared" si="1"/>
+        <v>2562</v>
+      </c>
+      <c r="X19" s="21">
+        <f t="shared" si="1"/>
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
-      <c r="C20" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="30">
-        <f>SUM(D6:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="30">
-        <f t="shared" ref="E20:L20" si="0">SUM(E6:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="30">
-        <f t="shared" si="0"/>
-        <v>835</v>
-      </c>
-      <c r="I20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="30">
-        <f t="shared" si="0"/>
-        <v>2120</v>
-      </c>
-      <c r="L20" s="30">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M20" s="132"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="76"/>
       <c r="N20" s="74"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="21">
-        <f t="shared" ref="Q20:X20" si="1">SUM(Q6:Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="21">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="S20" s="21">
-        <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="T20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="21">
-        <f t="shared" si="1"/>
-        <v>3425.5</v>
-      </c>
-      <c r="W20" s="21">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="X20" s="21">
-        <f t="shared" si="1"/>
-        <v>4098</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="F21" s="260">
+        <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
+        <v>10619</v>
+      </c>
+      <c r="G21" s="261"/>
+      <c r="H21" s="262"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="76"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="74"/>
       <c r="N21" s="74"/>
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="S21" s="263">
+        <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
+        <v>20586</v>
+      </c>
+      <c r="T21" s="264"/>
+      <c r="U21" s="265"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="7"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="249">
-        <f>K20+J20+I20+H20+G20+F20+E20+D20+L20</f>
-        <v>3455</v>
-      </c>
-      <c r="G22" s="250"/>
-      <c r="H22" s="251"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+    <row r="22" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="235"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="236"/>
+      <c r="G22" s="237"/>
+      <c r="H22" s="237"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
       <c r="L22" s="71"/>
       <c r="M22" s="74"/>
       <c r="N22" s="74"/>
-      <c r="O22" s="7"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="252">
-        <f>Q20+R20+S20+T20+U20+V20+W20+X20</f>
+      <c r="O22" s="235"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="237"/>
+      <c r="U22" s="237"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="7"/>
+      <c r="C31" s="253" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="254"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="254"/>
+      <c r="G31" s="254"/>
+      <c r="H31" s="254"/>
+      <c r="I31" s="254"/>
+      <c r="J31" s="254"/>
+      <c r="K31" s="254"/>
+      <c r="L31" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="133"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="255" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="256"/>
+      <c r="Q31" s="256"/>
+      <c r="R31" s="256"/>
+      <c r="S31" s="256"/>
+      <c r="T31" s="256"/>
+      <c r="U31" s="256"/>
+      <c r="V31" s="256"/>
+      <c r="W31" s="256"/>
+      <c r="X31" s="190" t="str">
+        <f>L31</f>
+        <v># 01</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="1"/>
+      <c r="I32" s="257" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" s="258"/>
+      <c r="K32" s="259"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="7"/>
+      <c r="V32" s="257" t="str">
+        <f>I32</f>
+        <v>del   01- al  3   NOVIEMBRE  2023</v>
+      </c>
+      <c r="W32" s="258"/>
+      <c r="X32" s="259"/>
+    </row>
+    <row r="33" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M33" s="135"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T33" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W33" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" s="142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="234" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72">
+        <f>1125+995</f>
+        <v>2120</v>
+      </c>
+      <c r="L34" s="71"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P34" s="234" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72">
+        <f>2416+1682</f>
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P35" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67">
+        <f>72+192</f>
+        <v>264</v>
+      </c>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+    </row>
+    <row r="36" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67">
+        <v>150</v>
+      </c>
+      <c r="X36" s="67"/>
+    </row>
+    <row r="37" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="96"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P37" s="239" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67">
+        <v>130</v>
+      </c>
+      <c r="S37" s="67"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+    </row>
+    <row r="38" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P38" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67">
+        <f>750+760+1711.5</f>
+        <v>3221.5</v>
+      </c>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="242"/>
+    </row>
+    <row r="39" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P39" s="195" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72">
+        <v>204</v>
+      </c>
+      <c r="W39" s="72"/>
+      <c r="X39" s="67"/>
+    </row>
+    <row r="40" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="44"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P40" s="194"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="129"/>
+    </row>
+    <row r="41" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67">
+        <v>85</v>
+      </c>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P41" s="194"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="67"/>
+    </row>
+    <row r="42" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67">
+        <f>330+420</f>
+        <v>750</v>
+      </c>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P42" s="192"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="67"/>
+    </row>
+    <row r="43" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="11">
+        <v>500</v>
+      </c>
+      <c r="M43" s="131"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P43" s="193"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="67"/>
+    </row>
+    <row r="44" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="93"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="67"/>
+    </row>
+    <row r="45" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="93"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="67"/>
+    </row>
+    <row r="46" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="93"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="91"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="67"/>
+    </row>
+    <row r="47" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="9"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="73">
+        <v>0</v>
+      </c>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+    </row>
+    <row r="48" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="30">
+        <f>SUM(D34:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="30">
+        <f t="shared" ref="E48:L48" si="2">SUM(E34:E47)</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="30">
+        <f t="shared" si="2"/>
+        <v>835</v>
+      </c>
+      <c r="I48" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="30">
+        <f t="shared" si="2"/>
+        <v>2120</v>
+      </c>
+      <c r="L48" s="30">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="M48" s="132"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="21">
+        <f t="shared" ref="Q48:X48" si="3">SUM(Q34:Q47)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="21">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="S48" s="21">
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+      <c r="T48" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="21">
+        <f t="shared" si="3"/>
+        <v>3425.5</v>
+      </c>
+      <c r="W48" s="21">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="X48" s="21">
+        <f t="shared" si="3"/>
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="7"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+    </row>
+    <row r="50" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="7"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="260">
+        <f>K48+J48+I48+H48+G48+F48+E48+D48+L48</f>
+        <v>3455</v>
+      </c>
+      <c r="G50" s="261"/>
+      <c r="H50" s="262"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="7"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="263">
+        <f>Q48+R48+S48+T48+U48+V48+W48+X48</f>
         <v>8067.5</v>
       </c>
-      <c r="T22" s="253"/>
-      <c r="U22" s="254"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-    </row>
-    <row r="23" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="235"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="235"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="236"/>
-      <c r="T23" s="237"/>
-      <c r="U23" s="237"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
+      <c r="T50" s="264"/>
+      <c r="U50" s="265"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+    </row>
+    <row r="51" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B51" s="235"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="236"/>
+      <c r="G51" s="237"/>
+      <c r="H51" s="237"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="235"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="78"/>
+      <c r="S51" s="236"/>
+      <c r="T51" s="237"/>
+      <c r="U51" s="237"/>
+      <c r="V51" s="78"/>
+      <c r="W51" s="78"/>
+      <c r="X51" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="O3:W3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="S22:U22"/>
+  <mergeCells count="12">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="O31:W31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="S50:U50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7142,8 +7969,8 @@
   </sheetPr>
   <dimension ref="A1:Y169"/>
   <sheetViews>
-    <sheetView topLeftCell="L33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7164,33 +7991,33 @@
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="242" t="s">
+      <c r="C2" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
       <c r="L2" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="244" t="s">
+      <c r="O2" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
-      <c r="S2" s="245"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
+      <c r="P2" s="256"/>
+      <c r="Q2" s="256"/>
+      <c r="R2" s="256"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="256"/>
+      <c r="U2" s="256"/>
+      <c r="V2" s="256"/>
+      <c r="W2" s="256"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 05</v>
@@ -7199,21 +8026,21 @@
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="246" t="s">
+      <c r="I3" s="257" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="247"/>
-      <c r="K3" s="248"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="246" t="str">
+      <c r="V3" s="257" t="str">
         <f>I3</f>
         <v>del       28--- al  31    OCTUBRE-2023</v>
       </c>
-      <c r="W3" s="247"/>
-      <c r="X3" s="248"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="259"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -7472,7 +8299,7 @@
         <v>617</v>
       </c>
       <c r="X9" s="67"/>
-      <c r="Y9" s="275"/>
+      <c r="Y9" s="242"/>
     </row>
     <row r="10" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
@@ -7872,12 +8699,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="249">
+      <c r="F21" s="260">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>7829.5</v>
       </c>
-      <c r="G21" s="250"/>
-      <c r="H21" s="251"/>
+      <c r="G21" s="261"/>
+      <c r="H21" s="262"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -7887,12 +8714,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="252">
+      <c r="S21" s="263">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>9034</v>
       </c>
-      <c r="T21" s="253"/>
-      <c r="U21" s="254"/>
+      <c r="T21" s="264"/>
+      <c r="U21" s="265"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -7924,33 +8751,33 @@
     <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
-      <c r="C30" s="242" t="s">
+      <c r="C30" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="243"/>
-      <c r="E30" s="243"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="243"/>
-      <c r="H30" s="243"/>
-      <c r="I30" s="243"/>
-      <c r="J30" s="243"/>
-      <c r="K30" s="243"/>
+      <c r="D30" s="254"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="254"/>
+      <c r="I30" s="254"/>
+      <c r="J30" s="254"/>
+      <c r="K30" s="254"/>
       <c r="L30" s="128" t="s">
         <v>88</v>
       </c>
       <c r="M30" s="133"/>
       <c r="N30" s="81"/>
-      <c r="O30" s="244" t="s">
+      <c r="O30" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="245"/>
-      <c r="Q30" s="245"/>
-      <c r="R30" s="245"/>
-      <c r="S30" s="245"/>
-      <c r="T30" s="245"/>
-      <c r="U30" s="245"/>
-      <c r="V30" s="245"/>
-      <c r="W30" s="245"/>
+      <c r="P30" s="256"/>
+      <c r="Q30" s="256"/>
+      <c r="R30" s="256"/>
+      <c r="S30" s="256"/>
+      <c r="T30" s="256"/>
+      <c r="U30" s="256"/>
+      <c r="V30" s="256"/>
+      <c r="W30" s="256"/>
       <c r="X30" s="190" t="str">
         <f>L30</f>
         <v># 04</v>
@@ -7959,21 +8786,21 @@
     <row r="31" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
-      <c r="I31" s="246" t="s">
+      <c r="I31" s="257" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="247"/>
-      <c r="K31" s="248"/>
+      <c r="J31" s="258"/>
+      <c r="K31" s="259"/>
       <c r="L31" s="68"/>
       <c r="M31" s="134"/>
       <c r="N31" s="74"/>
       <c r="O31" s="7"/>
-      <c r="V31" s="246" t="str">
+      <c r="V31" s="257" t="str">
         <f>I31</f>
         <v>del       21--- al  27    OCTUBRE-2023</v>
       </c>
-      <c r="W31" s="247"/>
-      <c r="X31" s="248"/>
+      <c r="W31" s="258"/>
+      <c r="X31" s="259"/>
     </row>
     <row r="32" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
@@ -8635,12 +9462,12 @@
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="249">
+      <c r="F49" s="260">
         <f>K47+J47+I47+H47+G47+F47+E47+D47+L47</f>
         <v>9341</v>
       </c>
-      <c r="G49" s="250"/>
-      <c r="H49" s="251"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="262"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -8650,12 +9477,12 @@
       <c r="O49" s="7"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="252">
+      <c r="S49" s="263">
         <f>Q47+R47+S47+T47+U47+V47+W47+X47</f>
         <v>20161</v>
       </c>
-      <c r="T49" s="253"/>
-      <c r="U49" s="254"/>
+      <c r="T49" s="264"/>
+      <c r="U49" s="265"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -8687,33 +9514,33 @@
     <row r="59" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="242" t="s">
+      <c r="C60" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="243"/>
-      <c r="E60" s="243"/>
-      <c r="F60" s="243"/>
-      <c r="G60" s="243"/>
-      <c r="H60" s="243"/>
-      <c r="I60" s="243"/>
-      <c r="J60" s="243"/>
-      <c r="K60" s="243"/>
+      <c r="D60" s="254"/>
+      <c r="E60" s="254"/>
+      <c r="F60" s="254"/>
+      <c r="G60" s="254"/>
+      <c r="H60" s="254"/>
+      <c r="I60" s="254"/>
+      <c r="J60" s="254"/>
+      <c r="K60" s="254"/>
       <c r="L60" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="81"/>
-      <c r="O60" s="244" t="s">
+      <c r="O60" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="245"/>
-      <c r="Q60" s="245"/>
-      <c r="R60" s="245"/>
-      <c r="S60" s="245"/>
-      <c r="T60" s="245"/>
-      <c r="U60" s="245"/>
-      <c r="V60" s="245"/>
-      <c r="W60" s="245"/>
+      <c r="P60" s="256"/>
+      <c r="Q60" s="256"/>
+      <c r="R60" s="256"/>
+      <c r="S60" s="256"/>
+      <c r="T60" s="256"/>
+      <c r="U60" s="256"/>
+      <c r="V60" s="256"/>
+      <c r="W60" s="256"/>
       <c r="X60" s="190" t="s">
         <v>66</v>
       </c>
@@ -8721,21 +9548,21 @@
     <row r="61" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="I61" s="246" t="s">
+      <c r="I61" s="257" t="s">
         <v>209</v>
       </c>
-      <c r="J61" s="247"/>
-      <c r="K61" s="248"/>
+      <c r="J61" s="258"/>
+      <c r="K61" s="259"/>
       <c r="L61" s="68"/>
       <c r="M61" s="134"/>
       <c r="N61" s="74"/>
       <c r="O61" s="7"/>
-      <c r="V61" s="246" t="str">
+      <c r="V61" s="257" t="str">
         <f>I61</f>
         <v>del       14--- al  20    OCTUBRE-2023</v>
       </c>
-      <c r="W61" s="247"/>
-      <c r="X61" s="248"/>
+      <c r="W61" s="258"/>
+      <c r="X61" s="259"/>
     </row>
     <row r="62" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
@@ -9387,12 +10214,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="249">
+      <c r="F79" s="260">
         <f>K77+J77+I77+H77+G77+F77+E77+D77+L77</f>
         <v>12198</v>
       </c>
-      <c r="G79" s="250"/>
-      <c r="H79" s="251"/>
+      <c r="G79" s="261"/>
+      <c r="H79" s="262"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -9402,12 +10229,12 @@
       <c r="O79" s="7"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="252">
+      <c r="S79" s="263">
         <f>Q77+R77+S77+T77+U77+V77+W77+X77</f>
         <v>20122.5</v>
       </c>
-      <c r="T79" s="253"/>
-      <c r="U79" s="254"/>
+      <c r="T79" s="264"/>
+      <c r="U79" s="265"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -9558,33 +10385,33 @@
     <row r="90" spans="2:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B91" s="7"/>
-      <c r="C91" s="242" t="s">
+      <c r="C91" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="243"/>
-      <c r="E91" s="243"/>
-      <c r="F91" s="243"/>
-      <c r="G91" s="243"/>
-      <c r="H91" s="243"/>
-      <c r="I91" s="243"/>
-      <c r="J91" s="243"/>
-      <c r="K91" s="243"/>
+      <c r="D91" s="254"/>
+      <c r="E91" s="254"/>
+      <c r="F91" s="254"/>
+      <c r="G91" s="254"/>
+      <c r="H91" s="254"/>
+      <c r="I91" s="254"/>
+      <c r="J91" s="254"/>
+      <c r="K91" s="254"/>
       <c r="L91" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M91" s="133"/>
       <c r="N91" s="81"/>
-      <c r="O91" s="244" t="s">
+      <c r="O91" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="P91" s="245"/>
-      <c r="Q91" s="245"/>
-      <c r="R91" s="245"/>
-      <c r="S91" s="245"/>
-      <c r="T91" s="245"/>
-      <c r="U91" s="245"/>
-      <c r="V91" s="245"/>
-      <c r="W91" s="245"/>
+      <c r="P91" s="256"/>
+      <c r="Q91" s="256"/>
+      <c r="R91" s="256"/>
+      <c r="S91" s="256"/>
+      <c r="T91" s="256"/>
+      <c r="U91" s="256"/>
+      <c r="V91" s="256"/>
+      <c r="W91" s="256"/>
       <c r="X91" s="190" t="s">
         <v>42</v>
       </c>
@@ -9592,21 +10419,21 @@
     <row r="92" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="1"/>
-      <c r="I92" s="246" t="s">
+      <c r="I92" s="257" t="s">
         <v>194</v>
       </c>
-      <c r="J92" s="247"/>
-      <c r="K92" s="248"/>
+      <c r="J92" s="258"/>
+      <c r="K92" s="259"/>
       <c r="L92" s="68"/>
       <c r="M92" s="134"/>
       <c r="N92" s="74"/>
       <c r="O92" s="7"/>
-      <c r="V92" s="246" t="str">
+      <c r="V92" s="257" t="str">
         <f>I92</f>
         <v>del       07--- al  13    OCTUBRE-2023</v>
       </c>
-      <c r="W92" s="247"/>
-      <c r="X92" s="248"/>
+      <c r="W92" s="258"/>
+      <c r="X92" s="259"/>
     </row>
     <row r="93" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
@@ -10259,12 +11086,12 @@
       <c r="C110" s="1"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="249">
+      <c r="F110" s="260">
         <f>K108+J108+I108+H108+G108+F108+E108+D108+L108</f>
         <v>12359</v>
       </c>
-      <c r="G110" s="250"/>
-      <c r="H110" s="251"/>
+      <c r="G110" s="261"/>
+      <c r="H110" s="262"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -10274,12 +11101,12 @@
       <c r="O110" s="7"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-      <c r="S110" s="252">
+      <c r="S110" s="263">
         <f>Q108+R108+S108+T108+U108+V108+W108+X108</f>
         <v>18256.5</v>
       </c>
-      <c r="T110" s="253"/>
-      <c r="U110" s="254"/>
+      <c r="T110" s="264"/>
+      <c r="U110" s="265"/>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
@@ -10310,33 +11137,33 @@
     <row r="115" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B116" s="7"/>
-      <c r="C116" s="242" t="s">
+      <c r="C116" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="243"/>
-      <c r="E116" s="243"/>
-      <c r="F116" s="243"/>
-      <c r="G116" s="243"/>
-      <c r="H116" s="243"/>
-      <c r="I116" s="243"/>
-      <c r="J116" s="243"/>
-      <c r="K116" s="243"/>
+      <c r="D116" s="254"/>
+      <c r="E116" s="254"/>
+      <c r="F116" s="254"/>
+      <c r="G116" s="254"/>
+      <c r="H116" s="254"/>
+      <c r="I116" s="254"/>
+      <c r="J116" s="254"/>
+      <c r="K116" s="254"/>
       <c r="L116" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M116" s="133"/>
       <c r="N116" s="81"/>
-      <c r="O116" s="244" t="s">
+      <c r="O116" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="P116" s="245"/>
-      <c r="Q116" s="245"/>
-      <c r="R116" s="245"/>
-      <c r="S116" s="245"/>
-      <c r="T116" s="245"/>
-      <c r="U116" s="245"/>
-      <c r="V116" s="245"/>
-      <c r="W116" s="245"/>
+      <c r="P116" s="256"/>
+      <c r="Q116" s="256"/>
+      <c r="R116" s="256"/>
+      <c r="S116" s="256"/>
+      <c r="T116" s="256"/>
+      <c r="U116" s="256"/>
+      <c r="V116" s="256"/>
+      <c r="W116" s="256"/>
       <c r="X116" s="190" t="s">
         <v>41</v>
       </c>
@@ -10344,21 +11171,21 @@
     <row r="117" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="1"/>
-      <c r="I117" s="246" t="s">
+      <c r="I117" s="257" t="s">
         <v>167</v>
       </c>
-      <c r="J117" s="247"/>
-      <c r="K117" s="248"/>
+      <c r="J117" s="258"/>
+      <c r="K117" s="259"/>
       <c r="L117" s="68"/>
       <c r="M117" s="134"/>
       <c r="N117" s="74"/>
       <c r="O117" s="7"/>
-      <c r="V117" s="246" t="str">
+      <c r="V117" s="257" t="str">
         <f>I117</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W117" s="247"/>
-      <c r="X117" s="248"/>
+      <c r="W117" s="258"/>
+      <c r="X117" s="259"/>
     </row>
     <row r="118" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
@@ -10441,7 +11268,7 @@
       <c r="H119" s="72"/>
       <c r="I119" s="72"/>
       <c r="J119" s="72"/>
-      <c r="K119" s="276">
+      <c r="K119" s="243">
         <f>1150+1167+1554+234+1684</f>
         <v>5789</v>
       </c>
@@ -10461,7 +11288,7 @@
       <c r="U119" s="72"/>
       <c r="V119" s="72"/>
       <c r="W119" s="72"/>
-      <c r="X119" s="276">
+      <c r="X119" s="243">
         <f>1459+1661+1598+779+1647</f>
         <v>7144</v>
       </c>
@@ -10475,7 +11302,7 @@
       </c>
       <c r="D120" s="67"/>
       <c r="E120" s="67"/>
-      <c r="F120" s="277">
+      <c r="F120" s="244">
         <f>18+60+30</f>
         <v>108</v>
       </c>
@@ -10495,7 +11322,7 @@
       </c>
       <c r="Q120" s="72"/>
       <c r="R120" s="72"/>
-      <c r="S120" s="276">
+      <c r="S120" s="243">
         <f>30+70+56+36</f>
         <v>192</v>
       </c>
@@ -10512,7 +11339,7 @@
       <c r="C121" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="D121" s="277">
+      <c r="D121" s="244">
         <f>190</f>
         <v>190</v>
       </c>
@@ -10532,7 +11359,7 @@
       <c r="P121" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="Q121" s="276">
+      <c r="Q121" s="243">
         <f>253+35+215</f>
         <v>503</v>
       </c>
@@ -10554,7 +11381,7 @@
       <c r="D122" s="67"/>
       <c r="E122" s="67"/>
       <c r="F122" s="67"/>
-      <c r="G122" s="277">
+      <c r="G122" s="244">
         <v>15</v>
       </c>
       <c r="H122" s="67"/>
@@ -10567,7 +11394,7 @@
       <c r="O122" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="P122" s="278"/>
+      <c r="P122" s="245"/>
       <c r="Q122" s="72"/>
       <c r="R122" s="72"/>
       <c r="S122" s="72"/>
@@ -10623,7 +11450,7 @@
       <c r="G124" s="67"/>
       <c r="H124" s="67"/>
       <c r="I124" s="67"/>
-      <c r="J124" s="277">
+      <c r="J124" s="244">
         <f>127</f>
         <v>127</v>
       </c>
@@ -10642,7 +11469,7 @@
       <c r="S124" s="72"/>
       <c r="T124" s="72"/>
       <c r="U124" s="72"/>
-      <c r="V124" s="276">
+      <c r="V124" s="243">
         <f>238+204+204+270+238</f>
         <v>1154</v>
       </c>
@@ -10692,7 +11519,7 @@
       <c r="E126" s="67"/>
       <c r="F126" s="67"/>
       <c r="G126" s="67"/>
-      <c r="H126" s="277">
+      <c r="H126" s="244">
         <f>204+85+85+68+68</f>
         <v>510</v>
       </c>
@@ -10713,7 +11540,7 @@
       <c r="S126" s="72"/>
       <c r="T126" s="72"/>
       <c r="U126" s="72"/>
-      <c r="V126" s="276">
+      <c r="V126" s="243">
         <f>2650+700+700+710</f>
         <v>4760</v>
       </c>
@@ -10731,7 +11558,7 @@
       <c r="E127" s="67"/>
       <c r="F127" s="67"/>
       <c r="G127" s="67"/>
-      <c r="H127" s="277">
+      <c r="H127" s="244">
         <f>380+380+470</f>
         <v>1230</v>
       </c>
@@ -10990,12 +11817,12 @@
       <c r="C135" s="1"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="249">
+      <c r="F135" s="260">
         <f>K133+J133+I133+H133+G133+F133+E133+D133+L133</f>
         <v>7969</v>
       </c>
-      <c r="G135" s="250"/>
-      <c r="H135" s="251"/>
+      <c r="G135" s="261"/>
+      <c r="H135" s="262"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -11005,12 +11832,12 @@
       <c r="O135" s="7"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
-      <c r="S135" s="252">
+      <c r="S135" s="263">
         <f>Q133+R133+S133+T133+U133+V133+W133+X133</f>
         <v>13753</v>
       </c>
-      <c r="T135" s="253"/>
-      <c r="U135" s="254"/>
+      <c r="T135" s="264"/>
+      <c r="U135" s="265"/>
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
@@ -11039,86 +11866,86 @@
       <c r="X136" s="5"/>
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A140" s="279"/>
-      <c r="B140" s="279"/>
-      <c r="C140" s="279"/>
-      <c r="D140" s="279"/>
-      <c r="E140" s="279"/>
-      <c r="F140" s="279"/>
-      <c r="G140" s="279"/>
-      <c r="H140" s="279"/>
-      <c r="I140" s="279"/>
-      <c r="J140" s="279"/>
-      <c r="K140" s="279"/>
-      <c r="L140" s="279"/>
-      <c r="M140" s="279"/>
-      <c r="N140" s="279"/>
-      <c r="O140" s="279"/>
-      <c r="P140" s="279"/>
-      <c r="Q140" s="279"/>
-      <c r="R140" s="279"/>
-      <c r="S140" s="279"/>
-      <c r="T140" s="279"/>
-      <c r="U140" s="279"/>
-      <c r="V140" s="279"/>
-      <c r="W140" s="279"/>
-      <c r="X140" s="279"/>
+      <c r="A140" s="246"/>
+      <c r="B140" s="246"/>
+      <c r="C140" s="246"/>
+      <c r="D140" s="246"/>
+      <c r="E140" s="246"/>
+      <c r="F140" s="246"/>
+      <c r="G140" s="246"/>
+      <c r="H140" s="246"/>
+      <c r="I140" s="246"/>
+      <c r="J140" s="246"/>
+      <c r="K140" s="246"/>
+      <c r="L140" s="246"/>
+      <c r="M140" s="246"/>
+      <c r="N140" s="246"/>
+      <c r="O140" s="246"/>
+      <c r="P140" s="246"/>
+      <c r="Q140" s="246"/>
+      <c r="R140" s="246"/>
+      <c r="S140" s="246"/>
+      <c r="T140" s="246"/>
+      <c r="U140" s="246"/>
+      <c r="V140" s="246"/>
+      <c r="W140" s="246"/>
+      <c r="X140" s="246"/>
     </row>
     <row r="141" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="279"/>
-      <c r="B141" s="279"/>
-      <c r="C141" s="279"/>
-      <c r="D141" s="279"/>
-      <c r="E141" s="279"/>
-      <c r="F141" s="279"/>
-      <c r="G141" s="279"/>
-      <c r="H141" s="279"/>
-      <c r="I141" s="279"/>
-      <c r="J141" s="279"/>
-      <c r="K141" s="279"/>
-      <c r="L141" s="279"/>
-      <c r="M141" s="279"/>
-      <c r="N141" s="279"/>
-      <c r="O141" s="279"/>
-      <c r="P141" s="279"/>
-      <c r="Q141" s="279"/>
-      <c r="R141" s="279"/>
-      <c r="S141" s="279"/>
-      <c r="T141" s="279"/>
-      <c r="U141" s="279"/>
-      <c r="V141" s="279"/>
-      <c r="W141" s="279"/>
-      <c r="X141" s="279"/>
+      <c r="A141" s="246"/>
+      <c r="B141" s="246"/>
+      <c r="C141" s="246"/>
+      <c r="D141" s="246"/>
+      <c r="E141" s="246"/>
+      <c r="F141" s="246"/>
+      <c r="G141" s="246"/>
+      <c r="H141" s="246"/>
+      <c r="I141" s="246"/>
+      <c r="J141" s="246"/>
+      <c r="K141" s="246"/>
+      <c r="L141" s="246"/>
+      <c r="M141" s="246"/>
+      <c r="N141" s="246"/>
+      <c r="O141" s="246"/>
+      <c r="P141" s="246"/>
+      <c r="Q141" s="246"/>
+      <c r="R141" s="246"/>
+      <c r="S141" s="246"/>
+      <c r="T141" s="246"/>
+      <c r="U141" s="246"/>
+      <c r="V141" s="246"/>
+      <c r="W141" s="246"/>
+      <c r="X141" s="246"/>
     </row>
     <row r="142" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="7"/>
-      <c r="C142" s="242" t="s">
+      <c r="C142" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D142" s="243"/>
-      <c r="E142" s="243"/>
-      <c r="F142" s="243"/>
-      <c r="G142" s="243"/>
-      <c r="H142" s="243"/>
-      <c r="I142" s="243"/>
-      <c r="J142" s="243"/>
-      <c r="K142" s="243"/>
+      <c r="D142" s="254"/>
+      <c r="E142" s="254"/>
+      <c r="F142" s="254"/>
+      <c r="G142" s="254"/>
+      <c r="H142" s="254"/>
+      <c r="I142" s="254"/>
+      <c r="J142" s="254"/>
+      <c r="K142" s="254"/>
       <c r="L142" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M142" s="133"/>
       <c r="N142" s="81"/>
-      <c r="O142" s="244" t="s">
+      <c r="O142" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="P142" s="245"/>
-      <c r="Q142" s="245"/>
-      <c r="R142" s="245"/>
-      <c r="S142" s="245"/>
-      <c r="T142" s="245"/>
-      <c r="U142" s="245"/>
-      <c r="V142" s="245"/>
-      <c r="W142" s="245"/>
+      <c r="P142" s="256"/>
+      <c r="Q142" s="256"/>
+      <c r="R142" s="256"/>
+      <c r="S142" s="256"/>
+      <c r="T142" s="256"/>
+      <c r="U142" s="256"/>
+      <c r="V142" s="256"/>
+      <c r="W142" s="256"/>
       <c r="X142" s="190" t="s">
         <v>41</v>
       </c>
@@ -11126,21 +11953,21 @@
     <row r="143" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="1"/>
-      <c r="I143" s="246" t="s">
+      <c r="I143" s="257" t="s">
         <v>167</v>
       </c>
-      <c r="J143" s="247"/>
-      <c r="K143" s="248"/>
+      <c r="J143" s="258"/>
+      <c r="K143" s="259"/>
       <c r="L143" s="68"/>
       <c r="M143" s="134"/>
       <c r="N143" s="74"/>
       <c r="O143" s="7"/>
-      <c r="V143" s="246" t="str">
+      <c r="V143" s="257" t="str">
         <f>I143</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W143" s="247"/>
-      <c r="X143" s="248"/>
+      <c r="W143" s="258"/>
+      <c r="X143" s="259"/>
     </row>
     <row r="144" spans="1:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
@@ -11793,12 +12620,12 @@
       <c r="C161" s="1"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="249">
+      <c r="F161" s="260">
         <f>K159+J159+I159+H159+G159+F159+E159+D159+L159</f>
         <v>12113</v>
       </c>
-      <c r="G161" s="250"/>
-      <c r="H161" s="251"/>
+      <c r="G161" s="261"/>
+      <c r="H161" s="262"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -11808,12 +12635,12 @@
       <c r="O161" s="7"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-      <c r="S161" s="252">
+      <c r="S161" s="263">
         <f>Q159+R159+S159+T159+U159+V159+W159+X159</f>
         <v>19443</v>
       </c>
-      <c r="T161" s="253"/>
-      <c r="U161" s="254"/>
+      <c r="T161" s="264"/>
+      <c r="U161" s="265"/>
       <c r="V161" s="5"/>
       <c r="W161" s="5"/>
       <c r="X161" s="5"/>
@@ -11858,42 +12685,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="O30:W30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="S110:U110"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="O142:W142"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="V143:X143"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="S161:U161"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="O60:W60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="C116:K116"/>
     <mergeCell ref="O116:W116"/>
     <mergeCell ref="I117:K117"/>
     <mergeCell ref="V117:X117"/>
     <mergeCell ref="F135:H135"/>
     <mergeCell ref="S135:U135"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="O60:W60"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="O142:W142"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="V143:X143"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="S161:U161"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="V92:X92"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="S110:U110"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="O30:W30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="S49:U49"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11941,51 +12768,51 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="242" t="s">
+      <c r="C2" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
       <c r="L2" s="185" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="244" t="s">
+      <c r="O2" s="255" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
-      <c r="S2" s="245"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
+      <c r="P2" s="256"/>
+      <c r="Q2" s="256"/>
+      <c r="R2" s="256"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="256"/>
+      <c r="U2" s="256"/>
+      <c r="V2" s="256"/>
+      <c r="W2" s="256"/>
       <c r="X2" s="187" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="246" t="s">
+      <c r="I3" s="257" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="247"/>
-      <c r="K3" s="248"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
-      <c r="V3" s="246" t="s">
+      <c r="V3" s="257" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="247"/>
-      <c r="X3" s="248"/>
+      <c r="W3" s="258"/>
+      <c r="X3" s="259"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -12652,12 +13479,12 @@
     <row r="21" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="249">
+      <c r="F21" s="260">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>15022</v>
       </c>
-      <c r="G21" s="250"/>
-      <c r="H21" s="251"/>
+      <c r="G21" s="261"/>
+      <c r="H21" s="262"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -12666,12 +13493,12 @@
       <c r="N21" s="74"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="252">
+      <c r="S21" s="263">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>23024</v>
       </c>
-      <c r="T21" s="253"/>
-      <c r="U21" s="254"/>
+      <c r="T21" s="264"/>
+      <c r="U21" s="265"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -12724,51 +13551,51 @@
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="242" t="s">
+      <c r="C32" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="243"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="243"/>
-      <c r="G32" s="243"/>
-      <c r="H32" s="243"/>
-      <c r="I32" s="243"/>
-      <c r="J32" s="243"/>
-      <c r="K32" s="243"/>
+      <c r="D32" s="254"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="254"/>
+      <c r="H32" s="254"/>
+      <c r="I32" s="254"/>
+      <c r="J32" s="254"/>
+      <c r="K32" s="254"/>
       <c r="L32" s="185" t="s">
         <v>208</v>
       </c>
       <c r="M32" s="133"/>
       <c r="N32" s="81"/>
-      <c r="O32" s="255" t="s">
+      <c r="O32" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="256"/>
-      <c r="Q32" s="256"/>
-      <c r="R32" s="256"/>
-      <c r="S32" s="256"/>
-      <c r="T32" s="256"/>
-      <c r="U32" s="256"/>
-      <c r="V32" s="256"/>
-      <c r="W32" s="256"/>
+      <c r="P32" s="267"/>
+      <c r="Q32" s="267"/>
+      <c r="R32" s="267"/>
+      <c r="S32" s="267"/>
+      <c r="T32" s="267"/>
+      <c r="U32" s="267"/>
+      <c r="V32" s="267"/>
+      <c r="W32" s="267"/>
       <c r="X32" s="128" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="33" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="246" t="s">
+      <c r="I33" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="247"/>
-      <c r="K33" s="248"/>
+      <c r="J33" s="258"/>
+      <c r="K33" s="259"/>
       <c r="L33" s="68"/>
       <c r="M33" s="134"/>
       <c r="N33" s="74"/>
-      <c r="V33" s="246" t="s">
+      <c r="V33" s="257" t="s">
         <v>150</v>
       </c>
-      <c r="W33" s="247"/>
-      <c r="X33" s="248"/>
+      <c r="W33" s="258"/>
+      <c r="X33" s="259"/>
     </row>
     <row r="34" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
@@ -13424,12 +14251,12 @@
     <row r="51" spans="3:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="249">
+      <c r="F51" s="260">
         <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
         <v>14572.5</v>
       </c>
-      <c r="G51" s="250"/>
-      <c r="H51" s="251"/>
+      <c r="G51" s="261"/>
+      <c r="H51" s="262"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -13438,12 +14265,12 @@
       <c r="N51" s="74"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="252">
+      <c r="S51" s="263">
         <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
         <v>21274</v>
       </c>
-      <c r="T51" s="253"/>
-      <c r="U51" s="254"/>
+      <c r="T51" s="264"/>
+      <c r="U51" s="265"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -13508,51 +14335,51 @@
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C66" s="242" t="s">
+      <c r="C66" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="243"/>
-      <c r="E66" s="243"/>
-      <c r="F66" s="243"/>
-      <c r="G66" s="243"/>
-      <c r="H66" s="243"/>
-      <c r="I66" s="243"/>
-      <c r="J66" s="243"/>
-      <c r="K66" s="243"/>
+      <c r="D66" s="254"/>
+      <c r="E66" s="254"/>
+      <c r="F66" s="254"/>
+      <c r="G66" s="254"/>
+      <c r="H66" s="254"/>
+      <c r="I66" s="254"/>
+      <c r="J66" s="254"/>
+      <c r="K66" s="254"/>
       <c r="L66" s="84" t="s">
         <v>88</v>
       </c>
       <c r="M66" s="83"/>
       <c r="N66" s="81"/>
-      <c r="O66" s="255" t="s">
+      <c r="O66" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="P66" s="256"/>
-      <c r="Q66" s="256"/>
-      <c r="R66" s="256"/>
-      <c r="S66" s="256"/>
-      <c r="T66" s="256"/>
-      <c r="U66" s="256"/>
-      <c r="V66" s="256"/>
-      <c r="W66" s="256"/>
+      <c r="P66" s="267"/>
+      <c r="Q66" s="267"/>
+      <c r="R66" s="267"/>
+      <c r="S66" s="267"/>
+      <c r="T66" s="267"/>
+      <c r="U66" s="267"/>
+      <c r="V66" s="267"/>
+      <c r="W66" s="267"/>
       <c r="X66" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I67" s="246" t="s">
+      <c r="I67" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="J67" s="247"/>
-      <c r="K67" s="248"/>
+      <c r="J67" s="258"/>
+      <c r="K67" s="259"/>
       <c r="L67" s="68"/>
       <c r="M67" s="59"/>
       <c r="N67" s="74"/>
-      <c r="V67" s="246" t="s">
+      <c r="V67" s="257" t="s">
         <v>107</v>
       </c>
-      <c r="W67" s="247"/>
-      <c r="X67" s="248"/>
+      <c r="W67" s="258"/>
+      <c r="X67" s="259"/>
     </row>
     <row r="68" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -14228,12 +15055,12 @@
     <row r="85" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="249">
+      <c r="F85" s="260">
         <f>K83+J83+I83+H83+G83+F83+E83+D83+L83</f>
         <v>9784</v>
       </c>
-      <c r="G85" s="250"/>
-      <c r="H85" s="251"/>
+      <c r="G85" s="261"/>
+      <c r="H85" s="262"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -14242,12 +15069,12 @@
       <c r="N85" s="74"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-      <c r="S85" s="252">
+      <c r="S85" s="263">
         <f>Q83+R83+S83+T83+U83+V83+W83+X83</f>
         <v>18984.5</v>
       </c>
-      <c r="T85" s="253"/>
-      <c r="U85" s="254"/>
+      <c r="T85" s="264"/>
+      <c r="U85" s="265"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
@@ -14300,51 +15127,51 @@
     </row>
     <row r="96" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C97" s="242" t="s">
+      <c r="C97" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="243"/>
-      <c r="E97" s="243"/>
-      <c r="F97" s="243"/>
-      <c r="G97" s="243"/>
-      <c r="H97" s="243"/>
-      <c r="I97" s="243"/>
-      <c r="J97" s="243"/>
-      <c r="K97" s="243"/>
+      <c r="D97" s="254"/>
+      <c r="E97" s="254"/>
+      <c r="F97" s="254"/>
+      <c r="G97" s="254"/>
+      <c r="H97" s="254"/>
+      <c r="I97" s="254"/>
+      <c r="J97" s="254"/>
+      <c r="K97" s="254"/>
       <c r="L97" s="84" t="s">
         <v>66</v>
       </c>
       <c r="M97" s="83"/>
       <c r="N97" s="81"/>
-      <c r="O97" s="255" t="s">
+      <c r="O97" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="P97" s="256"/>
-      <c r="Q97" s="256"/>
-      <c r="R97" s="256"/>
-      <c r="S97" s="256"/>
-      <c r="T97" s="256"/>
-      <c r="U97" s="256"/>
-      <c r="V97" s="256"/>
-      <c r="W97" s="256"/>
+      <c r="P97" s="267"/>
+      <c r="Q97" s="267"/>
+      <c r="R97" s="267"/>
+      <c r="S97" s="267"/>
+      <c r="T97" s="267"/>
+      <c r="U97" s="267"/>
+      <c r="V97" s="267"/>
+      <c r="W97" s="267"/>
       <c r="X97" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="98" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I98" s="246" t="s">
+      <c r="I98" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="247"/>
-      <c r="K98" s="248"/>
+      <c r="J98" s="258"/>
+      <c r="K98" s="259"/>
       <c r="L98" s="68"/>
       <c r="M98" s="59"/>
       <c r="N98" s="74"/>
-      <c r="V98" s="246" t="s">
+      <c r="V98" s="257" t="s">
         <v>68</v>
       </c>
-      <c r="W98" s="247"/>
-      <c r="X98" s="248"/>
+      <c r="W98" s="258"/>
+      <c r="X98" s="259"/>
     </row>
     <row r="99" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
@@ -15016,12 +15843,12 @@
     <row r="116" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="249">
+      <c r="F116" s="260">
         <f>K114+J114+I114+H114+G114+F114+E114+D114+L114</f>
         <v>13702.5</v>
       </c>
-      <c r="G116" s="250"/>
-      <c r="H116" s="251"/>
+      <c r="G116" s="261"/>
+      <c r="H116" s="262"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -15030,12 +15857,12 @@
       <c r="N116" s="74"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-      <c r="S116" s="252">
+      <c r="S116" s="263">
         <f>Q114+R114+S114+T114+U114+V114+W114+X114</f>
         <v>19583</v>
       </c>
-      <c r="T116" s="253"/>
-      <c r="U116" s="254"/>
+      <c r="T116" s="264"/>
+      <c r="U116" s="265"/>
       <c r="V116" s="5">
         <v>19583</v>
       </c>
@@ -15090,48 +15917,48 @@
     </row>
     <row r="129" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C130" s="242" t="s">
+      <c r="C130" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D130" s="243"/>
-      <c r="E130" s="243"/>
-      <c r="F130" s="243"/>
-      <c r="G130" s="243"/>
-      <c r="H130" s="243"/>
-      <c r="I130" s="243"/>
-      <c r="J130" s="243"/>
-      <c r="K130" s="243"/>
+      <c r="D130" s="254"/>
+      <c r="E130" s="254"/>
+      <c r="F130" s="254"/>
+      <c r="G130" s="254"/>
+      <c r="H130" s="254"/>
+      <c r="I130" s="254"/>
+      <c r="J130" s="254"/>
+      <c r="K130" s="254"/>
       <c r="L130" s="84" t="s">
         <v>42</v>
       </c>
       <c r="M130" s="83"/>
       <c r="N130" s="81"/>
-      <c r="O130" s="255" t="s">
+      <c r="O130" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="P130" s="256"/>
-      <c r="Q130" s="256"/>
-      <c r="R130" s="256"/>
-      <c r="S130" s="256"/>
-      <c r="T130" s="256"/>
-      <c r="U130" s="256"/>
-      <c r="V130" s="256"/>
-      <c r="W130" s="256"/>
+      <c r="P130" s="267"/>
+      <c r="Q130" s="267"/>
+      <c r="R130" s="267"/>
+      <c r="S130" s="267"/>
+      <c r="T130" s="267"/>
+      <c r="U130" s="267"/>
+      <c r="V130" s="267"/>
+      <c r="W130" s="267"/>
       <c r="X130" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="131" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I131" s="246" t="s">
+      <c r="I131" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="J131" s="247"/>
-      <c r="K131" s="248"/>
+      <c r="J131" s="258"/>
+      <c r="K131" s="259"/>
       <c r="L131" s="68"/>
       <c r="M131" s="59"/>
       <c r="N131" s="74"/>
-      <c r="W131" s="247"/>
-      <c r="X131" s="248"/>
+      <c r="W131" s="258"/>
+      <c r="X131" s="259"/>
     </row>
     <row r="132" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
@@ -15798,12 +16625,12 @@
     <row r="149" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="249">
+      <c r="F149" s="260">
         <f>K147+J147+I147+H147+G147+F147+E147+D147+L147</f>
         <v>13447.5</v>
       </c>
-      <c r="G149" s="250"/>
-      <c r="H149" s="251"/>
+      <c r="G149" s="261"/>
+      <c r="H149" s="262"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
         <v>13447.5</v>
@@ -15814,12 +16641,12 @@
       <c r="N149" s="74"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-      <c r="S149" s="252">
+      <c r="S149" s="263">
         <f>Q147+R147+S147+T147+U147+V147+W147+X147</f>
         <v>19080.5</v>
       </c>
-      <c r="T149" s="253"/>
-      <c r="U149" s="254"/>
+      <c r="T149" s="264"/>
+      <c r="U149" s="265"/>
       <c r="V149" s="5">
         <v>19080.5</v>
       </c>
@@ -15898,48 +16725,48 @@
     </row>
     <row r="155" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="156" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C156" s="242" t="s">
+      <c r="C156" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="D156" s="243"/>
-      <c r="E156" s="243"/>
-      <c r="F156" s="243"/>
-      <c r="G156" s="243"/>
-      <c r="H156" s="243"/>
-      <c r="I156" s="243"/>
-      <c r="J156" s="243"/>
-      <c r="K156" s="243"/>
+      <c r="D156" s="254"/>
+      <c r="E156" s="254"/>
+      <c r="F156" s="254"/>
+      <c r="G156" s="254"/>
+      <c r="H156" s="254"/>
+      <c r="I156" s="254"/>
+      <c r="J156" s="254"/>
+      <c r="K156" s="254"/>
       <c r="L156" s="84" t="s">
         <v>41</v>
       </c>
       <c r="M156" s="83"/>
       <c r="N156" s="81"/>
-      <c r="O156" s="255" t="s">
+      <c r="O156" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="P156" s="256"/>
-      <c r="Q156" s="256"/>
-      <c r="R156" s="256"/>
-      <c r="S156" s="256"/>
-      <c r="T156" s="256"/>
-      <c r="U156" s="256"/>
-      <c r="V156" s="256"/>
-      <c r="W156" s="256"/>
+      <c r="P156" s="267"/>
+      <c r="Q156" s="267"/>
+      <c r="R156" s="267"/>
+      <c r="S156" s="267"/>
+      <c r="T156" s="267"/>
+      <c r="U156" s="267"/>
+      <c r="V156" s="267"/>
+      <c r="W156" s="267"/>
       <c r="X156" s="85" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="157" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I157" s="246" t="s">
+      <c r="I157" s="257" t="s">
         <v>37</v>
       </c>
-      <c r="J157" s="247"/>
-      <c r="K157" s="248"/>
+      <c r="J157" s="258"/>
+      <c r="K157" s="259"/>
       <c r="L157" s="68"/>
       <c r="M157" s="59"/>
       <c r="N157" s="74"/>
-      <c r="W157" s="247"/>
-      <c r="X157" s="248"/>
+      <c r="W157" s="258"/>
+      <c r="X157" s="259"/>
     </row>
     <row r="158" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
@@ -17156,12 +17983,12 @@
     <row r="184" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="257">
+      <c r="F184" s="268">
         <f>K182+J182+I182+H182+G182+F182+E182+D182</f>
         <v>13579</v>
       </c>
-      <c r="G184" s="250"/>
-      <c r="H184" s="251"/>
+      <c r="G184" s="261"/>
+      <c r="H184" s="262"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5">
         <v>13579</v>
@@ -17172,12 +17999,12 @@
       <c r="N184" s="74"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-      <c r="S184" s="252">
+      <c r="S184" s="263">
         <f>Q182+R182+S182+T182+U182+V182+W182+X182</f>
         <v>20452</v>
       </c>
-      <c r="T184" s="253"/>
-      <c r="U184" s="254"/>
+      <c r="T184" s="264"/>
+      <c r="U184" s="265"/>
       <c r="V184" s="5">
         <v>20452</v>
       </c>
@@ -17264,42 +18091,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="O130:W130"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="S149:U149"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="C156:K156"/>
+    <mergeCell ref="S184:U184"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="O156:W156"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="O97:W97"/>
+    <mergeCell ref="S116:U116"/>
+    <mergeCell ref="V98:X98"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="S51:U51"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="O97:W97"/>
-    <mergeCell ref="S116:U116"/>
-    <mergeCell ref="V98:X98"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="C156:K156"/>
-    <mergeCell ref="S184:U184"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="O156:W156"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="O130:W130"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="S149:U149"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="O66:W66"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="S85:U85"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17331,51 +18158,51 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="242" t="s">
+      <c r="D2" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="242" t="s">
+      <c r="T2" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="243"/>
-      <c r="V2" s="243"/>
-      <c r="W2" s="243"/>
-      <c r="X2" s="243"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="243"/>
-      <c r="AB2" s="243"/>
+      <c r="U2" s="254"/>
+      <c r="V2" s="254"/>
+      <c r="W2" s="254"/>
+      <c r="X2" s="254"/>
+      <c r="Y2" s="254"/>
+      <c r="Z2" s="254"/>
+      <c r="AA2" s="254"/>
+      <c r="AB2" s="254"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="246" t="s">
+      <c r="J3" s="257" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="247"/>
-      <c r="L3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="269"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="246" t="s">
+      <c r="Z3" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="248"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="259"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -17900,51 +18727,51 @@
     <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="7"/>
-      <c r="D16" s="255" t="s">
+      <c r="D16" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="267"/>
+      <c r="G16" s="267"/>
+      <c r="H16" s="267"/>
+      <c r="I16" s="267"/>
+      <c r="J16" s="267"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="267"/>
       <c r="M16" s="171"/>
       <c r="N16" s="151"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="255" t="s">
+      <c r="T16" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="256"/>
-      <c r="V16" s="256"/>
-      <c r="W16" s="256"/>
-      <c r="X16" s="256"/>
-      <c r="Y16" s="256"/>
-      <c r="Z16" s="256"/>
-      <c r="AA16" s="256"/>
-      <c r="AB16" s="256"/>
+      <c r="U16" s="267"/>
+      <c r="V16" s="267"/>
+      <c r="W16" s="267"/>
+      <c r="X16" s="267"/>
+      <c r="Y16" s="267"/>
+      <c r="Z16" s="267"/>
+      <c r="AA16" s="267"/>
+      <c r="AB16" s="267"/>
       <c r="AC16" s="171"/>
       <c r="AD16" s="151"/>
     </row>
     <row r="17" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
-      <c r="J17" s="246" t="s">
+      <c r="J17" s="257" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="247"/>
-      <c r="L17" s="258"/>
+      <c r="K17" s="258"/>
+      <c r="L17" s="269"/>
       <c r="M17" s="68"/>
       <c r="N17" s="152"/>
       <c r="S17" s="7"/>
       <c r="T17" s="1"/>
-      <c r="Z17" s="246" t="s">
+      <c r="Z17" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="AA17" s="247"/>
-      <c r="AB17" s="248"/>
+      <c r="AA17" s="258"/>
+      <c r="AB17" s="259"/>
       <c r="AC17" s="68"/>
       <c r="AD17" s="152"/>
     </row>
@@ -18446,7 +19273,7 @@
   </sheetPr>
   <dimension ref="B1:AU34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -18474,68 +19301,68 @@
     <row r="1" spans="2:47" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:47" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="242" t="s">
+      <c r="D2" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="242" t="s">
+      <c r="U2" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="243"/>
-      <c r="W2" s="243"/>
-      <c r="X2" s="243"/>
-      <c r="Y2" s="243"/>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="243"/>
-      <c r="AB2" s="243"/>
-      <c r="AC2" s="243"/>
+      <c r="V2" s="254"/>
+      <c r="W2" s="254"/>
+      <c r="X2" s="254"/>
+      <c r="Y2" s="254"/>
+      <c r="Z2" s="254"/>
+      <c r="AA2" s="254"/>
+      <c r="AB2" s="254"/>
+      <c r="AC2" s="254"/>
       <c r="AD2" s="84"/>
       <c r="AE2" s="151"/>
       <c r="AI2" s="7"/>
-      <c r="AJ2" s="242" t="s">
+      <c r="AJ2" s="253" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="243"/>
-      <c r="AL2" s="243"/>
-      <c r="AM2" s="243"/>
-      <c r="AN2" s="243"/>
-      <c r="AO2" s="243"/>
-      <c r="AP2" s="243"/>
-      <c r="AQ2" s="243"/>
-      <c r="AR2" s="243"/>
+      <c r="AK2" s="254"/>
+      <c r="AL2" s="254"/>
+      <c r="AM2" s="254"/>
+      <c r="AN2" s="254"/>
+      <c r="AO2" s="254"/>
+      <c r="AP2" s="254"/>
+      <c r="AQ2" s="254"/>
+      <c r="AR2" s="254"/>
       <c r="AS2" s="84"/>
       <c r="AT2" s="151"/>
     </row>
     <row r="3" spans="2:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="258"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="269"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="T3" s="7"/>
       <c r="U3" s="1"/>
-      <c r="AA3" s="246"/>
-      <c r="AB3" s="247"/>
-      <c r="AC3" s="258"/>
+      <c r="AA3" s="257"/>
+      <c r="AB3" s="258"/>
+      <c r="AC3" s="269"/>
       <c r="AD3" s="68"/>
       <c r="AE3" s="152"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="1"/>
-      <c r="AP3" s="246"/>
-      <c r="AQ3" s="247"/>
-      <c r="AR3" s="248"/>
+      <c r="AP3" s="257"/>
+      <c r="AQ3" s="258"/>
+      <c r="AR3" s="259"/>
       <c r="AS3" s="68"/>
       <c r="AT3" s="152"/>
     </row>
@@ -18644,7 +19471,7 @@
       </c>
     </row>
     <row r="5" spans="2:47" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="284" t="s">
+      <c r="B5" s="251" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="168" t="s">
@@ -18758,7 +19585,7 @@
       </c>
     </row>
     <row r="6" spans="2:47" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="284" t="s">
+      <c r="B6" s="251" t="s">
         <v>142</v>
       </c>
       <c r="C6" s="169" t="s">
@@ -18789,14 +19616,14 @@
       <c r="L6" s="32">
         <v>3964</v>
       </c>
-      <c r="M6" s="280">
+      <c r="M6" s="247">
         <v>500</v>
       </c>
       <c r="N6" s="167">
         <f t="shared" ref="N6:N9" si="0">SUM(E6:M6)</f>
         <v>12359</v>
       </c>
-      <c r="O6" s="283"/>
+      <c r="O6" s="250"/>
       <c r="S6" s="199" t="s">
         <v>142</v>
       </c>
@@ -18878,7 +19705,7 @@
       </c>
     </row>
     <row r="7" spans="2:47" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="284" t="s">
+      <c r="B7" s="251" t="s">
         <v>143</v>
       </c>
       <c r="C7" s="169" t="s">
@@ -18909,7 +19736,7 @@
       <c r="L7" s="178">
         <v>5653</v>
       </c>
-      <c r="M7" s="280">
+      <c r="M7" s="247">
         <v>500</v>
       </c>
       <c r="N7" s="167">
@@ -18959,12 +19786,12 @@
       <c r="AJ7" s="153"/>
       <c r="AK7" s="225"/>
       <c r="AL7" s="227"/>
-      <c r="AM7" s="265" t="s">
+      <c r="AM7" s="276" t="s">
         <v>192</v>
       </c>
-      <c r="AN7" s="265"/>
-      <c r="AO7" s="265"/>
-      <c r="AP7" s="266"/>
+      <c r="AN7" s="276"/>
+      <c r="AO7" s="276"/>
+      <c r="AP7" s="277"/>
       <c r="AQ7" s="226"/>
       <c r="AR7" s="225"/>
       <c r="AS7" s="228"/>
@@ -18974,7 +19801,7 @@
       </c>
     </row>
     <row r="8" spans="2:47" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="284" t="s">
+      <c r="B8" s="251" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="168" t="s">
@@ -19005,7 +19832,7 @@
       <c r="L8" s="213">
         <v>2460</v>
       </c>
-      <c r="M8" s="281">
+      <c r="M8" s="248">
         <v>818</v>
       </c>
       <c r="N8" s="167">
@@ -19072,7 +19899,7 @@
       </c>
     </row>
     <row r="9" spans="2:47" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="284" t="s">
+      <c r="B9" s="251" t="s">
         <v>271</v>
       </c>
       <c r="C9" s="169" t="s">
@@ -19103,7 +19930,7 @@
       <c r="L9" s="32">
         <v>2280</v>
       </c>
-      <c r="M9" s="280">
+      <c r="M9" s="247">
         <v>0</v>
       </c>
       <c r="N9" s="167">
@@ -19148,12 +19975,12 @@
       <c r="B10" s="154"/>
       <c r="E10" s="30"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="259" t="s">
+      <c r="G10" s="270" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="260"/>
-      <c r="I10" s="260"/>
-      <c r="J10" s="261"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="272"/>
       <c r="K10" s="22"/>
       <c r="L10" s="157"/>
       <c r="M10" s="77"/>
@@ -19163,12 +19990,12 @@
       <c r="S10" s="154"/>
       <c r="V10" s="30"/>
       <c r="W10" s="31"/>
-      <c r="X10" s="267" t="s">
+      <c r="X10" s="278" t="s">
         <v>193</v>
       </c>
-      <c r="Y10" s="268"/>
-      <c r="Z10" s="268"/>
-      <c r="AA10" s="269"/>
+      <c r="Y10" s="279"/>
+      <c r="Z10" s="279"/>
+      <c r="AA10" s="280"/>
       <c r="AB10" s="22"/>
       <c r="AC10" s="157"/>
       <c r="AD10" s="77"/>
@@ -19262,7 +20089,7 @@
       <c r="AE12" s="209"/>
       <c r="AI12" s="235"/>
       <c r="AJ12" s="129"/>
-      <c r="AK12" s="285"/>
+      <c r="AK12" s="252"/>
       <c r="AL12" s="78"/>
       <c r="AM12" s="78"/>
       <c r="AN12" s="78"/>
@@ -19300,7 +20127,7 @@
       <c r="AE13" s="209"/>
       <c r="AI13" s="235"/>
       <c r="AJ13" s="129"/>
-      <c r="AK13" s="285"/>
+      <c r="AK13" s="252"/>
       <c r="AL13" s="78"/>
       <c r="AM13" s="78"/>
       <c r="AN13" s="78"/>
@@ -19338,7 +20165,7 @@
       <c r="AE14" s="209"/>
       <c r="AI14" s="235"/>
       <c r="AJ14" s="129"/>
-      <c r="AK14" s="285"/>
+      <c r="AK14" s="252"/>
       <c r="AL14" s="78"/>
       <c r="AM14" s="78"/>
       <c r="AN14" s="78"/>
@@ -19376,7 +20203,7 @@
       <c r="AE15" s="209"/>
       <c r="AI15" s="235"/>
       <c r="AJ15" s="129"/>
-      <c r="AK15" s="285"/>
+      <c r="AK15" s="252"/>
       <c r="AL15" s="78"/>
       <c r="AM15" s="78"/>
       <c r="AN15" s="78"/>
@@ -19414,7 +20241,7 @@
       <c r="AE16" s="209"/>
       <c r="AI16" s="235"/>
       <c r="AJ16" s="129"/>
-      <c r="AK16" s="285"/>
+      <c r="AK16" s="252"/>
       <c r="AL16" s="78"/>
       <c r="AM16" s="78"/>
       <c r="AN16" s="78"/>
@@ -19452,7 +20279,7 @@
       <c r="AE17" s="209"/>
       <c r="AI17" s="235"/>
       <c r="AJ17" s="129"/>
-      <c r="AK17" s="285"/>
+      <c r="AK17" s="252"/>
       <c r="AL17" s="78"/>
       <c r="AM17" s="78"/>
       <c r="AN17" s="78"/>
@@ -19490,7 +20317,7 @@
       <c r="AE18" s="209"/>
       <c r="AI18" s="235"/>
       <c r="AJ18" s="129"/>
-      <c r="AK18" s="285"/>
+      <c r="AK18" s="252"/>
       <c r="AL18" s="78"/>
       <c r="AM18" s="78"/>
       <c r="AN18" s="78"/>
@@ -19528,7 +20355,7 @@
       <c r="AE19" s="209"/>
       <c r="AI19" s="235"/>
       <c r="AJ19" s="129"/>
-      <c r="AK19" s="285"/>
+      <c r="AK19" s="252"/>
       <c r="AL19" s="78"/>
       <c r="AM19" s="78"/>
       <c r="AN19" s="78"/>
@@ -19594,45 +20421,45 @@
     </row>
     <row r="22" spans="2:47" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="7"/>
-      <c r="D22" s="255" t="s">
+      <c r="D22" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
-      <c r="J22" s="256"/>
-      <c r="K22" s="256"/>
-      <c r="L22" s="264"/>
+      <c r="E22" s="267"/>
+      <c r="F22" s="267"/>
+      <c r="G22" s="267"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="267"/>
+      <c r="J22" s="267"/>
+      <c r="K22" s="267"/>
+      <c r="L22" s="273"/>
       <c r="M22" s="171"/>
       <c r="N22" s="151"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="255" t="s">
+      <c r="U22" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="V22" s="256"/>
-      <c r="W22" s="256"/>
-      <c r="X22" s="256"/>
-      <c r="Y22" s="256"/>
-      <c r="Z22" s="256"/>
-      <c r="AA22" s="256"/>
-      <c r="AB22" s="256"/>
-      <c r="AC22" s="264"/>
+      <c r="V22" s="267"/>
+      <c r="W22" s="267"/>
+      <c r="X22" s="267"/>
+      <c r="Y22" s="267"/>
+      <c r="Z22" s="267"/>
+      <c r="AA22" s="267"/>
+      <c r="AB22" s="267"/>
+      <c r="AC22" s="273"/>
       <c r="AD22" s="171"/>
       <c r="AE22" s="151"/>
       <c r="AI22" s="7"/>
-      <c r="AJ22" s="255" t="s">
+      <c r="AJ22" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="AK22" s="256"/>
-      <c r="AL22" s="256"/>
-      <c r="AM22" s="256"/>
-      <c r="AN22" s="256"/>
-      <c r="AO22" s="256"/>
-      <c r="AP22" s="256"/>
-      <c r="AQ22" s="256"/>
-      <c r="AR22" s="256"/>
+      <c r="AK22" s="267"/>
+      <c r="AL22" s="267"/>
+      <c r="AM22" s="267"/>
+      <c r="AN22" s="267"/>
+      <c r="AO22" s="267"/>
+      <c r="AP22" s="267"/>
+      <c r="AQ22" s="267"/>
+      <c r="AR22" s="267"/>
       <c r="AS22" s="171"/>
       <c r="AT22" s="151"/>
     </row>
@@ -19653,9 +20480,9 @@
       <c r="AE23" s="152"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="1"/>
-      <c r="AP23" s="246"/>
-      <c r="AQ23" s="247"/>
-      <c r="AR23" s="248"/>
+      <c r="AP23" s="257"/>
+      <c r="AQ23" s="258"/>
+      <c r="AR23" s="259"/>
       <c r="AS23" s="68"/>
       <c r="AT23" s="152"/>
     </row>
@@ -19908,7 +20735,7 @@
         <f t="shared" ref="N26:N29" si="3">SUM(E26:M26)</f>
         <v>18256.5</v>
       </c>
-      <c r="O26" s="282"/>
+      <c r="O26" s="249"/>
       <c r="S26" s="198" t="s">
         <v>142</v>
       </c>
@@ -20160,12 +20987,12 @@
       <c r="AH28" s="154"/>
       <c r="AK28" s="30"/>
       <c r="AL28" s="31"/>
-      <c r="AM28" s="262" t="s">
+      <c r="AM28" s="274" t="s">
         <v>192</v>
       </c>
-      <c r="AN28" s="262"/>
-      <c r="AO28" s="262"/>
-      <c r="AP28" s="263"/>
+      <c r="AN28" s="274"/>
+      <c r="AO28" s="274"/>
+      <c r="AP28" s="275"/>
       <c r="AQ28" s="22"/>
       <c r="AR28" s="157"/>
       <c r="AS28" s="77"/>
@@ -20248,12 +21075,12 @@
       <c r="B30" s="154"/>
       <c r="E30" s="30"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="259" t="s">
+      <c r="G30" s="270" t="s">
         <v>267</v>
       </c>
-      <c r="H30" s="260"/>
-      <c r="I30" s="260"/>
-      <c r="J30" s="261"/>
+      <c r="H30" s="271"/>
+      <c r="I30" s="271"/>
+      <c r="J30" s="272"/>
       <c r="K30" s="22"/>
       <c r="L30" s="157"/>
       <c r="M30" s="77"/>
@@ -20263,12 +21090,12 @@
       <c r="S30" s="154"/>
       <c r="V30" s="30"/>
       <c r="W30" s="31"/>
-      <c r="X30" s="259" t="s">
+      <c r="X30" s="270" t="s">
         <v>193</v>
       </c>
-      <c r="Y30" s="260"/>
-      <c r="Z30" s="260"/>
-      <c r="AA30" s="261"/>
+      <c r="Y30" s="271"/>
+      <c r="Z30" s="271"/>
+      <c r="AA30" s="272"/>
       <c r="AB30" s="22"/>
       <c r="AC30" s="157"/>
       <c r="AD30" s="77"/>
@@ -20402,22 +21229,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="U22:AC22"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AJ2:AR2"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AJ22:AR22"/>
     <mergeCell ref="AP23:AR23"/>
     <mergeCell ref="U2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="U22:AC22"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -896,12 +896,6 @@
     <t>04--AL---10--Nov-23</t>
   </si>
   <si>
-    <t>Pechuga pollo--Totopos--crema--costilla-mole convento</t>
-  </si>
-  <si>
-    <t>Poblano--cebolla-papa-zanahoria--chayote--calabaza-tomate-chicharo-tampico-serrano-ajo-jitomate</t>
-  </si>
-  <si>
     <t>Harian-avena-italpasta--crema--desengransante--</t>
   </si>
   <si>
@@ -917,12 +911,6 @@
     <t>Guajillo--FRIJOL--Ajonjoli--sal Roche azul</t>
   </si>
   <si>
-    <t>QUESO-Norteño-Pechuga pollo-crema-gouda-totpos-condimento-añejo-costilla-mole convento</t>
-  </si>
-  <si>
-    <t>Poblano-cebolla-papa-zanahoria-tomate-chicharo-tampico-serrano-ajo-aguacate-jitomate-tomate</t>
-  </si>
-  <si>
     <t>Yoguth-mayonesa-rajas-Arroz-Elote-café legal-leche-knorzuisa-italpasta-spaguetti-ajax-fibra-limpiador horno-harina trigo-Hilaza cono</t>
   </si>
   <si>
@@ -933,6 +921,18 @@
   </si>
   <si>
     <t>Epazote-Telimon-Cilantro-Hojas de aguacate</t>
+  </si>
+  <si>
+    <t>Pechuga pollo--Totopos--crema--costilla-mole convento-Jamon americano-gouda-maiz-alon-</t>
+  </si>
+  <si>
+    <t>Poblano--cebolla-papa-zanahoria--chayote--calabaza-tomate-chicharo-tampico-serrano-ajo-jitomate--limon--lechuga-rabanos</t>
+  </si>
+  <si>
+    <t>QUESO-Norteño-Pechuga pollo-crema-gouda-totpos-condimento-añejo-costilla-mole convento--maiz-tostadas-jamon americano</t>
+  </si>
+  <si>
+    <t>Poblano-cebolla-papa-zanahoria-tomate-chicharo-tampico-serrano-ajo-aguacate-jitomate-tomate-limon-lechuga-rabanos-tomillo</t>
   </si>
 </sst>
 </file>
@@ -2588,6 +2588,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2648,15 +2651,15 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2686,9 +2689,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3038,53 +3038,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="253" t="s">
+      <c r="C1" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
       <c r="L1" s="127" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="133"/>
       <c r="N1" s="81"/>
-      <c r="O1" s="266" t="s">
+      <c r="O1" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="267"/>
-      <c r="Q1" s="267"/>
-      <c r="R1" s="267"/>
-      <c r="S1" s="267"/>
-      <c r="T1" s="267"/>
-      <c r="U1" s="267"/>
-      <c r="V1" s="267"/>
-      <c r="W1" s="267"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="268"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="268"/>
+      <c r="V1" s="268"/>
+      <c r="W1" s="268"/>
       <c r="X1" s="128" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="257" t="s">
+      <c r="I2" s="258" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="258"/>
-      <c r="K2" s="259"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="260"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
       <c r="P2"/>
-      <c r="V2" s="257" t="s">
+      <c r="V2" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="258"/>
-      <c r="X2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="260"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -3743,12 +3743,12 @@
     <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="260">
+      <c r="F20" s="261">
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
         <v>14572.5</v>
       </c>
-      <c r="G20" s="261"/>
-      <c r="H20" s="262"/>
+      <c r="G20" s="262"/>
+      <c r="H20" s="263"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -3759,12 +3759,12 @@
       <c r="P20"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="263">
+      <c r="S20" s="264">
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>21274</v>
       </c>
-      <c r="T20" s="264"/>
-      <c r="U20" s="265"/>
+      <c r="T20" s="265"/>
+      <c r="U20" s="266"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -3884,34 +3884,34 @@
     <row r="1" spans="2:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="126" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="122"/>
-      <c r="C2" s="281" t="s">
+      <c r="C2" s="282" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282"/>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="283"/>
       <c r="L2" s="123"/>
       <c r="M2" s="124"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
-      <c r="P2" s="283" t="s">
+      <c r="P2" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="284"/>
-      <c r="R2" s="284"/>
-      <c r="S2" s="284"/>
-      <c r="T2" s="284"/>
-      <c r="U2" s="284"/>
-      <c r="V2" s="284"/>
-      <c r="W2" s="284"/>
-      <c r="X2" s="284"/>
-      <c r="Y2" s="284"/>
-      <c r="Z2" s="285"/>
+      <c r="Q2" s="285"/>
+      <c r="R2" s="285"/>
+      <c r="S2" s="285"/>
+      <c r="T2" s="285"/>
+      <c r="U2" s="285"/>
+      <c r="V2" s="285"/>
+      <c r="W2" s="285"/>
+      <c r="X2" s="285"/>
+      <c r="Y2" s="285"/>
+      <c r="Z2" s="286"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="37"/>
@@ -4862,12 +4862,12 @@
     <row r="19" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="260">
+      <c r="F19" s="261">
         <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
         <v>50513</v>
       </c>
-      <c r="G19" s="261"/>
-      <c r="H19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="263"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -4877,12 +4877,12 @@
       <c r="O19" s="74"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="263">
+      <c r="T19" s="264">
         <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
         <v>78100</v>
       </c>
-      <c r="U19" s="264"/>
-      <c r="V19" s="265"/>
+      <c r="U19" s="265"/>
+      <c r="V19" s="266"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -5017,32 +5017,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="253" t="s">
+      <c r="B2" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="266" t="s">
+      <c r="M2" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="267"/>
-      <c r="O2" s="267"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="267"/>
-      <c r="R2" s="267"/>
-      <c r="S2" s="267"/>
-      <c r="T2" s="267"/>
-      <c r="U2" s="267"/>
-      <c r="V2" s="267"/>
-      <c r="W2" s="273"/>
+      <c r="N2" s="268"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="268"/>
+      <c r="Q2" s="268"/>
+      <c r="R2" s="268"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="268"/>
+      <c r="U2" s="268"/>
+      <c r="V2" s="268"/>
+      <c r="W2" s="276"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -6301,12 +6301,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="260">
+      <c r="E30" s="261">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="261"/>
-      <c r="G30" s="262"/>
+      <c r="F30" s="262"/>
+      <c r="G30" s="263"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -6314,12 +6314,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="263">
+      <c r="Q30" s="264">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="264"/>
-      <c r="S30" s="265"/>
+      <c r="R30" s="265"/>
+      <c r="S30" s="266"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -6442,8 +6442,8 @@
   </sheetPr>
   <dimension ref="B1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J8" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6460,33 +6460,33 @@
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="253" t="s">
+      <c r="C2" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
       <c r="L2" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="255" t="s">
+      <c r="O2" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
-      <c r="R2" s="256"/>
-      <c r="S2" s="256"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="257"/>
+      <c r="S2" s="257"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 02</v>
@@ -6495,21 +6495,21 @@
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="257" t="s">
+      <c r="I3" s="258" t="s">
         <v>275</v>
       </c>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="260"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="257" t="str">
+      <c r="V3" s="258" t="str">
         <f>I3</f>
         <v>del   04- al  10   NOVIEMBRE  2023</v>
       </c>
-      <c r="W3" s="258"/>
-      <c r="X3" s="259"/>
+      <c r="W3" s="259"/>
+      <c r="X3" s="260"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -6578,12 +6578,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
         <v>276</v>
       </c>
       <c r="C5" s="234" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D5" s="72" t="s">
         <v>26</v>
@@ -6595,8 +6595,8 @@
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
       <c r="K5" s="72">
-        <f>646+1044+2378</f>
-        <v>4068</v>
+        <f>646+1044+2378+1876</f>
+        <v>5944</v>
       </c>
       <c r="L5" s="71"/>
       <c r="M5" s="131"/>
@@ -6605,7 +6605,7 @@
         <v>276</v>
       </c>
       <c r="P5" s="234" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="72"/>
       <c r="R5" s="72"/>
@@ -6615,8 +6615,8 @@
       <c r="V5" s="72"/>
       <c r="W5" s="72"/>
       <c r="X5" s="72">
-        <f>240+2971+420+200+2107</f>
-        <v>5938</v>
+        <f>240+2971+420+200+2107+808</f>
+        <v>6746</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6624,13 +6624,13 @@
         <v>276</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67">
-        <f>1194+462+194</f>
-        <v>1850</v>
+        <f>1194+462+194+25+50</f>
+        <v>1925</v>
       </c>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
@@ -6644,13 +6644,13 @@
         <v>276</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q6" s="67"/>
       <c r="R6" s="67"/>
       <c r="S6" s="67">
-        <f>120+2030+132+800+200</f>
-        <v>3282</v>
+        <f>120+2030+132+800+200+50+50</f>
+        <v>3382</v>
       </c>
       <c r="T6" s="67"/>
       <c r="U6" s="67"/>
@@ -6663,7 +6663,7 @@
         <v>276</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D7" s="67">
         <f>67+180+50+175+240</f>
@@ -6683,7 +6683,7 @@
         <v>276</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="67"/>
       <c r="R7" s="67"/>
@@ -6740,7 +6740,7 @@
         <v>276</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
@@ -6760,7 +6760,7 @@
         <v>276</v>
       </c>
       <c r="P9" s="95" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q9" s="67">
         <f>71+220+350+175</f>
@@ -6779,8 +6779,8 @@
       <c r="B10" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="C10" s="286" t="s">
-        <v>280</v>
+      <c r="C10" s="253" t="s">
+        <v>278</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
@@ -6799,7 +6799,7 @@
         <v>276</v>
       </c>
       <c r="P10" s="195" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="72"/>
       <c r="R10" s="72">
@@ -6818,7 +6818,7 @@
         <v>276</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
@@ -6837,7 +6837,7 @@
         <v>276</v>
       </c>
       <c r="P11" s="194" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
@@ -6857,7 +6857,7 @@
         <v>276</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67">
@@ -6924,8 +6924,8 @@
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
       <c r="V13" s="72">
-        <f>238+170+170+204+204</f>
-        <v>986</v>
+        <f>238+170+170+204+204+204</f>
+        <v>1190</v>
       </c>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
@@ -6942,8 +6942,8 @@
       <c r="F14" s="67"/>
       <c r="G14" s="67"/>
       <c r="H14" s="67">
-        <f>102+102+85+170+85</f>
-        <v>544</v>
+        <f>102+102+85+170+85+187</f>
+        <v>731</v>
       </c>
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>1850</v>
+        <v>1925</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" si="0"/>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="H19" s="30">
         <f t="shared" si="0"/>
-        <v>1624</v>
+        <v>1811</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="0"/>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="K19" s="30">
         <f t="shared" si="0"/>
-        <v>4068</v>
+        <v>5944</v>
       </c>
       <c r="L19" s="30">
         <f t="shared" si="0"/>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="S19" s="21">
         <f t="shared" si="1"/>
-        <v>3282</v>
+        <v>3382</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" si="1"/>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="V19" s="21">
         <f t="shared" si="1"/>
-        <v>5249</v>
+        <v>5453</v>
       </c>
       <c r="W19" s="21">
         <f t="shared" si="1"/>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="X19" s="21">
         <f t="shared" si="1"/>
-        <v>5938</v>
+        <v>6746</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7175,12 +7175,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="260">
+      <c r="F21" s="261">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
-        <v>10619</v>
-      </c>
-      <c r="G21" s="261"/>
-      <c r="H21" s="262"/>
+        <v>12757</v>
+      </c>
+      <c r="G21" s="262"/>
+      <c r="H21" s="263"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -7190,12 +7190,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="263">
+      <c r="S21" s="264">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
-        <v>20586</v>
-      </c>
-      <c r="T21" s="264"/>
-      <c r="U21" s="265"/>
+        <v>21698</v>
+      </c>
+      <c r="T21" s="265"/>
+      <c r="U21" s="266"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -7227,33 +7227,33 @@
     <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
-      <c r="C31" s="253" t="s">
+      <c r="C31" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="254"/>
-      <c r="E31" s="254"/>
-      <c r="F31" s="254"/>
-      <c r="G31" s="254"/>
-      <c r="H31" s="254"/>
-      <c r="I31" s="254"/>
-      <c r="J31" s="254"/>
-      <c r="K31" s="254"/>
+      <c r="D31" s="255"/>
+      <c r="E31" s="255"/>
+      <c r="F31" s="255"/>
+      <c r="G31" s="255"/>
+      <c r="H31" s="255"/>
+      <c r="I31" s="255"/>
+      <c r="J31" s="255"/>
+      <c r="K31" s="255"/>
       <c r="L31" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M31" s="133"/>
       <c r="N31" s="81"/>
-      <c r="O31" s="255" t="s">
+      <c r="O31" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="P31" s="256"/>
-      <c r="Q31" s="256"/>
-      <c r="R31" s="256"/>
-      <c r="S31" s="256"/>
-      <c r="T31" s="256"/>
-      <c r="U31" s="256"/>
-      <c r="V31" s="256"/>
-      <c r="W31" s="256"/>
+      <c r="P31" s="257"/>
+      <c r="Q31" s="257"/>
+      <c r="R31" s="257"/>
+      <c r="S31" s="257"/>
+      <c r="T31" s="257"/>
+      <c r="U31" s="257"/>
+      <c r="V31" s="257"/>
+      <c r="W31" s="257"/>
       <c r="X31" s="190" t="str">
         <f>L31</f>
         <v># 01</v>
@@ -7262,21 +7262,21 @@
     <row r="32" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="1"/>
-      <c r="I32" s="257" t="s">
+      <c r="I32" s="258" t="s">
         <v>248</v>
       </c>
-      <c r="J32" s="258"/>
-      <c r="K32" s="259"/>
+      <c r="J32" s="259"/>
+      <c r="K32" s="260"/>
       <c r="L32" s="68"/>
       <c r="M32" s="134"/>
       <c r="N32" s="74"/>
       <c r="O32" s="7"/>
-      <c r="V32" s="257" t="str">
+      <c r="V32" s="258" t="str">
         <f>I32</f>
         <v>del   01- al  3   NOVIEMBRE  2023</v>
       </c>
-      <c r="W32" s="258"/>
-      <c r="X32" s="259"/>
+      <c r="W32" s="259"/>
+      <c r="X32" s="260"/>
     </row>
     <row r="33" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
@@ -7893,12 +7893,12 @@
       <c r="C50" s="1"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="260">
+      <c r="F50" s="261">
         <f>K48+J48+I48+H48+G48+F48+E48+D48+L48</f>
         <v>3455</v>
       </c>
-      <c r="G50" s="261"/>
-      <c r="H50" s="262"/>
+      <c r="G50" s="262"/>
+      <c r="H50" s="263"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -7908,12 +7908,12 @@
       <c r="O50" s="7"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="263">
+      <c r="S50" s="264">
         <f>Q48+R48+S48+T48+U48+V48+W48+X48</f>
         <v>8067.5</v>
       </c>
-      <c r="T50" s="264"/>
-      <c r="U50" s="265"/>
+      <c r="T50" s="265"/>
+      <c r="U50" s="266"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
@@ -7944,18 +7944,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="O31:W31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="S50:U50"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="O31:W31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="S50:U50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7991,33 +7991,33 @@
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="253" t="s">
+      <c r="C2" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
       <c r="L2" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="255" t="s">
+      <c r="O2" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
-      <c r="R2" s="256"/>
-      <c r="S2" s="256"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="257"/>
+      <c r="S2" s="257"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 05</v>
@@ -8026,21 +8026,21 @@
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="257" t="s">
+      <c r="I3" s="258" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="260"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="257" t="str">
+      <c r="V3" s="258" t="str">
         <f>I3</f>
         <v>del       28--- al  31    OCTUBRE-2023</v>
       </c>
-      <c r="W3" s="258"/>
-      <c r="X3" s="259"/>
+      <c r="W3" s="259"/>
+      <c r="X3" s="260"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -8699,12 +8699,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="260">
+      <c r="F21" s="261">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>7829.5</v>
       </c>
-      <c r="G21" s="261"/>
-      <c r="H21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="263"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -8714,12 +8714,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="263">
+      <c r="S21" s="264">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>9034</v>
       </c>
-      <c r="T21" s="264"/>
-      <c r="U21" s="265"/>
+      <c r="T21" s="265"/>
+      <c r="U21" s="266"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -8751,33 +8751,33 @@
     <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
-      <c r="C30" s="253" t="s">
+      <c r="C30" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="254"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="254"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="254"/>
-      <c r="I30" s="254"/>
-      <c r="J30" s="254"/>
-      <c r="K30" s="254"/>
+      <c r="D30" s="255"/>
+      <c r="E30" s="255"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="255"/>
+      <c r="H30" s="255"/>
+      <c r="I30" s="255"/>
+      <c r="J30" s="255"/>
+      <c r="K30" s="255"/>
       <c r="L30" s="128" t="s">
         <v>88</v>
       </c>
       <c r="M30" s="133"/>
       <c r="N30" s="81"/>
-      <c r="O30" s="255" t="s">
+      <c r="O30" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="256"/>
-      <c r="Q30" s="256"/>
-      <c r="R30" s="256"/>
-      <c r="S30" s="256"/>
-      <c r="T30" s="256"/>
-      <c r="U30" s="256"/>
-      <c r="V30" s="256"/>
-      <c r="W30" s="256"/>
+      <c r="P30" s="257"/>
+      <c r="Q30" s="257"/>
+      <c r="R30" s="257"/>
+      <c r="S30" s="257"/>
+      <c r="T30" s="257"/>
+      <c r="U30" s="257"/>
+      <c r="V30" s="257"/>
+      <c r="W30" s="257"/>
       <c r="X30" s="190" t="str">
         <f>L30</f>
         <v># 04</v>
@@ -8786,21 +8786,21 @@
     <row r="31" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
-      <c r="I31" s="257" t="s">
+      <c r="I31" s="258" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="258"/>
-      <c r="K31" s="259"/>
+      <c r="J31" s="259"/>
+      <c r="K31" s="260"/>
       <c r="L31" s="68"/>
       <c r="M31" s="134"/>
       <c r="N31" s="74"/>
       <c r="O31" s="7"/>
-      <c r="V31" s="257" t="str">
+      <c r="V31" s="258" t="str">
         <f>I31</f>
         <v>del       21--- al  27    OCTUBRE-2023</v>
       </c>
-      <c r="W31" s="258"/>
-      <c r="X31" s="259"/>
+      <c r="W31" s="259"/>
+      <c r="X31" s="260"/>
     </row>
     <row r="32" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
@@ -9462,12 +9462,12 @@
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="260">
+      <c r="F49" s="261">
         <f>K47+J47+I47+H47+G47+F47+E47+D47+L47</f>
         <v>9341</v>
       </c>
-      <c r="G49" s="261"/>
-      <c r="H49" s="262"/>
+      <c r="G49" s="262"/>
+      <c r="H49" s="263"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -9477,12 +9477,12 @@
       <c r="O49" s="7"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="263">
+      <c r="S49" s="264">
         <f>Q47+R47+S47+T47+U47+V47+W47+X47</f>
         <v>20161</v>
       </c>
-      <c r="T49" s="264"/>
-      <c r="U49" s="265"/>
+      <c r="T49" s="265"/>
+      <c r="U49" s="266"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -9514,33 +9514,33 @@
     <row r="59" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="253" t="s">
+      <c r="C60" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="254"/>
-      <c r="E60" s="254"/>
-      <c r="F60" s="254"/>
-      <c r="G60" s="254"/>
-      <c r="H60" s="254"/>
-      <c r="I60" s="254"/>
-      <c r="J60" s="254"/>
-      <c r="K60" s="254"/>
+      <c r="D60" s="255"/>
+      <c r="E60" s="255"/>
+      <c r="F60" s="255"/>
+      <c r="G60" s="255"/>
+      <c r="H60" s="255"/>
+      <c r="I60" s="255"/>
+      <c r="J60" s="255"/>
+      <c r="K60" s="255"/>
       <c r="L60" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="81"/>
-      <c r="O60" s="255" t="s">
+      <c r="O60" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="256"/>
-      <c r="Q60" s="256"/>
-      <c r="R60" s="256"/>
-      <c r="S60" s="256"/>
-      <c r="T60" s="256"/>
-      <c r="U60" s="256"/>
-      <c r="V60" s="256"/>
-      <c r="W60" s="256"/>
+      <c r="P60" s="257"/>
+      <c r="Q60" s="257"/>
+      <c r="R60" s="257"/>
+      <c r="S60" s="257"/>
+      <c r="T60" s="257"/>
+      <c r="U60" s="257"/>
+      <c r="V60" s="257"/>
+      <c r="W60" s="257"/>
       <c r="X60" s="190" t="s">
         <v>66</v>
       </c>
@@ -9548,21 +9548,21 @@
     <row r="61" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="I61" s="257" t="s">
+      <c r="I61" s="258" t="s">
         <v>209</v>
       </c>
-      <c r="J61" s="258"/>
-      <c r="K61" s="259"/>
+      <c r="J61" s="259"/>
+      <c r="K61" s="260"/>
       <c r="L61" s="68"/>
       <c r="M61" s="134"/>
       <c r="N61" s="74"/>
       <c r="O61" s="7"/>
-      <c r="V61" s="257" t="str">
+      <c r="V61" s="258" t="str">
         <f>I61</f>
         <v>del       14--- al  20    OCTUBRE-2023</v>
       </c>
-      <c r="W61" s="258"/>
-      <c r="X61" s="259"/>
+      <c r="W61" s="259"/>
+      <c r="X61" s="260"/>
     </row>
     <row r="62" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
@@ -10214,12 +10214,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="260">
+      <c r="F79" s="261">
         <f>K77+J77+I77+H77+G77+F77+E77+D77+L77</f>
         <v>12198</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="262"/>
+      <c r="G79" s="262"/>
+      <c r="H79" s="263"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -10229,12 +10229,12 @@
       <c r="O79" s="7"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="263">
+      <c r="S79" s="264">
         <f>Q77+R77+S77+T77+U77+V77+W77+X77</f>
         <v>20122.5</v>
       </c>
-      <c r="T79" s="264"/>
-      <c r="U79" s="265"/>
+      <c r="T79" s="265"/>
+      <c r="U79" s="266"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -10385,33 +10385,33 @@
     <row r="90" spans="2:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B91" s="7"/>
-      <c r="C91" s="253" t="s">
+      <c r="C91" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="254"/>
-      <c r="E91" s="254"/>
-      <c r="F91" s="254"/>
-      <c r="G91" s="254"/>
-      <c r="H91" s="254"/>
-      <c r="I91" s="254"/>
-      <c r="J91" s="254"/>
-      <c r="K91" s="254"/>
+      <c r="D91" s="255"/>
+      <c r="E91" s="255"/>
+      <c r="F91" s="255"/>
+      <c r="G91" s="255"/>
+      <c r="H91" s="255"/>
+      <c r="I91" s="255"/>
+      <c r="J91" s="255"/>
+      <c r="K91" s="255"/>
       <c r="L91" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M91" s="133"/>
       <c r="N91" s="81"/>
-      <c r="O91" s="255" t="s">
+      <c r="O91" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="P91" s="256"/>
-      <c r="Q91" s="256"/>
-      <c r="R91" s="256"/>
-      <c r="S91" s="256"/>
-      <c r="T91" s="256"/>
-      <c r="U91" s="256"/>
-      <c r="V91" s="256"/>
-      <c r="W91" s="256"/>
+      <c r="P91" s="257"/>
+      <c r="Q91" s="257"/>
+      <c r="R91" s="257"/>
+      <c r="S91" s="257"/>
+      <c r="T91" s="257"/>
+      <c r="U91" s="257"/>
+      <c r="V91" s="257"/>
+      <c r="W91" s="257"/>
       <c r="X91" s="190" t="s">
         <v>42</v>
       </c>
@@ -10419,21 +10419,21 @@
     <row r="92" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="1"/>
-      <c r="I92" s="257" t="s">
+      <c r="I92" s="258" t="s">
         <v>194</v>
       </c>
-      <c r="J92" s="258"/>
-      <c r="K92" s="259"/>
+      <c r="J92" s="259"/>
+      <c r="K92" s="260"/>
       <c r="L92" s="68"/>
       <c r="M92" s="134"/>
       <c r="N92" s="74"/>
       <c r="O92" s="7"/>
-      <c r="V92" s="257" t="str">
+      <c r="V92" s="258" t="str">
         <f>I92</f>
         <v>del       07--- al  13    OCTUBRE-2023</v>
       </c>
-      <c r="W92" s="258"/>
-      <c r="X92" s="259"/>
+      <c r="W92" s="259"/>
+      <c r="X92" s="260"/>
     </row>
     <row r="93" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
@@ -11086,12 +11086,12 @@
       <c r="C110" s="1"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="260">
+      <c r="F110" s="261">
         <f>K108+J108+I108+H108+G108+F108+E108+D108+L108</f>
         <v>12359</v>
       </c>
-      <c r="G110" s="261"/>
-      <c r="H110" s="262"/>
+      <c r="G110" s="262"/>
+      <c r="H110" s="263"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -11101,12 +11101,12 @@
       <c r="O110" s="7"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-      <c r="S110" s="263">
+      <c r="S110" s="264">
         <f>Q108+R108+S108+T108+U108+V108+W108+X108</f>
         <v>18256.5</v>
       </c>
-      <c r="T110" s="264"/>
-      <c r="U110" s="265"/>
+      <c r="T110" s="265"/>
+      <c r="U110" s="266"/>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
@@ -11137,33 +11137,33 @@
     <row r="115" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B116" s="7"/>
-      <c r="C116" s="253" t="s">
+      <c r="C116" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="254"/>
-      <c r="E116" s="254"/>
-      <c r="F116" s="254"/>
-      <c r="G116" s="254"/>
-      <c r="H116" s="254"/>
-      <c r="I116" s="254"/>
-      <c r="J116" s="254"/>
-      <c r="K116" s="254"/>
+      <c r="D116" s="255"/>
+      <c r="E116" s="255"/>
+      <c r="F116" s="255"/>
+      <c r="G116" s="255"/>
+      <c r="H116" s="255"/>
+      <c r="I116" s="255"/>
+      <c r="J116" s="255"/>
+      <c r="K116" s="255"/>
       <c r="L116" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M116" s="133"/>
       <c r="N116" s="81"/>
-      <c r="O116" s="255" t="s">
+      <c r="O116" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="P116" s="256"/>
-      <c r="Q116" s="256"/>
-      <c r="R116" s="256"/>
-      <c r="S116" s="256"/>
-      <c r="T116" s="256"/>
-      <c r="U116" s="256"/>
-      <c r="V116" s="256"/>
-      <c r="W116" s="256"/>
+      <c r="P116" s="257"/>
+      <c r="Q116" s="257"/>
+      <c r="R116" s="257"/>
+      <c r="S116" s="257"/>
+      <c r="T116" s="257"/>
+      <c r="U116" s="257"/>
+      <c r="V116" s="257"/>
+      <c r="W116" s="257"/>
       <c r="X116" s="190" t="s">
         <v>41</v>
       </c>
@@ -11171,21 +11171,21 @@
     <row r="117" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="1"/>
-      <c r="I117" s="257" t="s">
+      <c r="I117" s="258" t="s">
         <v>167</v>
       </c>
-      <c r="J117" s="258"/>
-      <c r="K117" s="259"/>
+      <c r="J117" s="259"/>
+      <c r="K117" s="260"/>
       <c r="L117" s="68"/>
       <c r="M117" s="134"/>
       <c r="N117" s="74"/>
       <c r="O117" s="7"/>
-      <c r="V117" s="257" t="str">
+      <c r="V117" s="258" t="str">
         <f>I117</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W117" s="258"/>
-      <c r="X117" s="259"/>
+      <c r="W117" s="259"/>
+      <c r="X117" s="260"/>
     </row>
     <row r="118" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
@@ -11817,12 +11817,12 @@
       <c r="C135" s="1"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="260">
+      <c r="F135" s="261">
         <f>K133+J133+I133+H133+G133+F133+E133+D133+L133</f>
         <v>7969</v>
       </c>
-      <c r="G135" s="261"/>
-      <c r="H135" s="262"/>
+      <c r="G135" s="262"/>
+      <c r="H135" s="263"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -11832,12 +11832,12 @@
       <c r="O135" s="7"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
-      <c r="S135" s="263">
+      <c r="S135" s="264">
         <f>Q133+R133+S133+T133+U133+V133+W133+X133</f>
         <v>13753</v>
       </c>
-      <c r="T135" s="264"/>
-      <c r="U135" s="265"/>
+      <c r="T135" s="265"/>
+      <c r="U135" s="266"/>
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
@@ -11919,33 +11919,33 @@
     </row>
     <row r="142" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="7"/>
-      <c r="C142" s="253" t="s">
+      <c r="C142" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D142" s="254"/>
-      <c r="E142" s="254"/>
-      <c r="F142" s="254"/>
-      <c r="G142" s="254"/>
-      <c r="H142" s="254"/>
-      <c r="I142" s="254"/>
-      <c r="J142" s="254"/>
-      <c r="K142" s="254"/>
+      <c r="D142" s="255"/>
+      <c r="E142" s="255"/>
+      <c r="F142" s="255"/>
+      <c r="G142" s="255"/>
+      <c r="H142" s="255"/>
+      <c r="I142" s="255"/>
+      <c r="J142" s="255"/>
+      <c r="K142" s="255"/>
       <c r="L142" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M142" s="133"/>
       <c r="N142" s="81"/>
-      <c r="O142" s="255" t="s">
+      <c r="O142" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="P142" s="256"/>
-      <c r="Q142" s="256"/>
-      <c r="R142" s="256"/>
-      <c r="S142" s="256"/>
-      <c r="T142" s="256"/>
-      <c r="U142" s="256"/>
-      <c r="V142" s="256"/>
-      <c r="W142" s="256"/>
+      <c r="P142" s="257"/>
+      <c r="Q142" s="257"/>
+      <c r="R142" s="257"/>
+      <c r="S142" s="257"/>
+      <c r="T142" s="257"/>
+      <c r="U142" s="257"/>
+      <c r="V142" s="257"/>
+      <c r="W142" s="257"/>
       <c r="X142" s="190" t="s">
         <v>41</v>
       </c>
@@ -11953,21 +11953,21 @@
     <row r="143" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="1"/>
-      <c r="I143" s="257" t="s">
+      <c r="I143" s="258" t="s">
         <v>167</v>
       </c>
-      <c r="J143" s="258"/>
-      <c r="K143" s="259"/>
+      <c r="J143" s="259"/>
+      <c r="K143" s="260"/>
       <c r="L143" s="68"/>
       <c r="M143" s="134"/>
       <c r="N143" s="74"/>
       <c r="O143" s="7"/>
-      <c r="V143" s="257" t="str">
+      <c r="V143" s="258" t="str">
         <f>I143</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W143" s="258"/>
-      <c r="X143" s="259"/>
+      <c r="W143" s="259"/>
+      <c r="X143" s="260"/>
     </row>
     <row r="144" spans="1:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
@@ -12620,12 +12620,12 @@
       <c r="C161" s="1"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="260">
+      <c r="F161" s="261">
         <f>K159+J159+I159+H159+G159+F159+E159+D159+L159</f>
         <v>12113</v>
       </c>
-      <c r="G161" s="261"/>
-      <c r="H161" s="262"/>
+      <c r="G161" s="262"/>
+      <c r="H161" s="263"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -12635,12 +12635,12 @@
       <c r="O161" s="7"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-      <c r="S161" s="263">
+      <c r="S161" s="264">
         <f>Q159+R159+S159+T159+U159+V159+W159+X159</f>
         <v>19443</v>
       </c>
-      <c r="T161" s="264"/>
-      <c r="U161" s="265"/>
+      <c r="T161" s="265"/>
+      <c r="U161" s="266"/>
       <c r="V161" s="5"/>
       <c r="W161" s="5"/>
       <c r="X161" s="5"/>
@@ -12685,42 +12685,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C116:K116"/>
+    <mergeCell ref="O116:W116"/>
+    <mergeCell ref="I117:K117"/>
+    <mergeCell ref="V117:X117"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="S135:U135"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="O60:W60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="O142:W142"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="V143:X143"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="S161:U161"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="S110:U110"/>
     <mergeCell ref="C30:K30"/>
     <mergeCell ref="O30:W30"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="V31:X31"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="S49:U49"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="V92:X92"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="S110:U110"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="O142:W142"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="V143:X143"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="S161:U161"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="O60:W60"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C116:K116"/>
-    <mergeCell ref="O116:W116"/>
-    <mergeCell ref="I117:K117"/>
-    <mergeCell ref="V117:X117"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="S135:U135"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12768,51 +12768,51 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="253" t="s">
+      <c r="C2" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
       <c r="L2" s="185" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="255" t="s">
+      <c r="O2" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
-      <c r="R2" s="256"/>
-      <c r="S2" s="256"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="257"/>
+      <c r="S2" s="257"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
       <c r="X2" s="187" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="257" t="s">
+      <c r="I3" s="258" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
+      <c r="J3" s="259"/>
+      <c r="K3" s="260"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
-      <c r="V3" s="257" t="s">
+      <c r="V3" s="258" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="258"/>
-      <c r="X3" s="259"/>
+      <c r="W3" s="259"/>
+      <c r="X3" s="260"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -13479,12 +13479,12 @@
     <row r="21" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="260">
+      <c r="F21" s="261">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>15022</v>
       </c>
-      <c r="G21" s="261"/>
-      <c r="H21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="263"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -13493,12 +13493,12 @@
       <c r="N21" s="74"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="263">
+      <c r="S21" s="264">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>23024</v>
       </c>
-      <c r="T21" s="264"/>
-      <c r="U21" s="265"/>
+      <c r="T21" s="265"/>
+      <c r="U21" s="266"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -13551,51 +13551,51 @@
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="253" t="s">
+      <c r="C32" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="254"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="254"/>
-      <c r="H32" s="254"/>
-      <c r="I32" s="254"/>
-      <c r="J32" s="254"/>
-      <c r="K32" s="254"/>
+      <c r="D32" s="255"/>
+      <c r="E32" s="255"/>
+      <c r="F32" s="255"/>
+      <c r="G32" s="255"/>
+      <c r="H32" s="255"/>
+      <c r="I32" s="255"/>
+      <c r="J32" s="255"/>
+      <c r="K32" s="255"/>
       <c r="L32" s="185" t="s">
         <v>208</v>
       </c>
       <c r="M32" s="133"/>
       <c r="N32" s="81"/>
-      <c r="O32" s="266" t="s">
+      <c r="O32" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="267"/>
-      <c r="Q32" s="267"/>
-      <c r="R32" s="267"/>
-      <c r="S32" s="267"/>
-      <c r="T32" s="267"/>
-      <c r="U32" s="267"/>
-      <c r="V32" s="267"/>
-      <c r="W32" s="267"/>
+      <c r="P32" s="268"/>
+      <c r="Q32" s="268"/>
+      <c r="R32" s="268"/>
+      <c r="S32" s="268"/>
+      <c r="T32" s="268"/>
+      <c r="U32" s="268"/>
+      <c r="V32" s="268"/>
+      <c r="W32" s="268"/>
       <c r="X32" s="128" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="33" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="257" t="s">
+      <c r="I33" s="258" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="258"/>
-      <c r="K33" s="259"/>
+      <c r="J33" s="259"/>
+      <c r="K33" s="260"/>
       <c r="L33" s="68"/>
       <c r="M33" s="134"/>
       <c r="N33" s="74"/>
-      <c r="V33" s="257" t="s">
+      <c r="V33" s="258" t="s">
         <v>150</v>
       </c>
-      <c r="W33" s="258"/>
-      <c r="X33" s="259"/>
+      <c r="W33" s="259"/>
+      <c r="X33" s="260"/>
     </row>
     <row r="34" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
@@ -14251,12 +14251,12 @@
     <row r="51" spans="3:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="260">
+      <c r="F51" s="261">
         <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
         <v>14572.5</v>
       </c>
-      <c r="G51" s="261"/>
-      <c r="H51" s="262"/>
+      <c r="G51" s="262"/>
+      <c r="H51" s="263"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -14265,12 +14265,12 @@
       <c r="N51" s="74"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="263">
+      <c r="S51" s="264">
         <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
         <v>21274</v>
       </c>
-      <c r="T51" s="264"/>
-      <c r="U51" s="265"/>
+      <c r="T51" s="265"/>
+      <c r="U51" s="266"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -14335,51 +14335,51 @@
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C66" s="253" t="s">
+      <c r="C66" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="254"/>
-      <c r="E66" s="254"/>
-      <c r="F66" s="254"/>
-      <c r="G66" s="254"/>
-      <c r="H66" s="254"/>
-      <c r="I66" s="254"/>
-      <c r="J66" s="254"/>
-      <c r="K66" s="254"/>
+      <c r="D66" s="255"/>
+      <c r="E66" s="255"/>
+      <c r="F66" s="255"/>
+      <c r="G66" s="255"/>
+      <c r="H66" s="255"/>
+      <c r="I66" s="255"/>
+      <c r="J66" s="255"/>
+      <c r="K66" s="255"/>
       <c r="L66" s="84" t="s">
         <v>88</v>
       </c>
       <c r="M66" s="83"/>
       <c r="N66" s="81"/>
-      <c r="O66" s="266" t="s">
+      <c r="O66" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="P66" s="267"/>
-      <c r="Q66" s="267"/>
-      <c r="R66" s="267"/>
-      <c r="S66" s="267"/>
-      <c r="T66" s="267"/>
-      <c r="U66" s="267"/>
-      <c r="V66" s="267"/>
-      <c r="W66" s="267"/>
+      <c r="P66" s="268"/>
+      <c r="Q66" s="268"/>
+      <c r="R66" s="268"/>
+      <c r="S66" s="268"/>
+      <c r="T66" s="268"/>
+      <c r="U66" s="268"/>
+      <c r="V66" s="268"/>
+      <c r="W66" s="268"/>
       <c r="X66" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I67" s="257" t="s">
+      <c r="I67" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="J67" s="258"/>
-      <c r="K67" s="259"/>
+      <c r="J67" s="259"/>
+      <c r="K67" s="260"/>
       <c r="L67" s="68"/>
       <c r="M67" s="59"/>
       <c r="N67" s="74"/>
-      <c r="V67" s="257" t="s">
+      <c r="V67" s="258" t="s">
         <v>107</v>
       </c>
-      <c r="W67" s="258"/>
-      <c r="X67" s="259"/>
+      <c r="W67" s="259"/>
+      <c r="X67" s="260"/>
     </row>
     <row r="68" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -15055,12 +15055,12 @@
     <row r="85" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="260">
+      <c r="F85" s="261">
         <f>K83+J83+I83+H83+G83+F83+E83+D83+L83</f>
         <v>9784</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="262"/>
+      <c r="G85" s="262"/>
+      <c r="H85" s="263"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -15069,12 +15069,12 @@
       <c r="N85" s="74"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-      <c r="S85" s="263">
+      <c r="S85" s="264">
         <f>Q83+R83+S83+T83+U83+V83+W83+X83</f>
         <v>18984.5</v>
       </c>
-      <c r="T85" s="264"/>
-      <c r="U85" s="265"/>
+      <c r="T85" s="265"/>
+      <c r="U85" s="266"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
@@ -15127,51 +15127,51 @@
     </row>
     <row r="96" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C97" s="253" t="s">
+      <c r="C97" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="254"/>
-      <c r="E97" s="254"/>
-      <c r="F97" s="254"/>
-      <c r="G97" s="254"/>
-      <c r="H97" s="254"/>
-      <c r="I97" s="254"/>
-      <c r="J97" s="254"/>
-      <c r="K97" s="254"/>
+      <c r="D97" s="255"/>
+      <c r="E97" s="255"/>
+      <c r="F97" s="255"/>
+      <c r="G97" s="255"/>
+      <c r="H97" s="255"/>
+      <c r="I97" s="255"/>
+      <c r="J97" s="255"/>
+      <c r="K97" s="255"/>
       <c r="L97" s="84" t="s">
         <v>66</v>
       </c>
       <c r="M97" s="83"/>
       <c r="N97" s="81"/>
-      <c r="O97" s="266" t="s">
+      <c r="O97" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="P97" s="267"/>
-      <c r="Q97" s="267"/>
-      <c r="R97" s="267"/>
-      <c r="S97" s="267"/>
-      <c r="T97" s="267"/>
-      <c r="U97" s="267"/>
-      <c r="V97" s="267"/>
-      <c r="W97" s="267"/>
+      <c r="P97" s="268"/>
+      <c r="Q97" s="268"/>
+      <c r="R97" s="268"/>
+      <c r="S97" s="268"/>
+      <c r="T97" s="268"/>
+      <c r="U97" s="268"/>
+      <c r="V97" s="268"/>
+      <c r="W97" s="268"/>
       <c r="X97" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="98" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I98" s="257" t="s">
+      <c r="I98" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="258"/>
-      <c r="K98" s="259"/>
+      <c r="J98" s="259"/>
+      <c r="K98" s="260"/>
       <c r="L98" s="68"/>
       <c r="M98" s="59"/>
       <c r="N98" s="74"/>
-      <c r="V98" s="257" t="s">
+      <c r="V98" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="W98" s="258"/>
-      <c r="X98" s="259"/>
+      <c r="W98" s="259"/>
+      <c r="X98" s="260"/>
     </row>
     <row r="99" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
@@ -15843,12 +15843,12 @@
     <row r="116" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="260">
+      <c r="F116" s="261">
         <f>K114+J114+I114+H114+G114+F114+E114+D114+L114</f>
         <v>13702.5</v>
       </c>
-      <c r="G116" s="261"/>
-      <c r="H116" s="262"/>
+      <c r="G116" s="262"/>
+      <c r="H116" s="263"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -15857,12 +15857,12 @@
       <c r="N116" s="74"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-      <c r="S116" s="263">
+      <c r="S116" s="264">
         <f>Q114+R114+S114+T114+U114+V114+W114+X114</f>
         <v>19583</v>
       </c>
-      <c r="T116" s="264"/>
-      <c r="U116" s="265"/>
+      <c r="T116" s="265"/>
+      <c r="U116" s="266"/>
       <c r="V116" s="5">
         <v>19583</v>
       </c>
@@ -15917,48 +15917,48 @@
     </row>
     <row r="129" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C130" s="253" t="s">
+      <c r="C130" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D130" s="254"/>
-      <c r="E130" s="254"/>
-      <c r="F130" s="254"/>
-      <c r="G130" s="254"/>
-      <c r="H130" s="254"/>
-      <c r="I130" s="254"/>
-      <c r="J130" s="254"/>
-      <c r="K130" s="254"/>
+      <c r="D130" s="255"/>
+      <c r="E130" s="255"/>
+      <c r="F130" s="255"/>
+      <c r="G130" s="255"/>
+      <c r="H130" s="255"/>
+      <c r="I130" s="255"/>
+      <c r="J130" s="255"/>
+      <c r="K130" s="255"/>
       <c r="L130" s="84" t="s">
         <v>42</v>
       </c>
       <c r="M130" s="83"/>
       <c r="N130" s="81"/>
-      <c r="O130" s="266" t="s">
+      <c r="O130" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="P130" s="267"/>
-      <c r="Q130" s="267"/>
-      <c r="R130" s="267"/>
-      <c r="S130" s="267"/>
-      <c r="T130" s="267"/>
-      <c r="U130" s="267"/>
-      <c r="V130" s="267"/>
-      <c r="W130" s="267"/>
+      <c r="P130" s="268"/>
+      <c r="Q130" s="268"/>
+      <c r="R130" s="268"/>
+      <c r="S130" s="268"/>
+      <c r="T130" s="268"/>
+      <c r="U130" s="268"/>
+      <c r="V130" s="268"/>
+      <c r="W130" s="268"/>
       <c r="X130" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="131" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I131" s="257" t="s">
+      <c r="I131" s="258" t="s">
         <v>67</v>
       </c>
-      <c r="J131" s="258"/>
-      <c r="K131" s="259"/>
+      <c r="J131" s="259"/>
+      <c r="K131" s="260"/>
       <c r="L131" s="68"/>
       <c r="M131" s="59"/>
       <c r="N131" s="74"/>
-      <c r="W131" s="258"/>
-      <c r="X131" s="259"/>
+      <c r="W131" s="259"/>
+      <c r="X131" s="260"/>
     </row>
     <row r="132" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
@@ -16625,12 +16625,12 @@
     <row r="149" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="260">
+      <c r="F149" s="261">
         <f>K147+J147+I147+H147+G147+F147+E147+D147+L147</f>
         <v>13447.5</v>
       </c>
-      <c r="G149" s="261"/>
-      <c r="H149" s="262"/>
+      <c r="G149" s="262"/>
+      <c r="H149" s="263"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
         <v>13447.5</v>
@@ -16641,12 +16641,12 @@
       <c r="N149" s="74"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-      <c r="S149" s="263">
+      <c r="S149" s="264">
         <f>Q147+R147+S147+T147+U147+V147+W147+X147</f>
         <v>19080.5</v>
       </c>
-      <c r="T149" s="264"/>
-      <c r="U149" s="265"/>
+      <c r="T149" s="265"/>
+      <c r="U149" s="266"/>
       <c r="V149" s="5">
         <v>19080.5</v>
       </c>
@@ -16725,48 +16725,48 @@
     </row>
     <row r="155" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="156" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C156" s="253" t="s">
+      <c r="C156" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D156" s="254"/>
-      <c r="E156" s="254"/>
-      <c r="F156" s="254"/>
-      <c r="G156" s="254"/>
-      <c r="H156" s="254"/>
-      <c r="I156" s="254"/>
-      <c r="J156" s="254"/>
-      <c r="K156" s="254"/>
+      <c r="D156" s="255"/>
+      <c r="E156" s="255"/>
+      <c r="F156" s="255"/>
+      <c r="G156" s="255"/>
+      <c r="H156" s="255"/>
+      <c r="I156" s="255"/>
+      <c r="J156" s="255"/>
+      <c r="K156" s="255"/>
       <c r="L156" s="84" t="s">
         <v>41</v>
       </c>
       <c r="M156" s="83"/>
       <c r="N156" s="81"/>
-      <c r="O156" s="266" t="s">
+      <c r="O156" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="P156" s="267"/>
-      <c r="Q156" s="267"/>
-      <c r="R156" s="267"/>
-      <c r="S156" s="267"/>
-      <c r="T156" s="267"/>
-      <c r="U156" s="267"/>
-      <c r="V156" s="267"/>
-      <c r="W156" s="267"/>
+      <c r="P156" s="268"/>
+      <c r="Q156" s="268"/>
+      <c r="R156" s="268"/>
+      <c r="S156" s="268"/>
+      <c r="T156" s="268"/>
+      <c r="U156" s="268"/>
+      <c r="V156" s="268"/>
+      <c r="W156" s="268"/>
       <c r="X156" s="85" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="157" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I157" s="257" t="s">
+      <c r="I157" s="258" t="s">
         <v>37</v>
       </c>
-      <c r="J157" s="258"/>
-      <c r="K157" s="259"/>
+      <c r="J157" s="259"/>
+      <c r="K157" s="260"/>
       <c r="L157" s="68"/>
       <c r="M157" s="59"/>
       <c r="N157" s="74"/>
-      <c r="W157" s="258"/>
-      <c r="X157" s="259"/>
+      <c r="W157" s="259"/>
+      <c r="X157" s="260"/>
     </row>
     <row r="158" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
@@ -17983,12 +17983,12 @@
     <row r="184" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="268">
+      <c r="F184" s="269">
         <f>K182+J182+I182+H182+G182+F182+E182+D182</f>
         <v>13579</v>
       </c>
-      <c r="G184" s="261"/>
-      <c r="H184" s="262"/>
+      <c r="G184" s="262"/>
+      <c r="H184" s="263"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5">
         <v>13579</v>
@@ -17999,12 +17999,12 @@
       <c r="N184" s="74"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-      <c r="S184" s="263">
+      <c r="S184" s="264">
         <f>Q182+R182+S182+T182+U182+V182+W182+X182</f>
         <v>20452</v>
       </c>
-      <c r="T184" s="264"/>
-      <c r="U184" s="265"/>
+      <c r="T184" s="265"/>
+      <c r="U184" s="266"/>
       <c r="V184" s="5">
         <v>20452</v>
       </c>
@@ -18091,42 +18091,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="O97:W97"/>
+    <mergeCell ref="S116:U116"/>
+    <mergeCell ref="V98:X98"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="C156:K156"/>
+    <mergeCell ref="S184:U184"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="O156:W156"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="O130:W130"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="S149:U149"/>
     <mergeCell ref="C66:K66"/>
     <mergeCell ref="O66:W66"/>
     <mergeCell ref="I67:K67"/>
     <mergeCell ref="V67:X67"/>
     <mergeCell ref="F85:H85"/>
     <mergeCell ref="S85:U85"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="O130:W130"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="S149:U149"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="C156:K156"/>
-    <mergeCell ref="S184:U184"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="O156:W156"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="O97:W97"/>
-    <mergeCell ref="S116:U116"/>
-    <mergeCell ref="V98:X98"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18158,51 +18158,51 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="253" t="s">
+      <c r="D2" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="253" t="s">
+      <c r="T2" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="254"/>
-      <c r="AA2" s="254"/>
-      <c r="AB2" s="254"/>
+      <c r="U2" s="255"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="255"/>
+      <c r="AA2" s="255"/>
+      <c r="AB2" s="255"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="257" t="s">
+      <c r="J3" s="258" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="258"/>
-      <c r="L3" s="269"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="270"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="257" t="s">
+      <c r="Z3" s="258" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="259"/>
+      <c r="AA3" s="259"/>
+      <c r="AB3" s="260"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -18727,51 +18727,51 @@
     <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="7"/>
-      <c r="D16" s="266" t="s">
+      <c r="D16" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="267"/>
-      <c r="F16" s="267"/>
-      <c r="G16" s="267"/>
-      <c r="H16" s="267"/>
-      <c r="I16" s="267"/>
-      <c r="J16" s="267"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="267"/>
+      <c r="E16" s="268"/>
+      <c r="F16" s="268"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="268"/>
+      <c r="J16" s="268"/>
+      <c r="K16" s="268"/>
+      <c r="L16" s="268"/>
       <c r="M16" s="171"/>
       <c r="N16" s="151"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="266" t="s">
+      <c r="T16" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="267"/>
-      <c r="V16" s="267"/>
-      <c r="W16" s="267"/>
-      <c r="X16" s="267"/>
-      <c r="Y16" s="267"/>
-      <c r="Z16" s="267"/>
-      <c r="AA16" s="267"/>
-      <c r="AB16" s="267"/>
+      <c r="U16" s="268"/>
+      <c r="V16" s="268"/>
+      <c r="W16" s="268"/>
+      <c r="X16" s="268"/>
+      <c r="Y16" s="268"/>
+      <c r="Z16" s="268"/>
+      <c r="AA16" s="268"/>
+      <c r="AB16" s="268"/>
       <c r="AC16" s="171"/>
       <c r="AD16" s="151"/>
     </row>
     <row r="17" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
-      <c r="J17" s="257" t="s">
+      <c r="J17" s="258" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="258"/>
-      <c r="L17" s="269"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="270"/>
       <c r="M17" s="68"/>
       <c r="N17" s="152"/>
       <c r="S17" s="7"/>
       <c r="T17" s="1"/>
-      <c r="Z17" s="257" t="s">
+      <c r="Z17" s="258" t="s">
         <v>184</v>
       </c>
-      <c r="AA17" s="258"/>
-      <c r="AB17" s="259"/>
+      <c r="AA17" s="259"/>
+      <c r="AB17" s="260"/>
       <c r="AC17" s="68"/>
       <c r="AD17" s="152"/>
     </row>
@@ -19301,68 +19301,68 @@
     <row r="1" spans="2:47" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:47" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="253" t="s">
+      <c r="D2" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="253" t="s">
+      <c r="U2" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="254"/>
-      <c r="AA2" s="254"/>
-      <c r="AB2" s="254"/>
-      <c r="AC2" s="254"/>
+      <c r="V2" s="255"/>
+      <c r="W2" s="255"/>
+      <c r="X2" s="255"/>
+      <c r="Y2" s="255"/>
+      <c r="Z2" s="255"/>
+      <c r="AA2" s="255"/>
+      <c r="AB2" s="255"/>
+      <c r="AC2" s="255"/>
       <c r="AD2" s="84"/>
       <c r="AE2" s="151"/>
       <c r="AI2" s="7"/>
-      <c r="AJ2" s="253" t="s">
+      <c r="AJ2" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="254"/>
-      <c r="AL2" s="254"/>
-      <c r="AM2" s="254"/>
-      <c r="AN2" s="254"/>
-      <c r="AO2" s="254"/>
-      <c r="AP2" s="254"/>
-      <c r="AQ2" s="254"/>
-      <c r="AR2" s="254"/>
+      <c r="AK2" s="255"/>
+      <c r="AL2" s="255"/>
+      <c r="AM2" s="255"/>
+      <c r="AN2" s="255"/>
+      <c r="AO2" s="255"/>
+      <c r="AP2" s="255"/>
+      <c r="AQ2" s="255"/>
+      <c r="AR2" s="255"/>
       <c r="AS2" s="84"/>
       <c r="AT2" s="151"/>
     </row>
     <row r="3" spans="2:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="258"/>
-      <c r="L3" s="269"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="270"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="T3" s="7"/>
       <c r="U3" s="1"/>
-      <c r="AA3" s="257"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="269"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="259"/>
+      <c r="AC3" s="270"/>
       <c r="AD3" s="68"/>
       <c r="AE3" s="152"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="1"/>
-      <c r="AP3" s="257"/>
-      <c r="AQ3" s="258"/>
-      <c r="AR3" s="259"/>
+      <c r="AP3" s="258"/>
+      <c r="AQ3" s="259"/>
+      <c r="AR3" s="260"/>
       <c r="AS3" s="68"/>
       <c r="AT3" s="152"/>
     </row>
@@ -19786,12 +19786,12 @@
       <c r="AJ7" s="153"/>
       <c r="AK7" s="225"/>
       <c r="AL7" s="227"/>
-      <c r="AM7" s="276" t="s">
+      <c r="AM7" s="277" t="s">
         <v>192</v>
       </c>
-      <c r="AN7" s="276"/>
-      <c r="AO7" s="276"/>
-      <c r="AP7" s="277"/>
+      <c r="AN7" s="277"/>
+      <c r="AO7" s="277"/>
+      <c r="AP7" s="278"/>
       <c r="AQ7" s="226"/>
       <c r="AR7" s="225"/>
       <c r="AS7" s="228"/>
@@ -19975,12 +19975,12 @@
       <c r="B10" s="154"/>
       <c r="E10" s="30"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="270" t="s">
+      <c r="G10" s="271" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="271"/>
-      <c r="I10" s="271"/>
-      <c r="J10" s="272"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="272"/>
+      <c r="J10" s="273"/>
       <c r="K10" s="22"/>
       <c r="L10" s="157"/>
       <c r="M10" s="77"/>
@@ -19990,12 +19990,12 @@
       <c r="S10" s="154"/>
       <c r="V10" s="30"/>
       <c r="W10" s="31"/>
-      <c r="X10" s="278" t="s">
+      <c r="X10" s="279" t="s">
         <v>193</v>
       </c>
-      <c r="Y10" s="279"/>
-      <c r="Z10" s="279"/>
-      <c r="AA10" s="280"/>
+      <c r="Y10" s="280"/>
+      <c r="Z10" s="280"/>
+      <c r="AA10" s="281"/>
       <c r="AB10" s="22"/>
       <c r="AC10" s="157"/>
       <c r="AD10" s="77"/>
@@ -20421,45 +20421,45 @@
     </row>
     <row r="22" spans="2:47" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="7"/>
-      <c r="D22" s="266" t="s">
+      <c r="D22" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="267"/>
-      <c r="F22" s="267"/>
-      <c r="G22" s="267"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="267"/>
-      <c r="J22" s="267"/>
-      <c r="K22" s="267"/>
-      <c r="L22" s="273"/>
+      <c r="E22" s="268"/>
+      <c r="F22" s="268"/>
+      <c r="G22" s="268"/>
+      <c r="H22" s="268"/>
+      <c r="I22" s="268"/>
+      <c r="J22" s="268"/>
+      <c r="K22" s="268"/>
+      <c r="L22" s="276"/>
       <c r="M22" s="171"/>
       <c r="N22" s="151"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="266" t="s">
+      <c r="U22" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="V22" s="267"/>
-      <c r="W22" s="267"/>
-      <c r="X22" s="267"/>
-      <c r="Y22" s="267"/>
-      <c r="Z22" s="267"/>
-      <c r="AA22" s="267"/>
-      <c r="AB22" s="267"/>
-      <c r="AC22" s="273"/>
+      <c r="V22" s="268"/>
+      <c r="W22" s="268"/>
+      <c r="X22" s="268"/>
+      <c r="Y22" s="268"/>
+      <c r="Z22" s="268"/>
+      <c r="AA22" s="268"/>
+      <c r="AB22" s="268"/>
+      <c r="AC22" s="276"/>
       <c r="AD22" s="171"/>
       <c r="AE22" s="151"/>
       <c r="AI22" s="7"/>
-      <c r="AJ22" s="266" t="s">
+      <c r="AJ22" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="AK22" s="267"/>
-      <c r="AL22" s="267"/>
-      <c r="AM22" s="267"/>
-      <c r="AN22" s="267"/>
-      <c r="AO22" s="267"/>
-      <c r="AP22" s="267"/>
-      <c r="AQ22" s="267"/>
-      <c r="AR22" s="267"/>
+      <c r="AK22" s="268"/>
+      <c r="AL22" s="268"/>
+      <c r="AM22" s="268"/>
+      <c r="AN22" s="268"/>
+      <c r="AO22" s="268"/>
+      <c r="AP22" s="268"/>
+      <c r="AQ22" s="268"/>
+      <c r="AR22" s="268"/>
       <c r="AS22" s="171"/>
       <c r="AT22" s="151"/>
     </row>
@@ -20480,9 +20480,9 @@
       <c r="AE23" s="152"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="1"/>
-      <c r="AP23" s="257"/>
-      <c r="AQ23" s="258"/>
-      <c r="AR23" s="259"/>
+      <c r="AP23" s="258"/>
+      <c r="AQ23" s="259"/>
+      <c r="AR23" s="260"/>
       <c r="AS23" s="68"/>
       <c r="AT23" s="152"/>
     </row>
@@ -21075,12 +21075,12 @@
       <c r="B30" s="154"/>
       <c r="E30" s="30"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="270" t="s">
+      <c r="G30" s="271" t="s">
         <v>267</v>
       </c>
-      <c r="H30" s="271"/>
-      <c r="I30" s="271"/>
-      <c r="J30" s="272"/>
+      <c r="H30" s="272"/>
+      <c r="I30" s="272"/>
+      <c r="J30" s="273"/>
       <c r="K30" s="22"/>
       <c r="L30" s="157"/>
       <c r="M30" s="77"/>
@@ -21090,12 +21090,12 @@
       <c r="S30" s="154"/>
       <c r="V30" s="30"/>
       <c r="W30" s="31"/>
-      <c r="X30" s="270" t="s">
+      <c r="X30" s="271" t="s">
         <v>193</v>
       </c>
-      <c r="Y30" s="271"/>
-      <c r="Z30" s="271"/>
-      <c r="AA30" s="272"/>
+      <c r="Y30" s="272"/>
+      <c r="Z30" s="272"/>
+      <c r="AA30" s="273"/>
       <c r="AB30" s="22"/>
       <c r="AC30" s="157"/>
       <c r="AD30" s="77"/>
@@ -21229,22 +21229,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="U22:AC22"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AJ2:AR2"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AJ22:AR22"/>
     <mergeCell ref="AP23:AR23"/>
     <mergeCell ref="U2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="U22:AC22"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="11685" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="11685" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja5" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="306">
   <si>
     <t>FECHA</t>
   </si>
@@ -933,6 +933,54 @@
   </si>
   <si>
     <t>Poblano-cebolla-papa-zanahoria-tomate-chicharo-tampico-serrano-ajo-aguacate-jitomate-tomate-limon-lechuga-rabanos-tomillo</t>
+  </si>
+  <si>
+    <t>del   11- al  17   NOVIEMBRE  2023</t>
+  </si>
+  <si>
+    <t>11--AL---17--Nov-23</t>
+  </si>
+  <si>
+    <t>Papa--Jalapeño--Cebolla-Calabaza-Ajo--Tomate--Zanahoria -elotes-pepino--Jitomate</t>
+  </si>
+  <si>
+    <t>sandia--Guanabana--papaya</t>
+  </si>
+  <si>
+    <t>Chipotle-Elote--Café legal--Aceite--Arroz-Yogurt--mayonesa--leche</t>
+  </si>
+  <si>
+    <t>Jamaica--costeño--arbol--canela</t>
+  </si>
+  <si>
+    <t>Papa--Jalapeño--cebolla-Ajo--Tomate--Zanahoria--Tampico--Serrano--Jitomate--Calabaza---elotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maracuya--Naranja--Guayaba--Sandias--Papaya</t>
+  </si>
+  <si>
+    <t>Lechugas-oregano-tomillo-manzanilla-telimon--laurel</t>
+  </si>
+  <si>
+    <t>AZUCAR 11-Nov-23</t>
+  </si>
+  <si>
+    <t>AZUCAR 21-Oct-23</t>
+  </si>
+  <si>
+    <t>Tamarindo--Chile costeño--ancho--pulla--guajillo--Frijol</t>
+  </si>
+  <si>
+    <t>Rajas--elote--Norzuisa 13-Kg--Italpasta--aceite-cucharas--aceite oliva-- Yigurt--Papel mixiote</t>
+  </si>
+  <si>
+    <t>Jamon--Bistec pco--quesos-crema--retazo-salchicha-jamon-quesillo-milanesa pollo--papa francesa-condimento--pollo--Trozos limpios --maiz abuela--centro codillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso--bisteck cdo--salchicha-jamon-crema-retazi-quesillo-milanesa pollo-papa francesa-pollo--centro de codillo-trozo limpio--maiz </t>
+  </si>
+  <si>
+    <t>lechuga-cilantro-epazote-oregano-tomillo--Rabano</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1961,12 +2009,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2651,14 +2712,14 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2689,6 +2750,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5042,7 +5110,7 @@
       <c r="T2" s="268"/>
       <c r="U2" s="268"/>
       <c r="V2" s="268"/>
-      <c r="W2" s="276"/>
+      <c r="W2" s="274"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -6440,10 +6508,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:Y51"/>
+  <dimension ref="B1:AA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:Y23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6457,182 +6526,221 @@
     <col min="23" max="23" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="7"/>
+      <c r="C1" s="254" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="133"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="256" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="257"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="257"/>
+      <c r="S1" s="257"/>
+      <c r="T1" s="257"/>
+      <c r="U1" s="257"/>
+      <c r="V1" s="257"/>
+      <c r="W1" s="257"/>
+      <c r="X1" s="190" t="str">
+        <f>L1</f>
+        <v># 03</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
-      <c r="C2" s="254" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="133"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="256" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="257"/>
-      <c r="V2" s="257"/>
-      <c r="W2" s="257"/>
-      <c r="X2" s="190" t="str">
-        <f>L2</f>
-        <v># 02</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="1"/>
-      <c r="I3" s="258" t="s">
-        <v>275</v>
-      </c>
-      <c r="J3" s="259"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="7"/>
-      <c r="V3" s="258" t="str">
-        <f>I3</f>
-        <v>del   04- al  10   NOVIEMBRE  2023</v>
-      </c>
-      <c r="W3" s="259"/>
-      <c r="X3" s="260"/>
-    </row>
-    <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="C2" s="1"/>
+      <c r="I2" s="258" t="s">
+        <v>290</v>
+      </c>
+      <c r="J2" s="259"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="7"/>
+      <c r="V2" s="258" t="str">
+        <f>I2</f>
+        <v>del   11- al  17   NOVIEMBRE  2023</v>
+      </c>
+      <c r="W2" s="259"/>
+      <c r="X2" s="260"/>
+    </row>
+    <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="184" t="s">
+      <c r="I3" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="183" t="s">
+      <c r="K3" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="99" t="s">
+      <c r="L3" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="135"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="143" t="s">
+      <c r="M3" s="135"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="137" t="s">
+      <c r="Q3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="138" t="s">
+      <c r="R3" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="138" t="s">
+      <c r="S3" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="137" t="s">
+      <c r="T3" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="137" t="s">
+      <c r="U3" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="141" t="s">
+      <c r="V3" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="136" t="s">
+      <c r="W3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="142" t="s">
+      <c r="X3" s="142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="234" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72">
+        <f>316+937+1186+1164+768+820</f>
+        <v>5191</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="P4" s="234" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72">
+        <f>184+1284+1811+1266+987+730+480</f>
+        <v>6742</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="234" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72">
-        <f>646+1044+2378+1876</f>
-        <v>5944</v>
-      </c>
-      <c r="L5" s="71"/>
+        <v>291</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67">
+        <f>801+75+66+392</f>
+        <v>1334</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="131"/>
       <c r="N5" s="74"/>
       <c r="O5" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P5" s="234" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72">
-        <f>240+2971+420+200+2107+808</f>
-        <v>6746</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67">
+        <f>1719+66+700+75</f>
+        <v>2560</v>
+      </c>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+    </row>
+    <row r="6" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="67">
-        <f>1194+462+194+25+50</f>
-        <v>1925</v>
-      </c>
-      <c r="G6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67">
+        <f>60+40</f>
+        <v>100</v>
+      </c>
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
@@ -6641,33 +6749,33 @@
       <c r="M6" s="131"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q6" s="67"/>
+        <v>297</v>
+      </c>
+      <c r="Q6" s="67">
+        <f>220+100+200+360+375</f>
+        <v>1255</v>
+      </c>
       <c r="R6" s="67"/>
-      <c r="S6" s="67">
-        <f>120+2030+132+800+200+50+50</f>
-        <v>3382</v>
-      </c>
+      <c r="S6" s="67"/>
       <c r="T6" s="67"/>
       <c r="U6" s="67"/>
       <c r="V6" s="67"/>
       <c r="W6" s="67"/>
       <c r="X6" s="67"/>
     </row>
-    <row r="7" spans="2:25" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>279</v>
+        <v>291</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>293</v>
       </c>
       <c r="D7" s="67">
-        <f>67+180+50+175+240</f>
-        <v>712</v>
+        <f>50+160+260</f>
+        <v>470</v>
       </c>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
@@ -6680,47 +6788,47 @@
       <c r="M7" s="131"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P7" s="44" t="s">
-        <v>282</v>
+        <v>291</v>
+      </c>
+      <c r="P7" s="239" t="s">
+        <v>298</v>
       </c>
       <c r="Q7" s="67"/>
       <c r="R7" s="67"/>
       <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
+      <c r="T7" s="67">
+        <v>90</v>
+      </c>
       <c r="U7" s="67"/>
       <c r="V7" s="67"/>
-      <c r="W7" s="67">
-        <f>514+510+1374+52.5+35+76.5</f>
-        <v>2562</v>
-      </c>
+      <c r="W7" s="67"/>
       <c r="X7" s="67"/>
     </row>
-    <row r="8" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>4</v>
+        <v>291</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
-      <c r="I8" s="67">
-        <v>86</v>
-      </c>
-      <c r="J8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67">
+        <f>1094+127+315</f>
+        <v>1536</v>
+      </c>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
       <c r="M8" s="131"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P8" s="239" t="s">
+        <v>291</v>
+      </c>
+      <c r="P8" s="95" t="s">
         <v>4</v>
       </c>
       <c r="Q8" s="67"/>
@@ -6728,83 +6836,84 @@
       <c r="S8" s="67"/>
       <c r="T8" s="67"/>
       <c r="U8" s="67">
-        <f>462+916</f>
-        <v>1378</v>
+        <v>914</v>
       </c>
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
-    </row>
-    <row r="9" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="242"/>
+    </row>
+    <row r="9" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>277</v>
+        <v>291</v>
+      </c>
+      <c r="C9" s="287" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67">
-        <f>322+69+126</f>
-        <v>517</v>
-      </c>
+      <c r="I9" s="67">
+        <v>452</v>
+      </c>
+      <c r="J9" s="67"/>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P9" s="95" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q9" s="67">
-        <f>71+220+350+175</f>
-        <v>816</v>
-      </c>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="242"/>
-    </row>
-    <row r="10" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="P9" s="195" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72">
+        <v>1455</v>
+      </c>
+      <c r="X9" s="288"/>
+      <c r="Y9" s="289" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="253" t="s">
-        <v>278</v>
+        <v>291</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>295</v>
       </c>
       <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
+      <c r="E10" s="67">
+        <f>180+300</f>
+        <v>480</v>
+      </c>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
       <c r="I10" s="67"/>
-      <c r="J10" s="67">
-        <v>1455</v>
-      </c>
+      <c r="J10" s="94"/>
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="131"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P10" s="195" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="P10" s="194" t="s">
+        <v>301</v>
       </c>
       <c r="Q10" s="72"/>
       <c r="R10" s="72">
-        <f>740+546</f>
-        <v>1286</v>
+        <f>96+505+942</f>
+        <v>1543</v>
       </c>
       <c r="S10" s="72"/>
       <c r="T10" s="72"/>
@@ -6812,61 +6921,62 @@
       <c r="V10" s="72"/>
       <c r="W10" s="72"/>
       <c r="X10" s="67"/>
-    </row>
-    <row r="11" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y10" s="129"/>
+    </row>
+    <row r="11" spans="2:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>280</v>
+        <v>291</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>96</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
-      <c r="G11" s="67">
-        <v>15</v>
-      </c>
-      <c r="H11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67">
+        <f>51+170+68+85+85</f>
+        <v>459</v>
+      </c>
       <c r="I11" s="67"/>
-      <c r="J11" s="94"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="67"/>
       <c r="L11" s="67"/>
       <c r="M11" s="131"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P11" s="194" t="s">
-        <v>285</v>
+        <v>291</v>
+      </c>
+      <c r="P11" s="90" t="s">
+        <v>302</v>
       </c>
       <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
       <c r="S11" s="72"/>
-      <c r="T11" s="72">
-        <f>25+50</f>
-        <v>75</v>
-      </c>
+      <c r="T11" s="72"/>
       <c r="U11" s="72"/>
       <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
+      <c r="W11" s="72">
+        <f>1639.5+90+812+127+795</f>
+        <v>3463.5</v>
+      </c>
       <c r="X11" s="67"/>
-      <c r="Y11" s="129"/>
-    </row>
-    <row r="12" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="D12" s="67"/>
-      <c r="E12" s="67">
-        <f>242+50</f>
-        <v>292</v>
-      </c>
+      <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="H12" s="67">
+        <f>330+330+420</f>
+        <v>1080</v>
+      </c>
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
       <c r="K12" s="67"/>
@@ -6874,10 +6984,10 @@
       <c r="M12" s="131"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P12" s="194" t="s">
-        <v>140</v>
+        <v>291</v>
+      </c>
+      <c r="P12" s="192" t="s">
+        <v>217</v>
       </c>
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
@@ -6885,38 +6995,38 @@
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
       <c r="V12" s="72">
-        <f>750+750+760+1727+276</f>
-        <v>4263</v>
+        <f>68+204+221+221+204+187</f>
+        <v>1105</v>
       </c>
       <c r="W12" s="72"/>
       <c r="X12" s="67"/>
     </row>
-    <row r="13" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>239</v>
+        <v>291</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>146</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
-      <c r="H13" s="67">
-        <f>330+330+420</f>
-        <v>1080</v>
-      </c>
+      <c r="H13" s="67"/>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
+      <c r="L13" s="11">
+        <f>500+265+212</f>
+        <v>977</v>
+      </c>
       <c r="M13" s="131"/>
       <c r="N13" s="74"/>
       <c r="O13" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P13" s="192" t="s">
-        <v>217</v>
+        <v>291</v>
+      </c>
+      <c r="P13" s="194" t="s">
+        <v>140</v>
       </c>
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
@@ -6924,37 +7034,28 @@
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
       <c r="V13" s="72">
-        <f>238+170+170+204+204+204</f>
-        <v>1190</v>
+        <f>741+750+1992+750</f>
+        <v>4233</v>
       </c>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
     </row>
-    <row r="14" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>96</v>
-      </c>
+    <row r="14" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="93"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
       <c r="G14" s="67"/>
-      <c r="H14" s="67">
-        <f>102+102+85+170+85+187</f>
-        <v>731</v>
-      </c>
+      <c r="H14" s="67"/>
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
       <c r="L14" s="11"/>
       <c r="M14" s="131"/>
       <c r="N14" s="74"/>
-      <c r="O14" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P14" s="193"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="88"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="72"/>
       <c r="S14" s="72"/>
@@ -6964,9 +7065,9 @@
       <c r="W14" s="72"/>
       <c r="X14" s="67"/>
     </row>
-    <row r="15" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="93"/>
-      <c r="C15" s="95"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -6979,17 +7080,17 @@
       <c r="M15" s="131"/>
       <c r="N15" s="74"/>
       <c r="O15" s="93"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
       <c r="X15" s="67"/>
     </row>
-    <row r="16" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="93"/>
       <c r="C16" s="10"/>
       <c r="D16" s="67"/>
@@ -7015,417 +7116,365 @@
       <c r="X16" s="67"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="93"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="131"/>
       <c r="N17" s="74"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-    </row>
-    <row r="18" spans="2:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="131"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="73">
+        <v>0</v>
+      </c>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+    </row>
+    <row r="18" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="30">
+        <f>SUM(D4:D17)</f>
+        <v>470</v>
+      </c>
+      <c r="E18" s="30">
+        <f t="shared" ref="E18:L18" si="0">SUM(E4:E17)</f>
+        <v>480</v>
+      </c>
+      <c r="F18" s="30">
+        <f t="shared" si="0"/>
+        <v>1334</v>
+      </c>
+      <c r="G18" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H18" s="30">
+        <f t="shared" si="0"/>
+        <v>1539</v>
+      </c>
+      <c r="I18" s="30">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="J18" s="30">
+        <f t="shared" si="0"/>
+        <v>1536</v>
+      </c>
+      <c r="K18" s="30">
+        <f t="shared" si="0"/>
+        <v>5191</v>
+      </c>
+      <c r="L18" s="30">
+        <f t="shared" si="0"/>
+        <v>977</v>
+      </c>
+      <c r="M18" s="132"/>
       <c r="N18" s="74"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="73">
-        <v>0</v>
-      </c>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-    </row>
-    <row r="19" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="7"/>
+      <c r="P18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="21">
+        <f t="shared" ref="Q18:X18" si="1">SUM(Q4:Q17)</f>
+        <v>1255</v>
+      </c>
+      <c r="R18" s="21">
+        <f t="shared" si="1"/>
+        <v>1543</v>
+      </c>
+      <c r="S18" s="21">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+      <c r="T18" s="21">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="U18" s="21">
+        <f t="shared" si="1"/>
+        <v>914</v>
+      </c>
+      <c r="V18" s="21">
+        <f t="shared" si="1"/>
+        <v>5338</v>
+      </c>
+      <c r="W18" s="21">
+        <f t="shared" si="1"/>
+        <v>4918.5</v>
+      </c>
+      <c r="X18" s="21">
+        <f t="shared" si="1"/>
+        <v>6742</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
-      <c r="C19" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="30">
-        <f>SUM(D5:D18)</f>
-        <v>712</v>
-      </c>
-      <c r="E19" s="30">
-        <f t="shared" ref="E19:L19" si="0">SUM(E5:E18)</f>
-        <v>292</v>
-      </c>
-      <c r="F19" s="30">
-        <f t="shared" si="0"/>
-        <v>1925</v>
-      </c>
-      <c r="G19" s="30">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H19" s="30">
-        <f t="shared" si="0"/>
-        <v>1811</v>
-      </c>
-      <c r="I19" s="30">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="J19" s="30">
-        <f t="shared" si="0"/>
-        <v>1972</v>
-      </c>
-      <c r="K19" s="30">
-        <f t="shared" si="0"/>
-        <v>5944</v>
-      </c>
-      <c r="L19" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="132"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="76"/>
       <c r="N19" s="74"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="21">
-        <f t="shared" ref="Q19:X19" si="1">SUM(Q5:Q18)</f>
-        <v>816</v>
-      </c>
-      <c r="R19" s="21">
-        <f t="shared" si="1"/>
-        <v>1286</v>
-      </c>
-      <c r="S19" s="21">
-        <f t="shared" si="1"/>
-        <v>3382</v>
-      </c>
-      <c r="T19" s="21">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="U19" s="21">
-        <f t="shared" si="1"/>
-        <v>1378</v>
-      </c>
-      <c r="V19" s="21">
-        <f t="shared" si="1"/>
-        <v>5453</v>
-      </c>
-      <c r="W19" s="21">
-        <f t="shared" si="1"/>
-        <v>2562</v>
-      </c>
-      <c r="X19" s="21">
-        <f t="shared" si="1"/>
-        <v>6746</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="F20" s="261">
+        <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
+        <v>12079</v>
+      </c>
+      <c r="G20" s="262"/>
+      <c r="H20" s="263"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="76"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="74"/>
       <c r="N20" s="74"/>
       <c r="O20" s="7"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="S20" s="264">
+        <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
+        <v>23360.5</v>
+      </c>
+      <c r="T20" s="265"/>
+      <c r="U20" s="266"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="7"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="261">
-        <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
-        <v>12757</v>
-      </c>
-      <c r="G21" s="262"/>
-      <c r="H21" s="263"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+    <row r="21" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="235"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="237"/>
+      <c r="H21" s="237"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
       <c r="L21" s="71"/>
       <c r="M21" s="74"/>
       <c r="N21" s="74"/>
-      <c r="O21" s="7"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="264">
-        <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
-        <v>21698</v>
-      </c>
-      <c r="T21" s="265"/>
-      <c r="U21" s="266"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-    </row>
-    <row r="22" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B22" s="235"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="236"/>
-      <c r="G22" s="237"/>
-      <c r="H22" s="237"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="235"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="236"/>
-      <c r="T22" s="237"/>
-      <c r="U22" s="237"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-    </row>
-    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="7"/>
-      <c r="C31" s="254" t="s">
+      <c r="O21" s="235"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="236"/>
+      <c r="T21" s="237"/>
+      <c r="U21" s="237"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+    </row>
+    <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="7"/>
+      <c r="C32" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="255"/>
-      <c r="E31" s="255"/>
-      <c r="F31" s="255"/>
-      <c r="G31" s="255"/>
-      <c r="H31" s="255"/>
-      <c r="I31" s="255"/>
-      <c r="J31" s="255"/>
-      <c r="K31" s="255"/>
-      <c r="L31" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="133"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="256" t="s">
+      <c r="D32" s="255"/>
+      <c r="E32" s="255"/>
+      <c r="F32" s="255"/>
+      <c r="G32" s="255"/>
+      <c r="H32" s="255"/>
+      <c r="I32" s="255"/>
+      <c r="J32" s="255"/>
+      <c r="K32" s="255"/>
+      <c r="L32" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="133"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="P31" s="257"/>
-      <c r="Q31" s="257"/>
-      <c r="R31" s="257"/>
-      <c r="S31" s="257"/>
-      <c r="T31" s="257"/>
-      <c r="U31" s="257"/>
-      <c r="V31" s="257"/>
-      <c r="W31" s="257"/>
-      <c r="X31" s="190" t="str">
-        <f>L31</f>
-        <v># 01</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="1"/>
-      <c r="I32" s="258" t="s">
-        <v>248</v>
-      </c>
-      <c r="J32" s="259"/>
-      <c r="K32" s="260"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="7"/>
-      <c r="V32" s="258" t="str">
-        <f>I32</f>
-        <v>del   01- al  3   NOVIEMBRE  2023</v>
-      </c>
-      <c r="W32" s="259"/>
-      <c r="X32" s="260"/>
-    </row>
-    <row r="33" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="24" t="s">
+      <c r="P32" s="257"/>
+      <c r="Q32" s="257"/>
+      <c r="R32" s="257"/>
+      <c r="S32" s="257"/>
+      <c r="T32" s="257"/>
+      <c r="U32" s="257"/>
+      <c r="V32" s="257"/>
+      <c r="W32" s="257"/>
+      <c r="X32" s="190" t="str">
+        <f>L32</f>
+        <v># 02</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="1"/>
+      <c r="I33" s="258" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" s="259"/>
+      <c r="K33" s="260"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="7"/>
+      <c r="V33" s="258" t="str">
+        <f>I33</f>
+        <v>del   04- al  10   NOVIEMBRE  2023</v>
+      </c>
+      <c r="W33" s="259"/>
+      <c r="X33" s="260"/>
+    </row>
+    <row r="34" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D34" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E34" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F34" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G34" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="184" t="s">
+      <c r="I34" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="61" t="s">
+      <c r="J34" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="183" t="s">
+      <c r="K34" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L33" s="99" t="s">
+      <c r="L34" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M33" s="135"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" s="143" t="s">
+      <c r="M34" s="135"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q33" s="137" t="s">
+      <c r="Q34" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R33" s="138" t="s">
+      <c r="R34" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S33" s="138" t="s">
+      <c r="S34" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="T33" s="137" t="s">
+      <c r="T34" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U33" s="137" t="s">
+      <c r="U34" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V33" s="141" t="s">
+      <c r="V34" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W33" s="136" t="s">
+      <c r="W34" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X33" s="142" t="s">
+      <c r="X34" s="142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="234" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72">
-        <f>1125+995</f>
-        <v>2120</v>
-      </c>
-      <c r="L34" s="71"/>
-      <c r="M34" s="131"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P34" s="234" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72">
-        <f>2416+1682</f>
-        <v>4098</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
+        <v>276</v>
+      </c>
+      <c r="C35" s="234" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72">
+        <f>646+1044+2378+1876</f>
+        <v>5944</v>
+      </c>
+      <c r="L35" s="71"/>
       <c r="M35" s="131"/>
       <c r="N35" s="74"/>
       <c r="O35" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P35" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67">
-        <f>72+192</f>
-        <v>264</v>
-      </c>
-      <c r="T35" s="67"/>
-      <c r="U35" s="67"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="67"/>
-    </row>
-    <row r="36" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="P35" s="234" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72">
+        <f>240+2971+420+200+2107+808</f>
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>287</v>
+      </c>
       <c r="D36" s="67"/>
       <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
+      <c r="F36" s="67">
+        <f>1194+462+194+25+50</f>
+        <v>1925</v>
+      </c>
       <c r="G36" s="67"/>
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
@@ -7435,28 +7484,34 @@
       <c r="M36" s="131"/>
       <c r="N36" s="74"/>
       <c r="O36" s="93" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="P36" s="44" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="67"/>
       <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
+      <c r="S36" s="67">
+        <f>120+2030+132+800+200+50+50</f>
+        <v>3382</v>
+      </c>
       <c r="T36" s="67"/>
       <c r="U36" s="67"/>
       <c r="V36" s="67"/>
-      <c r="W36" s="67">
-        <v>150</v>
-      </c>
+      <c r="W36" s="67"/>
       <c r="X36" s="67"/>
     </row>
-    <row r="37" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" s="96"/>
-      <c r="D37" s="67"/>
+        <v>276</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="D37" s="67">
+        <f>67+180+50+175+240</f>
+        <v>712</v>
+      </c>
       <c r="E37" s="67"/>
       <c r="F37" s="67"/>
       <c r="G37" s="67"/>
@@ -7468,168 +7523,193 @@
       <c r="M37" s="131"/>
       <c r="N37" s="74"/>
       <c r="O37" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P37" s="239" t="s">
-        <v>261</v>
+        <v>276</v>
+      </c>
+      <c r="P37" s="44" t="s">
+        <v>282</v>
       </c>
       <c r="Q37" s="67"/>
-      <c r="R37" s="67">
-        <v>130</v>
-      </c>
+      <c r="R37" s="67"/>
       <c r="S37" s="67"/>
       <c r="T37" s="67"/>
       <c r="U37" s="67"/>
       <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
+      <c r="W37" s="67">
+        <f>514+510+1374+52.5+35+76.5</f>
+        <v>2562</v>
+      </c>
       <c r="X37" s="67"/>
     </row>
-    <row r="38" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C38" s="96" t="s">
+        <v>4</v>
+      </c>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
       <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
+      <c r="I38" s="67">
+        <v>86</v>
+      </c>
       <c r="J38" s="67"/>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
       <c r="M38" s="131"/>
       <c r="N38" s="74"/>
       <c r="O38" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P38" s="95" t="s">
-        <v>140</v>
+        <v>276</v>
+      </c>
+      <c r="P38" s="239" t="s">
+        <v>4</v>
       </c>
       <c r="Q38" s="67"/>
       <c r="R38" s="67"/>
       <c r="S38" s="67"/>
       <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67">
-        <f>750+760+1711.5</f>
-        <v>3221.5</v>
-      </c>
+      <c r="U38" s="67">
+        <f>462+916</f>
+        <v>1378</v>
+      </c>
+      <c r="V38" s="67"/>
       <c r="W38" s="67"/>
       <c r="X38" s="67"/>
-      <c r="Y38" s="242"/>
-    </row>
-    <row r="39" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C39" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>277</v>
+      </c>
       <c r="D39" s="67"/>
       <c r="E39" s="67"/>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="J39" s="67">
+        <f>322+69+126</f>
+        <v>517</v>
+      </c>
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="131"/>
       <c r="N39" s="74"/>
       <c r="O39" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P39" s="195" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72">
-        <v>204</v>
-      </c>
-      <c r="W39" s="72"/>
+        <v>276</v>
+      </c>
+      <c r="P39" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q39" s="67">
+        <f>71+220+350+175</f>
+        <v>816</v>
+      </c>
+      <c r="R39" s="67"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
       <c r="X39" s="67"/>
-    </row>
-    <row r="40" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y39" s="242"/>
+    </row>
+    <row r="40" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C40" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C40" s="253" t="s">
+        <v>278</v>
+      </c>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
       <c r="F40" s="67"/>
       <c r="G40" s="67"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
-      <c r="J40" s="94"/>
+      <c r="J40" s="67">
+        <v>1455</v>
+      </c>
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="131"/>
       <c r="N40" s="74"/>
       <c r="O40" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P40" s="194"/>
+        <v>276</v>
+      </c>
+      <c r="P40" s="195" t="s">
+        <v>284</v>
+      </c>
       <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
+      <c r="R40" s="72">
+        <f>740+546</f>
+        <v>1286</v>
+      </c>
       <c r="S40" s="72"/>
       <c r="T40" s="72"/>
       <c r="U40" s="72"/>
       <c r="V40" s="72"/>
       <c r="W40" s="72"/>
       <c r="X40" s="67"/>
-      <c r="Y40" s="129"/>
-    </row>
-    <row r="41" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>217</v>
+        <v>276</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>280</v>
       </c>
       <c r="D41" s="67"/>
       <c r="E41" s="67"/>
       <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67">
-        <v>85</v>
-      </c>
+      <c r="G41" s="67">
+        <v>15</v>
+      </c>
+      <c r="H41" s="67"/>
       <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
+      <c r="J41" s="94"/>
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
       <c r="M41" s="131"/>
       <c r="N41" s="74"/>
       <c r="O41" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P41" s="194"/>
+        <v>276</v>
+      </c>
+      <c r="P41" s="194" t="s">
+        <v>285</v>
+      </c>
       <c r="Q41" s="72"/>
       <c r="R41" s="72"/>
       <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
+      <c r="T41" s="72">
+        <f>25+50</f>
+        <v>75</v>
+      </c>
       <c r="U41" s="72"/>
       <c r="V41" s="72"/>
       <c r="W41" s="72"/>
       <c r="X41" s="67"/>
-    </row>
-    <row r="42" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y41" s="129"/>
+    </row>
+    <row r="42" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="93" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="C42" s="95" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
+      <c r="E42" s="67">
+        <f>242+50</f>
+        <v>292</v>
+      </c>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
-      <c r="H42" s="67">
-        <f>330+420</f>
-        <v>750</v>
-      </c>
+      <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
       <c r="K42" s="67"/>
@@ -7637,67 +7717,87 @@
       <c r="M42" s="131"/>
       <c r="N42" s="74"/>
       <c r="O42" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P42" s="192"/>
+        <v>276</v>
+      </c>
+      <c r="P42" s="194" t="s">
+        <v>140</v>
+      </c>
       <c r="Q42" s="72"/>
       <c r="R42" s="72"/>
       <c r="S42" s="72"/>
       <c r="T42" s="72"/>
       <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
+      <c r="V42" s="72">
+        <f>750+750+760+1727+276</f>
+        <v>4263</v>
+      </c>
       <c r="W42" s="72"/>
       <c r="X42" s="67"/>
     </row>
-    <row r="43" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>207</v>
+        <v>276</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>239</v>
       </c>
       <c r="D43" s="67"/>
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
+      <c r="H43" s="67">
+        <f>330+330+420</f>
+        <v>1080</v>
+      </c>
       <c r="I43" s="67"/>
       <c r="J43" s="67"/>
       <c r="K43" s="67"/>
-      <c r="L43" s="11">
-        <v>500</v>
-      </c>
+      <c r="L43" s="67"/>
       <c r="M43" s="131"/>
       <c r="N43" s="74"/>
       <c r="O43" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P43" s="193"/>
+        <v>276</v>
+      </c>
+      <c r="P43" s="192" t="s">
+        <v>217</v>
+      </c>
       <c r="Q43" s="72"/>
       <c r="R43" s="72"/>
       <c r="S43" s="72"/>
       <c r="T43" s="72"/>
       <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
+      <c r="V43" s="72">
+        <f>238+170+170+204+204+204</f>
+        <v>1190</v>
+      </c>
       <c r="W43" s="72"/>
       <c r="X43" s="67"/>
     </row>
-    <row r="44" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="93"/>
-      <c r="C44" s="95"/>
+    <row r="44" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>96</v>
+      </c>
       <c r="D44" s="67"/>
       <c r="E44" s="67"/>
       <c r="F44" s="67"/>
       <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
+      <c r="H44" s="67">
+        <f>102+102+85+170+85+187</f>
+        <v>731</v>
+      </c>
       <c r="I44" s="67"/>
       <c r="J44" s="67"/>
       <c r="K44" s="67"/>
       <c r="L44" s="11"/>
       <c r="M44" s="131"/>
       <c r="N44" s="74"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="88"/>
+      <c r="O44" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="P44" s="193"/>
       <c r="Q44" s="72"/>
       <c r="R44" s="72"/>
       <c r="S44" s="72"/>
@@ -7709,7 +7809,7 @@
     </row>
     <row r="45" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="93"/>
-      <c r="C45" s="10"/>
+      <c r="C45" s="95"/>
       <c r="D45" s="67"/>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
@@ -7722,14 +7822,14 @@
       <c r="M45" s="131"/>
       <c r="N45" s="74"/>
       <c r="O45" s="93"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="67"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="72"/>
       <c r="X45" s="67"/>
     </row>
     <row r="46" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7758,204 +7858,953 @@
       <c r="X46" s="67"/>
     </row>
     <row r="47" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="9"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="20"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="11"/>
       <c r="M47" s="131"/>
       <c r="N47" s="74"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="73">
-        <v>0</v>
-      </c>
-      <c r="R47" s="73"/>
-      <c r="S47" s="73"/>
-      <c r="T47" s="73"/>
-      <c r="U47" s="73"/>
-      <c r="V47" s="73"/>
-      <c r="W47" s="73"/>
-      <c r="X47" s="73"/>
-    </row>
-    <row r="48" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="35" t="s">
+      <c r="O47" s="93"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="67"/>
+      <c r="V47" s="67"/>
+      <c r="W47" s="67"/>
+      <c r="X47" s="67"/>
+    </row>
+    <row r="48" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="9"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="73">
+        <v>0</v>
+      </c>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+    </row>
+    <row r="49" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="30">
-        <f>SUM(D34:D47)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="30">
-        <f t="shared" ref="E48:L48" si="2">SUM(E34:E47)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="30">
+      <c r="D49" s="30">
+        <f>SUM(D35:D48)</f>
+        <v>712</v>
+      </c>
+      <c r="E49" s="30">
+        <f t="shared" ref="E49:L49" si="2">SUM(E35:E48)</f>
+        <v>292</v>
+      </c>
+      <c r="F49" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="30">
+        <v>1925</v>
+      </c>
+      <c r="G49" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="30">
+        <v>15</v>
+      </c>
+      <c r="H49" s="30">
         <f t="shared" si="2"/>
-        <v>835</v>
-      </c>
-      <c r="I48" s="30">
+        <v>1811</v>
+      </c>
+      <c r="I49" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="30">
+        <v>86</v>
+      </c>
+      <c r="J49" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="30">
+        <v>1972</v>
+      </c>
+      <c r="K49" s="30">
         <f t="shared" si="2"/>
-        <v>2120</v>
-      </c>
-      <c r="L48" s="30">
+        <v>5944</v>
+      </c>
+      <c r="L49" s="30">
         <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="M48" s="132"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q48" s="21">
-        <f t="shared" ref="Q48:X48" si="3">SUM(Q34:Q47)</f>
-        <v>0</v>
-      </c>
-      <c r="R48" s="21">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="S48" s="21">
-        <f t="shared" si="3"/>
-        <v>264</v>
-      </c>
-      <c r="T48" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="21">
-        <f t="shared" si="3"/>
-        <v>3425.5</v>
-      </c>
-      <c r="W48" s="21">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="X48" s="21">
-        <f t="shared" si="3"/>
-        <v>4098</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="76"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="132"/>
       <c r="N49" s="74"/>
       <c r="O49" s="7"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-    </row>
-    <row r="50" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P49" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q49" s="21">
+        <f t="shared" ref="Q49:X49" si="3">SUM(Q35:Q48)</f>
+        <v>816</v>
+      </c>
+      <c r="R49" s="21">
+        <f t="shared" si="3"/>
+        <v>1286</v>
+      </c>
+      <c r="S49" s="21">
+        <f t="shared" si="3"/>
+        <v>3382</v>
+      </c>
+      <c r="T49" s="21">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="U49" s="21">
+        <f t="shared" si="3"/>
+        <v>1378</v>
+      </c>
+      <c r="V49" s="21">
+        <f t="shared" si="3"/>
+        <v>5453</v>
+      </c>
+      <c r="W49" s="21">
+        <f t="shared" si="3"/>
+        <v>2562</v>
+      </c>
+      <c r="X49" s="21">
+        <f t="shared" si="3"/>
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="261">
-        <f>K48+J48+I48+H48+G48+F48+E48+D48+L48</f>
-        <v>3455</v>
-      </c>
-      <c r="G50" s="262"/>
-      <c r="H50" s="263"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="74"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="76"/>
       <c r="N50" s="74"/>
       <c r="O50" s="7"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="264">
-        <f>Q48+R48+S48+T48+U48+V48+W48+X48</f>
-        <v>8067.5</v>
-      </c>
-      <c r="T50" s="265"/>
-      <c r="U50" s="266"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
     </row>
-    <row r="51" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B51" s="235"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="236"/>
-      <c r="G51" s="237"/>
-      <c r="H51" s="237"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
+    <row r="51" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="7"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="261">
+        <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
+        <v>12757</v>
+      </c>
+      <c r="G51" s="262"/>
+      <c r="H51" s="263"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
       <c r="L51" s="71"/>
       <c r="M51" s="74"/>
       <c r="N51" s="74"/>
-      <c r="O51" s="235"/>
-      <c r="Q51" s="78"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="236"/>
-      <c r="T51" s="237"/>
-      <c r="U51" s="237"/>
-      <c r="V51" s="78"/>
-      <c r="W51" s="78"/>
-      <c r="X51" s="78"/>
+      <c r="O51" s="7"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="264">
+        <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
+        <v>21698</v>
+      </c>
+      <c r="T51" s="265"/>
+      <c r="U51" s="266"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+    </row>
+    <row r="52" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B52" s="235"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="236"/>
+      <c r="G52" s="237"/>
+      <c r="H52" s="237"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="235"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="236"/>
+      <c r="T52" s="237"/>
+      <c r="U52" s="237"/>
+      <c r="V52" s="78"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="78"/>
+    </row>
+    <row r="60" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="7"/>
+      <c r="C61" s="254" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="255"/>
+      <c r="E61" s="255"/>
+      <c r="F61" s="255"/>
+      <c r="G61" s="255"/>
+      <c r="H61" s="255"/>
+      <c r="I61" s="255"/>
+      <c r="J61" s="255"/>
+      <c r="K61" s="255"/>
+      <c r="L61" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="M61" s="133"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="256" t="s">
+        <v>19</v>
+      </c>
+      <c r="P61" s="257"/>
+      <c r="Q61" s="257"/>
+      <c r="R61" s="257"/>
+      <c r="S61" s="257"/>
+      <c r="T61" s="257"/>
+      <c r="U61" s="257"/>
+      <c r="V61" s="257"/>
+      <c r="W61" s="257"/>
+      <c r="X61" s="190" t="str">
+        <f>L61</f>
+        <v># 01</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="7"/>
+      <c r="C62" s="1"/>
+      <c r="I62" s="258" t="s">
+        <v>248</v>
+      </c>
+      <c r="J62" s="259"/>
+      <c r="K62" s="260"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="134"/>
+      <c r="N62" s="74"/>
+      <c r="O62" s="7"/>
+      <c r="V62" s="258" t="str">
+        <f>I62</f>
+        <v>del   01- al  3   NOVIEMBRE  2023</v>
+      </c>
+      <c r="W62" s="259"/>
+      <c r="X62" s="260"/>
+    </row>
+    <row r="63" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="L63" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M63" s="135"/>
+      <c r="N63" s="82"/>
+      <c r="O63" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R63" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S63" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T63" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="U63" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="V63" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W63" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X63" s="142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="234" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72">
+        <f>1125+995</f>
+        <v>2120</v>
+      </c>
+      <c r="L64" s="71"/>
+      <c r="M64" s="131"/>
+      <c r="N64" s="74"/>
+      <c r="O64" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P64" s="234" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q64" s="72"/>
+      <c r="R64" s="72"/>
+      <c r="S64" s="72"/>
+      <c r="T64" s="72"/>
+      <c r="U64" s="72"/>
+      <c r="V64" s="72"/>
+      <c r="W64" s="72"/>
+      <c r="X64" s="72">
+        <f>2416+1682</f>
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="74"/>
+      <c r="O65" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P65" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q65" s="67"/>
+      <c r="R65" s="67"/>
+      <c r="S65" s="67">
+        <f>72+192</f>
+        <v>264</v>
+      </c>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="67"/>
+      <c r="W65" s="67"/>
+      <c r="X65" s="67"/>
+    </row>
+    <row r="66" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" s="44"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="131"/>
+      <c r="N66" s="74"/>
+      <c r="O66" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P66" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q66" s="67"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="67"/>
+      <c r="T66" s="67"/>
+      <c r="U66" s="67"/>
+      <c r="V66" s="67"/>
+      <c r="W66" s="67">
+        <v>150</v>
+      </c>
+      <c r="X66" s="67"/>
+    </row>
+    <row r="67" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="96"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P67" s="239" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q67" s="67"/>
+      <c r="R67" s="67">
+        <v>130</v>
+      </c>
+      <c r="S67" s="67"/>
+      <c r="T67" s="67"/>
+      <c r="U67" s="67"/>
+      <c r="V67" s="67"/>
+      <c r="W67" s="67"/>
+      <c r="X67" s="67"/>
+    </row>
+    <row r="68" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" s="44"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="131"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P68" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q68" s="67"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="67"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="67"/>
+      <c r="V68" s="67">
+        <f>750+760+1711.5</f>
+        <v>3221.5</v>
+      </c>
+      <c r="W68" s="67"/>
+      <c r="X68" s="67"/>
+      <c r="Y68" s="242"/>
+    </row>
+    <row r="69" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C69" s="44"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="131"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P69" s="195" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q69" s="72"/>
+      <c r="R69" s="72"/>
+      <c r="S69" s="72"/>
+      <c r="T69" s="72"/>
+      <c r="U69" s="72"/>
+      <c r="V69" s="72">
+        <v>204</v>
+      </c>
+      <c r="W69" s="72"/>
+      <c r="X69" s="67"/>
+    </row>
+    <row r="70" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="131"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P70" s="194"/>
+      <c r="Q70" s="72"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="72"/>
+      <c r="T70" s="72"/>
+      <c r="U70" s="72"/>
+      <c r="V70" s="72"/>
+      <c r="W70" s="72"/>
+      <c r="X70" s="67"/>
+      <c r="Y70" s="129"/>
+    </row>
+    <row r="71" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67">
+        <v>85</v>
+      </c>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P71" s="194"/>
+      <c r="Q71" s="72"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="72"/>
+      <c r="U71" s="72"/>
+      <c r="V71" s="72"/>
+      <c r="W71" s="72"/>
+      <c r="X71" s="67"/>
+    </row>
+    <row r="72" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67">
+        <f>330+420</f>
+        <v>750</v>
+      </c>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="74"/>
+      <c r="O72" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P72" s="192"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="72"/>
+      <c r="U72" s="72"/>
+      <c r="V72" s="72"/>
+      <c r="W72" s="72"/>
+      <c r="X72" s="67"/>
+    </row>
+    <row r="73" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="11">
+        <v>500</v>
+      </c>
+      <c r="M73" s="131"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P73" s="193"/>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="67"/>
+    </row>
+    <row r="74" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="93"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="93"/>
+      <c r="P74" s="88"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
+      <c r="U74" s="72"/>
+      <c r="V74" s="72"/>
+      <c r="W74" s="72"/>
+      <c r="X74" s="67"/>
+    </row>
+    <row r="75" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="93"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="93"/>
+      <c r="P75" s="91"/>
+      <c r="Q75" s="67"/>
+      <c r="R75" s="67"/>
+      <c r="S75" s="67"/>
+      <c r="T75" s="67"/>
+      <c r="U75" s="67"/>
+      <c r="V75" s="67"/>
+      <c r="W75" s="67"/>
+      <c r="X75" s="67"/>
+    </row>
+    <row r="76" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="93"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="93"/>
+      <c r="P76" s="91"/>
+      <c r="Q76" s="67"/>
+      <c r="R76" s="67"/>
+      <c r="S76" s="67"/>
+      <c r="T76" s="67"/>
+      <c r="U76" s="67"/>
+      <c r="V76" s="67"/>
+      <c r="W76" s="67"/>
+      <c r="X76" s="67"/>
+    </row>
+    <row r="77" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="9"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="73"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="46"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="73">
+        <v>0</v>
+      </c>
+      <c r="R77" s="73"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="73"/>
+      <c r="U77" s="73"/>
+      <c r="V77" s="73"/>
+      <c r="W77" s="73"/>
+      <c r="X77" s="73"/>
+    </row>
+    <row r="78" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="7"/>
+      <c r="C78" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="30">
+        <f>SUM(D64:D77)</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="30">
+        <f t="shared" ref="E78:L78" si="4">SUM(E64:E77)</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="30">
+        <f t="shared" si="4"/>
+        <v>835</v>
+      </c>
+      <c r="I78" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="30">
+        <f t="shared" si="4"/>
+        <v>2120</v>
+      </c>
+      <c r="L78" s="30">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="M78" s="132"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q78" s="21">
+        <f t="shared" ref="Q78:X78" si="5">SUM(Q64:Q77)</f>
+        <v>0</v>
+      </c>
+      <c r="R78" s="21">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="S78" s="21">
+        <f t="shared" si="5"/>
+        <v>264</v>
+      </c>
+      <c r="T78" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="21">
+        <f t="shared" si="5"/>
+        <v>3425.5</v>
+      </c>
+      <c r="W78" s="21">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="X78" s="21">
+        <f t="shared" si="5"/>
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="7"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="78"/>
+      <c r="M79" s="76"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="7"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+    </row>
+    <row r="80" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="7"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="261">
+        <f>K78+J78+I78+H78+G78+F78+E78+D78+L78</f>
+        <v>3455</v>
+      </c>
+      <c r="G80" s="262"/>
+      <c r="H80" s="263"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="71"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="7"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="264">
+        <f>Q78+R78+S78+T78+U78+V78+W78+X78</f>
+        <v>8067.5</v>
+      </c>
+      <c r="T80" s="265"/>
+      <c r="U80" s="266"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+    </row>
+    <row r="81" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B81" s="235"/>
+      <c r="C81" s="129"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="236"/>
+      <c r="G81" s="237"/>
+      <c r="H81" s="237"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="78"/>
+      <c r="K81" s="78"/>
+      <c r="L81" s="71"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="235"/>
+      <c r="Q81" s="78"/>
+      <c r="R81" s="78"/>
+      <c r="S81" s="236"/>
+      <c r="T81" s="237"/>
+      <c r="U81" s="237"/>
+      <c r="V81" s="78"/>
+      <c r="W81" s="78"/>
+      <c r="X81" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="O31:W31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
+  <mergeCells count="18">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="O61:W61"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="S80:U80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7969,8 +8818,8 @@
   </sheetPr>
   <dimension ref="A1:Y169"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="M25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12685,42 +13534,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="O30:W30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="S110:U110"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="O142:W142"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="V143:X143"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="S161:U161"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="O60:W60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="C116:K116"/>
     <mergeCell ref="O116:W116"/>
     <mergeCell ref="I117:K117"/>
     <mergeCell ref="V117:X117"/>
     <mergeCell ref="F135:H135"/>
     <mergeCell ref="S135:U135"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="O60:W60"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="O142:W142"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="V143:X143"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="S161:U161"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="V92:X92"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="S110:U110"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="O30:W30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="S49:U49"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18091,42 +18940,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="O130:W130"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="S149:U149"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="C156:K156"/>
+    <mergeCell ref="S184:U184"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="O156:W156"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="O97:W97"/>
+    <mergeCell ref="S116:U116"/>
+    <mergeCell ref="V98:X98"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="S51:U51"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="O97:W97"/>
-    <mergeCell ref="S116:U116"/>
-    <mergeCell ref="V98:X98"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="C156:K156"/>
-    <mergeCell ref="S184:U184"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="O156:W156"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="O130:W130"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="S149:U149"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="O66:W66"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="S85:U85"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20431,7 +21280,7 @@
       <c r="I22" s="268"/>
       <c r="J22" s="268"/>
       <c r="K22" s="268"/>
-      <c r="L22" s="276"/>
+      <c r="L22" s="274"/>
       <c r="M22" s="171"/>
       <c r="N22" s="151"/>
       <c r="T22" s="7"/>
@@ -20445,7 +21294,7 @@
       <c r="Z22" s="268"/>
       <c r="AA22" s="268"/>
       <c r="AB22" s="268"/>
-      <c r="AC22" s="276"/>
+      <c r="AC22" s="274"/>
       <c r="AD22" s="171"/>
       <c r="AE22" s="151"/>
       <c r="AI22" s="7"/>
@@ -20987,12 +21836,12 @@
       <c r="AH28" s="154"/>
       <c r="AK28" s="30"/>
       <c r="AL28" s="31"/>
-      <c r="AM28" s="274" t="s">
+      <c r="AM28" s="275" t="s">
         <v>192</v>
       </c>
-      <c r="AN28" s="274"/>
-      <c r="AO28" s="274"/>
-      <c r="AP28" s="275"/>
+      <c r="AN28" s="275"/>
+      <c r="AO28" s="275"/>
+      <c r="AP28" s="276"/>
       <c r="AQ28" s="22"/>
       <c r="AR28" s="157"/>
       <c r="AS28" s="77"/>
@@ -21229,22 +22078,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="U22:AC22"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AJ2:AR2"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AJ22:AR22"/>
     <mergeCell ref="AP23:AR23"/>
     <mergeCell ref="U2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="U22:AC22"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -2652,6 +2652,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2712,14 +2719,14 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2750,13 +2757,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3106,53 +3106,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="254" t="s">
+      <c r="C1" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
       <c r="L1" s="127" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="133"/>
       <c r="N1" s="81"/>
-      <c r="O1" s="267" t="s">
+      <c r="O1" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
-      <c r="R1" s="268"/>
-      <c r="S1" s="268"/>
-      <c r="T1" s="268"/>
-      <c r="U1" s="268"/>
-      <c r="V1" s="268"/>
-      <c r="W1" s="268"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="R1" s="271"/>
+      <c r="S1" s="271"/>
+      <c r="T1" s="271"/>
+      <c r="U1" s="271"/>
+      <c r="V1" s="271"/>
+      <c r="W1" s="271"/>
       <c r="X1" s="128" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="258" t="s">
+      <c r="I2" s="261" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="259"/>
-      <c r="K2" s="260"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="263"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
       <c r="P2"/>
-      <c r="V2" s="258" t="s">
+      <c r="V2" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="259"/>
-      <c r="X2" s="260"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="263"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -3811,12 +3811,12 @@
     <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="261">
+      <c r="F20" s="264">
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
         <v>14572.5</v>
       </c>
-      <c r="G20" s="262"/>
-      <c r="H20" s="263"/>
+      <c r="G20" s="265"/>
+      <c r="H20" s="266"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -3827,12 +3827,12 @@
       <c r="P20"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="264">
+      <c r="S20" s="267">
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>21274</v>
       </c>
-      <c r="T20" s="265"/>
-      <c r="U20" s="266"/>
+      <c r="T20" s="268"/>
+      <c r="U20" s="269"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -3952,34 +3952,34 @@
     <row r="1" spans="2:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="126" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="122"/>
-      <c r="C2" s="282" t="s">
+      <c r="C2" s="285" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
       <c r="L2" s="123"/>
       <c r="M2" s="124"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
-      <c r="P2" s="284" t="s">
+      <c r="P2" s="287" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="285"/>
-      <c r="S2" s="285"/>
-      <c r="T2" s="285"/>
-      <c r="U2" s="285"/>
-      <c r="V2" s="285"/>
-      <c r="W2" s="285"/>
-      <c r="X2" s="285"/>
-      <c r="Y2" s="285"/>
-      <c r="Z2" s="286"/>
+      <c r="Q2" s="288"/>
+      <c r="R2" s="288"/>
+      <c r="S2" s="288"/>
+      <c r="T2" s="288"/>
+      <c r="U2" s="288"/>
+      <c r="V2" s="288"/>
+      <c r="W2" s="288"/>
+      <c r="X2" s="288"/>
+      <c r="Y2" s="288"/>
+      <c r="Z2" s="289"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="37"/>
@@ -4930,12 +4930,12 @@
     <row r="19" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="261">
+      <c r="F19" s="264">
         <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
         <v>50513</v>
       </c>
-      <c r="G19" s="262"/>
-      <c r="H19" s="263"/>
+      <c r="G19" s="265"/>
+      <c r="H19" s="266"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -4945,12 +4945,12 @@
       <c r="O19" s="74"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="264">
+      <c r="T19" s="267">
         <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
         <v>78100</v>
       </c>
-      <c r="U19" s="265"/>
-      <c r="V19" s="266"/>
+      <c r="U19" s="268"/>
+      <c r="V19" s="269"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -5085,32 +5085,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="254" t="s">
+      <c r="B2" s="257" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="267" t="s">
+      <c r="M2" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="268"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="268"/>
-      <c r="U2" s="268"/>
-      <c r="V2" s="268"/>
-      <c r="W2" s="274"/>
+      <c r="N2" s="271"/>
+      <c r="O2" s="271"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="271"/>
+      <c r="S2" s="271"/>
+      <c r="T2" s="271"/>
+      <c r="U2" s="271"/>
+      <c r="V2" s="271"/>
+      <c r="W2" s="279"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -6369,12 +6369,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="261">
+      <c r="E30" s="264">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="262"/>
-      <c r="G30" s="263"/>
+      <c r="F30" s="265"/>
+      <c r="G30" s="266"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -6382,12 +6382,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="264">
+      <c r="Q30" s="267">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="265"/>
-      <c r="S30" s="266"/>
+      <c r="R30" s="268"/>
+      <c r="S30" s="269"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -6510,9 +6510,9 @@
   </sheetPr>
   <dimension ref="B1:AA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6528,33 +6528,33 @@
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="7"/>
-      <c r="C1" s="254" t="s">
+      <c r="C1" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
       <c r="L1" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M1" s="133"/>
       <c r="N1" s="81"/>
-      <c r="O1" s="256" t="s">
+      <c r="O1" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="257"/>
-      <c r="Q1" s="257"/>
-      <c r="R1" s="257"/>
-      <c r="S1" s="257"/>
-      <c r="T1" s="257"/>
-      <c r="U1" s="257"/>
-      <c r="V1" s="257"/>
-      <c r="W1" s="257"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="260"/>
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="260"/>
+      <c r="W1" s="260"/>
       <c r="X1" s="190" t="str">
         <f>L1</f>
         <v># 03</v>
@@ -6563,21 +6563,21 @@
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7"/>
       <c r="C2" s="1"/>
-      <c r="I2" s="258" t="s">
+      <c r="I2" s="261" t="s">
         <v>290</v>
       </c>
-      <c r="J2" s="259"/>
-      <c r="K2" s="260"/>
+      <c r="J2" s="262"/>
+      <c r="K2" s="263"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
-      <c r="V2" s="258" t="str">
+      <c r="V2" s="261" t="str">
         <f>I2</f>
         <v>del   11- al  17   NOVIEMBRE  2023</v>
       </c>
-      <c r="W2" s="259"/>
-      <c r="X2" s="260"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="263"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -6847,7 +6847,7 @@
       <c r="B9" s="93" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="254" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="67"/>
@@ -6878,8 +6878,8 @@
       <c r="W9" s="72">
         <v>1455</v>
       </c>
-      <c r="X9" s="288"/>
-      <c r="Y9" s="289" t="s">
+      <c r="X9" s="255"/>
+      <c r="Y9" s="256" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6935,8 +6935,8 @@
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67">
-        <f>51+170+68+85+85</f>
-        <v>459</v>
+        <f>51+170+68+85+85+34</f>
+        <v>493</v>
       </c>
       <c r="I11" s="67"/>
       <c r="J11" s="67"/>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="H18" s="30">
         <f t="shared" si="0"/>
-        <v>1539</v>
+        <v>1573</v>
       </c>
       <c r="I18" s="30">
         <f t="shared" si="0"/>
@@ -7251,12 +7251,12 @@
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="261">
+      <c r="F20" s="264">
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
-        <v>12079</v>
-      </c>
-      <c r="G20" s="262"/>
-      <c r="H20" s="263"/>
+        <v>12113</v>
+      </c>
+      <c r="G20" s="265"/>
+      <c r="H20" s="266"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -7266,12 +7266,12 @@
       <c r="O20" s="7"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="264">
+      <c r="S20" s="267">
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>23360.5</v>
       </c>
-      <c r="T20" s="265"/>
-      <c r="U20" s="266"/>
+      <c r="T20" s="268"/>
+      <c r="U20" s="269"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -7303,33 +7303,33 @@
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
-      <c r="C32" s="254" t="s">
+      <c r="C32" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="255"/>
-      <c r="E32" s="255"/>
-      <c r="F32" s="255"/>
-      <c r="G32" s="255"/>
-      <c r="H32" s="255"/>
-      <c r="I32" s="255"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="255"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="258"/>
+      <c r="F32" s="258"/>
+      <c r="G32" s="258"/>
+      <c r="H32" s="258"/>
+      <c r="I32" s="258"/>
+      <c r="J32" s="258"/>
+      <c r="K32" s="258"/>
       <c r="L32" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="133"/>
       <c r="N32" s="81"/>
-      <c r="O32" s="256" t="s">
+      <c r="O32" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="257"/>
-      <c r="Q32" s="257"/>
-      <c r="R32" s="257"/>
-      <c r="S32" s="257"/>
-      <c r="T32" s="257"/>
-      <c r="U32" s="257"/>
-      <c r="V32" s="257"/>
-      <c r="W32" s="257"/>
+      <c r="P32" s="260"/>
+      <c r="Q32" s="260"/>
+      <c r="R32" s="260"/>
+      <c r="S32" s="260"/>
+      <c r="T32" s="260"/>
+      <c r="U32" s="260"/>
+      <c r="V32" s="260"/>
+      <c r="W32" s="260"/>
       <c r="X32" s="190" t="str">
         <f>L32</f>
         <v># 02</v>
@@ -7338,21 +7338,21 @@
     <row r="33" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="C33" s="1"/>
-      <c r="I33" s="258" t="s">
+      <c r="I33" s="261" t="s">
         <v>275</v>
       </c>
-      <c r="J33" s="259"/>
-      <c r="K33" s="260"/>
+      <c r="J33" s="262"/>
+      <c r="K33" s="263"/>
       <c r="L33" s="68"/>
       <c r="M33" s="134"/>
       <c r="N33" s="74"/>
       <c r="O33" s="7"/>
-      <c r="V33" s="258" t="str">
+      <c r="V33" s="261" t="str">
         <f>I33</f>
         <v>del   04- al  10   NOVIEMBRE  2023</v>
       </c>
-      <c r="W33" s="259"/>
-      <c r="X33" s="260"/>
+      <c r="W33" s="262"/>
+      <c r="X33" s="263"/>
     </row>
     <row r="34" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
@@ -8018,12 +8018,12 @@
       <c r="C51" s="1"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="261">
+      <c r="F51" s="264">
         <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
         <v>12757</v>
       </c>
-      <c r="G51" s="262"/>
-      <c r="H51" s="263"/>
+      <c r="G51" s="265"/>
+      <c r="H51" s="266"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -8033,12 +8033,12 @@
       <c r="O51" s="7"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="264">
+      <c r="S51" s="267">
         <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
         <v>21698</v>
       </c>
-      <c r="T51" s="265"/>
-      <c r="U51" s="266"/>
+      <c r="T51" s="268"/>
+      <c r="U51" s="269"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -8070,33 +8070,33 @@
     <row r="60" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="7"/>
-      <c r="C61" s="254" t="s">
+      <c r="C61" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="255"/>
-      <c r="E61" s="255"/>
-      <c r="F61" s="255"/>
-      <c r="G61" s="255"/>
-      <c r="H61" s="255"/>
-      <c r="I61" s="255"/>
-      <c r="J61" s="255"/>
-      <c r="K61" s="255"/>
+      <c r="D61" s="258"/>
+      <c r="E61" s="258"/>
+      <c r="F61" s="258"/>
+      <c r="G61" s="258"/>
+      <c r="H61" s="258"/>
+      <c r="I61" s="258"/>
+      <c r="J61" s="258"/>
+      <c r="K61" s="258"/>
       <c r="L61" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M61" s="133"/>
       <c r="N61" s="81"/>
-      <c r="O61" s="256" t="s">
+      <c r="O61" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P61" s="257"/>
-      <c r="Q61" s="257"/>
-      <c r="R61" s="257"/>
-      <c r="S61" s="257"/>
-      <c r="T61" s="257"/>
-      <c r="U61" s="257"/>
-      <c r="V61" s="257"/>
-      <c r="W61" s="257"/>
+      <c r="P61" s="260"/>
+      <c r="Q61" s="260"/>
+      <c r="R61" s="260"/>
+      <c r="S61" s="260"/>
+      <c r="T61" s="260"/>
+      <c r="U61" s="260"/>
+      <c r="V61" s="260"/>
+      <c r="W61" s="260"/>
       <c r="X61" s="190" t="str">
         <f>L61</f>
         <v># 01</v>
@@ -8105,21 +8105,21 @@
     <row r="62" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
       <c r="C62" s="1"/>
-      <c r="I62" s="258" t="s">
+      <c r="I62" s="261" t="s">
         <v>248</v>
       </c>
-      <c r="J62" s="259"/>
-      <c r="K62" s="260"/>
+      <c r="J62" s="262"/>
+      <c r="K62" s="263"/>
       <c r="L62" s="68"/>
       <c r="M62" s="134"/>
       <c r="N62" s="74"/>
       <c r="O62" s="7"/>
-      <c r="V62" s="258" t="str">
+      <c r="V62" s="261" t="str">
         <f>I62</f>
         <v>del   01- al  3   NOVIEMBRE  2023</v>
       </c>
-      <c r="W62" s="259"/>
-      <c r="X62" s="260"/>
+      <c r="W62" s="262"/>
+      <c r="X62" s="263"/>
     </row>
     <row r="63" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="6" t="s">
@@ -8736,12 +8736,12 @@
       <c r="C80" s="1"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="261">
+      <c r="F80" s="264">
         <f>K78+J78+I78+H78+G78+F78+E78+D78+L78</f>
         <v>3455</v>
       </c>
-      <c r="G80" s="262"/>
-      <c r="H80" s="263"/>
+      <c r="G80" s="265"/>
+      <c r="H80" s="266"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -8751,12 +8751,12 @@
       <c r="O80" s="7"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-      <c r="S80" s="264">
+      <c r="S80" s="267">
         <f>Q78+R78+S78+T78+U78+V78+W78+X78</f>
         <v>8067.5</v>
       </c>
-      <c r="T80" s="265"/>
-      <c r="U80" s="266"/>
+      <c r="T80" s="268"/>
+      <c r="U80" s="269"/>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
@@ -8787,24 +8787,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="O61:W61"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="S51:U51"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="S20:U20"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="O61:W61"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="S80:U80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8840,33 +8840,33 @@
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="254" t="s">
+      <c r="C2" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
       <c r="L2" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="256" t="s">
+      <c r="O2" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="257"/>
-      <c r="V2" s="257"/>
-      <c r="W2" s="257"/>
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 05</v>
@@ -8875,21 +8875,21 @@
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="258" t="s">
+      <c r="I3" s="261" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="259"/>
-      <c r="K3" s="260"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="263"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="258" t="str">
+      <c r="V3" s="261" t="str">
         <f>I3</f>
         <v>del       28--- al  31    OCTUBRE-2023</v>
       </c>
-      <c r="W3" s="259"/>
-      <c r="X3" s="260"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="263"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -9548,12 +9548,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="261">
+      <c r="F21" s="264">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>7829.5</v>
       </c>
-      <c r="G21" s="262"/>
-      <c r="H21" s="263"/>
+      <c r="G21" s="265"/>
+      <c r="H21" s="266"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -9563,12 +9563,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="264">
+      <c r="S21" s="267">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>9034</v>
       </c>
-      <c r="T21" s="265"/>
-      <c r="U21" s="266"/>
+      <c r="T21" s="268"/>
+      <c r="U21" s="269"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -9600,33 +9600,33 @@
     <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
-      <c r="C30" s="254" t="s">
+      <c r="C30" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="255"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="255"/>
-      <c r="H30" s="255"/>
-      <c r="I30" s="255"/>
-      <c r="J30" s="255"/>
-      <c r="K30" s="255"/>
+      <c r="D30" s="258"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="258"/>
+      <c r="I30" s="258"/>
+      <c r="J30" s="258"/>
+      <c r="K30" s="258"/>
       <c r="L30" s="128" t="s">
         <v>88</v>
       </c>
       <c r="M30" s="133"/>
       <c r="N30" s="81"/>
-      <c r="O30" s="256" t="s">
+      <c r="O30" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="257"/>
-      <c r="Q30" s="257"/>
-      <c r="R30" s="257"/>
-      <c r="S30" s="257"/>
-      <c r="T30" s="257"/>
-      <c r="U30" s="257"/>
-      <c r="V30" s="257"/>
-      <c r="W30" s="257"/>
+      <c r="P30" s="260"/>
+      <c r="Q30" s="260"/>
+      <c r="R30" s="260"/>
+      <c r="S30" s="260"/>
+      <c r="T30" s="260"/>
+      <c r="U30" s="260"/>
+      <c r="V30" s="260"/>
+      <c r="W30" s="260"/>
       <c r="X30" s="190" t="str">
         <f>L30</f>
         <v># 04</v>
@@ -9635,21 +9635,21 @@
     <row r="31" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
-      <c r="I31" s="258" t="s">
+      <c r="I31" s="261" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="259"/>
-      <c r="K31" s="260"/>
+      <c r="J31" s="262"/>
+      <c r="K31" s="263"/>
       <c r="L31" s="68"/>
       <c r="M31" s="134"/>
       <c r="N31" s="74"/>
       <c r="O31" s="7"/>
-      <c r="V31" s="258" t="str">
+      <c r="V31" s="261" t="str">
         <f>I31</f>
         <v>del       21--- al  27    OCTUBRE-2023</v>
       </c>
-      <c r="W31" s="259"/>
-      <c r="X31" s="260"/>
+      <c r="W31" s="262"/>
+      <c r="X31" s="263"/>
     </row>
     <row r="32" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
@@ -10311,12 +10311,12 @@
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="261">
+      <c r="F49" s="264">
         <f>K47+J47+I47+H47+G47+F47+E47+D47+L47</f>
         <v>9341</v>
       </c>
-      <c r="G49" s="262"/>
-      <c r="H49" s="263"/>
+      <c r="G49" s="265"/>
+      <c r="H49" s="266"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -10326,12 +10326,12 @@
       <c r="O49" s="7"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="264">
+      <c r="S49" s="267">
         <f>Q47+R47+S47+T47+U47+V47+W47+X47</f>
         <v>20161</v>
       </c>
-      <c r="T49" s="265"/>
-      <c r="U49" s="266"/>
+      <c r="T49" s="268"/>
+      <c r="U49" s="269"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -10363,33 +10363,33 @@
     <row r="59" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="254" t="s">
+      <c r="C60" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="255"/>
-      <c r="E60" s="255"/>
-      <c r="F60" s="255"/>
-      <c r="G60" s="255"/>
-      <c r="H60" s="255"/>
-      <c r="I60" s="255"/>
-      <c r="J60" s="255"/>
-      <c r="K60" s="255"/>
+      <c r="D60" s="258"/>
+      <c r="E60" s="258"/>
+      <c r="F60" s="258"/>
+      <c r="G60" s="258"/>
+      <c r="H60" s="258"/>
+      <c r="I60" s="258"/>
+      <c r="J60" s="258"/>
+      <c r="K60" s="258"/>
       <c r="L60" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="81"/>
-      <c r="O60" s="256" t="s">
+      <c r="O60" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="257"/>
-      <c r="Q60" s="257"/>
-      <c r="R60" s="257"/>
-      <c r="S60" s="257"/>
-      <c r="T60" s="257"/>
-      <c r="U60" s="257"/>
-      <c r="V60" s="257"/>
-      <c r="W60" s="257"/>
+      <c r="P60" s="260"/>
+      <c r="Q60" s="260"/>
+      <c r="R60" s="260"/>
+      <c r="S60" s="260"/>
+      <c r="T60" s="260"/>
+      <c r="U60" s="260"/>
+      <c r="V60" s="260"/>
+      <c r="W60" s="260"/>
       <c r="X60" s="190" t="s">
         <v>66</v>
       </c>
@@ -10397,21 +10397,21 @@
     <row r="61" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="I61" s="258" t="s">
+      <c r="I61" s="261" t="s">
         <v>209</v>
       </c>
-      <c r="J61" s="259"/>
-      <c r="K61" s="260"/>
+      <c r="J61" s="262"/>
+      <c r="K61" s="263"/>
       <c r="L61" s="68"/>
       <c r="M61" s="134"/>
       <c r="N61" s="74"/>
       <c r="O61" s="7"/>
-      <c r="V61" s="258" t="str">
+      <c r="V61" s="261" t="str">
         <f>I61</f>
         <v>del       14--- al  20    OCTUBRE-2023</v>
       </c>
-      <c r="W61" s="259"/>
-      <c r="X61" s="260"/>
+      <c r="W61" s="262"/>
+      <c r="X61" s="263"/>
     </row>
     <row r="62" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
@@ -11063,12 +11063,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="261">
+      <c r="F79" s="264">
         <f>K77+J77+I77+H77+G77+F77+E77+D77+L77</f>
         <v>12198</v>
       </c>
-      <c r="G79" s="262"/>
-      <c r="H79" s="263"/>
+      <c r="G79" s="265"/>
+      <c r="H79" s="266"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -11078,12 +11078,12 @@
       <c r="O79" s="7"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="264">
+      <c r="S79" s="267">
         <f>Q77+R77+S77+T77+U77+V77+W77+X77</f>
         <v>20122.5</v>
       </c>
-      <c r="T79" s="265"/>
-      <c r="U79" s="266"/>
+      <c r="T79" s="268"/>
+      <c r="U79" s="269"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -11234,33 +11234,33 @@
     <row r="90" spans="2:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B91" s="7"/>
-      <c r="C91" s="254" t="s">
+      <c r="C91" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="255"/>
-      <c r="E91" s="255"/>
-      <c r="F91" s="255"/>
-      <c r="G91" s="255"/>
-      <c r="H91" s="255"/>
-      <c r="I91" s="255"/>
-      <c r="J91" s="255"/>
-      <c r="K91" s="255"/>
+      <c r="D91" s="258"/>
+      <c r="E91" s="258"/>
+      <c r="F91" s="258"/>
+      <c r="G91" s="258"/>
+      <c r="H91" s="258"/>
+      <c r="I91" s="258"/>
+      <c r="J91" s="258"/>
+      <c r="K91" s="258"/>
       <c r="L91" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M91" s="133"/>
       <c r="N91" s="81"/>
-      <c r="O91" s="256" t="s">
+      <c r="O91" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P91" s="257"/>
-      <c r="Q91" s="257"/>
-      <c r="R91" s="257"/>
-      <c r="S91" s="257"/>
-      <c r="T91" s="257"/>
-      <c r="U91" s="257"/>
-      <c r="V91" s="257"/>
-      <c r="W91" s="257"/>
+      <c r="P91" s="260"/>
+      <c r="Q91" s="260"/>
+      <c r="R91" s="260"/>
+      <c r="S91" s="260"/>
+      <c r="T91" s="260"/>
+      <c r="U91" s="260"/>
+      <c r="V91" s="260"/>
+      <c r="W91" s="260"/>
       <c r="X91" s="190" t="s">
         <v>42</v>
       </c>
@@ -11268,21 +11268,21 @@
     <row r="92" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="1"/>
-      <c r="I92" s="258" t="s">
+      <c r="I92" s="261" t="s">
         <v>194</v>
       </c>
-      <c r="J92" s="259"/>
-      <c r="K92" s="260"/>
+      <c r="J92" s="262"/>
+      <c r="K92" s="263"/>
       <c r="L92" s="68"/>
       <c r="M92" s="134"/>
       <c r="N92" s="74"/>
       <c r="O92" s="7"/>
-      <c r="V92" s="258" t="str">
+      <c r="V92" s="261" t="str">
         <f>I92</f>
         <v>del       07--- al  13    OCTUBRE-2023</v>
       </c>
-      <c r="W92" s="259"/>
-      <c r="X92" s="260"/>
+      <c r="W92" s="262"/>
+      <c r="X92" s="263"/>
     </row>
     <row r="93" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
@@ -11935,12 +11935,12 @@
       <c r="C110" s="1"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="261">
+      <c r="F110" s="264">
         <f>K108+J108+I108+H108+G108+F108+E108+D108+L108</f>
         <v>12359</v>
       </c>
-      <c r="G110" s="262"/>
-      <c r="H110" s="263"/>
+      <c r="G110" s="265"/>
+      <c r="H110" s="266"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -11950,12 +11950,12 @@
       <c r="O110" s="7"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-      <c r="S110" s="264">
+      <c r="S110" s="267">
         <f>Q108+R108+S108+T108+U108+V108+W108+X108</f>
         <v>18256.5</v>
       </c>
-      <c r="T110" s="265"/>
-      <c r="U110" s="266"/>
+      <c r="T110" s="268"/>
+      <c r="U110" s="269"/>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
@@ -11986,33 +11986,33 @@
     <row r="115" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B116" s="7"/>
-      <c r="C116" s="254" t="s">
+      <c r="C116" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="255"/>
-      <c r="E116" s="255"/>
-      <c r="F116" s="255"/>
-      <c r="G116" s="255"/>
-      <c r="H116" s="255"/>
-      <c r="I116" s="255"/>
-      <c r="J116" s="255"/>
-      <c r="K116" s="255"/>
+      <c r="D116" s="258"/>
+      <c r="E116" s="258"/>
+      <c r="F116" s="258"/>
+      <c r="G116" s="258"/>
+      <c r="H116" s="258"/>
+      <c r="I116" s="258"/>
+      <c r="J116" s="258"/>
+      <c r="K116" s="258"/>
       <c r="L116" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M116" s="133"/>
       <c r="N116" s="81"/>
-      <c r="O116" s="256" t="s">
+      <c r="O116" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P116" s="257"/>
-      <c r="Q116" s="257"/>
-      <c r="R116" s="257"/>
-      <c r="S116" s="257"/>
-      <c r="T116" s="257"/>
-      <c r="U116" s="257"/>
-      <c r="V116" s="257"/>
-      <c r="W116" s="257"/>
+      <c r="P116" s="260"/>
+      <c r="Q116" s="260"/>
+      <c r="R116" s="260"/>
+      <c r="S116" s="260"/>
+      <c r="T116" s="260"/>
+      <c r="U116" s="260"/>
+      <c r="V116" s="260"/>
+      <c r="W116" s="260"/>
       <c r="X116" s="190" t="s">
         <v>41</v>
       </c>
@@ -12020,21 +12020,21 @@
     <row r="117" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="1"/>
-      <c r="I117" s="258" t="s">
+      <c r="I117" s="261" t="s">
         <v>167</v>
       </c>
-      <c r="J117" s="259"/>
-      <c r="K117" s="260"/>
+      <c r="J117" s="262"/>
+      <c r="K117" s="263"/>
       <c r="L117" s="68"/>
       <c r="M117" s="134"/>
       <c r="N117" s="74"/>
       <c r="O117" s="7"/>
-      <c r="V117" s="258" t="str">
+      <c r="V117" s="261" t="str">
         <f>I117</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W117" s="259"/>
-      <c r="X117" s="260"/>
+      <c r="W117" s="262"/>
+      <c r="X117" s="263"/>
     </row>
     <row r="118" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
@@ -12666,12 +12666,12 @@
       <c r="C135" s="1"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="261">
+      <c r="F135" s="264">
         <f>K133+J133+I133+H133+G133+F133+E133+D133+L133</f>
         <v>7969</v>
       </c>
-      <c r="G135" s="262"/>
-      <c r="H135" s="263"/>
+      <c r="G135" s="265"/>
+      <c r="H135" s="266"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -12681,12 +12681,12 @@
       <c r="O135" s="7"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
-      <c r="S135" s="264">
+      <c r="S135" s="267">
         <f>Q133+R133+S133+T133+U133+V133+W133+X133</f>
         <v>13753</v>
       </c>
-      <c r="T135" s="265"/>
-      <c r="U135" s="266"/>
+      <c r="T135" s="268"/>
+      <c r="U135" s="269"/>
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
@@ -12768,33 +12768,33 @@
     </row>
     <row r="142" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="7"/>
-      <c r="C142" s="254" t="s">
+      <c r="C142" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D142" s="255"/>
-      <c r="E142" s="255"/>
-      <c r="F142" s="255"/>
-      <c r="G142" s="255"/>
-      <c r="H142" s="255"/>
-      <c r="I142" s="255"/>
-      <c r="J142" s="255"/>
-      <c r="K142" s="255"/>
+      <c r="D142" s="258"/>
+      <c r="E142" s="258"/>
+      <c r="F142" s="258"/>
+      <c r="G142" s="258"/>
+      <c r="H142" s="258"/>
+      <c r="I142" s="258"/>
+      <c r="J142" s="258"/>
+      <c r="K142" s="258"/>
       <c r="L142" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M142" s="133"/>
       <c r="N142" s="81"/>
-      <c r="O142" s="256" t="s">
+      <c r="O142" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P142" s="257"/>
-      <c r="Q142" s="257"/>
-      <c r="R142" s="257"/>
-      <c r="S142" s="257"/>
-      <c r="T142" s="257"/>
-      <c r="U142" s="257"/>
-      <c r="V142" s="257"/>
-      <c r="W142" s="257"/>
+      <c r="P142" s="260"/>
+      <c r="Q142" s="260"/>
+      <c r="R142" s="260"/>
+      <c r="S142" s="260"/>
+      <c r="T142" s="260"/>
+      <c r="U142" s="260"/>
+      <c r="V142" s="260"/>
+      <c r="W142" s="260"/>
       <c r="X142" s="190" t="s">
         <v>41</v>
       </c>
@@ -12802,21 +12802,21 @@
     <row r="143" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="1"/>
-      <c r="I143" s="258" t="s">
+      <c r="I143" s="261" t="s">
         <v>167</v>
       </c>
-      <c r="J143" s="259"/>
-      <c r="K143" s="260"/>
+      <c r="J143" s="262"/>
+      <c r="K143" s="263"/>
       <c r="L143" s="68"/>
       <c r="M143" s="134"/>
       <c r="N143" s="74"/>
       <c r="O143" s="7"/>
-      <c r="V143" s="258" t="str">
+      <c r="V143" s="261" t="str">
         <f>I143</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W143" s="259"/>
-      <c r="X143" s="260"/>
+      <c r="W143" s="262"/>
+      <c r="X143" s="263"/>
     </row>
     <row r="144" spans="1:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
@@ -13469,12 +13469,12 @@
       <c r="C161" s="1"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="261">
+      <c r="F161" s="264">
         <f>K159+J159+I159+H159+G159+F159+E159+D159+L159</f>
         <v>12113</v>
       </c>
-      <c r="G161" s="262"/>
-      <c r="H161" s="263"/>
+      <c r="G161" s="265"/>
+      <c r="H161" s="266"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -13484,12 +13484,12 @@
       <c r="O161" s="7"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-      <c r="S161" s="264">
+      <c r="S161" s="267">
         <f>Q159+R159+S159+T159+U159+V159+W159+X159</f>
         <v>19443</v>
       </c>
-      <c r="T161" s="265"/>
-      <c r="U161" s="266"/>
+      <c r="T161" s="268"/>
+      <c r="U161" s="269"/>
       <c r="V161" s="5"/>
       <c r="W161" s="5"/>
       <c r="X161" s="5"/>
@@ -13534,42 +13534,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C116:K116"/>
+    <mergeCell ref="O116:W116"/>
+    <mergeCell ref="I117:K117"/>
+    <mergeCell ref="V117:X117"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="S135:U135"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="O60:W60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="O142:W142"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="V143:X143"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="S161:U161"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="S110:U110"/>
     <mergeCell ref="C30:K30"/>
     <mergeCell ref="O30:W30"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="V31:X31"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="S49:U49"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="V92:X92"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="S110:U110"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="O142:W142"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="V143:X143"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="S161:U161"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="O60:W60"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C116:K116"/>
-    <mergeCell ref="O116:W116"/>
-    <mergeCell ref="I117:K117"/>
-    <mergeCell ref="V117:X117"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="S135:U135"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13617,51 +13617,51 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="254" t="s">
+      <c r="C2" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
       <c r="L2" s="185" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="256" t="s">
+      <c r="O2" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="257"/>
-      <c r="S2" s="257"/>
-      <c r="T2" s="257"/>
-      <c r="U2" s="257"/>
-      <c r="V2" s="257"/>
-      <c r="W2" s="257"/>
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
       <c r="X2" s="187" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="258" t="s">
+      <c r="I3" s="261" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="259"/>
-      <c r="K3" s="260"/>
+      <c r="J3" s="262"/>
+      <c r="K3" s="263"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
-      <c r="V3" s="258" t="s">
+      <c r="V3" s="261" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="259"/>
-      <c r="X3" s="260"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="263"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -14328,12 +14328,12 @@
     <row r="21" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="261">
+      <c r="F21" s="264">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>15022</v>
       </c>
-      <c r="G21" s="262"/>
-      <c r="H21" s="263"/>
+      <c r="G21" s="265"/>
+      <c r="H21" s="266"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -14342,12 +14342,12 @@
       <c r="N21" s="74"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="264">
+      <c r="S21" s="267">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>23024</v>
       </c>
-      <c r="T21" s="265"/>
-      <c r="U21" s="266"/>
+      <c r="T21" s="268"/>
+      <c r="U21" s="269"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -14400,51 +14400,51 @@
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="254" t="s">
+      <c r="C32" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="255"/>
-      <c r="E32" s="255"/>
-      <c r="F32" s="255"/>
-      <c r="G32" s="255"/>
-      <c r="H32" s="255"/>
-      <c r="I32" s="255"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="255"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="258"/>
+      <c r="F32" s="258"/>
+      <c r="G32" s="258"/>
+      <c r="H32" s="258"/>
+      <c r="I32" s="258"/>
+      <c r="J32" s="258"/>
+      <c r="K32" s="258"/>
       <c r="L32" s="185" t="s">
         <v>208</v>
       </c>
       <c r="M32" s="133"/>
       <c r="N32" s="81"/>
-      <c r="O32" s="267" t="s">
+      <c r="O32" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="268"/>
-      <c r="Q32" s="268"/>
-      <c r="R32" s="268"/>
-      <c r="S32" s="268"/>
-      <c r="T32" s="268"/>
-      <c r="U32" s="268"/>
-      <c r="V32" s="268"/>
-      <c r="W32" s="268"/>
+      <c r="P32" s="271"/>
+      <c r="Q32" s="271"/>
+      <c r="R32" s="271"/>
+      <c r="S32" s="271"/>
+      <c r="T32" s="271"/>
+      <c r="U32" s="271"/>
+      <c r="V32" s="271"/>
+      <c r="W32" s="271"/>
       <c r="X32" s="128" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="33" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="258" t="s">
+      <c r="I33" s="261" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="259"/>
-      <c r="K33" s="260"/>
+      <c r="J33" s="262"/>
+      <c r="K33" s="263"/>
       <c r="L33" s="68"/>
       <c r="M33" s="134"/>
       <c r="N33" s="74"/>
-      <c r="V33" s="258" t="s">
+      <c r="V33" s="261" t="s">
         <v>150</v>
       </c>
-      <c r="W33" s="259"/>
-      <c r="X33" s="260"/>
+      <c r="W33" s="262"/>
+      <c r="X33" s="263"/>
     </row>
     <row r="34" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
@@ -15100,12 +15100,12 @@
     <row r="51" spans="3:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="261">
+      <c r="F51" s="264">
         <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
         <v>14572.5</v>
       </c>
-      <c r="G51" s="262"/>
-      <c r="H51" s="263"/>
+      <c r="G51" s="265"/>
+      <c r="H51" s="266"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -15114,12 +15114,12 @@
       <c r="N51" s="74"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="264">
+      <c r="S51" s="267">
         <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
         <v>21274</v>
       </c>
-      <c r="T51" s="265"/>
-      <c r="U51" s="266"/>
+      <c r="T51" s="268"/>
+      <c r="U51" s="269"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -15184,51 +15184,51 @@
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C66" s="254" t="s">
+      <c r="C66" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="255"/>
-      <c r="E66" s="255"/>
-      <c r="F66" s="255"/>
-      <c r="G66" s="255"/>
-      <c r="H66" s="255"/>
-      <c r="I66" s="255"/>
-      <c r="J66" s="255"/>
-      <c r="K66" s="255"/>
+      <c r="D66" s="258"/>
+      <c r="E66" s="258"/>
+      <c r="F66" s="258"/>
+      <c r="G66" s="258"/>
+      <c r="H66" s="258"/>
+      <c r="I66" s="258"/>
+      <c r="J66" s="258"/>
+      <c r="K66" s="258"/>
       <c r="L66" s="84" t="s">
         <v>88</v>
       </c>
       <c r="M66" s="83"/>
       <c r="N66" s="81"/>
-      <c r="O66" s="267" t="s">
+      <c r="O66" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P66" s="268"/>
-      <c r="Q66" s="268"/>
-      <c r="R66" s="268"/>
-      <c r="S66" s="268"/>
-      <c r="T66" s="268"/>
-      <c r="U66" s="268"/>
-      <c r="V66" s="268"/>
-      <c r="W66" s="268"/>
+      <c r="P66" s="271"/>
+      <c r="Q66" s="271"/>
+      <c r="R66" s="271"/>
+      <c r="S66" s="271"/>
+      <c r="T66" s="271"/>
+      <c r="U66" s="271"/>
+      <c r="V66" s="271"/>
+      <c r="W66" s="271"/>
       <c r="X66" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I67" s="258" t="s">
+      <c r="I67" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="J67" s="259"/>
-      <c r="K67" s="260"/>
+      <c r="J67" s="262"/>
+      <c r="K67" s="263"/>
       <c r="L67" s="68"/>
       <c r="M67" s="59"/>
       <c r="N67" s="74"/>
-      <c r="V67" s="258" t="s">
+      <c r="V67" s="261" t="s">
         <v>107</v>
       </c>
-      <c r="W67" s="259"/>
-      <c r="X67" s="260"/>
+      <c r="W67" s="262"/>
+      <c r="X67" s="263"/>
     </row>
     <row r="68" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -15904,12 +15904,12 @@
     <row r="85" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="261">
+      <c r="F85" s="264">
         <f>K83+J83+I83+H83+G83+F83+E83+D83+L83</f>
         <v>9784</v>
       </c>
-      <c r="G85" s="262"/>
-      <c r="H85" s="263"/>
+      <c r="G85" s="265"/>
+      <c r="H85" s="266"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -15918,12 +15918,12 @@
       <c r="N85" s="74"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-      <c r="S85" s="264">
+      <c r="S85" s="267">
         <f>Q83+R83+S83+T83+U83+V83+W83+X83</f>
         <v>18984.5</v>
       </c>
-      <c r="T85" s="265"/>
-      <c r="U85" s="266"/>
+      <c r="T85" s="268"/>
+      <c r="U85" s="269"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
@@ -15976,51 +15976,51 @@
     </row>
     <row r="96" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C97" s="254" t="s">
+      <c r="C97" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="255"/>
-      <c r="E97" s="255"/>
-      <c r="F97" s="255"/>
-      <c r="G97" s="255"/>
-      <c r="H97" s="255"/>
-      <c r="I97" s="255"/>
-      <c r="J97" s="255"/>
-      <c r="K97" s="255"/>
+      <c r="D97" s="258"/>
+      <c r="E97" s="258"/>
+      <c r="F97" s="258"/>
+      <c r="G97" s="258"/>
+      <c r="H97" s="258"/>
+      <c r="I97" s="258"/>
+      <c r="J97" s="258"/>
+      <c r="K97" s="258"/>
       <c r="L97" s="84" t="s">
         <v>66</v>
       </c>
       <c r="M97" s="83"/>
       <c r="N97" s="81"/>
-      <c r="O97" s="267" t="s">
+      <c r="O97" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P97" s="268"/>
-      <c r="Q97" s="268"/>
-      <c r="R97" s="268"/>
-      <c r="S97" s="268"/>
-      <c r="T97" s="268"/>
-      <c r="U97" s="268"/>
-      <c r="V97" s="268"/>
-      <c r="W97" s="268"/>
+      <c r="P97" s="271"/>
+      <c r="Q97" s="271"/>
+      <c r="R97" s="271"/>
+      <c r="S97" s="271"/>
+      <c r="T97" s="271"/>
+      <c r="U97" s="271"/>
+      <c r="V97" s="271"/>
+      <c r="W97" s="271"/>
       <c r="X97" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="98" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I98" s="258" t="s">
+      <c r="I98" s="261" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="259"/>
-      <c r="K98" s="260"/>
+      <c r="J98" s="262"/>
+      <c r="K98" s="263"/>
       <c r="L98" s="68"/>
       <c r="M98" s="59"/>
       <c r="N98" s="74"/>
-      <c r="V98" s="258" t="s">
+      <c r="V98" s="261" t="s">
         <v>68</v>
       </c>
-      <c r="W98" s="259"/>
-      <c r="X98" s="260"/>
+      <c r="W98" s="262"/>
+      <c r="X98" s="263"/>
     </row>
     <row r="99" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
@@ -16692,12 +16692,12 @@
     <row r="116" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="261">
+      <c r="F116" s="264">
         <f>K114+J114+I114+H114+G114+F114+E114+D114+L114</f>
         <v>13702.5</v>
       </c>
-      <c r="G116" s="262"/>
-      <c r="H116" s="263"/>
+      <c r="G116" s="265"/>
+      <c r="H116" s="266"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -16706,12 +16706,12 @@
       <c r="N116" s="74"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-      <c r="S116" s="264">
+      <c r="S116" s="267">
         <f>Q114+R114+S114+T114+U114+V114+W114+X114</f>
         <v>19583</v>
       </c>
-      <c r="T116" s="265"/>
-      <c r="U116" s="266"/>
+      <c r="T116" s="268"/>
+      <c r="U116" s="269"/>
       <c r="V116" s="5">
         <v>19583</v>
       </c>
@@ -16766,48 +16766,48 @@
     </row>
     <row r="129" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C130" s="254" t="s">
+      <c r="C130" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D130" s="255"/>
-      <c r="E130" s="255"/>
-      <c r="F130" s="255"/>
-      <c r="G130" s="255"/>
-      <c r="H130" s="255"/>
-      <c r="I130" s="255"/>
-      <c r="J130" s="255"/>
-      <c r="K130" s="255"/>
+      <c r="D130" s="258"/>
+      <c r="E130" s="258"/>
+      <c r="F130" s="258"/>
+      <c r="G130" s="258"/>
+      <c r="H130" s="258"/>
+      <c r="I130" s="258"/>
+      <c r="J130" s="258"/>
+      <c r="K130" s="258"/>
       <c r="L130" s="84" t="s">
         <v>42</v>
       </c>
       <c r="M130" s="83"/>
       <c r="N130" s="81"/>
-      <c r="O130" s="267" t="s">
+      <c r="O130" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P130" s="268"/>
-      <c r="Q130" s="268"/>
-      <c r="R130" s="268"/>
-      <c r="S130" s="268"/>
-      <c r="T130" s="268"/>
-      <c r="U130" s="268"/>
-      <c r="V130" s="268"/>
-      <c r="W130" s="268"/>
+      <c r="P130" s="271"/>
+      <c r="Q130" s="271"/>
+      <c r="R130" s="271"/>
+      <c r="S130" s="271"/>
+      <c r="T130" s="271"/>
+      <c r="U130" s="271"/>
+      <c r="V130" s="271"/>
+      <c r="W130" s="271"/>
       <c r="X130" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="131" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I131" s="258" t="s">
+      <c r="I131" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="J131" s="259"/>
-      <c r="K131" s="260"/>
+      <c r="J131" s="262"/>
+      <c r="K131" s="263"/>
       <c r="L131" s="68"/>
       <c r="M131" s="59"/>
       <c r="N131" s="74"/>
-      <c r="W131" s="259"/>
-      <c r="X131" s="260"/>
+      <c r="W131" s="262"/>
+      <c r="X131" s="263"/>
     </row>
     <row r="132" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
@@ -17474,12 +17474,12 @@
     <row r="149" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="261">
+      <c r="F149" s="264">
         <f>K147+J147+I147+H147+G147+F147+E147+D147+L147</f>
         <v>13447.5</v>
       </c>
-      <c r="G149" s="262"/>
-      <c r="H149" s="263"/>
+      <c r="G149" s="265"/>
+      <c r="H149" s="266"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
         <v>13447.5</v>
@@ -17490,12 +17490,12 @@
       <c r="N149" s="74"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-      <c r="S149" s="264">
+      <c r="S149" s="267">
         <f>Q147+R147+S147+T147+U147+V147+W147+X147</f>
         <v>19080.5</v>
       </c>
-      <c r="T149" s="265"/>
-      <c r="U149" s="266"/>
+      <c r="T149" s="268"/>
+      <c r="U149" s="269"/>
       <c r="V149" s="5">
         <v>19080.5</v>
       </c>
@@ -17574,48 +17574,48 @@
     </row>
     <row r="155" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="156" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C156" s="254" t="s">
+      <c r="C156" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D156" s="255"/>
-      <c r="E156" s="255"/>
-      <c r="F156" s="255"/>
-      <c r="G156" s="255"/>
-      <c r="H156" s="255"/>
-      <c r="I156" s="255"/>
-      <c r="J156" s="255"/>
-      <c r="K156" s="255"/>
+      <c r="D156" s="258"/>
+      <c r="E156" s="258"/>
+      <c r="F156" s="258"/>
+      <c r="G156" s="258"/>
+      <c r="H156" s="258"/>
+      <c r="I156" s="258"/>
+      <c r="J156" s="258"/>
+      <c r="K156" s="258"/>
       <c r="L156" s="84" t="s">
         <v>41</v>
       </c>
       <c r="M156" s="83"/>
       <c r="N156" s="81"/>
-      <c r="O156" s="267" t="s">
+      <c r="O156" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P156" s="268"/>
-      <c r="Q156" s="268"/>
-      <c r="R156" s="268"/>
-      <c r="S156" s="268"/>
-      <c r="T156" s="268"/>
-      <c r="U156" s="268"/>
-      <c r="V156" s="268"/>
-      <c r="W156" s="268"/>
+      <c r="P156" s="271"/>
+      <c r="Q156" s="271"/>
+      <c r="R156" s="271"/>
+      <c r="S156" s="271"/>
+      <c r="T156" s="271"/>
+      <c r="U156" s="271"/>
+      <c r="V156" s="271"/>
+      <c r="W156" s="271"/>
       <c r="X156" s="85" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="157" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I157" s="258" t="s">
+      <c r="I157" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="J157" s="259"/>
-      <c r="K157" s="260"/>
+      <c r="J157" s="262"/>
+      <c r="K157" s="263"/>
       <c r="L157" s="68"/>
       <c r="M157" s="59"/>
       <c r="N157" s="74"/>
-      <c r="W157" s="259"/>
-      <c r="X157" s="260"/>
+      <c r="W157" s="262"/>
+      <c r="X157" s="263"/>
     </row>
     <row r="158" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
@@ -18832,12 +18832,12 @@
     <row r="184" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="269">
+      <c r="F184" s="272">
         <f>K182+J182+I182+H182+G182+F182+E182+D182</f>
         <v>13579</v>
       </c>
-      <c r="G184" s="262"/>
-      <c r="H184" s="263"/>
+      <c r="G184" s="265"/>
+      <c r="H184" s="266"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5">
         <v>13579</v>
@@ -18848,12 +18848,12 @@
       <c r="N184" s="74"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-      <c r="S184" s="264">
+      <c r="S184" s="267">
         <f>Q182+R182+S182+T182+U182+V182+W182+X182</f>
         <v>20452</v>
       </c>
-      <c r="T184" s="265"/>
-      <c r="U184" s="266"/>
+      <c r="T184" s="268"/>
+      <c r="U184" s="269"/>
       <c r="V184" s="5">
         <v>20452</v>
       </c>
@@ -18940,42 +18940,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="O97:W97"/>
+    <mergeCell ref="S116:U116"/>
+    <mergeCell ref="V98:X98"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="C156:K156"/>
+    <mergeCell ref="S184:U184"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="O156:W156"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="O130:W130"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="S149:U149"/>
     <mergeCell ref="C66:K66"/>
     <mergeCell ref="O66:W66"/>
     <mergeCell ref="I67:K67"/>
     <mergeCell ref="V67:X67"/>
     <mergeCell ref="F85:H85"/>
     <mergeCell ref="S85:U85"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="O130:W130"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="S149:U149"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="C156:K156"/>
-    <mergeCell ref="S184:U184"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="O156:W156"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="O97:W97"/>
-    <mergeCell ref="S116:U116"/>
-    <mergeCell ref="V98:X98"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19007,51 +19007,51 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="254" t="s">
+      <c r="D2" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="254" t="s">
+      <c r="T2" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="255"/>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="255"/>
-      <c r="Y2" s="255"/>
-      <c r="Z2" s="255"/>
-      <c r="AA2" s="255"/>
-      <c r="AB2" s="255"/>
+      <c r="U2" s="258"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="258"/>
+      <c r="X2" s="258"/>
+      <c r="Y2" s="258"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="258"/>
+      <c r="AB2" s="258"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="258" t="s">
+      <c r="J3" s="261" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="259"/>
-      <c r="L3" s="270"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="273"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="258" t="s">
+      <c r="Z3" s="261" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="259"/>
-      <c r="AB3" s="260"/>
+      <c r="AA3" s="262"/>
+      <c r="AB3" s="263"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -19576,51 +19576,51 @@
     <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="7"/>
-      <c r="D16" s="267" t="s">
+      <c r="D16" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="268"/>
-      <c r="I16" s="268"/>
-      <c r="J16" s="268"/>
-      <c r="K16" s="268"/>
-      <c r="L16" s="268"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="271"/>
+      <c r="J16" s="271"/>
+      <c r="K16" s="271"/>
+      <c r="L16" s="271"/>
       <c r="M16" s="171"/>
       <c r="N16" s="151"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="267" t="s">
+      <c r="T16" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="268"/>
-      <c r="V16" s="268"/>
-      <c r="W16" s="268"/>
-      <c r="X16" s="268"/>
-      <c r="Y16" s="268"/>
-      <c r="Z16" s="268"/>
-      <c r="AA16" s="268"/>
-      <c r="AB16" s="268"/>
+      <c r="U16" s="271"/>
+      <c r="V16" s="271"/>
+      <c r="W16" s="271"/>
+      <c r="X16" s="271"/>
+      <c r="Y16" s="271"/>
+      <c r="Z16" s="271"/>
+      <c r="AA16" s="271"/>
+      <c r="AB16" s="271"/>
       <c r="AC16" s="171"/>
       <c r="AD16" s="151"/>
     </row>
     <row r="17" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
-      <c r="J17" s="258" t="s">
+      <c r="J17" s="261" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="259"/>
-      <c r="L17" s="270"/>
+      <c r="K17" s="262"/>
+      <c r="L17" s="273"/>
       <c r="M17" s="68"/>
       <c r="N17" s="152"/>
       <c r="S17" s="7"/>
       <c r="T17" s="1"/>
-      <c r="Z17" s="258" t="s">
+      <c r="Z17" s="261" t="s">
         <v>184</v>
       </c>
-      <c r="AA17" s="259"/>
-      <c r="AB17" s="260"/>
+      <c r="AA17" s="262"/>
+      <c r="AB17" s="263"/>
       <c r="AC17" s="68"/>
       <c r="AD17" s="152"/>
     </row>
@@ -20150,68 +20150,68 @@
     <row r="1" spans="2:47" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:47" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="254" t="s">
+      <c r="D2" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="254" t="s">
+      <c r="U2" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="255"/>
-      <c r="W2" s="255"/>
-      <c r="X2" s="255"/>
-      <c r="Y2" s="255"/>
-      <c r="Z2" s="255"/>
-      <c r="AA2" s="255"/>
-      <c r="AB2" s="255"/>
-      <c r="AC2" s="255"/>
+      <c r="V2" s="258"/>
+      <c r="W2" s="258"/>
+      <c r="X2" s="258"/>
+      <c r="Y2" s="258"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="258"/>
+      <c r="AB2" s="258"/>
+      <c r="AC2" s="258"/>
       <c r="AD2" s="84"/>
       <c r="AE2" s="151"/>
       <c r="AI2" s="7"/>
-      <c r="AJ2" s="254" t="s">
+      <c r="AJ2" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="255"/>
-      <c r="AL2" s="255"/>
-      <c r="AM2" s="255"/>
-      <c r="AN2" s="255"/>
-      <c r="AO2" s="255"/>
-      <c r="AP2" s="255"/>
-      <c r="AQ2" s="255"/>
-      <c r="AR2" s="255"/>
+      <c r="AK2" s="258"/>
+      <c r="AL2" s="258"/>
+      <c r="AM2" s="258"/>
+      <c r="AN2" s="258"/>
+      <c r="AO2" s="258"/>
+      <c r="AP2" s="258"/>
+      <c r="AQ2" s="258"/>
+      <c r="AR2" s="258"/>
       <c r="AS2" s="84"/>
       <c r="AT2" s="151"/>
     </row>
     <row r="3" spans="2:47" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="270"/>
+      <c r="J3" s="261"/>
+      <c r="K3" s="262"/>
+      <c r="L3" s="273"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="T3" s="7"/>
       <c r="U3" s="1"/>
-      <c r="AA3" s="258"/>
-      <c r="AB3" s="259"/>
-      <c r="AC3" s="270"/>
+      <c r="AA3" s="261"/>
+      <c r="AB3" s="262"/>
+      <c r="AC3" s="273"/>
       <c r="AD3" s="68"/>
       <c r="AE3" s="152"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="1"/>
-      <c r="AP3" s="258"/>
-      <c r="AQ3" s="259"/>
-      <c r="AR3" s="260"/>
+      <c r="AP3" s="261"/>
+      <c r="AQ3" s="262"/>
+      <c r="AR3" s="263"/>
       <c r="AS3" s="68"/>
       <c r="AT3" s="152"/>
     </row>
@@ -20635,12 +20635,12 @@
       <c r="AJ7" s="153"/>
       <c r="AK7" s="225"/>
       <c r="AL7" s="227"/>
-      <c r="AM7" s="277" t="s">
+      <c r="AM7" s="280" t="s">
         <v>192</v>
       </c>
-      <c r="AN7" s="277"/>
-      <c r="AO7" s="277"/>
-      <c r="AP7" s="278"/>
+      <c r="AN7" s="280"/>
+      <c r="AO7" s="280"/>
+      <c r="AP7" s="281"/>
       <c r="AQ7" s="226"/>
       <c r="AR7" s="225"/>
       <c r="AS7" s="228"/>
@@ -20824,12 +20824,12 @@
       <c r="B10" s="154"/>
       <c r="E10" s="30"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="271" t="s">
+      <c r="G10" s="274" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="272"/>
-      <c r="I10" s="272"/>
-      <c r="J10" s="273"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="275"/>
+      <c r="J10" s="276"/>
       <c r="K10" s="22"/>
       <c r="L10" s="157"/>
       <c r="M10" s="77"/>
@@ -20839,12 +20839,12 @@
       <c r="S10" s="154"/>
       <c r="V10" s="30"/>
       <c r="W10" s="31"/>
-      <c r="X10" s="279" t="s">
+      <c r="X10" s="282" t="s">
         <v>193</v>
       </c>
-      <c r="Y10" s="280"/>
-      <c r="Z10" s="280"/>
-      <c r="AA10" s="281"/>
+      <c r="Y10" s="283"/>
+      <c r="Z10" s="283"/>
+      <c r="AA10" s="284"/>
       <c r="AB10" s="22"/>
       <c r="AC10" s="157"/>
       <c r="AD10" s="77"/>
@@ -21270,45 +21270,45 @@
     </row>
     <row r="22" spans="2:47" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="7"/>
-      <c r="D22" s="267" t="s">
+      <c r="D22" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="268"/>
-      <c r="F22" s="268"/>
-      <c r="G22" s="268"/>
-      <c r="H22" s="268"/>
-      <c r="I22" s="268"/>
-      <c r="J22" s="268"/>
-      <c r="K22" s="268"/>
-      <c r="L22" s="274"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="271"/>
+      <c r="G22" s="271"/>
+      <c r="H22" s="271"/>
+      <c r="I22" s="271"/>
+      <c r="J22" s="271"/>
+      <c r="K22" s="271"/>
+      <c r="L22" s="279"/>
       <c r="M22" s="171"/>
       <c r="N22" s="151"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="267" t="s">
+      <c r="U22" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="V22" s="268"/>
-      <c r="W22" s="268"/>
-      <c r="X22" s="268"/>
-      <c r="Y22" s="268"/>
-      <c r="Z22" s="268"/>
-      <c r="AA22" s="268"/>
-      <c r="AB22" s="268"/>
-      <c r="AC22" s="274"/>
+      <c r="V22" s="271"/>
+      <c r="W22" s="271"/>
+      <c r="X22" s="271"/>
+      <c r="Y22" s="271"/>
+      <c r="Z22" s="271"/>
+      <c r="AA22" s="271"/>
+      <c r="AB22" s="271"/>
+      <c r="AC22" s="279"/>
       <c r="AD22" s="171"/>
       <c r="AE22" s="151"/>
       <c r="AI22" s="7"/>
-      <c r="AJ22" s="267" t="s">
+      <c r="AJ22" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="AK22" s="268"/>
-      <c r="AL22" s="268"/>
-      <c r="AM22" s="268"/>
-      <c r="AN22" s="268"/>
-      <c r="AO22" s="268"/>
-      <c r="AP22" s="268"/>
-      <c r="AQ22" s="268"/>
-      <c r="AR22" s="268"/>
+      <c r="AK22" s="271"/>
+      <c r="AL22" s="271"/>
+      <c r="AM22" s="271"/>
+      <c r="AN22" s="271"/>
+      <c r="AO22" s="271"/>
+      <c r="AP22" s="271"/>
+      <c r="AQ22" s="271"/>
+      <c r="AR22" s="271"/>
       <c r="AS22" s="171"/>
       <c r="AT22" s="151"/>
     </row>
@@ -21329,9 +21329,9 @@
       <c r="AE23" s="152"/>
       <c r="AI23" s="7"/>
       <c r="AJ23" s="1"/>
-      <c r="AP23" s="258"/>
-      <c r="AQ23" s="259"/>
-      <c r="AR23" s="260"/>
+      <c r="AP23" s="261"/>
+      <c r="AQ23" s="262"/>
+      <c r="AR23" s="263"/>
       <c r="AS23" s="68"/>
       <c r="AT23" s="152"/>
     </row>
@@ -21836,12 +21836,12 @@
       <c r="AH28" s="154"/>
       <c r="AK28" s="30"/>
       <c r="AL28" s="31"/>
-      <c r="AM28" s="275" t="s">
+      <c r="AM28" s="277" t="s">
         <v>192</v>
       </c>
-      <c r="AN28" s="275"/>
-      <c r="AO28" s="275"/>
-      <c r="AP28" s="276"/>
+      <c r="AN28" s="277"/>
+      <c r="AO28" s="277"/>
+      <c r="AP28" s="278"/>
       <c r="AQ28" s="22"/>
       <c r="AR28" s="157"/>
       <c r="AS28" s="77"/>
@@ -21924,12 +21924,12 @@
       <c r="B30" s="154"/>
       <c r="E30" s="30"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="271" t="s">
+      <c r="G30" s="274" t="s">
         <v>267</v>
       </c>
-      <c r="H30" s="272"/>
-      <c r="I30" s="272"/>
-      <c r="J30" s="273"/>
+      <c r="H30" s="275"/>
+      <c r="I30" s="275"/>
+      <c r="J30" s="276"/>
       <c r="K30" s="22"/>
       <c r="L30" s="157"/>
       <c r="M30" s="77"/>
@@ -21939,12 +21939,12 @@
       <c r="S30" s="154"/>
       <c r="V30" s="30"/>
       <c r="W30" s="31"/>
-      <c r="X30" s="271" t="s">
+      <c r="X30" s="274" t="s">
         <v>193</v>
       </c>
-      <c r="Y30" s="272"/>
-      <c r="Z30" s="272"/>
-      <c r="AA30" s="273"/>
+      <c r="Y30" s="275"/>
+      <c r="Z30" s="275"/>
+      <c r="AA30" s="276"/>
       <c r="AB30" s="22"/>
       <c r="AC30" s="157"/>
       <c r="AD30" s="77"/>
@@ -22078,22 +22078,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="U22:AC22"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AJ2:AR2"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AJ22:AR22"/>
     <mergeCell ref="AP23:AR23"/>
     <mergeCell ref="U2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="U22:AC22"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="321">
   <si>
     <t>FECHA</t>
   </si>
@@ -981,6 +981,51 @@
   </si>
   <si>
     <t>lechuga-cilantro-epazote-oregano-tomillo--Rabano</t>
+  </si>
+  <si>
+    <t>del   18- al  24   NOVIEMBRE  2023</t>
+  </si>
+  <si>
+    <t>18--AL---24--Nov-23</t>
+  </si>
+  <si>
+    <t>Tostadas--queso panela--chuleta ahum--costilla--jamon-pollo-tostadas</t>
+  </si>
+  <si>
+    <t>Sandia-Melon--Manzana--</t>
+  </si>
+  <si>
+    <t>Epazote--poro--espinacas</t>
+  </si>
+  <si>
+    <t>Atun--elote--leche--harina--italpasta-fibra--crema alpura--galleta bombitos</t>
+  </si>
+  <si>
+    <t>guajillo--cacahuate--ajonjoli--Jamaica</t>
+  </si>
+  <si>
+    <t>Calabaza-Jitomate-Chayote-Papa-Ejote-Zanahoria-Serrano-Cebolla-Ajo-Pepino-Limon-Tampico-Aguacate-Brocoli--Chicharo-Nopales--Lechugas--</t>
+  </si>
+  <si>
+    <t>AZUCAR -----21-Oct-23--11-Nov-23</t>
+  </si>
+  <si>
+    <t>Tostadas Delicias--Chuleta Ahum--crema--queso--costilla--jamon--pollo-</t>
+  </si>
+  <si>
+    <t>Chicharo--chayote-Zanahoria-Calabaza-Tampico-Poblano-ajo-serrano-papa--tomate-calabaza--Jitomate-brocoli--aguacate--oeoubi-limon</t>
+  </si>
+  <si>
+    <t>Guayaba--melon--sandia--Limon</t>
+  </si>
+  <si>
+    <t>Tomillo-oregano--laurel--hoja de aguacate--Romana-china-cilantro-Epazote--30</t>
+  </si>
+  <si>
+    <t>Mayonesa-rajas-chipotles-yogurth--nescafe--Italpasta--atun-galleta bombita</t>
+  </si>
+  <si>
+    <t>Hilaza--cacahuate-puya--costeño--ancho--jamaica</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2719,14 +2764,14 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2757,6 +2802,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5110,7 +5161,7 @@
       <c r="T2" s="271"/>
       <c r="U2" s="271"/>
       <c r="V2" s="271"/>
-      <c r="W2" s="279"/>
+      <c r="W2" s="277"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -6508,11 +6559,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:AA81"/>
+  <dimension ref="B1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="N5" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6526,221 +6576,183 @@
     <col min="23" max="23" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="7"/>
-      <c r="C1" s="257" t="s">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7"/>
+      <c r="C2" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="258"/>
-      <c r="L1" s="128" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="133"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="259" t="s">
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="133"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="260"/>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="190" t="str">
-        <f>L1</f>
-        <v># 03</v>
-      </c>
-    </row>
-    <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="1"/>
-      <c r="I2" s="261" t="s">
-        <v>290</v>
-      </c>
-      <c r="J2" s="262"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="7"/>
-      <c r="V2" s="261" t="str">
-        <f>I2</f>
-        <v>del   11- al  17   NOVIEMBRE  2023</v>
-      </c>
-      <c r="W2" s="262"/>
-      <c r="X2" s="263"/>
-    </row>
-    <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
+      <c r="R2" s="260"/>
+      <c r="S2" s="260"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
+      <c r="X2" s="190" t="str">
+        <f>L2</f>
+        <v># 04</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+      <c r="C3" s="1"/>
+      <c r="I3" s="261" t="s">
+        <v>306</v>
+      </c>
+      <c r="J3" s="262"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="7"/>
+      <c r="V3" s="261" t="str">
+        <f>I3</f>
+        <v>del   18- al  24   NOVIEMBRE  2023</v>
+      </c>
+      <c r="W3" s="262"/>
+      <c r="X3" s="263"/>
+    </row>
+    <row r="4" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="184" t="s">
+      <c r="I4" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="183" t="s">
+      <c r="K4" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="99" t="s">
+      <c r="L4" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="135"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="143" t="s">
+      <c r="M4" s="135"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="137" t="s">
+      <c r="Q4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="138" t="s">
+      <c r="R4" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="138" t="s">
+      <c r="S4" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="137" t="s">
+      <c r="T4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="137" t="s">
+      <c r="U4" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="141" t="s">
+      <c r="V4" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="136" t="s">
+      <c r="W4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="142" t="s">
+      <c r="X4" s="142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="234" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72">
-        <f>316+937+1186+1164+768+820</f>
-        <v>5191</v>
-      </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="P4" s="234" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72">
-        <f>184+1284+1811+1266+987+730+480</f>
-        <v>6742</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67">
-        <f>801+75+66+392</f>
-        <v>1334</v>
-      </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
+        <v>307</v>
+      </c>
+      <c r="C5" s="234" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72">
+        <f>444+1080+780+88+921</f>
+        <v>3313</v>
+      </c>
+      <c r="L5" s="71"/>
       <c r="M5" s="131"/>
       <c r="N5" s="74"/>
       <c r="O5" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67">
-        <f>1719+66+700+75</f>
-        <v>2560</v>
-      </c>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-    </row>
-    <row r="6" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="P5" s="234" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72">
+        <f>280+1907+1048+172+1410</f>
+        <v>4817</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67">
-        <f>60+40</f>
-        <v>100</v>
-      </c>
+      <c r="F6" s="67">
+        <f>1653+75+52+160+120+20+90</f>
+        <v>2170</v>
+      </c>
+      <c r="G6" s="67"/>
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
@@ -6749,37 +6761,36 @@
       <c r="M6" s="131"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q6" s="67">
-        <f>220+100+200+360+375</f>
-        <v>1255</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="Q6" s="67"/>
       <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
+      <c r="S6" s="67">
+        <f>2090+945+27+20+140</f>
+        <v>3222</v>
+      </c>
       <c r="T6" s="67"/>
       <c r="U6" s="67"/>
       <c r="V6" s="67"/>
       <c r="W6" s="67"/>
       <c r="X6" s="67"/>
     </row>
-    <row r="7" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="67">
-        <f>50+160+260</f>
-        <v>470</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="G7" s="67">
+        <v>25</v>
+      </c>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="67"/>
@@ -6788,194 +6799,195 @@
       <c r="M7" s="131"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="P7" s="239" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q7" s="67"/>
+        <v>307</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q7" s="67">
+        <f>150+294+40</f>
+        <v>484</v>
+      </c>
       <c r="R7" s="67"/>
       <c r="S7" s="67"/>
-      <c r="T7" s="67">
-        <v>90</v>
-      </c>
+      <c r="T7" s="67"/>
       <c r="U7" s="67"/>
       <c r="V7" s="67"/>
       <c r="W7" s="67"/>
       <c r="X7" s="67"/>
     </row>
-    <row r="8" spans="2:27" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" s="67"/>
+        <v>307</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="67">
+        <f>67+166+354+89</f>
+        <v>676</v>
+      </c>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
-      <c r="J8" s="67">
-        <f>1094+127+315</f>
-        <v>1536</v>
-      </c>
+      <c r="J8" s="67"/>
       <c r="K8" s="67"/>
       <c r="L8" s="67"/>
       <c r="M8" s="131"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="P8" s="95" t="s">
-        <v>4</v>
+        <v>307</v>
+      </c>
+      <c r="P8" s="239" t="s">
+        <v>318</v>
       </c>
       <c r="Q8" s="67"/>
       <c r="R8" s="67"/>
       <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67">
-        <v>914</v>
-      </c>
+      <c r="T8" s="67">
+        <f>175+30</f>
+        <v>205</v>
+      </c>
+      <c r="U8" s="67"/>
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
-      <c r="Y8" s="242"/>
-    </row>
-    <row r="9" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:27" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="254" t="s">
-        <v>12</v>
+        <v>307</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>311</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
-      <c r="I9" s="67">
-        <v>452</v>
-      </c>
-      <c r="J9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67">
+        <f>1760+38+37</f>
+        <v>1835</v>
+      </c>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="P9" s="195" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72">
-        <v>1455</v>
-      </c>
-      <c r="X9" s="255"/>
-      <c r="Y9" s="256" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="P9" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67">
+        <v>878</v>
+      </c>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="242"/>
+    </row>
+    <row r="10" spans="2:27" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>295</v>
+        <v>307</v>
+      </c>
+      <c r="C10" s="254" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="67"/>
-      <c r="E10" s="67">
-        <f>180+300</f>
-        <v>480</v>
-      </c>
+      <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="94"/>
+      <c r="I10" s="67">
+        <v>433</v>
+      </c>
+      <c r="J10" s="67"/>
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="131"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="P10" s="194" t="s">
-        <v>301</v>
+        <v>307</v>
+      </c>
+      <c r="P10" s="291" t="s">
+        <v>319</v>
       </c>
       <c r="Q10" s="72"/>
-      <c r="R10" s="72">
-        <f>96+505+942</f>
-        <v>1543</v>
-      </c>
+      <c r="R10" s="72"/>
       <c r="S10" s="72"/>
       <c r="T10" s="72"/>
       <c r="U10" s="72"/>
       <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="129"/>
-    </row>
-    <row r="11" spans="2:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="72">
+        <f>773.5+601+938+49</f>
+        <v>2361.5</v>
+      </c>
+      <c r="X10" s="255"/>
+      <c r="Y10" s="290" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>96</v>
+        <v>307</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>312</v>
       </c>
       <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="67">
+        <v>287</v>
+      </c>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
-      <c r="H11" s="67">
-        <f>51+170+68+85+85+34</f>
-        <v>493</v>
-      </c>
+      <c r="H11" s="67"/>
       <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="J11" s="94"/>
       <c r="K11" s="67"/>
       <c r="L11" s="67"/>
       <c r="M11" s="131"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="P11" s="90" t="s">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="P11" s="194" t="s">
+        <v>320</v>
       </c>
       <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
+      <c r="R11" s="72">
+        <f>153+134+850</f>
+        <v>1137</v>
+      </c>
       <c r="S11" s="72"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
       <c r="V11" s="72"/>
-      <c r="W11" s="72">
-        <f>1639.5+90+812+127+795</f>
-        <v>3463.5</v>
-      </c>
+      <c r="W11" s="72"/>
       <c r="X11" s="67"/>
-    </row>
-    <row r="12" spans="2:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y11" s="129"/>
+    </row>
+    <row r="12" spans="2:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
       <c r="H12" s="67">
-        <f>330+330+420</f>
-        <v>1080</v>
+        <f>68+85+85+85+85</f>
+        <v>408</v>
       </c>
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
@@ -6984,10 +6996,10 @@
       <c r="M12" s="131"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="P12" s="192" t="s">
-        <v>217</v>
+        <v>307</v>
+      </c>
+      <c r="P12" s="90" t="s">
+        <v>140</v>
       </c>
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
@@ -6995,38 +7007,38 @@
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
       <c r="V12" s="72">
-        <f>68+204+221+221+204+187</f>
-        <v>1105</v>
+        <f>750+750+800+1428.5</f>
+        <v>3728.5</v>
       </c>
       <c r="W12" s="72"/>
       <c r="X12" s="67"/>
     </row>
-    <row r="13" spans="2:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>146</v>
+        <v>307</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>239</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="H13" s="67">
+        <f>330+330+420</f>
+        <v>1080</v>
+      </c>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
-      <c r="L13" s="11">
-        <f>500+265+212</f>
-        <v>977</v>
-      </c>
+      <c r="L13" s="67"/>
       <c r="M13" s="131"/>
       <c r="N13" s="74"/>
       <c r="O13" s="93" t="s">
-        <v>291</v>
-      </c>
-      <c r="P13" s="194" t="s">
-        <v>140</v>
+        <v>307</v>
+      </c>
+      <c r="P13" s="192" t="s">
+        <v>217</v>
       </c>
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
@@ -7034,15 +7046,19 @@
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
       <c r="V13" s="72">
-        <f>741+750+1992+750</f>
-        <v>4233</v>
+        <f>204+204+204+221</f>
+        <v>833</v>
       </c>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
     </row>
-    <row r="14" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="93"/>
-      <c r="C14" s="95"/>
+    <row r="14" spans="2:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="93" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
@@ -7051,11 +7067,13 @@
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
-      <c r="L14" s="11"/>
+      <c r="L14" s="11">
+        <v>500</v>
+      </c>
       <c r="M14" s="131"/>
       <c r="N14" s="74"/>
       <c r="O14" s="93"/>
-      <c r="P14" s="88"/>
+      <c r="P14" s="194"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="72"/>
       <c r="S14" s="72"/>
@@ -7067,7 +7085,7 @@
     </row>
     <row r="15" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="93"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -7080,14 +7098,14 @@
       <c r="M15" s="131"/>
       <c r="N15" s="74"/>
       <c r="O15" s="93"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
       <c r="X15" s="67"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7116,366 +7134,527 @@
       <c r="X16" s="67"/>
     </row>
     <row r="17" spans="2:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="20"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="131"/>
       <c r="N17" s="74"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="73">
-        <v>0</v>
-      </c>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-    </row>
-    <row r="18" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="35" t="s">
+      <c r="O17" s="93"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="73">
+        <v>0</v>
+      </c>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+    </row>
+    <row r="19" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="30">
-        <f>SUM(D4:D17)</f>
-        <v>470</v>
-      </c>
-      <c r="E18" s="30">
-        <f t="shared" ref="E18:L18" si="0">SUM(E4:E17)</f>
-        <v>480</v>
-      </c>
-      <c r="F18" s="30">
+      <c r="D19" s="30">
+        <f>SUM(D5:D18)</f>
+        <v>676</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" ref="E19:L19" si="0">SUM(E5:E18)</f>
+        <v>287</v>
+      </c>
+      <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>1334</v>
-      </c>
-      <c r="G18" s="30">
+        <v>2170</v>
+      </c>
+      <c r="G19" s="30">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H18" s="30">
+        <v>25</v>
+      </c>
+      <c r="H19" s="30">
         <f t="shared" si="0"/>
-        <v>1573</v>
-      </c>
-      <c r="I18" s="30">
+        <v>1488</v>
+      </c>
+      <c r="I19" s="30">
         <f t="shared" si="0"/>
-        <v>452</v>
-      </c>
-      <c r="J18" s="30">
+        <v>433</v>
+      </c>
+      <c r="J19" s="30">
         <f t="shared" si="0"/>
-        <v>1536</v>
-      </c>
-      <c r="K18" s="30">
+        <v>1835</v>
+      </c>
+      <c r="K19" s="30">
         <f t="shared" si="0"/>
-        <v>5191</v>
-      </c>
-      <c r="L18" s="30">
+        <v>3313</v>
+      </c>
+      <c r="L19" s="30">
         <f t="shared" si="0"/>
-        <v>977</v>
-      </c>
-      <c r="M18" s="132"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="21">
-        <f t="shared" ref="Q18:X18" si="1">SUM(Q4:Q17)</f>
-        <v>1255</v>
-      </c>
-      <c r="R18" s="21">
-        <f t="shared" si="1"/>
-        <v>1543</v>
-      </c>
-      <c r="S18" s="21">
-        <f t="shared" si="1"/>
-        <v>2560</v>
-      </c>
-      <c r="T18" s="21">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="U18" s="21">
-        <f t="shared" si="1"/>
-        <v>914</v>
-      </c>
-      <c r="V18" s="21">
-        <f t="shared" si="1"/>
-        <v>5338</v>
-      </c>
-      <c r="W18" s="21">
-        <f t="shared" si="1"/>
-        <v>4918.5</v>
-      </c>
-      <c r="X18" s="21">
-        <f t="shared" si="1"/>
-        <v>6742</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="76"/>
+        <v>500</v>
+      </c>
+      <c r="M19" s="132"/>
       <c r="N19" s="74"/>
       <c r="O19" s="7"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-    </row>
-    <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P19" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="21">
+        <f t="shared" ref="Q19:X19" si="1">SUM(Q5:Q18)</f>
+        <v>484</v>
+      </c>
+      <c r="R19" s="21">
+        <f t="shared" si="1"/>
+        <v>1137</v>
+      </c>
+      <c r="S19" s="21">
+        <f t="shared" si="1"/>
+        <v>3222</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="U19" s="21">
+        <f t="shared" si="1"/>
+        <v>878</v>
+      </c>
+      <c r="V19" s="21">
+        <f t="shared" si="1"/>
+        <v>4561.5</v>
+      </c>
+      <c r="W19" s="21">
+        <f t="shared" si="1"/>
+        <v>2361.5</v>
+      </c>
+      <c r="X19" s="21">
+        <f t="shared" si="1"/>
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="264">
-        <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
-        <v>12113</v>
-      </c>
-      <c r="G20" s="265"/>
-      <c r="H20" s="266"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="74"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="76"/>
       <c r="N20" s="74"/>
       <c r="O20" s="7"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="267">
-        <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
-        <v>23360.5</v>
-      </c>
-      <c r="T20" s="268"/>
-      <c r="U20" s="269"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B21" s="235"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="236"/>
-      <c r="G21" s="237"/>
-      <c r="H21" s="237"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
+    <row r="21" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="7"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="264">
+        <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
+        <v>10727</v>
+      </c>
+      <c r="G21" s="265"/>
+      <c r="H21" s="266"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="71"/>
       <c r="M21" s="74"/>
       <c r="N21" s="74"/>
-      <c r="O21" s="235"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="236"/>
-      <c r="T21" s="237"/>
-      <c r="U21" s="237"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-    </row>
-    <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O21" s="7"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="267">
+        <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
+        <v>17666</v>
+      </c>
+      <c r="T21" s="268"/>
+      <c r="U21" s="269"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="235"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="236"/>
+      <c r="G22" s="237"/>
+      <c r="H22" s="237"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="235"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="237"/>
+      <c r="U22" s="237"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+    </row>
+    <row r="23" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="235"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="235"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="236"/>
+      <c r="T23" s="237"/>
+      <c r="U23" s="237"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+    </row>
+    <row r="24" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="235"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="236"/>
+      <c r="G24" s="237"/>
+      <c r="H24" s="237"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="235"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="236"/>
+      <c r="T24" s="237"/>
+      <c r="U24" s="237"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+    </row>
+    <row r="25" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="235"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="237"/>
+      <c r="H25" s="237"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="235"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="237"/>
+      <c r="U25" s="237"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+    </row>
+    <row r="26" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="235"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="237"/>
+      <c r="H26" s="237"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="235"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="236"/>
+      <c r="T26" s="237"/>
+      <c r="U26" s="237"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="7"/>
+      <c r="C31" s="257" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="258"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="258"/>
+      <c r="G31" s="258"/>
+      <c r="H31" s="258"/>
+      <c r="I31" s="258"/>
+      <c r="J31" s="258"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="128" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="133"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="259" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="260"/>
+      <c r="Q31" s="260"/>
+      <c r="R31" s="260"/>
+      <c r="S31" s="260"/>
+      <c r="T31" s="260"/>
+      <c r="U31" s="260"/>
+      <c r="V31" s="260"/>
+      <c r="W31" s="260"/>
+      <c r="X31" s="190" t="str">
+        <f>L31</f>
+        <v># 03</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
-      <c r="C32" s="257" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="258"/>
-      <c r="E32" s="258"/>
-      <c r="F32" s="258"/>
-      <c r="G32" s="258"/>
-      <c r="H32" s="258"/>
-      <c r="I32" s="258"/>
-      <c r="J32" s="258"/>
-      <c r="K32" s="258"/>
-      <c r="L32" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="133"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="259" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" s="260"/>
-      <c r="Q32" s="260"/>
-      <c r="R32" s="260"/>
-      <c r="S32" s="260"/>
-      <c r="T32" s="260"/>
-      <c r="U32" s="260"/>
-      <c r="V32" s="260"/>
-      <c r="W32" s="260"/>
-      <c r="X32" s="190" t="str">
-        <f>L32</f>
-        <v># 02</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="1"/>
-      <c r="I33" s="261" t="s">
-        <v>275</v>
-      </c>
-      <c r="J33" s="262"/>
-      <c r="K33" s="263"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="134"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="7"/>
-      <c r="V33" s="261" t="str">
-        <f>I33</f>
-        <v>del   04- al  10   NOVIEMBRE  2023</v>
-      </c>
-      <c r="W33" s="262"/>
-      <c r="X33" s="263"/>
-    </row>
-    <row r="34" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="24" t="s">
+      <c r="C32" s="1"/>
+      <c r="I32" s="261" t="s">
+        <v>290</v>
+      </c>
+      <c r="J32" s="262"/>
+      <c r="K32" s="263"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="7"/>
+      <c r="V32" s="261" t="str">
+        <f>I32</f>
+        <v>del   11- al  17   NOVIEMBRE  2023</v>
+      </c>
+      <c r="W32" s="262"/>
+      <c r="X32" s="263"/>
+    </row>
+    <row r="33" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D33" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E33" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F33" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G33" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H33" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="184" t="s">
+      <c r="I33" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="61" t="s">
+      <c r="J33" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="183" t="s">
+      <c r="K33" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L34" s="99" t="s">
+      <c r="L33" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="135"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P34" s="143" t="s">
+      <c r="M33" s="135"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q34" s="137" t="s">
+      <c r="Q33" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R34" s="138" t="s">
+      <c r="R33" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S34" s="138" t="s">
+      <c r="S33" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="T34" s="137" t="s">
+      <c r="T33" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U34" s="137" t="s">
+      <c r="U33" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V34" s="141" t="s">
+      <c r="V33" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W34" s="136" t="s">
+      <c r="W33" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X34" s="142" t="s">
+      <c r="X33" s="142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:25" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="234" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72">
+        <f>316+937+1186+1164+768+820</f>
+        <v>5191</v>
+      </c>
+      <c r="L34" s="71"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="93" t="s">
+        <v>291</v>
+      </c>
+      <c r="P34" s="234" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72">
+        <f>184+1284+1811+1266+987+730+480</f>
+        <v>6742</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C35" s="234" t="s">
-        <v>286</v>
-      </c>
-      <c r="D35" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72">
-        <f>646+1044+2378+1876</f>
-        <v>5944</v>
-      </c>
-      <c r="L35" s="71"/>
+        <v>291</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67">
+        <f>801+75+66+392</f>
+        <v>1334</v>
+      </c>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
       <c r="M35" s="131"/>
       <c r="N35" s="74"/>
       <c r="O35" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P35" s="234" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72">
-        <f>240+2971+420+200+2107+808</f>
-        <v>6746</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="P35" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67">
+        <f>1719+66+700+75</f>
+        <v>2560</v>
+      </c>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+    </row>
+    <row r="36" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="93" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D36" s="67"/>
       <c r="E36" s="67"/>
-      <c r="F36" s="67">
-        <f>1194+462+194+25+50</f>
-        <v>1925</v>
-      </c>
-      <c r="G36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67">
+        <f>60+40</f>
+        <v>100</v>
+      </c>
       <c r="H36" s="67"/>
       <c r="I36" s="67"/>
       <c r="J36" s="67"/>
@@ -7484,33 +7663,33 @@
       <c r="M36" s="131"/>
       <c r="N36" s="74"/>
       <c r="O36" s="93" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="P36" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q36" s="67"/>
+        <v>297</v>
+      </c>
+      <c r="Q36" s="67">
+        <f>220+100+200+360+375</f>
+        <v>1255</v>
+      </c>
       <c r="R36" s="67"/>
-      <c r="S36" s="67">
-        <f>120+2030+132+800+200+50+50</f>
-        <v>3382</v>
-      </c>
+      <c r="S36" s="67"/>
       <c r="T36" s="67"/>
       <c r="U36" s="67"/>
       <c r="V36" s="67"/>
       <c r="W36" s="67"/>
       <c r="X36" s="67"/>
     </row>
-    <row r="37" spans="2:25" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>279</v>
+        <v>291</v>
+      </c>
+      <c r="C37" s="96" t="s">
+        <v>293</v>
       </c>
       <c r="D37" s="67">
-        <f>67+180+50+175+240</f>
-        <v>712</v>
+        <f>50+160+260</f>
+        <v>470</v>
       </c>
       <c r="E37" s="67"/>
       <c r="F37" s="67"/>
@@ -7523,47 +7702,47 @@
       <c r="M37" s="131"/>
       <c r="N37" s="74"/>
       <c r="O37" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P37" s="44" t="s">
-        <v>282</v>
+        <v>291</v>
+      </c>
+      <c r="P37" s="239" t="s">
+        <v>298</v>
       </c>
       <c r="Q37" s="67"/>
       <c r="R37" s="67"/>
       <c r="S37" s="67"/>
-      <c r="T37" s="67"/>
+      <c r="T37" s="67">
+        <v>90</v>
+      </c>
       <c r="U37" s="67"/>
       <c r="V37" s="67"/>
-      <c r="W37" s="67">
-        <f>514+510+1374+52.5+35+76.5</f>
-        <v>2562</v>
-      </c>
+      <c r="W37" s="67"/>
       <c r="X37" s="67"/>
     </row>
-    <row r="38" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" s="96" t="s">
-        <v>4</v>
+        <v>291</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
       <c r="G38" s="67"/>
       <c r="H38" s="67"/>
-      <c r="I38" s="67">
-        <v>86</v>
-      </c>
-      <c r="J38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67">
+        <f>1094+127+315</f>
+        <v>1536</v>
+      </c>
       <c r="K38" s="67"/>
       <c r="L38" s="67"/>
       <c r="M38" s="131"/>
       <c r="N38" s="74"/>
       <c r="O38" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P38" s="239" t="s">
+        <v>291</v>
+      </c>
+      <c r="P38" s="95" t="s">
         <v>4</v>
       </c>
       <c r="Q38" s="67"/>
@@ -7571,83 +7750,84 @@
       <c r="S38" s="67"/>
       <c r="T38" s="67"/>
       <c r="U38" s="67">
-        <f>462+916</f>
-        <v>1378</v>
+        <v>914</v>
       </c>
       <c r="V38" s="67"/>
       <c r="W38" s="67"/>
       <c r="X38" s="67"/>
-    </row>
-    <row r="39" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="242"/>
+    </row>
+    <row r="39" spans="2:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>277</v>
+        <v>291</v>
+      </c>
+      <c r="C39" s="254" t="s">
+        <v>12</v>
       </c>
       <c r="D39" s="67"/>
       <c r="E39" s="67"/>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
       <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67">
-        <f>322+69+126</f>
-        <v>517</v>
-      </c>
+      <c r="I39" s="67">
+        <v>452</v>
+      </c>
+      <c r="J39" s="67"/>
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="131"/>
       <c r="N39" s="74"/>
       <c r="O39" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P39" s="95" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q39" s="67">
-        <f>71+220+350+175</f>
-        <v>816</v>
-      </c>
-      <c r="R39" s="67"/>
-      <c r="S39" s="67"/>
-      <c r="T39" s="67"/>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="242"/>
-    </row>
-    <row r="40" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="P39" s="195" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72">
+        <v>1455</v>
+      </c>
+      <c r="X39" s="255"/>
+      <c r="Y39" s="256" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C40" s="253" t="s">
-        <v>278</v>
+        <v>291</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>295</v>
       </c>
       <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
+      <c r="E40" s="67">
+        <f>180+300</f>
+        <v>480</v>
+      </c>
       <c r="F40" s="67"/>
       <c r="G40" s="67"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
-      <c r="J40" s="67">
-        <v>1455</v>
-      </c>
+      <c r="J40" s="94"/>
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="131"/>
       <c r="N40" s="74"/>
       <c r="O40" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P40" s="195" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="P40" s="194" t="s">
+        <v>301</v>
       </c>
       <c r="Q40" s="72"/>
       <c r="R40" s="72">
-        <f>740+546</f>
-        <v>1286</v>
+        <f>96+505+942</f>
+        <v>1543</v>
       </c>
       <c r="S40" s="72"/>
       <c r="T40" s="72"/>
@@ -7655,61 +7835,62 @@
       <c r="V40" s="72"/>
       <c r="W40" s="72"/>
       <c r="X40" s="67"/>
-    </row>
-    <row r="41" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y40" s="129"/>
+    </row>
+    <row r="41" spans="2:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>280</v>
+        <v>291</v>
+      </c>
+      <c r="C41" s="95" t="s">
+        <v>96</v>
       </c>
       <c r="D41" s="67"/>
       <c r="E41" s="67"/>
       <c r="F41" s="67"/>
-      <c r="G41" s="67">
-        <v>15</v>
-      </c>
-      <c r="H41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67">
+        <f>51+170+68+85+85+34</f>
+        <v>493</v>
+      </c>
       <c r="I41" s="67"/>
-      <c r="J41" s="94"/>
+      <c r="J41" s="67"/>
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
       <c r="M41" s="131"/>
       <c r="N41" s="74"/>
       <c r="O41" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P41" s="194" t="s">
-        <v>285</v>
+        <v>291</v>
+      </c>
+      <c r="P41" s="90" t="s">
+        <v>302</v>
       </c>
       <c r="Q41" s="72"/>
       <c r="R41" s="72"/>
       <c r="S41" s="72"/>
-      <c r="T41" s="72">
-        <f>25+50</f>
-        <v>75</v>
-      </c>
+      <c r="T41" s="72"/>
       <c r="U41" s="72"/>
       <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
+      <c r="W41" s="72">
+        <f>1639.5+90+812+127+795</f>
+        <v>3463.5</v>
+      </c>
       <c r="X41" s="67"/>
-      <c r="Y41" s="129"/>
-    </row>
-    <row r="42" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="93" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C42" s="95" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="D42" s="67"/>
-      <c r="E42" s="67">
-        <f>242+50</f>
-        <v>292</v>
-      </c>
+      <c r="E42" s="67"/>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
+      <c r="H42" s="67">
+        <f>330+330+420</f>
+        <v>1080</v>
+      </c>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
       <c r="K42" s="67"/>
@@ -7717,10 +7898,10 @@
       <c r="M42" s="131"/>
       <c r="N42" s="74"/>
       <c r="O42" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P42" s="194" t="s">
-        <v>140</v>
+        <v>291</v>
+      </c>
+      <c r="P42" s="192" t="s">
+        <v>217</v>
       </c>
       <c r="Q42" s="72"/>
       <c r="R42" s="72"/>
@@ -7728,38 +7909,38 @@
       <c r="T42" s="72"/>
       <c r="U42" s="72"/>
       <c r="V42" s="72">
-        <f>750+750+760+1727+276</f>
-        <v>4263</v>
+        <f>68+204+221+221+204+187</f>
+        <v>1105</v>
       </c>
       <c r="W42" s="72"/>
       <c r="X42" s="67"/>
     </row>
-    <row r="43" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C43" s="95" t="s">
-        <v>239</v>
+        <v>291</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>146</v>
       </c>
       <c r="D43" s="67"/>
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
-      <c r="H43" s="67">
-        <f>330+330+420</f>
-        <v>1080</v>
-      </c>
+      <c r="H43" s="67"/>
       <c r="I43" s="67"/>
       <c r="J43" s="67"/>
       <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
+      <c r="L43" s="11">
+        <f>500+265+212</f>
+        <v>977</v>
+      </c>
       <c r="M43" s="131"/>
       <c r="N43" s="74"/>
       <c r="O43" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P43" s="192" t="s">
-        <v>217</v>
+        <v>291</v>
+      </c>
+      <c r="P43" s="194" t="s">
+        <v>140</v>
       </c>
       <c r="Q43" s="72"/>
       <c r="R43" s="72"/>
@@ -7767,37 +7948,28 @@
       <c r="T43" s="72"/>
       <c r="U43" s="72"/>
       <c r="V43" s="72">
-        <f>238+170+170+204+204+204</f>
-        <v>1190</v>
+        <f>741+750+1992+750</f>
+        <v>4233</v>
       </c>
       <c r="W43" s="72"/>
       <c r="X43" s="67"/>
     </row>
-    <row r="44" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>96</v>
-      </c>
+    <row r="44" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="93"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="67"/>
       <c r="E44" s="67"/>
       <c r="F44" s="67"/>
       <c r="G44" s="67"/>
-      <c r="H44" s="67">
-        <f>102+102+85+170+85+187</f>
-        <v>731</v>
-      </c>
+      <c r="H44" s="67"/>
       <c r="I44" s="67"/>
       <c r="J44" s="67"/>
       <c r="K44" s="67"/>
       <c r="L44" s="11"/>
       <c r="M44" s="131"/>
       <c r="N44" s="74"/>
-      <c r="O44" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="P44" s="193"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="88"/>
       <c r="Q44" s="72"/>
       <c r="R44" s="72"/>
       <c r="S44" s="72"/>
@@ -7807,9 +7979,9 @@
       <c r="W44" s="72"/>
       <c r="X44" s="67"/>
     </row>
-    <row r="45" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="93"/>
-      <c r="C45" s="95"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="67"/>
       <c r="E45" s="67"/>
       <c r="F45" s="67"/>
@@ -7822,17 +7994,17 @@
       <c r="M45" s="131"/>
       <c r="N45" s="74"/>
       <c r="O45" s="93"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
+      <c r="P45" s="91"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
       <c r="X45" s="67"/>
     </row>
-    <row r="46" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="93"/>
       <c r="C46" s="10"/>
       <c r="D46" s="67"/>
@@ -7857,418 +8029,366 @@
       <c r="W46" s="67"/>
       <c r="X46" s="67"/>
     </row>
-    <row r="47" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="93"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="11"/>
+    <row r="47" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="9"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="20"/>
       <c r="M47" s="131"/>
       <c r="N47" s="74"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="67"/>
-      <c r="U47" s="67"/>
-      <c r="V47" s="67"/>
-      <c r="W47" s="67"/>
-      <c r="X47" s="67"/>
-    </row>
-    <row r="48" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="9"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="131"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="73">
+        <v>0</v>
+      </c>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+    </row>
+    <row r="48" spans="2:27" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="30">
+        <f>SUM(D34:D47)</f>
+        <v>470</v>
+      </c>
+      <c r="E48" s="30">
+        <f t="shared" ref="E48:L48" si="2">SUM(E34:E47)</f>
+        <v>480</v>
+      </c>
+      <c r="F48" s="30">
+        <f t="shared" si="2"/>
+        <v>1334</v>
+      </c>
+      <c r="G48" s="30">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H48" s="30">
+        <f t="shared" si="2"/>
+        <v>1573</v>
+      </c>
+      <c r="I48" s="30">
+        <f t="shared" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="J48" s="30">
+        <f t="shared" si="2"/>
+        <v>1536</v>
+      </c>
+      <c r="K48" s="30">
+        <f t="shared" si="2"/>
+        <v>5191</v>
+      </c>
+      <c r="L48" s="30">
+        <f t="shared" si="2"/>
+        <v>977</v>
+      </c>
+      <c r="M48" s="132"/>
       <c r="N48" s="74"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="73">
-        <v>0</v>
-      </c>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73"/>
-      <c r="T48" s="73"/>
-      <c r="U48" s="73"/>
-      <c r="V48" s="73"/>
-      <c r="W48" s="73"/>
-      <c r="X48" s="73"/>
-    </row>
-    <row r="49" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O48" s="7"/>
+      <c r="P48" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="21">
+        <f t="shared" ref="Q48:X48" si="3">SUM(Q34:Q47)</f>
+        <v>1255</v>
+      </c>
+      <c r="R48" s="21">
+        <f t="shared" si="3"/>
+        <v>1543</v>
+      </c>
+      <c r="S48" s="21">
+        <f t="shared" si="3"/>
+        <v>2560</v>
+      </c>
+      <c r="T48" s="21">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="U48" s="21">
+        <f t="shared" si="3"/>
+        <v>914</v>
+      </c>
+      <c r="V48" s="21">
+        <f t="shared" si="3"/>
+        <v>5338</v>
+      </c>
+      <c r="W48" s="21">
+        <f t="shared" si="3"/>
+        <v>4918.5</v>
+      </c>
+      <c r="X48" s="21">
+        <f t="shared" si="3"/>
+        <v>6742</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
-      <c r="C49" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="30">
-        <f>SUM(D35:D48)</f>
-        <v>712</v>
-      </c>
-      <c r="E49" s="30">
-        <f t="shared" ref="E49:L49" si="2">SUM(E35:E48)</f>
-        <v>292</v>
-      </c>
-      <c r="F49" s="30">
-        <f t="shared" si="2"/>
-        <v>1925</v>
-      </c>
-      <c r="G49" s="30">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="H49" s="30">
-        <f t="shared" si="2"/>
-        <v>1811</v>
-      </c>
-      <c r="I49" s="30">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="J49" s="30">
-        <f t="shared" si="2"/>
-        <v>1972</v>
-      </c>
-      <c r="K49" s="30">
-        <f t="shared" si="2"/>
-        <v>5944</v>
-      </c>
-      <c r="L49" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="132"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="76"/>
       <c r="N49" s="74"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q49" s="21">
-        <f t="shared" ref="Q49:X49" si="3">SUM(Q35:Q48)</f>
-        <v>816</v>
-      </c>
-      <c r="R49" s="21">
-        <f t="shared" si="3"/>
-        <v>1286</v>
-      </c>
-      <c r="S49" s="21">
-        <f t="shared" si="3"/>
-        <v>3382</v>
-      </c>
-      <c r="T49" s="21">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="U49" s="21">
-        <f t="shared" si="3"/>
-        <v>1378</v>
-      </c>
-      <c r="V49" s="21">
-        <f t="shared" si="3"/>
-        <v>5453</v>
-      </c>
-      <c r="W49" s="21">
-        <f t="shared" si="3"/>
-        <v>2562</v>
-      </c>
-      <c r="X49" s="21">
-        <f t="shared" si="3"/>
-        <v>6746</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+    </row>
+    <row r="50" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="7"/>
       <c r="C50" s="1"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="F50" s="264">
+        <f>K48+J48+I48+H48+G48+F48+E48+D48+L48</f>
+        <v>12113</v>
+      </c>
+      <c r="G50" s="265"/>
+      <c r="H50" s="266"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="76"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="74"/>
       <c r="N50" s="74"/>
       <c r="O50" s="7"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
+      <c r="S50" s="267">
+        <f>Q48+R48+S48+T48+U48+V48+W48+X48</f>
+        <v>23360.5</v>
+      </c>
+      <c r="T50" s="268"/>
+      <c r="U50" s="269"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
     </row>
-    <row r="51" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="7"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="264">
-        <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
-        <v>12757</v>
-      </c>
-      <c r="G51" s="265"/>
-      <c r="H51" s="266"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+    <row r="51" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B51" s="235"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="236"/>
+      <c r="G51" s="237"/>
+      <c r="H51" s="237"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
       <c r="L51" s="71"/>
       <c r="M51" s="74"/>
       <c r="N51" s="74"/>
-      <c r="O51" s="7"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="267">
-        <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
-        <v>21698</v>
-      </c>
-      <c r="T51" s="268"/>
-      <c r="U51" s="269"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-    </row>
-    <row r="52" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B52" s="235"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="236"/>
-      <c r="G52" s="237"/>
-      <c r="H52" s="237"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="74"/>
-      <c r="O52" s="235"/>
-      <c r="Q52" s="78"/>
-      <c r="R52" s="78"/>
-      <c r="S52" s="236"/>
-      <c r="T52" s="237"/>
-      <c r="U52" s="237"/>
-      <c r="V52" s="78"/>
-      <c r="W52" s="78"/>
-      <c r="X52" s="78"/>
-    </row>
-    <row r="60" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="7"/>
-      <c r="C61" s="257" t="s">
+      <c r="O51" s="235"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="78"/>
+      <c r="S51" s="236"/>
+      <c r="T51" s="237"/>
+      <c r="U51" s="237"/>
+      <c r="V51" s="78"/>
+      <c r="W51" s="78"/>
+      <c r="X51" s="78"/>
+    </row>
+    <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="7"/>
+      <c r="C62" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="258"/>
-      <c r="E61" s="258"/>
-      <c r="F61" s="258"/>
-      <c r="G61" s="258"/>
-      <c r="H61" s="258"/>
-      <c r="I61" s="258"/>
-      <c r="J61" s="258"/>
-      <c r="K61" s="258"/>
-      <c r="L61" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="M61" s="133"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="259" t="s">
+      <c r="D62" s="258"/>
+      <c r="E62" s="258"/>
+      <c r="F62" s="258"/>
+      <c r="G62" s="258"/>
+      <c r="H62" s="258"/>
+      <c r="I62" s="258"/>
+      <c r="J62" s="258"/>
+      <c r="K62" s="258"/>
+      <c r="L62" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" s="133"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="P61" s="260"/>
-      <c r="Q61" s="260"/>
-      <c r="R61" s="260"/>
-      <c r="S61" s="260"/>
-      <c r="T61" s="260"/>
-      <c r="U61" s="260"/>
-      <c r="V61" s="260"/>
-      <c r="W61" s="260"/>
-      <c r="X61" s="190" t="str">
-        <f>L61</f>
-        <v># 01</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="7"/>
-      <c r="C62" s="1"/>
-      <c r="I62" s="261" t="s">
-        <v>248</v>
-      </c>
-      <c r="J62" s="262"/>
-      <c r="K62" s="263"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="134"/>
-      <c r="N62" s="74"/>
-      <c r="O62" s="7"/>
-      <c r="V62" s="261" t="str">
-        <f>I62</f>
-        <v>del   01- al  3   NOVIEMBRE  2023</v>
-      </c>
-      <c r="W62" s="262"/>
-      <c r="X62" s="263"/>
-    </row>
-    <row r="63" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="24" t="s">
+      <c r="P62" s="260"/>
+      <c r="Q62" s="260"/>
+      <c r="R62" s="260"/>
+      <c r="S62" s="260"/>
+      <c r="T62" s="260"/>
+      <c r="U62" s="260"/>
+      <c r="V62" s="260"/>
+      <c r="W62" s="260"/>
+      <c r="X62" s="190" t="str">
+        <f>L62</f>
+        <v># 02</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="7"/>
+      <c r="C63" s="1"/>
+      <c r="I63" s="261" t="s">
+        <v>275</v>
+      </c>
+      <c r="J63" s="262"/>
+      <c r="K63" s="263"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="7"/>
+      <c r="V63" s="261" t="str">
+        <f>I63</f>
+        <v>del   04- al  10   NOVIEMBRE  2023</v>
+      </c>
+      <c r="W63" s="262"/>
+      <c r="X63" s="263"/>
+    </row>
+    <row r="64" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D64" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E64" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="56" t="s">
+      <c r="F64" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G64" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H63" s="27" t="s">
+      <c r="H64" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="184" t="s">
+      <c r="I64" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="61" t="s">
+      <c r="J64" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K63" s="183" t="s">
+      <c r="K64" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L63" s="99" t="s">
+      <c r="L64" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M63" s="135"/>
-      <c r="N63" s="82"/>
-      <c r="O63" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P63" s="143" t="s">
+      <c r="M64" s="135"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q63" s="137" t="s">
+      <c r="Q64" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R63" s="138" t="s">
+      <c r="R64" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S63" s="138" t="s">
+      <c r="S64" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="T63" s="137" t="s">
+      <c r="T64" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U63" s="137" t="s">
+      <c r="U64" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V63" s="141" t="s">
+      <c r="V64" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W63" s="136" t="s">
+      <c r="W64" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X63" s="142" t="s">
+      <c r="X64" s="142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C64" s="234" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="72"/>
-      <c r="K64" s="72">
-        <f>1125+995</f>
-        <v>2120</v>
-      </c>
-      <c r="L64" s="71"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="74"/>
-      <c r="O64" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P64" s="234" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q64" s="72"/>
-      <c r="R64" s="72"/>
-      <c r="S64" s="72"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="72"/>
-      <c r="V64" s="72"/>
-      <c r="W64" s="72"/>
-      <c r="X64" s="72">
-        <f>2416+1682</f>
-        <v>4098</v>
-      </c>
-    </row>
-    <row r="65" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:25" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
+        <v>276</v>
+      </c>
+      <c r="C65" s="234" t="s">
+        <v>286</v>
+      </c>
+      <c r="D65" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72">
+        <f>646+1044+2378+1876</f>
+        <v>5944</v>
+      </c>
+      <c r="L65" s="71"/>
       <c r="M65" s="131"/>
       <c r="N65" s="74"/>
       <c r="O65" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P65" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q65" s="67"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="67">
-        <f>72+192</f>
-        <v>264</v>
-      </c>
-      <c r="T65" s="67"/>
-      <c r="U65" s="67"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="67"/>
-      <c r="X65" s="67"/>
-    </row>
-    <row r="66" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="P65" s="234" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q65" s="72"/>
+      <c r="R65" s="72"/>
+      <c r="S65" s="72"/>
+      <c r="T65" s="72"/>
+      <c r="U65" s="72"/>
+      <c r="V65" s="72"/>
+      <c r="W65" s="72"/>
+      <c r="X65" s="72">
+        <f>240+2971+420+200+2107+808</f>
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C66" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>287</v>
+      </c>
       <c r="D66" s="67"/>
       <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
+      <c r="F66" s="67">
+        <f>1194+462+194+25+50</f>
+        <v>1925</v>
+      </c>
       <c r="G66" s="67"/>
       <c r="H66" s="67"/>
       <c r="I66" s="67"/>
@@ -8278,28 +8398,34 @@
       <c r="M66" s="131"/>
       <c r="N66" s="74"/>
       <c r="O66" s="93" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="P66" s="44" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="Q66" s="67"/>
       <c r="R66" s="67"/>
-      <c r="S66" s="67"/>
+      <c r="S66" s="67">
+        <f>120+2030+132+800+200+50+50</f>
+        <v>3382</v>
+      </c>
       <c r="T66" s="67"/>
       <c r="U66" s="67"/>
       <c r="V66" s="67"/>
-      <c r="W66" s="67">
-        <v>150</v>
-      </c>
+      <c r="W66" s="67"/>
       <c r="X66" s="67"/>
     </row>
-    <row r="67" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:25" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C67" s="96"/>
-      <c r="D67" s="67"/>
+        <v>276</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" s="67">
+        <f>67+180+50+175+240</f>
+        <v>712</v>
+      </c>
       <c r="E67" s="67"/>
       <c r="F67" s="67"/>
       <c r="G67" s="67"/>
@@ -8311,168 +8437,193 @@
       <c r="M67" s="131"/>
       <c r="N67" s="74"/>
       <c r="O67" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P67" s="239" t="s">
-        <v>261</v>
+        <v>276</v>
+      </c>
+      <c r="P67" s="44" t="s">
+        <v>282</v>
       </c>
       <c r="Q67" s="67"/>
-      <c r="R67" s="67">
-        <v>130</v>
-      </c>
+      <c r="R67" s="67"/>
       <c r="S67" s="67"/>
       <c r="T67" s="67"/>
       <c r="U67" s="67"/>
       <c r="V67" s="67"/>
-      <c r="W67" s="67"/>
+      <c r="W67" s="67">
+        <f>514+510+1374+52.5+35+76.5</f>
+        <v>2562</v>
+      </c>
       <c r="X67" s="67"/>
     </row>
-    <row r="68" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C68" s="96" t="s">
+        <v>4</v>
+      </c>
       <c r="D68" s="67"/>
       <c r="E68" s="67"/>
       <c r="F68" s="67"/>
       <c r="G68" s="67"/>
       <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
+      <c r="I68" s="67">
+        <v>86</v>
+      </c>
       <c r="J68" s="67"/>
       <c r="K68" s="67"/>
       <c r="L68" s="67"/>
       <c r="M68" s="131"/>
       <c r="N68" s="74"/>
       <c r="O68" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P68" s="95" t="s">
-        <v>140</v>
+        <v>276</v>
+      </c>
+      <c r="P68" s="239" t="s">
+        <v>4</v>
       </c>
       <c r="Q68" s="67"/>
       <c r="R68" s="67"/>
       <c r="S68" s="67"/>
       <c r="T68" s="67"/>
-      <c r="U68" s="67"/>
-      <c r="V68" s="67">
-        <f>750+760+1711.5</f>
-        <v>3221.5</v>
-      </c>
+      <c r="U68" s="67">
+        <f>462+916</f>
+        <v>1378</v>
+      </c>
+      <c r="V68" s="67"/>
       <c r="W68" s="67"/>
       <c r="X68" s="67"/>
-      <c r="Y68" s="242"/>
-    </row>
-    <row r="69" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C69" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>277</v>
+      </c>
       <c r="D69" s="67"/>
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
       <c r="G69" s="67"/>
       <c r="H69" s="67"/>
       <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
+      <c r="J69" s="67">
+        <f>322+69+126</f>
+        <v>517</v>
+      </c>
       <c r="K69" s="67"/>
       <c r="L69" s="67"/>
       <c r="M69" s="131"/>
       <c r="N69" s="74"/>
       <c r="O69" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P69" s="195" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q69" s="72"/>
-      <c r="R69" s="72"/>
-      <c r="S69" s="72"/>
-      <c r="T69" s="72"/>
-      <c r="U69" s="72"/>
-      <c r="V69" s="72">
-        <v>204</v>
-      </c>
-      <c r="W69" s="72"/>
+        <v>276</v>
+      </c>
+      <c r="P69" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q69" s="67">
+        <f>71+220+350+175</f>
+        <v>816</v>
+      </c>
+      <c r="R69" s="67"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="67"/>
+      <c r="U69" s="67"/>
+      <c r="V69" s="67"/>
+      <c r="W69" s="67"/>
       <c r="X69" s="67"/>
-    </row>
-    <row r="70" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y69" s="242"/>
+    </row>
+    <row r="70" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C70" s="44"/>
+        <v>276</v>
+      </c>
+      <c r="C70" s="253" t="s">
+        <v>278</v>
+      </c>
       <c r="D70" s="67"/>
       <c r="E70" s="67"/>
       <c r="F70" s="67"/>
       <c r="G70" s="67"/>
       <c r="H70" s="67"/>
       <c r="I70" s="67"/>
-      <c r="J70" s="94"/>
+      <c r="J70" s="67">
+        <v>1455</v>
+      </c>
       <c r="K70" s="67"/>
       <c r="L70" s="67"/>
       <c r="M70" s="131"/>
       <c r="N70" s="74"/>
       <c r="O70" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P70" s="194"/>
+        <v>276</v>
+      </c>
+      <c r="P70" s="195" t="s">
+        <v>284</v>
+      </c>
       <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
+      <c r="R70" s="72">
+        <f>740+546</f>
+        <v>1286</v>
+      </c>
       <c r="S70" s="72"/>
       <c r="T70" s="72"/>
       <c r="U70" s="72"/>
       <c r="V70" s="72"/>
       <c r="W70" s="72"/>
       <c r="X70" s="67"/>
-      <c r="Y70" s="129"/>
-    </row>
-    <row r="71" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>217</v>
+        <v>276</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>280</v>
       </c>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
       <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67">
-        <v>85</v>
-      </c>
+      <c r="G71" s="67">
+        <v>15</v>
+      </c>
+      <c r="H71" s="67"/>
       <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
+      <c r="J71" s="94"/>
       <c r="K71" s="67"/>
       <c r="L71" s="67"/>
       <c r="M71" s="131"/>
       <c r="N71" s="74"/>
       <c r="O71" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P71" s="194"/>
+        <v>276</v>
+      </c>
+      <c r="P71" s="194" t="s">
+        <v>285</v>
+      </c>
       <c r="Q71" s="72"/>
       <c r="R71" s="72"/>
       <c r="S71" s="72"/>
-      <c r="T71" s="72"/>
+      <c r="T71" s="72">
+        <f>25+50</f>
+        <v>75</v>
+      </c>
       <c r="U71" s="72"/>
       <c r="V71" s="72"/>
       <c r="W71" s="72"/>
       <c r="X71" s="67"/>
-    </row>
-    <row r="72" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y71" s="129"/>
+    </row>
+    <row r="72" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="93" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
+      <c r="E72" s="67">
+        <f>242+50</f>
+        <v>292</v>
+      </c>
       <c r="F72" s="67"/>
       <c r="G72" s="67"/>
-      <c r="H72" s="67">
-        <f>330+420</f>
-        <v>750</v>
-      </c>
+      <c r="H72" s="67"/>
       <c r="I72" s="67"/>
       <c r="J72" s="67"/>
       <c r="K72" s="67"/>
@@ -8480,67 +8631,87 @@
       <c r="M72" s="131"/>
       <c r="N72" s="74"/>
       <c r="O72" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P72" s="192"/>
+        <v>276</v>
+      </c>
+      <c r="P72" s="194" t="s">
+        <v>140</v>
+      </c>
       <c r="Q72" s="72"/>
       <c r="R72" s="72"/>
       <c r="S72" s="72"/>
       <c r="T72" s="72"/>
       <c r="U72" s="72"/>
-      <c r="V72" s="72"/>
+      <c r="V72" s="72">
+        <f>750+750+760+1727+276</f>
+        <v>4263</v>
+      </c>
       <c r="W72" s="72"/>
       <c r="X72" s="67"/>
     </row>
-    <row r="73" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>207</v>
+        <v>276</v>
+      </c>
+      <c r="C73" s="95" t="s">
+        <v>239</v>
       </c>
       <c r="D73" s="67"/>
       <c r="E73" s="67"/>
       <c r="F73" s="67"/>
       <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
+      <c r="H73" s="67">
+        <f>330+330+420</f>
+        <v>1080</v>
+      </c>
       <c r="I73" s="67"/>
       <c r="J73" s="67"/>
       <c r="K73" s="67"/>
-      <c r="L73" s="11">
-        <v>500</v>
-      </c>
+      <c r="L73" s="67"/>
       <c r="M73" s="131"/>
       <c r="N73" s="74"/>
       <c r="O73" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="P73" s="193"/>
+        <v>276</v>
+      </c>
+      <c r="P73" s="192" t="s">
+        <v>217</v>
+      </c>
       <c r="Q73" s="72"/>
       <c r="R73" s="72"/>
       <c r="S73" s="72"/>
       <c r="T73" s="72"/>
       <c r="U73" s="72"/>
-      <c r="V73" s="72"/>
+      <c r="V73" s="72">
+        <f>238+170+170+204+204+204</f>
+        <v>1190</v>
+      </c>
       <c r="W73" s="72"/>
       <c r="X73" s="67"/>
     </row>
-    <row r="74" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="93"/>
-      <c r="C74" s="95"/>
+    <row r="74" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>96</v>
+      </c>
       <c r="D74" s="67"/>
       <c r="E74" s="67"/>
       <c r="F74" s="67"/>
       <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
+      <c r="H74" s="67">
+        <f>102+102+85+170+85+187</f>
+        <v>731</v>
+      </c>
       <c r="I74" s="67"/>
       <c r="J74" s="67"/>
       <c r="K74" s="67"/>
       <c r="L74" s="11"/>
       <c r="M74" s="131"/>
       <c r="N74" s="74"/>
-      <c r="O74" s="93"/>
-      <c r="P74" s="88"/>
+      <c r="O74" s="93" t="s">
+        <v>276</v>
+      </c>
+      <c r="P74" s="193"/>
       <c r="Q74" s="72"/>
       <c r="R74" s="72"/>
       <c r="S74" s="72"/>
@@ -8552,7 +8723,7 @@
     </row>
     <row r="75" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="93"/>
-      <c r="C75" s="10"/>
+      <c r="C75" s="95"/>
       <c r="D75" s="67"/>
       <c r="E75" s="67"/>
       <c r="F75" s="67"/>
@@ -8565,14 +8736,14 @@
       <c r="M75" s="131"/>
       <c r="N75" s="74"/>
       <c r="O75" s="93"/>
-      <c r="P75" s="91"/>
-      <c r="Q75" s="67"/>
-      <c r="R75" s="67"/>
-      <c r="S75" s="67"/>
-      <c r="T75" s="67"/>
-      <c r="U75" s="67"/>
-      <c r="V75" s="67"/>
-      <c r="W75" s="67"/>
+      <c r="P75" s="88"/>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="72"/>
       <c r="X75" s="67"/>
     </row>
     <row r="76" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8601,210 +8772,959 @@
       <c r="X76" s="67"/>
     </row>
     <row r="77" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="9"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="73"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="73"/>
-      <c r="K77" s="73"/>
-      <c r="L77" s="20"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="11"/>
       <c r="M77" s="131"/>
       <c r="N77" s="74"/>
-      <c r="O77" s="46"/>
-      <c r="P77" s="51"/>
-      <c r="Q77" s="73">
-        <v>0</v>
-      </c>
-      <c r="R77" s="73"/>
-      <c r="S77" s="73"/>
-      <c r="T77" s="73"/>
-      <c r="U77" s="73"/>
-      <c r="V77" s="73"/>
-      <c r="W77" s="73"/>
-      <c r="X77" s="73"/>
-    </row>
-    <row r="78" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="7"/>
-      <c r="C78" s="35" t="s">
+      <c r="O77" s="93"/>
+      <c r="P77" s="91"/>
+      <c r="Q77" s="67"/>
+      <c r="R77" s="67"/>
+      <c r="S77" s="67"/>
+      <c r="T77" s="67"/>
+      <c r="U77" s="67"/>
+      <c r="V77" s="67"/>
+      <c r="W77" s="67"/>
+      <c r="X77" s="67"/>
+    </row>
+    <row r="78" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="9"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="73"/>
+      <c r="J78" s="73"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="73">
+        <v>0</v>
+      </c>
+      <c r="R78" s="73"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="73"/>
+      <c r="U78" s="73"/>
+      <c r="V78" s="73"/>
+      <c r="W78" s="73"/>
+      <c r="X78" s="73"/>
+    </row>
+    <row r="79" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="7"/>
+      <c r="C79" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="30">
-        <f>SUM(D64:D77)</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="30">
-        <f t="shared" ref="E78:L78" si="4">SUM(E64:E77)</f>
-        <v>0</v>
-      </c>
-      <c r="F78" s="30">
+      <c r="D79" s="30">
+        <f>SUM(D65:D78)</f>
+        <v>712</v>
+      </c>
+      <c r="E79" s="30">
+        <f t="shared" ref="E79:L79" si="4">SUM(E65:E78)</f>
+        <v>292</v>
+      </c>
+      <c r="F79" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="30">
+        <v>1925</v>
+      </c>
+      <c r="G79" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="30">
+        <v>15</v>
+      </c>
+      <c r="H79" s="30">
         <f t="shared" si="4"/>
-        <v>835</v>
-      </c>
-      <c r="I78" s="30">
+        <v>1811</v>
+      </c>
+      <c r="I79" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="30">
+        <v>86</v>
+      </c>
+      <c r="J79" s="30">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="30">
+        <v>1972</v>
+      </c>
+      <c r="K79" s="30">
         <f t="shared" si="4"/>
-        <v>2120</v>
-      </c>
-      <c r="L78" s="30">
+        <v>5944</v>
+      </c>
+      <c r="L79" s="30">
         <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="M78" s="132"/>
-      <c r="N78" s="74"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q78" s="21">
-        <f t="shared" ref="Q78:X78" si="5">SUM(Q64:Q77)</f>
-        <v>0</v>
-      </c>
-      <c r="R78" s="21">
-        <f t="shared" si="5"/>
-        <v>130</v>
-      </c>
-      <c r="S78" s="21">
-        <f t="shared" si="5"/>
-        <v>264</v>
-      </c>
-      <c r="T78" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U78" s="21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="21">
-        <f t="shared" si="5"/>
-        <v>3425.5</v>
-      </c>
-      <c r="W78" s="21">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="X78" s="21">
-        <f t="shared" si="5"/>
-        <v>4098</v>
-      </c>
-    </row>
-    <row r="79" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="7"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="78"/>
-      <c r="M79" s="76"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="132"/>
       <c r="N79" s="74"/>
       <c r="O79" s="7"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-    </row>
-    <row r="80" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P79" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q79" s="21">
+        <f t="shared" ref="Q79:X79" si="5">SUM(Q65:Q78)</f>
+        <v>816</v>
+      </c>
+      <c r="R79" s="21">
+        <f t="shared" si="5"/>
+        <v>1286</v>
+      </c>
+      <c r="S79" s="21">
+        <f t="shared" si="5"/>
+        <v>3382</v>
+      </c>
+      <c r="T79" s="21">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="U79" s="21">
+        <f t="shared" si="5"/>
+        <v>1378</v>
+      </c>
+      <c r="V79" s="21">
+        <f t="shared" si="5"/>
+        <v>5453</v>
+      </c>
+      <c r="W79" s="21">
+        <f t="shared" si="5"/>
+        <v>2562</v>
+      </c>
+      <c r="X79" s="21">
+        <f t="shared" si="5"/>
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
       <c r="C80" s="1"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="264">
-        <f>K78+J78+I78+H78+G78+F78+E78+D78+L78</f>
-        <v>3455</v>
-      </c>
-      <c r="G80" s="265"/>
-      <c r="H80" s="266"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="71"/>
-      <c r="M80" s="74"/>
+      <c r="L80" s="78"/>
+      <c r="M80" s="76"/>
       <c r="N80" s="74"/>
       <c r="O80" s="7"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-      <c r="S80" s="267">
-        <f>Q78+R78+S78+T78+U78+V78+W78+X78</f>
-        <v>8067.5</v>
-      </c>
-      <c r="T80" s="268"/>
-      <c r="U80" s="269"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
     </row>
-    <row r="81" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B81" s="235"/>
-      <c r="C81" s="129"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="236"/>
-      <c r="G81" s="237"/>
-      <c r="H81" s="237"/>
-      <c r="I81" s="78"/>
-      <c r="J81" s="78"/>
-      <c r="K81" s="78"/>
+    <row r="81" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="7"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="264">
+        <f>K79+J79+I79+H79+G79+F79+E79+D79+L79</f>
+        <v>12757</v>
+      </c>
+      <c r="G81" s="265"/>
+      <c r="H81" s="266"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
       <c r="L81" s="71"/>
       <c r="M81" s="74"/>
       <c r="N81" s="74"/>
-      <c r="O81" s="235"/>
-      <c r="Q81" s="78"/>
-      <c r="R81" s="78"/>
-      <c r="S81" s="236"/>
-      <c r="T81" s="237"/>
-      <c r="U81" s="237"/>
-      <c r="V81" s="78"/>
-      <c r="W81" s="78"/>
-      <c r="X81" s="78"/>
+      <c r="O81" s="7"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="267">
+        <f>Q79+R79+S79+T79+U79+V79+W79+X79</f>
+        <v>21698</v>
+      </c>
+      <c r="T81" s="268"/>
+      <c r="U81" s="269"/>
+      <c r="V81" s="5"/>
+      <c r="W81" s="5"/>
+      <c r="X81" s="5"/>
+    </row>
+    <row r="82" spans="2:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B82" s="235"/>
+      <c r="C82" s="129"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="236"/>
+      <c r="G82" s="237"/>
+      <c r="H82" s="237"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="78"/>
+      <c r="L82" s="71"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="235"/>
+      <c r="Q82" s="78"/>
+      <c r="R82" s="78"/>
+      <c r="S82" s="236"/>
+      <c r="T82" s="237"/>
+      <c r="U82" s="237"/>
+      <c r="V82" s="78"/>
+      <c r="W82" s="78"/>
+      <c r="X82" s="78"/>
+    </row>
+    <row r="90" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B91" s="7"/>
+      <c r="C91" s="257" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="258"/>
+      <c r="E91" s="258"/>
+      <c r="F91" s="258"/>
+      <c r="G91" s="258"/>
+      <c r="H91" s="258"/>
+      <c r="I91" s="258"/>
+      <c r="J91" s="258"/>
+      <c r="K91" s="258"/>
+      <c r="L91" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="M91" s="133"/>
+      <c r="N91" s="81"/>
+      <c r="O91" s="259" t="s">
+        <v>19</v>
+      </c>
+      <c r="P91" s="260"/>
+      <c r="Q91" s="260"/>
+      <c r="R91" s="260"/>
+      <c r="S91" s="260"/>
+      <c r="T91" s="260"/>
+      <c r="U91" s="260"/>
+      <c r="V91" s="260"/>
+      <c r="W91" s="260"/>
+      <c r="X91" s="190" t="str">
+        <f>L91</f>
+        <v># 01</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="7"/>
+      <c r="C92" s="1"/>
+      <c r="I92" s="261" t="s">
+        <v>248</v>
+      </c>
+      <c r="J92" s="262"/>
+      <c r="K92" s="263"/>
+      <c r="L92" s="68"/>
+      <c r="M92" s="134"/>
+      <c r="N92" s="74"/>
+      <c r="O92" s="7"/>
+      <c r="V92" s="261" t="str">
+        <f>I92</f>
+        <v>del   01- al  3   NOVIEMBRE  2023</v>
+      </c>
+      <c r="W92" s="262"/>
+      <c r="X92" s="263"/>
+    </row>
+    <row r="93" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J93" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K93" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="L93" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M93" s="135"/>
+      <c r="N93" s="82"/>
+      <c r="O93" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P93" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R93" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S93" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T93" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="U93" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="V93" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W93" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X93" s="142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="234" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="72"/>
+      <c r="K94" s="72">
+        <f>1125+995</f>
+        <v>2120</v>
+      </c>
+      <c r="L94" s="71"/>
+      <c r="M94" s="131"/>
+      <c r="N94" s="74"/>
+      <c r="O94" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P94" s="234" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q94" s="72"/>
+      <c r="R94" s="72"/>
+      <c r="S94" s="72"/>
+      <c r="T94" s="72"/>
+      <c r="U94" s="72"/>
+      <c r="V94" s="72"/>
+      <c r="W94" s="72"/>
+      <c r="X94" s="72">
+        <f>2416+1682</f>
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" s="44"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="131"/>
+      <c r="N95" s="74"/>
+      <c r="O95" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P95" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q95" s="67"/>
+      <c r="R95" s="67"/>
+      <c r="S95" s="67">
+        <f>72+192</f>
+        <v>264</v>
+      </c>
+      <c r="T95" s="67"/>
+      <c r="U95" s="67"/>
+      <c r="V95" s="67"/>
+      <c r="W95" s="67"/>
+      <c r="X95" s="67"/>
+    </row>
+    <row r="96" spans="2:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" s="44"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="67"/>
+      <c r="L96" s="67"/>
+      <c r="M96" s="131"/>
+      <c r="N96" s="74"/>
+      <c r="O96" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P96" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q96" s="67"/>
+      <c r="R96" s="67"/>
+      <c r="S96" s="67"/>
+      <c r="T96" s="67"/>
+      <c r="U96" s="67"/>
+      <c r="V96" s="67"/>
+      <c r="W96" s="67">
+        <v>150</v>
+      </c>
+      <c r="X96" s="67"/>
+    </row>
+    <row r="97" spans="2:25" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C97" s="96"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67"/>
+      <c r="L97" s="67"/>
+      <c r="M97" s="131"/>
+      <c r="N97" s="74"/>
+      <c r="O97" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P97" s="239" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q97" s="67"/>
+      <c r="R97" s="67">
+        <v>130</v>
+      </c>
+      <c r="S97" s="67"/>
+      <c r="T97" s="67"/>
+      <c r="U97" s="67"/>
+      <c r="V97" s="67"/>
+      <c r="W97" s="67"/>
+      <c r="X97" s="67"/>
+    </row>
+    <row r="98" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" s="44"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="67"/>
+      <c r="L98" s="67"/>
+      <c r="M98" s="131"/>
+      <c r="N98" s="74"/>
+      <c r="O98" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P98" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q98" s="67"/>
+      <c r="R98" s="67"/>
+      <c r="S98" s="67"/>
+      <c r="T98" s="67"/>
+      <c r="U98" s="67"/>
+      <c r="V98" s="67">
+        <f>750+760+1711.5</f>
+        <v>3221.5</v>
+      </c>
+      <c r="W98" s="67"/>
+      <c r="X98" s="67"/>
+      <c r="Y98" s="242"/>
+    </row>
+    <row r="99" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" s="44"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="67"/>
+      <c r="L99" s="67"/>
+      <c r="M99" s="131"/>
+      <c r="N99" s="74"/>
+      <c r="O99" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P99" s="195" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q99" s="72"/>
+      <c r="R99" s="72"/>
+      <c r="S99" s="72"/>
+      <c r="T99" s="72"/>
+      <c r="U99" s="72"/>
+      <c r="V99" s="72">
+        <v>204</v>
+      </c>
+      <c r="W99" s="72"/>
+      <c r="X99" s="67"/>
+    </row>
+    <row r="100" spans="2:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100" s="44"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="94"/>
+      <c r="K100" s="67"/>
+      <c r="L100" s="67"/>
+      <c r="M100" s="131"/>
+      <c r="N100" s="74"/>
+      <c r="O100" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P100" s="194"/>
+      <c r="Q100" s="72"/>
+      <c r="R100" s="72"/>
+      <c r="S100" s="72"/>
+      <c r="T100" s="72"/>
+      <c r="U100" s="72"/>
+      <c r="V100" s="72"/>
+      <c r="W100" s="72"/>
+      <c r="X100" s="67"/>
+      <c r="Y100" s="129"/>
+    </row>
+    <row r="101" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
+      <c r="H101" s="67">
+        <v>85</v>
+      </c>
+      <c r="I101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="67"/>
+      <c r="L101" s="67"/>
+      <c r="M101" s="131"/>
+      <c r="N101" s="74"/>
+      <c r="O101" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P101" s="194"/>
+      <c r="Q101" s="72"/>
+      <c r="R101" s="72"/>
+      <c r="S101" s="72"/>
+      <c r="T101" s="72"/>
+      <c r="U101" s="72"/>
+      <c r="V101" s="72"/>
+      <c r="W101" s="72"/>
+      <c r="X101" s="67"/>
+    </row>
+    <row r="102" spans="2:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67">
+        <f>330+420</f>
+        <v>750</v>
+      </c>
+      <c r="I102" s="67"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="67"/>
+      <c r="M102" s="131"/>
+      <c r="N102" s="74"/>
+      <c r="O102" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P102" s="192"/>
+      <c r="Q102" s="72"/>
+      <c r="R102" s="72"/>
+      <c r="S102" s="72"/>
+      <c r="T102" s="72"/>
+      <c r="U102" s="72"/>
+      <c r="V102" s="72"/>
+      <c r="W102" s="72"/>
+      <c r="X102" s="67"/>
+    </row>
+    <row r="103" spans="2:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" s="67"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="67"/>
+      <c r="G103" s="67"/>
+      <c r="H103" s="67"/>
+      <c r="I103" s="67"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="67"/>
+      <c r="L103" s="11">
+        <v>500</v>
+      </c>
+      <c r="M103" s="131"/>
+      <c r="N103" s="74"/>
+      <c r="O103" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="P103" s="193"/>
+      <c r="Q103" s="72"/>
+      <c r="R103" s="72"/>
+      <c r="S103" s="72"/>
+      <c r="T103" s="72"/>
+      <c r="U103" s="72"/>
+      <c r="V103" s="72"/>
+      <c r="W103" s="72"/>
+      <c r="X103" s="67"/>
+    </row>
+    <row r="104" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="93"/>
+      <c r="C104" s="95"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="67"/>
+      <c r="H104" s="67"/>
+      <c r="I104" s="67"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="67"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="131"/>
+      <c r="N104" s="74"/>
+      <c r="O104" s="93"/>
+      <c r="P104" s="88"/>
+      <c r="Q104" s="72"/>
+      <c r="R104" s="72"/>
+      <c r="S104" s="72"/>
+      <c r="T104" s="72"/>
+      <c r="U104" s="72"/>
+      <c r="V104" s="72"/>
+      <c r="W104" s="72"/>
+      <c r="X104" s="67"/>
+    </row>
+    <row r="105" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="93"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="131"/>
+      <c r="N105" s="74"/>
+      <c r="O105" s="93"/>
+      <c r="P105" s="91"/>
+      <c r="Q105" s="67"/>
+      <c r="R105" s="67"/>
+      <c r="S105" s="67"/>
+      <c r="T105" s="67"/>
+      <c r="U105" s="67"/>
+      <c r="V105" s="67"/>
+      <c r="W105" s="67"/>
+      <c r="X105" s="67"/>
+    </row>
+    <row r="106" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="93"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="131"/>
+      <c r="N106" s="74"/>
+      <c r="O106" s="93"/>
+      <c r="P106" s="91"/>
+      <c r="Q106" s="67"/>
+      <c r="R106" s="67"/>
+      <c r="S106" s="67"/>
+      <c r="T106" s="67"/>
+      <c r="U106" s="67"/>
+      <c r="V106" s="67"/>
+      <c r="W106" s="67"/>
+      <c r="X106" s="67"/>
+    </row>
+    <row r="107" spans="2:25" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="9"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="73"/>
+      <c r="F107" s="73"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="73"/>
+      <c r="I107" s="73"/>
+      <c r="J107" s="73"/>
+      <c r="K107" s="73"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="131"/>
+      <c r="N107" s="74"/>
+      <c r="O107" s="46"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="73">
+        <v>0</v>
+      </c>
+      <c r="R107" s="73"/>
+      <c r="S107" s="73"/>
+      <c r="T107" s="73"/>
+      <c r="U107" s="73"/>
+      <c r="V107" s="73"/>
+      <c r="W107" s="73"/>
+      <c r="X107" s="73"/>
+    </row>
+    <row r="108" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="7"/>
+      <c r="C108" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="30">
+        <f>SUM(D94:D107)</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="30">
+        <f t="shared" ref="E108:L108" si="6">SUM(E94:E107)</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="30">
+        <f t="shared" si="6"/>
+        <v>835</v>
+      </c>
+      <c r="I108" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="30">
+        <f t="shared" si="6"/>
+        <v>2120</v>
+      </c>
+      <c r="L108" s="30">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="M108" s="132"/>
+      <c r="N108" s="74"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q108" s="21">
+        <f t="shared" ref="Q108:X108" si="7">SUM(Q94:Q107)</f>
+        <v>0</v>
+      </c>
+      <c r="R108" s="21">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="S108" s="21">
+        <f t="shared" si="7"/>
+        <v>264</v>
+      </c>
+      <c r="T108" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="21">
+        <f t="shared" si="7"/>
+        <v>3425.5</v>
+      </c>
+      <c r="W108" s="21">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="X108" s="21">
+        <f t="shared" si="7"/>
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="109" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="7"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="78"/>
+      <c r="M109" s="76"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="7"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
+    </row>
+    <row r="110" spans="2:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="7"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="264">
+        <f>K108+J108+I108+H108+G108+F108+E108+D108+L108</f>
+        <v>3455</v>
+      </c>
+      <c r="G110" s="265"/>
+      <c r="H110" s="266"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="71"/>
+      <c r="M110" s="74"/>
+      <c r="N110" s="74"/>
+      <c r="O110" s="7"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="267">
+        <f>Q108+R108+S108+T108+U108+V108+W108+X108</f>
+        <v>8067.5</v>
+      </c>
+      <c r="T110" s="268"/>
+      <c r="U110" s="269"/>
+      <c r="V110" s="5"/>
+      <c r="W110" s="5"/>
+      <c r="X110" s="5"/>
+    </row>
+    <row r="111" spans="2:25" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B111" s="235"/>
+      <c r="C111" s="129"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="78"/>
+      <c r="F111" s="236"/>
+      <c r="G111" s="237"/>
+      <c r="H111" s="237"/>
+      <c r="I111" s="78"/>
+      <c r="J111" s="78"/>
+      <c r="K111" s="78"/>
+      <c r="L111" s="71"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="74"/>
+      <c r="O111" s="235"/>
+      <c r="Q111" s="78"/>
+      <c r="R111" s="78"/>
+      <c r="S111" s="236"/>
+      <c r="T111" s="237"/>
+      <c r="U111" s="237"/>
+      <c r="V111" s="78"/>
+      <c r="W111" s="78"/>
+      <c r="X111" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="O61:W61"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="S20:U20"/>
+  <mergeCells count="24">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="O31:W31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="C62:K62"/>
+    <mergeCell ref="O62:W62"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="S110:U110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13534,42 +14454,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="O30:W30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="C91:K91"/>
+    <mergeCell ref="O91:W91"/>
+    <mergeCell ref="I92:K92"/>
+    <mergeCell ref="V92:X92"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="S110:U110"/>
+    <mergeCell ref="C142:K142"/>
+    <mergeCell ref="O142:W142"/>
+    <mergeCell ref="I143:K143"/>
+    <mergeCell ref="V143:X143"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="S161:U161"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="O60:W60"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="C116:K116"/>
     <mergeCell ref="O116:W116"/>
     <mergeCell ref="I117:K117"/>
     <mergeCell ref="V117:X117"/>
     <mergeCell ref="F135:H135"/>
     <mergeCell ref="S135:U135"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="O60:W60"/>
-    <mergeCell ref="I61:K61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="C142:K142"/>
-    <mergeCell ref="O142:W142"/>
-    <mergeCell ref="I143:K143"/>
-    <mergeCell ref="V143:X143"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="S161:U161"/>
-    <mergeCell ref="C91:K91"/>
-    <mergeCell ref="O91:W91"/>
-    <mergeCell ref="I92:K92"/>
-    <mergeCell ref="V92:X92"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="S110:U110"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="O30:W30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="S49:U49"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.15748031496062992" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18940,42 +19860,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="C130:K130"/>
+    <mergeCell ref="O130:W130"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="W131:X131"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="S149:U149"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="C156:K156"/>
+    <mergeCell ref="S184:U184"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="W157:X157"/>
+    <mergeCell ref="O156:W156"/>
+    <mergeCell ref="C97:K97"/>
+    <mergeCell ref="I98:K98"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="O97:W97"/>
+    <mergeCell ref="S116:U116"/>
+    <mergeCell ref="V98:X98"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="O32:W32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="S51:U51"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="O2:W2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="S21:U21"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="O32:W32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="C97:K97"/>
-    <mergeCell ref="I98:K98"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="O97:W97"/>
-    <mergeCell ref="S116:U116"/>
-    <mergeCell ref="V98:X98"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="C156:K156"/>
-    <mergeCell ref="S184:U184"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="W157:X157"/>
-    <mergeCell ref="O156:W156"/>
-    <mergeCell ref="C130:K130"/>
-    <mergeCell ref="O130:W130"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="W131:X131"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="S149:U149"/>
-    <mergeCell ref="C66:K66"/>
-    <mergeCell ref="O66:W66"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="S85:U85"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21280,7 +22200,7 @@
       <c r="I22" s="271"/>
       <c r="J22" s="271"/>
       <c r="K22" s="271"/>
-      <c r="L22" s="279"/>
+      <c r="L22" s="277"/>
       <c r="M22" s="171"/>
       <c r="N22" s="151"/>
       <c r="T22" s="7"/>
@@ -21294,7 +22214,7 @@
       <c r="Z22" s="271"/>
       <c r="AA22" s="271"/>
       <c r="AB22" s="271"/>
-      <c r="AC22" s="279"/>
+      <c r="AC22" s="277"/>
       <c r="AD22" s="171"/>
       <c r="AE22" s="151"/>
       <c r="AI22" s="7"/>
@@ -21836,12 +22756,12 @@
       <c r="AH28" s="154"/>
       <c r="AK28" s="30"/>
       <c r="AL28" s="31"/>
-      <c r="AM28" s="277" t="s">
+      <c r="AM28" s="278" t="s">
         <v>192</v>
       </c>
-      <c r="AN28" s="277"/>
-      <c r="AO28" s="277"/>
-      <c r="AP28" s="278"/>
+      <c r="AN28" s="278"/>
+      <c r="AO28" s="278"/>
+      <c r="AP28" s="279"/>
       <c r="AQ28" s="22"/>
       <c r="AR28" s="157"/>
       <c r="AS28" s="77"/>
@@ -22078,22 +22998,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="U22:AC22"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="AJ2:AR2"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AJ22:AR22"/>
     <mergeCell ref="AP23:AR23"/>
     <mergeCell ref="U2:AC2"/>
     <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="U22:AC22"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="363">
   <si>
     <t>FECHA</t>
   </si>
@@ -1110,6 +1110,48 @@
   </si>
   <si>
     <t>SALCHICHA</t>
+  </si>
+  <si>
+    <t>del   02 - al  08  DICIEMBRE    2023</t>
+  </si>
+  <si>
+    <t>Del 02  al    08-Dic-23.,</t>
+  </si>
+  <si>
+    <t>poro-oregano-tomillo-hierbabuena-pipicha</t>
+  </si>
+  <si>
+    <t>Manzana-Melon-Sandia-Guayaba-Papaya</t>
+  </si>
+  <si>
+    <t>Cebolla-Chayote-Serrano-Jalapeño-Ajo-Jicama-Calabaza-Zanahoria --elote-pipicha--limon</t>
+  </si>
+  <si>
+    <t>Chipotles--Lala-Elote-Yoguth-Mayonesa</t>
+  </si>
+  <si>
+    <t>Chile costeño-</t>
+  </si>
+  <si>
+    <t>Crema-Pechuga pollo--Bisteck-Queso--pollo-Chicharron--Jamon-gouda</t>
+  </si>
+  <si>
+    <t>Pechuga pollo-Salchicha-Bisteck pco-queso--Jamon-Tocino-gouda--cuete de res--chicharron--pollo</t>
+  </si>
+  <si>
+    <t>Zanahoria--Calabaza-Chayote--Chicharo--Ejote--Papa-Ajo--Tomate-Serrano-Jalapeño-Cebolla--Jitomate--Elote--Limon</t>
+  </si>
+  <si>
+    <t>Sandia--Manzana--Guayaba--Melon--Maracuya</t>
+  </si>
+  <si>
+    <t>Chile pulla--guajillo--costeño--Almendra--Ciruela</t>
+  </si>
+  <si>
+    <t>Elote--Mayonesa--Vinagre--Limpia Horno--Papel mixiote-alpura--rajas--chipotles</t>
+  </si>
+  <si>
+    <t>tomillo-oregano-cilantro-Epazote--hojas de aguacate</t>
   </si>
 </sst>
 </file>
@@ -2156,7 +2198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2797,6 +2839,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2881,6 +2943,15 @@
     <xf numFmtId="44" fontId="4" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2896,34 +2967,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3273,53 +3318,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="260" t="s">
+      <c r="C1" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
       <c r="L1" s="127" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="133"/>
       <c r="N1" s="81"/>
-      <c r="O1" s="273" t="s">
+      <c r="O1" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="274"/>
-      <c r="Q1" s="274"/>
-      <c r="R1" s="274"/>
-      <c r="S1" s="274"/>
-      <c r="T1" s="274"/>
-      <c r="U1" s="274"/>
-      <c r="V1" s="274"/>
-      <c r="W1" s="274"/>
+      <c r="P1" s="282"/>
+      <c r="Q1" s="282"/>
+      <c r="R1" s="282"/>
+      <c r="S1" s="282"/>
+      <c r="T1" s="282"/>
+      <c r="U1" s="282"/>
+      <c r="V1" s="282"/>
+      <c r="W1" s="282"/>
       <c r="X1" s="128" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="265"/>
-      <c r="K2" s="266"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="274"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
       <c r="P2"/>
-      <c r="V2" s="264" t="s">
+      <c r="V2" s="272" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="265"/>
-      <c r="X2" s="266"/>
+      <c r="W2" s="273"/>
+      <c r="X2" s="274"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -3978,12 +4023,12 @@
     <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="267">
+      <c r="F20" s="275">
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
         <v>14572.5</v>
       </c>
-      <c r="G20" s="268"/>
-      <c r="H20" s="269"/>
+      <c r="G20" s="276"/>
+      <c r="H20" s="277"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -3994,12 +4039,12 @@
       <c r="P20"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="270">
+      <c r="S20" s="278">
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>21274</v>
       </c>
-      <c r="T20" s="271"/>
-      <c r="U20" s="272"/>
+      <c r="T20" s="279"/>
+      <c r="U20" s="280"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -4119,34 +4164,34 @@
     <row r="1" spans="2:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="126" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="122"/>
-      <c r="C2" s="288" t="s">
+      <c r="C2" s="299" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="300"/>
       <c r="L2" s="123"/>
       <c r="M2" s="124"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
-      <c r="P2" s="290" t="s">
+      <c r="P2" s="301" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="291"/>
-      <c r="R2" s="291"/>
-      <c r="S2" s="291"/>
-      <c r="T2" s="291"/>
-      <c r="U2" s="291"/>
-      <c r="V2" s="291"/>
-      <c r="W2" s="291"/>
-      <c r="X2" s="291"/>
-      <c r="Y2" s="291"/>
-      <c r="Z2" s="292"/>
+      <c r="Q2" s="302"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="302"/>
+      <c r="U2" s="302"/>
+      <c r="V2" s="302"/>
+      <c r="W2" s="302"/>
+      <c r="X2" s="302"/>
+      <c r="Y2" s="302"/>
+      <c r="Z2" s="303"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="37"/>
@@ -5097,12 +5142,12 @@
     <row r="19" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="267">
+      <c r="F19" s="275">
         <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
         <v>50513</v>
       </c>
-      <c r="G19" s="268"/>
-      <c r="H19" s="269"/>
+      <c r="G19" s="276"/>
+      <c r="H19" s="277"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -5112,12 +5157,12 @@
       <c r="O19" s="74"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="270">
+      <c r="T19" s="278">
         <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
         <v>78100</v>
       </c>
-      <c r="U19" s="271"/>
-      <c r="V19" s="272"/>
+      <c r="U19" s="279"/>
+      <c r="V19" s="280"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -5252,32 +5297,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="260" t="s">
+      <c r="B2" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="273" t="s">
+      <c r="M2" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="274"/>
-      <c r="O2" s="274"/>
-      <c r="P2" s="274"/>
-      <c r="Q2" s="274"/>
-      <c r="R2" s="274"/>
-      <c r="S2" s="274"/>
-      <c r="T2" s="274"/>
-      <c r="U2" s="274"/>
-      <c r="V2" s="274"/>
-      <c r="W2" s="282"/>
+      <c r="N2" s="282"/>
+      <c r="O2" s="282"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="282"/>
+      <c r="R2" s="282"/>
+      <c r="S2" s="282"/>
+      <c r="T2" s="282"/>
+      <c r="U2" s="282"/>
+      <c r="V2" s="282"/>
+      <c r="W2" s="290"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -6536,12 +6581,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="267">
+      <c r="E30" s="275">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="268"/>
-      <c r="G30" s="269"/>
+      <c r="F30" s="276"/>
+      <c r="G30" s="277"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -6549,12 +6594,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="270">
+      <c r="Q30" s="278">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="271"/>
-      <c r="S30" s="272"/>
+      <c r="R30" s="279"/>
+      <c r="S30" s="280"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -6665,10 +6710,11 @@
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
-  <dimension ref="A2:AA23"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6685,176 +6731,221 @@
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="7"/>
+      <c r="C2" s="268" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="133"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="270" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="271"/>
+      <c r="S2" s="271"/>
+      <c r="T2" s="271"/>
+      <c r="U2" s="271"/>
+      <c r="V2" s="271"/>
+      <c r="W2" s="271"/>
+      <c r="X2" s="190" t="str">
+        <f>L2</f>
+        <v># 02</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
-      <c r="C3" s="260" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="128" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="133"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="262" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="263"/>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="263"/>
-      <c r="T3" s="263"/>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="263"/>
-      <c r="X3" s="190" t="str">
-        <f>L3</f>
-        <v># 01</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="1"/>
-      <c r="I4" s="264" t="s">
-        <v>347</v>
-      </c>
-      <c r="J4" s="265"/>
-      <c r="K4" s="266"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="7"/>
-      <c r="V4" s="264" t="str">
-        <f>I4</f>
-        <v>del   - al  01  DICIEMBRE    2023</v>
-      </c>
-      <c r="W4" s="265"/>
-      <c r="X4" s="266"/>
-    </row>
-    <row r="5" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="C3" s="1"/>
+      <c r="I3" s="272" t="s">
+        <v>349</v>
+      </c>
+      <c r="J3" s="273"/>
+      <c r="K3" s="274"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="7"/>
+      <c r="V3" s="272" t="str">
+        <f>I3</f>
+        <v>del   02 - al  08  DICIEMBRE    2023</v>
+      </c>
+      <c r="W3" s="273"/>
+      <c r="X3" s="274"/>
+    </row>
+    <row r="4" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="184" t="s">
+      <c r="I4" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="183" t="s">
+      <c r="K4" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="99" t="s">
+      <c r="L4" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="135"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="143" t="s">
+      <c r="M4" s="135"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="137" t="s">
+      <c r="Q4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="138" t="s">
+      <c r="R4" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="138" t="s">
+      <c r="S4" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="137" t="s">
+      <c r="T4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="137" t="s">
+      <c r="U4" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="141" t="s">
+      <c r="V4" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="136" t="s">
+      <c r="W4" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="142" t="s">
+      <c r="X4" s="142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="93" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="234" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72">
+        <f>929+1239+182+2457+1061</f>
+        <v>5868</v>
+      </c>
+      <c r="L5" s="71"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="93" t="s">
+        <v>350</v>
+      </c>
+      <c r="P5" s="234" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72">
+        <f>1328+1141+1105+839</f>
+        <v>4413</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="234" t="s">
-        <v>323</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="71"/>
+        <v>350</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67">
+        <f>1585+415+37</f>
+        <v>2037</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="131"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="P6" s="234" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72">
-        <v>280</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67">
+        <f>2655+1050+140+34</f>
+        <v>3879</v>
+      </c>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+    </row>
+    <row r="7" spans="2:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
+      <c r="G7" s="67">
+        <v>40</v>
+      </c>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
       <c r="J7" s="67"/>
@@ -6863,12 +6954,15 @@
       <c r="M7" s="131"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q7" s="67"/>
+        <v>359</v>
+      </c>
+      <c r="Q7" s="67">
+        <f>850+210</f>
+        <v>1060</v>
+      </c>
       <c r="R7" s="67"/>
       <c r="S7" s="67"/>
       <c r="T7" s="67"/>
@@ -6877,14 +6971,17 @@
       <c r="W7" s="67"/>
       <c r="X7" s="67"/>
     </row>
-    <row r="8" spans="2:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="D8" s="67"/>
+        <v>350</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="67">
+        <f>648+67</f>
+        <v>715</v>
+      </c>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
@@ -6896,26 +6993,29 @@
       <c r="M8" s="131"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="P8" s="44" t="s">
-        <v>331</v>
+        <v>350</v>
+      </c>
+      <c r="P8" s="95" t="s">
+        <v>362</v>
       </c>
       <c r="Q8" s="67"/>
       <c r="R8" s="67"/>
       <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
+      <c r="T8" s="67">
+        <f>35+50</f>
+        <v>85</v>
+      </c>
       <c r="U8" s="67"/>
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="9" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>326</v>
+        <v>350</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>354</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
@@ -6923,142 +7023,165 @@
       <c r="G9" s="67"/>
       <c r="H9" s="67"/>
       <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="J9" s="67">
+        <f>280+127+460</f>
+        <v>867</v>
+      </c>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P9" s="95" t="s">
-        <v>332</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="67"/>
       <c r="R9" s="67"/>
       <c r="S9" s="67"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="67">
+        <v>821</v>
+      </c>
       <c r="V9" s="67"/>
       <c r="W9" s="67"/>
       <c r="X9" s="67"/>
-    </row>
-    <row r="10" spans="2:27" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y9" s="242"/>
+    </row>
+    <row r="10" spans="2:27" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>327</v>
+        <v>350</v>
+      </c>
+      <c r="C10" s="254" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
+      <c r="I10" s="67">
+        <v>407</v>
+      </c>
       <c r="J10" s="67"/>
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="131"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="P10" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="242"/>
-    </row>
-    <row r="11" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+      <c r="P10" s="304" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72">
+        <f>502+52.5+795+399.5</f>
+        <v>1749</v>
+      </c>
+      <c r="X10" s="255"/>
+      <c r="Y10" s="258" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="254" t="s">
-        <v>12</v>
+        <v>350</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>355</v>
       </c>
       <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="E11" s="67">
+        <v>150</v>
+      </c>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
+      <c r="J11" s="94"/>
       <c r="K11" s="67"/>
       <c r="L11" s="67"/>
       <c r="M11" s="131"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="P11" s="259" t="s">
-        <v>333</v>
+        <v>350</v>
+      </c>
+      <c r="P11" s="260" t="s">
+        <v>360</v>
       </c>
       <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
+      <c r="R11" s="72">
+        <v>695</v>
+      </c>
       <c r="S11" s="72"/>
       <c r="T11" s="72"/>
       <c r="U11" s="72"/>
       <c r="V11" s="72"/>
       <c r="W11" s="72"/>
-      <c r="X11" s="255"/>
-      <c r="Y11" s="258" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="67"/>
+      <c r="Y11" s="129"/>
+    </row>
+    <row r="12" spans="2:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>328</v>
+        <v>350</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>96</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="H12" s="67">
+        <f>102+102+68+85+102+85+85</f>
+        <v>629</v>
+      </c>
       <c r="I12" s="67"/>
-      <c r="J12" s="94"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="67"/>
       <c r="L12" s="67"/>
       <c r="M12" s="131"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="P12" s="293" t="s">
-        <v>334</v>
+        <v>350</v>
+      </c>
+      <c r="P12" s="195" t="s">
+        <v>140</v>
       </c>
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
       <c r="S12" s="72"/>
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
+      <c r="V12" s="72">
+        <f>800+800+800+2626</f>
+        <v>5026</v>
+      </c>
       <c r="W12" s="72"/>
       <c r="X12" s="67"/>
-      <c r="Y12" s="129"/>
-    </row>
-    <row r="13" spans="2:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C13" s="95" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="H13" s="67">
+        <f>330+330+420</f>
+        <v>1080</v>
+      </c>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
       <c r="K13" s="67"/>
@@ -7066,10 +7189,10 @@
       <c r="M13" s="131"/>
       <c r="N13" s="74"/>
       <c r="O13" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="P13" s="195" t="s">
-        <v>140</v>
+        <v>350</v>
+      </c>
+      <c r="P13" s="192" t="s">
+        <v>217</v>
       </c>
       <c r="Q13" s="72"/>
       <c r="R13" s="72"/>
@@ -7077,38 +7200,36 @@
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
       <c r="V13" s="72">
-        <f>800+2935</f>
-        <v>3735</v>
+        <f>272+204+187+204+289+204+170</f>
+        <v>1530</v>
       </c>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
     </row>
-    <row r="14" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>239</v>
+        <v>350</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>146</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
       <c r="F14" s="67"/>
       <c r="G14" s="67"/>
-      <c r="H14" s="67">
-        <v>420</v>
-      </c>
+      <c r="H14" s="67"/>
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
+      <c r="L14" s="67">
+        <v>0</v>
+      </c>
       <c r="M14" s="131"/>
       <c r="N14" s="74"/>
       <c r="O14" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="P14" s="192" t="s">
-        <v>217</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="P14" s="194"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="72"/>
       <c r="S14" s="72"/>
@@ -7118,13 +7239,9 @@
       <c r="W14" s="72"/>
       <c r="X14" s="67"/>
     </row>
-    <row r="15" spans="2:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>146</v>
-      </c>
+    <row r="15" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="93"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="67"/>
       <c r="E15" s="67"/>
       <c r="F15" s="67"/>
@@ -7133,15 +7250,11 @@
       <c r="I15" s="67"/>
       <c r="J15" s="67"/>
       <c r="K15" s="67"/>
-      <c r="L15" s="67">
-        <v>500</v>
-      </c>
+      <c r="L15" s="11"/>
       <c r="M15" s="131"/>
       <c r="N15" s="74"/>
-      <c r="O15" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="P15" s="194"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="88"/>
       <c r="Q15" s="72"/>
       <c r="R15" s="72"/>
       <c r="S15" s="72"/>
@@ -7153,7 +7266,7 @@
     </row>
     <row r="16" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="93"/>
-      <c r="C16" s="95"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
@@ -7166,14 +7279,14 @@
       <c r="M16" s="131"/>
       <c r="N16" s="74"/>
       <c r="O16" s="93"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
       <c r="X16" s="67"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7202,226 +7315,936 @@
       <c r="X17" s="67"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="93"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="131"/>
       <c r="N18" s="74"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="131"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="73">
+        <v>0</v>
+      </c>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+    </row>
+    <row r="19" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="30">
+        <f>SUM(D5:D18)</f>
+        <v>715</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" ref="E19:L19" si="0">SUM(E5:E18)</f>
+        <v>150</v>
+      </c>
+      <c r="F19" s="30">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="G19" s="30">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H19" s="30">
+        <f t="shared" si="0"/>
+        <v>1709</v>
+      </c>
+      <c r="I19" s="30">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+      <c r="J19" s="30">
+        <f t="shared" si="0"/>
+        <v>867</v>
+      </c>
+      <c r="K19" s="30">
+        <f t="shared" si="0"/>
+        <v>5868</v>
+      </c>
+      <c r="L19" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="132"/>
       <c r="N19" s="74"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="73">
-        <v>0</v>
-      </c>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-    </row>
-    <row r="20" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="7"/>
+      <c r="P19" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="21">
+        <f t="shared" ref="Q19:X19" si="1">SUM(Q5:Q18)</f>
+        <v>1060</v>
+      </c>
+      <c r="R19" s="21">
+        <f t="shared" si="1"/>
+        <v>695</v>
+      </c>
+      <c r="S19" s="21">
+        <f t="shared" si="1"/>
+        <v>3879</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="U19" s="21">
+        <f t="shared" si="1"/>
+        <v>821</v>
+      </c>
+      <c r="V19" s="21">
+        <f t="shared" si="1"/>
+        <v>6556</v>
+      </c>
+      <c r="W19" s="21">
+        <f t="shared" si="1"/>
+        <v>1749</v>
+      </c>
+      <c r="X19" s="21">
+        <f t="shared" si="1"/>
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
-      <c r="C20" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="30">
-        <f>SUM(D6:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="30">
-        <f t="shared" ref="E20:L20" si="0">SUM(E6:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="30">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="I20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="30">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="M20" s="132"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="76"/>
       <c r="N20" s="74"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="21">
-        <f t="shared" ref="Q20:X20" si="1">SUM(Q6:Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="21">
-        <f t="shared" si="1"/>
-        <v>3735</v>
-      </c>
-      <c r="W20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="21">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="F21" s="275">
+        <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
+        <v>11793</v>
+      </c>
+      <c r="G21" s="276"/>
+      <c r="H21" s="277"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="76"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="74"/>
       <c r="N21" s="74"/>
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="S21" s="278">
+        <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
+        <v>19258</v>
+      </c>
+      <c r="T21" s="279"/>
+      <c r="U21" s="280"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="7"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="267">
-        <f>K20+J20+I20+H20+G20+F20+E20+D20+L20</f>
-        <v>920</v>
-      </c>
-      <c r="G22" s="268"/>
-      <c r="H22" s="269"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+    <row r="22" spans="1:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="235"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="236"/>
+      <c r="G22" s="237"/>
+      <c r="H22" s="237"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
       <c r="L22" s="71"/>
       <c r="M22" s="74"/>
       <c r="N22" s="74"/>
-      <c r="O22" s="7"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="270">
-        <f>Q20+R20+S20+T20+U20+V20+W20+X20</f>
+      <c r="O22" s="235"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="237"/>
+      <c r="U22" s="237"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="7"/>
+      <c r="C33" s="268" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="269"/>
+      <c r="I33" s="269"/>
+      <c r="J33" s="269"/>
+      <c r="K33" s="269"/>
+      <c r="L33" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="133"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="270" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" s="271"/>
+      <c r="Q33" s="271"/>
+      <c r="R33" s="271"/>
+      <c r="S33" s="271"/>
+      <c r="T33" s="271"/>
+      <c r="U33" s="271"/>
+      <c r="V33" s="271"/>
+      <c r="W33" s="271"/>
+      <c r="X33" s="190" t="str">
+        <f>L33</f>
+        <v># 01</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="1"/>
+      <c r="I34" s="272" t="s">
+        <v>347</v>
+      </c>
+      <c r="J34" s="273"/>
+      <c r="K34" s="274"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="134"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="7"/>
+      <c r="V34" s="272" t="str">
+        <f>I34</f>
+        <v>del   - al  01  DICIEMBRE    2023</v>
+      </c>
+      <c r="W34" s="273"/>
+      <c r="X34" s="274"/>
+    </row>
+    <row r="35" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="135"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R35" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T35" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W35" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X35" s="142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C36" s="234" t="s">
+        <v>323</v>
+      </c>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P36" s="234" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72">
+        <v>280</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P37" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+    </row>
+    <row r="38" spans="2:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P38" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+    </row>
+    <row r="39" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="96" t="s">
+        <v>326</v>
+      </c>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P39" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+    </row>
+    <row r="40" spans="2:27" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P40" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="242"/>
+    </row>
+    <row r="41" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C41" s="254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="131"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P41" s="259" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="255"/>
+      <c r="Y41" s="258" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P42" s="260" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="129"/>
+    </row>
+    <row r="43" spans="2:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C43" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P43" s="195" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72">
+        <f>800+2935</f>
+        <v>3735</v>
+      </c>
+      <c r="W43" s="72"/>
+      <c r="X43" s="67"/>
+    </row>
+    <row r="44" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67">
+        <v>420</v>
+      </c>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P44" s="192" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="67"/>
+    </row>
+    <row r="45" spans="2:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67">
+        <v>500</v>
+      </c>
+      <c r="M45" s="131"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P45" s="194"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="67"/>
+    </row>
+    <row r="46" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="93"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="131"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="67"/>
+    </row>
+    <row r="47" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="93"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="131"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="91"/>
+      <c r="Q47" s="67"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="67"/>
+      <c r="V47" s="67"/>
+      <c r="W47" s="67"/>
+      <c r="X47" s="67"/>
+    </row>
+    <row r="48" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="93"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="91"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="67"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="67"/>
+      <c r="X48" s="67"/>
+    </row>
+    <row r="49" spans="1:24" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="131"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="73">
+        <v>0</v>
+      </c>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+    </row>
+    <row r="50" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="30">
+        <f>SUM(D36:D49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="30">
+        <f t="shared" ref="E50:L50" si="2">SUM(E36:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="30">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="I50" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="30">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="M50" s="132"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q50" s="21">
+        <f t="shared" ref="Q50:X50" si="3">SUM(Q36:Q49)</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="21">
+        <f t="shared" si="3"/>
+        <v>3735</v>
+      </c>
+      <c r="W50" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="21">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="7"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="7"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+    </row>
+    <row r="52" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="7"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="275">
+        <f>K50+J50+I50+H50+G50+F50+E50+D50+L50</f>
+        <v>920</v>
+      </c>
+      <c r="G52" s="276"/>
+      <c r="H52" s="277"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="7"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="278">
+        <f>Q50+R50+S50+T50+U50+V50+W50+X50</f>
         <v>4015</v>
       </c>
-      <c r="T22" s="271"/>
-      <c r="U22" s="272"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-    </row>
-    <row r="23" spans="1:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="80" t="s">
+      <c r="T52" s="279"/>
+      <c r="U52" s="280"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+    </row>
+    <row r="53" spans="1:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A53" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="235"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="235"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="236"/>
-      <c r="T23" s="237"/>
-      <c r="U23" s="237"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
+      <c r="B53" s="235"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="236"/>
+      <c r="G53" s="237"/>
+      <c r="H53" s="237"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="235"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="236"/>
+      <c r="T53" s="237"/>
+      <c r="U53" s="237"/>
+      <c r="V53" s="78"/>
+      <c r="W53" s="78"/>
+      <c r="X53" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="O3:W3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="S22:U22"/>
+  <mergeCells count="12">
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="O33:W33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.37" bottom="0.35" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7457,33 +8280,33 @@
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="260" t="s">
+      <c r="C2" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
       <c r="L2" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="262" t="s">
+      <c r="O2" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="263"/>
-      <c r="S2" s="263"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="271"/>
+      <c r="S2" s="271"/>
+      <c r="T2" s="271"/>
+      <c r="U2" s="271"/>
+      <c r="V2" s="271"/>
+      <c r="W2" s="271"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 05</v>
@@ -7492,21 +8315,21 @@
     <row r="3" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="264" t="s">
+      <c r="I3" s="272" t="s">
         <v>321</v>
       </c>
-      <c r="J3" s="265"/>
-      <c r="K3" s="266"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="274"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="264" t="str">
+      <c r="V3" s="272" t="str">
         <f>I3</f>
         <v>del   25- al  30   NOVIEMBRE  2023</v>
       </c>
-      <c r="W3" s="265"/>
-      <c r="X3" s="266"/>
+      <c r="W3" s="273"/>
+      <c r="X3" s="274"/>
     </row>
     <row r="4" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -7836,7 +8659,7 @@
       <c r="O11" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="P11" s="293" t="s">
+      <c r="P11" s="260" t="s">
         <v>334</v>
       </c>
       <c r="Q11" s="72"/>
@@ -8174,12 +8997,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="267">
+      <c r="F21" s="275">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>14252</v>
       </c>
-      <c r="G21" s="268"/>
-      <c r="H21" s="269"/>
+      <c r="G21" s="276"/>
+      <c r="H21" s="277"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -8189,12 +9012,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="270">
+      <c r="S21" s="278">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>26704</v>
       </c>
-      <c r="T21" s="271"/>
-      <c r="U21" s="272"/>
+      <c r="T21" s="279"/>
+      <c r="U21" s="280"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -8281,33 +9104,33 @@
     <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
-      <c r="C29" s="260" t="s">
+      <c r="C29" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="261"/>
-      <c r="E29" s="261"/>
-      <c r="F29" s="261"/>
-      <c r="G29" s="261"/>
-      <c r="H29" s="261"/>
-      <c r="I29" s="261"/>
-      <c r="J29" s="261"/>
-      <c r="K29" s="261"/>
+      <c r="D29" s="269"/>
+      <c r="E29" s="269"/>
+      <c r="F29" s="269"/>
+      <c r="G29" s="269"/>
+      <c r="H29" s="269"/>
+      <c r="I29" s="269"/>
+      <c r="J29" s="269"/>
+      <c r="K29" s="269"/>
       <c r="L29" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M29" s="133"/>
       <c r="N29" s="81"/>
-      <c r="O29" s="262" t="s">
+      <c r="O29" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="263"/>
-      <c r="Q29" s="263"/>
-      <c r="R29" s="263"/>
-      <c r="S29" s="263"/>
-      <c r="T29" s="263"/>
-      <c r="U29" s="263"/>
-      <c r="V29" s="263"/>
-      <c r="W29" s="263"/>
+      <c r="P29" s="271"/>
+      <c r="Q29" s="271"/>
+      <c r="R29" s="271"/>
+      <c r="S29" s="271"/>
+      <c r="T29" s="271"/>
+      <c r="U29" s="271"/>
+      <c r="V29" s="271"/>
+      <c r="W29" s="271"/>
       <c r="X29" s="190" t="str">
         <f>L29</f>
         <v># 05</v>
@@ -8316,21 +9139,21 @@
     <row r="30" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
-      <c r="I30" s="264" t="s">
+      <c r="I30" s="272" t="s">
         <v>321</v>
       </c>
-      <c r="J30" s="265"/>
-      <c r="K30" s="266"/>
+      <c r="J30" s="273"/>
+      <c r="K30" s="274"/>
       <c r="L30" s="68"/>
       <c r="M30" s="134"/>
       <c r="N30" s="74"/>
       <c r="O30" s="7"/>
-      <c r="V30" s="264" t="str">
+      <c r="V30" s="272" t="str">
         <f>I30</f>
         <v>del   25- al  30   NOVIEMBRE  2023</v>
       </c>
-      <c r="W30" s="265"/>
-      <c r="X30" s="266"/>
+      <c r="W30" s="273"/>
+      <c r="X30" s="274"/>
     </row>
     <row r="31" spans="1:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
@@ -8660,7 +9483,7 @@
       <c r="O38" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="P38" s="293" t="s">
+      <c r="P38" s="260" t="s">
         <v>334</v>
       </c>
       <c r="Q38" s="72"/>
@@ -8998,12 +9821,12 @@
       <c r="C48" s="1"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="267">
+      <c r="F48" s="275">
         <f>K46+J46+I46+H46+G46+F46+E46+D46+L46</f>
         <v>13752</v>
       </c>
-      <c r="G48" s="268"/>
-      <c r="H48" s="269"/>
+      <c r="G48" s="276"/>
+      <c r="H48" s="277"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -9013,12 +9836,12 @@
       <c r="O48" s="7"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="270">
+      <c r="S48" s="278">
         <f>Q46+R46+S46+T46+U46+V46+W46+X46</f>
         <v>22689</v>
       </c>
-      <c r="T48" s="271"/>
-      <c r="U48" s="272"/>
+      <c r="T48" s="279"/>
+      <c r="U48" s="280"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -9197,33 +10020,33 @@
     <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="260" t="s">
+      <c r="C60" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="261"/>
-      <c r="E60" s="261"/>
-      <c r="F60" s="261"/>
-      <c r="G60" s="261"/>
-      <c r="H60" s="261"/>
-      <c r="I60" s="261"/>
-      <c r="J60" s="261"/>
-      <c r="K60" s="261"/>
+      <c r="D60" s="269"/>
+      <c r="E60" s="269"/>
+      <c r="F60" s="269"/>
+      <c r="G60" s="269"/>
+      <c r="H60" s="269"/>
+      <c r="I60" s="269"/>
+      <c r="J60" s="269"/>
+      <c r="K60" s="269"/>
       <c r="L60" s="128" t="s">
         <v>88</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="81"/>
-      <c r="O60" s="262" t="s">
+      <c r="O60" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="263"/>
-      <c r="Q60" s="263"/>
-      <c r="R60" s="263"/>
-      <c r="S60" s="263"/>
-      <c r="T60" s="263"/>
-      <c r="U60" s="263"/>
-      <c r="V60" s="263"/>
-      <c r="W60" s="263"/>
+      <c r="P60" s="271"/>
+      <c r="Q60" s="271"/>
+      <c r="R60" s="271"/>
+      <c r="S60" s="271"/>
+      <c r="T60" s="271"/>
+      <c r="U60" s="271"/>
+      <c r="V60" s="271"/>
+      <c r="W60" s="271"/>
       <c r="X60" s="190" t="str">
         <f>L60</f>
         <v># 04</v>
@@ -9232,21 +10055,21 @@
     <row r="61" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="I61" s="264" t="s">
+      <c r="I61" s="272" t="s">
         <v>306</v>
       </c>
-      <c r="J61" s="265"/>
-      <c r="K61" s="266"/>
+      <c r="J61" s="273"/>
+      <c r="K61" s="274"/>
       <c r="L61" s="68"/>
       <c r="M61" s="134"/>
       <c r="N61" s="74"/>
       <c r="O61" s="7"/>
-      <c r="V61" s="264" t="str">
+      <c r="V61" s="272" t="str">
         <f>I61</f>
         <v>del   18- al  24   NOVIEMBRE  2023</v>
       </c>
-      <c r="W61" s="265"/>
-      <c r="X61" s="266"/>
+      <c r="W61" s="273"/>
+      <c r="X61" s="274"/>
     </row>
     <row r="62" spans="1:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
@@ -9912,12 +10735,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="267">
+      <c r="F79" s="275">
         <f>K77+J77+I77+H77+G77+F77+E77+D77+L77</f>
         <v>10727</v>
       </c>
-      <c r="G79" s="268"/>
-      <c r="H79" s="269"/>
+      <c r="G79" s="276"/>
+      <c r="H79" s="277"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -9927,12 +10750,12 @@
       <c r="O79" s="7"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="270">
+      <c r="S79" s="278">
         <f>Q77+R77+S77+T77+U77+V77+W77+X77</f>
         <v>17666</v>
       </c>
-      <c r="T79" s="271"/>
-      <c r="U79" s="272"/>
+      <c r="T79" s="279"/>
+      <c r="U79" s="280"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -10060,33 +10883,33 @@
     <row r="88" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B89" s="7"/>
-      <c r="C89" s="260" t="s">
+      <c r="C89" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="261"/>
-      <c r="E89" s="261"/>
-      <c r="F89" s="261"/>
-      <c r="G89" s="261"/>
-      <c r="H89" s="261"/>
-      <c r="I89" s="261"/>
-      <c r="J89" s="261"/>
-      <c r="K89" s="261"/>
+      <c r="D89" s="269"/>
+      <c r="E89" s="269"/>
+      <c r="F89" s="269"/>
+      <c r="G89" s="269"/>
+      <c r="H89" s="269"/>
+      <c r="I89" s="269"/>
+      <c r="J89" s="269"/>
+      <c r="K89" s="269"/>
       <c r="L89" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M89" s="133"/>
       <c r="N89" s="81"/>
-      <c r="O89" s="262" t="s">
+      <c r="O89" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P89" s="263"/>
-      <c r="Q89" s="263"/>
-      <c r="R89" s="263"/>
-      <c r="S89" s="263"/>
-      <c r="T89" s="263"/>
-      <c r="U89" s="263"/>
-      <c r="V89" s="263"/>
-      <c r="W89" s="263"/>
+      <c r="P89" s="271"/>
+      <c r="Q89" s="271"/>
+      <c r="R89" s="271"/>
+      <c r="S89" s="271"/>
+      <c r="T89" s="271"/>
+      <c r="U89" s="271"/>
+      <c r="V89" s="271"/>
+      <c r="W89" s="271"/>
       <c r="X89" s="190" t="str">
         <f>L89</f>
         <v># 03</v>
@@ -10095,21 +10918,21 @@
     <row r="90" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7"/>
       <c r="C90" s="1"/>
-      <c r="I90" s="264" t="s">
+      <c r="I90" s="272" t="s">
         <v>290</v>
       </c>
-      <c r="J90" s="265"/>
-      <c r="K90" s="266"/>
+      <c r="J90" s="273"/>
+      <c r="K90" s="274"/>
       <c r="L90" s="68"/>
       <c r="M90" s="134"/>
       <c r="N90" s="74"/>
       <c r="O90" s="7"/>
-      <c r="V90" s="264" t="str">
+      <c r="V90" s="272" t="str">
         <f>I90</f>
         <v>del   11- al  17   NOVIEMBRE  2023</v>
       </c>
-      <c r="W90" s="265"/>
-      <c r="X90" s="266"/>
+      <c r="W90" s="273"/>
+      <c r="X90" s="274"/>
     </row>
     <row r="91" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
@@ -10783,12 +11606,12 @@
       <c r="C108" s="1"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="267">
+      <c r="F108" s="275">
         <f>K106+J106+I106+H106+G106+F106+E106+D106+L106</f>
         <v>12113</v>
       </c>
-      <c r="G108" s="268"/>
-      <c r="H108" s="269"/>
+      <c r="G108" s="276"/>
+      <c r="H108" s="277"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -10798,12 +11621,12 @@
       <c r="O108" s="7"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
-      <c r="S108" s="270">
+      <c r="S108" s="278">
         <f>Q106+R106+S106+T106+U106+V106+W106+X106</f>
         <v>23360.5</v>
       </c>
-      <c r="T108" s="271"/>
-      <c r="U108" s="272"/>
+      <c r="T108" s="279"/>
+      <c r="U108" s="280"/>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
@@ -10835,33 +11658,33 @@
     <row r="119" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="7"/>
-      <c r="C120" s="260" t="s">
+      <c r="C120" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="261"/>
-      <c r="E120" s="261"/>
-      <c r="F120" s="261"/>
-      <c r="G120" s="261"/>
-      <c r="H120" s="261"/>
-      <c r="I120" s="261"/>
-      <c r="J120" s="261"/>
-      <c r="K120" s="261"/>
+      <c r="D120" s="269"/>
+      <c r="E120" s="269"/>
+      <c r="F120" s="269"/>
+      <c r="G120" s="269"/>
+      <c r="H120" s="269"/>
+      <c r="I120" s="269"/>
+      <c r="J120" s="269"/>
+      <c r="K120" s="269"/>
       <c r="L120" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M120" s="133"/>
       <c r="N120" s="81"/>
-      <c r="O120" s="262" t="s">
+      <c r="O120" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P120" s="263"/>
-      <c r="Q120" s="263"/>
-      <c r="R120" s="263"/>
-      <c r="S120" s="263"/>
-      <c r="T120" s="263"/>
-      <c r="U120" s="263"/>
-      <c r="V120" s="263"/>
-      <c r="W120" s="263"/>
+      <c r="P120" s="271"/>
+      <c r="Q120" s="271"/>
+      <c r="R120" s="271"/>
+      <c r="S120" s="271"/>
+      <c r="T120" s="271"/>
+      <c r="U120" s="271"/>
+      <c r="V120" s="271"/>
+      <c r="W120" s="271"/>
       <c r="X120" s="190" t="str">
         <f>L120</f>
         <v># 02</v>
@@ -10870,21 +11693,21 @@
     <row r="121" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
       <c r="C121" s="1"/>
-      <c r="I121" s="264" t="s">
+      <c r="I121" s="272" t="s">
         <v>275</v>
       </c>
-      <c r="J121" s="265"/>
-      <c r="K121" s="266"/>
+      <c r="J121" s="273"/>
+      <c r="K121" s="274"/>
       <c r="L121" s="68"/>
       <c r="M121" s="134"/>
       <c r="N121" s="74"/>
       <c r="O121" s="7"/>
-      <c r="V121" s="264" t="str">
+      <c r="V121" s="272" t="str">
         <f>I121</f>
         <v>del   04- al  10   NOVIEMBRE  2023</v>
       </c>
-      <c r="W121" s="265"/>
-      <c r="X121" s="266"/>
+      <c r="W121" s="273"/>
+      <c r="X121" s="274"/>
     </row>
     <row r="122" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
@@ -11550,12 +12373,12 @@
       <c r="C139" s="1"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="267">
+      <c r="F139" s="275">
         <f>K137+J137+I137+H137+G137+F137+E137+D137+L137</f>
         <v>12757</v>
       </c>
-      <c r="G139" s="268"/>
-      <c r="H139" s="269"/>
+      <c r="G139" s="276"/>
+      <c r="H139" s="277"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -11565,12 +12388,12 @@
       <c r="O139" s="7"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
-      <c r="S139" s="270">
+      <c r="S139" s="278">
         <f>Q137+R137+S137+T137+U137+V137+W137+X137</f>
         <v>21698</v>
       </c>
-      <c r="T139" s="271"/>
-      <c r="U139" s="272"/>
+      <c r="T139" s="279"/>
+      <c r="U139" s="280"/>
       <c r="V139" s="5"/>
       <c r="W139" s="5"/>
       <c r="X139" s="5"/>
@@ -11602,33 +12425,33 @@
     <row r="148" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="149" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B149" s="7"/>
-      <c r="C149" s="260" t="s">
+      <c r="C149" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D149" s="261"/>
-      <c r="E149" s="261"/>
-      <c r="F149" s="261"/>
-      <c r="G149" s="261"/>
-      <c r="H149" s="261"/>
-      <c r="I149" s="261"/>
-      <c r="J149" s="261"/>
-      <c r="K149" s="261"/>
+      <c r="D149" s="269"/>
+      <c r="E149" s="269"/>
+      <c r="F149" s="269"/>
+      <c r="G149" s="269"/>
+      <c r="H149" s="269"/>
+      <c r="I149" s="269"/>
+      <c r="J149" s="269"/>
+      <c r="K149" s="269"/>
       <c r="L149" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M149" s="133"/>
       <c r="N149" s="81"/>
-      <c r="O149" s="262" t="s">
+      <c r="O149" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P149" s="263"/>
-      <c r="Q149" s="263"/>
-      <c r="R149" s="263"/>
-      <c r="S149" s="263"/>
-      <c r="T149" s="263"/>
-      <c r="U149" s="263"/>
-      <c r="V149" s="263"/>
-      <c r="W149" s="263"/>
+      <c r="P149" s="271"/>
+      <c r="Q149" s="271"/>
+      <c r="R149" s="271"/>
+      <c r="S149" s="271"/>
+      <c r="T149" s="271"/>
+      <c r="U149" s="271"/>
+      <c r="V149" s="271"/>
+      <c r="W149" s="271"/>
       <c r="X149" s="190" t="str">
         <f>L149</f>
         <v># 01</v>
@@ -11637,21 +12460,21 @@
     <row r="150" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
       <c r="C150" s="1"/>
-      <c r="I150" s="264" t="s">
+      <c r="I150" s="272" t="s">
         <v>248</v>
       </c>
-      <c r="J150" s="265"/>
-      <c r="K150" s="266"/>
+      <c r="J150" s="273"/>
+      <c r="K150" s="274"/>
       <c r="L150" s="68"/>
       <c r="M150" s="134"/>
       <c r="N150" s="74"/>
       <c r="O150" s="7"/>
-      <c r="V150" s="264" t="str">
+      <c r="V150" s="272" t="str">
         <f>I150</f>
         <v>del   01- al  3   NOVIEMBRE  2023</v>
       </c>
-      <c r="W150" s="265"/>
-      <c r="X150" s="266"/>
+      <c r="W150" s="273"/>
+      <c r="X150" s="274"/>
     </row>
     <row r="151" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
@@ -12268,12 +13091,12 @@
       <c r="C168" s="1"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="267">
+      <c r="F168" s="275">
         <f>K166+J166+I166+H166+G166+F166+E166+D166+L166</f>
         <v>3455</v>
       </c>
-      <c r="G168" s="268"/>
-      <c r="H168" s="269"/>
+      <c r="G168" s="276"/>
+      <c r="H168" s="277"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
@@ -12283,12 +13106,12 @@
       <c r="O168" s="7"/>
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
-      <c r="S168" s="270">
+      <c r="S168" s="278">
         <f>Q166+R166+S166+T166+U166+V166+W166+X166</f>
         <v>8067.5</v>
       </c>
-      <c r="T168" s="271"/>
-      <c r="U168" s="272"/>
+      <c r="T168" s="279"/>
+      <c r="U168" s="280"/>
       <c r="V168" s="5"/>
       <c r="W168" s="5"/>
       <c r="X168" s="5"/>
@@ -12390,33 +13213,33 @@
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="260" t="s">
+      <c r="C2" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
       <c r="L2" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="262" t="s">
+      <c r="O2" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="263"/>
-      <c r="S2" s="263"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="271"/>
+      <c r="S2" s="271"/>
+      <c r="T2" s="271"/>
+      <c r="U2" s="271"/>
+      <c r="V2" s="271"/>
+      <c r="W2" s="271"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 05</v>
@@ -12425,21 +13248,21 @@
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="264" t="s">
+      <c r="I3" s="272" t="s">
         <v>242</v>
       </c>
-      <c r="J3" s="265"/>
-      <c r="K3" s="266"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="274"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="264" t="str">
+      <c r="V3" s="272" t="str">
         <f>I3</f>
         <v>del       28--- al  31    OCTUBRE-2023</v>
       </c>
-      <c r="W3" s="265"/>
-      <c r="X3" s="266"/>
+      <c r="W3" s="273"/>
+      <c r="X3" s="274"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -13098,12 +13921,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="267">
+      <c r="F21" s="275">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>7829.5</v>
       </c>
-      <c r="G21" s="268"/>
-      <c r="H21" s="269"/>
+      <c r="G21" s="276"/>
+      <c r="H21" s="277"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -13113,12 +13936,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="270">
+      <c r="S21" s="278">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>9034</v>
       </c>
-      <c r="T21" s="271"/>
-      <c r="U21" s="272"/>
+      <c r="T21" s="279"/>
+      <c r="U21" s="280"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -13150,33 +13973,33 @@
     <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
-      <c r="C30" s="260" t="s">
+      <c r="C30" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="261"/>
-      <c r="E30" s="261"/>
-      <c r="F30" s="261"/>
-      <c r="G30" s="261"/>
-      <c r="H30" s="261"/>
-      <c r="I30" s="261"/>
-      <c r="J30" s="261"/>
-      <c r="K30" s="261"/>
+      <c r="D30" s="269"/>
+      <c r="E30" s="269"/>
+      <c r="F30" s="269"/>
+      <c r="G30" s="269"/>
+      <c r="H30" s="269"/>
+      <c r="I30" s="269"/>
+      <c r="J30" s="269"/>
+      <c r="K30" s="269"/>
       <c r="L30" s="128" t="s">
         <v>88</v>
       </c>
       <c r="M30" s="133"/>
       <c r="N30" s="81"/>
-      <c r="O30" s="262" t="s">
+      <c r="O30" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="263"/>
-      <c r="Q30" s="263"/>
-      <c r="R30" s="263"/>
-      <c r="S30" s="263"/>
-      <c r="T30" s="263"/>
-      <c r="U30" s="263"/>
-      <c r="V30" s="263"/>
-      <c r="W30" s="263"/>
+      <c r="P30" s="271"/>
+      <c r="Q30" s="271"/>
+      <c r="R30" s="271"/>
+      <c r="S30" s="271"/>
+      <c r="T30" s="271"/>
+      <c r="U30" s="271"/>
+      <c r="V30" s="271"/>
+      <c r="W30" s="271"/>
       <c r="X30" s="190" t="str">
         <f>L30</f>
         <v># 04</v>
@@ -13185,21 +14008,21 @@
     <row r="31" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
       <c r="C31" s="1"/>
-      <c r="I31" s="264" t="s">
+      <c r="I31" s="272" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="265"/>
-      <c r="K31" s="266"/>
+      <c r="J31" s="273"/>
+      <c r="K31" s="274"/>
       <c r="L31" s="68"/>
       <c r="M31" s="134"/>
       <c r="N31" s="74"/>
       <c r="O31" s="7"/>
-      <c r="V31" s="264" t="str">
+      <c r="V31" s="272" t="str">
         <f>I31</f>
         <v>del       21--- al  27    OCTUBRE-2023</v>
       </c>
-      <c r="W31" s="265"/>
-      <c r="X31" s="266"/>
+      <c r="W31" s="273"/>
+      <c r="X31" s="274"/>
     </row>
     <row r="32" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
@@ -13861,12 +14684,12 @@
       <c r="C49" s="1"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="267">
+      <c r="F49" s="275">
         <f>K47+J47+I47+H47+G47+F47+E47+D47+L47</f>
         <v>9341</v>
       </c>
-      <c r="G49" s="268"/>
-      <c r="H49" s="269"/>
+      <c r="G49" s="276"/>
+      <c r="H49" s="277"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -13876,12 +14699,12 @@
       <c r="O49" s="7"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="270">
+      <c r="S49" s="278">
         <f>Q47+R47+S47+T47+U47+V47+W47+X47</f>
         <v>20161</v>
       </c>
-      <c r="T49" s="271"/>
-      <c r="U49" s="272"/>
+      <c r="T49" s="279"/>
+      <c r="U49" s="280"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -13913,33 +14736,33 @@
     <row r="59" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="260" t="s">
+      <c r="C60" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="261"/>
-      <c r="E60" s="261"/>
-      <c r="F60" s="261"/>
-      <c r="G60" s="261"/>
-      <c r="H60" s="261"/>
-      <c r="I60" s="261"/>
-      <c r="J60" s="261"/>
-      <c r="K60" s="261"/>
+      <c r="D60" s="269"/>
+      <c r="E60" s="269"/>
+      <c r="F60" s="269"/>
+      <c r="G60" s="269"/>
+      <c r="H60" s="269"/>
+      <c r="I60" s="269"/>
+      <c r="J60" s="269"/>
+      <c r="K60" s="269"/>
       <c r="L60" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="81"/>
-      <c r="O60" s="262" t="s">
+      <c r="O60" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="263"/>
-      <c r="Q60" s="263"/>
-      <c r="R60" s="263"/>
-      <c r="S60" s="263"/>
-      <c r="T60" s="263"/>
-      <c r="U60" s="263"/>
-      <c r="V60" s="263"/>
-      <c r="W60" s="263"/>
+      <c r="P60" s="271"/>
+      <c r="Q60" s="271"/>
+      <c r="R60" s="271"/>
+      <c r="S60" s="271"/>
+      <c r="T60" s="271"/>
+      <c r="U60" s="271"/>
+      <c r="V60" s="271"/>
+      <c r="W60" s="271"/>
       <c r="X60" s="190" t="s">
         <v>66</v>
       </c>
@@ -13947,21 +14770,21 @@
     <row r="61" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="I61" s="264" t="s">
+      <c r="I61" s="272" t="s">
         <v>209</v>
       </c>
-      <c r="J61" s="265"/>
-      <c r="K61" s="266"/>
+      <c r="J61" s="273"/>
+      <c r="K61" s="274"/>
       <c r="L61" s="68"/>
       <c r="M61" s="134"/>
       <c r="N61" s="74"/>
       <c r="O61" s="7"/>
-      <c r="V61" s="264" t="str">
+      <c r="V61" s="272" t="str">
         <f>I61</f>
         <v>del       14--- al  20    OCTUBRE-2023</v>
       </c>
-      <c r="W61" s="265"/>
-      <c r="X61" s="266"/>
+      <c r="W61" s="273"/>
+      <c r="X61" s="274"/>
     </row>
     <row r="62" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
@@ -14613,12 +15436,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="267">
+      <c r="F79" s="275">
         <f>K77+J77+I77+H77+G77+F77+E77+D77+L77</f>
         <v>12198</v>
       </c>
-      <c r="G79" s="268"/>
-      <c r="H79" s="269"/>
+      <c r="G79" s="276"/>
+      <c r="H79" s="277"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -14628,12 +15451,12 @@
       <c r="O79" s="7"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="270">
+      <c r="S79" s="278">
         <f>Q77+R77+S77+T77+U77+V77+W77+X77</f>
         <v>20122.5</v>
       </c>
-      <c r="T79" s="271"/>
-      <c r="U79" s="272"/>
+      <c r="T79" s="279"/>
+      <c r="U79" s="280"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -14784,33 +15607,33 @@
     <row r="90" spans="2:24" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B91" s="7"/>
-      <c r="C91" s="260" t="s">
+      <c r="C91" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D91" s="261"/>
-      <c r="E91" s="261"/>
-      <c r="F91" s="261"/>
-      <c r="G91" s="261"/>
-      <c r="H91" s="261"/>
-      <c r="I91" s="261"/>
-      <c r="J91" s="261"/>
-      <c r="K91" s="261"/>
+      <c r="D91" s="269"/>
+      <c r="E91" s="269"/>
+      <c r="F91" s="269"/>
+      <c r="G91" s="269"/>
+      <c r="H91" s="269"/>
+      <c r="I91" s="269"/>
+      <c r="J91" s="269"/>
+      <c r="K91" s="269"/>
       <c r="L91" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M91" s="133"/>
       <c r="N91" s="81"/>
-      <c r="O91" s="262" t="s">
+      <c r="O91" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P91" s="263"/>
-      <c r="Q91" s="263"/>
-      <c r="R91" s="263"/>
-      <c r="S91" s="263"/>
-      <c r="T91" s="263"/>
-      <c r="U91" s="263"/>
-      <c r="V91" s="263"/>
-      <c r="W91" s="263"/>
+      <c r="P91" s="271"/>
+      <c r="Q91" s="271"/>
+      <c r="R91" s="271"/>
+      <c r="S91" s="271"/>
+      <c r="T91" s="271"/>
+      <c r="U91" s="271"/>
+      <c r="V91" s="271"/>
+      <c r="W91" s="271"/>
       <c r="X91" s="190" t="s">
         <v>42</v>
       </c>
@@ -14818,21 +15641,21 @@
     <row r="92" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
       <c r="C92" s="1"/>
-      <c r="I92" s="264" t="s">
+      <c r="I92" s="272" t="s">
         <v>194</v>
       </c>
-      <c r="J92" s="265"/>
-      <c r="K92" s="266"/>
+      <c r="J92" s="273"/>
+      <c r="K92" s="274"/>
       <c r="L92" s="68"/>
       <c r="M92" s="134"/>
       <c r="N92" s="74"/>
       <c r="O92" s="7"/>
-      <c r="V92" s="264" t="str">
+      <c r="V92" s="272" t="str">
         <f>I92</f>
         <v>del       07--- al  13    OCTUBRE-2023</v>
       </c>
-      <c r="W92" s="265"/>
-      <c r="X92" s="266"/>
+      <c r="W92" s="273"/>
+      <c r="X92" s="274"/>
     </row>
     <row r="93" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
@@ -15485,12 +16308,12 @@
       <c r="C110" s="1"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="267">
+      <c r="F110" s="275">
         <f>K108+J108+I108+H108+G108+F108+E108+D108+L108</f>
         <v>12359</v>
       </c>
-      <c r="G110" s="268"/>
-      <c r="H110" s="269"/>
+      <c r="G110" s="276"/>
+      <c r="H110" s="277"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
@@ -15500,12 +16323,12 @@
       <c r="O110" s="7"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-      <c r="S110" s="270">
+      <c r="S110" s="278">
         <f>Q108+R108+S108+T108+U108+V108+W108+X108</f>
         <v>18256.5</v>
       </c>
-      <c r="T110" s="271"/>
-      <c r="U110" s="272"/>
+      <c r="T110" s="279"/>
+      <c r="U110" s="280"/>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
@@ -15536,33 +16359,33 @@
     <row r="115" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B116" s="7"/>
-      <c r="C116" s="260" t="s">
+      <c r="C116" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="261"/>
-      <c r="E116" s="261"/>
-      <c r="F116" s="261"/>
-      <c r="G116" s="261"/>
-      <c r="H116" s="261"/>
-      <c r="I116" s="261"/>
-      <c r="J116" s="261"/>
-      <c r="K116" s="261"/>
+      <c r="D116" s="269"/>
+      <c r="E116" s="269"/>
+      <c r="F116" s="269"/>
+      <c r="G116" s="269"/>
+      <c r="H116" s="269"/>
+      <c r="I116" s="269"/>
+      <c r="J116" s="269"/>
+      <c r="K116" s="269"/>
       <c r="L116" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M116" s="133"/>
       <c r="N116" s="81"/>
-      <c r="O116" s="262" t="s">
+      <c r="O116" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P116" s="263"/>
-      <c r="Q116" s="263"/>
-      <c r="R116" s="263"/>
-      <c r="S116" s="263"/>
-      <c r="T116" s="263"/>
-      <c r="U116" s="263"/>
-      <c r="V116" s="263"/>
-      <c r="W116" s="263"/>
+      <c r="P116" s="271"/>
+      <c r="Q116" s="271"/>
+      <c r="R116" s="271"/>
+      <c r="S116" s="271"/>
+      <c r="T116" s="271"/>
+      <c r="U116" s="271"/>
+      <c r="V116" s="271"/>
+      <c r="W116" s="271"/>
       <c r="X116" s="190" t="s">
         <v>41</v>
       </c>
@@ -15570,21 +16393,21 @@
     <row r="117" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
       <c r="C117" s="1"/>
-      <c r="I117" s="264" t="s">
+      <c r="I117" s="272" t="s">
         <v>167</v>
       </c>
-      <c r="J117" s="265"/>
-      <c r="K117" s="266"/>
+      <c r="J117" s="273"/>
+      <c r="K117" s="274"/>
       <c r="L117" s="68"/>
       <c r="M117" s="134"/>
       <c r="N117" s="74"/>
       <c r="O117" s="7"/>
-      <c r="V117" s="264" t="str">
+      <c r="V117" s="272" t="str">
         <f>I117</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W117" s="265"/>
-      <c r="X117" s="266"/>
+      <c r="W117" s="273"/>
+      <c r="X117" s="274"/>
     </row>
     <row r="118" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
@@ -16216,12 +17039,12 @@
       <c r="C135" s="1"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="267">
+      <c r="F135" s="275">
         <f>K133+J133+I133+H133+G133+F133+E133+D133+L133</f>
         <v>7969</v>
       </c>
-      <c r="G135" s="268"/>
-      <c r="H135" s="269"/>
+      <c r="G135" s="276"/>
+      <c r="H135" s="277"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
@@ -16231,12 +17054,12 @@
       <c r="O135" s="7"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
-      <c r="S135" s="270">
+      <c r="S135" s="278">
         <f>Q133+R133+S133+T133+U133+V133+W133+X133</f>
         <v>13753</v>
       </c>
-      <c r="T135" s="271"/>
-      <c r="U135" s="272"/>
+      <c r="T135" s="279"/>
+      <c r="U135" s="280"/>
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
@@ -16318,33 +17141,33 @@
     </row>
     <row r="142" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="7"/>
-      <c r="C142" s="260" t="s">
+      <c r="C142" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D142" s="261"/>
-      <c r="E142" s="261"/>
-      <c r="F142" s="261"/>
-      <c r="G142" s="261"/>
-      <c r="H142" s="261"/>
-      <c r="I142" s="261"/>
-      <c r="J142" s="261"/>
-      <c r="K142" s="261"/>
+      <c r="D142" s="269"/>
+      <c r="E142" s="269"/>
+      <c r="F142" s="269"/>
+      <c r="G142" s="269"/>
+      <c r="H142" s="269"/>
+      <c r="I142" s="269"/>
+      <c r="J142" s="269"/>
+      <c r="K142" s="269"/>
       <c r="L142" s="128" t="s">
         <v>41</v>
       </c>
       <c r="M142" s="133"/>
       <c r="N142" s="81"/>
-      <c r="O142" s="262" t="s">
+      <c r="O142" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P142" s="263"/>
-      <c r="Q142" s="263"/>
-      <c r="R142" s="263"/>
-      <c r="S142" s="263"/>
-      <c r="T142" s="263"/>
-      <c r="U142" s="263"/>
-      <c r="V142" s="263"/>
-      <c r="W142" s="263"/>
+      <c r="P142" s="271"/>
+      <c r="Q142" s="271"/>
+      <c r="R142" s="271"/>
+      <c r="S142" s="271"/>
+      <c r="T142" s="271"/>
+      <c r="U142" s="271"/>
+      <c r="V142" s="271"/>
+      <c r="W142" s="271"/>
       <c r="X142" s="190" t="s">
         <v>41</v>
       </c>
@@ -16352,21 +17175,21 @@
     <row r="143" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
       <c r="C143" s="1"/>
-      <c r="I143" s="264" t="s">
+      <c r="I143" s="272" t="s">
         <v>167</v>
       </c>
-      <c r="J143" s="265"/>
-      <c r="K143" s="266"/>
+      <c r="J143" s="273"/>
+      <c r="K143" s="274"/>
       <c r="L143" s="68"/>
       <c r="M143" s="134"/>
       <c r="N143" s="74"/>
       <c r="O143" s="7"/>
-      <c r="V143" s="264" t="str">
+      <c r="V143" s="272" t="str">
         <f>I143</f>
         <v>del       30--- al  06    OCTUBRE-2023</v>
       </c>
-      <c r="W143" s="265"/>
-      <c r="X143" s="266"/>
+      <c r="W143" s="273"/>
+      <c r="X143" s="274"/>
     </row>
     <row r="144" spans="1:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
@@ -17019,12 +17842,12 @@
       <c r="C161" s="1"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="267">
+      <c r="F161" s="275">
         <f>K159+J159+I159+H159+G159+F159+E159+D159+L159</f>
         <v>12113</v>
       </c>
-      <c r="G161" s="268"/>
-      <c r="H161" s="269"/>
+      <c r="G161" s="276"/>
+      <c r="H161" s="277"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
@@ -17034,12 +17857,12 @@
       <c r="O161" s="7"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-      <c r="S161" s="270">
+      <c r="S161" s="278">
         <f>Q159+R159+S159+T159+U159+V159+W159+X159</f>
         <v>19443</v>
       </c>
-      <c r="T161" s="271"/>
-      <c r="U161" s="272"/>
+      <c r="T161" s="279"/>
+      <c r="U161" s="280"/>
       <c r="V161" s="5"/>
       <c r="W161" s="5"/>
       <c r="X161" s="5"/>
@@ -17167,51 +17990,51 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="260" t="s">
+      <c r="C2" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
       <c r="L2" s="185" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="262" t="s">
+      <c r="O2" s="270" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="263"/>
-      <c r="Q2" s="263"/>
-      <c r="R2" s="263"/>
-      <c r="S2" s="263"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="271"/>
+      <c r="S2" s="271"/>
+      <c r="T2" s="271"/>
+      <c r="U2" s="271"/>
+      <c r="V2" s="271"/>
+      <c r="W2" s="271"/>
       <c r="X2" s="187" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I3" s="264" t="s">
+      <c r="I3" s="272" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="265"/>
-      <c r="K3" s="266"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="274"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
-      <c r="V3" s="264" t="s">
+      <c r="V3" s="272" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="265"/>
-      <c r="X3" s="266"/>
+      <c r="W3" s="273"/>
+      <c r="X3" s="274"/>
     </row>
     <row r="4" spans="2:25" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -17878,12 +18701,12 @@
     <row r="21" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="267">
+      <c r="F21" s="275">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>15022</v>
       </c>
-      <c r="G21" s="268"/>
-      <c r="H21" s="269"/>
+      <c r="G21" s="276"/>
+      <c r="H21" s="277"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -17892,12 +18715,12 @@
       <c r="N21" s="74"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="270">
+      <c r="S21" s="278">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>23024</v>
       </c>
-      <c r="T21" s="271"/>
-      <c r="U21" s="272"/>
+      <c r="T21" s="279"/>
+      <c r="U21" s="280"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -17950,51 +18773,51 @@
     </row>
     <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="260" t="s">
+      <c r="C32" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="261"/>
-      <c r="E32" s="261"/>
-      <c r="F32" s="261"/>
-      <c r="G32" s="261"/>
-      <c r="H32" s="261"/>
-      <c r="I32" s="261"/>
-      <c r="J32" s="261"/>
-      <c r="K32" s="261"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="269"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="269"/>
+      <c r="H32" s="269"/>
+      <c r="I32" s="269"/>
+      <c r="J32" s="269"/>
+      <c r="K32" s="269"/>
       <c r="L32" s="185" t="s">
         <v>208</v>
       </c>
       <c r="M32" s="133"/>
       <c r="N32" s="81"/>
-      <c r="O32" s="273" t="s">
+      <c r="O32" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="274"/>
-      <c r="Q32" s="274"/>
-      <c r="R32" s="274"/>
-      <c r="S32" s="274"/>
-      <c r="T32" s="274"/>
-      <c r="U32" s="274"/>
-      <c r="V32" s="274"/>
-      <c r="W32" s="274"/>
+      <c r="P32" s="282"/>
+      <c r="Q32" s="282"/>
+      <c r="R32" s="282"/>
+      <c r="S32" s="282"/>
+      <c r="T32" s="282"/>
+      <c r="U32" s="282"/>
+      <c r="V32" s="282"/>
+      <c r="W32" s="282"/>
       <c r="X32" s="128" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="33" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="264" t="s">
+      <c r="I33" s="272" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="265"/>
-      <c r="K33" s="266"/>
+      <c r="J33" s="273"/>
+      <c r="K33" s="274"/>
       <c r="L33" s="68"/>
       <c r="M33" s="134"/>
       <c r="N33" s="74"/>
-      <c r="V33" s="264" t="s">
+      <c r="V33" s="272" t="s">
         <v>150</v>
       </c>
-      <c r="W33" s="265"/>
-      <c r="X33" s="266"/>
+      <c r="W33" s="273"/>
+      <c r="X33" s="274"/>
     </row>
     <row r="34" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
@@ -18650,12 +19473,12 @@
     <row r="51" spans="3:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="267">
+      <c r="F51" s="275">
         <f>K49+J49+I49+H49+G49+F49+E49+D49+L49</f>
         <v>14572.5</v>
       </c>
-      <c r="G51" s="268"/>
-      <c r="H51" s="269"/>
+      <c r="G51" s="276"/>
+      <c r="H51" s="277"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -18664,12 +19487,12 @@
       <c r="N51" s="74"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="270">
+      <c r="S51" s="278">
         <f>Q49+R49+S49+T49+U49+V49+W49+X49</f>
         <v>21274</v>
       </c>
-      <c r="T51" s="271"/>
-      <c r="U51" s="272"/>
+      <c r="T51" s="279"/>
+      <c r="U51" s="280"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -18734,51 +19557,51 @@
     </row>
     <row r="65" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C66" s="260" t="s">
+      <c r="C66" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="261"/>
-      <c r="E66" s="261"/>
-      <c r="F66" s="261"/>
-      <c r="G66" s="261"/>
-      <c r="H66" s="261"/>
-      <c r="I66" s="261"/>
-      <c r="J66" s="261"/>
-      <c r="K66" s="261"/>
+      <c r="D66" s="269"/>
+      <c r="E66" s="269"/>
+      <c r="F66" s="269"/>
+      <c r="G66" s="269"/>
+      <c r="H66" s="269"/>
+      <c r="I66" s="269"/>
+      <c r="J66" s="269"/>
+      <c r="K66" s="269"/>
       <c r="L66" s="84" t="s">
         <v>88</v>
       </c>
       <c r="M66" s="83"/>
       <c r="N66" s="81"/>
-      <c r="O66" s="273" t="s">
+      <c r="O66" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="P66" s="274"/>
-      <c r="Q66" s="274"/>
-      <c r="R66" s="274"/>
-      <c r="S66" s="274"/>
-      <c r="T66" s="274"/>
-      <c r="U66" s="274"/>
-      <c r="V66" s="274"/>
-      <c r="W66" s="274"/>
+      <c r="P66" s="282"/>
+      <c r="Q66" s="282"/>
+      <c r="R66" s="282"/>
+      <c r="S66" s="282"/>
+      <c r="T66" s="282"/>
+      <c r="U66" s="282"/>
+      <c r="V66" s="282"/>
+      <c r="W66" s="282"/>
       <c r="X66" s="85" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="67" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I67" s="264" t="s">
+      <c r="I67" s="272" t="s">
         <v>107</v>
       </c>
-      <c r="J67" s="265"/>
-      <c r="K67" s="266"/>
+      <c r="J67" s="273"/>
+      <c r="K67" s="274"/>
       <c r="L67" s="68"/>
       <c r="M67" s="59"/>
       <c r="N67" s="74"/>
-      <c r="V67" s="264" t="s">
+      <c r="V67" s="272" t="s">
         <v>107</v>
       </c>
-      <c r="W67" s="265"/>
-      <c r="X67" s="266"/>
+      <c r="W67" s="273"/>
+      <c r="X67" s="274"/>
     </row>
     <row r="68" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -19454,12 +20277,12 @@
     <row r="85" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="267">
+      <c r="F85" s="275">
         <f>K83+J83+I83+H83+G83+F83+E83+D83+L83</f>
         <v>9784</v>
       </c>
-      <c r="G85" s="268"/>
-      <c r="H85" s="269"/>
+      <c r="G85" s="276"/>
+      <c r="H85" s="277"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -19468,12 +20291,12 @@
       <c r="N85" s="74"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-      <c r="S85" s="270">
+      <c r="S85" s="278">
         <f>Q83+R83+S83+T83+U83+V83+W83+X83</f>
         <v>18984.5</v>
       </c>
-      <c r="T85" s="271"/>
-      <c r="U85" s="272"/>
+      <c r="T85" s="279"/>
+      <c r="U85" s="280"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
@@ -19526,51 +20349,51 @@
     </row>
     <row r="96" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C97" s="260" t="s">
+      <c r="C97" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="261"/>
-      <c r="E97" s="261"/>
-      <c r="F97" s="261"/>
-      <c r="G97" s="261"/>
-      <c r="H97" s="261"/>
-      <c r="I97" s="261"/>
-      <c r="J97" s="261"/>
-      <c r="K97" s="261"/>
+      <c r="D97" s="269"/>
+      <c r="E97" s="269"/>
+      <c r="F97" s="269"/>
+      <c r="G97" s="269"/>
+      <c r="H97" s="269"/>
+      <c r="I97" s="269"/>
+      <c r="J97" s="269"/>
+      <c r="K97" s="269"/>
       <c r="L97" s="84" t="s">
         <v>66</v>
       </c>
       <c r="M97" s="83"/>
       <c r="N97" s="81"/>
-      <c r="O97" s="273" t="s">
+      <c r="O97" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="P97" s="274"/>
-      <c r="Q97" s="274"/>
-      <c r="R97" s="274"/>
-      <c r="S97" s="274"/>
-      <c r="T97" s="274"/>
-      <c r="U97" s="274"/>
-      <c r="V97" s="274"/>
-      <c r="W97" s="274"/>
+      <c r="P97" s="282"/>
+      <c r="Q97" s="282"/>
+      <c r="R97" s="282"/>
+      <c r="S97" s="282"/>
+      <c r="T97" s="282"/>
+      <c r="U97" s="282"/>
+      <c r="V97" s="282"/>
+      <c r="W97" s="282"/>
       <c r="X97" s="85" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="98" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I98" s="264" t="s">
+      <c r="I98" s="272" t="s">
         <v>68</v>
       </c>
-      <c r="J98" s="265"/>
-      <c r="K98" s="266"/>
+      <c r="J98" s="273"/>
+      <c r="K98" s="274"/>
       <c r="L98" s="68"/>
       <c r="M98" s="59"/>
       <c r="N98" s="74"/>
-      <c r="V98" s="264" t="s">
+      <c r="V98" s="272" t="s">
         <v>68</v>
       </c>
-      <c r="W98" s="265"/>
-      <c r="X98" s="266"/>
+      <c r="W98" s="273"/>
+      <c r="X98" s="274"/>
     </row>
     <row r="99" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
@@ -20242,12 +21065,12 @@
     <row r="116" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="267">
+      <c r="F116" s="275">
         <f>K114+J114+I114+H114+G114+F114+E114+D114+L114</f>
         <v>13702.5</v>
       </c>
-      <c r="G116" s="268"/>
-      <c r="H116" s="269"/>
+      <c r="G116" s="276"/>
+      <c r="H116" s="277"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
@@ -20256,12 +21079,12 @@
       <c r="N116" s="74"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
-      <c r="S116" s="270">
+      <c r="S116" s="278">
         <f>Q114+R114+S114+T114+U114+V114+W114+X114</f>
         <v>19583</v>
       </c>
-      <c r="T116" s="271"/>
-      <c r="U116" s="272"/>
+      <c r="T116" s="279"/>
+      <c r="U116" s="280"/>
       <c r="V116" s="5">
         <v>19583</v>
       </c>
@@ -20316,48 +21139,48 @@
     </row>
     <row r="129" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="2:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C130" s="260" t="s">
+      <c r="C130" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D130" s="261"/>
-      <c r="E130" s="261"/>
-      <c r="F130" s="261"/>
-      <c r="G130" s="261"/>
-      <c r="H130" s="261"/>
-      <c r="I130" s="261"/>
-      <c r="J130" s="261"/>
-      <c r="K130" s="261"/>
+      <c r="D130" s="269"/>
+      <c r="E130" s="269"/>
+      <c r="F130" s="269"/>
+      <c r="G130" s="269"/>
+      <c r="H130" s="269"/>
+      <c r="I130" s="269"/>
+      <c r="J130" s="269"/>
+      <c r="K130" s="269"/>
       <c r="L130" s="84" t="s">
         <v>42</v>
       </c>
       <c r="M130" s="83"/>
       <c r="N130" s="81"/>
-      <c r="O130" s="273" t="s">
+      <c r="O130" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="P130" s="274"/>
-      <c r="Q130" s="274"/>
-      <c r="R130" s="274"/>
-      <c r="S130" s="274"/>
-      <c r="T130" s="274"/>
-      <c r="U130" s="274"/>
-      <c r="V130" s="274"/>
-      <c r="W130" s="274"/>
+      <c r="P130" s="282"/>
+      <c r="Q130" s="282"/>
+      <c r="R130" s="282"/>
+      <c r="S130" s="282"/>
+      <c r="T130" s="282"/>
+      <c r="U130" s="282"/>
+      <c r="V130" s="282"/>
+      <c r="W130" s="282"/>
       <c r="X130" s="85" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="131" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I131" s="264" t="s">
+      <c r="I131" s="272" t="s">
         <v>67</v>
       </c>
-      <c r="J131" s="265"/>
-      <c r="K131" s="266"/>
+      <c r="J131" s="273"/>
+      <c r="K131" s="274"/>
       <c r="L131" s="68"/>
       <c r="M131" s="59"/>
       <c r="N131" s="74"/>
-      <c r="W131" s="265"/>
-      <c r="X131" s="266"/>
+      <c r="W131" s="273"/>
+      <c r="X131" s="274"/>
     </row>
     <row r="132" spans="2:24" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
@@ -21024,12 +21847,12 @@
     <row r="149" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="267">
+      <c r="F149" s="275">
         <f>K147+J147+I147+H147+G147+F147+E147+D147+L147</f>
         <v>13447.5</v>
       </c>
-      <c r="G149" s="268"/>
-      <c r="H149" s="269"/>
+      <c r="G149" s="276"/>
+      <c r="H149" s="277"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
         <v>13447.5</v>
@@ -21040,12 +21863,12 @@
       <c r="N149" s="74"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
-      <c r="S149" s="270">
+      <c r="S149" s="278">
         <f>Q147+R147+S147+T147+U147+V147+W147+X147</f>
         <v>19080.5</v>
       </c>
-      <c r="T149" s="271"/>
-      <c r="U149" s="272"/>
+      <c r="T149" s="279"/>
+      <c r="U149" s="280"/>
       <c r="V149" s="5">
         <v>19080.5</v>
       </c>
@@ -21124,48 +21947,48 @@
     </row>
     <row r="155" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="156" spans="2:26" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C156" s="260" t="s">
+      <c r="C156" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="D156" s="261"/>
-      <c r="E156" s="261"/>
-      <c r="F156" s="261"/>
-      <c r="G156" s="261"/>
-      <c r="H156" s="261"/>
-      <c r="I156" s="261"/>
-      <c r="J156" s="261"/>
-      <c r="K156" s="261"/>
+      <c r="D156" s="269"/>
+      <c r="E156" s="269"/>
+      <c r="F156" s="269"/>
+      <c r="G156" s="269"/>
+      <c r="H156" s="269"/>
+      <c r="I156" s="269"/>
+      <c r="J156" s="269"/>
+      <c r="K156" s="269"/>
       <c r="L156" s="84" t="s">
         <v>41</v>
       </c>
       <c r="M156" s="83"/>
       <c r="N156" s="81"/>
-      <c r="O156" s="273" t="s">
+      <c r="O156" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="P156" s="274"/>
-      <c r="Q156" s="274"/>
-      <c r="R156" s="274"/>
-      <c r="S156" s="274"/>
-      <c r="T156" s="274"/>
-      <c r="U156" s="274"/>
-      <c r="V156" s="274"/>
-      <c r="W156" s="274"/>
+      <c r="P156" s="282"/>
+      <c r="Q156" s="282"/>
+      <c r="R156" s="282"/>
+      <c r="S156" s="282"/>
+      <c r="T156" s="282"/>
+      <c r="U156" s="282"/>
+      <c r="V156" s="282"/>
+      <c r="W156" s="282"/>
       <c r="X156" s="85" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="157" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I157" s="264" t="s">
+      <c r="I157" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="J157" s="265"/>
-      <c r="K157" s="266"/>
+      <c r="J157" s="273"/>
+      <c r="K157" s="274"/>
       <c r="L157" s="68"/>
       <c r="M157" s="59"/>
       <c r="N157" s="74"/>
-      <c r="W157" s="265"/>
-      <c r="X157" s="266"/>
+      <c r="W157" s="273"/>
+      <c r="X157" s="274"/>
     </row>
     <row r="158" spans="2:26" s="2" customFormat="1" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
@@ -22382,12 +23205,12 @@
     <row r="184" spans="2:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="275">
+      <c r="F184" s="283">
         <f>K182+J182+I182+H182+G182+F182+E182+D182</f>
         <v>13579</v>
       </c>
-      <c r="G184" s="268"/>
-      <c r="H184" s="269"/>
+      <c r="G184" s="276"/>
+      <c r="H184" s="277"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5">
         <v>13579</v>
@@ -22398,12 +23221,12 @@
       <c r="N184" s="74"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
-      <c r="S184" s="270">
+      <c r="S184" s="278">
         <f>Q182+R182+S182+T182+U182+V182+W182+X182</f>
         <v>20452</v>
       </c>
-      <c r="T184" s="271"/>
-      <c r="U184" s="272"/>
+      <c r="T184" s="279"/>
+      <c r="U184" s="280"/>
       <c r="V184" s="5">
         <v>20452</v>
       </c>
@@ -22557,51 +23380,51 @@
     <row r="1" spans="2:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="260" t="s">
+      <c r="D2" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="260" t="s">
+      <c r="T2" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="261"/>
-      <c r="V2" s="261"/>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="261"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="269"/>
+      <c r="AA2" s="269"/>
+      <c r="AB2" s="269"/>
       <c r="AC2" s="84"/>
       <c r="AD2" s="151"/>
     </row>
     <row r="3" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="264" t="s">
+      <c r="J3" s="272" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="265"/>
-      <c r="L3" s="276"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="284"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="Z3" s="264" t="s">
+      <c r="Z3" s="272" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="265"/>
-      <c r="AB3" s="266"/>
+      <c r="AA3" s="273"/>
+      <c r="AB3" s="274"/>
       <c r="AC3" s="68"/>
       <c r="AD3" s="152"/>
     </row>
@@ -23126,51 +23949,51 @@
     <row r="15" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="7"/>
-      <c r="D16" s="273" t="s">
+      <c r="D16" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="274"/>
-      <c r="F16" s="274"/>
-      <c r="G16" s="274"/>
-      <c r="H16" s="274"/>
-      <c r="I16" s="274"/>
-      <c r="J16" s="274"/>
-      <c r="K16" s="274"/>
-      <c r="L16" s="274"/>
+      <c r="E16" s="282"/>
+      <c r="F16" s="282"/>
+      <c r="G16" s="282"/>
+      <c r="H16" s="282"/>
+      <c r="I16" s="282"/>
+      <c r="J16" s="282"/>
+      <c r="K16" s="282"/>
+      <c r="L16" s="282"/>
       <c r="M16" s="171"/>
       <c r="N16" s="151"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="273" t="s">
+      <c r="T16" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="274"/>
-      <c r="V16" s="274"/>
-      <c r="W16" s="274"/>
-      <c r="X16" s="274"/>
-      <c r="Y16" s="274"/>
-      <c r="Z16" s="274"/>
-      <c r="AA16" s="274"/>
-      <c r="AB16" s="274"/>
+      <c r="U16" s="282"/>
+      <c r="V16" s="282"/>
+      <c r="W16" s="282"/>
+      <c r="X16" s="282"/>
+      <c r="Y16" s="282"/>
+      <c r="Z16" s="282"/>
+      <c r="AA16" s="282"/>
+      <c r="AB16" s="282"/>
       <c r="AC16" s="171"/>
       <c r="AD16" s="151"/>
     </row>
     <row r="17" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
-      <c r="J17" s="264" t="s">
+      <c r="J17" s="272" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="265"/>
-      <c r="L17" s="276"/>
+      <c r="K17" s="273"/>
+      <c r="L17" s="284"/>
       <c r="M17" s="68"/>
       <c r="N17" s="152"/>
       <c r="S17" s="7"/>
       <c r="T17" s="1"/>
-      <c r="Z17" s="264" t="s">
+      <c r="Z17" s="272" t="s">
         <v>184</v>
       </c>
-      <c r="AA17" s="265"/>
-      <c r="AB17" s="266"/>
+      <c r="AA17" s="273"/>
+      <c r="AB17" s="274"/>
       <c r="AC17" s="68"/>
       <c r="AD17" s="152"/>
     </row>
@@ -23708,89 +24531,89 @@
     <row r="1" spans="2:65" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:65" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="7"/>
-      <c r="D2" s="260" t="s">
+      <c r="D2" s="268" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
       <c r="M2" s="84"/>
       <c r="N2" s="151"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="260" t="s">
+      <c r="V2" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="261"/>
-      <c r="X2" s="261"/>
-      <c r="Y2" s="261"/>
-      <c r="Z2" s="261"/>
-      <c r="AA2" s="261"/>
-      <c r="AB2" s="261"/>
-      <c r="AC2" s="261"/>
-      <c r="AD2" s="261"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="269"/>
+      <c r="AA2" s="269"/>
+      <c r="AB2" s="269"/>
+      <c r="AC2" s="269"/>
+      <c r="AD2" s="269"/>
       <c r="AE2" s="84"/>
       <c r="AF2" s="151"/>
       <c r="AL2" s="7"/>
-      <c r="AM2" s="260" t="s">
+      <c r="AM2" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="261"/>
-      <c r="AO2" s="261"/>
-      <c r="AP2" s="261"/>
-      <c r="AQ2" s="261"/>
-      <c r="AR2" s="261"/>
-      <c r="AS2" s="261"/>
-      <c r="AT2" s="261"/>
-      <c r="AU2" s="261"/>
+      <c r="AN2" s="269"/>
+      <c r="AO2" s="269"/>
+      <c r="AP2" s="269"/>
+      <c r="AQ2" s="269"/>
+      <c r="AR2" s="269"/>
+      <c r="AS2" s="269"/>
+      <c r="AT2" s="269"/>
+      <c r="AU2" s="269"/>
       <c r="AV2" s="84"/>
       <c r="AW2" s="151"/>
       <c r="BA2" s="7"/>
-      <c r="BB2" s="260" t="s">
+      <c r="BB2" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="BC2" s="261"/>
-      <c r="BD2" s="261"/>
-      <c r="BE2" s="261"/>
-      <c r="BF2" s="261"/>
-      <c r="BG2" s="261"/>
-      <c r="BH2" s="261"/>
-      <c r="BI2" s="261"/>
-      <c r="BJ2" s="261"/>
+      <c r="BC2" s="269"/>
+      <c r="BD2" s="269"/>
+      <c r="BE2" s="269"/>
+      <c r="BF2" s="269"/>
+      <c r="BG2" s="269"/>
+      <c r="BH2" s="269"/>
+      <c r="BI2" s="269"/>
+      <c r="BJ2" s="269"/>
       <c r="BK2" s="84"/>
       <c r="BL2" s="151"/>
     </row>
     <row r="3" spans="2:65" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="265"/>
-      <c r="L3" s="276"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="284"/>
       <c r="M3" s="68"/>
       <c r="N3" s="152"/>
       <c r="U3" s="7"/>
       <c r="V3" s="1"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="265"/>
-      <c r="AD3" s="276"/>
+      <c r="AB3" s="272"/>
+      <c r="AC3" s="273"/>
+      <c r="AD3" s="284"/>
       <c r="AE3" s="68"/>
       <c r="AF3" s="152"/>
       <c r="AL3" s="7"/>
       <c r="AM3" s="1"/>
-      <c r="AS3" s="264"/>
-      <c r="AT3" s="265"/>
-      <c r="AU3" s="276"/>
+      <c r="AS3" s="272"/>
+      <c r="AT3" s="273"/>
+      <c r="AU3" s="284"/>
       <c r="AV3" s="68"/>
       <c r="AW3" s="152"/>
       <c r="BA3" s="7"/>
       <c r="BB3" s="1"/>
-      <c r="BH3" s="264"/>
-      <c r="BI3" s="265"/>
-      <c r="BJ3" s="266"/>
+      <c r="BH3" s="272"/>
+      <c r="BI3" s="273"/>
+      <c r="BJ3" s="274"/>
       <c r="BK3" s="68"/>
       <c r="BL3" s="152"/>
     </row>
@@ -24364,12 +25187,12 @@
       <c r="BB7" s="153"/>
       <c r="BC7" s="225"/>
       <c r="BD7" s="227"/>
-      <c r="BE7" s="283" t="s">
+      <c r="BE7" s="291" t="s">
         <v>192</v>
       </c>
-      <c r="BF7" s="283"/>
-      <c r="BG7" s="283"/>
-      <c r="BH7" s="284"/>
+      <c r="BF7" s="291"/>
+      <c r="BG7" s="291"/>
+      <c r="BH7" s="292"/>
       <c r="BI7" s="226"/>
       <c r="BJ7" s="225"/>
       <c r="BK7" s="228"/>
@@ -24629,12 +25452,12 @@
       <c r="B10" s="154"/>
       <c r="E10" s="30"/>
       <c r="F10" s="31"/>
-      <c r="G10" s="277" t="s">
+      <c r="G10" s="285" t="s">
         <v>345</v>
       </c>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="279"/>
+      <c r="H10" s="286"/>
+      <c r="I10" s="286"/>
+      <c r="J10" s="287"/>
       <c r="K10" s="22"/>
       <c r="L10" s="157"/>
       <c r="M10" s="77"/>
@@ -24644,12 +25467,12 @@
       <c r="T10" s="154"/>
       <c r="W10" s="30"/>
       <c r="X10" s="31"/>
-      <c r="Y10" s="277" t="s">
+      <c r="Y10" s="285" t="s">
         <v>267</v>
       </c>
-      <c r="Z10" s="278"/>
-      <c r="AA10" s="278"/>
-      <c r="AB10" s="279"/>
+      <c r="Z10" s="286"/>
+      <c r="AA10" s="286"/>
+      <c r="AB10" s="287"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="157"/>
       <c r="AE10" s="77"/>
@@ -24659,12 +25482,12 @@
       <c r="AK10" s="154"/>
       <c r="AN10" s="30"/>
       <c r="AO10" s="31"/>
-      <c r="AP10" s="285" t="s">
+      <c r="AP10" s="293" t="s">
         <v>193</v>
       </c>
-      <c r="AQ10" s="286"/>
-      <c r="AR10" s="286"/>
-      <c r="AS10" s="287"/>
+      <c r="AQ10" s="294"/>
+      <c r="AR10" s="294"/>
+      <c r="AS10" s="295"/>
       <c r="AT10" s="22"/>
       <c r="AU10" s="157"/>
       <c r="AV10" s="77"/>
@@ -24697,7 +25520,7 @@
       <c r="M11" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="294">
+      <c r="N11" s="261">
         <f>SUM(N5:N10)</f>
         <v>52804</v>
       </c>
@@ -24751,11 +25574,11 @@
     <row r="12" spans="2:65" s="80" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="235"/>
       <c r="D12" s="129"/>
-      <c r="E12" s="301" t="s">
+      <c r="E12" s="296" t="s">
         <v>342</v>
       </c>
-      <c r="F12" s="302"/>
-      <c r="G12" s="303"/>
+      <c r="F12" s="297"/>
+      <c r="G12" s="298"/>
       <c r="H12" s="78"/>
       <c r="I12" s="78"/>
       <c r="J12" s="78"/>
@@ -25228,59 +26051,59 @@
     </row>
     <row r="22" spans="2:65" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C22" s="7"/>
-      <c r="D22" s="273" t="s">
+      <c r="D22" s="281" t="s">
         <v>343</v>
       </c>
-      <c r="E22" s="274"/>
-      <c r="F22" s="274"/>
-      <c r="G22" s="274"/>
-      <c r="H22" s="274"/>
-      <c r="I22" s="274"/>
-      <c r="J22" s="274"/>
-      <c r="K22" s="274"/>
-      <c r="L22" s="282"/>
-      <c r="M22" s="295"/>
+      <c r="E22" s="282"/>
+      <c r="F22" s="282"/>
+      <c r="G22" s="282"/>
+      <c r="H22" s="282"/>
+      <c r="I22" s="282"/>
+      <c r="J22" s="282"/>
+      <c r="K22" s="282"/>
+      <c r="L22" s="290"/>
+      <c r="M22" s="262"/>
       <c r="N22" s="151"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="273" t="s">
+      <c r="V22" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="W22" s="274"/>
-      <c r="X22" s="274"/>
-      <c r="Y22" s="274"/>
-      <c r="Z22" s="274"/>
-      <c r="AA22" s="274"/>
-      <c r="AB22" s="274"/>
-      <c r="AC22" s="274"/>
-      <c r="AD22" s="282"/>
+      <c r="W22" s="282"/>
+      <c r="X22" s="282"/>
+      <c r="Y22" s="282"/>
+      <c r="Z22" s="282"/>
+      <c r="AA22" s="282"/>
+      <c r="AB22" s="282"/>
+      <c r="AC22" s="282"/>
+      <c r="AD22" s="290"/>
       <c r="AE22" s="171"/>
       <c r="AF22" s="151"/>
       <c r="AL22" s="7"/>
-      <c r="AM22" s="273" t="s">
+      <c r="AM22" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="AN22" s="274"/>
-      <c r="AO22" s="274"/>
-      <c r="AP22" s="274"/>
-      <c r="AQ22" s="274"/>
-      <c r="AR22" s="274"/>
-      <c r="AS22" s="274"/>
-      <c r="AT22" s="274"/>
-      <c r="AU22" s="282"/>
+      <c r="AN22" s="282"/>
+      <c r="AO22" s="282"/>
+      <c r="AP22" s="282"/>
+      <c r="AQ22" s="282"/>
+      <c r="AR22" s="282"/>
+      <c r="AS22" s="282"/>
+      <c r="AT22" s="282"/>
+      <c r="AU22" s="290"/>
       <c r="AV22" s="171"/>
       <c r="AW22" s="151"/>
       <c r="BA22" s="7"/>
-      <c r="BB22" s="273" t="s">
+      <c r="BB22" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="BC22" s="274"/>
-      <c r="BD22" s="274"/>
-      <c r="BE22" s="274"/>
-      <c r="BF22" s="274"/>
-      <c r="BG22" s="274"/>
-      <c r="BH22" s="274"/>
-      <c r="BI22" s="274"/>
-      <c r="BJ22" s="274"/>
+      <c r="BC22" s="282"/>
+      <c r="BD22" s="282"/>
+      <c r="BE22" s="282"/>
+      <c r="BF22" s="282"/>
+      <c r="BG22" s="282"/>
+      <c r="BH22" s="282"/>
+      <c r="BI22" s="282"/>
+      <c r="BJ22" s="282"/>
       <c r="BK22" s="171"/>
       <c r="BL22" s="151"/>
     </row>
@@ -25308,9 +26131,9 @@
       <c r="AW23" s="152"/>
       <c r="BA23" s="7"/>
       <c r="BB23" s="1"/>
-      <c r="BH23" s="264"/>
-      <c r="BI23" s="265"/>
-      <c r="BJ23" s="266"/>
+      <c r="BH23" s="272"/>
+      <c r="BI23" s="273"/>
+      <c r="BJ23" s="274"/>
       <c r="BK23" s="68"/>
       <c r="BL23" s="152"/>
     </row>
@@ -25448,7 +26271,7 @@
       <c r="B25" s="198" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="296" t="s">
+      <c r="C25" s="263" t="s">
         <v>337</v>
       </c>
       <c r="D25" s="153"/>
@@ -25600,7 +26423,7 @@
       <c r="B26" s="198" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="296" t="s">
+      <c r="C26" s="263" t="s">
         <v>338</v>
       </c>
       <c r="D26" s="153"/>
@@ -25635,7 +26458,7 @@
         <f t="shared" ref="N26:N29" si="4">SUM(E26:M26)</f>
         <v>21698</v>
       </c>
-      <c r="O26" s="298"/>
+      <c r="O26" s="265"/>
       <c r="T26" s="198" t="s">
         <v>142</v>
       </c>
@@ -25755,7 +26578,7 @@
       <c r="B27" s="198" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="296" t="s">
+      <c r="C27" s="263" t="s">
         <v>339</v>
       </c>
       <c r="D27" s="153"/>
@@ -25790,7 +26613,7 @@
         <f t="shared" si="4"/>
         <v>23360.5</v>
       </c>
-      <c r="O27" s="297" t="s">
+      <c r="O27" s="264" t="s">
         <v>344</v>
       </c>
       <c r="T27" s="198" t="s">
@@ -25883,7 +26706,7 @@
       <c r="B28" s="198" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="296" t="s">
+      <c r="C28" s="263" t="s">
         <v>340</v>
       </c>
       <c r="D28" s="153"/>
@@ -25918,7 +26741,7 @@
         <f t="shared" si="4"/>
         <v>17666</v>
       </c>
-      <c r="O28" s="299"/>
+      <c r="O28" s="266"/>
       <c r="T28" s="198" t="s">
         <v>144</v>
       </c>
@@ -26004,12 +26827,12 @@
       <c r="AZ28" s="154"/>
       <c r="BC28" s="30"/>
       <c r="BD28" s="31"/>
-      <c r="BE28" s="280" t="s">
+      <c r="BE28" s="288" t="s">
         <v>192</v>
       </c>
-      <c r="BF28" s="280"/>
-      <c r="BG28" s="280"/>
-      <c r="BH28" s="281"/>
+      <c r="BF28" s="288"/>
+      <c r="BG28" s="288"/>
+      <c r="BH28" s="289"/>
       <c r="BI28" s="22"/>
       <c r="BJ28" s="157"/>
       <c r="BK28" s="77"/>
@@ -26021,7 +26844,7 @@
       <c r="B29" s="198" t="s">
         <v>271</v>
       </c>
-      <c r="C29" s="296" t="s">
+      <c r="C29" s="263" t="s">
         <v>341</v>
       </c>
       <c r="D29" s="153"/>
@@ -26130,12 +26953,12 @@
       <c r="B30" s="154"/>
       <c r="E30" s="30"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="277" t="s">
+      <c r="G30" s="285" t="s">
         <v>345</v>
       </c>
-      <c r="H30" s="278"/>
-      <c r="I30" s="278"/>
-      <c r="J30" s="279"/>
+      <c r="H30" s="286"/>
+      <c r="I30" s="286"/>
+      <c r="J30" s="287"/>
       <c r="K30" s="22"/>
       <c r="L30" s="157"/>
       <c r="M30" s="77"/>
@@ -26145,12 +26968,12 @@
       <c r="T30" s="154"/>
       <c r="W30" s="30"/>
       <c r="X30" s="31"/>
-      <c r="Y30" s="277" t="s">
+      <c r="Y30" s="285" t="s">
         <v>267</v>
       </c>
-      <c r="Z30" s="278"/>
-      <c r="AA30" s="278"/>
-      <c r="AB30" s="279"/>
+      <c r="Z30" s="286"/>
+      <c r="AA30" s="286"/>
+      <c r="AB30" s="287"/>
       <c r="AC30" s="22"/>
       <c r="AD30" s="157"/>
       <c r="AE30" s="77"/>
@@ -26160,12 +26983,12 @@
       <c r="AK30" s="154"/>
       <c r="AN30" s="30"/>
       <c r="AO30" s="31"/>
-      <c r="AP30" s="277" t="s">
+      <c r="AP30" s="285" t="s">
         <v>193</v>
       </c>
-      <c r="AQ30" s="278"/>
-      <c r="AR30" s="278"/>
-      <c r="AS30" s="279"/>
+      <c r="AQ30" s="286"/>
+      <c r="AR30" s="286"/>
+      <c r="AS30" s="287"/>
       <c r="AT30" s="22"/>
       <c r="AU30" s="157"/>
       <c r="AV30" s="77"/>
@@ -26198,7 +27021,7 @@
       <c r="M31" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="N31" s="300">
+      <c r="N31" s="267">
         <f>SUM(N25:N30)</f>
         <v>93481</v>
       </c>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/REPORTE DE GASTOS COMEDOR.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="378">
   <si>
     <t>FECHA</t>
   </si>
@@ -1152,6 +1152,51 @@
   </si>
   <si>
     <t>tomillo-oregano-cilantro-Epazote--hojas de aguacate</t>
+  </si>
+  <si>
+    <t>del   09 - al  15  DICIEMBRE    2023</t>
+  </si>
+  <si>
+    <t>Del 09  al    15-Dic-23.,</t>
+  </si>
+  <si>
+    <t>Jamon-queso-salchicha-fajitas res-tocino--molida mixta-pechuga pollo-crema-totopos-costilla-pollo</t>
+  </si>
+  <si>
+    <t>Papa-cebolla-Jalapeño-tomate-calabaza-tampico-zanahoria-jitomate-lechuga-aguacate-limon</t>
+  </si>
+  <si>
+    <t>Poro-oregano-Hierbabuena-epazote</t>
+  </si>
+  <si>
+    <t>Melon-papaya-Limon-sandia-guayaba-maracuya-piñas</t>
+  </si>
+  <si>
+    <t>Café legal-Knorzuisa-Italpasta-crema-cubeta-galletas crema--pinzas</t>
+  </si>
+  <si>
+    <t>Jamaica-Chile-pulla-ancho--guahillo-frijol</t>
+  </si>
+  <si>
+    <t>Jamon--Tocino-fajitas res-molida mixta-totopos-quesos-salchicha-crema-pechuga de pollo-costilla-pollo</t>
+  </si>
+  <si>
+    <t>Sandia-melon-papaya-guayaba-naranja</t>
+  </si>
+  <si>
+    <t>cilantro-hojas de aguacate-poro-espinaca-oregano-epazote-hiervabuena-thelimon-manzanitlla-</t>
+  </si>
+  <si>
+    <t>Papa-cebolla-jalapeño-tampico-serrano-tomate-calabaza-cebolla morada-champiñon-ajo-jitomate-jalapeño-Nopal</t>
+  </si>
+  <si>
+    <t>Yogurt-chipotle-rajas-elote-café legal-italpasta--galletas crema- abrelatas</t>
+  </si>
+  <si>
+    <t>Chile pulla-guajillo-costeño-ancho-arroz-frijol</t>
+  </si>
+  <si>
+    <t>AZUCAR--8-DIC-23</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -2193,12 +2238,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2859,6 +2913,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="17" fillId="9" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2919,14 +2976,23 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2941,15 +3007,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2967,8 +3024,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3318,53 +3381,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="268" t="s">
+      <c r="C1" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
       <c r="L1" s="127" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="133"/>
       <c r="N1" s="81"/>
-      <c r="O1" s="281" t="s">
+      <c r="O1" s="282" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="282"/>
-      <c r="Q1" s="282"/>
-      <c r="R1" s="282"/>
-      <c r="S1" s="282"/>
-      <c r="T1" s="282"/>
-      <c r="U1" s="282"/>
-      <c r="V1" s="282"/>
-      <c r="W1" s="282"/>
+      <c r="P1" s="283"/>
+      <c r="Q1" s="283"/>
+      <c r="R1" s="283"/>
+      <c r="S1" s="283"/>
+      <c r="T1" s="283"/>
+      <c r="U1" s="283"/>
+      <c r="V1" s="283"/>
+      <c r="W1" s="283"/>
       <c r="X1" s="128" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="272" t="s">
+      <c r="I2" s="273" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="273"/>
-      <c r="K2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="275"/>
       <c r="L2" s="68"/>
       <c r="M2" s="134"/>
       <c r="N2" s="74"/>
       <c r="O2" s="7"/>
       <c r="P2"/>
-      <c r="V2" s="272" t="s">
+      <c r="V2" s="273" t="s">
         <v>107</v>
       </c>
-      <c r="W2" s="273"/>
-      <c r="X2" s="274"/>
+      <c r="W2" s="274"/>
+      <c r="X2" s="275"/>
     </row>
     <row r="3" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -4023,12 +4086,12 @@
     <row r="20" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="275">
+      <c r="F20" s="276">
         <f>K18+J18+I18+H18+G18+F18+E18+D18+L18</f>
         <v>14572.5</v>
       </c>
-      <c r="G20" s="276"/>
-      <c r="H20" s="277"/>
+      <c r="G20" s="277"/>
+      <c r="H20" s="278"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -4039,12 +4102,12 @@
       <c r="P20"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="278">
+      <c r="S20" s="279">
         <f>Q18+R18+S18+T18+U18+V18+W18+X18</f>
         <v>21274</v>
       </c>
-      <c r="T20" s="279"/>
-      <c r="U20" s="280"/>
+      <c r="T20" s="280"/>
+      <c r="U20" s="281"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -4164,34 +4227,34 @@
     <row r="1" spans="2:26" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" s="126" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="122"/>
-      <c r="C2" s="299" t="s">
+      <c r="C2" s="300" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
       <c r="L2" s="123"/>
       <c r="M2" s="124"/>
       <c r="N2" s="125"/>
       <c r="O2" s="125"/>
-      <c r="P2" s="301" t="s">
+      <c r="P2" s="302" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="302"/>
-      <c r="R2" s="302"/>
-      <c r="S2" s="302"/>
-      <c r="T2" s="302"/>
-      <c r="U2" s="302"/>
-      <c r="V2" s="302"/>
-      <c r="W2" s="302"/>
-      <c r="X2" s="302"/>
-      <c r="Y2" s="302"/>
-      <c r="Z2" s="303"/>
+      <c r="Q2" s="303"/>
+      <c r="R2" s="303"/>
+      <c r="S2" s="303"/>
+      <c r="T2" s="303"/>
+      <c r="U2" s="303"/>
+      <c r="V2" s="303"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="303"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="304"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M3" s="37"/>
@@ -5142,12 +5205,12 @@
     <row r="19" spans="3:26" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="275">
+      <c r="F19" s="276">
         <f>K17+J17+I17+H17+G17+F17+E17+D17+L17</f>
         <v>50513</v>
       </c>
-      <c r="G19" s="276"/>
-      <c r="H19" s="277"/>
+      <c r="G19" s="277"/>
+      <c r="H19" s="278"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -5157,12 +5220,12 @@
       <c r="O19" s="74"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="278">
+      <c r="T19" s="279">
         <f>R17+S17+T17+U17+W17+X17+Y17+Z17</f>
         <v>78100</v>
       </c>
-      <c r="U19" s="279"/>
-      <c r="V19" s="280"/>
+      <c r="U19" s="280"/>
+      <c r="V19" s="281"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -5297,32 +5360,32 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:23" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
       <c r="K2" s="101"/>
       <c r="L2" s="39"/>
-      <c r="M2" s="281" t="s">
+      <c r="M2" s="282" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="282"/>
-      <c r="O2" s="282"/>
-      <c r="P2" s="282"/>
-      <c r="Q2" s="282"/>
-      <c r="R2" s="282"/>
-      <c r="S2" s="282"/>
-      <c r="T2" s="282"/>
-      <c r="U2" s="282"/>
-      <c r="V2" s="282"/>
-      <c r="W2" s="290"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="283"/>
+      <c r="Q2" s="283"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
+      <c r="T2" s="283"/>
+      <c r="U2" s="283"/>
+      <c r="V2" s="283"/>
+      <c r="W2" s="289"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L3" s="37"/>
@@ -6581,12 +6644,12 @@
     <row r="30" spans="1:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="275">
+      <c r="E30" s="276">
         <f>J28+I28+H28+G28+F28+E28+D28+C28+K28</f>
         <v>27026.5</v>
       </c>
-      <c r="F30" s="276"/>
-      <c r="G30" s="277"/>
+      <c r="F30" s="277"/>
+      <c r="G30" s="278"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -6594,12 +6657,12 @@
       <c r="L30" s="3"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="278">
+      <c r="Q30" s="279">
         <f>O28+P28+Q28+R28+T28+U28+V28+W28</f>
         <v>39532.5</v>
       </c>
-      <c r="R30" s="279"/>
-      <c r="S30" s="280"/>
+      <c r="R30" s="280"/>
+      <c r="S30" s="281"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -6710,11 +6773,13 @@
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6734,56 +6799,56 @@
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="268" t="s">
+      <c r="C2" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
       <c r="L2" s="128" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="270" t="s">
+      <c r="O2" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="271"/>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="271"/>
-      <c r="S2" s="271"/>
-      <c r="T2" s="271"/>
-      <c r="U2" s="271"/>
-      <c r="V2" s="271"/>
-      <c r="W2" s="271"/>
+      <c r="P2" s="272"/>
+      <c r="Q2" s="272"/>
+      <c r="R2" s="272"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="272"/>
+      <c r="U2" s="272"/>
+      <c r="V2" s="272"/>
+      <c r="W2" s="272"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
-        <v># 02</v>
+        <v># 03</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="272" t="s">
-        <v>349</v>
-      </c>
-      <c r="J3" s="273"/>
-      <c r="K3" s="274"/>
+      <c r="I3" s="273" t="s">
+        <v>363</v>
+      </c>
+      <c r="J3" s="274"/>
+      <c r="K3" s="275"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="272" t="str">
+      <c r="V3" s="273" t="str">
         <f>I3</f>
-        <v>del   02 - al  08  DICIEMBRE    2023</v>
-      </c>
-      <c r="W3" s="273"/>
-      <c r="X3" s="274"/>
+        <v>del   09 - al  15  DICIEMBRE    2023</v>
+      </c>
+      <c r="W3" s="274"/>
+      <c r="X3" s="275"/>
     </row>
     <row r="4" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -6854,10 +6919,10 @@
     </row>
     <row r="5" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C5" s="234" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -6867,17 +6932,17 @@
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
       <c r="K5" s="72">
-        <f>929+1239+182+2457+1061</f>
-        <v>5868</v>
+        <f>2230+968+978+1050+1099</f>
+        <v>6325</v>
       </c>
       <c r="L5" s="71"/>
       <c r="M5" s="131"/>
       <c r="N5" s="74"/>
       <c r="O5" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P5" s="234" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="72"/>
       <c r="R5" s="72"/>
@@ -6887,8 +6952,8 @@
       <c r="V5" s="72"/>
       <c r="W5" s="72"/>
       <c r="X5" s="72">
-        <f>1328+1141+1105+839</f>
-        <v>4413</v>
+        <f>228+4406+900+2154+1106+1265</f>
+        <v>10059</v>
       </c>
       <c r="AA5" t="s">
         <v>26</v>
@@ -6896,16 +6961,16 @@
     </row>
     <row r="6" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67">
-        <f>1585+415+37</f>
-        <v>2037</v>
+        <f>1145+37+225+175</f>
+        <v>1582</v>
       </c>
       <c r="G6" s="67"/>
       <c r="H6" s="67"/>
@@ -6916,16 +6981,16 @@
       <c r="M6" s="131"/>
       <c r="N6" s="74"/>
       <c r="O6" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="67"/>
       <c r="R6" s="67"/>
       <c r="S6" s="67">
-        <f>2655+1050+140+34</f>
-        <v>3879</v>
+        <f>1570+470+270+30+750+180+24</f>
+        <v>3294</v>
       </c>
       <c r="T6" s="67"/>
       <c r="U6" s="67"/>
@@ -6935,16 +7000,16 @@
     </row>
     <row r="7" spans="2:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
@@ -6954,14 +7019,14 @@
       <c r="M7" s="131"/>
       <c r="N7" s="74"/>
       <c r="O7" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="Q7" s="67">
-        <f>850+210</f>
-        <v>1060</v>
+        <f>355+145+170+295+220</f>
+        <v>1185</v>
       </c>
       <c r="R7" s="67"/>
       <c r="S7" s="67"/>
@@ -6973,14 +7038,14 @@
     </row>
     <row r="8" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="D8" s="67">
-        <f>648+67</f>
-        <v>715</v>
+        <f>125+214+103+210+75+190</f>
+        <v>917</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
@@ -6993,46 +7058,45 @@
       <c r="M8" s="131"/>
       <c r="N8" s="74"/>
       <c r="O8" s="93" t="s">
-        <v>350</v>
-      </c>
-      <c r="P8" s="95" t="s">
-        <v>362</v>
+        <v>364</v>
+      </c>
+      <c r="P8" s="96" t="s">
+        <v>373</v>
       </c>
       <c r="Q8" s="67"/>
       <c r="R8" s="67"/>
       <c r="S8" s="67"/>
       <c r="T8" s="67">
-        <f>35+50</f>
-        <v>85</v>
+        <f>140+155</f>
+        <v>295</v>
       </c>
       <c r="U8" s="67"/>
       <c r="V8" s="67"/>
       <c r="W8" s="67"/>
       <c r="X8" s="67"/>
     </row>
-    <row r="9" spans="2:27" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>354</v>
+        <v>364</v>
+      </c>
+      <c r="C9" s="239" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
       <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="H9" s="67">
+        <v>216</v>
+      </c>
       <c r="I9" s="67"/>
-      <c r="J9" s="67">
-        <f>280+127+460</f>
-        <v>867</v>
-      </c>
+      <c r="J9" s="67"/>
       <c r="K9" s="67"/>
       <c r="L9" s="67"/>
       <c r="M9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P9" s="95" t="s">
         <v>4</v>
@@ -7042,38 +7106,39 @@
       <c r="S9" s="67"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67">
-        <v>821</v>
+        <v>385</v>
       </c>
       <c r="V9" s="67"/>
       <c r="W9" s="67"/>
       <c r="X9" s="67"/>
       <c r="Y9" s="242"/>
     </row>
-    <row r="10" spans="2:27" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" s="254" t="s">
-        <v>12</v>
+        <v>364</v>
+      </c>
+      <c r="C10" s="305" t="s">
+        <v>369</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
       <c r="H10" s="67"/>
-      <c r="I10" s="67">
-        <v>407</v>
-      </c>
-      <c r="J10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67">
+        <f>1044+49.5+319+28</f>
+        <v>1440.5</v>
+      </c>
       <c r="K10" s="67"/>
       <c r="L10" s="67"/>
       <c r="M10" s="131"/>
       <c r="N10" s="74"/>
       <c r="O10" s="93" t="s">
-        <v>350</v>
-      </c>
-      <c r="P10" s="304" t="s">
-        <v>361</v>
+        <v>364</v>
+      </c>
+      <c r="P10" s="268" t="s">
+        <v>375</v>
       </c>
       <c r="Q10" s="72"/>
       <c r="R10" s="72"/>
@@ -7082,24 +7147,23 @@
       <c r="U10" s="72"/>
       <c r="V10" s="72"/>
       <c r="W10" s="72">
-        <f>502+52.5+795+399.5</f>
-        <v>1749</v>
+        <f>127+1065+50.5+55</f>
+        <v>1297.5</v>
       </c>
       <c r="X10" s="255"/>
-      <c r="Y10" s="258" t="s">
-        <v>314</v>
-      </c>
+      <c r="Y10" s="306"/>
     </row>
     <row r="11" spans="2:27" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67">
-        <v>150</v>
+        <f>170+916</f>
+        <v>1086</v>
       </c>
       <c r="F11" s="67"/>
       <c r="G11" s="67"/>
@@ -7111,14 +7175,14 @@
       <c r="M11" s="131"/>
       <c r="N11" s="74"/>
       <c r="O11" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P11" s="260" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="72"/>
       <c r="R11" s="72">
-        <v>695</v>
+        <v>2068</v>
       </c>
       <c r="S11" s="72"/>
       <c r="T11" s="72"/>
@@ -7130,7 +7194,7 @@
     </row>
     <row r="12" spans="2:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C12" s="95" t="s">
         <v>96</v>
@@ -7140,8 +7204,8 @@
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
       <c r="H12" s="67">
-        <f>102+102+68+85+102+85+85</f>
-        <v>629</v>
+        <f>68+68+102+102</f>
+        <v>340</v>
       </c>
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
@@ -7150,7 +7214,7 @@
       <c r="M12" s="131"/>
       <c r="N12" s="74"/>
       <c r="O12" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P12" s="195" t="s">
         <v>140</v>
@@ -7161,15 +7225,15 @@
       <c r="T12" s="72"/>
       <c r="U12" s="72"/>
       <c r="V12" s="72">
-        <f>800+800+800+2626</f>
-        <v>5026</v>
+        <f>800+800+800+2489</f>
+        <v>4889</v>
       </c>
       <c r="W12" s="72"/>
       <c r="X12" s="67"/>
     </row>
-    <row r="13" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C13" s="95" t="s">
         <v>239</v>
@@ -7179,8 +7243,8 @@
       <c r="F13" s="67"/>
       <c r="G13" s="67"/>
       <c r="H13" s="67">
-        <f>330+330+420</f>
-        <v>1080</v>
+        <f>330+420+420</f>
+        <v>1170</v>
       </c>
       <c r="I13" s="67"/>
       <c r="J13" s="67"/>
@@ -7189,7 +7253,7 @@
       <c r="M13" s="131"/>
       <c r="N13" s="74"/>
       <c r="O13" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="P13" s="192" t="s">
         <v>217</v>
@@ -7200,15 +7264,15 @@
       <c r="T13" s="72"/>
       <c r="U13" s="72"/>
       <c r="V13" s="72">
-        <f>272+204+187+204+289+204+170</f>
-        <v>1530</v>
+        <f>85+170+204+204+221</f>
+        <v>884</v>
       </c>
       <c r="W13" s="72"/>
       <c r="X13" s="67"/>
     </row>
-    <row r="14" spans="2:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="93" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>146</v>
@@ -7222,22 +7286,29 @@
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
       <c r="L14" s="67">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M14" s="131"/>
       <c r="N14" s="74"/>
       <c r="O14" s="93" t="s">
-        <v>350</v>
-      </c>
-      <c r="P14" s="194"/>
+        <v>364</v>
+      </c>
+      <c r="P14" s="195" t="s">
+        <v>377</v>
+      </c>
       <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
+      <c r="R14" s="307">
+        <v>1340</v>
+      </c>
       <c r="S14" s="72"/>
       <c r="T14" s="72"/>
       <c r="U14" s="72"/>
       <c r="V14" s="72"/>
       <c r="W14" s="72"/>
       <c r="X14" s="67"/>
+      <c r="Y14" s="258" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="15" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="93"/>
@@ -7348,39 +7419,39 @@
       </c>
       <c r="D19" s="30">
         <f>SUM(D5:D18)</f>
-        <v>715</v>
+        <v>917</v>
       </c>
       <c r="E19" s="30">
         <f t="shared" ref="E19:L19" si="0">SUM(E5:E18)</f>
-        <v>150</v>
+        <v>1086</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="0"/>
-        <v>2037</v>
+        <v>1582</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" si="0"/>
-        <v>1709</v>
+        <v>1726</v>
       </c>
       <c r="I19" s="30">
         <f t="shared" si="0"/>
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" si="0"/>
-        <v>867</v>
+        <v>1440.5</v>
       </c>
       <c r="K19" s="30">
         <f t="shared" si="0"/>
-        <v>5868</v>
+        <v>6325</v>
       </c>
       <c r="L19" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M19" s="132"/>
       <c r="N19" s="74"/>
@@ -7390,35 +7461,35 @@
       </c>
       <c r="Q19" s="21">
         <f t="shared" ref="Q19:X19" si="1">SUM(Q5:Q18)</f>
-        <v>1060</v>
+        <v>1185</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" si="1"/>
-        <v>695</v>
+        <v>3408</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="1"/>
-        <v>3879</v>
+        <v>3294</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="U19" s="21">
         <f t="shared" si="1"/>
-        <v>821</v>
+        <v>385</v>
       </c>
       <c r="V19" s="21">
         <f t="shared" si="1"/>
-        <v>6556</v>
+        <v>5773</v>
       </c>
       <c r="W19" s="21">
         <f t="shared" si="1"/>
-        <v>1749</v>
+        <v>1297.5</v>
       </c>
       <c r="X19" s="21">
         <f t="shared" si="1"/>
-        <v>4413</v>
+        <v>10059</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7450,12 +7521,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="275">
+      <c r="F21" s="276">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
-        <v>11793</v>
-      </c>
-      <c r="G21" s="276"/>
-      <c r="H21" s="277"/>
+        <v>13656.5</v>
+      </c>
+      <c r="G21" s="277"/>
+      <c r="H21" s="278"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -7465,12 +7536,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="278">
+      <c r="S21" s="279">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
-        <v>19258</v>
-      </c>
-      <c r="T21" s="279"/>
-      <c r="U21" s="280"/>
+        <v>25696.5</v>
+      </c>
+      <c r="T21" s="280"/>
+      <c r="U21" s="281"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -7505,56 +7576,56 @@
     <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
-      <c r="C33" s="268" t="s">
+      <c r="C33" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="269"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="269"/>
-      <c r="I33" s="269"/>
-      <c r="J33" s="269"/>
-      <c r="K33" s="269"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="270"/>
+      <c r="I33" s="270"/>
+      <c r="J33" s="270"/>
+      <c r="K33" s="270"/>
       <c r="L33" s="128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" s="133"/>
       <c r="N33" s="81"/>
-      <c r="O33" s="270" t="s">
+      <c r="O33" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="271"/>
-      <c r="Q33" s="271"/>
-      <c r="R33" s="271"/>
-      <c r="S33" s="271"/>
-      <c r="T33" s="271"/>
-      <c r="U33" s="271"/>
-      <c r="V33" s="271"/>
-      <c r="W33" s="271"/>
+      <c r="P33" s="272"/>
+      <c r="Q33" s="272"/>
+      <c r="R33" s="272"/>
+      <c r="S33" s="272"/>
+      <c r="T33" s="272"/>
+      <c r="U33" s="272"/>
+      <c r="V33" s="272"/>
+      <c r="W33" s="272"/>
       <c r="X33" s="190" t="str">
         <f>L33</f>
-        <v># 01</v>
+        <v># 02</v>
       </c>
     </row>
     <row r="34" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="C34" s="1"/>
-      <c r="I34" s="272" t="s">
-        <v>347</v>
-      </c>
-      <c r="J34" s="273"/>
-      <c r="K34" s="274"/>
+      <c r="I34" s="273" t="s">
+        <v>349</v>
+      </c>
+      <c r="J34" s="274"/>
+      <c r="K34" s="275"/>
       <c r="L34" s="68"/>
       <c r="M34" s="134"/>
       <c r="N34" s="74"/>
       <c r="O34" s="7"/>
-      <c r="V34" s="272" t="str">
+      <c r="V34" s="273" t="str">
         <f>I34</f>
-        <v>del   - al  01  DICIEMBRE    2023</v>
-      </c>
-      <c r="W34" s="273"/>
-      <c r="X34" s="274"/>
+        <v>del   02 - al  08  DICIEMBRE    2023</v>
+      </c>
+      <c r="W34" s="274"/>
+      <c r="X34" s="275"/>
     </row>
     <row r="35" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
@@ -7625,10 +7696,10 @@
     </row>
     <row r="36" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C36" s="234" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="D36" s="72"/>
       <c r="E36" s="72"/>
@@ -7637,15 +7708,18 @@
       <c r="H36" s="72"/>
       <c r="I36" s="72"/>
       <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
+      <c r="K36" s="72">
+        <f>929+1239+182+2457+1061</f>
+        <v>5868</v>
+      </c>
       <c r="L36" s="71"/>
       <c r="M36" s="131"/>
       <c r="N36" s="74"/>
       <c r="O36" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P36" s="234" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q36" s="72"/>
       <c r="R36" s="72"/>
@@ -7655,7 +7729,8 @@
       <c r="V36" s="72"/>
       <c r="W36" s="72"/>
       <c r="X36" s="72">
-        <v>280</v>
+        <f>1328+1141+1105+839</f>
+        <v>4413</v>
       </c>
       <c r="AA36" t="s">
         <v>26</v>
@@ -7663,14 +7738,17 @@
     </row>
     <row r="37" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="D37" s="67"/>
       <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
+      <c r="F37" s="67">
+        <f>1585+415+37</f>
+        <v>2037</v>
+      </c>
       <c r="G37" s="67"/>
       <c r="H37" s="67"/>
       <c r="I37" s="67"/>
@@ -7680,14 +7758,17 @@
       <c r="M37" s="131"/>
       <c r="N37" s="74"/>
       <c r="O37" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P37" s="44" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="Q37" s="67"/>
       <c r="R37" s="67"/>
-      <c r="S37" s="67"/>
+      <c r="S37" s="67">
+        <f>2655+1050+140+34</f>
+        <v>3879</v>
+      </c>
       <c r="T37" s="67"/>
       <c r="U37" s="67"/>
       <c r="V37" s="67"/>
@@ -7696,15 +7777,17 @@
     </row>
     <row r="38" spans="2:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="D38" s="67"/>
       <c r="E38" s="67"/>
       <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
+      <c r="G38" s="67">
+        <v>40</v>
+      </c>
       <c r="H38" s="67"/>
       <c r="I38" s="67"/>
       <c r="J38" s="67"/>
@@ -7713,12 +7796,15 @@
       <c r="M38" s="131"/>
       <c r="N38" s="74"/>
       <c r="O38" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P38" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q38" s="67"/>
+        <v>359</v>
+      </c>
+      <c r="Q38" s="67">
+        <f>850+210</f>
+        <v>1060</v>
+      </c>
       <c r="R38" s="67"/>
       <c r="S38" s="67"/>
       <c r="T38" s="67"/>
@@ -7729,12 +7815,15 @@
     </row>
     <row r="39" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C39" s="96" t="s">
-        <v>326</v>
-      </c>
-      <c r="D39" s="67"/>
+        <v>352</v>
+      </c>
+      <c r="D39" s="67">
+        <f>648+67</f>
+        <v>715</v>
+      </c>
       <c r="E39" s="67"/>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
@@ -7746,26 +7835,29 @@
       <c r="M39" s="131"/>
       <c r="N39" s="74"/>
       <c r="O39" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P39" s="95" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="Q39" s="67"/>
       <c r="R39" s="67"/>
       <c r="S39" s="67"/>
-      <c r="T39" s="67"/>
+      <c r="T39" s="67">
+        <f>35+50</f>
+        <v>85</v>
+      </c>
       <c r="U39" s="67"/>
       <c r="V39" s="67"/>
       <c r="W39" s="67"/>
       <c r="X39" s="67"/>
     </row>
-    <row r="40" spans="2:27" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:27" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="D40" s="67"/>
       <c r="E40" s="67"/>
@@ -7773,13 +7865,16 @@
       <c r="G40" s="67"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
+      <c r="J40" s="67">
+        <f>280+127+460</f>
+        <v>867</v>
+      </c>
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="131"/>
       <c r="N40" s="74"/>
       <c r="O40" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P40" s="95" t="s">
         <v>4</v>
@@ -7788,15 +7883,17 @@
       <c r="R40" s="67"/>
       <c r="S40" s="67"/>
       <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
+      <c r="U40" s="67">
+        <v>821</v>
+      </c>
       <c r="V40" s="67"/>
       <c r="W40" s="67"/>
       <c r="X40" s="67"/>
       <c r="Y40" s="242"/>
     </row>
-    <row r="41" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C41" s="254" t="s">
         <v>12</v>
@@ -7806,17 +7903,19 @@
       <c r="F41" s="67"/>
       <c r="G41" s="67"/>
       <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
+      <c r="I41" s="67">
+        <v>407</v>
+      </c>
       <c r="J41" s="67"/>
       <c r="K41" s="67"/>
       <c r="L41" s="67"/>
       <c r="M41" s="131"/>
       <c r="N41" s="74"/>
       <c r="O41" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="P41" s="259" t="s">
-        <v>333</v>
+        <v>350</v>
+      </c>
+      <c r="P41" s="268" t="s">
+        <v>361</v>
       </c>
       <c r="Q41" s="72"/>
       <c r="R41" s="72"/>
@@ -7824,21 +7923,26 @@
       <c r="T41" s="72"/>
       <c r="U41" s="72"/>
       <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
+      <c r="W41" s="72">
+        <f>502+52.5+795+399.5</f>
+        <v>1749</v>
+      </c>
       <c r="X41" s="255"/>
       <c r="Y41" s="258" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" ht="45" x14ac:dyDescent="0.25">
       <c r="B42" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
+      <c r="E42" s="67">
+        <v>150</v>
+      </c>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
       <c r="H42" s="67"/>
@@ -7849,13 +7953,15 @@
       <c r="M42" s="131"/>
       <c r="N42" s="74"/>
       <c r="O42" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P42" s="260" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
+      <c r="R42" s="72">
+        <v>695</v>
+      </c>
       <c r="S42" s="72"/>
       <c r="T42" s="72"/>
       <c r="U42" s="72"/>
@@ -7866,7 +7972,7 @@
     </row>
     <row r="43" spans="2:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C43" s="95" t="s">
         <v>96</v>
@@ -7875,7 +7981,10 @@
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
+      <c r="H43" s="67">
+        <f>102+102+68+85+102+85+85</f>
+        <v>629</v>
+      </c>
       <c r="I43" s="67"/>
       <c r="J43" s="67"/>
       <c r="K43" s="67"/>
@@ -7883,7 +7992,7 @@
       <c r="M43" s="131"/>
       <c r="N43" s="74"/>
       <c r="O43" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P43" s="195" t="s">
         <v>140</v>
@@ -7894,15 +8003,15 @@
       <c r="T43" s="72"/>
       <c r="U43" s="72"/>
       <c r="V43" s="72">
-        <f>800+2935</f>
-        <v>3735</v>
+        <f>800+800+800+2626</f>
+        <v>5026</v>
       </c>
       <c r="W43" s="72"/>
       <c r="X43" s="67"/>
     </row>
     <row r="44" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C44" s="95" t="s">
         <v>239</v>
@@ -7912,7 +8021,8 @@
       <c r="F44" s="67"/>
       <c r="G44" s="67"/>
       <c r="H44" s="67">
-        <v>420</v>
+        <f>330+330+420</f>
+        <v>1080</v>
       </c>
       <c r="I44" s="67"/>
       <c r="J44" s="67"/>
@@ -7921,7 +8031,7 @@
       <c r="M44" s="131"/>
       <c r="N44" s="74"/>
       <c r="O44" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P44" s="192" t="s">
         <v>217</v>
@@ -7931,13 +8041,16 @@
       <c r="S44" s="72"/>
       <c r="T44" s="72"/>
       <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
+      <c r="V44" s="72">
+        <f>272+204+187+204+289+204+170</f>
+        <v>1530</v>
+      </c>
       <c r="W44" s="72"/>
       <c r="X44" s="67"/>
     </row>
     <row r="45" spans="2:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C45" s="42" t="s">
         <v>146</v>
@@ -7951,12 +8064,12 @@
       <c r="J45" s="67"/>
       <c r="K45" s="67"/>
       <c r="L45" s="67">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M45" s="131"/>
       <c r="N45" s="74"/>
       <c r="O45" s="93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P45" s="194"/>
       <c r="Q45" s="72"/>
@@ -8077,39 +8190,39 @@
       </c>
       <c r="D50" s="30">
         <f>SUM(D36:D49)</f>
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="E50" s="30">
         <f t="shared" ref="E50:L50" si="2">SUM(E36:E49)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F50" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2037</v>
       </c>
       <c r="G50" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H50" s="30">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>1709</v>
       </c>
       <c r="I50" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="J50" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>867</v>
       </c>
       <c r="K50" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5868</v>
       </c>
       <c r="L50" s="30">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M50" s="132"/>
       <c r="N50" s="74"/>
@@ -8119,35 +8232,35 @@
       </c>
       <c r="Q50" s="21">
         <f t="shared" ref="Q50:X50" si="3">SUM(Q36:Q49)</f>
-        <v>0</v>
+        <v>1060</v>
       </c>
       <c r="R50" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="S50" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3879</v>
       </c>
       <c r="T50" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="U50" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="V50" s="21">
         <f t="shared" si="3"/>
-        <v>3735</v>
+        <v>6556</v>
       </c>
       <c r="W50" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1749</v>
       </c>
       <c r="X50" s="21">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8179,12 +8292,12 @@
       <c r="C52" s="1"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="275">
+      <c r="F52" s="276">
         <f>K50+J50+I50+H50+G50+F50+E50+D50+L50</f>
-        <v>920</v>
-      </c>
-      <c r="G52" s="276"/>
-      <c r="H52" s="277"/>
+        <v>11793</v>
+      </c>
+      <c r="G52" s="277"/>
+      <c r="H52" s="278"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -8194,12 +8307,12 @@
       <c r="O52" s="7"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="278">
+      <c r="S52" s="279">
         <f>Q50+R50+S50+T50+U50+V50+W50+X50</f>
-        <v>4015</v>
-      </c>
-      <c r="T52" s="279"/>
-      <c r="U52" s="280"/>
+        <v>19258</v>
+      </c>
+      <c r="T52" s="280"/>
+      <c r="U52" s="281"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
@@ -8231,20 +8344,755 @@
       <c r="W53" s="78"/>
       <c r="X53" s="78"/>
     </row>
+    <row r="63" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:24" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="7"/>
+      <c r="C64" s="269" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="270"/>
+      <c r="E64" s="270"/>
+      <c r="F64" s="270"/>
+      <c r="G64" s="270"/>
+      <c r="H64" s="270"/>
+      <c r="I64" s="270"/>
+      <c r="J64" s="270"/>
+      <c r="K64" s="270"/>
+      <c r="L64" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="M64" s="133"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="271" t="s">
+        <v>19</v>
+      </c>
+      <c r="P64" s="272"/>
+      <c r="Q64" s="272"/>
+      <c r="R64" s="272"/>
+      <c r="S64" s="272"/>
+      <c r="T64" s="272"/>
+      <c r="U64" s="272"/>
+      <c r="V64" s="272"/>
+      <c r="W64" s="272"/>
+      <c r="X64" s="190" t="str">
+        <f>L64</f>
+        <v># 01</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="7"/>
+      <c r="C65" s="1"/>
+      <c r="I65" s="273" t="s">
+        <v>347</v>
+      </c>
+      <c r="J65" s="274"/>
+      <c r="K65" s="275"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="134"/>
+      <c r="N65" s="74"/>
+      <c r="O65" s="7"/>
+      <c r="V65" s="273" t="str">
+        <f>I65</f>
+        <v>del   - al  01  DICIEMBRE    2023</v>
+      </c>
+      <c r="W65" s="274"/>
+      <c r="X65" s="275"/>
+    </row>
+    <row r="66" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" s="135"/>
+      <c r="N66" s="82"/>
+      <c r="O66" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="P66" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="R66" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="T66" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="137" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="141" t="s">
+        <v>25</v>
+      </c>
+      <c r="W66" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="X66" s="142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C67" s="234" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P67" s="234" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q67" s="72"/>
+      <c r="R67" s="72"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="72"/>
+      <c r="V67" s="72"/>
+      <c r="W67" s="72"/>
+      <c r="X67" s="72">
+        <v>280</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="131"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P68" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q68" s="67"/>
+      <c r="R68" s="67"/>
+      <c r="S68" s="67"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="67"/>
+      <c r="V68" s="67"/>
+      <c r="W68" s="67"/>
+      <c r="X68" s="67"/>
+    </row>
+    <row r="69" spans="2:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="131"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P69" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q69" s="67"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="67"/>
+      <c r="U69" s="67"/>
+      <c r="V69" s="67"/>
+      <c r="W69" s="67"/>
+      <c r="X69" s="67"/>
+    </row>
+    <row r="70" spans="2:27" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C70" s="96" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="131"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P70" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
+      <c r="U70" s="67"/>
+      <c r="V70" s="67"/>
+      <c r="W70" s="67"/>
+      <c r="X70" s="67"/>
+    </row>
+    <row r="71" spans="2:27" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P71" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q71" s="67"/>
+      <c r="R71" s="67"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="67"/>
+      <c r="U71" s="67"/>
+      <c r="V71" s="67"/>
+      <c r="W71" s="67"/>
+      <c r="X71" s="67"/>
+      <c r="Y71" s="242"/>
+    </row>
+    <row r="72" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C72" s="254" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="74"/>
+      <c r="O72" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P72" s="259" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="72"/>
+      <c r="U72" s="72"/>
+      <c r="V72" s="72"/>
+      <c r="W72" s="72"/>
+      <c r="X72" s="255"/>
+      <c r="Y72" s="258" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C73" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="94"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P73" s="260" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q73" s="72"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="72"/>
+      <c r="T73" s="72"/>
+      <c r="U73" s="72"/>
+      <c r="V73" s="72"/>
+      <c r="W73" s="72"/>
+      <c r="X73" s="67"/>
+      <c r="Y73" s="129"/>
+    </row>
+    <row r="74" spans="2:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C74" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P74" s="195" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="72"/>
+      <c r="T74" s="72"/>
+      <c r="U74" s="72"/>
+      <c r="V74" s="72">
+        <f>800+2935</f>
+        <v>3735</v>
+      </c>
+      <c r="W74" s="72"/>
+      <c r="X74" s="67"/>
+    </row>
+    <row r="75" spans="2:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C75" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67">
+        <v>420</v>
+      </c>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="67"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P75" s="192" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q75" s="72"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="72"/>
+      <c r="V75" s="72"/>
+      <c r="W75" s="72"/>
+      <c r="X75" s="67"/>
+    </row>
+    <row r="76" spans="2:27" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C76" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67">
+        <v>500</v>
+      </c>
+      <c r="M76" s="131"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="P76" s="194"/>
+      <c r="Q76" s="72"/>
+      <c r="R76" s="72"/>
+      <c r="S76" s="72"/>
+      <c r="T76" s="72"/>
+      <c r="U76" s="72"/>
+      <c r="V76" s="72"/>
+      <c r="W76" s="72"/>
+      <c r="X76" s="67"/>
+    </row>
+    <row r="77" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="93"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="67"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="93"/>
+      <c r="P77" s="88"/>
+      <c r="Q77" s="72"/>
+      <c r="R77" s="72"/>
+      <c r="S77" s="72"/>
+      <c r="T77" s="72"/>
+      <c r="U77" s="72"/>
+      <c r="V77" s="72"/>
+      <c r="W77" s="72"/>
+      <c r="X77" s="67"/>
+    </row>
+    <row r="78" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="93"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="93"/>
+      <c r="P78" s="91"/>
+      <c r="Q78" s="67"/>
+      <c r="R78" s="67"/>
+      <c r="S78" s="67"/>
+      <c r="T78" s="67"/>
+      <c r="U78" s="67"/>
+      <c r="V78" s="67"/>
+      <c r="W78" s="67"/>
+      <c r="X78" s="67"/>
+    </row>
+    <row r="79" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="93"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67"/>
+      <c r="K79" s="67"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="93"/>
+      <c r="P79" s="91"/>
+      <c r="Q79" s="67"/>
+      <c r="R79" s="67"/>
+      <c r="S79" s="67"/>
+      <c r="T79" s="67"/>
+      <c r="U79" s="67"/>
+      <c r="V79" s="67"/>
+      <c r="W79" s="67"/>
+      <c r="X79" s="67"/>
+    </row>
+    <row r="80" spans="2:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="9"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="131"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="73">
+        <v>0</v>
+      </c>
+      <c r="R80" s="73"/>
+      <c r="S80" s="73"/>
+      <c r="T80" s="73"/>
+      <c r="U80" s="73"/>
+      <c r="V80" s="73"/>
+      <c r="W80" s="73"/>
+      <c r="X80" s="73"/>
+    </row>
+    <row r="81" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="7"/>
+      <c r="C81" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="30">
+        <f>SUM(D67:D80)</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="30">
+        <f t="shared" ref="E81:L81" si="4">SUM(E67:E80)</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="30">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="I81" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="30">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="M81" s="132"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q81" s="21">
+        <f t="shared" ref="Q81:X81" si="5">SUM(Q67:Q80)</f>
+        <v>0</v>
+      </c>
+      <c r="R81" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="21">
+        <f t="shared" si="5"/>
+        <v>3735</v>
+      </c>
+      <c r="W81" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X81" s="21">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="7"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="76"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="7"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+    </row>
+    <row r="83" spans="1:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="7"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="276">
+        <f>K81+J81+I81+H81+G81+F81+E81+D81+L81</f>
+        <v>920</v>
+      </c>
+      <c r="G83" s="277"/>
+      <c r="H83" s="278"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="7"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="279">
+        <f>Q81+R81+S81+T81+U81+V81+W81+X81</f>
+        <v>4015</v>
+      </c>
+      <c r="T83" s="280"/>
+      <c r="U83" s="281"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+    </row>
+    <row r="84" spans="1:24" s="80" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A84" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="235"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="236"/>
+      <c r="G84" s="237"/>
+      <c r="H84" s="237"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="78"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="235"/>
+      <c r="Q84" s="78"/>
+      <c r="R84" s="78"/>
+      <c r="S84" s="236"/>
+      <c r="T84" s="237"/>
+      <c r="U84" s="237"/>
+      <c r="V84" s="78"/>
+      <c r="W84" s="78"/>
+      <c r="X84" s="78"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="S21:U21"/>
     <mergeCell ref="C33:K33"/>
     <mergeCell ref="O33:W33"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="V34:X34"/>
     <mergeCell ref="F52:H52"/>
     <mergeCell ref="S52:U52"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="O64:W64"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="S83:U83"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.37" bottom="0.35" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8280,33 +9128,33 @@
     <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
-      <c r="C2" s="268" t="s">
+      <c r="C2" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
       <c r="L2" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M2" s="133"/>
       <c r="N2" s="81"/>
-      <c r="O2" s="270" t="s">
+      <c r="O2" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="271"/>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="271"/>
-      <c r="S2" s="271"/>
-      <c r="T2" s="271"/>
-      <c r="U2" s="271"/>
-      <c r="V2" s="271"/>
-      <c r="W2" s="271"/>
+      <c r="P2" s="272"/>
+      <c r="Q2" s="272"/>
+      <c r="R2" s="272"/>
+      <c r="S2" s="272"/>
+      <c r="T2" s="272"/>
+      <c r="U2" s="272"/>
+      <c r="V2" s="272"/>
+      <c r="W2" s="272"/>
       <c r="X2" s="190" t="str">
         <f>L2</f>
         <v># 05</v>
@@ -8315,21 +9163,21 @@
     <row r="3" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7"/>
       <c r="C3" s="1"/>
-      <c r="I3" s="272" t="s">
+      <c r="I3" s="273" t="s">
         <v>321</v>
       </c>
-      <c r="J3" s="273"/>
-      <c r="K3" s="274"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="275"/>
       <c r="L3" s="68"/>
       <c r="M3" s="134"/>
       <c r="N3" s="74"/>
       <c r="O3" s="7"/>
-      <c r="V3" s="272" t="str">
+      <c r="V3" s="273" t="str">
         <f>I3</f>
         <v>del   25- al  30   NOVIEMBRE  2023</v>
       </c>
-      <c r="W3" s="273"/>
-      <c r="X3" s="274"/>
+      <c r="W3" s="274"/>
+      <c r="X3" s="275"/>
     </row>
     <row r="4" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -8997,12 +9845,12 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="275">
+      <c r="F21" s="276">
         <f>K19+J19+I19+H19+G19+F19+E19+D19+L19</f>
         <v>14252</v>
       </c>
-      <c r="G21" s="276"/>
-      <c r="H21" s="277"/>
+      <c r="G21" s="277"/>
+      <c r="H21" s="278"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -9012,12 +9860,12 @@
       <c r="O21" s="7"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="278">
+      <c r="S21" s="279">
         <f>Q19+R19+S19+T19+U19+V19+W19+X19</f>
         <v>26704</v>
       </c>
-      <c r="T21" s="279"/>
-      <c r="U21" s="280"/>
+      <c r="T21" s="280"/>
+      <c r="U21" s="281"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -9104,33 +9952,33 @@
     <row r="28" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
-      <c r="C29" s="268" t="s">
+      <c r="C29" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="269"/>
-      <c r="E29" s="269"/>
-      <c r="F29" s="269"/>
-      <c r="G29" s="269"/>
-      <c r="H29" s="269"/>
-      <c r="I29" s="269"/>
-      <c r="J29" s="269"/>
-      <c r="K29" s="269"/>
+      <c r="D29" s="270"/>
+      <c r="E29" s="270"/>
+      <c r="F29" s="270"/>
+      <c r="G29" s="270"/>
+      <c r="H29" s="270"/>
+      <c r="I29" s="270"/>
+      <c r="J29" s="270"/>
+      <c r="K29" s="270"/>
       <c r="L29" s="128" t="s">
         <v>208</v>
       </c>
       <c r="M29" s="133"/>
       <c r="N29" s="81"/>
-      <c r="O29" s="270" t="s">
+      <c r="O29" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="271"/>
-      <c r="Q29" s="271"/>
-      <c r="R29" s="271"/>
-      <c r="S29" s="271"/>
-      <c r="T29" s="271"/>
-      <c r="U29" s="271"/>
-      <c r="V29" s="271"/>
-      <c r="W29" s="271"/>
+      <c r="P29" s="272"/>
+      <c r="Q29" s="272"/>
+      <c r="R29" s="272"/>
+      <c r="S29" s="272"/>
+      <c r="T29" s="272"/>
+      <c r="U29" s="272"/>
+      <c r="V29" s="272"/>
+      <c r="W29" s="272"/>
       <c r="X29" s="190" t="str">
         <f>L29</f>
         <v># 05</v>
@@ -9139,21 +9987,21 @@
     <row r="30" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="1"/>
-      <c r="I30" s="272" t="s">
+      <c r="I30" s="273" t="s">
         <v>321</v>
       </c>
-      <c r="J30" s="273"/>
-      <c r="K30" s="274"/>
+      <c r="J30" s="274"/>
+      <c r="K30" s="275"/>
       <c r="L30" s="68"/>
       <c r="M30" s="134"/>
       <c r="N30" s="74"/>
       <c r="O30" s="7"/>
-      <c r="V30" s="272" t="str">
+      <c r="V30" s="273" t="str">
         <f>I30</f>
         <v>del   25- al  30   NOVIEMBRE  2023</v>
       </c>
-      <c r="W30" s="273"/>
-      <c r="X30" s="274"/>
+      <c r="W30" s="274"/>
+      <c r="X30" s="275"/>
     </row>
     <row r="31" spans="1:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
@@ -9821,12 +10669,12 @@
       <c r="C48" s="1"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="275">
+      <c r="F48" s="276">
         <f>K46+J46+I46+H46+G46+F46+E46+D46+L46</f>
         <v>13752</v>
       </c>
-      <c r="G48" s="276"/>
-      <c r="H48" s="277"/>
+      <c r="G48" s="277"/>
+      <c r="H48" s="278"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -9836,12 +10684,12 @@
       <c r="O48" s="7"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="278">
+      <c r="S48" s="279">
         <f>Q46+R46+S46+T46+U46+V46+W46+X46</f>
         <v>22689</v>
       </c>
-      <c r="T48" s="279"/>
-      <c r="U48" s="280"/>
+      <c r="T48" s="280"/>
+      <c r="U48" s="281"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -10020,33 +10868,33 @@
     <row r="59" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="7"/>
-      <c r="C60" s="268" t="s">
+      <c r="C60" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="269"/>
-      <c r="E60" s="269"/>
-      <c r="F60" s="269"/>
-      <c r="G60" s="269"/>
-      <c r="H60" s="269"/>
-      <c r="I60" s="269"/>
-      <c r="J60" s="269"/>
-      <c r="K60" s="269"/>
+      <c r="D60" s="270"/>
+      <c r="E60" s="270"/>
+      <c r="F60" s="270"/>
+      <c r="G60" s="270"/>
+      <c r="H60" s="270"/>
+      <c r="I60" s="270"/>
+      <c r="J60" s="270"/>
+      <c r="K60" s="270"/>
       <c r="L60" s="128" t="s">
         <v>88</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="81"/>
-      <c r="O60" s="270" t="s">
+      <c r="O60" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="271"/>
-      <c r="Q60" s="271"/>
-      <c r="R60" s="271"/>
-      <c r="S60" s="271"/>
-      <c r="T60" s="271"/>
-      <c r="U60" s="271"/>
-      <c r="V60" s="271"/>
-      <c r="W60" s="271"/>
+      <c r="P60" s="272"/>
+      <c r="Q60" s="272"/>
+      <c r="R60" s="272"/>
+      <c r="S60" s="272"/>
+      <c r="T60" s="272"/>
+      <c r="U60" s="272"/>
+      <c r="V60" s="272"/>
+      <c r="W60" s="272"/>
       <c r="X60" s="190" t="str">
         <f>L60</f>
         <v># 04</v>
@@ -10055,21 +10903,21 @@
     <row r="61" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
       <c r="C61" s="1"/>
-      <c r="I61" s="272" t="s">
+      <c r="I61" s="273" t="s">
         <v>306</v>
       </c>
-      <c r="J61" s="273"/>
-      <c r="K61" s="274"/>
+      <c r="J61" s="274"/>
+      <c r="K61" s="275"/>
       <c r="L61" s="68"/>
       <c r="M61" s="134"/>
       <c r="N61" s="74"/>
       <c r="O61" s="7"/>
-      <c r="V61" s="272" t="str">
+      <c r="V61" s="273" t="str">
         <f>I61</f>
         <v>del   18- al  24   NOVIEMBRE  2023</v>
       </c>
-      <c r="W61" s="273"/>
-      <c r="X61" s="274"/>
+      <c r="W61" s="274"/>
+      <c r="X61" s="275"/>
     </row>
     <row r="62" spans="1:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
@@ -10735,12 +11583,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="275">
+      <c r="F79" s="276">
         <f>K77+J77+I77+H77+G77+F77+E77+D77+L77</f>
         <v>10727</v>
       </c>
-      <c r="G79" s="276"/>
-      <c r="H79" s="277"/>
+      <c r="G79" s="277"/>
+      <c r="H79" s="278"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -10750,12 +11598,12 @@
       <c r="O79" s="7"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="278">
+      <c r="S79" s="279">
         <f>Q77+R77+S77+T77+U77+V77+W77+X77</f>
         <v>17666</v>
       </c>
-      <c r="T79" s="279"/>
-      <c r="U79" s="280"/>
+      <c r="T79" s="280"/>
+      <c r="U79" s="281"/>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -10883,33 +11731,33 @@
     <row r="88" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="2:27" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B89" s="7"/>
-      <c r="C89" s="268" t="s">
+      <c r="C89" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="269"/>
-      <c r="E89" s="269"/>
-      <c r="F89" s="269"/>
-      <c r="G89" s="269"/>
-      <c r="H89" s="269"/>
-      <c r="I89" s="269"/>
-      <c r="J89" s="269"/>
-      <c r="K89" s="269"/>
+      <c r="D89" s="270"/>
+      <c r="E89" s="270"/>
+      <c r="F89" s="270"/>
+      <c r="G89" s="270"/>
+      <c r="H89" s="270"/>
+      <c r="I89" s="270"/>
+      <c r="J89" s="270"/>
+      <c r="K89" s="270"/>
       <c r="L89" s="128" t="s">
         <v>66</v>
       </c>
       <c r="M89" s="133"/>
       <c r="N89" s="81"/>
-      <c r="O89" s="270" t="s">
+      <c r="O89" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="P89" s="271"/>
-      <c r="Q89" s="271"/>
-      <c r="R89" s="271"/>
-      <c r="S89" s="271"/>
-      <c r="T89" s="271"/>
-      <c r="U89" s="271"/>
-      <c r="V89" s="271"/>
-      <c r="W89" s="271"/>
+      <c r="P89" s="272"/>
+      <c r="Q89" s="272"/>
+      <c r="R89" s="272"/>
+      <c r="S89" s="272"/>
+      <c r="T89" s="272"/>
+      <c r="U89" s="272"/>
+      <c r="V89" s="272"/>
+      <c r="W89" s="272"/>
       <c r="X89" s="190" t="str">
         <f>L89</f>
         <v># 03</v>
@@ -10918,21 +11766,21 @@
     <row r="90" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7"/>
       <c r="C90" s="1"/>
-      <c r="I90" s="272" t="s">
+      <c r="I90" s="273" t="s">
         <v>290</v>
       </c>
-      <c r="J90" s="273"/>
-      <c r="K90" s="274"/>
+      <c r="J90" s="274"/>
+      <c r="K90" s="275"/>
       <c r="L90" s="68"/>
       <c r="M90" s="134"/>
       <c r="N90" s="74"/>
       <c r="O90" s="7"/>
-      <c r="V90" s="272" t="str">
+      <c r="V90" s="273" t="str">
         <f>I90</f>
         <v>del   11- al  17   NOVIEMBRE  2023</v>
       </c>
-      <c r="W90" s="273"/>
-      <c r="X90" s="274"/>
+      <c r="W90" s="274"/>
+      <c r="X90" s="275"/>
     </row>
     <row r="91" spans="2:27" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
@@ -11606,12 +12454,12 @@
       <c r="C108" s="1"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="275">
+      <c r="F108" s="276">
         <f>K106+J106+I106+H106+G106+F106+E106+D106+L106</f>
         <v>12113</v>
       </c>
-      <c r="G108" s="276"/>
-      <c r="H108" s="277"/>
+      <c r="G108" s="277"/>
+      <c r="H108" s="278"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -11621,12 +12469,12 @@
       <c r="O108" s="7"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
-      <c r="S108" s="278">
+      <c r="S108" s="279">
         <f>Q106+R106+S106+T106+U106+V106+W106+X106</f>
         <v>23360.5</v>
       </c>
-      <c r="T108" s="279"/>
-      <c r="U108" s="280"/>
+      <c r="T108" s="280"/>
+      <c r="U108" s="281"/>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
@@ -11658,33 +12506,33 @@
     <row r="119" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:25" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B120" s="7"/>
-      <c r="C120" s="268" t="s">
+      <c r="C120" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="269"/>
-      <c r="E120" s="269"/>
-      <c r="F120" s="269"/>
-      <c r="G120" s="269"/>
-      <c r="H120" s="269"/>
-      <c r="I120" s="269"/>
-      <c r="J120" s="269"/>
-      <c r="K120" s="269"/>
+      <c r="D120" s="270"/>
+      <c r="E120" s="270"/>
+      <c r="F120" s="270"/>
+      <c r="G120" s="270"/>
+      <c r="H120" s="270"/>
+      <c r="I120" s="270"/>
+      <c r="J120" s="270"/>
+      <c r="K120" s="270"/>
       <c r="L120" s="128" t="s">
         <v>42</v>
       </c>
       <c r="M120" s="133"/>
       <c r="N120" s="81"/>
-      <c r="O120" s="270" t="s">
+      <c r="O120" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="P120" s="271"/>
-      <c r="Q120" s="271"/>
-      <c r="R120" s="271"/>
-      <c r="S120" s="271"/>
-      <c r="T120" s="271"/>
-      <c r="U120" s="271"/>
-      <c r="V120" s="271"/>
-      <c r="W120" s="271"/>
+      <c r="P120" s="272"/>
+      <c r="Q120" s="272"/>
+      <c r="R120" s="272"/>
+      <c r="S120" s="272"/>
+      <c r="T120" s="272"/>
+      <c r="U120" s="272"/>
+      <c r="V120" s="272"/>
+      <c r="W120" s="272"/>
       <c r="X120" s="190" t="str">
         <f>L120</f>
         <v># 02</v>
@@ -11693,21 +12541,21 @@
     <row r="121" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
       <c r="C121" s="1"/>
-      <c r="I121" s="272" t="s">
+      <c r="I121" s="273" t="s">
         <v>275</v>
       </c>
-      <c r="J121" s="273"/>
-      <c r="K121" s="274"/>
+      <c r="J121" s="274"/>
+      <c r="K121" s="275"/>
       <c r="L121" s="68"/>
       <c r="M121" s="134"/>
       <c r="N121" s="74"/>
       <c r="O121" s="7"/>
-      <c r="V121" s="272" t="str">
+      <c r="V121" s="273" t="str">
         <f>I121</f>
         <v>del   04- al  10   NOVIEMBRE  2023</v>
       </c>
-      <c r="W121" s="273"/>
-      <c r="X121" s="274"/>
+      <c r="W121" s="274"/>
+      <